--- a/Guild Digital/Example CHT application/forms/app/wash_assessment.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/wash_assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -114,9 +114,6 @@
     <t xml:space="preserve">db-object</t>
   </si>
   <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">end group</t>
   </si>
   <si>
@@ -144,13 +141,14 @@
     <t xml:space="preserve">How many WASH assessment visits have you made?</t>
   </si>
   <si>
-    <t xml:space="preserve">db:health_center</t>
-  </si>
-  <si>
     <t xml:space="preserve">wash_area_conducted</t>
   </si>
   <si>
     <t xml:space="preserve">Where have you conducted these WASH assessments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">select-contact type-health_center
+</t>
   </si>
   <si>
     <t xml:space="preserve">select_one select_yesno</t>
@@ -340,7 +338,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WASH assessment Areas: ${wash_area_conducted}&lt;</t>
+      <t xml:space="preserve">WASH assessment Areas: ${name}&lt;</t>
     </r>
     <r>
       <rPr>
@@ -504,7 +502,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -554,6 +552,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -569,6 +573,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -631,7 +642,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -660,44 +671,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -712,7 +695,43 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -901,19 +920,21 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C15" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C31" activeCellId="0" sqref="C31"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="82.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.54"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="60.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="7" style="1" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.93"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="40.46"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1047,23 +1068,1037 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
+      <c r="BL7" s="1"/>
+      <c r="BM7" s="1"/>
+      <c r="BN7" s="1"/>
+      <c r="BO7" s="1"/>
+      <c r="BP7" s="1"/>
+      <c r="BQ7" s="1"/>
+      <c r="BR7" s="1"/>
+      <c r="BS7" s="1"/>
+      <c r="BT7" s="1"/>
+      <c r="BU7" s="1"/>
+      <c r="BV7" s="1"/>
+      <c r="BW7" s="1"/>
+      <c r="BX7" s="1"/>
+      <c r="BY7" s="1"/>
+      <c r="BZ7" s="1"/>
+      <c r="CA7" s="1"/>
+      <c r="CB7" s="1"/>
+      <c r="CC7" s="1"/>
+      <c r="CD7" s="1"/>
+      <c r="CE7" s="1"/>
+      <c r="CF7" s="1"/>
+      <c r="CG7" s="1"/>
+      <c r="CH7" s="1"/>
+      <c r="CI7" s="1"/>
+      <c r="CJ7" s="1"/>
+      <c r="CK7" s="1"/>
+      <c r="CL7" s="1"/>
+      <c r="CM7" s="1"/>
+      <c r="CN7" s="1"/>
+      <c r="CO7" s="1"/>
+      <c r="CP7" s="1"/>
+      <c r="CQ7" s="1"/>
+      <c r="CR7" s="1"/>
+      <c r="CS7" s="1"/>
+      <c r="CT7" s="1"/>
+      <c r="CU7" s="1"/>
+      <c r="CV7" s="1"/>
+      <c r="CW7" s="1"/>
+      <c r="CX7" s="1"/>
+      <c r="CY7" s="1"/>
+      <c r="CZ7" s="1"/>
+      <c r="DA7" s="1"/>
+      <c r="DB7" s="1"/>
+      <c r="DC7" s="1"/>
+      <c r="DD7" s="1"/>
+      <c r="DE7" s="1"/>
+      <c r="DF7" s="1"/>
+      <c r="DG7" s="1"/>
+      <c r="DH7" s="1"/>
+      <c r="DI7" s="1"/>
+      <c r="DJ7" s="1"/>
+      <c r="DK7" s="1"/>
+      <c r="DL7" s="1"/>
+      <c r="DM7" s="1"/>
+      <c r="DN7" s="1"/>
+      <c r="DO7" s="1"/>
+      <c r="DP7" s="1"/>
+      <c r="DQ7" s="1"/>
+      <c r="DR7" s="1"/>
+      <c r="DS7" s="1"/>
+      <c r="DT7" s="1"/>
+      <c r="DU7" s="1"/>
+      <c r="DV7" s="1"/>
+      <c r="DW7" s="1"/>
+      <c r="DX7" s="1"/>
+      <c r="DY7" s="1"/>
+      <c r="DZ7" s="1"/>
+      <c r="EA7" s="1"/>
+      <c r="EB7" s="1"/>
+      <c r="EC7" s="1"/>
+      <c r="ED7" s="1"/>
+      <c r="EE7" s="1"/>
+      <c r="EF7" s="1"/>
+      <c r="EG7" s="1"/>
+      <c r="EH7" s="1"/>
+      <c r="EI7" s="1"/>
+      <c r="EJ7" s="1"/>
+      <c r="EK7" s="1"/>
+      <c r="EL7" s="1"/>
+      <c r="EM7" s="1"/>
+      <c r="EN7" s="1"/>
+      <c r="EO7" s="1"/>
+      <c r="EP7" s="1"/>
+      <c r="EQ7" s="1"/>
+      <c r="ER7" s="1"/>
+      <c r="ES7" s="1"/>
+      <c r="ET7" s="1"/>
+      <c r="EU7" s="1"/>
+      <c r="EV7" s="1"/>
+      <c r="EW7" s="1"/>
+      <c r="EX7" s="1"/>
+      <c r="EY7" s="1"/>
+      <c r="EZ7" s="1"/>
+      <c r="FA7" s="1"/>
+      <c r="FB7" s="1"/>
+      <c r="FC7" s="1"/>
+      <c r="FD7" s="1"/>
+      <c r="FE7" s="1"/>
+      <c r="FF7" s="1"/>
+      <c r="FG7" s="1"/>
+      <c r="FH7" s="1"/>
+      <c r="FI7" s="1"/>
+      <c r="FJ7" s="1"/>
+      <c r="FK7" s="1"/>
+      <c r="FL7" s="1"/>
+      <c r="FM7" s="1"/>
+      <c r="FN7" s="1"/>
+      <c r="FO7" s="1"/>
+      <c r="FP7" s="1"/>
+      <c r="FQ7" s="1"/>
+      <c r="FR7" s="1"/>
+      <c r="FS7" s="1"/>
+      <c r="FT7" s="1"/>
+      <c r="FU7" s="1"/>
+      <c r="FV7" s="1"/>
+      <c r="FW7" s="1"/>
+      <c r="FX7" s="1"/>
+      <c r="FY7" s="1"/>
+      <c r="FZ7" s="1"/>
+      <c r="GA7" s="1"/>
+      <c r="GB7" s="1"/>
+      <c r="GC7" s="1"/>
+      <c r="GD7" s="1"/>
+      <c r="GE7" s="1"/>
+      <c r="GF7" s="1"/>
+      <c r="GG7" s="1"/>
+      <c r="GH7" s="1"/>
+      <c r="GI7" s="1"/>
+      <c r="GJ7" s="1"/>
+      <c r="GK7" s="1"/>
+      <c r="GL7" s="1"/>
+      <c r="GM7" s="1"/>
+      <c r="GN7" s="1"/>
+      <c r="GO7" s="1"/>
+      <c r="GP7" s="1"/>
+      <c r="GQ7" s="1"/>
+      <c r="GR7" s="1"/>
+      <c r="GS7" s="1"/>
+      <c r="GT7" s="1"/>
+      <c r="GU7" s="1"/>
+      <c r="GV7" s="1"/>
+      <c r="GW7" s="1"/>
+      <c r="GX7" s="1"/>
+      <c r="GY7" s="1"/>
+      <c r="GZ7" s="1"/>
+      <c r="HA7" s="1"/>
+      <c r="HB7" s="1"/>
+      <c r="HC7" s="1"/>
+      <c r="HD7" s="1"/>
+      <c r="HE7" s="1"/>
+      <c r="HF7" s="1"/>
+      <c r="HG7" s="1"/>
+      <c r="HH7" s="1"/>
+      <c r="HI7" s="1"/>
+      <c r="HJ7" s="1"/>
+      <c r="HK7" s="1"/>
+      <c r="HL7" s="1"/>
+      <c r="HM7" s="1"/>
+      <c r="HN7" s="1"/>
+      <c r="HO7" s="1"/>
+      <c r="HP7" s="1"/>
+      <c r="HQ7" s="1"/>
+      <c r="HR7" s="1"/>
+      <c r="HS7" s="1"/>
+      <c r="HT7" s="1"/>
+      <c r="HU7" s="1"/>
+      <c r="HV7" s="1"/>
+      <c r="HW7" s="1"/>
+      <c r="HX7" s="1"/>
+      <c r="HY7" s="1"/>
+      <c r="HZ7" s="1"/>
+      <c r="IA7" s="1"/>
+      <c r="IB7" s="1"/>
+      <c r="IC7" s="1"/>
+      <c r="ID7" s="1"/>
+      <c r="IE7" s="1"/>
+      <c r="IF7" s="1"/>
+      <c r="IG7" s="1"/>
+      <c r="IH7" s="1"/>
+      <c r="II7" s="1"/>
+      <c r="IJ7" s="1"/>
+      <c r="IK7" s="1"/>
+      <c r="IL7" s="1"/>
+      <c r="IM7" s="1"/>
+      <c r="IN7" s="1"/>
+      <c r="IO7" s="1"/>
+      <c r="IP7" s="1"/>
+      <c r="IQ7" s="1"/>
+      <c r="IR7" s="1"/>
+      <c r="IS7" s="1"/>
+      <c r="IT7" s="1"/>
+      <c r="IU7" s="1"/>
+      <c r="IV7" s="1"/>
+      <c r="IW7" s="1"/>
+      <c r="IX7" s="1"/>
+      <c r="IY7" s="1"/>
+      <c r="IZ7" s="1"/>
+      <c r="JA7" s="1"/>
+      <c r="JB7" s="1"/>
+      <c r="JC7" s="1"/>
+      <c r="JD7" s="1"/>
+      <c r="JE7" s="1"/>
+      <c r="JF7" s="1"/>
+      <c r="JG7" s="1"/>
+      <c r="JH7" s="1"/>
+      <c r="JI7" s="1"/>
+      <c r="JJ7" s="1"/>
+      <c r="JK7" s="1"/>
+      <c r="JL7" s="1"/>
+      <c r="JM7" s="1"/>
+      <c r="JN7" s="1"/>
+      <c r="JO7" s="1"/>
+      <c r="JP7" s="1"/>
+      <c r="JQ7" s="1"/>
+      <c r="JR7" s="1"/>
+      <c r="JS7" s="1"/>
+      <c r="JT7" s="1"/>
+      <c r="JU7" s="1"/>
+      <c r="JV7" s="1"/>
+      <c r="JW7" s="1"/>
+      <c r="JX7" s="1"/>
+      <c r="JY7" s="1"/>
+      <c r="JZ7" s="1"/>
+      <c r="KA7" s="1"/>
+      <c r="KB7" s="1"/>
+      <c r="KC7" s="1"/>
+      <c r="KD7" s="1"/>
+      <c r="KE7" s="1"/>
+      <c r="KF7" s="1"/>
+      <c r="KG7" s="1"/>
+      <c r="KH7" s="1"/>
+      <c r="KI7" s="1"/>
+      <c r="KJ7" s="1"/>
+      <c r="KK7" s="1"/>
+      <c r="KL7" s="1"/>
+      <c r="KM7" s="1"/>
+      <c r="KN7" s="1"/>
+      <c r="KO7" s="1"/>
+      <c r="KP7" s="1"/>
+      <c r="KQ7" s="1"/>
+      <c r="KR7" s="1"/>
+      <c r="KS7" s="1"/>
+      <c r="KT7" s="1"/>
+      <c r="KU7" s="1"/>
+      <c r="KV7" s="1"/>
+      <c r="KW7" s="1"/>
+      <c r="KX7" s="1"/>
+      <c r="KY7" s="1"/>
+      <c r="KZ7" s="1"/>
+      <c r="LA7" s="1"/>
+      <c r="LB7" s="1"/>
+      <c r="LC7" s="1"/>
+      <c r="LD7" s="1"/>
+      <c r="LE7" s="1"/>
+      <c r="LF7" s="1"/>
+      <c r="LG7" s="1"/>
+      <c r="LH7" s="1"/>
+      <c r="LI7" s="1"/>
+      <c r="LJ7" s="1"/>
+      <c r="LK7" s="1"/>
+      <c r="LL7" s="1"/>
+      <c r="LM7" s="1"/>
+      <c r="LN7" s="1"/>
+      <c r="LO7" s="1"/>
+      <c r="LP7" s="1"/>
+      <c r="LQ7" s="1"/>
+      <c r="LR7" s="1"/>
+      <c r="LS7" s="1"/>
+      <c r="LT7" s="1"/>
+      <c r="LU7" s="1"/>
+      <c r="LV7" s="1"/>
+      <c r="LW7" s="1"/>
+      <c r="LX7" s="1"/>
+      <c r="LY7" s="1"/>
+      <c r="LZ7" s="1"/>
+      <c r="MA7" s="1"/>
+      <c r="MB7" s="1"/>
+      <c r="MC7" s="1"/>
+      <c r="MD7" s="1"/>
+      <c r="ME7" s="1"/>
+      <c r="MF7" s="1"/>
+      <c r="MG7" s="1"/>
+      <c r="MH7" s="1"/>
+      <c r="MI7" s="1"/>
+      <c r="MJ7" s="1"/>
+      <c r="MK7" s="1"/>
+      <c r="ML7" s="1"/>
+      <c r="MM7" s="1"/>
+      <c r="MN7" s="1"/>
+      <c r="MO7" s="1"/>
+      <c r="MP7" s="1"/>
+      <c r="MQ7" s="1"/>
+      <c r="MR7" s="1"/>
+      <c r="MS7" s="1"/>
+      <c r="MT7" s="1"/>
+      <c r="MU7" s="1"/>
+      <c r="MV7" s="1"/>
+      <c r="MW7" s="1"/>
+      <c r="MX7" s="1"/>
+      <c r="MY7" s="1"/>
+      <c r="MZ7" s="1"/>
+      <c r="NA7" s="1"/>
+      <c r="NB7" s="1"/>
+      <c r="NC7" s="1"/>
+      <c r="ND7" s="1"/>
+      <c r="NE7" s="1"/>
+      <c r="NF7" s="1"/>
+      <c r="NG7" s="1"/>
+      <c r="NH7" s="1"/>
+      <c r="NI7" s="1"/>
+      <c r="NJ7" s="1"/>
+      <c r="NK7" s="1"/>
+      <c r="NL7" s="1"/>
+      <c r="NM7" s="1"/>
+      <c r="NN7" s="1"/>
+      <c r="NO7" s="1"/>
+      <c r="NP7" s="1"/>
+      <c r="NQ7" s="1"/>
+      <c r="NR7" s="1"/>
+      <c r="NS7" s="1"/>
+      <c r="NT7" s="1"/>
+      <c r="NU7" s="1"/>
+      <c r="NV7" s="1"/>
+      <c r="NW7" s="1"/>
+      <c r="NX7" s="1"/>
+      <c r="NY7" s="1"/>
+      <c r="NZ7" s="1"/>
+      <c r="OA7" s="1"/>
+      <c r="OB7" s="1"/>
+      <c r="OC7" s="1"/>
+      <c r="OD7" s="1"/>
+      <c r="OE7" s="1"/>
+      <c r="OF7" s="1"/>
+      <c r="OG7" s="1"/>
+      <c r="OH7" s="1"/>
+      <c r="OI7" s="1"/>
+      <c r="OJ7" s="1"/>
+      <c r="OK7" s="1"/>
+      <c r="OL7" s="1"/>
+      <c r="OM7" s="1"/>
+      <c r="ON7" s="1"/>
+      <c r="OO7" s="1"/>
+      <c r="OP7" s="1"/>
+      <c r="OQ7" s="1"/>
+      <c r="OR7" s="1"/>
+      <c r="OS7" s="1"/>
+      <c r="OT7" s="1"/>
+      <c r="OU7" s="1"/>
+      <c r="OV7" s="1"/>
+      <c r="OW7" s="1"/>
+      <c r="OX7" s="1"/>
+      <c r="OY7" s="1"/>
+      <c r="OZ7" s="1"/>
+      <c r="PA7" s="1"/>
+      <c r="PB7" s="1"/>
+      <c r="PC7" s="1"/>
+      <c r="PD7" s="1"/>
+      <c r="PE7" s="1"/>
+      <c r="PF7" s="1"/>
+      <c r="PG7" s="1"/>
+      <c r="PH7" s="1"/>
+      <c r="PI7" s="1"/>
+      <c r="PJ7" s="1"/>
+      <c r="PK7" s="1"/>
+      <c r="PL7" s="1"/>
+      <c r="PM7" s="1"/>
+      <c r="PN7" s="1"/>
+      <c r="PO7" s="1"/>
+      <c r="PP7" s="1"/>
+      <c r="PQ7" s="1"/>
+      <c r="PR7" s="1"/>
+      <c r="PS7" s="1"/>
+      <c r="PT7" s="1"/>
+      <c r="PU7" s="1"/>
+      <c r="PV7" s="1"/>
+      <c r="PW7" s="1"/>
+      <c r="PX7" s="1"/>
+      <c r="PY7" s="1"/>
+      <c r="PZ7" s="1"/>
+      <c r="QA7" s="1"/>
+      <c r="QB7" s="1"/>
+      <c r="QC7" s="1"/>
+      <c r="QD7" s="1"/>
+      <c r="QE7" s="1"/>
+      <c r="QF7" s="1"/>
+      <c r="QG7" s="1"/>
+      <c r="QH7" s="1"/>
+      <c r="QI7" s="1"/>
+      <c r="QJ7" s="1"/>
+      <c r="QK7" s="1"/>
+      <c r="QL7" s="1"/>
+      <c r="QM7" s="1"/>
+      <c r="QN7" s="1"/>
+      <c r="QO7" s="1"/>
+      <c r="QP7" s="1"/>
+      <c r="QQ7" s="1"/>
+      <c r="QR7" s="1"/>
+      <c r="QS7" s="1"/>
+      <c r="QT7" s="1"/>
+      <c r="QU7" s="1"/>
+      <c r="QV7" s="1"/>
+      <c r="QW7" s="1"/>
+      <c r="QX7" s="1"/>
+      <c r="QY7" s="1"/>
+      <c r="QZ7" s="1"/>
+      <c r="RA7" s="1"/>
+      <c r="RB7" s="1"/>
+      <c r="RC7" s="1"/>
+      <c r="RD7" s="1"/>
+      <c r="RE7" s="1"/>
+      <c r="RF7" s="1"/>
+      <c r="RG7" s="1"/>
+      <c r="RH7" s="1"/>
+      <c r="RI7" s="1"/>
+      <c r="RJ7" s="1"/>
+      <c r="RK7" s="1"/>
+      <c r="RL7" s="1"/>
+      <c r="RM7" s="1"/>
+      <c r="RN7" s="1"/>
+      <c r="RO7" s="1"/>
+      <c r="RP7" s="1"/>
+      <c r="RQ7" s="1"/>
+      <c r="RR7" s="1"/>
+      <c r="RS7" s="1"/>
+      <c r="RT7" s="1"/>
+      <c r="RU7" s="1"/>
+      <c r="RV7" s="1"/>
+      <c r="RW7" s="1"/>
+      <c r="RX7" s="1"/>
+      <c r="RY7" s="1"/>
+      <c r="RZ7" s="1"/>
+      <c r="SA7" s="1"/>
+      <c r="SB7" s="1"/>
+      <c r="SC7" s="1"/>
+      <c r="SD7" s="1"/>
+      <c r="SE7" s="1"/>
+      <c r="SF7" s="1"/>
+      <c r="SG7" s="1"/>
+      <c r="SH7" s="1"/>
+      <c r="SI7" s="1"/>
+      <c r="SJ7" s="1"/>
+      <c r="SK7" s="1"/>
+      <c r="SL7" s="1"/>
+      <c r="SM7" s="1"/>
+      <c r="SN7" s="1"/>
+      <c r="SO7" s="1"/>
+      <c r="SP7" s="1"/>
+      <c r="SQ7" s="1"/>
+      <c r="SR7" s="1"/>
+      <c r="SS7" s="1"/>
+      <c r="ST7" s="1"/>
+      <c r="SU7" s="1"/>
+      <c r="SV7" s="1"/>
+      <c r="SW7" s="1"/>
+      <c r="SX7" s="1"/>
+      <c r="SY7" s="1"/>
+      <c r="SZ7" s="1"/>
+      <c r="TA7" s="1"/>
+      <c r="TB7" s="1"/>
+      <c r="TC7" s="1"/>
+      <c r="TD7" s="1"/>
+      <c r="TE7" s="1"/>
+      <c r="TF7" s="1"/>
+      <c r="TG7" s="1"/>
+      <c r="TH7" s="1"/>
+      <c r="TI7" s="1"/>
+      <c r="TJ7" s="1"/>
+      <c r="TK7" s="1"/>
+      <c r="TL7" s="1"/>
+      <c r="TM7" s="1"/>
+      <c r="TN7" s="1"/>
+      <c r="TO7" s="1"/>
+      <c r="TP7" s="1"/>
+      <c r="TQ7" s="1"/>
+      <c r="TR7" s="1"/>
+      <c r="TS7" s="1"/>
+      <c r="TT7" s="1"/>
+      <c r="TU7" s="1"/>
+      <c r="TV7" s="1"/>
+      <c r="TW7" s="1"/>
+      <c r="TX7" s="1"/>
+      <c r="TY7" s="1"/>
+      <c r="TZ7" s="1"/>
+      <c r="UA7" s="1"/>
+      <c r="UB7" s="1"/>
+      <c r="UC7" s="1"/>
+      <c r="UD7" s="1"/>
+      <c r="UE7" s="1"/>
+      <c r="UF7" s="1"/>
+      <c r="UG7" s="1"/>
+      <c r="UH7" s="1"/>
+      <c r="UI7" s="1"/>
+      <c r="UJ7" s="1"/>
+      <c r="UK7" s="1"/>
+      <c r="UL7" s="1"/>
+      <c r="UM7" s="1"/>
+      <c r="UN7" s="1"/>
+      <c r="UO7" s="1"/>
+      <c r="UP7" s="1"/>
+      <c r="UQ7" s="1"/>
+      <c r="UR7" s="1"/>
+      <c r="US7" s="1"/>
+      <c r="UT7" s="1"/>
+      <c r="UU7" s="1"/>
+      <c r="UV7" s="1"/>
+      <c r="UW7" s="1"/>
+      <c r="UX7" s="1"/>
+      <c r="UY7" s="1"/>
+      <c r="UZ7" s="1"/>
+      <c r="VA7" s="1"/>
+      <c r="VB7" s="1"/>
+      <c r="VC7" s="1"/>
+      <c r="VD7" s="1"/>
+      <c r="VE7" s="1"/>
+      <c r="VF7" s="1"/>
+      <c r="VG7" s="1"/>
+      <c r="VH7" s="1"/>
+      <c r="VI7" s="1"/>
+      <c r="VJ7" s="1"/>
+      <c r="VK7" s="1"/>
+      <c r="VL7" s="1"/>
+      <c r="VM7" s="1"/>
+      <c r="VN7" s="1"/>
+      <c r="VO7" s="1"/>
+      <c r="VP7" s="1"/>
+      <c r="VQ7" s="1"/>
+      <c r="VR7" s="1"/>
+      <c r="VS7" s="1"/>
+      <c r="VT7" s="1"/>
+      <c r="VU7" s="1"/>
+      <c r="VV7" s="1"/>
+      <c r="VW7" s="1"/>
+      <c r="VX7" s="1"/>
+      <c r="VY7" s="1"/>
+      <c r="VZ7" s="1"/>
+      <c r="WA7" s="1"/>
+      <c r="WB7" s="1"/>
+      <c r="WC7" s="1"/>
+      <c r="WD7" s="1"/>
+      <c r="WE7" s="1"/>
+      <c r="WF7" s="1"/>
+      <c r="WG7" s="1"/>
+      <c r="WH7" s="1"/>
+      <c r="WI7" s="1"/>
+      <c r="WJ7" s="1"/>
+      <c r="WK7" s="1"/>
+      <c r="WL7" s="1"/>
+      <c r="WM7" s="1"/>
+      <c r="WN7" s="1"/>
+      <c r="WO7" s="1"/>
+      <c r="WP7" s="1"/>
+      <c r="WQ7" s="1"/>
+      <c r="WR7" s="1"/>
+      <c r="WS7" s="1"/>
+      <c r="WT7" s="1"/>
+      <c r="WU7" s="1"/>
+      <c r="WV7" s="1"/>
+      <c r="WW7" s="1"/>
+      <c r="WX7" s="1"/>
+      <c r="WY7" s="1"/>
+      <c r="WZ7" s="1"/>
+      <c r="XA7" s="1"/>
+      <c r="XB7" s="1"/>
+      <c r="XC7" s="1"/>
+      <c r="XD7" s="1"/>
+      <c r="XE7" s="1"/>
+      <c r="XF7" s="1"/>
+      <c r="XG7" s="1"/>
+      <c r="XH7" s="1"/>
+      <c r="XI7" s="1"/>
+      <c r="XJ7" s="1"/>
+      <c r="XK7" s="1"/>
+      <c r="XL7" s="1"/>
+      <c r="XM7" s="1"/>
+      <c r="XN7" s="1"/>
+      <c r="XO7" s="1"/>
+      <c r="XP7" s="1"/>
+      <c r="XQ7" s="1"/>
+      <c r="XR7" s="1"/>
+      <c r="XS7" s="1"/>
+      <c r="XT7" s="1"/>
+      <c r="XU7" s="1"/>
+      <c r="XV7" s="1"/>
+      <c r="XW7" s="1"/>
+      <c r="XX7" s="1"/>
+      <c r="XY7" s="1"/>
+      <c r="XZ7" s="1"/>
+      <c r="YA7" s="1"/>
+      <c r="YB7" s="1"/>
+      <c r="YC7" s="1"/>
+      <c r="YD7" s="1"/>
+      <c r="YE7" s="1"/>
+      <c r="YF7" s="1"/>
+      <c r="YG7" s="1"/>
+      <c r="YH7" s="1"/>
+      <c r="YI7" s="1"/>
+      <c r="YJ7" s="1"/>
+      <c r="YK7" s="1"/>
+      <c r="YL7" s="1"/>
+      <c r="YM7" s="1"/>
+      <c r="YN7" s="1"/>
+      <c r="YO7" s="1"/>
+      <c r="YP7" s="1"/>
+      <c r="YQ7" s="1"/>
+      <c r="YR7" s="1"/>
+      <c r="YS7" s="1"/>
+      <c r="YT7" s="1"/>
+      <c r="YU7" s="1"/>
+      <c r="YV7" s="1"/>
+      <c r="YW7" s="1"/>
+      <c r="YX7" s="1"/>
+      <c r="YY7" s="1"/>
+      <c r="YZ7" s="1"/>
+      <c r="ZA7" s="1"/>
+      <c r="ZB7" s="1"/>
+      <c r="ZC7" s="1"/>
+      <c r="ZD7" s="1"/>
+      <c r="ZE7" s="1"/>
+      <c r="ZF7" s="1"/>
+      <c r="ZG7" s="1"/>
+      <c r="ZH7" s="1"/>
+      <c r="ZI7" s="1"/>
+      <c r="ZJ7" s="1"/>
+      <c r="ZK7" s="1"/>
+      <c r="ZL7" s="1"/>
+      <c r="ZM7" s="1"/>
+      <c r="ZN7" s="1"/>
+      <c r="ZO7" s="1"/>
+      <c r="ZP7" s="1"/>
+      <c r="ZQ7" s="1"/>
+      <c r="ZR7" s="1"/>
+      <c r="ZS7" s="1"/>
+      <c r="ZT7" s="1"/>
+      <c r="ZU7" s="1"/>
+      <c r="ZV7" s="1"/>
+      <c r="ZW7" s="1"/>
+      <c r="ZX7" s="1"/>
+      <c r="ZY7" s="1"/>
+      <c r="ZZ7" s="1"/>
+      <c r="AAA7" s="1"/>
+      <c r="AAB7" s="1"/>
+      <c r="AAC7" s="1"/>
+      <c r="AAD7" s="1"/>
+      <c r="AAE7" s="1"/>
+      <c r="AAF7" s="1"/>
+      <c r="AAG7" s="1"/>
+      <c r="AAH7" s="1"/>
+      <c r="AAI7" s="1"/>
+      <c r="AAJ7" s="1"/>
+      <c r="AAK7" s="1"/>
+      <c r="AAL7" s="1"/>
+      <c r="AAM7" s="1"/>
+      <c r="AAN7" s="1"/>
+      <c r="AAO7" s="1"/>
+      <c r="AAP7" s="1"/>
+      <c r="AAQ7" s="1"/>
+      <c r="AAR7" s="1"/>
+      <c r="AAS7" s="1"/>
+      <c r="AAT7" s="1"/>
+      <c r="AAU7" s="1"/>
+      <c r="AAV7" s="1"/>
+      <c r="AAW7" s="1"/>
+      <c r="AAX7" s="1"/>
+      <c r="AAY7" s="1"/>
+      <c r="AAZ7" s="1"/>
+      <c r="ABA7" s="1"/>
+      <c r="ABB7" s="1"/>
+      <c r="ABC7" s="1"/>
+      <c r="ABD7" s="1"/>
+      <c r="ABE7" s="1"/>
+      <c r="ABF7" s="1"/>
+      <c r="ABG7" s="1"/>
+      <c r="ABH7" s="1"/>
+      <c r="ABI7" s="1"/>
+      <c r="ABJ7" s="1"/>
+      <c r="ABK7" s="1"/>
+      <c r="ABL7" s="1"/>
+      <c r="ABM7" s="1"/>
+      <c r="ABN7" s="1"/>
+      <c r="ABO7" s="1"/>
+      <c r="ABP7" s="1"/>
+      <c r="ABQ7" s="1"/>
+      <c r="ABR7" s="1"/>
+      <c r="ABS7" s="1"/>
+      <c r="ABT7" s="1"/>
+      <c r="ABU7" s="1"/>
+      <c r="ABV7" s="1"/>
+      <c r="ABW7" s="1"/>
+      <c r="ABX7" s="1"/>
+      <c r="ABY7" s="1"/>
+      <c r="ABZ7" s="1"/>
+      <c r="ACA7" s="1"/>
+      <c r="ACB7" s="1"/>
+      <c r="ACC7" s="1"/>
+      <c r="ACD7" s="1"/>
+      <c r="ACE7" s="1"/>
+      <c r="ACF7" s="1"/>
+      <c r="ACG7" s="1"/>
+      <c r="ACH7" s="1"/>
+      <c r="ACI7" s="1"/>
+      <c r="ACJ7" s="1"/>
+      <c r="ACK7" s="1"/>
+      <c r="ACL7" s="1"/>
+      <c r="ACM7" s="1"/>
+      <c r="ACN7" s="1"/>
+      <c r="ACO7" s="1"/>
+      <c r="ACP7" s="1"/>
+      <c r="ACQ7" s="1"/>
+      <c r="ACR7" s="1"/>
+      <c r="ACS7" s="1"/>
+      <c r="ACT7" s="1"/>
+      <c r="ACU7" s="1"/>
+      <c r="ACV7" s="1"/>
+      <c r="ACW7" s="1"/>
+      <c r="ACX7" s="1"/>
+      <c r="ACY7" s="1"/>
+      <c r="ACZ7" s="1"/>
+      <c r="ADA7" s="1"/>
+      <c r="ADB7" s="1"/>
+      <c r="ADC7" s="1"/>
+      <c r="ADD7" s="1"/>
+      <c r="ADE7" s="1"/>
+      <c r="ADF7" s="1"/>
+      <c r="ADG7" s="1"/>
+      <c r="ADH7" s="1"/>
+      <c r="ADI7" s="1"/>
+      <c r="ADJ7" s="1"/>
+      <c r="ADK7" s="1"/>
+      <c r="ADL7" s="1"/>
+      <c r="ADM7" s="1"/>
+      <c r="ADN7" s="1"/>
+      <c r="ADO7" s="1"/>
+      <c r="ADP7" s="1"/>
+      <c r="ADQ7" s="1"/>
+      <c r="ADR7" s="1"/>
+      <c r="ADS7" s="1"/>
+      <c r="ADT7" s="1"/>
+      <c r="ADU7" s="1"/>
+      <c r="ADV7" s="1"/>
+      <c r="ADW7" s="1"/>
+      <c r="ADX7" s="1"/>
+      <c r="ADY7" s="1"/>
+      <c r="ADZ7" s="1"/>
+      <c r="AEA7" s="1"/>
+      <c r="AEB7" s="1"/>
+      <c r="AEC7" s="1"/>
+      <c r="AED7" s="1"/>
+      <c r="AEE7" s="1"/>
+      <c r="AEF7" s="1"/>
+      <c r="AEG7" s="1"/>
+      <c r="AEH7" s="1"/>
+      <c r="AEI7" s="1"/>
+      <c r="AEJ7" s="1"/>
+      <c r="AEK7" s="1"/>
+      <c r="AEL7" s="1"/>
+      <c r="AEM7" s="1"/>
+      <c r="AEN7" s="1"/>
+      <c r="AEO7" s="1"/>
+      <c r="AEP7" s="1"/>
+      <c r="AEQ7" s="1"/>
+      <c r="AER7" s="1"/>
+      <c r="AES7" s="1"/>
+      <c r="AET7" s="1"/>
+      <c r="AEU7" s="1"/>
+      <c r="AEV7" s="1"/>
+      <c r="AEW7" s="1"/>
+      <c r="AEX7" s="1"/>
+      <c r="AEY7" s="1"/>
+      <c r="AEZ7" s="1"/>
+      <c r="AFA7" s="1"/>
+      <c r="AFB7" s="1"/>
+      <c r="AFC7" s="1"/>
+      <c r="AFD7" s="1"/>
+      <c r="AFE7" s="1"/>
+      <c r="AFF7" s="1"/>
+      <c r="AFG7" s="1"/>
+      <c r="AFH7" s="1"/>
+      <c r="AFI7" s="1"/>
+      <c r="AFJ7" s="1"/>
+      <c r="AFK7" s="1"/>
+      <c r="AFL7" s="1"/>
+      <c r="AFM7" s="1"/>
+      <c r="AFN7" s="1"/>
+      <c r="AFO7" s="1"/>
+      <c r="AFP7" s="1"/>
+      <c r="AFQ7" s="1"/>
+      <c r="AFR7" s="1"/>
+      <c r="AFS7" s="1"/>
+      <c r="AFT7" s="1"/>
+      <c r="AFU7" s="1"/>
+      <c r="AFV7" s="1"/>
+      <c r="AFW7" s="1"/>
+      <c r="AFX7" s="1"/>
+      <c r="AFY7" s="1"/>
+      <c r="AFZ7" s="1"/>
+      <c r="AGA7" s="1"/>
+      <c r="AGB7" s="1"/>
+      <c r="AGC7" s="1"/>
+      <c r="AGD7" s="1"/>
+      <c r="AGE7" s="1"/>
+      <c r="AGF7" s="1"/>
+      <c r="AGG7" s="1"/>
+      <c r="AGH7" s="1"/>
+      <c r="AGI7" s="1"/>
+      <c r="AGJ7" s="1"/>
+      <c r="AGK7" s="1"/>
+      <c r="AGL7" s="1"/>
+      <c r="AGM7" s="1"/>
+      <c r="AGN7" s="1"/>
+      <c r="AGO7" s="1"/>
+      <c r="AGP7" s="1"/>
+      <c r="AGQ7" s="1"/>
+      <c r="AGR7" s="1"/>
+      <c r="AGS7" s="1"/>
+      <c r="AGT7" s="1"/>
+      <c r="AGU7" s="1"/>
+      <c r="AGV7" s="1"/>
+      <c r="AGW7" s="1"/>
+      <c r="AGX7" s="1"/>
+      <c r="AGY7" s="1"/>
+      <c r="AGZ7" s="1"/>
+      <c r="AHA7" s="1"/>
+      <c r="AHB7" s="1"/>
+      <c r="AHC7" s="1"/>
+      <c r="AHD7" s="1"/>
+      <c r="AHE7" s="1"/>
+      <c r="AHF7" s="1"/>
+      <c r="AHG7" s="1"/>
+      <c r="AHH7" s="1"/>
+      <c r="AHI7" s="1"/>
+      <c r="AHJ7" s="1"/>
+      <c r="AHK7" s="1"/>
+      <c r="AHL7" s="1"/>
+      <c r="AHM7" s="1"/>
+      <c r="AHN7" s="1"/>
+      <c r="AHO7" s="1"/>
+      <c r="AHP7" s="1"/>
+      <c r="AHQ7" s="1"/>
+      <c r="AHR7" s="1"/>
+      <c r="AHS7" s="1"/>
+      <c r="AHT7" s="1"/>
+      <c r="AHU7" s="1"/>
+      <c r="AHV7" s="1"/>
+      <c r="AHW7" s="1"/>
+      <c r="AHX7" s="1"/>
+      <c r="AHY7" s="1"/>
+      <c r="AHZ7" s="1"/>
+      <c r="AIA7" s="1"/>
+      <c r="AIB7" s="1"/>
+      <c r="AIC7" s="1"/>
+      <c r="AID7" s="1"/>
+      <c r="AIE7" s="1"/>
+      <c r="AIF7" s="1"/>
+      <c r="AIG7" s="1"/>
+      <c r="AIH7" s="1"/>
+      <c r="AII7" s="1"/>
+      <c r="AIJ7" s="1"/>
+      <c r="AIK7" s="1"/>
+      <c r="AIL7" s="1"/>
+      <c r="AIM7" s="1"/>
+      <c r="AIN7" s="1"/>
+      <c r="AIO7" s="1"/>
+      <c r="AIP7" s="1"/>
+      <c r="AIQ7" s="1"/>
+      <c r="AIR7" s="1"/>
+      <c r="AIS7" s="1"/>
+      <c r="AIT7" s="1"/>
+      <c r="AIU7" s="1"/>
+      <c r="AIV7" s="1"/>
+      <c r="AIW7" s="1"/>
+      <c r="AIX7" s="1"/>
+      <c r="AIY7" s="1"/>
+      <c r="AIZ7" s="1"/>
+      <c r="AJA7" s="1"/>
+      <c r="AJB7" s="1"/>
+      <c r="AJC7" s="1"/>
+      <c r="AJD7" s="1"/>
+      <c r="AJE7" s="1"/>
+      <c r="AJF7" s="1"/>
+      <c r="AJG7" s="1"/>
+      <c r="AJH7" s="1"/>
+      <c r="AJI7" s="1"/>
+      <c r="AJJ7" s="1"/>
+      <c r="AJK7" s="1"/>
+      <c r="AJL7" s="1"/>
+      <c r="AJM7" s="1"/>
+      <c r="AJN7" s="1"/>
+      <c r="AJO7" s="1"/>
+      <c r="AJP7" s="1"/>
+      <c r="AJQ7" s="1"/>
+      <c r="AJR7" s="1"/>
+      <c r="AJS7" s="1"/>
+      <c r="AJT7" s="1"/>
+      <c r="AJU7" s="1"/>
+      <c r="AJV7" s="1"/>
+      <c r="AJW7" s="1"/>
+      <c r="AJX7" s="1"/>
+      <c r="AJY7" s="1"/>
+      <c r="AJZ7" s="1"/>
+      <c r="AKA7" s="1"/>
+      <c r="AKB7" s="1"/>
+      <c r="AKC7" s="1"/>
+      <c r="AKD7" s="1"/>
+      <c r="AKE7" s="1"/>
+      <c r="AKF7" s="1"/>
+      <c r="AKG7" s="1"/>
+      <c r="AKH7" s="1"/>
+      <c r="AKI7" s="1"/>
+      <c r="AKJ7" s="1"/>
+      <c r="AKK7" s="1"/>
+      <c r="AKL7" s="1"/>
+      <c r="AKM7" s="1"/>
+      <c r="AKN7" s="1"/>
+      <c r="AKO7" s="1"/>
+      <c r="AKP7" s="1"/>
+      <c r="AKQ7" s="1"/>
+      <c r="AKR7" s="1"/>
+      <c r="AKS7" s="1"/>
+      <c r="AKT7" s="1"/>
+      <c r="AKU7" s="1"/>
+      <c r="AKV7" s="1"/>
+      <c r="AKW7" s="1"/>
+      <c r="AKX7" s="1"/>
+      <c r="AKY7" s="1"/>
+      <c r="AKZ7" s="1"/>
+      <c r="ALA7" s="1"/>
+      <c r="ALB7" s="1"/>
+      <c r="ALC7" s="1"/>
+      <c r="ALD7" s="1"/>
+      <c r="ALE7" s="1"/>
+      <c r="ALF7" s="1"/>
+      <c r="ALG7" s="1"/>
+      <c r="ALH7" s="1"/>
+      <c r="ALI7" s="1"/>
+      <c r="ALJ7" s="1"/>
+      <c r="ALK7" s="1"/>
+      <c r="ALL7" s="1"/>
+      <c r="ALM7" s="1"/>
+      <c r="ALN7" s="1"/>
+      <c r="ALO7" s="1"/>
+      <c r="ALP7" s="1"/>
+      <c r="ALQ7" s="1"/>
+      <c r="ALR7" s="1"/>
+      <c r="ALS7" s="1"/>
+      <c r="ALT7" s="1"/>
+      <c r="ALU7" s="1"/>
+      <c r="ALV7" s="1"/>
+      <c r="ALW7" s="1"/>
+      <c r="ALX7" s="1"/>
+      <c r="ALY7" s="1"/>
+      <c r="ALZ7" s="1"/>
+      <c r="AMA7" s="1"/>
+      <c r="AMB7" s="1"/>
+      <c r="AMC7" s="1"/>
+      <c r="AMD7" s="1"/>
+      <c r="AME7" s="1"/>
+      <c r="AMF7" s="1"/>
+      <c r="AMG7" s="1"/>
+      <c r="AMH7" s="1"/>
+      <c r="AMI7" s="1"/>
+      <c r="AMJ7" s="1"/>
     </row>
     <row r="8" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2090,9 +3125,7 @@
       <c r="AMJ8" s="1"/>
     </row>
     <row r="9" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -3118,1043 +4151,42 @@
       <c r="AMJ9" s="1"/>
     </row>
     <row r="10" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1"/>
-      <c r="AV10" s="1"/>
-      <c r="AW10" s="1"/>
-      <c r="AX10" s="1"/>
-      <c r="AY10" s="1"/>
-      <c r="AZ10" s="1"/>
-      <c r="BA10" s="1"/>
-      <c r="BB10" s="1"/>
-      <c r="BC10" s="1"/>
-      <c r="BD10" s="1"/>
-      <c r="BE10" s="1"/>
-      <c r="BF10" s="1"/>
-      <c r="BG10" s="1"/>
-      <c r="BH10" s="1"/>
-      <c r="BI10" s="1"/>
-      <c r="BJ10" s="1"/>
-      <c r="BK10" s="1"/>
-      <c r="BL10" s="1"/>
-      <c r="BM10" s="1"/>
-      <c r="BN10" s="1"/>
-      <c r="BO10" s="1"/>
-      <c r="BP10" s="1"/>
-      <c r="BQ10" s="1"/>
-      <c r="BR10" s="1"/>
-      <c r="BS10" s="1"/>
-      <c r="BT10" s="1"/>
-      <c r="BU10" s="1"/>
-      <c r="BV10" s="1"/>
-      <c r="BW10" s="1"/>
-      <c r="BX10" s="1"/>
-      <c r="BY10" s="1"/>
-      <c r="BZ10" s="1"/>
-      <c r="CA10" s="1"/>
-      <c r="CB10" s="1"/>
-      <c r="CC10" s="1"/>
-      <c r="CD10" s="1"/>
-      <c r="CE10" s="1"/>
-      <c r="CF10" s="1"/>
-      <c r="CG10" s="1"/>
-      <c r="CH10" s="1"/>
-      <c r="CI10" s="1"/>
-      <c r="CJ10" s="1"/>
-      <c r="CK10" s="1"/>
-      <c r="CL10" s="1"/>
-      <c r="CM10" s="1"/>
-      <c r="CN10" s="1"/>
-      <c r="CO10" s="1"/>
-      <c r="CP10" s="1"/>
-      <c r="CQ10" s="1"/>
-      <c r="CR10" s="1"/>
-      <c r="CS10" s="1"/>
-      <c r="CT10" s="1"/>
-      <c r="CU10" s="1"/>
-      <c r="CV10" s="1"/>
-      <c r="CW10" s="1"/>
-      <c r="CX10" s="1"/>
-      <c r="CY10" s="1"/>
-      <c r="CZ10" s="1"/>
-      <c r="DA10" s="1"/>
-      <c r="DB10" s="1"/>
-      <c r="DC10" s="1"/>
-      <c r="DD10" s="1"/>
-      <c r="DE10" s="1"/>
-      <c r="DF10" s="1"/>
-      <c r="DG10" s="1"/>
-      <c r="DH10" s="1"/>
-      <c r="DI10" s="1"/>
-      <c r="DJ10" s="1"/>
-      <c r="DK10" s="1"/>
-      <c r="DL10" s="1"/>
-      <c r="DM10" s="1"/>
-      <c r="DN10" s="1"/>
-      <c r="DO10" s="1"/>
-      <c r="DP10" s="1"/>
-      <c r="DQ10" s="1"/>
-      <c r="DR10" s="1"/>
-      <c r="DS10" s="1"/>
-      <c r="DT10" s="1"/>
-      <c r="DU10" s="1"/>
-      <c r="DV10" s="1"/>
-      <c r="DW10" s="1"/>
-      <c r="DX10" s="1"/>
-      <c r="DY10" s="1"/>
-      <c r="DZ10" s="1"/>
-      <c r="EA10" s="1"/>
-      <c r="EB10" s="1"/>
-      <c r="EC10" s="1"/>
-      <c r="ED10" s="1"/>
-      <c r="EE10" s="1"/>
-      <c r="EF10" s="1"/>
-      <c r="EG10" s="1"/>
-      <c r="EH10" s="1"/>
-      <c r="EI10" s="1"/>
-      <c r="EJ10" s="1"/>
-      <c r="EK10" s="1"/>
-      <c r="EL10" s="1"/>
-      <c r="EM10" s="1"/>
-      <c r="EN10" s="1"/>
-      <c r="EO10" s="1"/>
-      <c r="EP10" s="1"/>
-      <c r="EQ10" s="1"/>
-      <c r="ER10" s="1"/>
-      <c r="ES10" s="1"/>
-      <c r="ET10" s="1"/>
-      <c r="EU10" s="1"/>
-      <c r="EV10" s="1"/>
-      <c r="EW10" s="1"/>
-      <c r="EX10" s="1"/>
-      <c r="EY10" s="1"/>
-      <c r="EZ10" s="1"/>
-      <c r="FA10" s="1"/>
-      <c r="FB10" s="1"/>
-      <c r="FC10" s="1"/>
-      <c r="FD10" s="1"/>
-      <c r="FE10" s="1"/>
-      <c r="FF10" s="1"/>
-      <c r="FG10" s="1"/>
-      <c r="FH10" s="1"/>
-      <c r="FI10" s="1"/>
-      <c r="FJ10" s="1"/>
-      <c r="FK10" s="1"/>
-      <c r="FL10" s="1"/>
-      <c r="FM10" s="1"/>
-      <c r="FN10" s="1"/>
-      <c r="FO10" s="1"/>
-      <c r="FP10" s="1"/>
-      <c r="FQ10" s="1"/>
-      <c r="FR10" s="1"/>
-      <c r="FS10" s="1"/>
-      <c r="FT10" s="1"/>
-      <c r="FU10" s="1"/>
-      <c r="FV10" s="1"/>
-      <c r="FW10" s="1"/>
-      <c r="FX10" s="1"/>
-      <c r="FY10" s="1"/>
-      <c r="FZ10" s="1"/>
-      <c r="GA10" s="1"/>
-      <c r="GB10" s="1"/>
-      <c r="GC10" s="1"/>
-      <c r="GD10" s="1"/>
-      <c r="GE10" s="1"/>
-      <c r="GF10" s="1"/>
-      <c r="GG10" s="1"/>
-      <c r="GH10" s="1"/>
-      <c r="GI10" s="1"/>
-      <c r="GJ10" s="1"/>
-      <c r="GK10" s="1"/>
-      <c r="GL10" s="1"/>
-      <c r="GM10" s="1"/>
-      <c r="GN10" s="1"/>
-      <c r="GO10" s="1"/>
-      <c r="GP10" s="1"/>
-      <c r="GQ10" s="1"/>
-      <c r="GR10" s="1"/>
-      <c r="GS10" s="1"/>
-      <c r="GT10" s="1"/>
-      <c r="GU10" s="1"/>
-      <c r="GV10" s="1"/>
-      <c r="GW10" s="1"/>
-      <c r="GX10" s="1"/>
-      <c r="GY10" s="1"/>
-      <c r="GZ10" s="1"/>
-      <c r="HA10" s="1"/>
-      <c r="HB10" s="1"/>
-      <c r="HC10" s="1"/>
-      <c r="HD10" s="1"/>
-      <c r="HE10" s="1"/>
-      <c r="HF10" s="1"/>
-      <c r="HG10" s="1"/>
-      <c r="HH10" s="1"/>
-      <c r="HI10" s="1"/>
-      <c r="HJ10" s="1"/>
-      <c r="HK10" s="1"/>
-      <c r="HL10" s="1"/>
-      <c r="HM10" s="1"/>
-      <c r="HN10" s="1"/>
-      <c r="HO10" s="1"/>
-      <c r="HP10" s="1"/>
-      <c r="HQ10" s="1"/>
-      <c r="HR10" s="1"/>
-      <c r="HS10" s="1"/>
-      <c r="HT10" s="1"/>
-      <c r="HU10" s="1"/>
-      <c r="HV10" s="1"/>
-      <c r="HW10" s="1"/>
-      <c r="HX10" s="1"/>
-      <c r="HY10" s="1"/>
-      <c r="HZ10" s="1"/>
-      <c r="IA10" s="1"/>
-      <c r="IB10" s="1"/>
-      <c r="IC10" s="1"/>
-      <c r="ID10" s="1"/>
-      <c r="IE10" s="1"/>
-      <c r="IF10" s="1"/>
-      <c r="IG10" s="1"/>
-      <c r="IH10" s="1"/>
-      <c r="II10" s="1"/>
-      <c r="IJ10" s="1"/>
-      <c r="IK10" s="1"/>
-      <c r="IL10" s="1"/>
-      <c r="IM10" s="1"/>
-      <c r="IN10" s="1"/>
-      <c r="IO10" s="1"/>
-      <c r="IP10" s="1"/>
-      <c r="IQ10" s="1"/>
-      <c r="IR10" s="1"/>
-      <c r="IS10" s="1"/>
-      <c r="IT10" s="1"/>
-      <c r="IU10" s="1"/>
-      <c r="IV10" s="1"/>
-      <c r="IW10" s="1"/>
-      <c r="IX10" s="1"/>
-      <c r="IY10" s="1"/>
-      <c r="IZ10" s="1"/>
-      <c r="JA10" s="1"/>
-      <c r="JB10" s="1"/>
-      <c r="JC10" s="1"/>
-      <c r="JD10" s="1"/>
-      <c r="JE10" s="1"/>
-      <c r="JF10" s="1"/>
-      <c r="JG10" s="1"/>
-      <c r="JH10" s="1"/>
-      <c r="JI10" s="1"/>
-      <c r="JJ10" s="1"/>
-      <c r="JK10" s="1"/>
-      <c r="JL10" s="1"/>
-      <c r="JM10" s="1"/>
-      <c r="JN10" s="1"/>
-      <c r="JO10" s="1"/>
-      <c r="JP10" s="1"/>
-      <c r="JQ10" s="1"/>
-      <c r="JR10" s="1"/>
-      <c r="JS10" s="1"/>
-      <c r="JT10" s="1"/>
-      <c r="JU10" s="1"/>
-      <c r="JV10" s="1"/>
-      <c r="JW10" s="1"/>
-      <c r="JX10" s="1"/>
-      <c r="JY10" s="1"/>
-      <c r="JZ10" s="1"/>
-      <c r="KA10" s="1"/>
-      <c r="KB10" s="1"/>
-      <c r="KC10" s="1"/>
-      <c r="KD10" s="1"/>
-      <c r="KE10" s="1"/>
-      <c r="KF10" s="1"/>
-      <c r="KG10" s="1"/>
-      <c r="KH10" s="1"/>
-      <c r="KI10" s="1"/>
-      <c r="KJ10" s="1"/>
-      <c r="KK10" s="1"/>
-      <c r="KL10" s="1"/>
-      <c r="KM10" s="1"/>
-      <c r="KN10" s="1"/>
-      <c r="KO10" s="1"/>
-      <c r="KP10" s="1"/>
-      <c r="KQ10" s="1"/>
-      <c r="KR10" s="1"/>
-      <c r="KS10" s="1"/>
-      <c r="KT10" s="1"/>
-      <c r="KU10" s="1"/>
-      <c r="KV10" s="1"/>
-      <c r="KW10" s="1"/>
-      <c r="KX10" s="1"/>
-      <c r="KY10" s="1"/>
-      <c r="KZ10" s="1"/>
-      <c r="LA10" s="1"/>
-      <c r="LB10" s="1"/>
-      <c r="LC10" s="1"/>
-      <c r="LD10" s="1"/>
-      <c r="LE10" s="1"/>
-      <c r="LF10" s="1"/>
-      <c r="LG10" s="1"/>
-      <c r="LH10" s="1"/>
-      <c r="LI10" s="1"/>
-      <c r="LJ10" s="1"/>
-      <c r="LK10" s="1"/>
-      <c r="LL10" s="1"/>
-      <c r="LM10" s="1"/>
-      <c r="LN10" s="1"/>
-      <c r="LO10" s="1"/>
-      <c r="LP10" s="1"/>
-      <c r="LQ10" s="1"/>
-      <c r="LR10" s="1"/>
-      <c r="LS10" s="1"/>
-      <c r="LT10" s="1"/>
-      <c r="LU10" s="1"/>
-      <c r="LV10" s="1"/>
-      <c r="LW10" s="1"/>
-      <c r="LX10" s="1"/>
-      <c r="LY10" s="1"/>
-      <c r="LZ10" s="1"/>
-      <c r="MA10" s="1"/>
-      <c r="MB10" s="1"/>
-      <c r="MC10" s="1"/>
-      <c r="MD10" s="1"/>
-      <c r="ME10" s="1"/>
-      <c r="MF10" s="1"/>
-      <c r="MG10" s="1"/>
-      <c r="MH10" s="1"/>
-      <c r="MI10" s="1"/>
-      <c r="MJ10" s="1"/>
-      <c r="MK10" s="1"/>
-      <c r="ML10" s="1"/>
-      <c r="MM10" s="1"/>
-      <c r="MN10" s="1"/>
-      <c r="MO10" s="1"/>
-      <c r="MP10" s="1"/>
-      <c r="MQ10" s="1"/>
-      <c r="MR10" s="1"/>
-      <c r="MS10" s="1"/>
-      <c r="MT10" s="1"/>
-      <c r="MU10" s="1"/>
-      <c r="MV10" s="1"/>
-      <c r="MW10" s="1"/>
-      <c r="MX10" s="1"/>
-      <c r="MY10" s="1"/>
-      <c r="MZ10" s="1"/>
-      <c r="NA10" s="1"/>
-      <c r="NB10" s="1"/>
-      <c r="NC10" s="1"/>
-      <c r="ND10" s="1"/>
-      <c r="NE10" s="1"/>
-      <c r="NF10" s="1"/>
-      <c r="NG10" s="1"/>
-      <c r="NH10" s="1"/>
-      <c r="NI10" s="1"/>
-      <c r="NJ10" s="1"/>
-      <c r="NK10" s="1"/>
-      <c r="NL10" s="1"/>
-      <c r="NM10" s="1"/>
-      <c r="NN10" s="1"/>
-      <c r="NO10" s="1"/>
-      <c r="NP10" s="1"/>
-      <c r="NQ10" s="1"/>
-      <c r="NR10" s="1"/>
-      <c r="NS10" s="1"/>
-      <c r="NT10" s="1"/>
-      <c r="NU10" s="1"/>
-      <c r="NV10" s="1"/>
-      <c r="NW10" s="1"/>
-      <c r="NX10" s="1"/>
-      <c r="NY10" s="1"/>
-      <c r="NZ10" s="1"/>
-      <c r="OA10" s="1"/>
-      <c r="OB10" s="1"/>
-      <c r="OC10" s="1"/>
-      <c r="OD10" s="1"/>
-      <c r="OE10" s="1"/>
-      <c r="OF10" s="1"/>
-      <c r="OG10" s="1"/>
-      <c r="OH10" s="1"/>
-      <c r="OI10" s="1"/>
-      <c r="OJ10" s="1"/>
-      <c r="OK10" s="1"/>
-      <c r="OL10" s="1"/>
-      <c r="OM10" s="1"/>
-      <c r="ON10" s="1"/>
-      <c r="OO10" s="1"/>
-      <c r="OP10" s="1"/>
-      <c r="OQ10" s="1"/>
-      <c r="OR10" s="1"/>
-      <c r="OS10" s="1"/>
-      <c r="OT10" s="1"/>
-      <c r="OU10" s="1"/>
-      <c r="OV10" s="1"/>
-      <c r="OW10" s="1"/>
-      <c r="OX10" s="1"/>
-      <c r="OY10" s="1"/>
-      <c r="OZ10" s="1"/>
-      <c r="PA10" s="1"/>
-      <c r="PB10" s="1"/>
-      <c r="PC10" s="1"/>
-      <c r="PD10" s="1"/>
-      <c r="PE10" s="1"/>
-      <c r="PF10" s="1"/>
-      <c r="PG10" s="1"/>
-      <c r="PH10" s="1"/>
-      <c r="PI10" s="1"/>
-      <c r="PJ10" s="1"/>
-      <c r="PK10" s="1"/>
-      <c r="PL10" s="1"/>
-      <c r="PM10" s="1"/>
-      <c r="PN10" s="1"/>
-      <c r="PO10" s="1"/>
-      <c r="PP10" s="1"/>
-      <c r="PQ10" s="1"/>
-      <c r="PR10" s="1"/>
-      <c r="PS10" s="1"/>
-      <c r="PT10" s="1"/>
-      <c r="PU10" s="1"/>
-      <c r="PV10" s="1"/>
-      <c r="PW10" s="1"/>
-      <c r="PX10" s="1"/>
-      <c r="PY10" s="1"/>
-      <c r="PZ10" s="1"/>
-      <c r="QA10" s="1"/>
-      <c r="QB10" s="1"/>
-      <c r="QC10" s="1"/>
-      <c r="QD10" s="1"/>
-      <c r="QE10" s="1"/>
-      <c r="QF10" s="1"/>
-      <c r="QG10" s="1"/>
-      <c r="QH10" s="1"/>
-      <c r="QI10" s="1"/>
-      <c r="QJ10" s="1"/>
-      <c r="QK10" s="1"/>
-      <c r="QL10" s="1"/>
-      <c r="QM10" s="1"/>
-      <c r="QN10" s="1"/>
-      <c r="QO10" s="1"/>
-      <c r="QP10" s="1"/>
-      <c r="QQ10" s="1"/>
-      <c r="QR10" s="1"/>
-      <c r="QS10" s="1"/>
-      <c r="QT10" s="1"/>
-      <c r="QU10" s="1"/>
-      <c r="QV10" s="1"/>
-      <c r="QW10" s="1"/>
-      <c r="QX10" s="1"/>
-      <c r="QY10" s="1"/>
-      <c r="QZ10" s="1"/>
-      <c r="RA10" s="1"/>
-      <c r="RB10" s="1"/>
-      <c r="RC10" s="1"/>
-      <c r="RD10" s="1"/>
-      <c r="RE10" s="1"/>
-      <c r="RF10" s="1"/>
-      <c r="RG10" s="1"/>
-      <c r="RH10" s="1"/>
-      <c r="RI10" s="1"/>
-      <c r="RJ10" s="1"/>
-      <c r="RK10" s="1"/>
-      <c r="RL10" s="1"/>
-      <c r="RM10" s="1"/>
-      <c r="RN10" s="1"/>
-      <c r="RO10" s="1"/>
-      <c r="RP10" s="1"/>
-      <c r="RQ10" s="1"/>
-      <c r="RR10" s="1"/>
-      <c r="RS10" s="1"/>
-      <c r="RT10" s="1"/>
-      <c r="RU10" s="1"/>
-      <c r="RV10" s="1"/>
-      <c r="RW10" s="1"/>
-      <c r="RX10" s="1"/>
-      <c r="RY10" s="1"/>
-      <c r="RZ10" s="1"/>
-      <c r="SA10" s="1"/>
-      <c r="SB10" s="1"/>
-      <c r="SC10" s="1"/>
-      <c r="SD10" s="1"/>
-      <c r="SE10" s="1"/>
-      <c r="SF10" s="1"/>
-      <c r="SG10" s="1"/>
-      <c r="SH10" s="1"/>
-      <c r="SI10" s="1"/>
-      <c r="SJ10" s="1"/>
-      <c r="SK10" s="1"/>
-      <c r="SL10" s="1"/>
-      <c r="SM10" s="1"/>
-      <c r="SN10" s="1"/>
-      <c r="SO10" s="1"/>
-      <c r="SP10" s="1"/>
-      <c r="SQ10" s="1"/>
-      <c r="SR10" s="1"/>
-      <c r="SS10" s="1"/>
-      <c r="ST10" s="1"/>
-      <c r="SU10" s="1"/>
-      <c r="SV10" s="1"/>
-      <c r="SW10" s="1"/>
-      <c r="SX10" s="1"/>
-      <c r="SY10" s="1"/>
-      <c r="SZ10" s="1"/>
-      <c r="TA10" s="1"/>
-      <c r="TB10" s="1"/>
-      <c r="TC10" s="1"/>
-      <c r="TD10" s="1"/>
-      <c r="TE10" s="1"/>
-      <c r="TF10" s="1"/>
-      <c r="TG10" s="1"/>
-      <c r="TH10" s="1"/>
-      <c r="TI10" s="1"/>
-      <c r="TJ10" s="1"/>
-      <c r="TK10" s="1"/>
-      <c r="TL10" s="1"/>
-      <c r="TM10" s="1"/>
-      <c r="TN10" s="1"/>
-      <c r="TO10" s="1"/>
-      <c r="TP10" s="1"/>
-      <c r="TQ10" s="1"/>
-      <c r="TR10" s="1"/>
-      <c r="TS10" s="1"/>
-      <c r="TT10" s="1"/>
-      <c r="TU10" s="1"/>
-      <c r="TV10" s="1"/>
-      <c r="TW10" s="1"/>
-      <c r="TX10" s="1"/>
-      <c r="TY10" s="1"/>
-      <c r="TZ10" s="1"/>
-      <c r="UA10" s="1"/>
-      <c r="UB10" s="1"/>
-      <c r="UC10" s="1"/>
-      <c r="UD10" s="1"/>
-      <c r="UE10" s="1"/>
-      <c r="UF10" s="1"/>
-      <c r="UG10" s="1"/>
-      <c r="UH10" s="1"/>
-      <c r="UI10" s="1"/>
-      <c r="UJ10" s="1"/>
-      <c r="UK10" s="1"/>
-      <c r="UL10" s="1"/>
-      <c r="UM10" s="1"/>
-      <c r="UN10" s="1"/>
-      <c r="UO10" s="1"/>
-      <c r="UP10" s="1"/>
-      <c r="UQ10" s="1"/>
-      <c r="UR10" s="1"/>
-      <c r="US10" s="1"/>
-      <c r="UT10" s="1"/>
-      <c r="UU10" s="1"/>
-      <c r="UV10" s="1"/>
-      <c r="UW10" s="1"/>
-      <c r="UX10" s="1"/>
-      <c r="UY10" s="1"/>
-      <c r="UZ10" s="1"/>
-      <c r="VA10" s="1"/>
-      <c r="VB10" s="1"/>
-      <c r="VC10" s="1"/>
-      <c r="VD10" s="1"/>
-      <c r="VE10" s="1"/>
-      <c r="VF10" s="1"/>
-      <c r="VG10" s="1"/>
-      <c r="VH10" s="1"/>
-      <c r="VI10" s="1"/>
-      <c r="VJ10" s="1"/>
-      <c r="VK10" s="1"/>
-      <c r="VL10" s="1"/>
-      <c r="VM10" s="1"/>
-      <c r="VN10" s="1"/>
-      <c r="VO10" s="1"/>
-      <c r="VP10" s="1"/>
-      <c r="VQ10" s="1"/>
-      <c r="VR10" s="1"/>
-      <c r="VS10" s="1"/>
-      <c r="VT10" s="1"/>
-      <c r="VU10" s="1"/>
-      <c r="VV10" s="1"/>
-      <c r="VW10" s="1"/>
-      <c r="VX10" s="1"/>
-      <c r="VY10" s="1"/>
-      <c r="VZ10" s="1"/>
-      <c r="WA10" s="1"/>
-      <c r="WB10" s="1"/>
-      <c r="WC10" s="1"/>
-      <c r="WD10" s="1"/>
-      <c r="WE10" s="1"/>
-      <c r="WF10" s="1"/>
-      <c r="WG10" s="1"/>
-      <c r="WH10" s="1"/>
-      <c r="WI10" s="1"/>
-      <c r="WJ10" s="1"/>
-      <c r="WK10" s="1"/>
-      <c r="WL10" s="1"/>
-      <c r="WM10" s="1"/>
-      <c r="WN10" s="1"/>
-      <c r="WO10" s="1"/>
-      <c r="WP10" s="1"/>
-      <c r="WQ10" s="1"/>
-      <c r="WR10" s="1"/>
-      <c r="WS10" s="1"/>
-      <c r="WT10" s="1"/>
-      <c r="WU10" s="1"/>
-      <c r="WV10" s="1"/>
-      <c r="WW10" s="1"/>
-      <c r="WX10" s="1"/>
-      <c r="WY10" s="1"/>
-      <c r="WZ10" s="1"/>
-      <c r="XA10" s="1"/>
-      <c r="XB10" s="1"/>
-      <c r="XC10" s="1"/>
-      <c r="XD10" s="1"/>
-      <c r="XE10" s="1"/>
-      <c r="XF10" s="1"/>
-      <c r="XG10" s="1"/>
-      <c r="XH10" s="1"/>
-      <c r="XI10" s="1"/>
-      <c r="XJ10" s="1"/>
-      <c r="XK10" s="1"/>
-      <c r="XL10" s="1"/>
-      <c r="XM10" s="1"/>
-      <c r="XN10" s="1"/>
-      <c r="XO10" s="1"/>
-      <c r="XP10" s="1"/>
-      <c r="XQ10" s="1"/>
-      <c r="XR10" s="1"/>
-      <c r="XS10" s="1"/>
-      <c r="XT10" s="1"/>
-      <c r="XU10" s="1"/>
-      <c r="XV10" s="1"/>
-      <c r="XW10" s="1"/>
-      <c r="XX10" s="1"/>
-      <c r="XY10" s="1"/>
-      <c r="XZ10" s="1"/>
-      <c r="YA10" s="1"/>
-      <c r="YB10" s="1"/>
-      <c r="YC10" s="1"/>
-      <c r="YD10" s="1"/>
-      <c r="YE10" s="1"/>
-      <c r="YF10" s="1"/>
-      <c r="YG10" s="1"/>
-      <c r="YH10" s="1"/>
-      <c r="YI10" s="1"/>
-      <c r="YJ10" s="1"/>
-      <c r="YK10" s="1"/>
-      <c r="YL10" s="1"/>
-      <c r="YM10" s="1"/>
-      <c r="YN10" s="1"/>
-      <c r="YO10" s="1"/>
-      <c r="YP10" s="1"/>
-      <c r="YQ10" s="1"/>
-      <c r="YR10" s="1"/>
-      <c r="YS10" s="1"/>
-      <c r="YT10" s="1"/>
-      <c r="YU10" s="1"/>
-      <c r="YV10" s="1"/>
-      <c r="YW10" s="1"/>
-      <c r="YX10" s="1"/>
-      <c r="YY10" s="1"/>
-      <c r="YZ10" s="1"/>
-      <c r="ZA10" s="1"/>
-      <c r="ZB10" s="1"/>
-      <c r="ZC10" s="1"/>
-      <c r="ZD10" s="1"/>
-      <c r="ZE10" s="1"/>
-      <c r="ZF10" s="1"/>
-      <c r="ZG10" s="1"/>
-      <c r="ZH10" s="1"/>
-      <c r="ZI10" s="1"/>
-      <c r="ZJ10" s="1"/>
-      <c r="ZK10" s="1"/>
-      <c r="ZL10" s="1"/>
-      <c r="ZM10" s="1"/>
-      <c r="ZN10" s="1"/>
-      <c r="ZO10" s="1"/>
-      <c r="ZP10" s="1"/>
-      <c r="ZQ10" s="1"/>
-      <c r="ZR10" s="1"/>
-      <c r="ZS10" s="1"/>
-      <c r="ZT10" s="1"/>
-      <c r="ZU10" s="1"/>
-      <c r="ZV10" s="1"/>
-      <c r="ZW10" s="1"/>
-      <c r="ZX10" s="1"/>
-      <c r="ZY10" s="1"/>
-      <c r="ZZ10" s="1"/>
-      <c r="AAA10" s="1"/>
-      <c r="AAB10" s="1"/>
-      <c r="AAC10" s="1"/>
-      <c r="AAD10" s="1"/>
-      <c r="AAE10" s="1"/>
-      <c r="AAF10" s="1"/>
-      <c r="AAG10" s="1"/>
-      <c r="AAH10" s="1"/>
-      <c r="AAI10" s="1"/>
-      <c r="AAJ10" s="1"/>
-      <c r="AAK10" s="1"/>
-      <c r="AAL10" s="1"/>
-      <c r="AAM10" s="1"/>
-      <c r="AAN10" s="1"/>
-      <c r="AAO10" s="1"/>
-      <c r="AAP10" s="1"/>
-      <c r="AAQ10" s="1"/>
-      <c r="AAR10" s="1"/>
-      <c r="AAS10" s="1"/>
-      <c r="AAT10" s="1"/>
-      <c r="AAU10" s="1"/>
-      <c r="AAV10" s="1"/>
-      <c r="AAW10" s="1"/>
-      <c r="AAX10" s="1"/>
-      <c r="AAY10" s="1"/>
-      <c r="AAZ10" s="1"/>
-      <c r="ABA10" s="1"/>
-      <c r="ABB10" s="1"/>
-      <c r="ABC10" s="1"/>
-      <c r="ABD10" s="1"/>
-      <c r="ABE10" s="1"/>
-      <c r="ABF10" s="1"/>
-      <c r="ABG10" s="1"/>
-      <c r="ABH10" s="1"/>
-      <c r="ABI10" s="1"/>
-      <c r="ABJ10" s="1"/>
-      <c r="ABK10" s="1"/>
-      <c r="ABL10" s="1"/>
-      <c r="ABM10" s="1"/>
-      <c r="ABN10" s="1"/>
-      <c r="ABO10" s="1"/>
-      <c r="ABP10" s="1"/>
-      <c r="ABQ10" s="1"/>
-      <c r="ABR10" s="1"/>
-      <c r="ABS10" s="1"/>
-      <c r="ABT10" s="1"/>
-      <c r="ABU10" s="1"/>
-      <c r="ABV10" s="1"/>
-      <c r="ABW10" s="1"/>
-      <c r="ABX10" s="1"/>
-      <c r="ABY10" s="1"/>
-      <c r="ABZ10" s="1"/>
-      <c r="ACA10" s="1"/>
-      <c r="ACB10" s="1"/>
-      <c r="ACC10" s="1"/>
-      <c r="ACD10" s="1"/>
-      <c r="ACE10" s="1"/>
-      <c r="ACF10" s="1"/>
-      <c r="ACG10" s="1"/>
-      <c r="ACH10" s="1"/>
-      <c r="ACI10" s="1"/>
-      <c r="ACJ10" s="1"/>
-      <c r="ACK10" s="1"/>
-      <c r="ACL10" s="1"/>
-      <c r="ACM10" s="1"/>
-      <c r="ACN10" s="1"/>
-      <c r="ACO10" s="1"/>
-      <c r="ACP10" s="1"/>
-      <c r="ACQ10" s="1"/>
-      <c r="ACR10" s="1"/>
-      <c r="ACS10" s="1"/>
-      <c r="ACT10" s="1"/>
-      <c r="ACU10" s="1"/>
-      <c r="ACV10" s="1"/>
-      <c r="ACW10" s="1"/>
-      <c r="ACX10" s="1"/>
-      <c r="ACY10" s="1"/>
-      <c r="ACZ10" s="1"/>
-      <c r="ADA10" s="1"/>
-      <c r="ADB10" s="1"/>
-      <c r="ADC10" s="1"/>
-      <c r="ADD10" s="1"/>
-      <c r="ADE10" s="1"/>
-      <c r="ADF10" s="1"/>
-      <c r="ADG10" s="1"/>
-      <c r="ADH10" s="1"/>
-      <c r="ADI10" s="1"/>
-      <c r="ADJ10" s="1"/>
-      <c r="ADK10" s="1"/>
-      <c r="ADL10" s="1"/>
-      <c r="ADM10" s="1"/>
-      <c r="ADN10" s="1"/>
-      <c r="ADO10" s="1"/>
-      <c r="ADP10" s="1"/>
-      <c r="ADQ10" s="1"/>
-      <c r="ADR10" s="1"/>
-      <c r="ADS10" s="1"/>
-      <c r="ADT10" s="1"/>
-      <c r="ADU10" s="1"/>
-      <c r="ADV10" s="1"/>
-      <c r="ADW10" s="1"/>
-      <c r="ADX10" s="1"/>
-      <c r="ADY10" s="1"/>
-      <c r="ADZ10" s="1"/>
-      <c r="AEA10" s="1"/>
-      <c r="AEB10" s="1"/>
-      <c r="AEC10" s="1"/>
-      <c r="AED10" s="1"/>
-      <c r="AEE10" s="1"/>
-      <c r="AEF10" s="1"/>
-      <c r="AEG10" s="1"/>
-      <c r="AEH10" s="1"/>
-      <c r="AEI10" s="1"/>
-      <c r="AEJ10" s="1"/>
-      <c r="AEK10" s="1"/>
-      <c r="AEL10" s="1"/>
-      <c r="AEM10" s="1"/>
-      <c r="AEN10" s="1"/>
-      <c r="AEO10" s="1"/>
-      <c r="AEP10" s="1"/>
-      <c r="AEQ10" s="1"/>
-      <c r="AER10" s="1"/>
-      <c r="AES10" s="1"/>
-      <c r="AET10" s="1"/>
-      <c r="AEU10" s="1"/>
-      <c r="AEV10" s="1"/>
-      <c r="AEW10" s="1"/>
-      <c r="AEX10" s="1"/>
-      <c r="AEY10" s="1"/>
-      <c r="AEZ10" s="1"/>
-      <c r="AFA10" s="1"/>
-      <c r="AFB10" s="1"/>
-      <c r="AFC10" s="1"/>
-      <c r="AFD10" s="1"/>
-      <c r="AFE10" s="1"/>
-      <c r="AFF10" s="1"/>
-      <c r="AFG10" s="1"/>
-      <c r="AFH10" s="1"/>
-      <c r="AFI10" s="1"/>
-      <c r="AFJ10" s="1"/>
-      <c r="AFK10" s="1"/>
-      <c r="AFL10" s="1"/>
-      <c r="AFM10" s="1"/>
-      <c r="AFN10" s="1"/>
-      <c r="AFO10" s="1"/>
-      <c r="AFP10" s="1"/>
-      <c r="AFQ10" s="1"/>
-      <c r="AFR10" s="1"/>
-      <c r="AFS10" s="1"/>
-      <c r="AFT10" s="1"/>
-      <c r="AFU10" s="1"/>
-      <c r="AFV10" s="1"/>
-      <c r="AFW10" s="1"/>
-      <c r="AFX10" s="1"/>
-      <c r="AFY10" s="1"/>
-      <c r="AFZ10" s="1"/>
-      <c r="AGA10" s="1"/>
-      <c r="AGB10" s="1"/>
-      <c r="AGC10" s="1"/>
-      <c r="AGD10" s="1"/>
-      <c r="AGE10" s="1"/>
-      <c r="AGF10" s="1"/>
-      <c r="AGG10" s="1"/>
-      <c r="AGH10" s="1"/>
-      <c r="AGI10" s="1"/>
-      <c r="AGJ10" s="1"/>
-      <c r="AGK10" s="1"/>
-      <c r="AGL10" s="1"/>
-      <c r="AGM10" s="1"/>
-      <c r="AGN10" s="1"/>
-      <c r="AGO10" s="1"/>
-      <c r="AGP10" s="1"/>
-      <c r="AGQ10" s="1"/>
-      <c r="AGR10" s="1"/>
-      <c r="AGS10" s="1"/>
-      <c r="AGT10" s="1"/>
-      <c r="AGU10" s="1"/>
-      <c r="AGV10" s="1"/>
-      <c r="AGW10" s="1"/>
-      <c r="AGX10" s="1"/>
-      <c r="AGY10" s="1"/>
-      <c r="AGZ10" s="1"/>
-      <c r="AHA10" s="1"/>
-      <c r="AHB10" s="1"/>
-      <c r="AHC10" s="1"/>
-      <c r="AHD10" s="1"/>
-      <c r="AHE10" s="1"/>
-      <c r="AHF10" s="1"/>
-      <c r="AHG10" s="1"/>
-      <c r="AHH10" s="1"/>
-      <c r="AHI10" s="1"/>
-      <c r="AHJ10" s="1"/>
-      <c r="AHK10" s="1"/>
-      <c r="AHL10" s="1"/>
-      <c r="AHM10" s="1"/>
-      <c r="AHN10" s="1"/>
-      <c r="AHO10" s="1"/>
-      <c r="AHP10" s="1"/>
-      <c r="AHQ10" s="1"/>
-      <c r="AHR10" s="1"/>
-      <c r="AHS10" s="1"/>
-      <c r="AHT10" s="1"/>
-      <c r="AHU10" s="1"/>
-      <c r="AHV10" s="1"/>
-      <c r="AHW10" s="1"/>
-      <c r="AHX10" s="1"/>
-      <c r="AHY10" s="1"/>
-      <c r="AHZ10" s="1"/>
-      <c r="AIA10" s="1"/>
-      <c r="AIB10" s="1"/>
-      <c r="AIC10" s="1"/>
-      <c r="AID10" s="1"/>
-      <c r="AIE10" s="1"/>
-      <c r="AIF10" s="1"/>
-      <c r="AIG10" s="1"/>
-      <c r="AIH10" s="1"/>
-      <c r="AII10" s="1"/>
-      <c r="AIJ10" s="1"/>
-      <c r="AIK10" s="1"/>
-      <c r="AIL10" s="1"/>
-      <c r="AIM10" s="1"/>
-      <c r="AIN10" s="1"/>
-      <c r="AIO10" s="1"/>
-      <c r="AIP10" s="1"/>
-      <c r="AIQ10" s="1"/>
-      <c r="AIR10" s="1"/>
-      <c r="AIS10" s="1"/>
-      <c r="AIT10" s="1"/>
-      <c r="AIU10" s="1"/>
-      <c r="AIV10" s="1"/>
-      <c r="AIW10" s="1"/>
-      <c r="AIX10" s="1"/>
-      <c r="AIY10" s="1"/>
-      <c r="AIZ10" s="1"/>
-      <c r="AJA10" s="1"/>
-      <c r="AJB10" s="1"/>
-      <c r="AJC10" s="1"/>
-      <c r="AJD10" s="1"/>
-      <c r="AJE10" s="1"/>
-      <c r="AJF10" s="1"/>
-      <c r="AJG10" s="1"/>
-      <c r="AJH10" s="1"/>
-      <c r="AJI10" s="1"/>
-      <c r="AJJ10" s="1"/>
-      <c r="AJK10" s="1"/>
-      <c r="AJL10" s="1"/>
-      <c r="AJM10" s="1"/>
-      <c r="AJN10" s="1"/>
-      <c r="AJO10" s="1"/>
-      <c r="AJP10" s="1"/>
-      <c r="AJQ10" s="1"/>
-      <c r="AJR10" s="1"/>
-      <c r="AJS10" s="1"/>
-      <c r="AJT10" s="1"/>
-      <c r="AJU10" s="1"/>
-      <c r="AJV10" s="1"/>
-      <c r="AJW10" s="1"/>
-      <c r="AJX10" s="1"/>
-      <c r="AJY10" s="1"/>
-      <c r="AJZ10" s="1"/>
-      <c r="AKA10" s="1"/>
-      <c r="AKB10" s="1"/>
-      <c r="AKC10" s="1"/>
-      <c r="AKD10" s="1"/>
-      <c r="AKE10" s="1"/>
-      <c r="AKF10" s="1"/>
-      <c r="AKG10" s="1"/>
-      <c r="AKH10" s="1"/>
-      <c r="AKI10" s="1"/>
-      <c r="AKJ10" s="1"/>
-      <c r="AKK10" s="1"/>
-      <c r="AKL10" s="1"/>
-      <c r="AKM10" s="1"/>
-      <c r="AKN10" s="1"/>
-      <c r="AKO10" s="1"/>
-      <c r="AKP10" s="1"/>
-      <c r="AKQ10" s="1"/>
-      <c r="AKR10" s="1"/>
-      <c r="AKS10" s="1"/>
-      <c r="AKT10" s="1"/>
-      <c r="AKU10" s="1"/>
-      <c r="AKV10" s="1"/>
-      <c r="AKW10" s="1"/>
-      <c r="AKX10" s="1"/>
-      <c r="AKY10" s="1"/>
-      <c r="AKZ10" s="1"/>
-      <c r="ALA10" s="1"/>
-      <c r="ALB10" s="1"/>
-      <c r="ALC10" s="1"/>
-      <c r="ALD10" s="1"/>
-      <c r="ALE10" s="1"/>
-      <c r="ALF10" s="1"/>
-      <c r="ALG10" s="1"/>
-      <c r="ALH10" s="1"/>
-      <c r="ALI10" s="1"/>
-      <c r="ALJ10" s="1"/>
-      <c r="ALK10" s="1"/>
-      <c r="ALL10" s="1"/>
-      <c r="ALM10" s="1"/>
-      <c r="ALN10" s="1"/>
-      <c r="ALO10" s="1"/>
-      <c r="ALP10" s="1"/>
-      <c r="ALQ10" s="1"/>
-      <c r="ALR10" s="1"/>
-      <c r="ALS10" s="1"/>
-      <c r="ALT10" s="1"/>
-      <c r="ALU10" s="1"/>
-      <c r="ALV10" s="1"/>
-      <c r="ALW10" s="1"/>
-      <c r="ALX10" s="1"/>
-      <c r="ALY10" s="1"/>
-      <c r="ALZ10" s="1"/>
-      <c r="AMA10" s="1"/>
-      <c r="AMB10" s="1"/>
-      <c r="AMC10" s="1"/>
-      <c r="AMD10" s="1"/>
-      <c r="AME10" s="1"/>
-      <c r="AMF10" s="1"/>
-      <c r="AMG10" s="1"/>
-      <c r="AMH10" s="1"/>
-      <c r="AMI10" s="1"/>
-      <c r="AMJ10" s="1"/>
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
     </row>
     <row r="11" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -4173,14 +4205,18 @@
     </row>
     <row r="12" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="5"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -4196,20 +4232,19 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>37</v>
+    <row r="13" s="3" customFormat="true" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>40</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>41</v>
+      </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -4227,19 +4262,16 @@
     </row>
     <row r="14" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
       <c r="F14" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -4258,18 +4290,18 @@
     </row>
     <row r="15" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C15" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="8"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4287,21 +4319,21 @@
     </row>
     <row r="16" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F16" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="F16" s="8"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4318,16 +4350,16 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="C17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="8"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4344,19 +4376,19 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="7"/>
+      <c r="F18" s="8"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4373,18 +4405,18 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="7"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -5405,7 +5437,7 @@
       <c r="AMJ19" s="3"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="7"/>
+      <c r="F20" s="8"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5423,9 +5455,11 @@
     </row>
     <row r="21" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -6482,58 +6516,58 @@
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="24" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F24" s="3" t="s">
+    </row>
+    <row r="25" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="8" t="s">
+      <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>67</v>
-      </c>
       <c r="D25" s="3"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="3"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
+      <c r="S25" s="9"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="9"/>
+      <c r="V25" s="9"/>
       <c r="W25" s="3"/>
       <c r="X25" s="3"/>
       <c r="Y25" s="3"/>
@@ -7530,58 +7564,58 @@
       <c r="AMB25" s="3"/>
       <c r="AMC25" s="3"/>
       <c r="AMD25" s="3"/>
-      <c r="AME25" s="8"/>
-      <c r="AMF25" s="8"/>
-      <c r="AMG25" s="8"/>
-      <c r="AMH25" s="8"/>
-      <c r="AMI25" s="8"/>
-      <c r="AMJ25" s="8"/>
+      <c r="AME25" s="9"/>
+      <c r="AMF25" s="9"/>
+      <c r="AMG25" s="9"/>
+      <c r="AMH25" s="9"/>
+      <c r="AMI25" s="9"/>
+      <c r="AMJ25" s="9"/>
     </row>
     <row r="26" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="E26" s="9"/>
+      <c r="F26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
-      <c r="S26" s="8"/>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="8"/>
-      <c r="AME26" s="8"/>
-      <c r="AMF26" s="8"/>
-      <c r="AMG26" s="8"/>
-      <c r="AMH26" s="8"/>
-      <c r="AMI26" s="8"/>
-      <c r="AMJ26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
+      <c r="S26" s="9"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="9"/>
+      <c r="V26" s="9"/>
+      <c r="AME26" s="9"/>
+      <c r="AMF26" s="9"/>
+      <c r="AMG26" s="9"/>
+      <c r="AMH26" s="9"/>
+      <c r="AMI26" s="9"/>
+      <c r="AMJ26" s="9"/>
     </row>
     <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -8606,1046 +8640,1046 @@
       <c r="AMJ27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>34</v>
+      <c r="A28" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="10"/>
-      <c r="U28" s="10"/>
-      <c r="V28" s="10"/>
-      <c r="W28" s="10"/>
-      <c r="X28" s="10"/>
-      <c r="Y28" s="10"/>
-      <c r="Z28" s="10"/>
-      <c r="AA28" s="10"/>
-      <c r="AB28" s="10"/>
-      <c r="AC28" s="10"/>
-      <c r="AD28" s="10"/>
-      <c r="AE28" s="10"/>
-      <c r="AF28" s="10"/>
-      <c r="AG28" s="10"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
-      <c r="AM28" s="10"/>
-      <c r="AN28" s="10"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
-      <c r="AT28" s="10"/>
-      <c r="AU28" s="10"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="10"/>
-      <c r="BA28" s="10"/>
-      <c r="BB28" s="10"/>
-      <c r="BC28" s="10"/>
-      <c r="BD28" s="10"/>
-      <c r="BE28" s="10"/>
-      <c r="BF28" s="10"/>
-      <c r="BG28" s="10"/>
-      <c r="BH28" s="10"/>
-      <c r="BI28" s="10"/>
-      <c r="BJ28" s="10"/>
-      <c r="BK28" s="10"/>
-      <c r="BL28" s="10"/>
-      <c r="BM28" s="10"/>
-      <c r="BN28" s="10"/>
-      <c r="BO28" s="10"/>
-      <c r="BP28" s="10"/>
-      <c r="BQ28" s="10"/>
-      <c r="BR28" s="10"/>
-      <c r="BS28" s="10"/>
-      <c r="BT28" s="10"/>
-      <c r="BU28" s="10"/>
-      <c r="BV28" s="10"/>
-      <c r="BW28" s="10"/>
-      <c r="BX28" s="10"/>
-      <c r="BY28" s="10"/>
-      <c r="BZ28" s="10"/>
-      <c r="CA28" s="10"/>
-      <c r="CB28" s="10"/>
-      <c r="CC28" s="10"/>
-      <c r="CD28" s="10"/>
-      <c r="CE28" s="10"/>
-      <c r="CF28" s="10"/>
-      <c r="CG28" s="10"/>
-      <c r="CH28" s="10"/>
-      <c r="CI28" s="10"/>
-      <c r="CJ28" s="10"/>
-      <c r="CK28" s="10"/>
-      <c r="CL28" s="10"/>
-      <c r="CM28" s="10"/>
-      <c r="CN28" s="10"/>
-      <c r="CO28" s="10"/>
-      <c r="CP28" s="10"/>
-      <c r="CQ28" s="10"/>
-      <c r="CR28" s="10"/>
-      <c r="CS28" s="10"/>
-      <c r="CT28" s="10"/>
-      <c r="CU28" s="10"/>
-      <c r="CV28" s="10"/>
-      <c r="CW28" s="10"/>
-      <c r="CX28" s="10"/>
-      <c r="CY28" s="10"/>
-      <c r="CZ28" s="10"/>
-      <c r="DA28" s="10"/>
-      <c r="DB28" s="10"/>
-      <c r="DC28" s="10"/>
-      <c r="DD28" s="10"/>
-      <c r="DE28" s="10"/>
-      <c r="DF28" s="10"/>
-      <c r="DG28" s="10"/>
-      <c r="DH28" s="10"/>
-      <c r="DI28" s="10"/>
-      <c r="DJ28" s="10"/>
-      <c r="DK28" s="10"/>
-      <c r="DL28" s="10"/>
-      <c r="DM28" s="10"/>
-      <c r="DN28" s="10"/>
-      <c r="DO28" s="10"/>
-      <c r="DP28" s="10"/>
-      <c r="DQ28" s="10"/>
-      <c r="DR28" s="10"/>
-      <c r="DS28" s="10"/>
-      <c r="DT28" s="10"/>
-      <c r="DU28" s="10"/>
-      <c r="DV28" s="10"/>
-      <c r="DW28" s="10"/>
-      <c r="DX28" s="10"/>
-      <c r="DY28" s="10"/>
-      <c r="DZ28" s="10"/>
-      <c r="EA28" s="10"/>
-      <c r="EB28" s="10"/>
-      <c r="EC28" s="10"/>
-      <c r="ED28" s="10"/>
-      <c r="EE28" s="10"/>
-      <c r="EF28" s="10"/>
-      <c r="EG28" s="10"/>
-      <c r="EH28" s="10"/>
-      <c r="EI28" s="10"/>
-      <c r="EJ28" s="10"/>
-      <c r="EK28" s="10"/>
-      <c r="EL28" s="10"/>
-      <c r="EM28" s="10"/>
-      <c r="EN28" s="10"/>
-      <c r="EO28" s="10"/>
-      <c r="EP28" s="10"/>
-      <c r="EQ28" s="10"/>
-      <c r="ER28" s="10"/>
-      <c r="ES28" s="10"/>
-      <c r="ET28" s="10"/>
-      <c r="EU28" s="10"/>
-      <c r="EV28" s="10"/>
-      <c r="EW28" s="10"/>
-      <c r="EX28" s="10"/>
-      <c r="EY28" s="10"/>
-      <c r="EZ28" s="10"/>
-      <c r="FA28" s="10"/>
-      <c r="FB28" s="10"/>
-      <c r="FC28" s="10"/>
-      <c r="FD28" s="10"/>
-      <c r="FE28" s="10"/>
-      <c r="FF28" s="10"/>
-      <c r="FG28" s="10"/>
-      <c r="FH28" s="10"/>
-      <c r="FI28" s="10"/>
-      <c r="FJ28" s="10"/>
-      <c r="FK28" s="10"/>
-      <c r="FL28" s="10"/>
-      <c r="FM28" s="10"/>
-      <c r="FN28" s="10"/>
-      <c r="FO28" s="10"/>
-      <c r="FP28" s="10"/>
-      <c r="FQ28" s="10"/>
-      <c r="FR28" s="10"/>
-      <c r="FS28" s="10"/>
-      <c r="FT28" s="10"/>
-      <c r="FU28" s="10"/>
-      <c r="FV28" s="10"/>
-      <c r="FW28" s="10"/>
-      <c r="FX28" s="10"/>
-      <c r="FY28" s="10"/>
-      <c r="FZ28" s="10"/>
-      <c r="GA28" s="10"/>
-      <c r="GB28" s="10"/>
-      <c r="GC28" s="10"/>
-      <c r="GD28" s="10"/>
-      <c r="GE28" s="10"/>
-      <c r="GF28" s="10"/>
-      <c r="GG28" s="10"/>
-      <c r="GH28" s="10"/>
-      <c r="GI28" s="10"/>
-      <c r="GJ28" s="10"/>
-      <c r="GK28" s="10"/>
-      <c r="GL28" s="10"/>
-      <c r="GM28" s="10"/>
-      <c r="GN28" s="10"/>
-      <c r="GO28" s="10"/>
-      <c r="GP28" s="10"/>
-      <c r="GQ28" s="10"/>
-      <c r="GR28" s="10"/>
-      <c r="GS28" s="10"/>
-      <c r="GT28" s="10"/>
-      <c r="GU28" s="10"/>
-      <c r="GV28" s="10"/>
-      <c r="GW28" s="10"/>
-      <c r="GX28" s="10"/>
-      <c r="GY28" s="10"/>
-      <c r="GZ28" s="10"/>
-      <c r="HA28" s="10"/>
-      <c r="HB28" s="10"/>
-      <c r="HC28" s="10"/>
-      <c r="HD28" s="10"/>
-      <c r="HE28" s="10"/>
-      <c r="HF28" s="10"/>
-      <c r="HG28" s="10"/>
-      <c r="HH28" s="10"/>
-      <c r="HI28" s="10"/>
-      <c r="HJ28" s="10"/>
-      <c r="HK28" s="10"/>
-      <c r="HL28" s="10"/>
-      <c r="HM28" s="10"/>
-      <c r="HN28" s="10"/>
-      <c r="HO28" s="10"/>
-      <c r="HP28" s="10"/>
-      <c r="HQ28" s="10"/>
-      <c r="HR28" s="10"/>
-      <c r="HS28" s="10"/>
-      <c r="HT28" s="10"/>
-      <c r="HU28" s="10"/>
-      <c r="HV28" s="10"/>
-      <c r="HW28" s="10"/>
-      <c r="HX28" s="10"/>
-      <c r="HY28" s="10"/>
-      <c r="HZ28" s="10"/>
-      <c r="IA28" s="10"/>
-      <c r="IB28" s="10"/>
-      <c r="IC28" s="10"/>
-      <c r="ID28" s="10"/>
-      <c r="IE28" s="10"/>
-      <c r="IF28" s="10"/>
-      <c r="IG28" s="10"/>
-      <c r="IH28" s="10"/>
-      <c r="II28" s="10"/>
-      <c r="IJ28" s="10"/>
-      <c r="IK28" s="10"/>
-      <c r="IL28" s="10"/>
-      <c r="IM28" s="10"/>
-      <c r="IN28" s="10"/>
-      <c r="IO28" s="10"/>
-      <c r="IP28" s="10"/>
-      <c r="IQ28" s="10"/>
-      <c r="IR28" s="10"/>
-      <c r="IS28" s="10"/>
-      <c r="IT28" s="10"/>
-      <c r="IU28" s="10"/>
-      <c r="IV28" s="10"/>
-      <c r="IW28" s="10"/>
-      <c r="IX28" s="10"/>
-      <c r="IY28" s="10"/>
-      <c r="IZ28" s="10"/>
-      <c r="JA28" s="10"/>
-      <c r="JB28" s="10"/>
-      <c r="JC28" s="10"/>
-      <c r="JD28" s="10"/>
-      <c r="JE28" s="10"/>
-      <c r="JF28" s="10"/>
-      <c r="JG28" s="10"/>
-      <c r="JH28" s="10"/>
-      <c r="JI28" s="10"/>
-      <c r="JJ28" s="10"/>
-      <c r="JK28" s="10"/>
-      <c r="JL28" s="10"/>
-      <c r="JM28" s="10"/>
-      <c r="JN28" s="10"/>
-      <c r="JO28" s="10"/>
-      <c r="JP28" s="10"/>
-      <c r="JQ28" s="10"/>
-      <c r="JR28" s="10"/>
-      <c r="JS28" s="10"/>
-      <c r="JT28" s="10"/>
-      <c r="JU28" s="10"/>
-      <c r="JV28" s="10"/>
-      <c r="JW28" s="10"/>
-      <c r="JX28" s="10"/>
-      <c r="JY28" s="10"/>
-      <c r="JZ28" s="10"/>
-      <c r="KA28" s="10"/>
-      <c r="KB28" s="10"/>
-      <c r="KC28" s="10"/>
-      <c r="KD28" s="10"/>
-      <c r="KE28" s="10"/>
-      <c r="KF28" s="10"/>
-      <c r="KG28" s="10"/>
-      <c r="KH28" s="10"/>
-      <c r="KI28" s="10"/>
-      <c r="KJ28" s="10"/>
-      <c r="KK28" s="10"/>
-      <c r="KL28" s="10"/>
-      <c r="KM28" s="10"/>
-      <c r="KN28" s="10"/>
-      <c r="KO28" s="10"/>
-      <c r="KP28" s="10"/>
-      <c r="KQ28" s="10"/>
-      <c r="KR28" s="10"/>
-      <c r="KS28" s="10"/>
-      <c r="KT28" s="10"/>
-      <c r="KU28" s="10"/>
-      <c r="KV28" s="10"/>
-      <c r="KW28" s="10"/>
-      <c r="KX28" s="10"/>
-      <c r="KY28" s="10"/>
-      <c r="KZ28" s="10"/>
-      <c r="LA28" s="10"/>
-      <c r="LB28" s="10"/>
-      <c r="LC28" s="10"/>
-      <c r="LD28" s="10"/>
-      <c r="LE28" s="10"/>
-      <c r="LF28" s="10"/>
-      <c r="LG28" s="10"/>
-      <c r="LH28" s="10"/>
-      <c r="LI28" s="10"/>
-      <c r="LJ28" s="10"/>
-      <c r="LK28" s="10"/>
-      <c r="LL28" s="10"/>
-      <c r="LM28" s="10"/>
-      <c r="LN28" s="10"/>
-      <c r="LO28" s="10"/>
-      <c r="LP28" s="10"/>
-      <c r="LQ28" s="10"/>
-      <c r="LR28" s="10"/>
-      <c r="LS28" s="10"/>
-      <c r="LT28" s="10"/>
-      <c r="LU28" s="10"/>
-      <c r="LV28" s="10"/>
-      <c r="LW28" s="10"/>
-      <c r="LX28" s="10"/>
-      <c r="LY28" s="10"/>
-      <c r="LZ28" s="10"/>
-      <c r="MA28" s="10"/>
-      <c r="MB28" s="10"/>
-      <c r="MC28" s="10"/>
-      <c r="MD28" s="10"/>
-      <c r="ME28" s="10"/>
-      <c r="MF28" s="10"/>
-      <c r="MG28" s="10"/>
-      <c r="MH28" s="10"/>
-      <c r="MI28" s="10"/>
-      <c r="MJ28" s="10"/>
-      <c r="MK28" s="10"/>
-      <c r="ML28" s="10"/>
-      <c r="MM28" s="10"/>
-      <c r="MN28" s="10"/>
-      <c r="MO28" s="10"/>
-      <c r="MP28" s="10"/>
-      <c r="MQ28" s="10"/>
-      <c r="MR28" s="10"/>
-      <c r="MS28" s="10"/>
-      <c r="MT28" s="10"/>
-      <c r="MU28" s="10"/>
-      <c r="MV28" s="10"/>
-      <c r="MW28" s="10"/>
-      <c r="MX28" s="10"/>
-      <c r="MY28" s="10"/>
-      <c r="MZ28" s="10"/>
-      <c r="NA28" s="10"/>
-      <c r="NB28" s="10"/>
-      <c r="NC28" s="10"/>
-      <c r="ND28" s="10"/>
-      <c r="NE28" s="10"/>
-      <c r="NF28" s="10"/>
-      <c r="NG28" s="10"/>
-      <c r="NH28" s="10"/>
-      <c r="NI28" s="10"/>
-      <c r="NJ28" s="10"/>
-      <c r="NK28" s="10"/>
-      <c r="NL28" s="10"/>
-      <c r="NM28" s="10"/>
-      <c r="NN28" s="10"/>
-      <c r="NO28" s="10"/>
-      <c r="NP28" s="10"/>
-      <c r="NQ28" s="10"/>
-      <c r="NR28" s="10"/>
-      <c r="NS28" s="10"/>
-      <c r="NT28" s="10"/>
-      <c r="NU28" s="10"/>
-      <c r="NV28" s="10"/>
-      <c r="NW28" s="10"/>
-      <c r="NX28" s="10"/>
-      <c r="NY28" s="10"/>
-      <c r="NZ28" s="10"/>
-      <c r="OA28" s="10"/>
-      <c r="OB28" s="10"/>
-      <c r="OC28" s="10"/>
-      <c r="OD28" s="10"/>
-      <c r="OE28" s="10"/>
-      <c r="OF28" s="10"/>
-      <c r="OG28" s="10"/>
-      <c r="OH28" s="10"/>
-      <c r="OI28" s="10"/>
-      <c r="OJ28" s="10"/>
-      <c r="OK28" s="10"/>
-      <c r="OL28" s="10"/>
-      <c r="OM28" s="10"/>
-      <c r="ON28" s="10"/>
-      <c r="OO28" s="10"/>
-      <c r="OP28" s="10"/>
-      <c r="OQ28" s="10"/>
-      <c r="OR28" s="10"/>
-      <c r="OS28" s="10"/>
-      <c r="OT28" s="10"/>
-      <c r="OU28" s="10"/>
-      <c r="OV28" s="10"/>
-      <c r="OW28" s="10"/>
-      <c r="OX28" s="10"/>
-      <c r="OY28" s="10"/>
-      <c r="OZ28" s="10"/>
-      <c r="PA28" s="10"/>
-      <c r="PB28" s="10"/>
-      <c r="PC28" s="10"/>
-      <c r="PD28" s="10"/>
-      <c r="PE28" s="10"/>
-      <c r="PF28" s="10"/>
-      <c r="PG28" s="10"/>
-      <c r="PH28" s="10"/>
-      <c r="PI28" s="10"/>
-      <c r="PJ28" s="10"/>
-      <c r="PK28" s="10"/>
-      <c r="PL28" s="10"/>
-      <c r="PM28" s="10"/>
-      <c r="PN28" s="10"/>
-      <c r="PO28" s="10"/>
-      <c r="PP28" s="10"/>
-      <c r="PQ28" s="10"/>
-      <c r="PR28" s="10"/>
-      <c r="PS28" s="10"/>
-      <c r="PT28" s="10"/>
-      <c r="PU28" s="10"/>
-      <c r="PV28" s="10"/>
-      <c r="PW28" s="10"/>
-      <c r="PX28" s="10"/>
-      <c r="PY28" s="10"/>
-      <c r="PZ28" s="10"/>
-      <c r="QA28" s="10"/>
-      <c r="QB28" s="10"/>
-      <c r="QC28" s="10"/>
-      <c r="QD28" s="10"/>
-      <c r="QE28" s="10"/>
-      <c r="QF28" s="10"/>
-      <c r="QG28" s="10"/>
-      <c r="QH28" s="10"/>
-      <c r="QI28" s="10"/>
-      <c r="QJ28" s="10"/>
-      <c r="QK28" s="10"/>
-      <c r="QL28" s="10"/>
-      <c r="QM28" s="10"/>
-      <c r="QN28" s="10"/>
-      <c r="QO28" s="10"/>
-      <c r="QP28" s="10"/>
-      <c r="QQ28" s="10"/>
-      <c r="QR28" s="10"/>
-      <c r="QS28" s="10"/>
-      <c r="QT28" s="10"/>
-      <c r="QU28" s="10"/>
-      <c r="QV28" s="10"/>
-      <c r="QW28" s="10"/>
-      <c r="QX28" s="10"/>
-      <c r="QY28" s="10"/>
-      <c r="QZ28" s="10"/>
-      <c r="RA28" s="10"/>
-      <c r="RB28" s="10"/>
-      <c r="RC28" s="10"/>
-      <c r="RD28" s="10"/>
-      <c r="RE28" s="10"/>
-      <c r="RF28" s="10"/>
-      <c r="RG28" s="10"/>
-      <c r="RH28" s="10"/>
-      <c r="RI28" s="10"/>
-      <c r="RJ28" s="10"/>
-      <c r="RK28" s="10"/>
-      <c r="RL28" s="10"/>
-      <c r="RM28" s="10"/>
-      <c r="RN28" s="10"/>
-      <c r="RO28" s="10"/>
-      <c r="RP28" s="10"/>
-      <c r="RQ28" s="10"/>
-      <c r="RR28" s="10"/>
-      <c r="RS28" s="10"/>
-      <c r="RT28" s="10"/>
-      <c r="RU28" s="10"/>
-      <c r="RV28" s="10"/>
-      <c r="RW28" s="10"/>
-      <c r="RX28" s="10"/>
-      <c r="RY28" s="10"/>
-      <c r="RZ28" s="10"/>
-      <c r="SA28" s="10"/>
-      <c r="SB28" s="10"/>
-      <c r="SC28" s="10"/>
-      <c r="SD28" s="10"/>
-      <c r="SE28" s="10"/>
-      <c r="SF28" s="10"/>
-      <c r="SG28" s="10"/>
-      <c r="SH28" s="10"/>
-      <c r="SI28" s="10"/>
-      <c r="SJ28" s="10"/>
-      <c r="SK28" s="10"/>
-      <c r="SL28" s="10"/>
-      <c r="SM28" s="10"/>
-      <c r="SN28" s="10"/>
-      <c r="SO28" s="10"/>
-      <c r="SP28" s="10"/>
-      <c r="SQ28" s="10"/>
-      <c r="SR28" s="10"/>
-      <c r="SS28" s="10"/>
-      <c r="ST28" s="10"/>
-      <c r="SU28" s="10"/>
-      <c r="SV28" s="10"/>
-      <c r="SW28" s="10"/>
-      <c r="SX28" s="10"/>
-      <c r="SY28" s="10"/>
-      <c r="SZ28" s="10"/>
-      <c r="TA28" s="10"/>
-      <c r="TB28" s="10"/>
-      <c r="TC28" s="10"/>
-      <c r="TD28" s="10"/>
-      <c r="TE28" s="10"/>
-      <c r="TF28" s="10"/>
-      <c r="TG28" s="10"/>
-      <c r="TH28" s="10"/>
-      <c r="TI28" s="10"/>
-      <c r="TJ28" s="10"/>
-      <c r="TK28" s="10"/>
-      <c r="TL28" s="10"/>
-      <c r="TM28" s="10"/>
-      <c r="TN28" s="10"/>
-      <c r="TO28" s="10"/>
-      <c r="TP28" s="10"/>
-      <c r="TQ28" s="10"/>
-      <c r="TR28" s="10"/>
-      <c r="TS28" s="10"/>
-      <c r="TT28" s="10"/>
-      <c r="TU28" s="10"/>
-      <c r="TV28" s="10"/>
-      <c r="TW28" s="10"/>
-      <c r="TX28" s="10"/>
-      <c r="TY28" s="10"/>
-      <c r="TZ28" s="10"/>
-      <c r="UA28" s="10"/>
-      <c r="UB28" s="10"/>
-      <c r="UC28" s="10"/>
-      <c r="UD28" s="10"/>
-      <c r="UE28" s="10"/>
-      <c r="UF28" s="10"/>
-      <c r="UG28" s="10"/>
-      <c r="UH28" s="10"/>
-      <c r="UI28" s="10"/>
-      <c r="UJ28" s="10"/>
-      <c r="UK28" s="10"/>
-      <c r="UL28" s="10"/>
-      <c r="UM28" s="10"/>
-      <c r="UN28" s="10"/>
-      <c r="UO28" s="10"/>
-      <c r="UP28" s="10"/>
-      <c r="UQ28" s="10"/>
-      <c r="UR28" s="10"/>
-      <c r="US28" s="10"/>
-      <c r="UT28" s="10"/>
-      <c r="UU28" s="10"/>
-      <c r="UV28" s="10"/>
-      <c r="UW28" s="10"/>
-      <c r="UX28" s="10"/>
-      <c r="UY28" s="10"/>
-      <c r="UZ28" s="10"/>
-      <c r="VA28" s="10"/>
-      <c r="VB28" s="10"/>
-      <c r="VC28" s="10"/>
-      <c r="VD28" s="10"/>
-      <c r="VE28" s="10"/>
-      <c r="VF28" s="10"/>
-      <c r="VG28" s="10"/>
-      <c r="VH28" s="10"/>
-      <c r="VI28" s="10"/>
-      <c r="VJ28" s="10"/>
-      <c r="VK28" s="10"/>
-      <c r="VL28" s="10"/>
-      <c r="VM28" s="10"/>
-      <c r="VN28" s="10"/>
-      <c r="VO28" s="10"/>
-      <c r="VP28" s="10"/>
-      <c r="VQ28" s="10"/>
-      <c r="VR28" s="10"/>
-      <c r="VS28" s="10"/>
-      <c r="VT28" s="10"/>
-      <c r="VU28" s="10"/>
-      <c r="VV28" s="10"/>
-      <c r="VW28" s="10"/>
-      <c r="VX28" s="10"/>
-      <c r="VY28" s="10"/>
-      <c r="VZ28" s="10"/>
-      <c r="WA28" s="10"/>
-      <c r="WB28" s="10"/>
-      <c r="WC28" s="10"/>
-      <c r="WD28" s="10"/>
-      <c r="WE28" s="10"/>
-      <c r="WF28" s="10"/>
-      <c r="WG28" s="10"/>
-      <c r="WH28" s="10"/>
-      <c r="WI28" s="10"/>
-      <c r="WJ28" s="10"/>
-      <c r="WK28" s="10"/>
-      <c r="WL28" s="10"/>
-      <c r="WM28" s="10"/>
-      <c r="WN28" s="10"/>
-      <c r="WO28" s="10"/>
-      <c r="WP28" s="10"/>
-      <c r="WQ28" s="10"/>
-      <c r="WR28" s="10"/>
-      <c r="WS28" s="10"/>
-      <c r="WT28" s="10"/>
-      <c r="WU28" s="10"/>
-      <c r="WV28" s="10"/>
-      <c r="WW28" s="10"/>
-      <c r="WX28" s="10"/>
-      <c r="WY28" s="10"/>
-      <c r="WZ28" s="10"/>
-      <c r="XA28" s="10"/>
-      <c r="XB28" s="10"/>
-      <c r="XC28" s="10"/>
-      <c r="XD28" s="10"/>
-      <c r="XE28" s="10"/>
-      <c r="XF28" s="10"/>
-      <c r="XG28" s="10"/>
-      <c r="XH28" s="10"/>
-      <c r="XI28" s="10"/>
-      <c r="XJ28" s="10"/>
-      <c r="XK28" s="10"/>
-      <c r="XL28" s="10"/>
-      <c r="XM28" s="10"/>
-      <c r="XN28" s="10"/>
-      <c r="XO28" s="10"/>
-      <c r="XP28" s="10"/>
-      <c r="XQ28" s="10"/>
-      <c r="XR28" s="10"/>
-      <c r="XS28" s="10"/>
-      <c r="XT28" s="10"/>
-      <c r="XU28" s="10"/>
-      <c r="XV28" s="10"/>
-      <c r="XW28" s="10"/>
-      <c r="XX28" s="10"/>
-      <c r="XY28" s="10"/>
-      <c r="XZ28" s="10"/>
-      <c r="YA28" s="10"/>
-      <c r="YB28" s="10"/>
-      <c r="YC28" s="10"/>
-      <c r="YD28" s="10"/>
-      <c r="YE28" s="10"/>
-      <c r="YF28" s="10"/>
-      <c r="YG28" s="10"/>
-      <c r="YH28" s="10"/>
-      <c r="YI28" s="10"/>
-      <c r="YJ28" s="10"/>
-      <c r="YK28" s="10"/>
-      <c r="YL28" s="10"/>
-      <c r="YM28" s="10"/>
-      <c r="YN28" s="10"/>
-      <c r="YO28" s="10"/>
-      <c r="YP28" s="10"/>
-      <c r="YQ28" s="10"/>
-      <c r="YR28" s="10"/>
-      <c r="YS28" s="10"/>
-      <c r="YT28" s="10"/>
-      <c r="YU28" s="10"/>
-      <c r="YV28" s="10"/>
-      <c r="YW28" s="10"/>
-      <c r="YX28" s="10"/>
-      <c r="YY28" s="10"/>
-      <c r="YZ28" s="10"/>
-      <c r="ZA28" s="10"/>
-      <c r="ZB28" s="10"/>
-      <c r="ZC28" s="10"/>
-      <c r="ZD28" s="10"/>
-      <c r="ZE28" s="10"/>
-      <c r="ZF28" s="10"/>
-      <c r="ZG28" s="10"/>
-      <c r="ZH28" s="10"/>
-      <c r="ZI28" s="10"/>
-      <c r="ZJ28" s="10"/>
-      <c r="ZK28" s="10"/>
-      <c r="ZL28" s="10"/>
-      <c r="ZM28" s="10"/>
-      <c r="ZN28" s="10"/>
-      <c r="ZO28" s="10"/>
-      <c r="ZP28" s="10"/>
-      <c r="ZQ28" s="10"/>
-      <c r="ZR28" s="10"/>
-      <c r="ZS28" s="10"/>
-      <c r="ZT28" s="10"/>
-      <c r="ZU28" s="10"/>
-      <c r="ZV28" s="10"/>
-      <c r="ZW28" s="10"/>
-      <c r="ZX28" s="10"/>
-      <c r="ZY28" s="10"/>
-      <c r="ZZ28" s="10"/>
-      <c r="AAA28" s="10"/>
-      <c r="AAB28" s="10"/>
-      <c r="AAC28" s="10"/>
-      <c r="AAD28" s="10"/>
-      <c r="AAE28" s="10"/>
-      <c r="AAF28" s="10"/>
-      <c r="AAG28" s="10"/>
-      <c r="AAH28" s="10"/>
-      <c r="AAI28" s="10"/>
-      <c r="AAJ28" s="10"/>
-      <c r="AAK28" s="10"/>
-      <c r="AAL28" s="10"/>
-      <c r="AAM28" s="10"/>
-      <c r="AAN28" s="10"/>
-      <c r="AAO28" s="10"/>
-      <c r="AAP28" s="10"/>
-      <c r="AAQ28" s="10"/>
-      <c r="AAR28" s="10"/>
-      <c r="AAS28" s="10"/>
-      <c r="AAT28" s="10"/>
-      <c r="AAU28" s="10"/>
-      <c r="AAV28" s="10"/>
-      <c r="AAW28" s="10"/>
-      <c r="AAX28" s="10"/>
-      <c r="AAY28" s="10"/>
-      <c r="AAZ28" s="10"/>
-      <c r="ABA28" s="10"/>
-      <c r="ABB28" s="10"/>
-      <c r="ABC28" s="10"/>
-      <c r="ABD28" s="10"/>
-      <c r="ABE28" s="10"/>
-      <c r="ABF28" s="10"/>
-      <c r="ABG28" s="10"/>
-      <c r="ABH28" s="10"/>
-      <c r="ABI28" s="10"/>
-      <c r="ABJ28" s="10"/>
-      <c r="ABK28" s="10"/>
-      <c r="ABL28" s="10"/>
-      <c r="ABM28" s="10"/>
-      <c r="ABN28" s="10"/>
-      <c r="ABO28" s="10"/>
-      <c r="ABP28" s="10"/>
-      <c r="ABQ28" s="10"/>
-      <c r="ABR28" s="10"/>
-      <c r="ABS28" s="10"/>
-      <c r="ABT28" s="10"/>
-      <c r="ABU28" s="10"/>
-      <c r="ABV28" s="10"/>
-      <c r="ABW28" s="10"/>
-      <c r="ABX28" s="10"/>
-      <c r="ABY28" s="10"/>
-      <c r="ABZ28" s="10"/>
-      <c r="ACA28" s="10"/>
-      <c r="ACB28" s="10"/>
-      <c r="ACC28" s="10"/>
-      <c r="ACD28" s="10"/>
-      <c r="ACE28" s="10"/>
-      <c r="ACF28" s="10"/>
-      <c r="ACG28" s="10"/>
-      <c r="ACH28" s="10"/>
-      <c r="ACI28" s="10"/>
-      <c r="ACJ28" s="10"/>
-      <c r="ACK28" s="10"/>
-      <c r="ACL28" s="10"/>
-      <c r="ACM28" s="10"/>
-      <c r="ACN28" s="10"/>
-      <c r="ACO28" s="10"/>
-      <c r="ACP28" s="10"/>
-      <c r="ACQ28" s="10"/>
-      <c r="ACR28" s="10"/>
-      <c r="ACS28" s="10"/>
-      <c r="ACT28" s="10"/>
-      <c r="ACU28" s="10"/>
-      <c r="ACV28" s="10"/>
-      <c r="ACW28" s="10"/>
-      <c r="ACX28" s="10"/>
-      <c r="ACY28" s="10"/>
-      <c r="ACZ28" s="10"/>
-      <c r="ADA28" s="10"/>
-      <c r="ADB28" s="10"/>
-      <c r="ADC28" s="10"/>
-      <c r="ADD28" s="10"/>
-      <c r="ADE28" s="10"/>
-      <c r="ADF28" s="10"/>
-      <c r="ADG28" s="10"/>
-      <c r="ADH28" s="10"/>
-      <c r="ADI28" s="10"/>
-      <c r="ADJ28" s="10"/>
-      <c r="ADK28" s="10"/>
-      <c r="ADL28" s="10"/>
-      <c r="ADM28" s="10"/>
-      <c r="ADN28" s="10"/>
-      <c r="ADO28" s="10"/>
-      <c r="ADP28" s="10"/>
-      <c r="ADQ28" s="10"/>
-      <c r="ADR28" s="10"/>
-      <c r="ADS28" s="10"/>
-      <c r="ADT28" s="10"/>
-      <c r="ADU28" s="10"/>
-      <c r="ADV28" s="10"/>
-      <c r="ADW28" s="10"/>
-      <c r="ADX28" s="10"/>
-      <c r="ADY28" s="10"/>
-      <c r="ADZ28" s="10"/>
-      <c r="AEA28" s="10"/>
-      <c r="AEB28" s="10"/>
-      <c r="AEC28" s="10"/>
-      <c r="AED28" s="10"/>
-      <c r="AEE28" s="10"/>
-      <c r="AEF28" s="10"/>
-      <c r="AEG28" s="10"/>
-      <c r="AEH28" s="10"/>
-      <c r="AEI28" s="10"/>
-      <c r="AEJ28" s="10"/>
-      <c r="AEK28" s="10"/>
-      <c r="AEL28" s="10"/>
-      <c r="AEM28" s="10"/>
-      <c r="AEN28" s="10"/>
-      <c r="AEO28" s="10"/>
-      <c r="AEP28" s="10"/>
-      <c r="AEQ28" s="10"/>
-      <c r="AER28" s="10"/>
-      <c r="AES28" s="10"/>
-      <c r="AET28" s="10"/>
-      <c r="AEU28" s="10"/>
-      <c r="AEV28" s="10"/>
-      <c r="AEW28" s="10"/>
-      <c r="AEX28" s="10"/>
-      <c r="AEY28" s="10"/>
-      <c r="AEZ28" s="10"/>
-      <c r="AFA28" s="10"/>
-      <c r="AFB28" s="10"/>
-      <c r="AFC28" s="10"/>
-      <c r="AFD28" s="10"/>
-      <c r="AFE28" s="10"/>
-      <c r="AFF28" s="10"/>
-      <c r="AFG28" s="10"/>
-      <c r="AFH28" s="10"/>
-      <c r="AFI28" s="10"/>
-      <c r="AFJ28" s="10"/>
-      <c r="AFK28" s="10"/>
-      <c r="AFL28" s="10"/>
-      <c r="AFM28" s="10"/>
-      <c r="AFN28" s="10"/>
-      <c r="AFO28" s="10"/>
-      <c r="AFP28" s="10"/>
-      <c r="AFQ28" s="10"/>
-      <c r="AFR28" s="10"/>
-      <c r="AFS28" s="10"/>
-      <c r="AFT28" s="10"/>
-      <c r="AFU28" s="10"/>
-      <c r="AFV28" s="10"/>
-      <c r="AFW28" s="10"/>
-      <c r="AFX28" s="10"/>
-      <c r="AFY28" s="10"/>
-      <c r="AFZ28" s="10"/>
-      <c r="AGA28" s="10"/>
-      <c r="AGB28" s="10"/>
-      <c r="AGC28" s="10"/>
-      <c r="AGD28" s="10"/>
-      <c r="AGE28" s="10"/>
-      <c r="AGF28" s="10"/>
-      <c r="AGG28" s="10"/>
-      <c r="AGH28" s="10"/>
-      <c r="AGI28" s="10"/>
-      <c r="AGJ28" s="10"/>
-      <c r="AGK28" s="10"/>
-      <c r="AGL28" s="10"/>
-      <c r="AGM28" s="10"/>
-      <c r="AGN28" s="10"/>
-      <c r="AGO28" s="10"/>
-      <c r="AGP28" s="10"/>
-      <c r="AGQ28" s="10"/>
-      <c r="AGR28" s="10"/>
-      <c r="AGS28" s="10"/>
-      <c r="AGT28" s="10"/>
-      <c r="AGU28" s="10"/>
-      <c r="AGV28" s="10"/>
-      <c r="AGW28" s="10"/>
-      <c r="AGX28" s="10"/>
-      <c r="AGY28" s="10"/>
-      <c r="AGZ28" s="10"/>
-      <c r="AHA28" s="10"/>
-      <c r="AHB28" s="10"/>
-      <c r="AHC28" s="10"/>
-      <c r="AHD28" s="10"/>
-      <c r="AHE28" s="10"/>
-      <c r="AHF28" s="10"/>
-      <c r="AHG28" s="10"/>
-      <c r="AHH28" s="10"/>
-      <c r="AHI28" s="10"/>
-      <c r="AHJ28" s="10"/>
-      <c r="AHK28" s="10"/>
-      <c r="AHL28" s="10"/>
-      <c r="AHM28" s="10"/>
-      <c r="AHN28" s="10"/>
-      <c r="AHO28" s="10"/>
-      <c r="AHP28" s="10"/>
-      <c r="AHQ28" s="10"/>
-      <c r="AHR28" s="10"/>
-      <c r="AHS28" s="10"/>
-      <c r="AHT28" s="10"/>
-      <c r="AHU28" s="10"/>
-      <c r="AHV28" s="10"/>
-      <c r="AHW28" s="10"/>
-      <c r="AHX28" s="10"/>
-      <c r="AHY28" s="10"/>
-      <c r="AHZ28" s="10"/>
-      <c r="AIA28" s="10"/>
-      <c r="AIB28" s="10"/>
-      <c r="AIC28" s="10"/>
-      <c r="AID28" s="10"/>
-      <c r="AIE28" s="10"/>
-      <c r="AIF28" s="10"/>
-      <c r="AIG28" s="10"/>
-      <c r="AIH28" s="10"/>
-      <c r="AII28" s="10"/>
-      <c r="AIJ28" s="10"/>
-      <c r="AIK28" s="10"/>
-      <c r="AIL28" s="10"/>
-      <c r="AIM28" s="10"/>
-      <c r="AIN28" s="10"/>
-      <c r="AIO28" s="10"/>
-      <c r="AIP28" s="10"/>
-      <c r="AIQ28" s="10"/>
-      <c r="AIR28" s="10"/>
-      <c r="AIS28" s="10"/>
-      <c r="AIT28" s="10"/>
-      <c r="AIU28" s="10"/>
-      <c r="AIV28" s="10"/>
-      <c r="AIW28" s="10"/>
-      <c r="AIX28" s="10"/>
-      <c r="AIY28" s="10"/>
-      <c r="AIZ28" s="10"/>
-      <c r="AJA28" s="10"/>
-      <c r="AJB28" s="10"/>
-      <c r="AJC28" s="10"/>
-      <c r="AJD28" s="10"/>
-      <c r="AJE28" s="10"/>
-      <c r="AJF28" s="10"/>
-      <c r="AJG28" s="10"/>
-      <c r="AJH28" s="10"/>
-      <c r="AJI28" s="10"/>
-      <c r="AJJ28" s="10"/>
-      <c r="AJK28" s="10"/>
-      <c r="AJL28" s="10"/>
-      <c r="AJM28" s="10"/>
-      <c r="AJN28" s="10"/>
-      <c r="AJO28" s="10"/>
-      <c r="AJP28" s="10"/>
-      <c r="AJQ28" s="10"/>
-      <c r="AJR28" s="10"/>
-      <c r="AJS28" s="10"/>
-      <c r="AJT28" s="10"/>
-      <c r="AJU28" s="10"/>
-      <c r="AJV28" s="10"/>
-      <c r="AJW28" s="10"/>
-      <c r="AJX28" s="10"/>
-      <c r="AJY28" s="10"/>
-      <c r="AJZ28" s="10"/>
-      <c r="AKA28" s="10"/>
-      <c r="AKB28" s="10"/>
-      <c r="AKC28" s="10"/>
-      <c r="AKD28" s="10"/>
-      <c r="AKE28" s="10"/>
-      <c r="AKF28" s="10"/>
-      <c r="AKG28" s="10"/>
-      <c r="AKH28" s="10"/>
-      <c r="AKI28" s="10"/>
-      <c r="AKJ28" s="10"/>
-      <c r="AKK28" s="10"/>
-      <c r="AKL28" s="10"/>
-      <c r="AKM28" s="10"/>
-      <c r="AKN28" s="10"/>
-      <c r="AKO28" s="10"/>
-      <c r="AKP28" s="10"/>
-      <c r="AKQ28" s="10"/>
-      <c r="AKR28" s="10"/>
-      <c r="AKS28" s="10"/>
-      <c r="AKT28" s="10"/>
-      <c r="AKU28" s="10"/>
-      <c r="AKV28" s="10"/>
-      <c r="AKW28" s="10"/>
-      <c r="AKX28" s="10"/>
-      <c r="AKY28" s="10"/>
-      <c r="AKZ28" s="10"/>
-      <c r="ALA28" s="10"/>
-      <c r="ALB28" s="10"/>
-      <c r="ALC28" s="10"/>
-      <c r="ALD28" s="10"/>
-      <c r="ALE28" s="10"/>
-      <c r="ALF28" s="10"/>
-      <c r="ALG28" s="10"/>
-      <c r="ALH28" s="10"/>
-      <c r="ALI28" s="10"/>
-      <c r="ALJ28" s="10"/>
-      <c r="ALK28" s="10"/>
-      <c r="ALL28" s="10"/>
-      <c r="ALM28" s="10"/>
-      <c r="ALN28" s="10"/>
-      <c r="ALO28" s="10"/>
-      <c r="ALP28" s="10"/>
-      <c r="ALQ28" s="10"/>
-      <c r="ALR28" s="10"/>
-      <c r="ALS28" s="10"/>
-      <c r="ALT28" s="10"/>
-      <c r="ALU28" s="10"/>
-      <c r="ALV28" s="10"/>
-      <c r="ALW28" s="10"/>
-      <c r="ALX28" s="10"/>
-      <c r="ALY28" s="10"/>
-      <c r="ALZ28" s="10"/>
-      <c r="AMA28" s="10"/>
-      <c r="AMB28" s="10"/>
-      <c r="AMC28" s="10"/>
-      <c r="AMD28" s="10"/>
-      <c r="AME28" s="10"/>
-      <c r="AMF28" s="10"/>
-      <c r="AMG28" s="10"/>
-      <c r="AMH28" s="10"/>
-      <c r="AMI28" s="10"/>
-      <c r="AMJ28" s="10"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="12"/>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
+      <c r="AG28" s="12"/>
+      <c r="AH28" s="12"/>
+      <c r="AI28" s="12"/>
+      <c r="AJ28" s="12"/>
+      <c r="AK28" s="12"/>
+      <c r="AL28" s="12"/>
+      <c r="AM28" s="12"/>
+      <c r="AN28" s="12"/>
+      <c r="AO28" s="12"/>
+      <c r="AP28" s="12"/>
+      <c r="AQ28" s="12"/>
+      <c r="AR28" s="12"/>
+      <c r="AS28" s="12"/>
+      <c r="AT28" s="12"/>
+      <c r="AU28" s="12"/>
+      <c r="AV28" s="12"/>
+      <c r="AW28" s="12"/>
+      <c r="AX28" s="12"/>
+      <c r="AY28" s="12"/>
+      <c r="AZ28" s="12"/>
+      <c r="BA28" s="12"/>
+      <c r="BB28" s="12"/>
+      <c r="BC28" s="12"/>
+      <c r="BD28" s="12"/>
+      <c r="BE28" s="12"/>
+      <c r="BF28" s="12"/>
+      <c r="BG28" s="12"/>
+      <c r="BH28" s="12"/>
+      <c r="BI28" s="12"/>
+      <c r="BJ28" s="12"/>
+      <c r="BK28" s="12"/>
+      <c r="BL28" s="12"/>
+      <c r="BM28" s="12"/>
+      <c r="BN28" s="12"/>
+      <c r="BO28" s="12"/>
+      <c r="BP28" s="12"/>
+      <c r="BQ28" s="12"/>
+      <c r="BR28" s="12"/>
+      <c r="BS28" s="12"/>
+      <c r="BT28" s="12"/>
+      <c r="BU28" s="12"/>
+      <c r="BV28" s="12"/>
+      <c r="BW28" s="12"/>
+      <c r="BX28" s="12"/>
+      <c r="BY28" s="12"/>
+      <c r="BZ28" s="12"/>
+      <c r="CA28" s="12"/>
+      <c r="CB28" s="12"/>
+      <c r="CC28" s="12"/>
+      <c r="CD28" s="12"/>
+      <c r="CE28" s="12"/>
+      <c r="CF28" s="12"/>
+      <c r="CG28" s="12"/>
+      <c r="CH28" s="12"/>
+      <c r="CI28" s="12"/>
+      <c r="CJ28" s="12"/>
+      <c r="CK28" s="12"/>
+      <c r="CL28" s="12"/>
+      <c r="CM28" s="12"/>
+      <c r="CN28" s="12"/>
+      <c r="CO28" s="12"/>
+      <c r="CP28" s="12"/>
+      <c r="CQ28" s="12"/>
+      <c r="CR28" s="12"/>
+      <c r="CS28" s="12"/>
+      <c r="CT28" s="12"/>
+      <c r="CU28" s="12"/>
+      <c r="CV28" s="12"/>
+      <c r="CW28" s="12"/>
+      <c r="CX28" s="12"/>
+      <c r="CY28" s="12"/>
+      <c r="CZ28" s="12"/>
+      <c r="DA28" s="12"/>
+      <c r="DB28" s="12"/>
+      <c r="DC28" s="12"/>
+      <c r="DD28" s="12"/>
+      <c r="DE28" s="12"/>
+      <c r="DF28" s="12"/>
+      <c r="DG28" s="12"/>
+      <c r="DH28" s="12"/>
+      <c r="DI28" s="12"/>
+      <c r="DJ28" s="12"/>
+      <c r="DK28" s="12"/>
+      <c r="DL28" s="12"/>
+      <c r="DM28" s="12"/>
+      <c r="DN28" s="12"/>
+      <c r="DO28" s="12"/>
+      <c r="DP28" s="12"/>
+      <c r="DQ28" s="12"/>
+      <c r="DR28" s="12"/>
+      <c r="DS28" s="12"/>
+      <c r="DT28" s="12"/>
+      <c r="DU28" s="12"/>
+      <c r="DV28" s="12"/>
+      <c r="DW28" s="12"/>
+      <c r="DX28" s="12"/>
+      <c r="DY28" s="12"/>
+      <c r="DZ28" s="12"/>
+      <c r="EA28" s="12"/>
+      <c r="EB28" s="12"/>
+      <c r="EC28" s="12"/>
+      <c r="ED28" s="12"/>
+      <c r="EE28" s="12"/>
+      <c r="EF28" s="12"/>
+      <c r="EG28" s="12"/>
+      <c r="EH28" s="12"/>
+      <c r="EI28" s="12"/>
+      <c r="EJ28" s="12"/>
+      <c r="EK28" s="12"/>
+      <c r="EL28" s="12"/>
+      <c r="EM28" s="12"/>
+      <c r="EN28" s="12"/>
+      <c r="EO28" s="12"/>
+      <c r="EP28" s="12"/>
+      <c r="EQ28" s="12"/>
+      <c r="ER28" s="12"/>
+      <c r="ES28" s="12"/>
+      <c r="ET28" s="12"/>
+      <c r="EU28" s="12"/>
+      <c r="EV28" s="12"/>
+      <c r="EW28" s="12"/>
+      <c r="EX28" s="12"/>
+      <c r="EY28" s="12"/>
+      <c r="EZ28" s="12"/>
+      <c r="FA28" s="12"/>
+      <c r="FB28" s="12"/>
+      <c r="FC28" s="12"/>
+      <c r="FD28" s="12"/>
+      <c r="FE28" s="12"/>
+      <c r="FF28" s="12"/>
+      <c r="FG28" s="12"/>
+      <c r="FH28" s="12"/>
+      <c r="FI28" s="12"/>
+      <c r="FJ28" s="12"/>
+      <c r="FK28" s="12"/>
+      <c r="FL28" s="12"/>
+      <c r="FM28" s="12"/>
+      <c r="FN28" s="12"/>
+      <c r="FO28" s="12"/>
+      <c r="FP28" s="12"/>
+      <c r="FQ28" s="12"/>
+      <c r="FR28" s="12"/>
+      <c r="FS28" s="12"/>
+      <c r="FT28" s="12"/>
+      <c r="FU28" s="12"/>
+      <c r="FV28" s="12"/>
+      <c r="FW28" s="12"/>
+      <c r="FX28" s="12"/>
+      <c r="FY28" s="12"/>
+      <c r="FZ28" s="12"/>
+      <c r="GA28" s="12"/>
+      <c r="GB28" s="12"/>
+      <c r="GC28" s="12"/>
+      <c r="GD28" s="12"/>
+      <c r="GE28" s="12"/>
+      <c r="GF28" s="12"/>
+      <c r="GG28" s="12"/>
+      <c r="GH28" s="12"/>
+      <c r="GI28" s="12"/>
+      <c r="GJ28" s="12"/>
+      <c r="GK28" s="12"/>
+      <c r="GL28" s="12"/>
+      <c r="GM28" s="12"/>
+      <c r="GN28" s="12"/>
+      <c r="GO28" s="12"/>
+      <c r="GP28" s="12"/>
+      <c r="GQ28" s="12"/>
+      <c r="GR28" s="12"/>
+      <c r="GS28" s="12"/>
+      <c r="GT28" s="12"/>
+      <c r="GU28" s="12"/>
+      <c r="GV28" s="12"/>
+      <c r="GW28" s="12"/>
+      <c r="GX28" s="12"/>
+      <c r="GY28" s="12"/>
+      <c r="GZ28" s="12"/>
+      <c r="HA28" s="12"/>
+      <c r="HB28" s="12"/>
+      <c r="HC28" s="12"/>
+      <c r="HD28" s="12"/>
+      <c r="HE28" s="12"/>
+      <c r="HF28" s="12"/>
+      <c r="HG28" s="12"/>
+      <c r="HH28" s="12"/>
+      <c r="HI28" s="12"/>
+      <c r="HJ28" s="12"/>
+      <c r="HK28" s="12"/>
+      <c r="HL28" s="12"/>
+      <c r="HM28" s="12"/>
+      <c r="HN28" s="12"/>
+      <c r="HO28" s="12"/>
+      <c r="HP28" s="12"/>
+      <c r="HQ28" s="12"/>
+      <c r="HR28" s="12"/>
+      <c r="HS28" s="12"/>
+      <c r="HT28" s="12"/>
+      <c r="HU28" s="12"/>
+      <c r="HV28" s="12"/>
+      <c r="HW28" s="12"/>
+      <c r="HX28" s="12"/>
+      <c r="HY28" s="12"/>
+      <c r="HZ28" s="12"/>
+      <c r="IA28" s="12"/>
+      <c r="IB28" s="12"/>
+      <c r="IC28" s="12"/>
+      <c r="ID28" s="12"/>
+      <c r="IE28" s="12"/>
+      <c r="IF28" s="12"/>
+      <c r="IG28" s="12"/>
+      <c r="IH28" s="12"/>
+      <c r="II28" s="12"/>
+      <c r="IJ28" s="12"/>
+      <c r="IK28" s="12"/>
+      <c r="IL28" s="12"/>
+      <c r="IM28" s="12"/>
+      <c r="IN28" s="12"/>
+      <c r="IO28" s="12"/>
+      <c r="IP28" s="12"/>
+      <c r="IQ28" s="12"/>
+      <c r="IR28" s="12"/>
+      <c r="IS28" s="12"/>
+      <c r="IT28" s="12"/>
+      <c r="IU28" s="12"/>
+      <c r="IV28" s="12"/>
+      <c r="IW28" s="12"/>
+      <c r="IX28" s="12"/>
+      <c r="IY28" s="12"/>
+      <c r="IZ28" s="12"/>
+      <c r="JA28" s="12"/>
+      <c r="JB28" s="12"/>
+      <c r="JC28" s="12"/>
+      <c r="JD28" s="12"/>
+      <c r="JE28" s="12"/>
+      <c r="JF28" s="12"/>
+      <c r="JG28" s="12"/>
+      <c r="JH28" s="12"/>
+      <c r="JI28" s="12"/>
+      <c r="JJ28" s="12"/>
+      <c r="JK28" s="12"/>
+      <c r="JL28" s="12"/>
+      <c r="JM28" s="12"/>
+      <c r="JN28" s="12"/>
+      <c r="JO28" s="12"/>
+      <c r="JP28" s="12"/>
+      <c r="JQ28" s="12"/>
+      <c r="JR28" s="12"/>
+      <c r="JS28" s="12"/>
+      <c r="JT28" s="12"/>
+      <c r="JU28" s="12"/>
+      <c r="JV28" s="12"/>
+      <c r="JW28" s="12"/>
+      <c r="JX28" s="12"/>
+      <c r="JY28" s="12"/>
+      <c r="JZ28" s="12"/>
+      <c r="KA28" s="12"/>
+      <c r="KB28" s="12"/>
+      <c r="KC28" s="12"/>
+      <c r="KD28" s="12"/>
+      <c r="KE28" s="12"/>
+      <c r="KF28" s="12"/>
+      <c r="KG28" s="12"/>
+      <c r="KH28" s="12"/>
+      <c r="KI28" s="12"/>
+      <c r="KJ28" s="12"/>
+      <c r="KK28" s="12"/>
+      <c r="KL28" s="12"/>
+      <c r="KM28" s="12"/>
+      <c r="KN28" s="12"/>
+      <c r="KO28" s="12"/>
+      <c r="KP28" s="12"/>
+      <c r="KQ28" s="12"/>
+      <c r="KR28" s="12"/>
+      <c r="KS28" s="12"/>
+      <c r="KT28" s="12"/>
+      <c r="KU28" s="12"/>
+      <c r="KV28" s="12"/>
+      <c r="KW28" s="12"/>
+      <c r="KX28" s="12"/>
+      <c r="KY28" s="12"/>
+      <c r="KZ28" s="12"/>
+      <c r="LA28" s="12"/>
+      <c r="LB28" s="12"/>
+      <c r="LC28" s="12"/>
+      <c r="LD28" s="12"/>
+      <c r="LE28" s="12"/>
+      <c r="LF28" s="12"/>
+      <c r="LG28" s="12"/>
+      <c r="LH28" s="12"/>
+      <c r="LI28" s="12"/>
+      <c r="LJ28" s="12"/>
+      <c r="LK28" s="12"/>
+      <c r="LL28" s="12"/>
+      <c r="LM28" s="12"/>
+      <c r="LN28" s="12"/>
+      <c r="LO28" s="12"/>
+      <c r="LP28" s="12"/>
+      <c r="LQ28" s="12"/>
+      <c r="LR28" s="12"/>
+      <c r="LS28" s="12"/>
+      <c r="LT28" s="12"/>
+      <c r="LU28" s="12"/>
+      <c r="LV28" s="12"/>
+      <c r="LW28" s="12"/>
+      <c r="LX28" s="12"/>
+      <c r="LY28" s="12"/>
+      <c r="LZ28" s="12"/>
+      <c r="MA28" s="12"/>
+      <c r="MB28" s="12"/>
+      <c r="MC28" s="12"/>
+      <c r="MD28" s="12"/>
+      <c r="ME28" s="12"/>
+      <c r="MF28" s="12"/>
+      <c r="MG28" s="12"/>
+      <c r="MH28" s="12"/>
+      <c r="MI28" s="12"/>
+      <c r="MJ28" s="12"/>
+      <c r="MK28" s="12"/>
+      <c r="ML28" s="12"/>
+      <c r="MM28" s="12"/>
+      <c r="MN28" s="12"/>
+      <c r="MO28" s="12"/>
+      <c r="MP28" s="12"/>
+      <c r="MQ28" s="12"/>
+      <c r="MR28" s="12"/>
+      <c r="MS28" s="12"/>
+      <c r="MT28" s="12"/>
+      <c r="MU28" s="12"/>
+      <c r="MV28" s="12"/>
+      <c r="MW28" s="12"/>
+      <c r="MX28" s="12"/>
+      <c r="MY28" s="12"/>
+      <c r="MZ28" s="12"/>
+      <c r="NA28" s="12"/>
+      <c r="NB28" s="12"/>
+      <c r="NC28" s="12"/>
+      <c r="ND28" s="12"/>
+      <c r="NE28" s="12"/>
+      <c r="NF28" s="12"/>
+      <c r="NG28" s="12"/>
+      <c r="NH28" s="12"/>
+      <c r="NI28" s="12"/>
+      <c r="NJ28" s="12"/>
+      <c r="NK28" s="12"/>
+      <c r="NL28" s="12"/>
+      <c r="NM28" s="12"/>
+      <c r="NN28" s="12"/>
+      <c r="NO28" s="12"/>
+      <c r="NP28" s="12"/>
+      <c r="NQ28" s="12"/>
+      <c r="NR28" s="12"/>
+      <c r="NS28" s="12"/>
+      <c r="NT28" s="12"/>
+      <c r="NU28" s="12"/>
+      <c r="NV28" s="12"/>
+      <c r="NW28" s="12"/>
+      <c r="NX28" s="12"/>
+      <c r="NY28" s="12"/>
+      <c r="NZ28" s="12"/>
+      <c r="OA28" s="12"/>
+      <c r="OB28" s="12"/>
+      <c r="OC28" s="12"/>
+      <c r="OD28" s="12"/>
+      <c r="OE28" s="12"/>
+      <c r="OF28" s="12"/>
+      <c r="OG28" s="12"/>
+      <c r="OH28" s="12"/>
+      <c r="OI28" s="12"/>
+      <c r="OJ28" s="12"/>
+      <c r="OK28" s="12"/>
+      <c r="OL28" s="12"/>
+      <c r="OM28" s="12"/>
+      <c r="ON28" s="12"/>
+      <c r="OO28" s="12"/>
+      <c r="OP28" s="12"/>
+      <c r="OQ28" s="12"/>
+      <c r="OR28" s="12"/>
+      <c r="OS28" s="12"/>
+      <c r="OT28" s="12"/>
+      <c r="OU28" s="12"/>
+      <c r="OV28" s="12"/>
+      <c r="OW28" s="12"/>
+      <c r="OX28" s="12"/>
+      <c r="OY28" s="12"/>
+      <c r="OZ28" s="12"/>
+      <c r="PA28" s="12"/>
+      <c r="PB28" s="12"/>
+      <c r="PC28" s="12"/>
+      <c r="PD28" s="12"/>
+      <c r="PE28" s="12"/>
+      <c r="PF28" s="12"/>
+      <c r="PG28" s="12"/>
+      <c r="PH28" s="12"/>
+      <c r="PI28" s="12"/>
+      <c r="PJ28" s="12"/>
+      <c r="PK28" s="12"/>
+      <c r="PL28" s="12"/>
+      <c r="PM28" s="12"/>
+      <c r="PN28" s="12"/>
+      <c r="PO28" s="12"/>
+      <c r="PP28" s="12"/>
+      <c r="PQ28" s="12"/>
+      <c r="PR28" s="12"/>
+      <c r="PS28" s="12"/>
+      <c r="PT28" s="12"/>
+      <c r="PU28" s="12"/>
+      <c r="PV28" s="12"/>
+      <c r="PW28" s="12"/>
+      <c r="PX28" s="12"/>
+      <c r="PY28" s="12"/>
+      <c r="PZ28" s="12"/>
+      <c r="QA28" s="12"/>
+      <c r="QB28" s="12"/>
+      <c r="QC28" s="12"/>
+      <c r="QD28" s="12"/>
+      <c r="QE28" s="12"/>
+      <c r="QF28" s="12"/>
+      <c r="QG28" s="12"/>
+      <c r="QH28" s="12"/>
+      <c r="QI28" s="12"/>
+      <c r="QJ28" s="12"/>
+      <c r="QK28" s="12"/>
+      <c r="QL28" s="12"/>
+      <c r="QM28" s="12"/>
+      <c r="QN28" s="12"/>
+      <c r="QO28" s="12"/>
+      <c r="QP28" s="12"/>
+      <c r="QQ28" s="12"/>
+      <c r="QR28" s="12"/>
+      <c r="QS28" s="12"/>
+      <c r="QT28" s="12"/>
+      <c r="QU28" s="12"/>
+      <c r="QV28" s="12"/>
+      <c r="QW28" s="12"/>
+      <c r="QX28" s="12"/>
+      <c r="QY28" s="12"/>
+      <c r="QZ28" s="12"/>
+      <c r="RA28" s="12"/>
+      <c r="RB28" s="12"/>
+      <c r="RC28" s="12"/>
+      <c r="RD28" s="12"/>
+      <c r="RE28" s="12"/>
+      <c r="RF28" s="12"/>
+      <c r="RG28" s="12"/>
+      <c r="RH28" s="12"/>
+      <c r="RI28" s="12"/>
+      <c r="RJ28" s="12"/>
+      <c r="RK28" s="12"/>
+      <c r="RL28" s="12"/>
+      <c r="RM28" s="12"/>
+      <c r="RN28" s="12"/>
+      <c r="RO28" s="12"/>
+      <c r="RP28" s="12"/>
+      <c r="RQ28" s="12"/>
+      <c r="RR28" s="12"/>
+      <c r="RS28" s="12"/>
+      <c r="RT28" s="12"/>
+      <c r="RU28" s="12"/>
+      <c r="RV28" s="12"/>
+      <c r="RW28" s="12"/>
+      <c r="RX28" s="12"/>
+      <c r="RY28" s="12"/>
+      <c r="RZ28" s="12"/>
+      <c r="SA28" s="12"/>
+      <c r="SB28" s="12"/>
+      <c r="SC28" s="12"/>
+      <c r="SD28" s="12"/>
+      <c r="SE28" s="12"/>
+      <c r="SF28" s="12"/>
+      <c r="SG28" s="12"/>
+      <c r="SH28" s="12"/>
+      <c r="SI28" s="12"/>
+      <c r="SJ28" s="12"/>
+      <c r="SK28" s="12"/>
+      <c r="SL28" s="12"/>
+      <c r="SM28" s="12"/>
+      <c r="SN28" s="12"/>
+      <c r="SO28" s="12"/>
+      <c r="SP28" s="12"/>
+      <c r="SQ28" s="12"/>
+      <c r="SR28" s="12"/>
+      <c r="SS28" s="12"/>
+      <c r="ST28" s="12"/>
+      <c r="SU28" s="12"/>
+      <c r="SV28" s="12"/>
+      <c r="SW28" s="12"/>
+      <c r="SX28" s="12"/>
+      <c r="SY28" s="12"/>
+      <c r="SZ28" s="12"/>
+      <c r="TA28" s="12"/>
+      <c r="TB28" s="12"/>
+      <c r="TC28" s="12"/>
+      <c r="TD28" s="12"/>
+      <c r="TE28" s="12"/>
+      <c r="TF28" s="12"/>
+      <c r="TG28" s="12"/>
+      <c r="TH28" s="12"/>
+      <c r="TI28" s="12"/>
+      <c r="TJ28" s="12"/>
+      <c r="TK28" s="12"/>
+      <c r="TL28" s="12"/>
+      <c r="TM28" s="12"/>
+      <c r="TN28" s="12"/>
+      <c r="TO28" s="12"/>
+      <c r="TP28" s="12"/>
+      <c r="TQ28" s="12"/>
+      <c r="TR28" s="12"/>
+      <c r="TS28" s="12"/>
+      <c r="TT28" s="12"/>
+      <c r="TU28" s="12"/>
+      <c r="TV28" s="12"/>
+      <c r="TW28" s="12"/>
+      <c r="TX28" s="12"/>
+      <c r="TY28" s="12"/>
+      <c r="TZ28" s="12"/>
+      <c r="UA28" s="12"/>
+      <c r="UB28" s="12"/>
+      <c r="UC28" s="12"/>
+      <c r="UD28" s="12"/>
+      <c r="UE28" s="12"/>
+      <c r="UF28" s="12"/>
+      <c r="UG28" s="12"/>
+      <c r="UH28" s="12"/>
+      <c r="UI28" s="12"/>
+      <c r="UJ28" s="12"/>
+      <c r="UK28" s="12"/>
+      <c r="UL28" s="12"/>
+      <c r="UM28" s="12"/>
+      <c r="UN28" s="12"/>
+      <c r="UO28" s="12"/>
+      <c r="UP28" s="12"/>
+      <c r="UQ28" s="12"/>
+      <c r="UR28" s="12"/>
+      <c r="US28" s="12"/>
+      <c r="UT28" s="12"/>
+      <c r="UU28" s="12"/>
+      <c r="UV28" s="12"/>
+      <c r="UW28" s="12"/>
+      <c r="UX28" s="12"/>
+      <c r="UY28" s="12"/>
+      <c r="UZ28" s="12"/>
+      <c r="VA28" s="12"/>
+      <c r="VB28" s="12"/>
+      <c r="VC28" s="12"/>
+      <c r="VD28" s="12"/>
+      <c r="VE28" s="12"/>
+      <c r="VF28" s="12"/>
+      <c r="VG28" s="12"/>
+      <c r="VH28" s="12"/>
+      <c r="VI28" s="12"/>
+      <c r="VJ28" s="12"/>
+      <c r="VK28" s="12"/>
+      <c r="VL28" s="12"/>
+      <c r="VM28" s="12"/>
+      <c r="VN28" s="12"/>
+      <c r="VO28" s="12"/>
+      <c r="VP28" s="12"/>
+      <c r="VQ28" s="12"/>
+      <c r="VR28" s="12"/>
+      <c r="VS28" s="12"/>
+      <c r="VT28" s="12"/>
+      <c r="VU28" s="12"/>
+      <c r="VV28" s="12"/>
+      <c r="VW28" s="12"/>
+      <c r="VX28" s="12"/>
+      <c r="VY28" s="12"/>
+      <c r="VZ28" s="12"/>
+      <c r="WA28" s="12"/>
+      <c r="WB28" s="12"/>
+      <c r="WC28" s="12"/>
+      <c r="WD28" s="12"/>
+      <c r="WE28" s="12"/>
+      <c r="WF28" s="12"/>
+      <c r="WG28" s="12"/>
+      <c r="WH28" s="12"/>
+      <c r="WI28" s="12"/>
+      <c r="WJ28" s="12"/>
+      <c r="WK28" s="12"/>
+      <c r="WL28" s="12"/>
+      <c r="WM28" s="12"/>
+      <c r="WN28" s="12"/>
+      <c r="WO28" s="12"/>
+      <c r="WP28" s="12"/>
+      <c r="WQ28" s="12"/>
+      <c r="WR28" s="12"/>
+      <c r="WS28" s="12"/>
+      <c r="WT28" s="12"/>
+      <c r="WU28" s="12"/>
+      <c r="WV28" s="12"/>
+      <c r="WW28" s="12"/>
+      <c r="WX28" s="12"/>
+      <c r="WY28" s="12"/>
+      <c r="WZ28" s="12"/>
+      <c r="XA28" s="12"/>
+      <c r="XB28" s="12"/>
+      <c r="XC28" s="12"/>
+      <c r="XD28" s="12"/>
+      <c r="XE28" s="12"/>
+      <c r="XF28" s="12"/>
+      <c r="XG28" s="12"/>
+      <c r="XH28" s="12"/>
+      <c r="XI28" s="12"/>
+      <c r="XJ28" s="12"/>
+      <c r="XK28" s="12"/>
+      <c r="XL28" s="12"/>
+      <c r="XM28" s="12"/>
+      <c r="XN28" s="12"/>
+      <c r="XO28" s="12"/>
+      <c r="XP28" s="12"/>
+      <c r="XQ28" s="12"/>
+      <c r="XR28" s="12"/>
+      <c r="XS28" s="12"/>
+      <c r="XT28" s="12"/>
+      <c r="XU28" s="12"/>
+      <c r="XV28" s="12"/>
+      <c r="XW28" s="12"/>
+      <c r="XX28" s="12"/>
+      <c r="XY28" s="12"/>
+      <c r="XZ28" s="12"/>
+      <c r="YA28" s="12"/>
+      <c r="YB28" s="12"/>
+      <c r="YC28" s="12"/>
+      <c r="YD28" s="12"/>
+      <c r="YE28" s="12"/>
+      <c r="YF28" s="12"/>
+      <c r="YG28" s="12"/>
+      <c r="YH28" s="12"/>
+      <c r="YI28" s="12"/>
+      <c r="YJ28" s="12"/>
+      <c r="YK28" s="12"/>
+      <c r="YL28" s="12"/>
+      <c r="YM28" s="12"/>
+      <c r="YN28" s="12"/>
+      <c r="YO28" s="12"/>
+      <c r="YP28" s="12"/>
+      <c r="YQ28" s="12"/>
+      <c r="YR28" s="12"/>
+      <c r="YS28" s="12"/>
+      <c r="YT28" s="12"/>
+      <c r="YU28" s="12"/>
+      <c r="YV28" s="12"/>
+      <c r="YW28" s="12"/>
+      <c r="YX28" s="12"/>
+      <c r="YY28" s="12"/>
+      <c r="YZ28" s="12"/>
+      <c r="ZA28" s="12"/>
+      <c r="ZB28" s="12"/>
+      <c r="ZC28" s="12"/>
+      <c r="ZD28" s="12"/>
+      <c r="ZE28" s="12"/>
+      <c r="ZF28" s="12"/>
+      <c r="ZG28" s="12"/>
+      <c r="ZH28" s="12"/>
+      <c r="ZI28" s="12"/>
+      <c r="ZJ28" s="12"/>
+      <c r="ZK28" s="12"/>
+      <c r="ZL28" s="12"/>
+      <c r="ZM28" s="12"/>
+      <c r="ZN28" s="12"/>
+      <c r="ZO28" s="12"/>
+      <c r="ZP28" s="12"/>
+      <c r="ZQ28" s="12"/>
+      <c r="ZR28" s="12"/>
+      <c r="ZS28" s="12"/>
+      <c r="ZT28" s="12"/>
+      <c r="ZU28" s="12"/>
+      <c r="ZV28" s="12"/>
+      <c r="ZW28" s="12"/>
+      <c r="ZX28" s="12"/>
+      <c r="ZY28" s="12"/>
+      <c r="ZZ28" s="12"/>
+      <c r="AAA28" s="12"/>
+      <c r="AAB28" s="12"/>
+      <c r="AAC28" s="12"/>
+      <c r="AAD28" s="12"/>
+      <c r="AAE28" s="12"/>
+      <c r="AAF28" s="12"/>
+      <c r="AAG28" s="12"/>
+      <c r="AAH28" s="12"/>
+      <c r="AAI28" s="12"/>
+      <c r="AAJ28" s="12"/>
+      <c r="AAK28" s="12"/>
+      <c r="AAL28" s="12"/>
+      <c r="AAM28" s="12"/>
+      <c r="AAN28" s="12"/>
+      <c r="AAO28" s="12"/>
+      <c r="AAP28" s="12"/>
+      <c r="AAQ28" s="12"/>
+      <c r="AAR28" s="12"/>
+      <c r="AAS28" s="12"/>
+      <c r="AAT28" s="12"/>
+      <c r="AAU28" s="12"/>
+      <c r="AAV28" s="12"/>
+      <c r="AAW28" s="12"/>
+      <c r="AAX28" s="12"/>
+      <c r="AAY28" s="12"/>
+      <c r="AAZ28" s="12"/>
+      <c r="ABA28" s="12"/>
+      <c r="ABB28" s="12"/>
+      <c r="ABC28" s="12"/>
+      <c r="ABD28" s="12"/>
+      <c r="ABE28" s="12"/>
+      <c r="ABF28" s="12"/>
+      <c r="ABG28" s="12"/>
+      <c r="ABH28" s="12"/>
+      <c r="ABI28" s="12"/>
+      <c r="ABJ28" s="12"/>
+      <c r="ABK28" s="12"/>
+      <c r="ABL28" s="12"/>
+      <c r="ABM28" s="12"/>
+      <c r="ABN28" s="12"/>
+      <c r="ABO28" s="12"/>
+      <c r="ABP28" s="12"/>
+      <c r="ABQ28" s="12"/>
+      <c r="ABR28" s="12"/>
+      <c r="ABS28" s="12"/>
+      <c r="ABT28" s="12"/>
+      <c r="ABU28" s="12"/>
+      <c r="ABV28" s="12"/>
+      <c r="ABW28" s="12"/>
+      <c r="ABX28" s="12"/>
+      <c r="ABY28" s="12"/>
+      <c r="ABZ28" s="12"/>
+      <c r="ACA28" s="12"/>
+      <c r="ACB28" s="12"/>
+      <c r="ACC28" s="12"/>
+      <c r="ACD28" s="12"/>
+      <c r="ACE28" s="12"/>
+      <c r="ACF28" s="12"/>
+      <c r="ACG28" s="12"/>
+      <c r="ACH28" s="12"/>
+      <c r="ACI28" s="12"/>
+      <c r="ACJ28" s="12"/>
+      <c r="ACK28" s="12"/>
+      <c r="ACL28" s="12"/>
+      <c r="ACM28" s="12"/>
+      <c r="ACN28" s="12"/>
+      <c r="ACO28" s="12"/>
+      <c r="ACP28" s="12"/>
+      <c r="ACQ28" s="12"/>
+      <c r="ACR28" s="12"/>
+      <c r="ACS28" s="12"/>
+      <c r="ACT28" s="12"/>
+      <c r="ACU28" s="12"/>
+      <c r="ACV28" s="12"/>
+      <c r="ACW28" s="12"/>
+      <c r="ACX28" s="12"/>
+      <c r="ACY28" s="12"/>
+      <c r="ACZ28" s="12"/>
+      <c r="ADA28" s="12"/>
+      <c r="ADB28" s="12"/>
+      <c r="ADC28" s="12"/>
+      <c r="ADD28" s="12"/>
+      <c r="ADE28" s="12"/>
+      <c r="ADF28" s="12"/>
+      <c r="ADG28" s="12"/>
+      <c r="ADH28" s="12"/>
+      <c r="ADI28" s="12"/>
+      <c r="ADJ28" s="12"/>
+      <c r="ADK28" s="12"/>
+      <c r="ADL28" s="12"/>
+      <c r="ADM28" s="12"/>
+      <c r="ADN28" s="12"/>
+      <c r="ADO28" s="12"/>
+      <c r="ADP28" s="12"/>
+      <c r="ADQ28" s="12"/>
+      <c r="ADR28" s="12"/>
+      <c r="ADS28" s="12"/>
+      <c r="ADT28" s="12"/>
+      <c r="ADU28" s="12"/>
+      <c r="ADV28" s="12"/>
+      <c r="ADW28" s="12"/>
+      <c r="ADX28" s="12"/>
+      <c r="ADY28" s="12"/>
+      <c r="ADZ28" s="12"/>
+      <c r="AEA28" s="12"/>
+      <c r="AEB28" s="12"/>
+      <c r="AEC28" s="12"/>
+      <c r="AED28" s="12"/>
+      <c r="AEE28" s="12"/>
+      <c r="AEF28" s="12"/>
+      <c r="AEG28" s="12"/>
+      <c r="AEH28" s="12"/>
+      <c r="AEI28" s="12"/>
+      <c r="AEJ28" s="12"/>
+      <c r="AEK28" s="12"/>
+      <c r="AEL28" s="12"/>
+      <c r="AEM28" s="12"/>
+      <c r="AEN28" s="12"/>
+      <c r="AEO28" s="12"/>
+      <c r="AEP28" s="12"/>
+      <c r="AEQ28" s="12"/>
+      <c r="AER28" s="12"/>
+      <c r="AES28" s="12"/>
+      <c r="AET28" s="12"/>
+      <c r="AEU28" s="12"/>
+      <c r="AEV28" s="12"/>
+      <c r="AEW28" s="12"/>
+      <c r="AEX28" s="12"/>
+      <c r="AEY28" s="12"/>
+      <c r="AEZ28" s="12"/>
+      <c r="AFA28" s="12"/>
+      <c r="AFB28" s="12"/>
+      <c r="AFC28" s="12"/>
+      <c r="AFD28" s="12"/>
+      <c r="AFE28" s="12"/>
+      <c r="AFF28" s="12"/>
+      <c r="AFG28" s="12"/>
+      <c r="AFH28" s="12"/>
+      <c r="AFI28" s="12"/>
+      <c r="AFJ28" s="12"/>
+      <c r="AFK28" s="12"/>
+      <c r="AFL28" s="12"/>
+      <c r="AFM28" s="12"/>
+      <c r="AFN28" s="12"/>
+      <c r="AFO28" s="12"/>
+      <c r="AFP28" s="12"/>
+      <c r="AFQ28" s="12"/>
+      <c r="AFR28" s="12"/>
+      <c r="AFS28" s="12"/>
+      <c r="AFT28" s="12"/>
+      <c r="AFU28" s="12"/>
+      <c r="AFV28" s="12"/>
+      <c r="AFW28" s="12"/>
+      <c r="AFX28" s="12"/>
+      <c r="AFY28" s="12"/>
+      <c r="AFZ28" s="12"/>
+      <c r="AGA28" s="12"/>
+      <c r="AGB28" s="12"/>
+      <c r="AGC28" s="12"/>
+      <c r="AGD28" s="12"/>
+      <c r="AGE28" s="12"/>
+      <c r="AGF28" s="12"/>
+      <c r="AGG28" s="12"/>
+      <c r="AGH28" s="12"/>
+      <c r="AGI28" s="12"/>
+      <c r="AGJ28" s="12"/>
+      <c r="AGK28" s="12"/>
+      <c r="AGL28" s="12"/>
+      <c r="AGM28" s="12"/>
+      <c r="AGN28" s="12"/>
+      <c r="AGO28" s="12"/>
+      <c r="AGP28" s="12"/>
+      <c r="AGQ28" s="12"/>
+      <c r="AGR28" s="12"/>
+      <c r="AGS28" s="12"/>
+      <c r="AGT28" s="12"/>
+      <c r="AGU28" s="12"/>
+      <c r="AGV28" s="12"/>
+      <c r="AGW28" s="12"/>
+      <c r="AGX28" s="12"/>
+      <c r="AGY28" s="12"/>
+      <c r="AGZ28" s="12"/>
+      <c r="AHA28" s="12"/>
+      <c r="AHB28" s="12"/>
+      <c r="AHC28" s="12"/>
+      <c r="AHD28" s="12"/>
+      <c r="AHE28" s="12"/>
+      <c r="AHF28" s="12"/>
+      <c r="AHG28" s="12"/>
+      <c r="AHH28" s="12"/>
+      <c r="AHI28" s="12"/>
+      <c r="AHJ28" s="12"/>
+      <c r="AHK28" s="12"/>
+      <c r="AHL28" s="12"/>
+      <c r="AHM28" s="12"/>
+      <c r="AHN28" s="12"/>
+      <c r="AHO28" s="12"/>
+      <c r="AHP28" s="12"/>
+      <c r="AHQ28" s="12"/>
+      <c r="AHR28" s="12"/>
+      <c r="AHS28" s="12"/>
+      <c r="AHT28" s="12"/>
+      <c r="AHU28" s="12"/>
+      <c r="AHV28" s="12"/>
+      <c r="AHW28" s="12"/>
+      <c r="AHX28" s="12"/>
+      <c r="AHY28" s="12"/>
+      <c r="AHZ28" s="12"/>
+      <c r="AIA28" s="12"/>
+      <c r="AIB28" s="12"/>
+      <c r="AIC28" s="12"/>
+      <c r="AID28" s="12"/>
+      <c r="AIE28" s="12"/>
+      <c r="AIF28" s="12"/>
+      <c r="AIG28" s="12"/>
+      <c r="AIH28" s="12"/>
+      <c r="AII28" s="12"/>
+      <c r="AIJ28" s="12"/>
+      <c r="AIK28" s="12"/>
+      <c r="AIL28" s="12"/>
+      <c r="AIM28" s="12"/>
+      <c r="AIN28" s="12"/>
+      <c r="AIO28" s="12"/>
+      <c r="AIP28" s="12"/>
+      <c r="AIQ28" s="12"/>
+      <c r="AIR28" s="12"/>
+      <c r="AIS28" s="12"/>
+      <c r="AIT28" s="12"/>
+      <c r="AIU28" s="12"/>
+      <c r="AIV28" s="12"/>
+      <c r="AIW28" s="12"/>
+      <c r="AIX28" s="12"/>
+      <c r="AIY28" s="12"/>
+      <c r="AIZ28" s="12"/>
+      <c r="AJA28" s="12"/>
+      <c r="AJB28" s="12"/>
+      <c r="AJC28" s="12"/>
+      <c r="AJD28" s="12"/>
+      <c r="AJE28" s="12"/>
+      <c r="AJF28" s="12"/>
+      <c r="AJG28" s="12"/>
+      <c r="AJH28" s="12"/>
+      <c r="AJI28" s="12"/>
+      <c r="AJJ28" s="12"/>
+      <c r="AJK28" s="12"/>
+      <c r="AJL28" s="12"/>
+      <c r="AJM28" s="12"/>
+      <c r="AJN28" s="12"/>
+      <c r="AJO28" s="12"/>
+      <c r="AJP28" s="12"/>
+      <c r="AJQ28" s="12"/>
+      <c r="AJR28" s="12"/>
+      <c r="AJS28" s="12"/>
+      <c r="AJT28" s="12"/>
+      <c r="AJU28" s="12"/>
+      <c r="AJV28" s="12"/>
+      <c r="AJW28" s="12"/>
+      <c r="AJX28" s="12"/>
+      <c r="AJY28" s="12"/>
+      <c r="AJZ28" s="12"/>
+      <c r="AKA28" s="12"/>
+      <c r="AKB28" s="12"/>
+      <c r="AKC28" s="12"/>
+      <c r="AKD28" s="12"/>
+      <c r="AKE28" s="12"/>
+      <c r="AKF28" s="12"/>
+      <c r="AKG28" s="12"/>
+      <c r="AKH28" s="12"/>
+      <c r="AKI28" s="12"/>
+      <c r="AKJ28" s="12"/>
+      <c r="AKK28" s="12"/>
+      <c r="AKL28" s="12"/>
+      <c r="AKM28" s="12"/>
+      <c r="AKN28" s="12"/>
+      <c r="AKO28" s="12"/>
+      <c r="AKP28" s="12"/>
+      <c r="AKQ28" s="12"/>
+      <c r="AKR28" s="12"/>
+      <c r="AKS28" s="12"/>
+      <c r="AKT28" s="12"/>
+      <c r="AKU28" s="12"/>
+      <c r="AKV28" s="12"/>
+      <c r="AKW28" s="12"/>
+      <c r="AKX28" s="12"/>
+      <c r="AKY28" s="12"/>
+      <c r="AKZ28" s="12"/>
+      <c r="ALA28" s="12"/>
+      <c r="ALB28" s="12"/>
+      <c r="ALC28" s="12"/>
+      <c r="ALD28" s="12"/>
+      <c r="ALE28" s="12"/>
+      <c r="ALF28" s="12"/>
+      <c r="ALG28" s="12"/>
+      <c r="ALH28" s="12"/>
+      <c r="ALI28" s="12"/>
+      <c r="ALJ28" s="12"/>
+      <c r="ALK28" s="12"/>
+      <c r="ALL28" s="12"/>
+      <c r="ALM28" s="12"/>
+      <c r="ALN28" s="12"/>
+      <c r="ALO28" s="12"/>
+      <c r="ALP28" s="12"/>
+      <c r="ALQ28" s="12"/>
+      <c r="ALR28" s="12"/>
+      <c r="ALS28" s="12"/>
+      <c r="ALT28" s="12"/>
+      <c r="ALU28" s="12"/>
+      <c r="ALV28" s="12"/>
+      <c r="ALW28" s="12"/>
+      <c r="ALX28" s="12"/>
+      <c r="ALY28" s="12"/>
+      <c r="ALZ28" s="12"/>
+      <c r="AMA28" s="12"/>
+      <c r="AMB28" s="12"/>
+      <c r="AMC28" s="12"/>
+      <c r="AMD28" s="12"/>
+      <c r="AME28" s="12"/>
+      <c r="AMF28" s="12"/>
+      <c r="AMG28" s="12"/>
+      <c r="AMH28" s="12"/>
+      <c r="AMI28" s="12"/>
+      <c r="AMJ28" s="12"/>
     </row>
     <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>75</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
@@ -10671,32 +10705,26 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C30" s="14"/>
+        <v>30</v>
+      </c>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="14"/>
+      <c r="C31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="14"/>
+      <c r="C32" s="16"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="14"/>
+      <c r="C33" s="16"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="14"/>
+      <c r="C34" s="16"/>
     </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="db:person"/>
-    <hyperlink ref="A14" r:id="rId2" display="db:health_center"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -10721,285 +10749,285 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="47.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="20.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="39.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="47.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="17" width="20.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="17" width="39.83"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="BC1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="BC1" s="17" t="s">
+    </row>
+    <row r="2" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="20" t="s">
         <v>78</v>
       </c>
+      <c r="B2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
     </row>
-    <row r="2" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="16" t="s">
+    <row r="3" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
+      <c r="C3" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18"/>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="18"/>
+      <c r="W3" s="18"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
     </row>
-    <row r="3" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-    </row>
-    <row r="4" s="17" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
-      <c r="Z4" s="16"/>
+    <row r="4" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="18"/>
+      <c r="X4" s="18"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="8" t="s">
+      <c r="A5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>83</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="A6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>85</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>87</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>89</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B9" s="8" t="s">
+      <c r="A9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="8" t="s">
+      <c r="A10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>96</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" s="8" t="s">
+      <c r="A14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>98</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>100</v>
+      <c r="A15" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="8" t="s">
+      <c r="A16" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="9" t="s">
         <v>101</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>103</v>
+      <c r="A17" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>80</v>
+      <c r="C20" s="19" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -11027,81 +11055,81 @@
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="D1" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="AMJ1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="AMJ1" s="22"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="21" t="str">
+        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
+        <v>2024-04-26  10-21</v>
+      </c>
+      <c r="D2" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="19" t="str">
-        <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-02-27  13-00</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="E2" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="19"/>
-      <c r="R2" s="19"/>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="19"/>
-      <c r="V2" s="19"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="AMJ2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
+      <c r="Y2" s="21"/>
+      <c r="AMJ2" s="22"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Guild Digital/Example CHT application/forms/app/wash_assessment.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/wash_assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -231,22 +231,13 @@
     <t xml:space="preserve">Would you like to assign a VHT to follow up</t>
   </si>
   <si>
-    <t xml:space="preserve">group_wash_summary</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Results/Summary Page:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">field-list summary</t>
-  </si>
-  <si>
     <t xml:space="preserve">s_note_wash_assessment</t>
   </si>
   <si>
-    <t xml:space="preserve">WASH</t>
+    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">h1 red</t>
+    <t xml:space="preserve"> field-list summary</t>
   </si>
   <si>
     <r>
@@ -276,10 +267,7 @@
     <t xml:space="preserve">s_note_vht_details</t>
   </si>
   <si>
-    <t xml:space="preserve">Wash Assessment Details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">h1 yellow</t>
+    <t xml:space="preserve">&lt;h4 style=”text-align:center; background-color: #FFA500;”&gt;Wash Assessment Details&lt;/h4&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">s_num_wash_assessment</t>
@@ -384,6 +372,79 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">/h5&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">follow_up</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">style=”text-align:center;”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;Folllow up tasks&lt;/h4&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">device_follow_up</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;h5 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">style="text-align:center;"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&gt;Please conduct a wash assessment  follow up task in 5 days&lt;/h5&gt;</t>
     </r>
   </si>
   <si>
@@ -552,17 +613,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -671,10 +732,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -683,12 +740,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -707,6 +764,10 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -723,7 +784,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -918,10 +979,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A1:AMJ35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B12" colorId="64" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4267,7 +4328,7 @@
       <c r="B14" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -4301,7 +4362,7 @@
       <c r="D15" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="7"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -4333,7 +4394,7 @@
       <c r="E16" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F16" s="8"/>
+      <c r="F16" s="7"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4350,16 +4411,16 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="8"/>
+      <c r="F17" s="7"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4376,19 +4437,19 @@
       <c r="Z17" s="2"/>
     </row>
     <row r="18" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>54</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="7"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4405,18 +4466,18 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="8"/>
+      <c r="F19" s="7"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -5437,7 +5498,7 @@
       <c r="AMJ19" s="3"/>
     </row>
     <row r="20" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F20" s="8"/>
+      <c r="F20" s="7"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -5457,7 +5518,7 @@
       <c r="A21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C21" s="2"/>
@@ -6511,3179 +6572,4196 @@
       <c r="AMI22" s="1"/>
       <c r="AMJ22" s="1"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>64</v>
-      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="8"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="3"/>
+      <c r="Z24" s="3"/>
+      <c r="AA24" s="3"/>
+      <c r="AB24" s="3"/>
+      <c r="AC24" s="3"/>
+      <c r="AD24" s="3"/>
+      <c r="AE24" s="3"/>
+      <c r="AF24" s="3"/>
+      <c r="AG24" s="3"/>
+      <c r="AH24" s="3"/>
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+      <c r="AK24" s="3"/>
+      <c r="AL24" s="3"/>
+      <c r="AM24" s="3"/>
+      <c r="AN24" s="3"/>
+      <c r="AO24" s="3"/>
+      <c r="AP24" s="3"/>
+      <c r="AQ24" s="3"/>
+      <c r="AR24" s="3"/>
+      <c r="AS24" s="3"/>
+      <c r="AT24" s="3"/>
+      <c r="AU24" s="3"/>
+      <c r="AV24" s="3"/>
+      <c r="AW24" s="3"/>
+      <c r="AX24" s="3"/>
+      <c r="AY24" s="3"/>
+      <c r="AZ24" s="3"/>
+      <c r="BA24" s="3"/>
+      <c r="BB24" s="3"/>
+      <c r="BC24" s="3"/>
+      <c r="BD24" s="3"/>
+      <c r="BE24" s="3"/>
+      <c r="BF24" s="3"/>
+      <c r="BG24" s="3"/>
+      <c r="BH24" s="3"/>
+      <c r="BI24" s="3"/>
+      <c r="BJ24" s="3"/>
+      <c r="BK24" s="3"/>
+      <c r="BL24" s="3"/>
+      <c r="BM24" s="3"/>
+      <c r="BN24" s="3"/>
+      <c r="BO24" s="3"/>
+      <c r="BP24" s="3"/>
+      <c r="BQ24" s="3"/>
+      <c r="BR24" s="3"/>
+      <c r="BS24" s="3"/>
+      <c r="BT24" s="3"/>
+      <c r="BU24" s="3"/>
+      <c r="BV24" s="3"/>
+      <c r="BW24" s="3"/>
+      <c r="BX24" s="3"/>
+      <c r="BY24" s="3"/>
+      <c r="BZ24" s="3"/>
+      <c r="CA24" s="3"/>
+      <c r="CB24" s="3"/>
+      <c r="CC24" s="3"/>
+      <c r="CD24" s="3"/>
+      <c r="CE24" s="3"/>
+      <c r="CF24" s="3"/>
+      <c r="CG24" s="3"/>
+      <c r="CH24" s="3"/>
+      <c r="CI24" s="3"/>
+      <c r="CJ24" s="3"/>
+      <c r="CK24" s="3"/>
+      <c r="CL24" s="3"/>
+      <c r="CM24" s="3"/>
+      <c r="CN24" s="3"/>
+      <c r="CO24" s="3"/>
+      <c r="CP24" s="3"/>
+      <c r="CQ24" s="3"/>
+      <c r="CR24" s="3"/>
+      <c r="CS24" s="3"/>
+      <c r="CT24" s="3"/>
+      <c r="CU24" s="3"/>
+      <c r="CV24" s="3"/>
+      <c r="CW24" s="3"/>
+      <c r="CX24" s="3"/>
+      <c r="CY24" s="3"/>
+      <c r="CZ24" s="3"/>
+      <c r="DA24" s="3"/>
+      <c r="DB24" s="3"/>
+      <c r="DC24" s="3"/>
+      <c r="DD24" s="3"/>
+      <c r="DE24" s="3"/>
+      <c r="DF24" s="3"/>
+      <c r="DG24" s="3"/>
+      <c r="DH24" s="3"/>
+      <c r="DI24" s="3"/>
+      <c r="DJ24" s="3"/>
+      <c r="DK24" s="3"/>
+      <c r="DL24" s="3"/>
+      <c r="DM24" s="3"/>
+      <c r="DN24" s="3"/>
+      <c r="DO24" s="3"/>
+      <c r="DP24" s="3"/>
+      <c r="DQ24" s="3"/>
+      <c r="DR24" s="3"/>
+      <c r="DS24" s="3"/>
+      <c r="DT24" s="3"/>
+      <c r="DU24" s="3"/>
+      <c r="DV24" s="3"/>
+      <c r="DW24" s="3"/>
+      <c r="DX24" s="3"/>
+      <c r="DY24" s="3"/>
+      <c r="DZ24" s="3"/>
+      <c r="EA24" s="3"/>
+      <c r="EB24" s="3"/>
+      <c r="EC24" s="3"/>
+      <c r="ED24" s="3"/>
+      <c r="EE24" s="3"/>
+      <c r="EF24" s="3"/>
+      <c r="EG24" s="3"/>
+      <c r="EH24" s="3"/>
+      <c r="EI24" s="3"/>
+      <c r="EJ24" s="3"/>
+      <c r="EK24" s="3"/>
+      <c r="EL24" s="3"/>
+      <c r="EM24" s="3"/>
+      <c r="EN24" s="3"/>
+      <c r="EO24" s="3"/>
+      <c r="EP24" s="3"/>
+      <c r="EQ24" s="3"/>
+      <c r="ER24" s="3"/>
+      <c r="ES24" s="3"/>
+      <c r="ET24" s="3"/>
+      <c r="EU24" s="3"/>
+      <c r="EV24" s="3"/>
+      <c r="EW24" s="3"/>
+      <c r="EX24" s="3"/>
+      <c r="EY24" s="3"/>
+      <c r="EZ24" s="3"/>
+      <c r="FA24" s="3"/>
+      <c r="FB24" s="3"/>
+      <c r="FC24" s="3"/>
+      <c r="FD24" s="3"/>
+      <c r="FE24" s="3"/>
+      <c r="FF24" s="3"/>
+      <c r="FG24" s="3"/>
+      <c r="FH24" s="3"/>
+      <c r="FI24" s="3"/>
+      <c r="FJ24" s="3"/>
+      <c r="FK24" s="3"/>
+      <c r="FL24" s="3"/>
+      <c r="FM24" s="3"/>
+      <c r="FN24" s="3"/>
+      <c r="FO24" s="3"/>
+      <c r="FP24" s="3"/>
+      <c r="FQ24" s="3"/>
+      <c r="FR24" s="3"/>
+      <c r="FS24" s="3"/>
+      <c r="FT24" s="3"/>
+      <c r="FU24" s="3"/>
+      <c r="FV24" s="3"/>
+      <c r="FW24" s="3"/>
+      <c r="FX24" s="3"/>
+      <c r="FY24" s="3"/>
+      <c r="FZ24" s="3"/>
+      <c r="GA24" s="3"/>
+      <c r="GB24" s="3"/>
+      <c r="GC24" s="3"/>
+      <c r="GD24" s="3"/>
+      <c r="GE24" s="3"/>
+      <c r="GF24" s="3"/>
+      <c r="GG24" s="3"/>
+      <c r="GH24" s="3"/>
+      <c r="GI24" s="3"/>
+      <c r="GJ24" s="3"/>
+      <c r="GK24" s="3"/>
+      <c r="GL24" s="3"/>
+      <c r="GM24" s="3"/>
+      <c r="GN24" s="3"/>
+      <c r="GO24" s="3"/>
+      <c r="GP24" s="3"/>
+      <c r="GQ24" s="3"/>
+      <c r="GR24" s="3"/>
+      <c r="GS24" s="3"/>
+      <c r="GT24" s="3"/>
+      <c r="GU24" s="3"/>
+      <c r="GV24" s="3"/>
+      <c r="GW24" s="3"/>
+      <c r="GX24" s="3"/>
+      <c r="GY24" s="3"/>
+      <c r="GZ24" s="3"/>
+      <c r="HA24" s="3"/>
+      <c r="HB24" s="3"/>
+      <c r="HC24" s="3"/>
+      <c r="HD24" s="3"/>
+      <c r="HE24" s="3"/>
+      <c r="HF24" s="3"/>
+      <c r="HG24" s="3"/>
+      <c r="HH24" s="3"/>
+      <c r="HI24" s="3"/>
+      <c r="HJ24" s="3"/>
+      <c r="HK24" s="3"/>
+      <c r="HL24" s="3"/>
+      <c r="HM24" s="3"/>
+      <c r="HN24" s="3"/>
+      <c r="HO24" s="3"/>
+      <c r="HP24" s="3"/>
+      <c r="HQ24" s="3"/>
+      <c r="HR24" s="3"/>
+      <c r="HS24" s="3"/>
+      <c r="HT24" s="3"/>
+      <c r="HU24" s="3"/>
+      <c r="HV24" s="3"/>
+      <c r="HW24" s="3"/>
+      <c r="HX24" s="3"/>
+      <c r="HY24" s="3"/>
+      <c r="HZ24" s="3"/>
+      <c r="IA24" s="3"/>
+      <c r="IB24" s="3"/>
+      <c r="IC24" s="3"/>
+      <c r="ID24" s="3"/>
+      <c r="IE24" s="3"/>
+      <c r="IF24" s="3"/>
+      <c r="IG24" s="3"/>
+      <c r="IH24" s="3"/>
+      <c r="II24" s="3"/>
+      <c r="IJ24" s="3"/>
+      <c r="IK24" s="3"/>
+      <c r="IL24" s="3"/>
+      <c r="IM24" s="3"/>
+      <c r="IN24" s="3"/>
+      <c r="IO24" s="3"/>
+      <c r="IP24" s="3"/>
+      <c r="IQ24" s="3"/>
+      <c r="IR24" s="3"/>
+      <c r="IS24" s="3"/>
+      <c r="IT24" s="3"/>
+      <c r="IU24" s="3"/>
+      <c r="IV24" s="3"/>
+      <c r="IW24" s="3"/>
+      <c r="IX24" s="3"/>
+      <c r="IY24" s="3"/>
+      <c r="IZ24" s="3"/>
+      <c r="JA24" s="3"/>
+      <c r="JB24" s="3"/>
+      <c r="JC24" s="3"/>
+      <c r="JD24" s="3"/>
+      <c r="JE24" s="3"/>
+      <c r="JF24" s="3"/>
+      <c r="JG24" s="3"/>
+      <c r="JH24" s="3"/>
+      <c r="JI24" s="3"/>
+      <c r="JJ24" s="3"/>
+      <c r="JK24" s="3"/>
+      <c r="JL24" s="3"/>
+      <c r="JM24" s="3"/>
+      <c r="JN24" s="3"/>
+      <c r="JO24" s="3"/>
+      <c r="JP24" s="3"/>
+      <c r="JQ24" s="3"/>
+      <c r="JR24" s="3"/>
+      <c r="JS24" s="3"/>
+      <c r="JT24" s="3"/>
+      <c r="JU24" s="3"/>
+      <c r="JV24" s="3"/>
+      <c r="JW24" s="3"/>
+      <c r="JX24" s="3"/>
+      <c r="JY24" s="3"/>
+      <c r="JZ24" s="3"/>
+      <c r="KA24" s="3"/>
+      <c r="KB24" s="3"/>
+      <c r="KC24" s="3"/>
+      <c r="KD24" s="3"/>
+      <c r="KE24" s="3"/>
+      <c r="KF24" s="3"/>
+      <c r="KG24" s="3"/>
+      <c r="KH24" s="3"/>
+      <c r="KI24" s="3"/>
+      <c r="KJ24" s="3"/>
+      <c r="KK24" s="3"/>
+      <c r="KL24" s="3"/>
+      <c r="KM24" s="3"/>
+      <c r="KN24" s="3"/>
+      <c r="KO24" s="3"/>
+      <c r="KP24" s="3"/>
+      <c r="KQ24" s="3"/>
+      <c r="KR24" s="3"/>
+      <c r="KS24" s="3"/>
+      <c r="KT24" s="3"/>
+      <c r="KU24" s="3"/>
+      <c r="KV24" s="3"/>
+      <c r="KW24" s="3"/>
+      <c r="KX24" s="3"/>
+      <c r="KY24" s="3"/>
+      <c r="KZ24" s="3"/>
+      <c r="LA24" s="3"/>
+      <c r="LB24" s="3"/>
+      <c r="LC24" s="3"/>
+      <c r="LD24" s="3"/>
+      <c r="LE24" s="3"/>
+      <c r="LF24" s="3"/>
+      <c r="LG24" s="3"/>
+      <c r="LH24" s="3"/>
+      <c r="LI24" s="3"/>
+      <c r="LJ24" s="3"/>
+      <c r="LK24" s="3"/>
+      <c r="LL24" s="3"/>
+      <c r="LM24" s="3"/>
+      <c r="LN24" s="3"/>
+      <c r="LO24" s="3"/>
+      <c r="LP24" s="3"/>
+      <c r="LQ24" s="3"/>
+      <c r="LR24" s="3"/>
+      <c r="LS24" s="3"/>
+      <c r="LT24" s="3"/>
+      <c r="LU24" s="3"/>
+      <c r="LV24" s="3"/>
+      <c r="LW24" s="3"/>
+      <c r="LX24" s="3"/>
+      <c r="LY24" s="3"/>
+      <c r="LZ24" s="3"/>
+      <c r="MA24" s="3"/>
+      <c r="MB24" s="3"/>
+      <c r="MC24" s="3"/>
+      <c r="MD24" s="3"/>
+      <c r="ME24" s="3"/>
+      <c r="MF24" s="3"/>
+      <c r="MG24" s="3"/>
+      <c r="MH24" s="3"/>
+      <c r="MI24" s="3"/>
+      <c r="MJ24" s="3"/>
+      <c r="MK24" s="3"/>
+      <c r="ML24" s="3"/>
+      <c r="MM24" s="3"/>
+      <c r="MN24" s="3"/>
+      <c r="MO24" s="3"/>
+      <c r="MP24" s="3"/>
+      <c r="MQ24" s="3"/>
+      <c r="MR24" s="3"/>
+      <c r="MS24" s="3"/>
+      <c r="MT24" s="3"/>
+      <c r="MU24" s="3"/>
+      <c r="MV24" s="3"/>
+      <c r="MW24" s="3"/>
+      <c r="MX24" s="3"/>
+      <c r="MY24" s="3"/>
+      <c r="MZ24" s="3"/>
+      <c r="NA24" s="3"/>
+      <c r="NB24" s="3"/>
+      <c r="NC24" s="3"/>
+      <c r="ND24" s="3"/>
+      <c r="NE24" s="3"/>
+      <c r="NF24" s="3"/>
+      <c r="NG24" s="3"/>
+      <c r="NH24" s="3"/>
+      <c r="NI24" s="3"/>
+      <c r="NJ24" s="3"/>
+      <c r="NK24" s="3"/>
+      <c r="NL24" s="3"/>
+      <c r="NM24" s="3"/>
+      <c r="NN24" s="3"/>
+      <c r="NO24" s="3"/>
+      <c r="NP24" s="3"/>
+      <c r="NQ24" s="3"/>
+      <c r="NR24" s="3"/>
+      <c r="NS24" s="3"/>
+      <c r="NT24" s="3"/>
+      <c r="NU24" s="3"/>
+      <c r="NV24" s="3"/>
+      <c r="NW24" s="3"/>
+      <c r="NX24" s="3"/>
+      <c r="NY24" s="3"/>
+      <c r="NZ24" s="3"/>
+      <c r="OA24" s="3"/>
+      <c r="OB24" s="3"/>
+      <c r="OC24" s="3"/>
+      <c r="OD24" s="3"/>
+      <c r="OE24" s="3"/>
+      <c r="OF24" s="3"/>
+      <c r="OG24" s="3"/>
+      <c r="OH24" s="3"/>
+      <c r="OI24" s="3"/>
+      <c r="OJ24" s="3"/>
+      <c r="OK24" s="3"/>
+      <c r="OL24" s="3"/>
+      <c r="OM24" s="3"/>
+      <c r="ON24" s="3"/>
+      <c r="OO24" s="3"/>
+      <c r="OP24" s="3"/>
+      <c r="OQ24" s="3"/>
+      <c r="OR24" s="3"/>
+      <c r="OS24" s="3"/>
+      <c r="OT24" s="3"/>
+      <c r="OU24" s="3"/>
+      <c r="OV24" s="3"/>
+      <c r="OW24" s="3"/>
+      <c r="OX24" s="3"/>
+      <c r="OY24" s="3"/>
+      <c r="OZ24" s="3"/>
+      <c r="PA24" s="3"/>
+      <c r="PB24" s="3"/>
+      <c r="PC24" s="3"/>
+      <c r="PD24" s="3"/>
+      <c r="PE24" s="3"/>
+      <c r="PF24" s="3"/>
+      <c r="PG24" s="3"/>
+      <c r="PH24" s="3"/>
+      <c r="PI24" s="3"/>
+      <c r="PJ24" s="3"/>
+      <c r="PK24" s="3"/>
+      <c r="PL24" s="3"/>
+      <c r="PM24" s="3"/>
+      <c r="PN24" s="3"/>
+      <c r="PO24" s="3"/>
+      <c r="PP24" s="3"/>
+      <c r="PQ24" s="3"/>
+      <c r="PR24" s="3"/>
+      <c r="PS24" s="3"/>
+      <c r="PT24" s="3"/>
+      <c r="PU24" s="3"/>
+      <c r="PV24" s="3"/>
+      <c r="PW24" s="3"/>
+      <c r="PX24" s="3"/>
+      <c r="PY24" s="3"/>
+      <c r="PZ24" s="3"/>
+      <c r="QA24" s="3"/>
+      <c r="QB24" s="3"/>
+      <c r="QC24" s="3"/>
+      <c r="QD24" s="3"/>
+      <c r="QE24" s="3"/>
+      <c r="QF24" s="3"/>
+      <c r="QG24" s="3"/>
+      <c r="QH24" s="3"/>
+      <c r="QI24" s="3"/>
+      <c r="QJ24" s="3"/>
+      <c r="QK24" s="3"/>
+      <c r="QL24" s="3"/>
+      <c r="QM24" s="3"/>
+      <c r="QN24" s="3"/>
+      <c r="QO24" s="3"/>
+      <c r="QP24" s="3"/>
+      <c r="QQ24" s="3"/>
+      <c r="QR24" s="3"/>
+      <c r="QS24" s="3"/>
+      <c r="QT24" s="3"/>
+      <c r="QU24" s="3"/>
+      <c r="QV24" s="3"/>
+      <c r="QW24" s="3"/>
+      <c r="QX24" s="3"/>
+      <c r="QY24" s="3"/>
+      <c r="QZ24" s="3"/>
+      <c r="RA24" s="3"/>
+      <c r="RB24" s="3"/>
+      <c r="RC24" s="3"/>
+      <c r="RD24" s="3"/>
+      <c r="RE24" s="3"/>
+      <c r="RF24" s="3"/>
+      <c r="RG24" s="3"/>
+      <c r="RH24" s="3"/>
+      <c r="RI24" s="3"/>
+      <c r="RJ24" s="3"/>
+      <c r="RK24" s="3"/>
+      <c r="RL24" s="3"/>
+      <c r="RM24" s="3"/>
+      <c r="RN24" s="3"/>
+      <c r="RO24" s="3"/>
+      <c r="RP24" s="3"/>
+      <c r="RQ24" s="3"/>
+      <c r="RR24" s="3"/>
+      <c r="RS24" s="3"/>
+      <c r="RT24" s="3"/>
+      <c r="RU24" s="3"/>
+      <c r="RV24" s="3"/>
+      <c r="RW24" s="3"/>
+      <c r="RX24" s="3"/>
+      <c r="RY24" s="3"/>
+      <c r="RZ24" s="3"/>
+      <c r="SA24" s="3"/>
+      <c r="SB24" s="3"/>
+      <c r="SC24" s="3"/>
+      <c r="SD24" s="3"/>
+      <c r="SE24" s="3"/>
+      <c r="SF24" s="3"/>
+      <c r="SG24" s="3"/>
+      <c r="SH24" s="3"/>
+      <c r="SI24" s="3"/>
+      <c r="SJ24" s="3"/>
+      <c r="SK24" s="3"/>
+      <c r="SL24" s="3"/>
+      <c r="SM24" s="3"/>
+      <c r="SN24" s="3"/>
+      <c r="SO24" s="3"/>
+      <c r="SP24" s="3"/>
+      <c r="SQ24" s="3"/>
+      <c r="SR24" s="3"/>
+      <c r="SS24" s="3"/>
+      <c r="ST24" s="3"/>
+      <c r="SU24" s="3"/>
+      <c r="SV24" s="3"/>
+      <c r="SW24" s="3"/>
+      <c r="SX24" s="3"/>
+      <c r="SY24" s="3"/>
+      <c r="SZ24" s="3"/>
+      <c r="TA24" s="3"/>
+      <c r="TB24" s="3"/>
+      <c r="TC24" s="3"/>
+      <c r="TD24" s="3"/>
+      <c r="TE24" s="3"/>
+      <c r="TF24" s="3"/>
+      <c r="TG24" s="3"/>
+      <c r="TH24" s="3"/>
+      <c r="TI24" s="3"/>
+      <c r="TJ24" s="3"/>
+      <c r="TK24" s="3"/>
+      <c r="TL24" s="3"/>
+      <c r="TM24" s="3"/>
+      <c r="TN24" s="3"/>
+      <c r="TO24" s="3"/>
+      <c r="TP24" s="3"/>
+      <c r="TQ24" s="3"/>
+      <c r="TR24" s="3"/>
+      <c r="TS24" s="3"/>
+      <c r="TT24" s="3"/>
+      <c r="TU24" s="3"/>
+      <c r="TV24" s="3"/>
+      <c r="TW24" s="3"/>
+      <c r="TX24" s="3"/>
+      <c r="TY24" s="3"/>
+      <c r="TZ24" s="3"/>
+      <c r="UA24" s="3"/>
+      <c r="UB24" s="3"/>
+      <c r="UC24" s="3"/>
+      <c r="UD24" s="3"/>
+      <c r="UE24" s="3"/>
+      <c r="UF24" s="3"/>
+      <c r="UG24" s="3"/>
+      <c r="UH24" s="3"/>
+      <c r="UI24" s="3"/>
+      <c r="UJ24" s="3"/>
+      <c r="UK24" s="3"/>
+      <c r="UL24" s="3"/>
+      <c r="UM24" s="3"/>
+      <c r="UN24" s="3"/>
+      <c r="UO24" s="3"/>
+      <c r="UP24" s="3"/>
+      <c r="UQ24" s="3"/>
+      <c r="UR24" s="3"/>
+      <c r="US24" s="3"/>
+      <c r="UT24" s="3"/>
+      <c r="UU24" s="3"/>
+      <c r="UV24" s="3"/>
+      <c r="UW24" s="3"/>
+      <c r="UX24" s="3"/>
+      <c r="UY24" s="3"/>
+      <c r="UZ24" s="3"/>
+      <c r="VA24" s="3"/>
+      <c r="VB24" s="3"/>
+      <c r="VC24" s="3"/>
+      <c r="VD24" s="3"/>
+      <c r="VE24" s="3"/>
+      <c r="VF24" s="3"/>
+      <c r="VG24" s="3"/>
+      <c r="VH24" s="3"/>
+      <c r="VI24" s="3"/>
+      <c r="VJ24" s="3"/>
+      <c r="VK24" s="3"/>
+      <c r="VL24" s="3"/>
+      <c r="VM24" s="3"/>
+      <c r="VN24" s="3"/>
+      <c r="VO24" s="3"/>
+      <c r="VP24" s="3"/>
+      <c r="VQ24" s="3"/>
+      <c r="VR24" s="3"/>
+      <c r="VS24" s="3"/>
+      <c r="VT24" s="3"/>
+      <c r="VU24" s="3"/>
+      <c r="VV24" s="3"/>
+      <c r="VW24" s="3"/>
+      <c r="VX24" s="3"/>
+      <c r="VY24" s="3"/>
+      <c r="VZ24" s="3"/>
+      <c r="WA24" s="3"/>
+      <c r="WB24" s="3"/>
+      <c r="WC24" s="3"/>
+      <c r="WD24" s="3"/>
+      <c r="WE24" s="3"/>
+      <c r="WF24" s="3"/>
+      <c r="WG24" s="3"/>
+      <c r="WH24" s="3"/>
+      <c r="WI24" s="3"/>
+      <c r="WJ24" s="3"/>
+      <c r="WK24" s="3"/>
+      <c r="WL24" s="3"/>
+      <c r="WM24" s="3"/>
+      <c r="WN24" s="3"/>
+      <c r="WO24" s="3"/>
+      <c r="WP24" s="3"/>
+      <c r="WQ24" s="3"/>
+      <c r="WR24" s="3"/>
+      <c r="WS24" s="3"/>
+      <c r="WT24" s="3"/>
+      <c r="WU24" s="3"/>
+      <c r="WV24" s="3"/>
+      <c r="WW24" s="3"/>
+      <c r="WX24" s="3"/>
+      <c r="WY24" s="3"/>
+      <c r="WZ24" s="3"/>
+      <c r="XA24" s="3"/>
+      <c r="XB24" s="3"/>
+      <c r="XC24" s="3"/>
+      <c r="XD24" s="3"/>
+      <c r="XE24" s="3"/>
+      <c r="XF24" s="3"/>
+      <c r="XG24" s="3"/>
+      <c r="XH24" s="3"/>
+      <c r="XI24" s="3"/>
+      <c r="XJ24" s="3"/>
+      <c r="XK24" s="3"/>
+      <c r="XL24" s="3"/>
+      <c r="XM24" s="3"/>
+      <c r="XN24" s="3"/>
+      <c r="XO24" s="3"/>
+      <c r="XP24" s="3"/>
+      <c r="XQ24" s="3"/>
+      <c r="XR24" s="3"/>
+      <c r="XS24" s="3"/>
+      <c r="XT24" s="3"/>
+      <c r="XU24" s="3"/>
+      <c r="XV24" s="3"/>
+      <c r="XW24" s="3"/>
+      <c r="XX24" s="3"/>
+      <c r="XY24" s="3"/>
+      <c r="XZ24" s="3"/>
+      <c r="YA24" s="3"/>
+      <c r="YB24" s="3"/>
+      <c r="YC24" s="3"/>
+      <c r="YD24" s="3"/>
+      <c r="YE24" s="3"/>
+      <c r="YF24" s="3"/>
+      <c r="YG24" s="3"/>
+      <c r="YH24" s="3"/>
+      <c r="YI24" s="3"/>
+      <c r="YJ24" s="3"/>
+      <c r="YK24" s="3"/>
+      <c r="YL24" s="3"/>
+      <c r="YM24" s="3"/>
+      <c r="YN24" s="3"/>
+      <c r="YO24" s="3"/>
+      <c r="YP24" s="3"/>
+      <c r="YQ24" s="3"/>
+      <c r="YR24" s="3"/>
+      <c r="YS24" s="3"/>
+      <c r="YT24" s="3"/>
+      <c r="YU24" s="3"/>
+      <c r="YV24" s="3"/>
+      <c r="YW24" s="3"/>
+      <c r="YX24" s="3"/>
+      <c r="YY24" s="3"/>
+      <c r="YZ24" s="3"/>
+      <c r="ZA24" s="3"/>
+      <c r="ZB24" s="3"/>
+      <c r="ZC24" s="3"/>
+      <c r="ZD24" s="3"/>
+      <c r="ZE24" s="3"/>
+      <c r="ZF24" s="3"/>
+      <c r="ZG24" s="3"/>
+      <c r="ZH24" s="3"/>
+      <c r="ZI24" s="3"/>
+      <c r="ZJ24" s="3"/>
+      <c r="ZK24" s="3"/>
+      <c r="ZL24" s="3"/>
+      <c r="ZM24" s="3"/>
+      <c r="ZN24" s="3"/>
+      <c r="ZO24" s="3"/>
+      <c r="ZP24" s="3"/>
+      <c r="ZQ24" s="3"/>
+      <c r="ZR24" s="3"/>
+      <c r="ZS24" s="3"/>
+      <c r="ZT24" s="3"/>
+      <c r="ZU24" s="3"/>
+      <c r="ZV24" s="3"/>
+      <c r="ZW24" s="3"/>
+      <c r="ZX24" s="3"/>
+      <c r="ZY24" s="3"/>
+      <c r="ZZ24" s="3"/>
+      <c r="AAA24" s="3"/>
+      <c r="AAB24" s="3"/>
+      <c r="AAC24" s="3"/>
+      <c r="AAD24" s="3"/>
+      <c r="AAE24" s="3"/>
+      <c r="AAF24" s="3"/>
+      <c r="AAG24" s="3"/>
+      <c r="AAH24" s="3"/>
+      <c r="AAI24" s="3"/>
+      <c r="AAJ24" s="3"/>
+      <c r="AAK24" s="3"/>
+      <c r="AAL24" s="3"/>
+      <c r="AAM24" s="3"/>
+      <c r="AAN24" s="3"/>
+      <c r="AAO24" s="3"/>
+      <c r="AAP24" s="3"/>
+      <c r="AAQ24" s="3"/>
+      <c r="AAR24" s="3"/>
+      <c r="AAS24" s="3"/>
+      <c r="AAT24" s="3"/>
+      <c r="AAU24" s="3"/>
+      <c r="AAV24" s="3"/>
+      <c r="AAW24" s="3"/>
+      <c r="AAX24" s="3"/>
+      <c r="AAY24" s="3"/>
+      <c r="AAZ24" s="3"/>
+      <c r="ABA24" s="3"/>
+      <c r="ABB24" s="3"/>
+      <c r="ABC24" s="3"/>
+      <c r="ABD24" s="3"/>
+      <c r="ABE24" s="3"/>
+      <c r="ABF24" s="3"/>
+      <c r="ABG24" s="3"/>
+      <c r="ABH24" s="3"/>
+      <c r="ABI24" s="3"/>
+      <c r="ABJ24" s="3"/>
+      <c r="ABK24" s="3"/>
+      <c r="ABL24" s="3"/>
+      <c r="ABM24" s="3"/>
+      <c r="ABN24" s="3"/>
+      <c r="ABO24" s="3"/>
+      <c r="ABP24" s="3"/>
+      <c r="ABQ24" s="3"/>
+      <c r="ABR24" s="3"/>
+      <c r="ABS24" s="3"/>
+      <c r="ABT24" s="3"/>
+      <c r="ABU24" s="3"/>
+      <c r="ABV24" s="3"/>
+      <c r="ABW24" s="3"/>
+      <c r="ABX24" s="3"/>
+      <c r="ABY24" s="3"/>
+      <c r="ABZ24" s="3"/>
+      <c r="ACA24" s="3"/>
+      <c r="ACB24" s="3"/>
+      <c r="ACC24" s="3"/>
+      <c r="ACD24" s="3"/>
+      <c r="ACE24" s="3"/>
+      <c r="ACF24" s="3"/>
+      <c r="ACG24" s="3"/>
+      <c r="ACH24" s="3"/>
+      <c r="ACI24" s="3"/>
+      <c r="ACJ24" s="3"/>
+      <c r="ACK24" s="3"/>
+      <c r="ACL24" s="3"/>
+      <c r="ACM24" s="3"/>
+      <c r="ACN24" s="3"/>
+      <c r="ACO24" s="3"/>
+      <c r="ACP24" s="3"/>
+      <c r="ACQ24" s="3"/>
+      <c r="ACR24" s="3"/>
+      <c r="ACS24" s="3"/>
+      <c r="ACT24" s="3"/>
+      <c r="ACU24" s="3"/>
+      <c r="ACV24" s="3"/>
+      <c r="ACW24" s="3"/>
+      <c r="ACX24" s="3"/>
+      <c r="ACY24" s="3"/>
+      <c r="ACZ24" s="3"/>
+      <c r="ADA24" s="3"/>
+      <c r="ADB24" s="3"/>
+      <c r="ADC24" s="3"/>
+      <c r="ADD24" s="3"/>
+      <c r="ADE24" s="3"/>
+      <c r="ADF24" s="3"/>
+      <c r="ADG24" s="3"/>
+      <c r="ADH24" s="3"/>
+      <c r="ADI24" s="3"/>
+      <c r="ADJ24" s="3"/>
+      <c r="ADK24" s="3"/>
+      <c r="ADL24" s="3"/>
+      <c r="ADM24" s="3"/>
+      <c r="ADN24" s="3"/>
+      <c r="ADO24" s="3"/>
+      <c r="ADP24" s="3"/>
+      <c r="ADQ24" s="3"/>
+      <c r="ADR24" s="3"/>
+      <c r="ADS24" s="3"/>
+      <c r="ADT24" s="3"/>
+      <c r="ADU24" s="3"/>
+      <c r="ADV24" s="3"/>
+      <c r="ADW24" s="3"/>
+      <c r="ADX24" s="3"/>
+      <c r="ADY24" s="3"/>
+      <c r="ADZ24" s="3"/>
+      <c r="AEA24" s="3"/>
+      <c r="AEB24" s="3"/>
+      <c r="AEC24" s="3"/>
+      <c r="AED24" s="3"/>
+      <c r="AEE24" s="3"/>
+      <c r="AEF24" s="3"/>
+      <c r="AEG24" s="3"/>
+      <c r="AEH24" s="3"/>
+      <c r="AEI24" s="3"/>
+      <c r="AEJ24" s="3"/>
+      <c r="AEK24" s="3"/>
+      <c r="AEL24" s="3"/>
+      <c r="AEM24" s="3"/>
+      <c r="AEN24" s="3"/>
+      <c r="AEO24" s="3"/>
+      <c r="AEP24" s="3"/>
+      <c r="AEQ24" s="3"/>
+      <c r="AER24" s="3"/>
+      <c r="AES24" s="3"/>
+      <c r="AET24" s="3"/>
+      <c r="AEU24" s="3"/>
+      <c r="AEV24" s="3"/>
+      <c r="AEW24" s="3"/>
+      <c r="AEX24" s="3"/>
+      <c r="AEY24" s="3"/>
+      <c r="AEZ24" s="3"/>
+      <c r="AFA24" s="3"/>
+      <c r="AFB24" s="3"/>
+      <c r="AFC24" s="3"/>
+      <c r="AFD24" s="3"/>
+      <c r="AFE24" s="3"/>
+      <c r="AFF24" s="3"/>
+      <c r="AFG24" s="3"/>
+      <c r="AFH24" s="3"/>
+      <c r="AFI24" s="3"/>
+      <c r="AFJ24" s="3"/>
+      <c r="AFK24" s="3"/>
+      <c r="AFL24" s="3"/>
+      <c r="AFM24" s="3"/>
+      <c r="AFN24" s="3"/>
+      <c r="AFO24" s="3"/>
+      <c r="AFP24" s="3"/>
+      <c r="AFQ24" s="3"/>
+      <c r="AFR24" s="3"/>
+      <c r="AFS24" s="3"/>
+      <c r="AFT24" s="3"/>
+      <c r="AFU24" s="3"/>
+      <c r="AFV24" s="3"/>
+      <c r="AFW24" s="3"/>
+      <c r="AFX24" s="3"/>
+      <c r="AFY24" s="3"/>
+      <c r="AFZ24" s="3"/>
+      <c r="AGA24" s="3"/>
+      <c r="AGB24" s="3"/>
+      <c r="AGC24" s="3"/>
+      <c r="AGD24" s="3"/>
+      <c r="AGE24" s="3"/>
+      <c r="AGF24" s="3"/>
+      <c r="AGG24" s="3"/>
+      <c r="AGH24" s="3"/>
+      <c r="AGI24" s="3"/>
+      <c r="AGJ24" s="3"/>
+      <c r="AGK24" s="3"/>
+      <c r="AGL24" s="3"/>
+      <c r="AGM24" s="3"/>
+      <c r="AGN24" s="3"/>
+      <c r="AGO24" s="3"/>
+      <c r="AGP24" s="3"/>
+      <c r="AGQ24" s="3"/>
+      <c r="AGR24" s="3"/>
+      <c r="AGS24" s="3"/>
+      <c r="AGT24" s="3"/>
+      <c r="AGU24" s="3"/>
+      <c r="AGV24" s="3"/>
+      <c r="AGW24" s="3"/>
+      <c r="AGX24" s="3"/>
+      <c r="AGY24" s="3"/>
+      <c r="AGZ24" s="3"/>
+      <c r="AHA24" s="3"/>
+      <c r="AHB24" s="3"/>
+      <c r="AHC24" s="3"/>
+      <c r="AHD24" s="3"/>
+      <c r="AHE24" s="3"/>
+      <c r="AHF24" s="3"/>
+      <c r="AHG24" s="3"/>
+      <c r="AHH24" s="3"/>
+      <c r="AHI24" s="3"/>
+      <c r="AHJ24" s="3"/>
+      <c r="AHK24" s="3"/>
+      <c r="AHL24" s="3"/>
+      <c r="AHM24" s="3"/>
+      <c r="AHN24" s="3"/>
+      <c r="AHO24" s="3"/>
+      <c r="AHP24" s="3"/>
+      <c r="AHQ24" s="3"/>
+      <c r="AHR24" s="3"/>
+      <c r="AHS24" s="3"/>
+      <c r="AHT24" s="3"/>
+      <c r="AHU24" s="3"/>
+      <c r="AHV24" s="3"/>
+      <c r="AHW24" s="3"/>
+      <c r="AHX24" s="3"/>
+      <c r="AHY24" s="3"/>
+      <c r="AHZ24" s="3"/>
+      <c r="AIA24" s="3"/>
+      <c r="AIB24" s="3"/>
+      <c r="AIC24" s="3"/>
+      <c r="AID24" s="3"/>
+      <c r="AIE24" s="3"/>
+      <c r="AIF24" s="3"/>
+      <c r="AIG24" s="3"/>
+      <c r="AIH24" s="3"/>
+      <c r="AII24" s="3"/>
+      <c r="AIJ24" s="3"/>
+      <c r="AIK24" s="3"/>
+      <c r="AIL24" s="3"/>
+      <c r="AIM24" s="3"/>
+      <c r="AIN24" s="3"/>
+      <c r="AIO24" s="3"/>
+      <c r="AIP24" s="3"/>
+      <c r="AIQ24" s="3"/>
+      <c r="AIR24" s="3"/>
+      <c r="AIS24" s="3"/>
+      <c r="AIT24" s="3"/>
+      <c r="AIU24" s="3"/>
+      <c r="AIV24" s="3"/>
+      <c r="AIW24" s="3"/>
+      <c r="AIX24" s="3"/>
+      <c r="AIY24" s="3"/>
+      <c r="AIZ24" s="3"/>
+      <c r="AJA24" s="3"/>
+      <c r="AJB24" s="3"/>
+      <c r="AJC24" s="3"/>
+      <c r="AJD24" s="3"/>
+      <c r="AJE24" s="3"/>
+      <c r="AJF24" s="3"/>
+      <c r="AJG24" s="3"/>
+      <c r="AJH24" s="3"/>
+      <c r="AJI24" s="3"/>
+      <c r="AJJ24" s="3"/>
+      <c r="AJK24" s="3"/>
+      <c r="AJL24" s="3"/>
+      <c r="AJM24" s="3"/>
+      <c r="AJN24" s="3"/>
+      <c r="AJO24" s="3"/>
+      <c r="AJP24" s="3"/>
+      <c r="AJQ24" s="3"/>
+      <c r="AJR24" s="3"/>
+      <c r="AJS24" s="3"/>
+      <c r="AJT24" s="3"/>
+      <c r="AJU24" s="3"/>
+      <c r="AJV24" s="3"/>
+      <c r="AJW24" s="3"/>
+      <c r="AJX24" s="3"/>
+      <c r="AJY24" s="3"/>
+      <c r="AJZ24" s="3"/>
+      <c r="AKA24" s="3"/>
+      <c r="AKB24" s="3"/>
+      <c r="AKC24" s="3"/>
+      <c r="AKD24" s="3"/>
+      <c r="AKE24" s="3"/>
+      <c r="AKF24" s="3"/>
+      <c r="AKG24" s="3"/>
+      <c r="AKH24" s="3"/>
+      <c r="AKI24" s="3"/>
+      <c r="AKJ24" s="3"/>
+      <c r="AKK24" s="3"/>
+      <c r="AKL24" s="3"/>
+      <c r="AKM24" s="3"/>
+      <c r="AKN24" s="3"/>
+      <c r="AKO24" s="3"/>
+      <c r="AKP24" s="3"/>
+      <c r="AKQ24" s="3"/>
+      <c r="AKR24" s="3"/>
+      <c r="AKS24" s="3"/>
+      <c r="AKT24" s="3"/>
+      <c r="AKU24" s="3"/>
+      <c r="AKV24" s="3"/>
+      <c r="AKW24" s="3"/>
+      <c r="AKX24" s="3"/>
+      <c r="AKY24" s="3"/>
+      <c r="AKZ24" s="3"/>
+      <c r="ALA24" s="3"/>
+      <c r="ALB24" s="3"/>
+      <c r="ALC24" s="3"/>
+      <c r="ALD24" s="3"/>
+      <c r="ALE24" s="3"/>
+      <c r="ALF24" s="3"/>
+      <c r="ALG24" s="3"/>
+      <c r="ALH24" s="3"/>
+      <c r="ALI24" s="3"/>
+      <c r="ALJ24" s="3"/>
+      <c r="ALK24" s="3"/>
+      <c r="ALL24" s="3"/>
+      <c r="ALM24" s="3"/>
+      <c r="ALN24" s="3"/>
+      <c r="ALO24" s="3"/>
+      <c r="ALP24" s="3"/>
+      <c r="ALQ24" s="3"/>
+      <c r="ALR24" s="3"/>
+      <c r="ALS24" s="3"/>
+      <c r="ALT24" s="3"/>
+      <c r="ALU24" s="3"/>
+      <c r="ALV24" s="3"/>
+      <c r="ALW24" s="3"/>
+      <c r="ALX24" s="3"/>
+      <c r="ALY24" s="3"/>
+      <c r="ALZ24" s="3"/>
+      <c r="AMA24" s="3"/>
+      <c r="AMB24" s="3"/>
+      <c r="AMC24" s="3"/>
+      <c r="AMD24" s="3"/>
+      <c r="AME24" s="8"/>
+      <c r="AMF24" s="8"/>
+      <c r="AMG24" s="8"/>
+      <c r="AMH24" s="8"/>
+      <c r="AMI24" s="8"/>
+      <c r="AMJ24" s="8"/>
     </row>
-    <row r="25" s="12" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="E25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="AME25" s="8"/>
+      <c r="AMF25" s="8"/>
+      <c r="AMG25" s="8"/>
+      <c r="AMH25" s="8"/>
+      <c r="AMI25" s="8"/>
+      <c r="AMJ25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="9"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="9"/>
-      <c r="V25" s="9"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
-      <c r="AF25" s="3"/>
-      <c r="AG25" s="3"/>
-      <c r="AH25" s="3"/>
-      <c r="AI25" s="3"/>
-      <c r="AJ25" s="3"/>
-      <c r="AK25" s="3"/>
-      <c r="AL25" s="3"/>
-      <c r="AM25" s="3"/>
-      <c r="AN25" s="3"/>
-      <c r="AO25" s="3"/>
-      <c r="AP25" s="3"/>
-      <c r="AQ25" s="3"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="3"/>
-      <c r="AT25" s="3"/>
-      <c r="AU25" s="3"/>
-      <c r="AV25" s="3"/>
-      <c r="AW25" s="3"/>
-      <c r="AX25" s="3"/>
-      <c r="AY25" s="3"/>
-      <c r="AZ25" s="3"/>
-      <c r="BA25" s="3"/>
-      <c r="BB25" s="3"/>
-      <c r="BC25" s="3"/>
-      <c r="BD25" s="3"/>
-      <c r="BE25" s="3"/>
-      <c r="BF25" s="3"/>
-      <c r="BG25" s="3"/>
-      <c r="BH25" s="3"/>
-      <c r="BI25" s="3"/>
-      <c r="BJ25" s="3"/>
-      <c r="BK25" s="3"/>
-      <c r="BL25" s="3"/>
-      <c r="BM25" s="3"/>
-      <c r="BN25" s="3"/>
-      <c r="BO25" s="3"/>
-      <c r="BP25" s="3"/>
-      <c r="BQ25" s="3"/>
-      <c r="BR25" s="3"/>
-      <c r="BS25" s="3"/>
-      <c r="BT25" s="3"/>
-      <c r="BU25" s="3"/>
-      <c r="BV25" s="3"/>
-      <c r="BW25" s="3"/>
-      <c r="BX25" s="3"/>
-      <c r="BY25" s="3"/>
-      <c r="BZ25" s="3"/>
-      <c r="CA25" s="3"/>
-      <c r="CB25" s="3"/>
-      <c r="CC25" s="3"/>
-      <c r="CD25" s="3"/>
-      <c r="CE25" s="3"/>
-      <c r="CF25" s="3"/>
-      <c r="CG25" s="3"/>
-      <c r="CH25" s="3"/>
-      <c r="CI25" s="3"/>
-      <c r="CJ25" s="3"/>
-      <c r="CK25" s="3"/>
-      <c r="CL25" s="3"/>
-      <c r="CM25" s="3"/>
-      <c r="CN25" s="3"/>
-      <c r="CO25" s="3"/>
-      <c r="CP25" s="3"/>
-      <c r="CQ25" s="3"/>
-      <c r="CR25" s="3"/>
-      <c r="CS25" s="3"/>
-      <c r="CT25" s="3"/>
-      <c r="CU25" s="3"/>
-      <c r="CV25" s="3"/>
-      <c r="CW25" s="3"/>
-      <c r="CX25" s="3"/>
-      <c r="CY25" s="3"/>
-      <c r="CZ25" s="3"/>
-      <c r="DA25" s="3"/>
-      <c r="DB25" s="3"/>
-      <c r="DC25" s="3"/>
-      <c r="DD25" s="3"/>
-      <c r="DE25" s="3"/>
-      <c r="DF25" s="3"/>
-      <c r="DG25" s="3"/>
-      <c r="DH25" s="3"/>
-      <c r="DI25" s="3"/>
-      <c r="DJ25" s="3"/>
-      <c r="DK25" s="3"/>
-      <c r="DL25" s="3"/>
-      <c r="DM25" s="3"/>
-      <c r="DN25" s="3"/>
-      <c r="DO25" s="3"/>
-      <c r="DP25" s="3"/>
-      <c r="DQ25" s="3"/>
-      <c r="DR25" s="3"/>
-      <c r="DS25" s="3"/>
-      <c r="DT25" s="3"/>
-      <c r="DU25" s="3"/>
-      <c r="DV25" s="3"/>
-      <c r="DW25" s="3"/>
-      <c r="DX25" s="3"/>
-      <c r="DY25" s="3"/>
-      <c r="DZ25" s="3"/>
-      <c r="EA25" s="3"/>
-      <c r="EB25" s="3"/>
-      <c r="EC25" s="3"/>
-      <c r="ED25" s="3"/>
-      <c r="EE25" s="3"/>
-      <c r="EF25" s="3"/>
-      <c r="EG25" s="3"/>
-      <c r="EH25" s="3"/>
-      <c r="EI25" s="3"/>
-      <c r="EJ25" s="3"/>
-      <c r="EK25" s="3"/>
-      <c r="EL25" s="3"/>
-      <c r="EM25" s="3"/>
-      <c r="EN25" s="3"/>
-      <c r="EO25" s="3"/>
-      <c r="EP25" s="3"/>
-      <c r="EQ25" s="3"/>
-      <c r="ER25" s="3"/>
-      <c r="ES25" s="3"/>
-      <c r="ET25" s="3"/>
-      <c r="EU25" s="3"/>
-      <c r="EV25" s="3"/>
-      <c r="EW25" s="3"/>
-      <c r="EX25" s="3"/>
-      <c r="EY25" s="3"/>
-      <c r="EZ25" s="3"/>
-      <c r="FA25" s="3"/>
-      <c r="FB25" s="3"/>
-      <c r="FC25" s="3"/>
-      <c r="FD25" s="3"/>
-      <c r="FE25" s="3"/>
-      <c r="FF25" s="3"/>
-      <c r="FG25" s="3"/>
-      <c r="FH25" s="3"/>
-      <c r="FI25" s="3"/>
-      <c r="FJ25" s="3"/>
-      <c r="FK25" s="3"/>
-      <c r="FL25" s="3"/>
-      <c r="FM25" s="3"/>
-      <c r="FN25" s="3"/>
-      <c r="FO25" s="3"/>
-      <c r="FP25" s="3"/>
-      <c r="FQ25" s="3"/>
-      <c r="FR25" s="3"/>
-      <c r="FS25" s="3"/>
-      <c r="FT25" s="3"/>
-      <c r="FU25" s="3"/>
-      <c r="FV25" s="3"/>
-      <c r="FW25" s="3"/>
-      <c r="FX25" s="3"/>
-      <c r="FY25" s="3"/>
-      <c r="FZ25" s="3"/>
-      <c r="GA25" s="3"/>
-      <c r="GB25" s="3"/>
-      <c r="GC25" s="3"/>
-      <c r="GD25" s="3"/>
-      <c r="GE25" s="3"/>
-      <c r="GF25" s="3"/>
-      <c r="GG25" s="3"/>
-      <c r="GH25" s="3"/>
-      <c r="GI25" s="3"/>
-      <c r="GJ25" s="3"/>
-      <c r="GK25" s="3"/>
-      <c r="GL25" s="3"/>
-      <c r="GM25" s="3"/>
-      <c r="GN25" s="3"/>
-      <c r="GO25" s="3"/>
-      <c r="GP25" s="3"/>
-      <c r="GQ25" s="3"/>
-      <c r="GR25" s="3"/>
-      <c r="GS25" s="3"/>
-      <c r="GT25" s="3"/>
-      <c r="GU25" s="3"/>
-      <c r="GV25" s="3"/>
-      <c r="GW25" s="3"/>
-      <c r="GX25" s="3"/>
-      <c r="GY25" s="3"/>
-      <c r="GZ25" s="3"/>
-      <c r="HA25" s="3"/>
-      <c r="HB25" s="3"/>
-      <c r="HC25" s="3"/>
-      <c r="HD25" s="3"/>
-      <c r="HE25" s="3"/>
-      <c r="HF25" s="3"/>
-      <c r="HG25" s="3"/>
-      <c r="HH25" s="3"/>
-      <c r="HI25" s="3"/>
-      <c r="HJ25" s="3"/>
-      <c r="HK25" s="3"/>
-      <c r="HL25" s="3"/>
-      <c r="HM25" s="3"/>
-      <c r="HN25" s="3"/>
-      <c r="HO25" s="3"/>
-      <c r="HP25" s="3"/>
-      <c r="HQ25" s="3"/>
-      <c r="HR25" s="3"/>
-      <c r="HS25" s="3"/>
-      <c r="HT25" s="3"/>
-      <c r="HU25" s="3"/>
-      <c r="HV25" s="3"/>
-      <c r="HW25" s="3"/>
-      <c r="HX25" s="3"/>
-      <c r="HY25" s="3"/>
-      <c r="HZ25" s="3"/>
-      <c r="IA25" s="3"/>
-      <c r="IB25" s="3"/>
-      <c r="IC25" s="3"/>
-      <c r="ID25" s="3"/>
-      <c r="IE25" s="3"/>
-      <c r="IF25" s="3"/>
-      <c r="IG25" s="3"/>
-      <c r="IH25" s="3"/>
-      <c r="II25" s="3"/>
-      <c r="IJ25" s="3"/>
-      <c r="IK25" s="3"/>
-      <c r="IL25" s="3"/>
-      <c r="IM25" s="3"/>
-      <c r="IN25" s="3"/>
-      <c r="IO25" s="3"/>
-      <c r="IP25" s="3"/>
-      <c r="IQ25" s="3"/>
-      <c r="IR25" s="3"/>
-      <c r="IS25" s="3"/>
-      <c r="IT25" s="3"/>
-      <c r="IU25" s="3"/>
-      <c r="IV25" s="3"/>
-      <c r="IW25" s="3"/>
-      <c r="IX25" s="3"/>
-      <c r="IY25" s="3"/>
-      <c r="IZ25" s="3"/>
-      <c r="JA25" s="3"/>
-      <c r="JB25" s="3"/>
-      <c r="JC25" s="3"/>
-      <c r="JD25" s="3"/>
-      <c r="JE25" s="3"/>
-      <c r="JF25" s="3"/>
-      <c r="JG25" s="3"/>
-      <c r="JH25" s="3"/>
-      <c r="JI25" s="3"/>
-      <c r="JJ25" s="3"/>
-      <c r="JK25" s="3"/>
-      <c r="JL25" s="3"/>
-      <c r="JM25" s="3"/>
-      <c r="JN25" s="3"/>
-      <c r="JO25" s="3"/>
-      <c r="JP25" s="3"/>
-      <c r="JQ25" s="3"/>
-      <c r="JR25" s="3"/>
-      <c r="JS25" s="3"/>
-      <c r="JT25" s="3"/>
-      <c r="JU25" s="3"/>
-      <c r="JV25" s="3"/>
-      <c r="JW25" s="3"/>
-      <c r="JX25" s="3"/>
-      <c r="JY25" s="3"/>
-      <c r="JZ25" s="3"/>
-      <c r="KA25" s="3"/>
-      <c r="KB25" s="3"/>
-      <c r="KC25" s="3"/>
-      <c r="KD25" s="3"/>
-      <c r="KE25" s="3"/>
-      <c r="KF25" s="3"/>
-      <c r="KG25" s="3"/>
-      <c r="KH25" s="3"/>
-      <c r="KI25" s="3"/>
-      <c r="KJ25" s="3"/>
-      <c r="KK25" s="3"/>
-      <c r="KL25" s="3"/>
-      <c r="KM25" s="3"/>
-      <c r="KN25" s="3"/>
-      <c r="KO25" s="3"/>
-      <c r="KP25" s="3"/>
-      <c r="KQ25" s="3"/>
-      <c r="KR25" s="3"/>
-      <c r="KS25" s="3"/>
-      <c r="KT25" s="3"/>
-      <c r="KU25" s="3"/>
-      <c r="KV25" s="3"/>
-      <c r="KW25" s="3"/>
-      <c r="KX25" s="3"/>
-      <c r="KY25" s="3"/>
-      <c r="KZ25" s="3"/>
-      <c r="LA25" s="3"/>
-      <c r="LB25" s="3"/>
-      <c r="LC25" s="3"/>
-      <c r="LD25" s="3"/>
-      <c r="LE25" s="3"/>
-      <c r="LF25" s="3"/>
-      <c r="LG25" s="3"/>
-      <c r="LH25" s="3"/>
-      <c r="LI25" s="3"/>
-      <c r="LJ25" s="3"/>
-      <c r="LK25" s="3"/>
-      <c r="LL25" s="3"/>
-      <c r="LM25" s="3"/>
-      <c r="LN25" s="3"/>
-      <c r="LO25" s="3"/>
-      <c r="LP25" s="3"/>
-      <c r="LQ25" s="3"/>
-      <c r="LR25" s="3"/>
-      <c r="LS25" s="3"/>
-      <c r="LT25" s="3"/>
-      <c r="LU25" s="3"/>
-      <c r="LV25" s="3"/>
-      <c r="LW25" s="3"/>
-      <c r="LX25" s="3"/>
-      <c r="LY25" s="3"/>
-      <c r="LZ25" s="3"/>
-      <c r="MA25" s="3"/>
-      <c r="MB25" s="3"/>
-      <c r="MC25" s="3"/>
-      <c r="MD25" s="3"/>
-      <c r="ME25" s="3"/>
-      <c r="MF25" s="3"/>
-      <c r="MG25" s="3"/>
-      <c r="MH25" s="3"/>
-      <c r="MI25" s="3"/>
-      <c r="MJ25" s="3"/>
-      <c r="MK25" s="3"/>
-      <c r="ML25" s="3"/>
-      <c r="MM25" s="3"/>
-      <c r="MN25" s="3"/>
-      <c r="MO25" s="3"/>
-      <c r="MP25" s="3"/>
-      <c r="MQ25" s="3"/>
-      <c r="MR25" s="3"/>
-      <c r="MS25" s="3"/>
-      <c r="MT25" s="3"/>
-      <c r="MU25" s="3"/>
-      <c r="MV25" s="3"/>
-      <c r="MW25" s="3"/>
-      <c r="MX25" s="3"/>
-      <c r="MY25" s="3"/>
-      <c r="MZ25" s="3"/>
-      <c r="NA25" s="3"/>
-      <c r="NB25" s="3"/>
-      <c r="NC25" s="3"/>
-      <c r="ND25" s="3"/>
-      <c r="NE25" s="3"/>
-      <c r="NF25" s="3"/>
-      <c r="NG25" s="3"/>
-      <c r="NH25" s="3"/>
-      <c r="NI25" s="3"/>
-      <c r="NJ25" s="3"/>
-      <c r="NK25" s="3"/>
-      <c r="NL25" s="3"/>
-      <c r="NM25" s="3"/>
-      <c r="NN25" s="3"/>
-      <c r="NO25" s="3"/>
-      <c r="NP25" s="3"/>
-      <c r="NQ25" s="3"/>
-      <c r="NR25" s="3"/>
-      <c r="NS25" s="3"/>
-      <c r="NT25" s="3"/>
-      <c r="NU25" s="3"/>
-      <c r="NV25" s="3"/>
-      <c r="NW25" s="3"/>
-      <c r="NX25" s="3"/>
-      <c r="NY25" s="3"/>
-      <c r="NZ25" s="3"/>
-      <c r="OA25" s="3"/>
-      <c r="OB25" s="3"/>
-      <c r="OC25" s="3"/>
-      <c r="OD25" s="3"/>
-      <c r="OE25" s="3"/>
-      <c r="OF25" s="3"/>
-      <c r="OG25" s="3"/>
-      <c r="OH25" s="3"/>
-      <c r="OI25" s="3"/>
-      <c r="OJ25" s="3"/>
-      <c r="OK25" s="3"/>
-      <c r="OL25" s="3"/>
-      <c r="OM25" s="3"/>
-      <c r="ON25" s="3"/>
-      <c r="OO25" s="3"/>
-      <c r="OP25" s="3"/>
-      <c r="OQ25" s="3"/>
-      <c r="OR25" s="3"/>
-      <c r="OS25" s="3"/>
-      <c r="OT25" s="3"/>
-      <c r="OU25" s="3"/>
-      <c r="OV25" s="3"/>
-      <c r="OW25" s="3"/>
-      <c r="OX25" s="3"/>
-      <c r="OY25" s="3"/>
-      <c r="OZ25" s="3"/>
-      <c r="PA25" s="3"/>
-      <c r="PB25" s="3"/>
-      <c r="PC25" s="3"/>
-      <c r="PD25" s="3"/>
-      <c r="PE25" s="3"/>
-      <c r="PF25" s="3"/>
-      <c r="PG25" s="3"/>
-      <c r="PH25" s="3"/>
-      <c r="PI25" s="3"/>
-      <c r="PJ25" s="3"/>
-      <c r="PK25" s="3"/>
-      <c r="PL25" s="3"/>
-      <c r="PM25" s="3"/>
-      <c r="PN25" s="3"/>
-      <c r="PO25" s="3"/>
-      <c r="PP25" s="3"/>
-      <c r="PQ25" s="3"/>
-      <c r="PR25" s="3"/>
-      <c r="PS25" s="3"/>
-      <c r="PT25" s="3"/>
-      <c r="PU25" s="3"/>
-      <c r="PV25" s="3"/>
-      <c r="PW25" s="3"/>
-      <c r="PX25" s="3"/>
-      <c r="PY25" s="3"/>
-      <c r="PZ25" s="3"/>
-      <c r="QA25" s="3"/>
-      <c r="QB25" s="3"/>
-      <c r="QC25" s="3"/>
-      <c r="QD25" s="3"/>
-      <c r="QE25" s="3"/>
-      <c r="QF25" s="3"/>
-      <c r="QG25" s="3"/>
-      <c r="QH25" s="3"/>
-      <c r="QI25" s="3"/>
-      <c r="QJ25" s="3"/>
-      <c r="QK25" s="3"/>
-      <c r="QL25" s="3"/>
-      <c r="QM25" s="3"/>
-      <c r="QN25" s="3"/>
-      <c r="QO25" s="3"/>
-      <c r="QP25" s="3"/>
-      <c r="QQ25" s="3"/>
-      <c r="QR25" s="3"/>
-      <c r="QS25" s="3"/>
-      <c r="QT25" s="3"/>
-      <c r="QU25" s="3"/>
-      <c r="QV25" s="3"/>
-      <c r="QW25" s="3"/>
-      <c r="QX25" s="3"/>
-      <c r="QY25" s="3"/>
-      <c r="QZ25" s="3"/>
-      <c r="RA25" s="3"/>
-      <c r="RB25" s="3"/>
-      <c r="RC25" s="3"/>
-      <c r="RD25" s="3"/>
-      <c r="RE25" s="3"/>
-      <c r="RF25" s="3"/>
-      <c r="RG25" s="3"/>
-      <c r="RH25" s="3"/>
-      <c r="RI25" s="3"/>
-      <c r="RJ25" s="3"/>
-      <c r="RK25" s="3"/>
-      <c r="RL25" s="3"/>
-      <c r="RM25" s="3"/>
-      <c r="RN25" s="3"/>
-      <c r="RO25" s="3"/>
-      <c r="RP25" s="3"/>
-      <c r="RQ25" s="3"/>
-      <c r="RR25" s="3"/>
-      <c r="RS25" s="3"/>
-      <c r="RT25" s="3"/>
-      <c r="RU25" s="3"/>
-      <c r="RV25" s="3"/>
-      <c r="RW25" s="3"/>
-      <c r="RX25" s="3"/>
-      <c r="RY25" s="3"/>
-      <c r="RZ25" s="3"/>
-      <c r="SA25" s="3"/>
-      <c r="SB25" s="3"/>
-      <c r="SC25" s="3"/>
-      <c r="SD25" s="3"/>
-      <c r="SE25" s="3"/>
-      <c r="SF25" s="3"/>
-      <c r="SG25" s="3"/>
-      <c r="SH25" s="3"/>
-      <c r="SI25" s="3"/>
-      <c r="SJ25" s="3"/>
-      <c r="SK25" s="3"/>
-      <c r="SL25" s="3"/>
-      <c r="SM25" s="3"/>
-      <c r="SN25" s="3"/>
-      <c r="SO25" s="3"/>
-      <c r="SP25" s="3"/>
-      <c r="SQ25" s="3"/>
-      <c r="SR25" s="3"/>
-      <c r="SS25" s="3"/>
-      <c r="ST25" s="3"/>
-      <c r="SU25" s="3"/>
-      <c r="SV25" s="3"/>
-      <c r="SW25" s="3"/>
-      <c r="SX25" s="3"/>
-      <c r="SY25" s="3"/>
-      <c r="SZ25" s="3"/>
-      <c r="TA25" s="3"/>
-      <c r="TB25" s="3"/>
-      <c r="TC25" s="3"/>
-      <c r="TD25" s="3"/>
-      <c r="TE25" s="3"/>
-      <c r="TF25" s="3"/>
-      <c r="TG25" s="3"/>
-      <c r="TH25" s="3"/>
-      <c r="TI25" s="3"/>
-      <c r="TJ25" s="3"/>
-      <c r="TK25" s="3"/>
-      <c r="TL25" s="3"/>
-      <c r="TM25" s="3"/>
-      <c r="TN25" s="3"/>
-      <c r="TO25" s="3"/>
-      <c r="TP25" s="3"/>
-      <c r="TQ25" s="3"/>
-      <c r="TR25" s="3"/>
-      <c r="TS25" s="3"/>
-      <c r="TT25" s="3"/>
-      <c r="TU25" s="3"/>
-      <c r="TV25" s="3"/>
-      <c r="TW25" s="3"/>
-      <c r="TX25" s="3"/>
-      <c r="TY25" s="3"/>
-      <c r="TZ25" s="3"/>
-      <c r="UA25" s="3"/>
-      <c r="UB25" s="3"/>
-      <c r="UC25" s="3"/>
-      <c r="UD25" s="3"/>
-      <c r="UE25" s="3"/>
-      <c r="UF25" s="3"/>
-      <c r="UG25" s="3"/>
-      <c r="UH25" s="3"/>
-      <c r="UI25" s="3"/>
-      <c r="UJ25" s="3"/>
-      <c r="UK25" s="3"/>
-      <c r="UL25" s="3"/>
-      <c r="UM25" s="3"/>
-      <c r="UN25" s="3"/>
-      <c r="UO25" s="3"/>
-      <c r="UP25" s="3"/>
-      <c r="UQ25" s="3"/>
-      <c r="UR25" s="3"/>
-      <c r="US25" s="3"/>
-      <c r="UT25" s="3"/>
-      <c r="UU25" s="3"/>
-      <c r="UV25" s="3"/>
-      <c r="UW25" s="3"/>
-      <c r="UX25" s="3"/>
-      <c r="UY25" s="3"/>
-      <c r="UZ25" s="3"/>
-      <c r="VA25" s="3"/>
-      <c r="VB25" s="3"/>
-      <c r="VC25" s="3"/>
-      <c r="VD25" s="3"/>
-      <c r="VE25" s="3"/>
-      <c r="VF25" s="3"/>
-      <c r="VG25" s="3"/>
-      <c r="VH25" s="3"/>
-      <c r="VI25" s="3"/>
-      <c r="VJ25" s="3"/>
-      <c r="VK25" s="3"/>
-      <c r="VL25" s="3"/>
-      <c r="VM25" s="3"/>
-      <c r="VN25" s="3"/>
-      <c r="VO25" s="3"/>
-      <c r="VP25" s="3"/>
-      <c r="VQ25" s="3"/>
-      <c r="VR25" s="3"/>
-      <c r="VS25" s="3"/>
-      <c r="VT25" s="3"/>
-      <c r="VU25" s="3"/>
-      <c r="VV25" s="3"/>
-      <c r="VW25" s="3"/>
-      <c r="VX25" s="3"/>
-      <c r="VY25" s="3"/>
-      <c r="VZ25" s="3"/>
-      <c r="WA25" s="3"/>
-      <c r="WB25" s="3"/>
-      <c r="WC25" s="3"/>
-      <c r="WD25" s="3"/>
-      <c r="WE25" s="3"/>
-      <c r="WF25" s="3"/>
-      <c r="WG25" s="3"/>
-      <c r="WH25" s="3"/>
-      <c r="WI25" s="3"/>
-      <c r="WJ25" s="3"/>
-      <c r="WK25" s="3"/>
-      <c r="WL25" s="3"/>
-      <c r="WM25" s="3"/>
-      <c r="WN25" s="3"/>
-      <c r="WO25" s="3"/>
-      <c r="WP25" s="3"/>
-      <c r="WQ25" s="3"/>
-      <c r="WR25" s="3"/>
-      <c r="WS25" s="3"/>
-      <c r="WT25" s="3"/>
-      <c r="WU25" s="3"/>
-      <c r="WV25" s="3"/>
-      <c r="WW25" s="3"/>
-      <c r="WX25" s="3"/>
-      <c r="WY25" s="3"/>
-      <c r="WZ25" s="3"/>
-      <c r="XA25" s="3"/>
-      <c r="XB25" s="3"/>
-      <c r="XC25" s="3"/>
-      <c r="XD25" s="3"/>
-      <c r="XE25" s="3"/>
-      <c r="XF25" s="3"/>
-      <c r="XG25" s="3"/>
-      <c r="XH25" s="3"/>
-      <c r="XI25" s="3"/>
-      <c r="XJ25" s="3"/>
-      <c r="XK25" s="3"/>
-      <c r="XL25" s="3"/>
-      <c r="XM25" s="3"/>
-      <c r="XN25" s="3"/>
-      <c r="XO25" s="3"/>
-      <c r="XP25" s="3"/>
-      <c r="XQ25" s="3"/>
-      <c r="XR25" s="3"/>
-      <c r="XS25" s="3"/>
-      <c r="XT25" s="3"/>
-      <c r="XU25" s="3"/>
-      <c r="XV25" s="3"/>
-      <c r="XW25" s="3"/>
-      <c r="XX25" s="3"/>
-      <c r="XY25" s="3"/>
-      <c r="XZ25" s="3"/>
-      <c r="YA25" s="3"/>
-      <c r="YB25" s="3"/>
-      <c r="YC25" s="3"/>
-      <c r="YD25" s="3"/>
-      <c r="YE25" s="3"/>
-      <c r="YF25" s="3"/>
-      <c r="YG25" s="3"/>
-      <c r="YH25" s="3"/>
-      <c r="YI25" s="3"/>
-      <c r="YJ25" s="3"/>
-      <c r="YK25" s="3"/>
-      <c r="YL25" s="3"/>
-      <c r="YM25" s="3"/>
-      <c r="YN25" s="3"/>
-      <c r="YO25" s="3"/>
-      <c r="YP25" s="3"/>
-      <c r="YQ25" s="3"/>
-      <c r="YR25" s="3"/>
-      <c r="YS25" s="3"/>
-      <c r="YT25" s="3"/>
-      <c r="YU25" s="3"/>
-      <c r="YV25" s="3"/>
-      <c r="YW25" s="3"/>
-      <c r="YX25" s="3"/>
-      <c r="YY25" s="3"/>
-      <c r="YZ25" s="3"/>
-      <c r="ZA25" s="3"/>
-      <c r="ZB25" s="3"/>
-      <c r="ZC25" s="3"/>
-      <c r="ZD25" s="3"/>
-      <c r="ZE25" s="3"/>
-      <c r="ZF25" s="3"/>
-      <c r="ZG25" s="3"/>
-      <c r="ZH25" s="3"/>
-      <c r="ZI25" s="3"/>
-      <c r="ZJ25" s="3"/>
-      <c r="ZK25" s="3"/>
-      <c r="ZL25" s="3"/>
-      <c r="ZM25" s="3"/>
-      <c r="ZN25" s="3"/>
-      <c r="ZO25" s="3"/>
-      <c r="ZP25" s="3"/>
-      <c r="ZQ25" s="3"/>
-      <c r="ZR25" s="3"/>
-      <c r="ZS25" s="3"/>
-      <c r="ZT25" s="3"/>
-      <c r="ZU25" s="3"/>
-      <c r="ZV25" s="3"/>
-      <c r="ZW25" s="3"/>
-      <c r="ZX25" s="3"/>
-      <c r="ZY25" s="3"/>
-      <c r="ZZ25" s="3"/>
-      <c r="AAA25" s="3"/>
-      <c r="AAB25" s="3"/>
-      <c r="AAC25" s="3"/>
-      <c r="AAD25" s="3"/>
-      <c r="AAE25" s="3"/>
-      <c r="AAF25" s="3"/>
-      <c r="AAG25" s="3"/>
-      <c r="AAH25" s="3"/>
-      <c r="AAI25" s="3"/>
-      <c r="AAJ25" s="3"/>
-      <c r="AAK25" s="3"/>
-      <c r="AAL25" s="3"/>
-      <c r="AAM25" s="3"/>
-      <c r="AAN25" s="3"/>
-      <c r="AAO25" s="3"/>
-      <c r="AAP25" s="3"/>
-      <c r="AAQ25" s="3"/>
-      <c r="AAR25" s="3"/>
-      <c r="AAS25" s="3"/>
-      <c r="AAT25" s="3"/>
-      <c r="AAU25" s="3"/>
-      <c r="AAV25" s="3"/>
-      <c r="AAW25" s="3"/>
-      <c r="AAX25" s="3"/>
-      <c r="AAY25" s="3"/>
-      <c r="AAZ25" s="3"/>
-      <c r="ABA25" s="3"/>
-      <c r="ABB25" s="3"/>
-      <c r="ABC25" s="3"/>
-      <c r="ABD25" s="3"/>
-      <c r="ABE25" s="3"/>
-      <c r="ABF25" s="3"/>
-      <c r="ABG25" s="3"/>
-      <c r="ABH25" s="3"/>
-      <c r="ABI25" s="3"/>
-      <c r="ABJ25" s="3"/>
-      <c r="ABK25" s="3"/>
-      <c r="ABL25" s="3"/>
-      <c r="ABM25" s="3"/>
-      <c r="ABN25" s="3"/>
-      <c r="ABO25" s="3"/>
-      <c r="ABP25" s="3"/>
-      <c r="ABQ25" s="3"/>
-      <c r="ABR25" s="3"/>
-      <c r="ABS25" s="3"/>
-      <c r="ABT25" s="3"/>
-      <c r="ABU25" s="3"/>
-      <c r="ABV25" s="3"/>
-      <c r="ABW25" s="3"/>
-      <c r="ABX25" s="3"/>
-      <c r="ABY25" s="3"/>
-      <c r="ABZ25" s="3"/>
-      <c r="ACA25" s="3"/>
-      <c r="ACB25" s="3"/>
-      <c r="ACC25" s="3"/>
-      <c r="ACD25" s="3"/>
-      <c r="ACE25" s="3"/>
-      <c r="ACF25" s="3"/>
-      <c r="ACG25" s="3"/>
-      <c r="ACH25" s="3"/>
-      <c r="ACI25" s="3"/>
-      <c r="ACJ25" s="3"/>
-      <c r="ACK25" s="3"/>
-      <c r="ACL25" s="3"/>
-      <c r="ACM25" s="3"/>
-      <c r="ACN25" s="3"/>
-      <c r="ACO25" s="3"/>
-      <c r="ACP25" s="3"/>
-      <c r="ACQ25" s="3"/>
-      <c r="ACR25" s="3"/>
-      <c r="ACS25" s="3"/>
-      <c r="ACT25" s="3"/>
-      <c r="ACU25" s="3"/>
-      <c r="ACV25" s="3"/>
-      <c r="ACW25" s="3"/>
-      <c r="ACX25" s="3"/>
-      <c r="ACY25" s="3"/>
-      <c r="ACZ25" s="3"/>
-      <c r="ADA25" s="3"/>
-      <c r="ADB25" s="3"/>
-      <c r="ADC25" s="3"/>
-      <c r="ADD25" s="3"/>
-      <c r="ADE25" s="3"/>
-      <c r="ADF25" s="3"/>
-      <c r="ADG25" s="3"/>
-      <c r="ADH25" s="3"/>
-      <c r="ADI25" s="3"/>
-      <c r="ADJ25" s="3"/>
-      <c r="ADK25" s="3"/>
-      <c r="ADL25" s="3"/>
-      <c r="ADM25" s="3"/>
-      <c r="ADN25" s="3"/>
-      <c r="ADO25" s="3"/>
-      <c r="ADP25" s="3"/>
-      <c r="ADQ25" s="3"/>
-      <c r="ADR25" s="3"/>
-      <c r="ADS25" s="3"/>
-      <c r="ADT25" s="3"/>
-      <c r="ADU25" s="3"/>
-      <c r="ADV25" s="3"/>
-      <c r="ADW25" s="3"/>
-      <c r="ADX25" s="3"/>
-      <c r="ADY25" s="3"/>
-      <c r="ADZ25" s="3"/>
-      <c r="AEA25" s="3"/>
-      <c r="AEB25" s="3"/>
-      <c r="AEC25" s="3"/>
-      <c r="AED25" s="3"/>
-      <c r="AEE25" s="3"/>
-      <c r="AEF25" s="3"/>
-      <c r="AEG25" s="3"/>
-      <c r="AEH25" s="3"/>
-      <c r="AEI25" s="3"/>
-      <c r="AEJ25" s="3"/>
-      <c r="AEK25" s="3"/>
-      <c r="AEL25" s="3"/>
-      <c r="AEM25" s="3"/>
-      <c r="AEN25" s="3"/>
-      <c r="AEO25" s="3"/>
-      <c r="AEP25" s="3"/>
-      <c r="AEQ25" s="3"/>
-      <c r="AER25" s="3"/>
-      <c r="AES25" s="3"/>
-      <c r="AET25" s="3"/>
-      <c r="AEU25" s="3"/>
-      <c r="AEV25" s="3"/>
-      <c r="AEW25" s="3"/>
-      <c r="AEX25" s="3"/>
-      <c r="AEY25" s="3"/>
-      <c r="AEZ25" s="3"/>
-      <c r="AFA25" s="3"/>
-      <c r="AFB25" s="3"/>
-      <c r="AFC25" s="3"/>
-      <c r="AFD25" s="3"/>
-      <c r="AFE25" s="3"/>
-      <c r="AFF25" s="3"/>
-      <c r="AFG25" s="3"/>
-      <c r="AFH25" s="3"/>
-      <c r="AFI25" s="3"/>
-      <c r="AFJ25" s="3"/>
-      <c r="AFK25" s="3"/>
-      <c r="AFL25" s="3"/>
-      <c r="AFM25" s="3"/>
-      <c r="AFN25" s="3"/>
-      <c r="AFO25" s="3"/>
-      <c r="AFP25" s="3"/>
-      <c r="AFQ25" s="3"/>
-      <c r="AFR25" s="3"/>
-      <c r="AFS25" s="3"/>
-      <c r="AFT25" s="3"/>
-      <c r="AFU25" s="3"/>
-      <c r="AFV25" s="3"/>
-      <c r="AFW25" s="3"/>
-      <c r="AFX25" s="3"/>
-      <c r="AFY25" s="3"/>
-      <c r="AFZ25" s="3"/>
-      <c r="AGA25" s="3"/>
-      <c r="AGB25" s="3"/>
-      <c r="AGC25" s="3"/>
-      <c r="AGD25" s="3"/>
-      <c r="AGE25" s="3"/>
-      <c r="AGF25" s="3"/>
-      <c r="AGG25" s="3"/>
-      <c r="AGH25" s="3"/>
-      <c r="AGI25" s="3"/>
-      <c r="AGJ25" s="3"/>
-      <c r="AGK25" s="3"/>
-      <c r="AGL25" s="3"/>
-      <c r="AGM25" s="3"/>
-      <c r="AGN25" s="3"/>
-      <c r="AGO25" s="3"/>
-      <c r="AGP25" s="3"/>
-      <c r="AGQ25" s="3"/>
-      <c r="AGR25" s="3"/>
-      <c r="AGS25" s="3"/>
-      <c r="AGT25" s="3"/>
-      <c r="AGU25" s="3"/>
-      <c r="AGV25" s="3"/>
-      <c r="AGW25" s="3"/>
-      <c r="AGX25" s="3"/>
-      <c r="AGY25" s="3"/>
-      <c r="AGZ25" s="3"/>
-      <c r="AHA25" s="3"/>
-      <c r="AHB25" s="3"/>
-      <c r="AHC25" s="3"/>
-      <c r="AHD25" s="3"/>
-      <c r="AHE25" s="3"/>
-      <c r="AHF25" s="3"/>
-      <c r="AHG25" s="3"/>
-      <c r="AHH25" s="3"/>
-      <c r="AHI25" s="3"/>
-      <c r="AHJ25" s="3"/>
-      <c r="AHK25" s="3"/>
-      <c r="AHL25" s="3"/>
-      <c r="AHM25" s="3"/>
-      <c r="AHN25" s="3"/>
-      <c r="AHO25" s="3"/>
-      <c r="AHP25" s="3"/>
-      <c r="AHQ25" s="3"/>
-      <c r="AHR25" s="3"/>
-      <c r="AHS25" s="3"/>
-      <c r="AHT25" s="3"/>
-      <c r="AHU25" s="3"/>
-      <c r="AHV25" s="3"/>
-      <c r="AHW25" s="3"/>
-      <c r="AHX25" s="3"/>
-      <c r="AHY25" s="3"/>
-      <c r="AHZ25" s="3"/>
-      <c r="AIA25" s="3"/>
-      <c r="AIB25" s="3"/>
-      <c r="AIC25" s="3"/>
-      <c r="AID25" s="3"/>
-      <c r="AIE25" s="3"/>
-      <c r="AIF25" s="3"/>
-      <c r="AIG25" s="3"/>
-      <c r="AIH25" s="3"/>
-      <c r="AII25" s="3"/>
-      <c r="AIJ25" s="3"/>
-      <c r="AIK25" s="3"/>
-      <c r="AIL25" s="3"/>
-      <c r="AIM25" s="3"/>
-      <c r="AIN25" s="3"/>
-      <c r="AIO25" s="3"/>
-      <c r="AIP25" s="3"/>
-      <c r="AIQ25" s="3"/>
-      <c r="AIR25" s="3"/>
-      <c r="AIS25" s="3"/>
-      <c r="AIT25" s="3"/>
-      <c r="AIU25" s="3"/>
-      <c r="AIV25" s="3"/>
-      <c r="AIW25" s="3"/>
-      <c r="AIX25" s="3"/>
-      <c r="AIY25" s="3"/>
-      <c r="AIZ25" s="3"/>
-      <c r="AJA25" s="3"/>
-      <c r="AJB25" s="3"/>
-      <c r="AJC25" s="3"/>
-      <c r="AJD25" s="3"/>
-      <c r="AJE25" s="3"/>
-      <c r="AJF25" s="3"/>
-      <c r="AJG25" s="3"/>
-      <c r="AJH25" s="3"/>
-      <c r="AJI25" s="3"/>
-      <c r="AJJ25" s="3"/>
-      <c r="AJK25" s="3"/>
-      <c r="AJL25" s="3"/>
-      <c r="AJM25" s="3"/>
-      <c r="AJN25" s="3"/>
-      <c r="AJO25" s="3"/>
-      <c r="AJP25" s="3"/>
-      <c r="AJQ25" s="3"/>
-      <c r="AJR25" s="3"/>
-      <c r="AJS25" s="3"/>
-      <c r="AJT25" s="3"/>
-      <c r="AJU25" s="3"/>
-      <c r="AJV25" s="3"/>
-      <c r="AJW25" s="3"/>
-      <c r="AJX25" s="3"/>
-      <c r="AJY25" s="3"/>
-      <c r="AJZ25" s="3"/>
-      <c r="AKA25" s="3"/>
-      <c r="AKB25" s="3"/>
-      <c r="AKC25" s="3"/>
-      <c r="AKD25" s="3"/>
-      <c r="AKE25" s="3"/>
-      <c r="AKF25" s="3"/>
-      <c r="AKG25" s="3"/>
-      <c r="AKH25" s="3"/>
-      <c r="AKI25" s="3"/>
-      <c r="AKJ25" s="3"/>
-      <c r="AKK25" s="3"/>
-      <c r="AKL25" s="3"/>
-      <c r="AKM25" s="3"/>
-      <c r="AKN25" s="3"/>
-      <c r="AKO25" s="3"/>
-      <c r="AKP25" s="3"/>
-      <c r="AKQ25" s="3"/>
-      <c r="AKR25" s="3"/>
-      <c r="AKS25" s="3"/>
-      <c r="AKT25" s="3"/>
-      <c r="AKU25" s="3"/>
-      <c r="AKV25" s="3"/>
-      <c r="AKW25" s="3"/>
-      <c r="AKX25" s="3"/>
-      <c r="AKY25" s="3"/>
-      <c r="AKZ25" s="3"/>
-      <c r="ALA25" s="3"/>
-      <c r="ALB25" s="3"/>
-      <c r="ALC25" s="3"/>
-      <c r="ALD25" s="3"/>
-      <c r="ALE25" s="3"/>
-      <c r="ALF25" s="3"/>
-      <c r="ALG25" s="3"/>
-      <c r="ALH25" s="3"/>
-      <c r="ALI25" s="3"/>
-      <c r="ALJ25" s="3"/>
-      <c r="ALK25" s="3"/>
-      <c r="ALL25" s="3"/>
-      <c r="ALM25" s="3"/>
-      <c r="ALN25" s="3"/>
-      <c r="ALO25" s="3"/>
-      <c r="ALP25" s="3"/>
-      <c r="ALQ25" s="3"/>
-      <c r="ALR25" s="3"/>
-      <c r="ALS25" s="3"/>
-      <c r="ALT25" s="3"/>
-      <c r="ALU25" s="3"/>
-      <c r="ALV25" s="3"/>
-      <c r="ALW25" s="3"/>
-      <c r="ALX25" s="3"/>
-      <c r="ALY25" s="3"/>
-      <c r="ALZ25" s="3"/>
-      <c r="AMA25" s="3"/>
-      <c r="AMB25" s="3"/>
-      <c r="AMC25" s="3"/>
-      <c r="AMD25" s="3"/>
-      <c r="AME25" s="9"/>
-      <c r="AMF25" s="9"/>
-      <c r="AMG25" s="9"/>
-      <c r="AMH25" s="9"/>
-      <c r="AMI25" s="9"/>
-      <c r="AMJ25" s="9"/>
+      <c r="C26" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="3"/>
+      <c r="AB26" s="3"/>
+      <c r="AC26" s="3"/>
+      <c r="AD26" s="3"/>
+      <c r="AE26" s="3"/>
+      <c r="AF26" s="3"/>
+      <c r="AG26" s="3"/>
+      <c r="AH26" s="3"/>
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+      <c r="AK26" s="3"/>
+      <c r="AL26" s="3"/>
+      <c r="AM26" s="3"/>
+      <c r="AN26" s="3"/>
+      <c r="AO26" s="3"/>
+      <c r="AP26" s="3"/>
+      <c r="AQ26" s="3"/>
+      <c r="AR26" s="3"/>
+      <c r="AS26" s="3"/>
+      <c r="AT26" s="3"/>
+      <c r="AU26" s="3"/>
+      <c r="AV26" s="3"/>
+      <c r="AW26" s="3"/>
+      <c r="AX26" s="3"/>
+      <c r="AY26" s="3"/>
+      <c r="AZ26" s="3"/>
+      <c r="BA26" s="3"/>
+      <c r="BB26" s="3"/>
+      <c r="BC26" s="3"/>
+      <c r="BD26" s="3"/>
+      <c r="BE26" s="3"/>
+      <c r="BF26" s="3"/>
+      <c r="BG26" s="3"/>
+      <c r="BH26" s="3"/>
+      <c r="BI26" s="3"/>
+      <c r="BJ26" s="3"/>
+      <c r="BK26" s="3"/>
+      <c r="BL26" s="3"/>
+      <c r="BM26" s="3"/>
+      <c r="BN26" s="3"/>
+      <c r="BO26" s="3"/>
+      <c r="BP26" s="3"/>
+      <c r="BQ26" s="3"/>
+      <c r="BR26" s="3"/>
+      <c r="BS26" s="3"/>
+      <c r="BT26" s="3"/>
+      <c r="BU26" s="3"/>
+      <c r="BV26" s="3"/>
+      <c r="BW26" s="3"/>
+      <c r="BX26" s="3"/>
+      <c r="BY26" s="3"/>
+      <c r="BZ26" s="3"/>
+      <c r="CA26" s="3"/>
+      <c r="CB26" s="3"/>
+      <c r="CC26" s="3"/>
+      <c r="CD26" s="3"/>
+      <c r="CE26" s="3"/>
+      <c r="CF26" s="3"/>
+      <c r="CG26" s="3"/>
+      <c r="CH26" s="3"/>
+      <c r="CI26" s="3"/>
+      <c r="CJ26" s="3"/>
+      <c r="CK26" s="3"/>
+      <c r="CL26" s="3"/>
+      <c r="CM26" s="3"/>
+      <c r="CN26" s="3"/>
+      <c r="CO26" s="3"/>
+      <c r="CP26" s="3"/>
+      <c r="CQ26" s="3"/>
+      <c r="CR26" s="3"/>
+      <c r="CS26" s="3"/>
+      <c r="CT26" s="3"/>
+      <c r="CU26" s="3"/>
+      <c r="CV26" s="3"/>
+      <c r="CW26" s="3"/>
+      <c r="CX26" s="3"/>
+      <c r="CY26" s="3"/>
+      <c r="CZ26" s="3"/>
+      <c r="DA26" s="3"/>
+      <c r="DB26" s="3"/>
+      <c r="DC26" s="3"/>
+      <c r="DD26" s="3"/>
+      <c r="DE26" s="3"/>
+      <c r="DF26" s="3"/>
+      <c r="DG26" s="3"/>
+      <c r="DH26" s="3"/>
+      <c r="DI26" s="3"/>
+      <c r="DJ26" s="3"/>
+      <c r="DK26" s="3"/>
+      <c r="DL26" s="3"/>
+      <c r="DM26" s="3"/>
+      <c r="DN26" s="3"/>
+      <c r="DO26" s="3"/>
+      <c r="DP26" s="3"/>
+      <c r="DQ26" s="3"/>
+      <c r="DR26" s="3"/>
+      <c r="DS26" s="3"/>
+      <c r="DT26" s="3"/>
+      <c r="DU26" s="3"/>
+      <c r="DV26" s="3"/>
+      <c r="DW26" s="3"/>
+      <c r="DX26" s="3"/>
+      <c r="DY26" s="3"/>
+      <c r="DZ26" s="3"/>
+      <c r="EA26" s="3"/>
+      <c r="EB26" s="3"/>
+      <c r="EC26" s="3"/>
+      <c r="ED26" s="3"/>
+      <c r="EE26" s="3"/>
+      <c r="EF26" s="3"/>
+      <c r="EG26" s="3"/>
+      <c r="EH26" s="3"/>
+      <c r="EI26" s="3"/>
+      <c r="EJ26" s="3"/>
+      <c r="EK26" s="3"/>
+      <c r="EL26" s="3"/>
+      <c r="EM26" s="3"/>
+      <c r="EN26" s="3"/>
+      <c r="EO26" s="3"/>
+      <c r="EP26" s="3"/>
+      <c r="EQ26" s="3"/>
+      <c r="ER26" s="3"/>
+      <c r="ES26" s="3"/>
+      <c r="ET26" s="3"/>
+      <c r="EU26" s="3"/>
+      <c r="EV26" s="3"/>
+      <c r="EW26" s="3"/>
+      <c r="EX26" s="3"/>
+      <c r="EY26" s="3"/>
+      <c r="EZ26" s="3"/>
+      <c r="FA26" s="3"/>
+      <c r="FB26" s="3"/>
+      <c r="FC26" s="3"/>
+      <c r="FD26" s="3"/>
+      <c r="FE26" s="3"/>
+      <c r="FF26" s="3"/>
+      <c r="FG26" s="3"/>
+      <c r="FH26" s="3"/>
+      <c r="FI26" s="3"/>
+      <c r="FJ26" s="3"/>
+      <c r="FK26" s="3"/>
+      <c r="FL26" s="3"/>
+      <c r="FM26" s="3"/>
+      <c r="FN26" s="3"/>
+      <c r="FO26" s="3"/>
+      <c r="FP26" s="3"/>
+      <c r="FQ26" s="3"/>
+      <c r="FR26" s="3"/>
+      <c r="FS26" s="3"/>
+      <c r="FT26" s="3"/>
+      <c r="FU26" s="3"/>
+      <c r="FV26" s="3"/>
+      <c r="FW26" s="3"/>
+      <c r="FX26" s="3"/>
+      <c r="FY26" s="3"/>
+      <c r="FZ26" s="3"/>
+      <c r="GA26" s="3"/>
+      <c r="GB26" s="3"/>
+      <c r="GC26" s="3"/>
+      <c r="GD26" s="3"/>
+      <c r="GE26" s="3"/>
+      <c r="GF26" s="3"/>
+      <c r="GG26" s="3"/>
+      <c r="GH26" s="3"/>
+      <c r="GI26" s="3"/>
+      <c r="GJ26" s="3"/>
+      <c r="GK26" s="3"/>
+      <c r="GL26" s="3"/>
+      <c r="GM26" s="3"/>
+      <c r="GN26" s="3"/>
+      <c r="GO26" s="3"/>
+      <c r="GP26" s="3"/>
+      <c r="GQ26" s="3"/>
+      <c r="GR26" s="3"/>
+      <c r="GS26" s="3"/>
+      <c r="GT26" s="3"/>
+      <c r="GU26" s="3"/>
+      <c r="GV26" s="3"/>
+      <c r="GW26" s="3"/>
+      <c r="GX26" s="3"/>
+      <c r="GY26" s="3"/>
+      <c r="GZ26" s="3"/>
+      <c r="HA26" s="3"/>
+      <c r="HB26" s="3"/>
+      <c r="HC26" s="3"/>
+      <c r="HD26" s="3"/>
+      <c r="HE26" s="3"/>
+      <c r="HF26" s="3"/>
+      <c r="HG26" s="3"/>
+      <c r="HH26" s="3"/>
+      <c r="HI26" s="3"/>
+      <c r="HJ26" s="3"/>
+      <c r="HK26" s="3"/>
+      <c r="HL26" s="3"/>
+      <c r="HM26" s="3"/>
+      <c r="HN26" s="3"/>
+      <c r="HO26" s="3"/>
+      <c r="HP26" s="3"/>
+      <c r="HQ26" s="3"/>
+      <c r="HR26" s="3"/>
+      <c r="HS26" s="3"/>
+      <c r="HT26" s="3"/>
+      <c r="HU26" s="3"/>
+      <c r="HV26" s="3"/>
+      <c r="HW26" s="3"/>
+      <c r="HX26" s="3"/>
+      <c r="HY26" s="3"/>
+      <c r="HZ26" s="3"/>
+      <c r="IA26" s="3"/>
+      <c r="IB26" s="3"/>
+      <c r="IC26" s="3"/>
+      <c r="ID26" s="3"/>
+      <c r="IE26" s="3"/>
+      <c r="IF26" s="3"/>
+      <c r="IG26" s="3"/>
+      <c r="IH26" s="3"/>
+      <c r="II26" s="3"/>
+      <c r="IJ26" s="3"/>
+      <c r="IK26" s="3"/>
+      <c r="IL26" s="3"/>
+      <c r="IM26" s="3"/>
+      <c r="IN26" s="3"/>
+      <c r="IO26" s="3"/>
+      <c r="IP26" s="3"/>
+      <c r="IQ26" s="3"/>
+      <c r="IR26" s="3"/>
+      <c r="IS26" s="3"/>
+      <c r="IT26" s="3"/>
+      <c r="IU26" s="3"/>
+      <c r="IV26" s="3"/>
+      <c r="IW26" s="3"/>
+      <c r="IX26" s="3"/>
+      <c r="IY26" s="3"/>
+      <c r="IZ26" s="3"/>
+      <c r="JA26" s="3"/>
+      <c r="JB26" s="3"/>
+      <c r="JC26" s="3"/>
+      <c r="JD26" s="3"/>
+      <c r="JE26" s="3"/>
+      <c r="JF26" s="3"/>
+      <c r="JG26" s="3"/>
+      <c r="JH26" s="3"/>
+      <c r="JI26" s="3"/>
+      <c r="JJ26" s="3"/>
+      <c r="JK26" s="3"/>
+      <c r="JL26" s="3"/>
+      <c r="JM26" s="3"/>
+      <c r="JN26" s="3"/>
+      <c r="JO26" s="3"/>
+      <c r="JP26" s="3"/>
+      <c r="JQ26" s="3"/>
+      <c r="JR26" s="3"/>
+      <c r="JS26" s="3"/>
+      <c r="JT26" s="3"/>
+      <c r="JU26" s="3"/>
+      <c r="JV26" s="3"/>
+      <c r="JW26" s="3"/>
+      <c r="JX26" s="3"/>
+      <c r="JY26" s="3"/>
+      <c r="JZ26" s="3"/>
+      <c r="KA26" s="3"/>
+      <c r="KB26" s="3"/>
+      <c r="KC26" s="3"/>
+      <c r="KD26" s="3"/>
+      <c r="KE26" s="3"/>
+      <c r="KF26" s="3"/>
+      <c r="KG26" s="3"/>
+      <c r="KH26" s="3"/>
+      <c r="KI26" s="3"/>
+      <c r="KJ26" s="3"/>
+      <c r="KK26" s="3"/>
+      <c r="KL26" s="3"/>
+      <c r="KM26" s="3"/>
+      <c r="KN26" s="3"/>
+      <c r="KO26" s="3"/>
+      <c r="KP26" s="3"/>
+      <c r="KQ26" s="3"/>
+      <c r="KR26" s="3"/>
+      <c r="KS26" s="3"/>
+      <c r="KT26" s="3"/>
+      <c r="KU26" s="3"/>
+      <c r="KV26" s="3"/>
+      <c r="KW26" s="3"/>
+      <c r="KX26" s="3"/>
+      <c r="KY26" s="3"/>
+      <c r="KZ26" s="3"/>
+      <c r="LA26" s="3"/>
+      <c r="LB26" s="3"/>
+      <c r="LC26" s="3"/>
+      <c r="LD26" s="3"/>
+      <c r="LE26" s="3"/>
+      <c r="LF26" s="3"/>
+      <c r="LG26" s="3"/>
+      <c r="LH26" s="3"/>
+      <c r="LI26" s="3"/>
+      <c r="LJ26" s="3"/>
+      <c r="LK26" s="3"/>
+      <c r="LL26" s="3"/>
+      <c r="LM26" s="3"/>
+      <c r="LN26" s="3"/>
+      <c r="LO26" s="3"/>
+      <c r="LP26" s="3"/>
+      <c r="LQ26" s="3"/>
+      <c r="LR26" s="3"/>
+      <c r="LS26" s="3"/>
+      <c r="LT26" s="3"/>
+      <c r="LU26" s="3"/>
+      <c r="LV26" s="3"/>
+      <c r="LW26" s="3"/>
+      <c r="LX26" s="3"/>
+      <c r="LY26" s="3"/>
+      <c r="LZ26" s="3"/>
+      <c r="MA26" s="3"/>
+      <c r="MB26" s="3"/>
+      <c r="MC26" s="3"/>
+      <c r="MD26" s="3"/>
+      <c r="ME26" s="3"/>
+      <c r="MF26" s="3"/>
+      <c r="MG26" s="3"/>
+      <c r="MH26" s="3"/>
+      <c r="MI26" s="3"/>
+      <c r="MJ26" s="3"/>
+      <c r="MK26" s="3"/>
+      <c r="ML26" s="3"/>
+      <c r="MM26" s="3"/>
+      <c r="MN26" s="3"/>
+      <c r="MO26" s="3"/>
+      <c r="MP26" s="3"/>
+      <c r="MQ26" s="3"/>
+      <c r="MR26" s="3"/>
+      <c r="MS26" s="3"/>
+      <c r="MT26" s="3"/>
+      <c r="MU26" s="3"/>
+      <c r="MV26" s="3"/>
+      <c r="MW26" s="3"/>
+      <c r="MX26" s="3"/>
+      <c r="MY26" s="3"/>
+      <c r="MZ26" s="3"/>
+      <c r="NA26" s="3"/>
+      <c r="NB26" s="3"/>
+      <c r="NC26" s="3"/>
+      <c r="ND26" s="3"/>
+      <c r="NE26" s="3"/>
+      <c r="NF26" s="3"/>
+      <c r="NG26" s="3"/>
+      <c r="NH26" s="3"/>
+      <c r="NI26" s="3"/>
+      <c r="NJ26" s="3"/>
+      <c r="NK26" s="3"/>
+      <c r="NL26" s="3"/>
+      <c r="NM26" s="3"/>
+      <c r="NN26" s="3"/>
+      <c r="NO26" s="3"/>
+      <c r="NP26" s="3"/>
+      <c r="NQ26" s="3"/>
+      <c r="NR26" s="3"/>
+      <c r="NS26" s="3"/>
+      <c r="NT26" s="3"/>
+      <c r="NU26" s="3"/>
+      <c r="NV26" s="3"/>
+      <c r="NW26" s="3"/>
+      <c r="NX26" s="3"/>
+      <c r="NY26" s="3"/>
+      <c r="NZ26" s="3"/>
+      <c r="OA26" s="3"/>
+      <c r="OB26" s="3"/>
+      <c r="OC26" s="3"/>
+      <c r="OD26" s="3"/>
+      <c r="OE26" s="3"/>
+      <c r="OF26" s="3"/>
+      <c r="OG26" s="3"/>
+      <c r="OH26" s="3"/>
+      <c r="OI26" s="3"/>
+      <c r="OJ26" s="3"/>
+      <c r="OK26" s="3"/>
+      <c r="OL26" s="3"/>
+      <c r="OM26" s="3"/>
+      <c r="ON26" s="3"/>
+      <c r="OO26" s="3"/>
+      <c r="OP26" s="3"/>
+      <c r="OQ26" s="3"/>
+      <c r="OR26" s="3"/>
+      <c r="OS26" s="3"/>
+      <c r="OT26" s="3"/>
+      <c r="OU26" s="3"/>
+      <c r="OV26" s="3"/>
+      <c r="OW26" s="3"/>
+      <c r="OX26" s="3"/>
+      <c r="OY26" s="3"/>
+      <c r="OZ26" s="3"/>
+      <c r="PA26" s="3"/>
+      <c r="PB26" s="3"/>
+      <c r="PC26" s="3"/>
+      <c r="PD26" s="3"/>
+      <c r="PE26" s="3"/>
+      <c r="PF26" s="3"/>
+      <c r="PG26" s="3"/>
+      <c r="PH26" s="3"/>
+      <c r="PI26" s="3"/>
+      <c r="PJ26" s="3"/>
+      <c r="PK26" s="3"/>
+      <c r="PL26" s="3"/>
+      <c r="PM26" s="3"/>
+      <c r="PN26" s="3"/>
+      <c r="PO26" s="3"/>
+      <c r="PP26" s="3"/>
+      <c r="PQ26" s="3"/>
+      <c r="PR26" s="3"/>
+      <c r="PS26" s="3"/>
+      <c r="PT26" s="3"/>
+      <c r="PU26" s="3"/>
+      <c r="PV26" s="3"/>
+      <c r="PW26" s="3"/>
+      <c r="PX26" s="3"/>
+      <c r="PY26" s="3"/>
+      <c r="PZ26" s="3"/>
+      <c r="QA26" s="3"/>
+      <c r="QB26" s="3"/>
+      <c r="QC26" s="3"/>
+      <c r="QD26" s="3"/>
+      <c r="QE26" s="3"/>
+      <c r="QF26" s="3"/>
+      <c r="QG26" s="3"/>
+      <c r="QH26" s="3"/>
+      <c r="QI26" s="3"/>
+      <c r="QJ26" s="3"/>
+      <c r="QK26" s="3"/>
+      <c r="QL26" s="3"/>
+      <c r="QM26" s="3"/>
+      <c r="QN26" s="3"/>
+      <c r="QO26" s="3"/>
+      <c r="QP26" s="3"/>
+      <c r="QQ26" s="3"/>
+      <c r="QR26" s="3"/>
+      <c r="QS26" s="3"/>
+      <c r="QT26" s="3"/>
+      <c r="QU26" s="3"/>
+      <c r="QV26" s="3"/>
+      <c r="QW26" s="3"/>
+      <c r="QX26" s="3"/>
+      <c r="QY26" s="3"/>
+      <c r="QZ26" s="3"/>
+      <c r="RA26" s="3"/>
+      <c r="RB26" s="3"/>
+      <c r="RC26" s="3"/>
+      <c r="RD26" s="3"/>
+      <c r="RE26" s="3"/>
+      <c r="RF26" s="3"/>
+      <c r="RG26" s="3"/>
+      <c r="RH26" s="3"/>
+      <c r="RI26" s="3"/>
+      <c r="RJ26" s="3"/>
+      <c r="RK26" s="3"/>
+      <c r="RL26" s="3"/>
+      <c r="RM26" s="3"/>
+      <c r="RN26" s="3"/>
+      <c r="RO26" s="3"/>
+      <c r="RP26" s="3"/>
+      <c r="RQ26" s="3"/>
+      <c r="RR26" s="3"/>
+      <c r="RS26" s="3"/>
+      <c r="RT26" s="3"/>
+      <c r="RU26" s="3"/>
+      <c r="RV26" s="3"/>
+      <c r="RW26" s="3"/>
+      <c r="RX26" s="3"/>
+      <c r="RY26" s="3"/>
+      <c r="RZ26" s="3"/>
+      <c r="SA26" s="3"/>
+      <c r="SB26" s="3"/>
+      <c r="SC26" s="3"/>
+      <c r="SD26" s="3"/>
+      <c r="SE26" s="3"/>
+      <c r="SF26" s="3"/>
+      <c r="SG26" s="3"/>
+      <c r="SH26" s="3"/>
+      <c r="SI26" s="3"/>
+      <c r="SJ26" s="3"/>
+      <c r="SK26" s="3"/>
+      <c r="SL26" s="3"/>
+      <c r="SM26" s="3"/>
+      <c r="SN26" s="3"/>
+      <c r="SO26" s="3"/>
+      <c r="SP26" s="3"/>
+      <c r="SQ26" s="3"/>
+      <c r="SR26" s="3"/>
+      <c r="SS26" s="3"/>
+      <c r="ST26" s="3"/>
+      <c r="SU26" s="3"/>
+      <c r="SV26" s="3"/>
+      <c r="SW26" s="3"/>
+      <c r="SX26" s="3"/>
+      <c r="SY26" s="3"/>
+      <c r="SZ26" s="3"/>
+      <c r="TA26" s="3"/>
+      <c r="TB26" s="3"/>
+      <c r="TC26" s="3"/>
+      <c r="TD26" s="3"/>
+      <c r="TE26" s="3"/>
+      <c r="TF26" s="3"/>
+      <c r="TG26" s="3"/>
+      <c r="TH26" s="3"/>
+      <c r="TI26" s="3"/>
+      <c r="TJ26" s="3"/>
+      <c r="TK26" s="3"/>
+      <c r="TL26" s="3"/>
+      <c r="TM26" s="3"/>
+      <c r="TN26" s="3"/>
+      <c r="TO26" s="3"/>
+      <c r="TP26" s="3"/>
+      <c r="TQ26" s="3"/>
+      <c r="TR26" s="3"/>
+      <c r="TS26" s="3"/>
+      <c r="TT26" s="3"/>
+      <c r="TU26" s="3"/>
+      <c r="TV26" s="3"/>
+      <c r="TW26" s="3"/>
+      <c r="TX26" s="3"/>
+      <c r="TY26" s="3"/>
+      <c r="TZ26" s="3"/>
+      <c r="UA26" s="3"/>
+      <c r="UB26" s="3"/>
+      <c r="UC26" s="3"/>
+      <c r="UD26" s="3"/>
+      <c r="UE26" s="3"/>
+      <c r="UF26" s="3"/>
+      <c r="UG26" s="3"/>
+      <c r="UH26" s="3"/>
+      <c r="UI26" s="3"/>
+      <c r="UJ26" s="3"/>
+      <c r="UK26" s="3"/>
+      <c r="UL26" s="3"/>
+      <c r="UM26" s="3"/>
+      <c r="UN26" s="3"/>
+      <c r="UO26" s="3"/>
+      <c r="UP26" s="3"/>
+      <c r="UQ26" s="3"/>
+      <c r="UR26" s="3"/>
+      <c r="US26" s="3"/>
+      <c r="UT26" s="3"/>
+      <c r="UU26" s="3"/>
+      <c r="UV26" s="3"/>
+      <c r="UW26" s="3"/>
+      <c r="UX26" s="3"/>
+      <c r="UY26" s="3"/>
+      <c r="UZ26" s="3"/>
+      <c r="VA26" s="3"/>
+      <c r="VB26" s="3"/>
+      <c r="VC26" s="3"/>
+      <c r="VD26" s="3"/>
+      <c r="VE26" s="3"/>
+      <c r="VF26" s="3"/>
+      <c r="VG26" s="3"/>
+      <c r="VH26" s="3"/>
+      <c r="VI26" s="3"/>
+      <c r="VJ26" s="3"/>
+      <c r="VK26" s="3"/>
+      <c r="VL26" s="3"/>
+      <c r="VM26" s="3"/>
+      <c r="VN26" s="3"/>
+      <c r="VO26" s="3"/>
+      <c r="VP26" s="3"/>
+      <c r="VQ26" s="3"/>
+      <c r="VR26" s="3"/>
+      <c r="VS26" s="3"/>
+      <c r="VT26" s="3"/>
+      <c r="VU26" s="3"/>
+      <c r="VV26" s="3"/>
+      <c r="VW26" s="3"/>
+      <c r="VX26" s="3"/>
+      <c r="VY26" s="3"/>
+      <c r="VZ26" s="3"/>
+      <c r="WA26" s="3"/>
+      <c r="WB26" s="3"/>
+      <c r="WC26" s="3"/>
+      <c r="WD26" s="3"/>
+      <c r="WE26" s="3"/>
+      <c r="WF26" s="3"/>
+      <c r="WG26" s="3"/>
+      <c r="WH26" s="3"/>
+      <c r="WI26" s="3"/>
+      <c r="WJ26" s="3"/>
+      <c r="WK26" s="3"/>
+      <c r="WL26" s="3"/>
+      <c r="WM26" s="3"/>
+      <c r="WN26" s="3"/>
+      <c r="WO26" s="3"/>
+      <c r="WP26" s="3"/>
+      <c r="WQ26" s="3"/>
+      <c r="WR26" s="3"/>
+      <c r="WS26" s="3"/>
+      <c r="WT26" s="3"/>
+      <c r="WU26" s="3"/>
+      <c r="WV26" s="3"/>
+      <c r="WW26" s="3"/>
+      <c r="WX26" s="3"/>
+      <c r="WY26" s="3"/>
+      <c r="WZ26" s="3"/>
+      <c r="XA26" s="3"/>
+      <c r="XB26" s="3"/>
+      <c r="XC26" s="3"/>
+      <c r="XD26" s="3"/>
+      <c r="XE26" s="3"/>
+      <c r="XF26" s="3"/>
+      <c r="XG26" s="3"/>
+      <c r="XH26" s="3"/>
+      <c r="XI26" s="3"/>
+      <c r="XJ26" s="3"/>
+      <c r="XK26" s="3"/>
+      <c r="XL26" s="3"/>
+      <c r="XM26" s="3"/>
+      <c r="XN26" s="3"/>
+      <c r="XO26" s="3"/>
+      <c r="XP26" s="3"/>
+      <c r="XQ26" s="3"/>
+      <c r="XR26" s="3"/>
+      <c r="XS26" s="3"/>
+      <c r="XT26" s="3"/>
+      <c r="XU26" s="3"/>
+      <c r="XV26" s="3"/>
+      <c r="XW26" s="3"/>
+      <c r="XX26" s="3"/>
+      <c r="XY26" s="3"/>
+      <c r="XZ26" s="3"/>
+      <c r="YA26" s="3"/>
+      <c r="YB26" s="3"/>
+      <c r="YC26" s="3"/>
+      <c r="YD26" s="3"/>
+      <c r="YE26" s="3"/>
+      <c r="YF26" s="3"/>
+      <c r="YG26" s="3"/>
+      <c r="YH26" s="3"/>
+      <c r="YI26" s="3"/>
+      <c r="YJ26" s="3"/>
+      <c r="YK26" s="3"/>
+      <c r="YL26" s="3"/>
+      <c r="YM26" s="3"/>
+      <c r="YN26" s="3"/>
+      <c r="YO26" s="3"/>
+      <c r="YP26" s="3"/>
+      <c r="YQ26" s="3"/>
+      <c r="YR26" s="3"/>
+      <c r="YS26" s="3"/>
+      <c r="YT26" s="3"/>
+      <c r="YU26" s="3"/>
+      <c r="YV26" s="3"/>
+      <c r="YW26" s="3"/>
+      <c r="YX26" s="3"/>
+      <c r="YY26" s="3"/>
+      <c r="YZ26" s="3"/>
+      <c r="ZA26" s="3"/>
+      <c r="ZB26" s="3"/>
+      <c r="ZC26" s="3"/>
+      <c r="ZD26" s="3"/>
+      <c r="ZE26" s="3"/>
+      <c r="ZF26" s="3"/>
+      <c r="ZG26" s="3"/>
+      <c r="ZH26" s="3"/>
+      <c r="ZI26" s="3"/>
+      <c r="ZJ26" s="3"/>
+      <c r="ZK26" s="3"/>
+      <c r="ZL26" s="3"/>
+      <c r="ZM26" s="3"/>
+      <c r="ZN26" s="3"/>
+      <c r="ZO26" s="3"/>
+      <c r="ZP26" s="3"/>
+      <c r="ZQ26" s="3"/>
+      <c r="ZR26" s="3"/>
+      <c r="ZS26" s="3"/>
+      <c r="ZT26" s="3"/>
+      <c r="ZU26" s="3"/>
+      <c r="ZV26" s="3"/>
+      <c r="ZW26" s="3"/>
+      <c r="ZX26" s="3"/>
+      <c r="ZY26" s="3"/>
+      <c r="ZZ26" s="3"/>
+      <c r="AAA26" s="3"/>
+      <c r="AAB26" s="3"/>
+      <c r="AAC26" s="3"/>
+      <c r="AAD26" s="3"/>
+      <c r="AAE26" s="3"/>
+      <c r="AAF26" s="3"/>
+      <c r="AAG26" s="3"/>
+      <c r="AAH26" s="3"/>
+      <c r="AAI26" s="3"/>
+      <c r="AAJ26" s="3"/>
+      <c r="AAK26" s="3"/>
+      <c r="AAL26" s="3"/>
+      <c r="AAM26" s="3"/>
+      <c r="AAN26" s="3"/>
+      <c r="AAO26" s="3"/>
+      <c r="AAP26" s="3"/>
+      <c r="AAQ26" s="3"/>
+      <c r="AAR26" s="3"/>
+      <c r="AAS26" s="3"/>
+      <c r="AAT26" s="3"/>
+      <c r="AAU26" s="3"/>
+      <c r="AAV26" s="3"/>
+      <c r="AAW26" s="3"/>
+      <c r="AAX26" s="3"/>
+      <c r="AAY26" s="3"/>
+      <c r="AAZ26" s="3"/>
+      <c r="ABA26" s="3"/>
+      <c r="ABB26" s="3"/>
+      <c r="ABC26" s="3"/>
+      <c r="ABD26" s="3"/>
+      <c r="ABE26" s="3"/>
+      <c r="ABF26" s="3"/>
+      <c r="ABG26" s="3"/>
+      <c r="ABH26" s="3"/>
+      <c r="ABI26" s="3"/>
+      <c r="ABJ26" s="3"/>
+      <c r="ABK26" s="3"/>
+      <c r="ABL26" s="3"/>
+      <c r="ABM26" s="3"/>
+      <c r="ABN26" s="3"/>
+      <c r="ABO26" s="3"/>
+      <c r="ABP26" s="3"/>
+      <c r="ABQ26" s="3"/>
+      <c r="ABR26" s="3"/>
+      <c r="ABS26" s="3"/>
+      <c r="ABT26" s="3"/>
+      <c r="ABU26" s="3"/>
+      <c r="ABV26" s="3"/>
+      <c r="ABW26" s="3"/>
+      <c r="ABX26" s="3"/>
+      <c r="ABY26" s="3"/>
+      <c r="ABZ26" s="3"/>
+      <c r="ACA26" s="3"/>
+      <c r="ACB26" s="3"/>
+      <c r="ACC26" s="3"/>
+      <c r="ACD26" s="3"/>
+      <c r="ACE26" s="3"/>
+      <c r="ACF26" s="3"/>
+      <c r="ACG26" s="3"/>
+      <c r="ACH26" s="3"/>
+      <c r="ACI26" s="3"/>
+      <c r="ACJ26" s="3"/>
+      <c r="ACK26" s="3"/>
+      <c r="ACL26" s="3"/>
+      <c r="ACM26" s="3"/>
+      <c r="ACN26" s="3"/>
+      <c r="ACO26" s="3"/>
+      <c r="ACP26" s="3"/>
+      <c r="ACQ26" s="3"/>
+      <c r="ACR26" s="3"/>
+      <c r="ACS26" s="3"/>
+      <c r="ACT26" s="3"/>
+      <c r="ACU26" s="3"/>
+      <c r="ACV26" s="3"/>
+      <c r="ACW26" s="3"/>
+      <c r="ACX26" s="3"/>
+      <c r="ACY26" s="3"/>
+      <c r="ACZ26" s="3"/>
+      <c r="ADA26" s="3"/>
+      <c r="ADB26" s="3"/>
+      <c r="ADC26" s="3"/>
+      <c r="ADD26" s="3"/>
+      <c r="ADE26" s="3"/>
+      <c r="ADF26" s="3"/>
+      <c r="ADG26" s="3"/>
+      <c r="ADH26" s="3"/>
+      <c r="ADI26" s="3"/>
+      <c r="ADJ26" s="3"/>
+      <c r="ADK26" s="3"/>
+      <c r="ADL26" s="3"/>
+      <c r="ADM26" s="3"/>
+      <c r="ADN26" s="3"/>
+      <c r="ADO26" s="3"/>
+      <c r="ADP26" s="3"/>
+      <c r="ADQ26" s="3"/>
+      <c r="ADR26" s="3"/>
+      <c r="ADS26" s="3"/>
+      <c r="ADT26" s="3"/>
+      <c r="ADU26" s="3"/>
+      <c r="ADV26" s="3"/>
+      <c r="ADW26" s="3"/>
+      <c r="ADX26" s="3"/>
+      <c r="ADY26" s="3"/>
+      <c r="ADZ26" s="3"/>
+      <c r="AEA26" s="3"/>
+      <c r="AEB26" s="3"/>
+      <c r="AEC26" s="3"/>
+      <c r="AED26" s="3"/>
+      <c r="AEE26" s="3"/>
+      <c r="AEF26" s="3"/>
+      <c r="AEG26" s="3"/>
+      <c r="AEH26" s="3"/>
+      <c r="AEI26" s="3"/>
+      <c r="AEJ26" s="3"/>
+      <c r="AEK26" s="3"/>
+      <c r="AEL26" s="3"/>
+      <c r="AEM26" s="3"/>
+      <c r="AEN26" s="3"/>
+      <c r="AEO26" s="3"/>
+      <c r="AEP26" s="3"/>
+      <c r="AEQ26" s="3"/>
+      <c r="AER26" s="3"/>
+      <c r="AES26" s="3"/>
+      <c r="AET26" s="3"/>
+      <c r="AEU26" s="3"/>
+      <c r="AEV26" s="3"/>
+      <c r="AEW26" s="3"/>
+      <c r="AEX26" s="3"/>
+      <c r="AEY26" s="3"/>
+      <c r="AEZ26" s="3"/>
+      <c r="AFA26" s="3"/>
+      <c r="AFB26" s="3"/>
+      <c r="AFC26" s="3"/>
+      <c r="AFD26" s="3"/>
+      <c r="AFE26" s="3"/>
+      <c r="AFF26" s="3"/>
+      <c r="AFG26" s="3"/>
+      <c r="AFH26" s="3"/>
+      <c r="AFI26" s="3"/>
+      <c r="AFJ26" s="3"/>
+      <c r="AFK26" s="3"/>
+      <c r="AFL26" s="3"/>
+      <c r="AFM26" s="3"/>
+      <c r="AFN26" s="3"/>
+      <c r="AFO26" s="3"/>
+      <c r="AFP26" s="3"/>
+      <c r="AFQ26" s="3"/>
+      <c r="AFR26" s="3"/>
+      <c r="AFS26" s="3"/>
+      <c r="AFT26" s="3"/>
+      <c r="AFU26" s="3"/>
+      <c r="AFV26" s="3"/>
+      <c r="AFW26" s="3"/>
+      <c r="AFX26" s="3"/>
+      <c r="AFY26" s="3"/>
+      <c r="AFZ26" s="3"/>
+      <c r="AGA26" s="3"/>
+      <c r="AGB26" s="3"/>
+      <c r="AGC26" s="3"/>
+      <c r="AGD26" s="3"/>
+      <c r="AGE26" s="3"/>
+      <c r="AGF26" s="3"/>
+      <c r="AGG26" s="3"/>
+      <c r="AGH26" s="3"/>
+      <c r="AGI26" s="3"/>
+      <c r="AGJ26" s="3"/>
+      <c r="AGK26" s="3"/>
+      <c r="AGL26" s="3"/>
+      <c r="AGM26" s="3"/>
+      <c r="AGN26" s="3"/>
+      <c r="AGO26" s="3"/>
+      <c r="AGP26" s="3"/>
+      <c r="AGQ26" s="3"/>
+      <c r="AGR26" s="3"/>
+      <c r="AGS26" s="3"/>
+      <c r="AGT26" s="3"/>
+      <c r="AGU26" s="3"/>
+      <c r="AGV26" s="3"/>
+      <c r="AGW26" s="3"/>
+      <c r="AGX26" s="3"/>
+      <c r="AGY26" s="3"/>
+      <c r="AGZ26" s="3"/>
+      <c r="AHA26" s="3"/>
+      <c r="AHB26" s="3"/>
+      <c r="AHC26" s="3"/>
+      <c r="AHD26" s="3"/>
+      <c r="AHE26" s="3"/>
+      <c r="AHF26" s="3"/>
+      <c r="AHG26" s="3"/>
+      <c r="AHH26" s="3"/>
+      <c r="AHI26" s="3"/>
+      <c r="AHJ26" s="3"/>
+      <c r="AHK26" s="3"/>
+      <c r="AHL26" s="3"/>
+      <c r="AHM26" s="3"/>
+      <c r="AHN26" s="3"/>
+      <c r="AHO26" s="3"/>
+      <c r="AHP26" s="3"/>
+      <c r="AHQ26" s="3"/>
+      <c r="AHR26" s="3"/>
+      <c r="AHS26" s="3"/>
+      <c r="AHT26" s="3"/>
+      <c r="AHU26" s="3"/>
+      <c r="AHV26" s="3"/>
+      <c r="AHW26" s="3"/>
+      <c r="AHX26" s="3"/>
+      <c r="AHY26" s="3"/>
+      <c r="AHZ26" s="3"/>
+      <c r="AIA26" s="3"/>
+      <c r="AIB26" s="3"/>
+      <c r="AIC26" s="3"/>
+      <c r="AID26" s="3"/>
+      <c r="AIE26" s="3"/>
+      <c r="AIF26" s="3"/>
+      <c r="AIG26" s="3"/>
+      <c r="AIH26" s="3"/>
+      <c r="AII26" s="3"/>
+      <c r="AIJ26" s="3"/>
+      <c r="AIK26" s="3"/>
+      <c r="AIL26" s="3"/>
+      <c r="AIM26" s="3"/>
+      <c r="AIN26" s="3"/>
+      <c r="AIO26" s="3"/>
+      <c r="AIP26" s="3"/>
+      <c r="AIQ26" s="3"/>
+      <c r="AIR26" s="3"/>
+      <c r="AIS26" s="3"/>
+      <c r="AIT26" s="3"/>
+      <c r="AIU26" s="3"/>
+      <c r="AIV26" s="3"/>
+      <c r="AIW26" s="3"/>
+      <c r="AIX26" s="3"/>
+      <c r="AIY26" s="3"/>
+      <c r="AIZ26" s="3"/>
+      <c r="AJA26" s="3"/>
+      <c r="AJB26" s="3"/>
+      <c r="AJC26" s="3"/>
+      <c r="AJD26" s="3"/>
+      <c r="AJE26" s="3"/>
+      <c r="AJF26" s="3"/>
+      <c r="AJG26" s="3"/>
+      <c r="AJH26" s="3"/>
+      <c r="AJI26" s="3"/>
+      <c r="AJJ26" s="3"/>
+      <c r="AJK26" s="3"/>
+      <c r="AJL26" s="3"/>
+      <c r="AJM26" s="3"/>
+      <c r="AJN26" s="3"/>
+      <c r="AJO26" s="3"/>
+      <c r="AJP26" s="3"/>
+      <c r="AJQ26" s="3"/>
+      <c r="AJR26" s="3"/>
+      <c r="AJS26" s="3"/>
+      <c r="AJT26" s="3"/>
+      <c r="AJU26" s="3"/>
+      <c r="AJV26" s="3"/>
+      <c r="AJW26" s="3"/>
+      <c r="AJX26" s="3"/>
+      <c r="AJY26" s="3"/>
+      <c r="AJZ26" s="3"/>
+      <c r="AKA26" s="3"/>
+      <c r="AKB26" s="3"/>
+      <c r="AKC26" s="3"/>
+      <c r="AKD26" s="3"/>
+      <c r="AKE26" s="3"/>
+      <c r="AKF26" s="3"/>
+      <c r="AKG26" s="3"/>
+      <c r="AKH26" s="3"/>
+      <c r="AKI26" s="3"/>
+      <c r="AKJ26" s="3"/>
+      <c r="AKK26" s="3"/>
+      <c r="AKL26" s="3"/>
+      <c r="AKM26" s="3"/>
+      <c r="AKN26" s="3"/>
+      <c r="AKO26" s="3"/>
+      <c r="AKP26" s="3"/>
+      <c r="AKQ26" s="3"/>
+      <c r="AKR26" s="3"/>
+      <c r="AKS26" s="3"/>
+      <c r="AKT26" s="3"/>
+      <c r="AKU26" s="3"/>
+      <c r="AKV26" s="3"/>
+      <c r="AKW26" s="3"/>
+      <c r="AKX26" s="3"/>
+      <c r="AKY26" s="3"/>
+      <c r="AKZ26" s="3"/>
+      <c r="ALA26" s="3"/>
+      <c r="ALB26" s="3"/>
+      <c r="ALC26" s="3"/>
+      <c r="ALD26" s="3"/>
+      <c r="ALE26" s="3"/>
+      <c r="ALF26" s="3"/>
+      <c r="ALG26" s="3"/>
+      <c r="ALH26" s="3"/>
+      <c r="ALI26" s="3"/>
+      <c r="ALJ26" s="3"/>
+      <c r="ALK26" s="3"/>
+      <c r="ALL26" s="3"/>
+      <c r="ALM26" s="3"/>
+      <c r="ALN26" s="3"/>
+      <c r="ALO26" s="3"/>
+      <c r="ALP26" s="3"/>
+      <c r="ALQ26" s="3"/>
+      <c r="ALR26" s="3"/>
+      <c r="ALS26" s="3"/>
+      <c r="ALT26" s="3"/>
+      <c r="ALU26" s="3"/>
+      <c r="ALV26" s="3"/>
+      <c r="ALW26" s="3"/>
+      <c r="ALX26" s="3"/>
+      <c r="ALY26" s="3"/>
+      <c r="ALZ26" s="3"/>
+      <c r="AMA26" s="3"/>
+      <c r="AMB26" s="3"/>
+      <c r="AMC26" s="3"/>
+      <c r="AMD26" s="3"/>
+      <c r="AME26" s="3"/>
+      <c r="AMF26" s="3"/>
+      <c r="AMG26" s="3"/>
+      <c r="AMH26" s="3"/>
+      <c r="AMI26" s="3"/>
+      <c r="AMJ26" s="3"/>
     </row>
-    <row r="26" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="s">
+    <row r="27" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" s="3" t="s">
+      <c r="B27" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="3" t="s">
+      <c r="C27" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
-      <c r="V26" s="9"/>
-      <c r="AME26" s="9"/>
-      <c r="AMF26" s="9"/>
-      <c r="AMG26" s="9"/>
-      <c r="AMH26" s="9"/>
-      <c r="AMI26" s="9"/>
-      <c r="AMJ26" s="9"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="11"/>
+      <c r="W27" s="11"/>
+      <c r="X27" s="11"/>
+      <c r="Y27" s="11"/>
+      <c r="Z27" s="11"/>
+      <c r="AA27" s="11"/>
+      <c r="AB27" s="11"/>
+      <c r="AC27" s="11"/>
+      <c r="AD27" s="11"/>
+      <c r="AE27" s="11"/>
+      <c r="AF27" s="11"/>
+      <c r="AG27" s="11"/>
+      <c r="AH27" s="11"/>
+      <c r="AI27" s="11"/>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="11"/>
+      <c r="AL27" s="11"/>
+      <c r="AM27" s="11"/>
+      <c r="AN27" s="11"/>
+      <c r="AO27" s="11"/>
+      <c r="AP27" s="11"/>
+      <c r="AQ27" s="11"/>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="11"/>
+      <c r="AT27" s="11"/>
+      <c r="AU27" s="11"/>
+      <c r="AV27" s="11"/>
+      <c r="AW27" s="11"/>
+      <c r="AX27" s="11"/>
+      <c r="AY27" s="11"/>
+      <c r="AZ27" s="11"/>
+      <c r="BA27" s="11"/>
+      <c r="BB27" s="11"/>
+      <c r="BC27" s="11"/>
+      <c r="BD27" s="11"/>
+      <c r="BE27" s="11"/>
+      <c r="BF27" s="11"/>
+      <c r="BG27" s="11"/>
+      <c r="BH27" s="11"/>
+      <c r="BI27" s="11"/>
+      <c r="BJ27" s="11"/>
+      <c r="BK27" s="11"/>
+      <c r="BL27" s="11"/>
+      <c r="BM27" s="11"/>
+      <c r="BN27" s="11"/>
+      <c r="BO27" s="11"/>
+      <c r="BP27" s="11"/>
+      <c r="BQ27" s="11"/>
+      <c r="BR27" s="11"/>
+      <c r="BS27" s="11"/>
+      <c r="BT27" s="11"/>
+      <c r="BU27" s="11"/>
+      <c r="BV27" s="11"/>
+      <c r="BW27" s="11"/>
+      <c r="BX27" s="11"/>
+      <c r="BY27" s="11"/>
+      <c r="BZ27" s="11"/>
+      <c r="CA27" s="11"/>
+      <c r="CB27" s="11"/>
+      <c r="CC27" s="11"/>
+      <c r="CD27" s="11"/>
+      <c r="CE27" s="11"/>
+      <c r="CF27" s="11"/>
+      <c r="CG27" s="11"/>
+      <c r="CH27" s="11"/>
+      <c r="CI27" s="11"/>
+      <c r="CJ27" s="11"/>
+      <c r="CK27" s="11"/>
+      <c r="CL27" s="11"/>
+      <c r="CM27" s="11"/>
+      <c r="CN27" s="11"/>
+      <c r="CO27" s="11"/>
+      <c r="CP27" s="11"/>
+      <c r="CQ27" s="11"/>
+      <c r="CR27" s="11"/>
+      <c r="CS27" s="11"/>
+      <c r="CT27" s="11"/>
+      <c r="CU27" s="11"/>
+      <c r="CV27" s="11"/>
+      <c r="CW27" s="11"/>
+      <c r="CX27" s="11"/>
+      <c r="CY27" s="11"/>
+      <c r="CZ27" s="11"/>
+      <c r="DA27" s="11"/>
+      <c r="DB27" s="11"/>
+      <c r="DC27" s="11"/>
+      <c r="DD27" s="11"/>
+      <c r="DE27" s="11"/>
+      <c r="DF27" s="11"/>
+      <c r="DG27" s="11"/>
+      <c r="DH27" s="11"/>
+      <c r="DI27" s="11"/>
+      <c r="DJ27" s="11"/>
+      <c r="DK27" s="11"/>
+      <c r="DL27" s="11"/>
+      <c r="DM27" s="11"/>
+      <c r="DN27" s="11"/>
+      <c r="DO27" s="11"/>
+      <c r="DP27" s="11"/>
+      <c r="DQ27" s="11"/>
+      <c r="DR27" s="11"/>
+      <c r="DS27" s="11"/>
+      <c r="DT27" s="11"/>
+      <c r="DU27" s="11"/>
+      <c r="DV27" s="11"/>
+      <c r="DW27" s="11"/>
+      <c r="DX27" s="11"/>
+      <c r="DY27" s="11"/>
+      <c r="DZ27" s="11"/>
+      <c r="EA27" s="11"/>
+      <c r="EB27" s="11"/>
+      <c r="EC27" s="11"/>
+      <c r="ED27" s="11"/>
+      <c r="EE27" s="11"/>
+      <c r="EF27" s="11"/>
+      <c r="EG27" s="11"/>
+      <c r="EH27" s="11"/>
+      <c r="EI27" s="11"/>
+      <c r="EJ27" s="11"/>
+      <c r="EK27" s="11"/>
+      <c r="EL27" s="11"/>
+      <c r="EM27" s="11"/>
+      <c r="EN27" s="11"/>
+      <c r="EO27" s="11"/>
+      <c r="EP27" s="11"/>
+      <c r="EQ27" s="11"/>
+      <c r="ER27" s="11"/>
+      <c r="ES27" s="11"/>
+      <c r="ET27" s="11"/>
+      <c r="EU27" s="11"/>
+      <c r="EV27" s="11"/>
+      <c r="EW27" s="11"/>
+      <c r="EX27" s="11"/>
+      <c r="EY27" s="11"/>
+      <c r="EZ27" s="11"/>
+      <c r="FA27" s="11"/>
+      <c r="FB27" s="11"/>
+      <c r="FC27" s="11"/>
+      <c r="FD27" s="11"/>
+      <c r="FE27" s="11"/>
+      <c r="FF27" s="11"/>
+      <c r="FG27" s="11"/>
+      <c r="FH27" s="11"/>
+      <c r="FI27" s="11"/>
+      <c r="FJ27" s="11"/>
+      <c r="FK27" s="11"/>
+      <c r="FL27" s="11"/>
+      <c r="FM27" s="11"/>
+      <c r="FN27" s="11"/>
+      <c r="FO27" s="11"/>
+      <c r="FP27" s="11"/>
+      <c r="FQ27" s="11"/>
+      <c r="FR27" s="11"/>
+      <c r="FS27" s="11"/>
+      <c r="FT27" s="11"/>
+      <c r="FU27" s="11"/>
+      <c r="FV27" s="11"/>
+      <c r="FW27" s="11"/>
+      <c r="FX27" s="11"/>
+      <c r="FY27" s="11"/>
+      <c r="FZ27" s="11"/>
+      <c r="GA27" s="11"/>
+      <c r="GB27" s="11"/>
+      <c r="GC27" s="11"/>
+      <c r="GD27" s="11"/>
+      <c r="GE27" s="11"/>
+      <c r="GF27" s="11"/>
+      <c r="GG27" s="11"/>
+      <c r="GH27" s="11"/>
+      <c r="GI27" s="11"/>
+      <c r="GJ27" s="11"/>
+      <c r="GK27" s="11"/>
+      <c r="GL27" s="11"/>
+      <c r="GM27" s="11"/>
+      <c r="GN27" s="11"/>
+      <c r="GO27" s="11"/>
+      <c r="GP27" s="11"/>
+      <c r="GQ27" s="11"/>
+      <c r="GR27" s="11"/>
+      <c r="GS27" s="11"/>
+      <c r="GT27" s="11"/>
+      <c r="GU27" s="11"/>
+      <c r="GV27" s="11"/>
+      <c r="GW27" s="11"/>
+      <c r="GX27" s="11"/>
+      <c r="GY27" s="11"/>
+      <c r="GZ27" s="11"/>
+      <c r="HA27" s="11"/>
+      <c r="HB27" s="11"/>
+      <c r="HC27" s="11"/>
+      <c r="HD27" s="11"/>
+      <c r="HE27" s="11"/>
+      <c r="HF27" s="11"/>
+      <c r="HG27" s="11"/>
+      <c r="HH27" s="11"/>
+      <c r="HI27" s="11"/>
+      <c r="HJ27" s="11"/>
+      <c r="HK27" s="11"/>
+      <c r="HL27" s="11"/>
+      <c r="HM27" s="11"/>
+      <c r="HN27" s="11"/>
+      <c r="HO27" s="11"/>
+      <c r="HP27" s="11"/>
+      <c r="HQ27" s="11"/>
+      <c r="HR27" s="11"/>
+      <c r="HS27" s="11"/>
+      <c r="HT27" s="11"/>
+      <c r="HU27" s="11"/>
+      <c r="HV27" s="11"/>
+      <c r="HW27" s="11"/>
+      <c r="HX27" s="11"/>
+      <c r="HY27" s="11"/>
+      <c r="HZ27" s="11"/>
+      <c r="IA27" s="11"/>
+      <c r="IB27" s="11"/>
+      <c r="IC27" s="11"/>
+      <c r="ID27" s="11"/>
+      <c r="IE27" s="11"/>
+      <c r="IF27" s="11"/>
+      <c r="IG27" s="11"/>
+      <c r="IH27" s="11"/>
+      <c r="II27" s="11"/>
+      <c r="IJ27" s="11"/>
+      <c r="IK27" s="11"/>
+      <c r="IL27" s="11"/>
+      <c r="IM27" s="11"/>
+      <c r="IN27" s="11"/>
+      <c r="IO27" s="11"/>
+      <c r="IP27" s="11"/>
+      <c r="IQ27" s="11"/>
+      <c r="IR27" s="11"/>
+      <c r="IS27" s="11"/>
+      <c r="IT27" s="11"/>
+      <c r="IU27" s="11"/>
+      <c r="IV27" s="11"/>
+      <c r="IW27" s="11"/>
+      <c r="IX27" s="11"/>
+      <c r="IY27" s="11"/>
+      <c r="IZ27" s="11"/>
+      <c r="JA27" s="11"/>
+      <c r="JB27" s="11"/>
+      <c r="JC27" s="11"/>
+      <c r="JD27" s="11"/>
+      <c r="JE27" s="11"/>
+      <c r="JF27" s="11"/>
+      <c r="JG27" s="11"/>
+      <c r="JH27" s="11"/>
+      <c r="JI27" s="11"/>
+      <c r="JJ27" s="11"/>
+      <c r="JK27" s="11"/>
+      <c r="JL27" s="11"/>
+      <c r="JM27" s="11"/>
+      <c r="JN27" s="11"/>
+      <c r="JO27" s="11"/>
+      <c r="JP27" s="11"/>
+      <c r="JQ27" s="11"/>
+      <c r="JR27" s="11"/>
+      <c r="JS27" s="11"/>
+      <c r="JT27" s="11"/>
+      <c r="JU27" s="11"/>
+      <c r="JV27" s="11"/>
+      <c r="JW27" s="11"/>
+      <c r="JX27" s="11"/>
+      <c r="JY27" s="11"/>
+      <c r="JZ27" s="11"/>
+      <c r="KA27" s="11"/>
+      <c r="KB27" s="11"/>
+      <c r="KC27" s="11"/>
+      <c r="KD27" s="11"/>
+      <c r="KE27" s="11"/>
+      <c r="KF27" s="11"/>
+      <c r="KG27" s="11"/>
+      <c r="KH27" s="11"/>
+      <c r="KI27" s="11"/>
+      <c r="KJ27" s="11"/>
+      <c r="KK27" s="11"/>
+      <c r="KL27" s="11"/>
+      <c r="KM27" s="11"/>
+      <c r="KN27" s="11"/>
+      <c r="KO27" s="11"/>
+      <c r="KP27" s="11"/>
+      <c r="KQ27" s="11"/>
+      <c r="KR27" s="11"/>
+      <c r="KS27" s="11"/>
+      <c r="KT27" s="11"/>
+      <c r="KU27" s="11"/>
+      <c r="KV27" s="11"/>
+      <c r="KW27" s="11"/>
+      <c r="KX27" s="11"/>
+      <c r="KY27" s="11"/>
+      <c r="KZ27" s="11"/>
+      <c r="LA27" s="11"/>
+      <c r="LB27" s="11"/>
+      <c r="LC27" s="11"/>
+      <c r="LD27" s="11"/>
+      <c r="LE27" s="11"/>
+      <c r="LF27" s="11"/>
+      <c r="LG27" s="11"/>
+      <c r="LH27" s="11"/>
+      <c r="LI27" s="11"/>
+      <c r="LJ27" s="11"/>
+      <c r="LK27" s="11"/>
+      <c r="LL27" s="11"/>
+      <c r="LM27" s="11"/>
+      <c r="LN27" s="11"/>
+      <c r="LO27" s="11"/>
+      <c r="LP27" s="11"/>
+      <c r="LQ27" s="11"/>
+      <c r="LR27" s="11"/>
+      <c r="LS27" s="11"/>
+      <c r="LT27" s="11"/>
+      <c r="LU27" s="11"/>
+      <c r="LV27" s="11"/>
+      <c r="LW27" s="11"/>
+      <c r="LX27" s="11"/>
+      <c r="LY27" s="11"/>
+      <c r="LZ27" s="11"/>
+      <c r="MA27" s="11"/>
+      <c r="MB27" s="11"/>
+      <c r="MC27" s="11"/>
+      <c r="MD27" s="11"/>
+      <c r="ME27" s="11"/>
+      <c r="MF27" s="11"/>
+      <c r="MG27" s="11"/>
+      <c r="MH27" s="11"/>
+      <c r="MI27" s="11"/>
+      <c r="MJ27" s="11"/>
+      <c r="MK27" s="11"/>
+      <c r="ML27" s="11"/>
+      <c r="MM27" s="11"/>
+      <c r="MN27" s="11"/>
+      <c r="MO27" s="11"/>
+      <c r="MP27" s="11"/>
+      <c r="MQ27" s="11"/>
+      <c r="MR27" s="11"/>
+      <c r="MS27" s="11"/>
+      <c r="MT27" s="11"/>
+      <c r="MU27" s="11"/>
+      <c r="MV27" s="11"/>
+      <c r="MW27" s="11"/>
+      <c r="MX27" s="11"/>
+      <c r="MY27" s="11"/>
+      <c r="MZ27" s="11"/>
+      <c r="NA27" s="11"/>
+      <c r="NB27" s="11"/>
+      <c r="NC27" s="11"/>
+      <c r="ND27" s="11"/>
+      <c r="NE27" s="11"/>
+      <c r="NF27" s="11"/>
+      <c r="NG27" s="11"/>
+      <c r="NH27" s="11"/>
+      <c r="NI27" s="11"/>
+      <c r="NJ27" s="11"/>
+      <c r="NK27" s="11"/>
+      <c r="NL27" s="11"/>
+      <c r="NM27" s="11"/>
+      <c r="NN27" s="11"/>
+      <c r="NO27" s="11"/>
+      <c r="NP27" s="11"/>
+      <c r="NQ27" s="11"/>
+      <c r="NR27" s="11"/>
+      <c r="NS27" s="11"/>
+      <c r="NT27" s="11"/>
+      <c r="NU27" s="11"/>
+      <c r="NV27" s="11"/>
+      <c r="NW27" s="11"/>
+      <c r="NX27" s="11"/>
+      <c r="NY27" s="11"/>
+      <c r="NZ27" s="11"/>
+      <c r="OA27" s="11"/>
+      <c r="OB27" s="11"/>
+      <c r="OC27" s="11"/>
+      <c r="OD27" s="11"/>
+      <c r="OE27" s="11"/>
+      <c r="OF27" s="11"/>
+      <c r="OG27" s="11"/>
+      <c r="OH27" s="11"/>
+      <c r="OI27" s="11"/>
+      <c r="OJ27" s="11"/>
+      <c r="OK27" s="11"/>
+      <c r="OL27" s="11"/>
+      <c r="OM27" s="11"/>
+      <c r="ON27" s="11"/>
+      <c r="OO27" s="11"/>
+      <c r="OP27" s="11"/>
+      <c r="OQ27" s="11"/>
+      <c r="OR27" s="11"/>
+      <c r="OS27" s="11"/>
+      <c r="OT27" s="11"/>
+      <c r="OU27" s="11"/>
+      <c r="OV27" s="11"/>
+      <c r="OW27" s="11"/>
+      <c r="OX27" s="11"/>
+      <c r="OY27" s="11"/>
+      <c r="OZ27" s="11"/>
+      <c r="PA27" s="11"/>
+      <c r="PB27" s="11"/>
+      <c r="PC27" s="11"/>
+      <c r="PD27" s="11"/>
+      <c r="PE27" s="11"/>
+      <c r="PF27" s="11"/>
+      <c r="PG27" s="11"/>
+      <c r="PH27" s="11"/>
+      <c r="PI27" s="11"/>
+      <c r="PJ27" s="11"/>
+      <c r="PK27" s="11"/>
+      <c r="PL27" s="11"/>
+      <c r="PM27" s="11"/>
+      <c r="PN27" s="11"/>
+      <c r="PO27" s="11"/>
+      <c r="PP27" s="11"/>
+      <c r="PQ27" s="11"/>
+      <c r="PR27" s="11"/>
+      <c r="PS27" s="11"/>
+      <c r="PT27" s="11"/>
+      <c r="PU27" s="11"/>
+      <c r="PV27" s="11"/>
+      <c r="PW27" s="11"/>
+      <c r="PX27" s="11"/>
+      <c r="PY27" s="11"/>
+      <c r="PZ27" s="11"/>
+      <c r="QA27" s="11"/>
+      <c r="QB27" s="11"/>
+      <c r="QC27" s="11"/>
+      <c r="QD27" s="11"/>
+      <c r="QE27" s="11"/>
+      <c r="QF27" s="11"/>
+      <c r="QG27" s="11"/>
+      <c r="QH27" s="11"/>
+      <c r="QI27" s="11"/>
+      <c r="QJ27" s="11"/>
+      <c r="QK27" s="11"/>
+      <c r="QL27" s="11"/>
+      <c r="QM27" s="11"/>
+      <c r="QN27" s="11"/>
+      <c r="QO27" s="11"/>
+      <c r="QP27" s="11"/>
+      <c r="QQ27" s="11"/>
+      <c r="QR27" s="11"/>
+      <c r="QS27" s="11"/>
+      <c r="QT27" s="11"/>
+      <c r="QU27" s="11"/>
+      <c r="QV27" s="11"/>
+      <c r="QW27" s="11"/>
+      <c r="QX27" s="11"/>
+      <c r="QY27" s="11"/>
+      <c r="QZ27" s="11"/>
+      <c r="RA27" s="11"/>
+      <c r="RB27" s="11"/>
+      <c r="RC27" s="11"/>
+      <c r="RD27" s="11"/>
+      <c r="RE27" s="11"/>
+      <c r="RF27" s="11"/>
+      <c r="RG27" s="11"/>
+      <c r="RH27" s="11"/>
+      <c r="RI27" s="11"/>
+      <c r="RJ27" s="11"/>
+      <c r="RK27" s="11"/>
+      <c r="RL27" s="11"/>
+      <c r="RM27" s="11"/>
+      <c r="RN27" s="11"/>
+      <c r="RO27" s="11"/>
+      <c r="RP27" s="11"/>
+      <c r="RQ27" s="11"/>
+      <c r="RR27" s="11"/>
+      <c r="RS27" s="11"/>
+      <c r="RT27" s="11"/>
+      <c r="RU27" s="11"/>
+      <c r="RV27" s="11"/>
+      <c r="RW27" s="11"/>
+      <c r="RX27" s="11"/>
+      <c r="RY27" s="11"/>
+      <c r="RZ27" s="11"/>
+      <c r="SA27" s="11"/>
+      <c r="SB27" s="11"/>
+      <c r="SC27" s="11"/>
+      <c r="SD27" s="11"/>
+      <c r="SE27" s="11"/>
+      <c r="SF27" s="11"/>
+      <c r="SG27" s="11"/>
+      <c r="SH27" s="11"/>
+      <c r="SI27" s="11"/>
+      <c r="SJ27" s="11"/>
+      <c r="SK27" s="11"/>
+      <c r="SL27" s="11"/>
+      <c r="SM27" s="11"/>
+      <c r="SN27" s="11"/>
+      <c r="SO27" s="11"/>
+      <c r="SP27" s="11"/>
+      <c r="SQ27" s="11"/>
+      <c r="SR27" s="11"/>
+      <c r="SS27" s="11"/>
+      <c r="ST27" s="11"/>
+      <c r="SU27" s="11"/>
+      <c r="SV27" s="11"/>
+      <c r="SW27" s="11"/>
+      <c r="SX27" s="11"/>
+      <c r="SY27" s="11"/>
+      <c r="SZ27" s="11"/>
+      <c r="TA27" s="11"/>
+      <c r="TB27" s="11"/>
+      <c r="TC27" s="11"/>
+      <c r="TD27" s="11"/>
+      <c r="TE27" s="11"/>
+      <c r="TF27" s="11"/>
+      <c r="TG27" s="11"/>
+      <c r="TH27" s="11"/>
+      <c r="TI27" s="11"/>
+      <c r="TJ27" s="11"/>
+      <c r="TK27" s="11"/>
+      <c r="TL27" s="11"/>
+      <c r="TM27" s="11"/>
+      <c r="TN27" s="11"/>
+      <c r="TO27" s="11"/>
+      <c r="TP27" s="11"/>
+      <c r="TQ27" s="11"/>
+      <c r="TR27" s="11"/>
+      <c r="TS27" s="11"/>
+      <c r="TT27" s="11"/>
+      <c r="TU27" s="11"/>
+      <c r="TV27" s="11"/>
+      <c r="TW27" s="11"/>
+      <c r="TX27" s="11"/>
+      <c r="TY27" s="11"/>
+      <c r="TZ27" s="11"/>
+      <c r="UA27" s="11"/>
+      <c r="UB27" s="11"/>
+      <c r="UC27" s="11"/>
+      <c r="UD27" s="11"/>
+      <c r="UE27" s="11"/>
+      <c r="UF27" s="11"/>
+      <c r="UG27" s="11"/>
+      <c r="UH27" s="11"/>
+      <c r="UI27" s="11"/>
+      <c r="UJ27" s="11"/>
+      <c r="UK27" s="11"/>
+      <c r="UL27" s="11"/>
+      <c r="UM27" s="11"/>
+      <c r="UN27" s="11"/>
+      <c r="UO27" s="11"/>
+      <c r="UP27" s="11"/>
+      <c r="UQ27" s="11"/>
+      <c r="UR27" s="11"/>
+      <c r="US27" s="11"/>
+      <c r="UT27" s="11"/>
+      <c r="UU27" s="11"/>
+      <c r="UV27" s="11"/>
+      <c r="UW27" s="11"/>
+      <c r="UX27" s="11"/>
+      <c r="UY27" s="11"/>
+      <c r="UZ27" s="11"/>
+      <c r="VA27" s="11"/>
+      <c r="VB27" s="11"/>
+      <c r="VC27" s="11"/>
+      <c r="VD27" s="11"/>
+      <c r="VE27" s="11"/>
+      <c r="VF27" s="11"/>
+      <c r="VG27" s="11"/>
+      <c r="VH27" s="11"/>
+      <c r="VI27" s="11"/>
+      <c r="VJ27" s="11"/>
+      <c r="VK27" s="11"/>
+      <c r="VL27" s="11"/>
+      <c r="VM27" s="11"/>
+      <c r="VN27" s="11"/>
+      <c r="VO27" s="11"/>
+      <c r="VP27" s="11"/>
+      <c r="VQ27" s="11"/>
+      <c r="VR27" s="11"/>
+      <c r="VS27" s="11"/>
+      <c r="VT27" s="11"/>
+      <c r="VU27" s="11"/>
+      <c r="VV27" s="11"/>
+      <c r="VW27" s="11"/>
+      <c r="VX27" s="11"/>
+      <c r="VY27" s="11"/>
+      <c r="VZ27" s="11"/>
+      <c r="WA27" s="11"/>
+      <c r="WB27" s="11"/>
+      <c r="WC27" s="11"/>
+      <c r="WD27" s="11"/>
+      <c r="WE27" s="11"/>
+      <c r="WF27" s="11"/>
+      <c r="WG27" s="11"/>
+      <c r="WH27" s="11"/>
+      <c r="WI27" s="11"/>
+      <c r="WJ27" s="11"/>
+      <c r="WK27" s="11"/>
+      <c r="WL27" s="11"/>
+      <c r="WM27" s="11"/>
+      <c r="WN27" s="11"/>
+      <c r="WO27" s="11"/>
+      <c r="WP27" s="11"/>
+      <c r="WQ27" s="11"/>
+      <c r="WR27" s="11"/>
+      <c r="WS27" s="11"/>
+      <c r="WT27" s="11"/>
+      <c r="WU27" s="11"/>
+      <c r="WV27" s="11"/>
+      <c r="WW27" s="11"/>
+      <c r="WX27" s="11"/>
+      <c r="WY27" s="11"/>
+      <c r="WZ27" s="11"/>
+      <c r="XA27" s="11"/>
+      <c r="XB27" s="11"/>
+      <c r="XC27" s="11"/>
+      <c r="XD27" s="11"/>
+      <c r="XE27" s="11"/>
+      <c r="XF27" s="11"/>
+      <c r="XG27" s="11"/>
+      <c r="XH27" s="11"/>
+      <c r="XI27" s="11"/>
+      <c r="XJ27" s="11"/>
+      <c r="XK27" s="11"/>
+      <c r="XL27" s="11"/>
+      <c r="XM27" s="11"/>
+      <c r="XN27" s="11"/>
+      <c r="XO27" s="11"/>
+      <c r="XP27" s="11"/>
+      <c r="XQ27" s="11"/>
+      <c r="XR27" s="11"/>
+      <c r="XS27" s="11"/>
+      <c r="XT27" s="11"/>
+      <c r="XU27" s="11"/>
+      <c r="XV27" s="11"/>
+      <c r="XW27" s="11"/>
+      <c r="XX27" s="11"/>
+      <c r="XY27" s="11"/>
+      <c r="XZ27" s="11"/>
+      <c r="YA27" s="11"/>
+      <c r="YB27" s="11"/>
+      <c r="YC27" s="11"/>
+      <c r="YD27" s="11"/>
+      <c r="YE27" s="11"/>
+      <c r="YF27" s="11"/>
+      <c r="YG27" s="11"/>
+      <c r="YH27" s="11"/>
+      <c r="YI27" s="11"/>
+      <c r="YJ27" s="11"/>
+      <c r="YK27" s="11"/>
+      <c r="YL27" s="11"/>
+      <c r="YM27" s="11"/>
+      <c r="YN27" s="11"/>
+      <c r="YO27" s="11"/>
+      <c r="YP27" s="11"/>
+      <c r="YQ27" s="11"/>
+      <c r="YR27" s="11"/>
+      <c r="YS27" s="11"/>
+      <c r="YT27" s="11"/>
+      <c r="YU27" s="11"/>
+      <c r="YV27" s="11"/>
+      <c r="YW27" s="11"/>
+      <c r="YX27" s="11"/>
+      <c r="YY27" s="11"/>
+      <c r="YZ27" s="11"/>
+      <c r="ZA27" s="11"/>
+      <c r="ZB27" s="11"/>
+      <c r="ZC27" s="11"/>
+      <c r="ZD27" s="11"/>
+      <c r="ZE27" s="11"/>
+      <c r="ZF27" s="11"/>
+      <c r="ZG27" s="11"/>
+      <c r="ZH27" s="11"/>
+      <c r="ZI27" s="11"/>
+      <c r="ZJ27" s="11"/>
+      <c r="ZK27" s="11"/>
+      <c r="ZL27" s="11"/>
+      <c r="ZM27" s="11"/>
+      <c r="ZN27" s="11"/>
+      <c r="ZO27" s="11"/>
+      <c r="ZP27" s="11"/>
+      <c r="ZQ27" s="11"/>
+      <c r="ZR27" s="11"/>
+      <c r="ZS27" s="11"/>
+      <c r="ZT27" s="11"/>
+      <c r="ZU27" s="11"/>
+      <c r="ZV27" s="11"/>
+      <c r="ZW27" s="11"/>
+      <c r="ZX27" s="11"/>
+      <c r="ZY27" s="11"/>
+      <c r="ZZ27" s="11"/>
+      <c r="AAA27" s="11"/>
+      <c r="AAB27" s="11"/>
+      <c r="AAC27" s="11"/>
+      <c r="AAD27" s="11"/>
+      <c r="AAE27" s="11"/>
+      <c r="AAF27" s="11"/>
+      <c r="AAG27" s="11"/>
+      <c r="AAH27" s="11"/>
+      <c r="AAI27" s="11"/>
+      <c r="AAJ27" s="11"/>
+      <c r="AAK27" s="11"/>
+      <c r="AAL27" s="11"/>
+      <c r="AAM27" s="11"/>
+      <c r="AAN27" s="11"/>
+      <c r="AAO27" s="11"/>
+      <c r="AAP27" s="11"/>
+      <c r="AAQ27" s="11"/>
+      <c r="AAR27" s="11"/>
+      <c r="AAS27" s="11"/>
+      <c r="AAT27" s="11"/>
+      <c r="AAU27" s="11"/>
+      <c r="AAV27" s="11"/>
+      <c r="AAW27" s="11"/>
+      <c r="AAX27" s="11"/>
+      <c r="AAY27" s="11"/>
+      <c r="AAZ27" s="11"/>
+      <c r="ABA27" s="11"/>
+      <c r="ABB27" s="11"/>
+      <c r="ABC27" s="11"/>
+      <c r="ABD27" s="11"/>
+      <c r="ABE27" s="11"/>
+      <c r="ABF27" s="11"/>
+      <c r="ABG27" s="11"/>
+      <c r="ABH27" s="11"/>
+      <c r="ABI27" s="11"/>
+      <c r="ABJ27" s="11"/>
+      <c r="ABK27" s="11"/>
+      <c r="ABL27" s="11"/>
+      <c r="ABM27" s="11"/>
+      <c r="ABN27" s="11"/>
+      <c r="ABO27" s="11"/>
+      <c r="ABP27" s="11"/>
+      <c r="ABQ27" s="11"/>
+      <c r="ABR27" s="11"/>
+      <c r="ABS27" s="11"/>
+      <c r="ABT27" s="11"/>
+      <c r="ABU27" s="11"/>
+      <c r="ABV27" s="11"/>
+      <c r="ABW27" s="11"/>
+      <c r="ABX27" s="11"/>
+      <c r="ABY27" s="11"/>
+      <c r="ABZ27" s="11"/>
+      <c r="ACA27" s="11"/>
+      <c r="ACB27" s="11"/>
+      <c r="ACC27" s="11"/>
+      <c r="ACD27" s="11"/>
+      <c r="ACE27" s="11"/>
+      <c r="ACF27" s="11"/>
+      <c r="ACG27" s="11"/>
+      <c r="ACH27" s="11"/>
+      <c r="ACI27" s="11"/>
+      <c r="ACJ27" s="11"/>
+      <c r="ACK27" s="11"/>
+      <c r="ACL27" s="11"/>
+      <c r="ACM27" s="11"/>
+      <c r="ACN27" s="11"/>
+      <c r="ACO27" s="11"/>
+      <c r="ACP27" s="11"/>
+      <c r="ACQ27" s="11"/>
+      <c r="ACR27" s="11"/>
+      <c r="ACS27" s="11"/>
+      <c r="ACT27" s="11"/>
+      <c r="ACU27" s="11"/>
+      <c r="ACV27" s="11"/>
+      <c r="ACW27" s="11"/>
+      <c r="ACX27" s="11"/>
+      <c r="ACY27" s="11"/>
+      <c r="ACZ27" s="11"/>
+      <c r="ADA27" s="11"/>
+      <c r="ADB27" s="11"/>
+      <c r="ADC27" s="11"/>
+      <c r="ADD27" s="11"/>
+      <c r="ADE27" s="11"/>
+      <c r="ADF27" s="11"/>
+      <c r="ADG27" s="11"/>
+      <c r="ADH27" s="11"/>
+      <c r="ADI27" s="11"/>
+      <c r="ADJ27" s="11"/>
+      <c r="ADK27" s="11"/>
+      <c r="ADL27" s="11"/>
+      <c r="ADM27" s="11"/>
+      <c r="ADN27" s="11"/>
+      <c r="ADO27" s="11"/>
+      <c r="ADP27" s="11"/>
+      <c r="ADQ27" s="11"/>
+      <c r="ADR27" s="11"/>
+      <c r="ADS27" s="11"/>
+      <c r="ADT27" s="11"/>
+      <c r="ADU27" s="11"/>
+      <c r="ADV27" s="11"/>
+      <c r="ADW27" s="11"/>
+      <c r="ADX27" s="11"/>
+      <c r="ADY27" s="11"/>
+      <c r="ADZ27" s="11"/>
+      <c r="AEA27" s="11"/>
+      <c r="AEB27" s="11"/>
+      <c r="AEC27" s="11"/>
+      <c r="AED27" s="11"/>
+      <c r="AEE27" s="11"/>
+      <c r="AEF27" s="11"/>
+      <c r="AEG27" s="11"/>
+      <c r="AEH27" s="11"/>
+      <c r="AEI27" s="11"/>
+      <c r="AEJ27" s="11"/>
+      <c r="AEK27" s="11"/>
+      <c r="AEL27" s="11"/>
+      <c r="AEM27" s="11"/>
+      <c r="AEN27" s="11"/>
+      <c r="AEO27" s="11"/>
+      <c r="AEP27" s="11"/>
+      <c r="AEQ27" s="11"/>
+      <c r="AER27" s="11"/>
+      <c r="AES27" s="11"/>
+      <c r="AET27" s="11"/>
+      <c r="AEU27" s="11"/>
+      <c r="AEV27" s="11"/>
+      <c r="AEW27" s="11"/>
+      <c r="AEX27" s="11"/>
+      <c r="AEY27" s="11"/>
+      <c r="AEZ27" s="11"/>
+      <c r="AFA27" s="11"/>
+      <c r="AFB27" s="11"/>
+      <c r="AFC27" s="11"/>
+      <c r="AFD27" s="11"/>
+      <c r="AFE27" s="11"/>
+      <c r="AFF27" s="11"/>
+      <c r="AFG27" s="11"/>
+      <c r="AFH27" s="11"/>
+      <c r="AFI27" s="11"/>
+      <c r="AFJ27" s="11"/>
+      <c r="AFK27" s="11"/>
+      <c r="AFL27" s="11"/>
+      <c r="AFM27" s="11"/>
+      <c r="AFN27" s="11"/>
+      <c r="AFO27" s="11"/>
+      <c r="AFP27" s="11"/>
+      <c r="AFQ27" s="11"/>
+      <c r="AFR27" s="11"/>
+      <c r="AFS27" s="11"/>
+      <c r="AFT27" s="11"/>
+      <c r="AFU27" s="11"/>
+      <c r="AFV27" s="11"/>
+      <c r="AFW27" s="11"/>
+      <c r="AFX27" s="11"/>
+      <c r="AFY27" s="11"/>
+      <c r="AFZ27" s="11"/>
+      <c r="AGA27" s="11"/>
+      <c r="AGB27" s="11"/>
+      <c r="AGC27" s="11"/>
+      <c r="AGD27" s="11"/>
+      <c r="AGE27" s="11"/>
+      <c r="AGF27" s="11"/>
+      <c r="AGG27" s="11"/>
+      <c r="AGH27" s="11"/>
+      <c r="AGI27" s="11"/>
+      <c r="AGJ27" s="11"/>
+      <c r="AGK27" s="11"/>
+      <c r="AGL27" s="11"/>
+      <c r="AGM27" s="11"/>
+      <c r="AGN27" s="11"/>
+      <c r="AGO27" s="11"/>
+      <c r="AGP27" s="11"/>
+      <c r="AGQ27" s="11"/>
+      <c r="AGR27" s="11"/>
+      <c r="AGS27" s="11"/>
+      <c r="AGT27" s="11"/>
+      <c r="AGU27" s="11"/>
+      <c r="AGV27" s="11"/>
+      <c r="AGW27" s="11"/>
+      <c r="AGX27" s="11"/>
+      <c r="AGY27" s="11"/>
+      <c r="AGZ27" s="11"/>
+      <c r="AHA27" s="11"/>
+      <c r="AHB27" s="11"/>
+      <c r="AHC27" s="11"/>
+      <c r="AHD27" s="11"/>
+      <c r="AHE27" s="11"/>
+      <c r="AHF27" s="11"/>
+      <c r="AHG27" s="11"/>
+      <c r="AHH27" s="11"/>
+      <c r="AHI27" s="11"/>
+      <c r="AHJ27" s="11"/>
+      <c r="AHK27" s="11"/>
+      <c r="AHL27" s="11"/>
+      <c r="AHM27" s="11"/>
+      <c r="AHN27" s="11"/>
+      <c r="AHO27" s="11"/>
+      <c r="AHP27" s="11"/>
+      <c r="AHQ27" s="11"/>
+      <c r="AHR27" s="11"/>
+      <c r="AHS27" s="11"/>
+      <c r="AHT27" s="11"/>
+      <c r="AHU27" s="11"/>
+      <c r="AHV27" s="11"/>
+      <c r="AHW27" s="11"/>
+      <c r="AHX27" s="11"/>
+      <c r="AHY27" s="11"/>
+      <c r="AHZ27" s="11"/>
+      <c r="AIA27" s="11"/>
+      <c r="AIB27" s="11"/>
+      <c r="AIC27" s="11"/>
+      <c r="AID27" s="11"/>
+      <c r="AIE27" s="11"/>
+      <c r="AIF27" s="11"/>
+      <c r="AIG27" s="11"/>
+      <c r="AIH27" s="11"/>
+      <c r="AII27" s="11"/>
+      <c r="AIJ27" s="11"/>
+      <c r="AIK27" s="11"/>
+      <c r="AIL27" s="11"/>
+      <c r="AIM27" s="11"/>
+      <c r="AIN27" s="11"/>
+      <c r="AIO27" s="11"/>
+      <c r="AIP27" s="11"/>
+      <c r="AIQ27" s="11"/>
+      <c r="AIR27" s="11"/>
+      <c r="AIS27" s="11"/>
+      <c r="AIT27" s="11"/>
+      <c r="AIU27" s="11"/>
+      <c r="AIV27" s="11"/>
+      <c r="AIW27" s="11"/>
+      <c r="AIX27" s="11"/>
+      <c r="AIY27" s="11"/>
+      <c r="AIZ27" s="11"/>
+      <c r="AJA27" s="11"/>
+      <c r="AJB27" s="11"/>
+      <c r="AJC27" s="11"/>
+      <c r="AJD27" s="11"/>
+      <c r="AJE27" s="11"/>
+      <c r="AJF27" s="11"/>
+      <c r="AJG27" s="11"/>
+      <c r="AJH27" s="11"/>
+      <c r="AJI27" s="11"/>
+      <c r="AJJ27" s="11"/>
+      <c r="AJK27" s="11"/>
+      <c r="AJL27" s="11"/>
+      <c r="AJM27" s="11"/>
+      <c r="AJN27" s="11"/>
+      <c r="AJO27" s="11"/>
+      <c r="AJP27" s="11"/>
+      <c r="AJQ27" s="11"/>
+      <c r="AJR27" s="11"/>
+      <c r="AJS27" s="11"/>
+      <c r="AJT27" s="11"/>
+      <c r="AJU27" s="11"/>
+      <c r="AJV27" s="11"/>
+      <c r="AJW27" s="11"/>
+      <c r="AJX27" s="11"/>
+      <c r="AJY27" s="11"/>
+      <c r="AJZ27" s="11"/>
+      <c r="AKA27" s="11"/>
+      <c r="AKB27" s="11"/>
+      <c r="AKC27" s="11"/>
+      <c r="AKD27" s="11"/>
+      <c r="AKE27" s="11"/>
+      <c r="AKF27" s="11"/>
+      <c r="AKG27" s="11"/>
+      <c r="AKH27" s="11"/>
+      <c r="AKI27" s="11"/>
+      <c r="AKJ27" s="11"/>
+      <c r="AKK27" s="11"/>
+      <c r="AKL27" s="11"/>
+      <c r="AKM27" s="11"/>
+      <c r="AKN27" s="11"/>
+      <c r="AKO27" s="11"/>
+      <c r="AKP27" s="11"/>
+      <c r="AKQ27" s="11"/>
+      <c r="AKR27" s="11"/>
+      <c r="AKS27" s="11"/>
+      <c r="AKT27" s="11"/>
+      <c r="AKU27" s="11"/>
+      <c r="AKV27" s="11"/>
+      <c r="AKW27" s="11"/>
+      <c r="AKX27" s="11"/>
+      <c r="AKY27" s="11"/>
+      <c r="AKZ27" s="11"/>
+      <c r="ALA27" s="11"/>
+      <c r="ALB27" s="11"/>
+      <c r="ALC27" s="11"/>
+      <c r="ALD27" s="11"/>
+      <c r="ALE27" s="11"/>
+      <c r="ALF27" s="11"/>
+      <c r="ALG27" s="11"/>
+      <c r="ALH27" s="11"/>
+      <c r="ALI27" s="11"/>
+      <c r="ALJ27" s="11"/>
+      <c r="ALK27" s="11"/>
+      <c r="ALL27" s="11"/>
+      <c r="ALM27" s="11"/>
+      <c r="ALN27" s="11"/>
+      <c r="ALO27" s="11"/>
+      <c r="ALP27" s="11"/>
+      <c r="ALQ27" s="11"/>
+      <c r="ALR27" s="11"/>
+      <c r="ALS27" s="11"/>
+      <c r="ALT27" s="11"/>
+      <c r="ALU27" s="11"/>
+      <c r="ALV27" s="11"/>
+      <c r="ALW27" s="11"/>
+      <c r="ALX27" s="11"/>
+      <c r="ALY27" s="11"/>
+      <c r="ALZ27" s="11"/>
+      <c r="AMA27" s="11"/>
+      <c r="AMB27" s="11"/>
+      <c r="AMC27" s="11"/>
+      <c r="AMD27" s="11"/>
+      <c r="AME27" s="11"/>
+      <c r="AMF27" s="11"/>
+      <c r="AMG27" s="11"/>
+      <c r="AMH27" s="11"/>
+      <c r="AMI27" s="11"/>
+      <c r="AMJ27" s="11"/>
     </row>
-    <row r="27" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="2" t="s">
+    <row r="28" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C28" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="S27" s="2"/>
-      <c r="T27" s="2"/>
-      <c r="U27" s="2"/>
-      <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
-      <c r="X27" s="2"/>
-      <c r="Y27" s="2"/>
-      <c r="Z27" s="2"/>
-      <c r="AA27" s="3"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
-      <c r="AD27" s="3"/>
-      <c r="AE27" s="3"/>
-      <c r="AF27" s="3"/>
-      <c r="AG27" s="3"/>
-      <c r="AH27" s="3"/>
-      <c r="AI27" s="3"/>
-      <c r="AJ27" s="3"/>
-      <c r="AK27" s="3"/>
-      <c r="AL27" s="3"/>
-      <c r="AM27" s="3"/>
-      <c r="AN27" s="3"/>
-      <c r="AO27" s="3"/>
-      <c r="AP27" s="3"/>
-      <c r="AQ27" s="3"/>
-      <c r="AR27" s="3"/>
-      <c r="AS27" s="3"/>
-      <c r="AT27" s="3"/>
-      <c r="AU27" s="3"/>
-      <c r="AV27" s="3"/>
-      <c r="AW27" s="3"/>
-      <c r="AX27" s="3"/>
-      <c r="AY27" s="3"/>
-      <c r="AZ27" s="3"/>
-      <c r="BA27" s="3"/>
-      <c r="BB27" s="3"/>
-      <c r="BC27" s="3"/>
-      <c r="BD27" s="3"/>
-      <c r="BE27" s="3"/>
-      <c r="BF27" s="3"/>
-      <c r="BG27" s="3"/>
-      <c r="BH27" s="3"/>
-      <c r="BI27" s="3"/>
-      <c r="BJ27" s="3"/>
-      <c r="BK27" s="3"/>
-      <c r="BL27" s="3"/>
-      <c r="BM27" s="3"/>
-      <c r="BN27" s="3"/>
-      <c r="BO27" s="3"/>
-      <c r="BP27" s="3"/>
-      <c r="BQ27" s="3"/>
-      <c r="BR27" s="3"/>
-      <c r="BS27" s="3"/>
-      <c r="BT27" s="3"/>
-      <c r="BU27" s="3"/>
-      <c r="BV27" s="3"/>
-      <c r="BW27" s="3"/>
-      <c r="BX27" s="3"/>
-      <c r="BY27" s="3"/>
-      <c r="BZ27" s="3"/>
-      <c r="CA27" s="3"/>
-      <c r="CB27" s="3"/>
-      <c r="CC27" s="3"/>
-      <c r="CD27" s="3"/>
-      <c r="CE27" s="3"/>
-      <c r="CF27" s="3"/>
-      <c r="CG27" s="3"/>
-      <c r="CH27" s="3"/>
-      <c r="CI27" s="3"/>
-      <c r="CJ27" s="3"/>
-      <c r="CK27" s="3"/>
-      <c r="CL27" s="3"/>
-      <c r="CM27" s="3"/>
-      <c r="CN27" s="3"/>
-      <c r="CO27" s="3"/>
-      <c r="CP27" s="3"/>
-      <c r="CQ27" s="3"/>
-      <c r="CR27" s="3"/>
-      <c r="CS27" s="3"/>
-      <c r="CT27" s="3"/>
-      <c r="CU27" s="3"/>
-      <c r="CV27" s="3"/>
-      <c r="CW27" s="3"/>
-      <c r="CX27" s="3"/>
-      <c r="CY27" s="3"/>
-      <c r="CZ27" s="3"/>
-      <c r="DA27" s="3"/>
-      <c r="DB27" s="3"/>
-      <c r="DC27" s="3"/>
-      <c r="DD27" s="3"/>
-      <c r="DE27" s="3"/>
-      <c r="DF27" s="3"/>
-      <c r="DG27" s="3"/>
-      <c r="DH27" s="3"/>
-      <c r="DI27" s="3"/>
-      <c r="DJ27" s="3"/>
-      <c r="DK27" s="3"/>
-      <c r="DL27" s="3"/>
-      <c r="DM27" s="3"/>
-      <c r="DN27" s="3"/>
-      <c r="DO27" s="3"/>
-      <c r="DP27" s="3"/>
-      <c r="DQ27" s="3"/>
-      <c r="DR27" s="3"/>
-      <c r="DS27" s="3"/>
-      <c r="DT27" s="3"/>
-      <c r="DU27" s="3"/>
-      <c r="DV27" s="3"/>
-      <c r="DW27" s="3"/>
-      <c r="DX27" s="3"/>
-      <c r="DY27" s="3"/>
-      <c r="DZ27" s="3"/>
-      <c r="EA27" s="3"/>
-      <c r="EB27" s="3"/>
-      <c r="EC27" s="3"/>
-      <c r="ED27" s="3"/>
-      <c r="EE27" s="3"/>
-      <c r="EF27" s="3"/>
-      <c r="EG27" s="3"/>
-      <c r="EH27" s="3"/>
-      <c r="EI27" s="3"/>
-      <c r="EJ27" s="3"/>
-      <c r="EK27" s="3"/>
-      <c r="EL27" s="3"/>
-      <c r="EM27" s="3"/>
-      <c r="EN27" s="3"/>
-      <c r="EO27" s="3"/>
-      <c r="EP27" s="3"/>
-      <c r="EQ27" s="3"/>
-      <c r="ER27" s="3"/>
-      <c r="ES27" s="3"/>
-      <c r="ET27" s="3"/>
-      <c r="EU27" s="3"/>
-      <c r="EV27" s="3"/>
-      <c r="EW27" s="3"/>
-      <c r="EX27" s="3"/>
-      <c r="EY27" s="3"/>
-      <c r="EZ27" s="3"/>
-      <c r="FA27" s="3"/>
-      <c r="FB27" s="3"/>
-      <c r="FC27" s="3"/>
-      <c r="FD27" s="3"/>
-      <c r="FE27" s="3"/>
-      <c r="FF27" s="3"/>
-      <c r="FG27" s="3"/>
-      <c r="FH27" s="3"/>
-      <c r="FI27" s="3"/>
-      <c r="FJ27" s="3"/>
-      <c r="FK27" s="3"/>
-      <c r="FL27" s="3"/>
-      <c r="FM27" s="3"/>
-      <c r="FN27" s="3"/>
-      <c r="FO27" s="3"/>
-      <c r="FP27" s="3"/>
-      <c r="FQ27" s="3"/>
-      <c r="FR27" s="3"/>
-      <c r="FS27" s="3"/>
-      <c r="FT27" s="3"/>
-      <c r="FU27" s="3"/>
-      <c r="FV27" s="3"/>
-      <c r="FW27" s="3"/>
-      <c r="FX27" s="3"/>
-      <c r="FY27" s="3"/>
-      <c r="FZ27" s="3"/>
-      <c r="GA27" s="3"/>
-      <c r="GB27" s="3"/>
-      <c r="GC27" s="3"/>
-      <c r="GD27" s="3"/>
-      <c r="GE27" s="3"/>
-      <c r="GF27" s="3"/>
-      <c r="GG27" s="3"/>
-      <c r="GH27" s="3"/>
-      <c r="GI27" s="3"/>
-      <c r="GJ27" s="3"/>
-      <c r="GK27" s="3"/>
-      <c r="GL27" s="3"/>
-      <c r="GM27" s="3"/>
-      <c r="GN27" s="3"/>
-      <c r="GO27" s="3"/>
-      <c r="GP27" s="3"/>
-      <c r="GQ27" s="3"/>
-      <c r="GR27" s="3"/>
-      <c r="GS27" s="3"/>
-      <c r="GT27" s="3"/>
-      <c r="GU27" s="3"/>
-      <c r="GV27" s="3"/>
-      <c r="GW27" s="3"/>
-      <c r="GX27" s="3"/>
-      <c r="GY27" s="3"/>
-      <c r="GZ27" s="3"/>
-      <c r="HA27" s="3"/>
-      <c r="HB27" s="3"/>
-      <c r="HC27" s="3"/>
-      <c r="HD27" s="3"/>
-      <c r="HE27" s="3"/>
-      <c r="HF27" s="3"/>
-      <c r="HG27" s="3"/>
-      <c r="HH27" s="3"/>
-      <c r="HI27" s="3"/>
-      <c r="HJ27" s="3"/>
-      <c r="HK27" s="3"/>
-      <c r="HL27" s="3"/>
-      <c r="HM27" s="3"/>
-      <c r="HN27" s="3"/>
-      <c r="HO27" s="3"/>
-      <c r="HP27" s="3"/>
-      <c r="HQ27" s="3"/>
-      <c r="HR27" s="3"/>
-      <c r="HS27" s="3"/>
-      <c r="HT27" s="3"/>
-      <c r="HU27" s="3"/>
-      <c r="HV27" s="3"/>
-      <c r="HW27" s="3"/>
-      <c r="HX27" s="3"/>
-      <c r="HY27" s="3"/>
-      <c r="HZ27" s="3"/>
-      <c r="IA27" s="3"/>
-      <c r="IB27" s="3"/>
-      <c r="IC27" s="3"/>
-      <c r="ID27" s="3"/>
-      <c r="IE27" s="3"/>
-      <c r="IF27" s="3"/>
-      <c r="IG27" s="3"/>
-      <c r="IH27" s="3"/>
-      <c r="II27" s="3"/>
-      <c r="IJ27" s="3"/>
-      <c r="IK27" s="3"/>
-      <c r="IL27" s="3"/>
-      <c r="IM27" s="3"/>
-      <c r="IN27" s="3"/>
-      <c r="IO27" s="3"/>
-      <c r="IP27" s="3"/>
-      <c r="IQ27" s="3"/>
-      <c r="IR27" s="3"/>
-      <c r="IS27" s="3"/>
-      <c r="IT27" s="3"/>
-      <c r="IU27" s="3"/>
-      <c r="IV27" s="3"/>
-      <c r="IW27" s="3"/>
-      <c r="IX27" s="3"/>
-      <c r="IY27" s="3"/>
-      <c r="IZ27" s="3"/>
-      <c r="JA27" s="3"/>
-      <c r="JB27" s="3"/>
-      <c r="JC27" s="3"/>
-      <c r="JD27" s="3"/>
-      <c r="JE27" s="3"/>
-      <c r="JF27" s="3"/>
-      <c r="JG27" s="3"/>
-      <c r="JH27" s="3"/>
-      <c r="JI27" s="3"/>
-      <c r="JJ27" s="3"/>
-      <c r="JK27" s="3"/>
-      <c r="JL27" s="3"/>
-      <c r="JM27" s="3"/>
-      <c r="JN27" s="3"/>
-      <c r="JO27" s="3"/>
-      <c r="JP27" s="3"/>
-      <c r="JQ27" s="3"/>
-      <c r="JR27" s="3"/>
-      <c r="JS27" s="3"/>
-      <c r="JT27" s="3"/>
-      <c r="JU27" s="3"/>
-      <c r="JV27" s="3"/>
-      <c r="JW27" s="3"/>
-      <c r="JX27" s="3"/>
-      <c r="JY27" s="3"/>
-      <c r="JZ27" s="3"/>
-      <c r="KA27" s="3"/>
-      <c r="KB27" s="3"/>
-      <c r="KC27" s="3"/>
-      <c r="KD27" s="3"/>
-      <c r="KE27" s="3"/>
-      <c r="KF27" s="3"/>
-      <c r="KG27" s="3"/>
-      <c r="KH27" s="3"/>
-      <c r="KI27" s="3"/>
-      <c r="KJ27" s="3"/>
-      <c r="KK27" s="3"/>
-      <c r="KL27" s="3"/>
-      <c r="KM27" s="3"/>
-      <c r="KN27" s="3"/>
-      <c r="KO27" s="3"/>
-      <c r="KP27" s="3"/>
-      <c r="KQ27" s="3"/>
-      <c r="KR27" s="3"/>
-      <c r="KS27" s="3"/>
-      <c r="KT27" s="3"/>
-      <c r="KU27" s="3"/>
-      <c r="KV27" s="3"/>
-      <c r="KW27" s="3"/>
-      <c r="KX27" s="3"/>
-      <c r="KY27" s="3"/>
-      <c r="KZ27" s="3"/>
-      <c r="LA27" s="3"/>
-      <c r="LB27" s="3"/>
-      <c r="LC27" s="3"/>
-      <c r="LD27" s="3"/>
-      <c r="LE27" s="3"/>
-      <c r="LF27" s="3"/>
-      <c r="LG27" s="3"/>
-      <c r="LH27" s="3"/>
-      <c r="LI27" s="3"/>
-      <c r="LJ27" s="3"/>
-      <c r="LK27" s="3"/>
-      <c r="LL27" s="3"/>
-      <c r="LM27" s="3"/>
-      <c r="LN27" s="3"/>
-      <c r="LO27" s="3"/>
-      <c r="LP27" s="3"/>
-      <c r="LQ27" s="3"/>
-      <c r="LR27" s="3"/>
-      <c r="LS27" s="3"/>
-      <c r="LT27" s="3"/>
-      <c r="LU27" s="3"/>
-      <c r="LV27" s="3"/>
-      <c r="LW27" s="3"/>
-      <c r="LX27" s="3"/>
-      <c r="LY27" s="3"/>
-      <c r="LZ27" s="3"/>
-      <c r="MA27" s="3"/>
-      <c r="MB27" s="3"/>
-      <c r="MC27" s="3"/>
-      <c r="MD27" s="3"/>
-      <c r="ME27" s="3"/>
-      <c r="MF27" s="3"/>
-      <c r="MG27" s="3"/>
-      <c r="MH27" s="3"/>
-      <c r="MI27" s="3"/>
-      <c r="MJ27" s="3"/>
-      <c r="MK27" s="3"/>
-      <c r="ML27" s="3"/>
-      <c r="MM27" s="3"/>
-      <c r="MN27" s="3"/>
-      <c r="MO27" s="3"/>
-      <c r="MP27" s="3"/>
-      <c r="MQ27" s="3"/>
-      <c r="MR27" s="3"/>
-      <c r="MS27" s="3"/>
-      <c r="MT27" s="3"/>
-      <c r="MU27" s="3"/>
-      <c r="MV27" s="3"/>
-      <c r="MW27" s="3"/>
-      <c r="MX27" s="3"/>
-      <c r="MY27" s="3"/>
-      <c r="MZ27" s="3"/>
-      <c r="NA27" s="3"/>
-      <c r="NB27" s="3"/>
-      <c r="NC27" s="3"/>
-      <c r="ND27" s="3"/>
-      <c r="NE27" s="3"/>
-      <c r="NF27" s="3"/>
-      <c r="NG27" s="3"/>
-      <c r="NH27" s="3"/>
-      <c r="NI27" s="3"/>
-      <c r="NJ27" s="3"/>
-      <c r="NK27" s="3"/>
-      <c r="NL27" s="3"/>
-      <c r="NM27" s="3"/>
-      <c r="NN27" s="3"/>
-      <c r="NO27" s="3"/>
-      <c r="NP27" s="3"/>
-      <c r="NQ27" s="3"/>
-      <c r="NR27" s="3"/>
-      <c r="NS27" s="3"/>
-      <c r="NT27" s="3"/>
-      <c r="NU27" s="3"/>
-      <c r="NV27" s="3"/>
-      <c r="NW27" s="3"/>
-      <c r="NX27" s="3"/>
-      <c r="NY27" s="3"/>
-      <c r="NZ27" s="3"/>
-      <c r="OA27" s="3"/>
-      <c r="OB27" s="3"/>
-      <c r="OC27" s="3"/>
-      <c r="OD27" s="3"/>
-      <c r="OE27" s="3"/>
-      <c r="OF27" s="3"/>
-      <c r="OG27" s="3"/>
-      <c r="OH27" s="3"/>
-      <c r="OI27" s="3"/>
-      <c r="OJ27" s="3"/>
-      <c r="OK27" s="3"/>
-      <c r="OL27" s="3"/>
-      <c r="OM27" s="3"/>
-      <c r="ON27" s="3"/>
-      <c r="OO27" s="3"/>
-      <c r="OP27" s="3"/>
-      <c r="OQ27" s="3"/>
-      <c r="OR27" s="3"/>
-      <c r="OS27" s="3"/>
-      <c r="OT27" s="3"/>
-      <c r="OU27" s="3"/>
-      <c r="OV27" s="3"/>
-      <c r="OW27" s="3"/>
-      <c r="OX27" s="3"/>
-      <c r="OY27" s="3"/>
-      <c r="OZ27" s="3"/>
-      <c r="PA27" s="3"/>
-      <c r="PB27" s="3"/>
-      <c r="PC27" s="3"/>
-      <c r="PD27" s="3"/>
-      <c r="PE27" s="3"/>
-      <c r="PF27" s="3"/>
-      <c r="PG27" s="3"/>
-      <c r="PH27" s="3"/>
-      <c r="PI27" s="3"/>
-      <c r="PJ27" s="3"/>
-      <c r="PK27" s="3"/>
-      <c r="PL27" s="3"/>
-      <c r="PM27" s="3"/>
-      <c r="PN27" s="3"/>
-      <c r="PO27" s="3"/>
-      <c r="PP27" s="3"/>
-      <c r="PQ27" s="3"/>
-      <c r="PR27" s="3"/>
-      <c r="PS27" s="3"/>
-      <c r="PT27" s="3"/>
-      <c r="PU27" s="3"/>
-      <c r="PV27" s="3"/>
-      <c r="PW27" s="3"/>
-      <c r="PX27" s="3"/>
-      <c r="PY27" s="3"/>
-      <c r="PZ27" s="3"/>
-      <c r="QA27" s="3"/>
-      <c r="QB27" s="3"/>
-      <c r="QC27" s="3"/>
-      <c r="QD27" s="3"/>
-      <c r="QE27" s="3"/>
-      <c r="QF27" s="3"/>
-      <c r="QG27" s="3"/>
-      <c r="QH27" s="3"/>
-      <c r="QI27" s="3"/>
-      <c r="QJ27" s="3"/>
-      <c r="QK27" s="3"/>
-      <c r="QL27" s="3"/>
-      <c r="QM27" s="3"/>
-      <c r="QN27" s="3"/>
-      <c r="QO27" s="3"/>
-      <c r="QP27" s="3"/>
-      <c r="QQ27" s="3"/>
-      <c r="QR27" s="3"/>
-      <c r="QS27" s="3"/>
-      <c r="QT27" s="3"/>
-      <c r="QU27" s="3"/>
-      <c r="QV27" s="3"/>
-      <c r="QW27" s="3"/>
-      <c r="QX27" s="3"/>
-      <c r="QY27" s="3"/>
-      <c r="QZ27" s="3"/>
-      <c r="RA27" s="3"/>
-      <c r="RB27" s="3"/>
-      <c r="RC27" s="3"/>
-      <c r="RD27" s="3"/>
-      <c r="RE27" s="3"/>
-      <c r="RF27" s="3"/>
-      <c r="RG27" s="3"/>
-      <c r="RH27" s="3"/>
-      <c r="RI27" s="3"/>
-      <c r="RJ27" s="3"/>
-      <c r="RK27" s="3"/>
-      <c r="RL27" s="3"/>
-      <c r="RM27" s="3"/>
-      <c r="RN27" s="3"/>
-      <c r="RO27" s="3"/>
-      <c r="RP27" s="3"/>
-      <c r="RQ27" s="3"/>
-      <c r="RR27" s="3"/>
-      <c r="RS27" s="3"/>
-      <c r="RT27" s="3"/>
-      <c r="RU27" s="3"/>
-      <c r="RV27" s="3"/>
-      <c r="RW27" s="3"/>
-      <c r="RX27" s="3"/>
-      <c r="RY27" s="3"/>
-      <c r="RZ27" s="3"/>
-      <c r="SA27" s="3"/>
-      <c r="SB27" s="3"/>
-      <c r="SC27" s="3"/>
-      <c r="SD27" s="3"/>
-      <c r="SE27" s="3"/>
-      <c r="SF27" s="3"/>
-      <c r="SG27" s="3"/>
-      <c r="SH27" s="3"/>
-      <c r="SI27" s="3"/>
-      <c r="SJ27" s="3"/>
-      <c r="SK27" s="3"/>
-      <c r="SL27" s="3"/>
-      <c r="SM27" s="3"/>
-      <c r="SN27" s="3"/>
-      <c r="SO27" s="3"/>
-      <c r="SP27" s="3"/>
-      <c r="SQ27" s="3"/>
-      <c r="SR27" s="3"/>
-      <c r="SS27" s="3"/>
-      <c r="ST27" s="3"/>
-      <c r="SU27" s="3"/>
-      <c r="SV27" s="3"/>
-      <c r="SW27" s="3"/>
-      <c r="SX27" s="3"/>
-      <c r="SY27" s="3"/>
-      <c r="SZ27" s="3"/>
-      <c r="TA27" s="3"/>
-      <c r="TB27" s="3"/>
-      <c r="TC27" s="3"/>
-      <c r="TD27" s="3"/>
-      <c r="TE27" s="3"/>
-      <c r="TF27" s="3"/>
-      <c r="TG27" s="3"/>
-      <c r="TH27" s="3"/>
-      <c r="TI27" s="3"/>
-      <c r="TJ27" s="3"/>
-      <c r="TK27" s="3"/>
-      <c r="TL27" s="3"/>
-      <c r="TM27" s="3"/>
-      <c r="TN27" s="3"/>
-      <c r="TO27" s="3"/>
-      <c r="TP27" s="3"/>
-      <c r="TQ27" s="3"/>
-      <c r="TR27" s="3"/>
-      <c r="TS27" s="3"/>
-      <c r="TT27" s="3"/>
-      <c r="TU27" s="3"/>
-      <c r="TV27" s="3"/>
-      <c r="TW27" s="3"/>
-      <c r="TX27" s="3"/>
-      <c r="TY27" s="3"/>
-      <c r="TZ27" s="3"/>
-      <c r="UA27" s="3"/>
-      <c r="UB27" s="3"/>
-      <c r="UC27" s="3"/>
-      <c r="UD27" s="3"/>
-      <c r="UE27" s="3"/>
-      <c r="UF27" s="3"/>
-      <c r="UG27" s="3"/>
-      <c r="UH27" s="3"/>
-      <c r="UI27" s="3"/>
-      <c r="UJ27" s="3"/>
-      <c r="UK27" s="3"/>
-      <c r="UL27" s="3"/>
-      <c r="UM27" s="3"/>
-      <c r="UN27" s="3"/>
-      <c r="UO27" s="3"/>
-      <c r="UP27" s="3"/>
-      <c r="UQ27" s="3"/>
-      <c r="UR27" s="3"/>
-      <c r="US27" s="3"/>
-      <c r="UT27" s="3"/>
-      <c r="UU27" s="3"/>
-      <c r="UV27" s="3"/>
-      <c r="UW27" s="3"/>
-      <c r="UX27" s="3"/>
-      <c r="UY27" s="3"/>
-      <c r="UZ27" s="3"/>
-      <c r="VA27" s="3"/>
-      <c r="VB27" s="3"/>
-      <c r="VC27" s="3"/>
-      <c r="VD27" s="3"/>
-      <c r="VE27" s="3"/>
-      <c r="VF27" s="3"/>
-      <c r="VG27" s="3"/>
-      <c r="VH27" s="3"/>
-      <c r="VI27" s="3"/>
-      <c r="VJ27" s="3"/>
-      <c r="VK27" s="3"/>
-      <c r="VL27" s="3"/>
-      <c r="VM27" s="3"/>
-      <c r="VN27" s="3"/>
-      <c r="VO27" s="3"/>
-      <c r="VP27" s="3"/>
-      <c r="VQ27" s="3"/>
-      <c r="VR27" s="3"/>
-      <c r="VS27" s="3"/>
-      <c r="VT27" s="3"/>
-      <c r="VU27" s="3"/>
-      <c r="VV27" s="3"/>
-      <c r="VW27" s="3"/>
-      <c r="VX27" s="3"/>
-      <c r="VY27" s="3"/>
-      <c r="VZ27" s="3"/>
-      <c r="WA27" s="3"/>
-      <c r="WB27" s="3"/>
-      <c r="WC27" s="3"/>
-      <c r="WD27" s="3"/>
-      <c r="WE27" s="3"/>
-      <c r="WF27" s="3"/>
-      <c r="WG27" s="3"/>
-      <c r="WH27" s="3"/>
-      <c r="WI27" s="3"/>
-      <c r="WJ27" s="3"/>
-      <c r="WK27" s="3"/>
-      <c r="WL27" s="3"/>
-      <c r="WM27" s="3"/>
-      <c r="WN27" s="3"/>
-      <c r="WO27" s="3"/>
-      <c r="WP27" s="3"/>
-      <c r="WQ27" s="3"/>
-      <c r="WR27" s="3"/>
-      <c r="WS27" s="3"/>
-      <c r="WT27" s="3"/>
-      <c r="WU27" s="3"/>
-      <c r="WV27" s="3"/>
-      <c r="WW27" s="3"/>
-      <c r="WX27" s="3"/>
-      <c r="WY27" s="3"/>
-      <c r="WZ27" s="3"/>
-      <c r="XA27" s="3"/>
-      <c r="XB27" s="3"/>
-      <c r="XC27" s="3"/>
-      <c r="XD27" s="3"/>
-      <c r="XE27" s="3"/>
-      <c r="XF27" s="3"/>
-      <c r="XG27" s="3"/>
-      <c r="XH27" s="3"/>
-      <c r="XI27" s="3"/>
-      <c r="XJ27" s="3"/>
-      <c r="XK27" s="3"/>
-      <c r="XL27" s="3"/>
-      <c r="XM27" s="3"/>
-      <c r="XN27" s="3"/>
-      <c r="XO27" s="3"/>
-      <c r="XP27" s="3"/>
-      <c r="XQ27" s="3"/>
-      <c r="XR27" s="3"/>
-      <c r="XS27" s="3"/>
-      <c r="XT27" s="3"/>
-      <c r="XU27" s="3"/>
-      <c r="XV27" s="3"/>
-      <c r="XW27" s="3"/>
-      <c r="XX27" s="3"/>
-      <c r="XY27" s="3"/>
-      <c r="XZ27" s="3"/>
-      <c r="YA27" s="3"/>
-      <c r="YB27" s="3"/>
-      <c r="YC27" s="3"/>
-      <c r="YD27" s="3"/>
-      <c r="YE27" s="3"/>
-      <c r="YF27" s="3"/>
-      <c r="YG27" s="3"/>
-      <c r="YH27" s="3"/>
-      <c r="YI27" s="3"/>
-      <c r="YJ27" s="3"/>
-      <c r="YK27" s="3"/>
-      <c r="YL27" s="3"/>
-      <c r="YM27" s="3"/>
-      <c r="YN27" s="3"/>
-      <c r="YO27" s="3"/>
-      <c r="YP27" s="3"/>
-      <c r="YQ27" s="3"/>
-      <c r="YR27" s="3"/>
-      <c r="YS27" s="3"/>
-      <c r="YT27" s="3"/>
-      <c r="YU27" s="3"/>
-      <c r="YV27" s="3"/>
-      <c r="YW27" s="3"/>
-      <c r="YX27" s="3"/>
-      <c r="YY27" s="3"/>
-      <c r="YZ27" s="3"/>
-      <c r="ZA27" s="3"/>
-      <c r="ZB27" s="3"/>
-      <c r="ZC27" s="3"/>
-      <c r="ZD27" s="3"/>
-      <c r="ZE27" s="3"/>
-      <c r="ZF27" s="3"/>
-      <c r="ZG27" s="3"/>
-      <c r="ZH27" s="3"/>
-      <c r="ZI27" s="3"/>
-      <c r="ZJ27" s="3"/>
-      <c r="ZK27" s="3"/>
-      <c r="ZL27" s="3"/>
-      <c r="ZM27" s="3"/>
-      <c r="ZN27" s="3"/>
-      <c r="ZO27" s="3"/>
-      <c r="ZP27" s="3"/>
-      <c r="ZQ27" s="3"/>
-      <c r="ZR27" s="3"/>
-      <c r="ZS27" s="3"/>
-      <c r="ZT27" s="3"/>
-      <c r="ZU27" s="3"/>
-      <c r="ZV27" s="3"/>
-      <c r="ZW27" s="3"/>
-      <c r="ZX27" s="3"/>
-      <c r="ZY27" s="3"/>
-      <c r="ZZ27" s="3"/>
-      <c r="AAA27" s="3"/>
-      <c r="AAB27" s="3"/>
-      <c r="AAC27" s="3"/>
-      <c r="AAD27" s="3"/>
-      <c r="AAE27" s="3"/>
-      <c r="AAF27" s="3"/>
-      <c r="AAG27" s="3"/>
-      <c r="AAH27" s="3"/>
-      <c r="AAI27" s="3"/>
-      <c r="AAJ27" s="3"/>
-      <c r="AAK27" s="3"/>
-      <c r="AAL27" s="3"/>
-      <c r="AAM27" s="3"/>
-      <c r="AAN27" s="3"/>
-      <c r="AAO27" s="3"/>
-      <c r="AAP27" s="3"/>
-      <c r="AAQ27" s="3"/>
-      <c r="AAR27" s="3"/>
-      <c r="AAS27" s="3"/>
-      <c r="AAT27" s="3"/>
-      <c r="AAU27" s="3"/>
-      <c r="AAV27" s="3"/>
-      <c r="AAW27" s="3"/>
-      <c r="AAX27" s="3"/>
-      <c r="AAY27" s="3"/>
-      <c r="AAZ27" s="3"/>
-      <c r="ABA27" s="3"/>
-      <c r="ABB27" s="3"/>
-      <c r="ABC27" s="3"/>
-      <c r="ABD27" s="3"/>
-      <c r="ABE27" s="3"/>
-      <c r="ABF27" s="3"/>
-      <c r="ABG27" s="3"/>
-      <c r="ABH27" s="3"/>
-      <c r="ABI27" s="3"/>
-      <c r="ABJ27" s="3"/>
-      <c r="ABK27" s="3"/>
-      <c r="ABL27" s="3"/>
-      <c r="ABM27" s="3"/>
-      <c r="ABN27" s="3"/>
-      <c r="ABO27" s="3"/>
-      <c r="ABP27" s="3"/>
-      <c r="ABQ27" s="3"/>
-      <c r="ABR27" s="3"/>
-      <c r="ABS27" s="3"/>
-      <c r="ABT27" s="3"/>
-      <c r="ABU27" s="3"/>
-      <c r="ABV27" s="3"/>
-      <c r="ABW27" s="3"/>
-      <c r="ABX27" s="3"/>
-      <c r="ABY27" s="3"/>
-      <c r="ABZ27" s="3"/>
-      <c r="ACA27" s="3"/>
-      <c r="ACB27" s="3"/>
-      <c r="ACC27" s="3"/>
-      <c r="ACD27" s="3"/>
-      <c r="ACE27" s="3"/>
-      <c r="ACF27" s="3"/>
-      <c r="ACG27" s="3"/>
-      <c r="ACH27" s="3"/>
-      <c r="ACI27" s="3"/>
-      <c r="ACJ27" s="3"/>
-      <c r="ACK27" s="3"/>
-      <c r="ACL27" s="3"/>
-      <c r="ACM27" s="3"/>
-      <c r="ACN27" s="3"/>
-      <c r="ACO27" s="3"/>
-      <c r="ACP27" s="3"/>
-      <c r="ACQ27" s="3"/>
-      <c r="ACR27" s="3"/>
-      <c r="ACS27" s="3"/>
-      <c r="ACT27" s="3"/>
-      <c r="ACU27" s="3"/>
-      <c r="ACV27" s="3"/>
-      <c r="ACW27" s="3"/>
-      <c r="ACX27" s="3"/>
-      <c r="ACY27" s="3"/>
-      <c r="ACZ27" s="3"/>
-      <c r="ADA27" s="3"/>
-      <c r="ADB27" s="3"/>
-      <c r="ADC27" s="3"/>
-      <c r="ADD27" s="3"/>
-      <c r="ADE27" s="3"/>
-      <c r="ADF27" s="3"/>
-      <c r="ADG27" s="3"/>
-      <c r="ADH27" s="3"/>
-      <c r="ADI27" s="3"/>
-      <c r="ADJ27" s="3"/>
-      <c r="ADK27" s="3"/>
-      <c r="ADL27" s="3"/>
-      <c r="ADM27" s="3"/>
-      <c r="ADN27" s="3"/>
-      <c r="ADO27" s="3"/>
-      <c r="ADP27" s="3"/>
-      <c r="ADQ27" s="3"/>
-      <c r="ADR27" s="3"/>
-      <c r="ADS27" s="3"/>
-      <c r="ADT27" s="3"/>
-      <c r="ADU27" s="3"/>
-      <c r="ADV27" s="3"/>
-      <c r="ADW27" s="3"/>
-      <c r="ADX27" s="3"/>
-      <c r="ADY27" s="3"/>
-      <c r="ADZ27" s="3"/>
-      <c r="AEA27" s="3"/>
-      <c r="AEB27" s="3"/>
-      <c r="AEC27" s="3"/>
-      <c r="AED27" s="3"/>
-      <c r="AEE27" s="3"/>
-      <c r="AEF27" s="3"/>
-      <c r="AEG27" s="3"/>
-      <c r="AEH27" s="3"/>
-      <c r="AEI27" s="3"/>
-      <c r="AEJ27" s="3"/>
-      <c r="AEK27" s="3"/>
-      <c r="AEL27" s="3"/>
-      <c r="AEM27" s="3"/>
-      <c r="AEN27" s="3"/>
-      <c r="AEO27" s="3"/>
-      <c r="AEP27" s="3"/>
-      <c r="AEQ27" s="3"/>
-      <c r="AER27" s="3"/>
-      <c r="AES27" s="3"/>
-      <c r="AET27" s="3"/>
-      <c r="AEU27" s="3"/>
-      <c r="AEV27" s="3"/>
-      <c r="AEW27" s="3"/>
-      <c r="AEX27" s="3"/>
-      <c r="AEY27" s="3"/>
-      <c r="AEZ27" s="3"/>
-      <c r="AFA27" s="3"/>
-      <c r="AFB27" s="3"/>
-      <c r="AFC27" s="3"/>
-      <c r="AFD27" s="3"/>
-      <c r="AFE27" s="3"/>
-      <c r="AFF27" s="3"/>
-      <c r="AFG27" s="3"/>
-      <c r="AFH27" s="3"/>
-      <c r="AFI27" s="3"/>
-      <c r="AFJ27" s="3"/>
-      <c r="AFK27" s="3"/>
-      <c r="AFL27" s="3"/>
-      <c r="AFM27" s="3"/>
-      <c r="AFN27" s="3"/>
-      <c r="AFO27" s="3"/>
-      <c r="AFP27" s="3"/>
-      <c r="AFQ27" s="3"/>
-      <c r="AFR27" s="3"/>
-      <c r="AFS27" s="3"/>
-      <c r="AFT27" s="3"/>
-      <c r="AFU27" s="3"/>
-      <c r="AFV27" s="3"/>
-      <c r="AFW27" s="3"/>
-      <c r="AFX27" s="3"/>
-      <c r="AFY27" s="3"/>
-      <c r="AFZ27" s="3"/>
-      <c r="AGA27" s="3"/>
-      <c r="AGB27" s="3"/>
-      <c r="AGC27" s="3"/>
-      <c r="AGD27" s="3"/>
-      <c r="AGE27" s="3"/>
-      <c r="AGF27" s="3"/>
-      <c r="AGG27" s="3"/>
-      <c r="AGH27" s="3"/>
-      <c r="AGI27" s="3"/>
-      <c r="AGJ27" s="3"/>
-      <c r="AGK27" s="3"/>
-      <c r="AGL27" s="3"/>
-      <c r="AGM27" s="3"/>
-      <c r="AGN27" s="3"/>
-      <c r="AGO27" s="3"/>
-      <c r="AGP27" s="3"/>
-      <c r="AGQ27" s="3"/>
-      <c r="AGR27" s="3"/>
-      <c r="AGS27" s="3"/>
-      <c r="AGT27" s="3"/>
-      <c r="AGU27" s="3"/>
-      <c r="AGV27" s="3"/>
-      <c r="AGW27" s="3"/>
-      <c r="AGX27" s="3"/>
-      <c r="AGY27" s="3"/>
-      <c r="AGZ27" s="3"/>
-      <c r="AHA27" s="3"/>
-      <c r="AHB27" s="3"/>
-      <c r="AHC27" s="3"/>
-      <c r="AHD27" s="3"/>
-      <c r="AHE27" s="3"/>
-      <c r="AHF27" s="3"/>
-      <c r="AHG27" s="3"/>
-      <c r="AHH27" s="3"/>
-      <c r="AHI27" s="3"/>
-      <c r="AHJ27" s="3"/>
-      <c r="AHK27" s="3"/>
-      <c r="AHL27" s="3"/>
-      <c r="AHM27" s="3"/>
-      <c r="AHN27" s="3"/>
-      <c r="AHO27" s="3"/>
-      <c r="AHP27" s="3"/>
-      <c r="AHQ27" s="3"/>
-      <c r="AHR27" s="3"/>
-      <c r="AHS27" s="3"/>
-      <c r="AHT27" s="3"/>
-      <c r="AHU27" s="3"/>
-      <c r="AHV27" s="3"/>
-      <c r="AHW27" s="3"/>
-      <c r="AHX27" s="3"/>
-      <c r="AHY27" s="3"/>
-      <c r="AHZ27" s="3"/>
-      <c r="AIA27" s="3"/>
-      <c r="AIB27" s="3"/>
-      <c r="AIC27" s="3"/>
-      <c r="AID27" s="3"/>
-      <c r="AIE27" s="3"/>
-      <c r="AIF27" s="3"/>
-      <c r="AIG27" s="3"/>
-      <c r="AIH27" s="3"/>
-      <c r="AII27" s="3"/>
-      <c r="AIJ27" s="3"/>
-      <c r="AIK27" s="3"/>
-      <c r="AIL27" s="3"/>
-      <c r="AIM27" s="3"/>
-      <c r="AIN27" s="3"/>
-      <c r="AIO27" s="3"/>
-      <c r="AIP27" s="3"/>
-      <c r="AIQ27" s="3"/>
-      <c r="AIR27" s="3"/>
-      <c r="AIS27" s="3"/>
-      <c r="AIT27" s="3"/>
-      <c r="AIU27" s="3"/>
-      <c r="AIV27" s="3"/>
-      <c r="AIW27" s="3"/>
-      <c r="AIX27" s="3"/>
-      <c r="AIY27" s="3"/>
-      <c r="AIZ27" s="3"/>
-      <c r="AJA27" s="3"/>
-      <c r="AJB27" s="3"/>
-      <c r="AJC27" s="3"/>
-      <c r="AJD27" s="3"/>
-      <c r="AJE27" s="3"/>
-      <c r="AJF27" s="3"/>
-      <c r="AJG27" s="3"/>
-      <c r="AJH27" s="3"/>
-      <c r="AJI27" s="3"/>
-      <c r="AJJ27" s="3"/>
-      <c r="AJK27" s="3"/>
-      <c r="AJL27" s="3"/>
-      <c r="AJM27" s="3"/>
-      <c r="AJN27" s="3"/>
-      <c r="AJO27" s="3"/>
-      <c r="AJP27" s="3"/>
-      <c r="AJQ27" s="3"/>
-      <c r="AJR27" s="3"/>
-      <c r="AJS27" s="3"/>
-      <c r="AJT27" s="3"/>
-      <c r="AJU27" s="3"/>
-      <c r="AJV27" s="3"/>
-      <c r="AJW27" s="3"/>
-      <c r="AJX27" s="3"/>
-      <c r="AJY27" s="3"/>
-      <c r="AJZ27" s="3"/>
-      <c r="AKA27" s="3"/>
-      <c r="AKB27" s="3"/>
-      <c r="AKC27" s="3"/>
-      <c r="AKD27" s="3"/>
-      <c r="AKE27" s="3"/>
-      <c r="AKF27" s="3"/>
-      <c r="AKG27" s="3"/>
-      <c r="AKH27" s="3"/>
-      <c r="AKI27" s="3"/>
-      <c r="AKJ27" s="3"/>
-      <c r="AKK27" s="3"/>
-      <c r="AKL27" s="3"/>
-      <c r="AKM27" s="3"/>
-      <c r="AKN27" s="3"/>
-      <c r="AKO27" s="3"/>
-      <c r="AKP27" s="3"/>
-      <c r="AKQ27" s="3"/>
-      <c r="AKR27" s="3"/>
-      <c r="AKS27" s="3"/>
-      <c r="AKT27" s="3"/>
-      <c r="AKU27" s="3"/>
-      <c r="AKV27" s="3"/>
-      <c r="AKW27" s="3"/>
-      <c r="AKX27" s="3"/>
-      <c r="AKY27" s="3"/>
-      <c r="AKZ27" s="3"/>
-      <c r="ALA27" s="3"/>
-      <c r="ALB27" s="3"/>
-      <c r="ALC27" s="3"/>
-      <c r="ALD27" s="3"/>
-      <c r="ALE27" s="3"/>
-      <c r="ALF27" s="3"/>
-      <c r="ALG27" s="3"/>
-      <c r="ALH27" s="3"/>
-      <c r="ALI27" s="3"/>
-      <c r="ALJ27" s="3"/>
-      <c r="ALK27" s="3"/>
-      <c r="ALL27" s="3"/>
-      <c r="ALM27" s="3"/>
-      <c r="ALN27" s="3"/>
-      <c r="ALO27" s="3"/>
-      <c r="ALP27" s="3"/>
-      <c r="ALQ27" s="3"/>
-      <c r="ALR27" s="3"/>
-      <c r="ALS27" s="3"/>
-      <c r="ALT27" s="3"/>
-      <c r="ALU27" s="3"/>
-      <c r="ALV27" s="3"/>
-      <c r="ALW27" s="3"/>
-      <c r="ALX27" s="3"/>
-      <c r="ALY27" s="3"/>
-      <c r="ALZ27" s="3"/>
-      <c r="AMA27" s="3"/>
-      <c r="AMB27" s="3"/>
-      <c r="AMC27" s="3"/>
-      <c r="AMD27" s="3"/>
-      <c r="AME27" s="3"/>
-      <c r="AMF27" s="3"/>
-      <c r="AMG27" s="3"/>
-      <c r="AMH27" s="3"/>
-      <c r="AMI27" s="3"/>
-      <c r="AMJ27" s="3"/>
-    </row>
-    <row r="28" customFormat="false" ht="48.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="12"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="12"/>
-      <c r="N28" s="12"/>
-      <c r="O28" s="12"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-      <c r="R28" s="12"/>
-      <c r="S28" s="12"/>
-      <c r="T28" s="12"/>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="12"/>
-      <c r="X28" s="12"/>
-      <c r="Y28" s="12"/>
-      <c r="Z28" s="12"/>
-      <c r="AA28" s="12"/>
-      <c r="AB28" s="12"/>
-      <c r="AC28" s="12"/>
-      <c r="AD28" s="12"/>
-      <c r="AE28" s="12"/>
-      <c r="AF28" s="12"/>
-      <c r="AG28" s="12"/>
-      <c r="AH28" s="12"/>
-      <c r="AI28" s="12"/>
-      <c r="AJ28" s="12"/>
-      <c r="AK28" s="12"/>
-      <c r="AL28" s="12"/>
-      <c r="AM28" s="12"/>
-      <c r="AN28" s="12"/>
-      <c r="AO28" s="12"/>
-      <c r="AP28" s="12"/>
-      <c r="AQ28" s="12"/>
-      <c r="AR28" s="12"/>
-      <c r="AS28" s="12"/>
-      <c r="AT28" s="12"/>
-      <c r="AU28" s="12"/>
-      <c r="AV28" s="12"/>
-      <c r="AW28" s="12"/>
-      <c r="AX28" s="12"/>
-      <c r="AY28" s="12"/>
-      <c r="AZ28" s="12"/>
-      <c r="BA28" s="12"/>
-      <c r="BB28" s="12"/>
-      <c r="BC28" s="12"/>
-      <c r="BD28" s="12"/>
-      <c r="BE28" s="12"/>
-      <c r="BF28" s="12"/>
-      <c r="BG28" s="12"/>
-      <c r="BH28" s="12"/>
-      <c r="BI28" s="12"/>
-      <c r="BJ28" s="12"/>
-      <c r="BK28" s="12"/>
-      <c r="BL28" s="12"/>
-      <c r="BM28" s="12"/>
-      <c r="BN28" s="12"/>
-      <c r="BO28" s="12"/>
-      <c r="BP28" s="12"/>
-      <c r="BQ28" s="12"/>
-      <c r="BR28" s="12"/>
-      <c r="BS28" s="12"/>
-      <c r="BT28" s="12"/>
-      <c r="BU28" s="12"/>
-      <c r="BV28" s="12"/>
-      <c r="BW28" s="12"/>
-      <c r="BX28" s="12"/>
-      <c r="BY28" s="12"/>
-      <c r="BZ28" s="12"/>
-      <c r="CA28" s="12"/>
-      <c r="CB28" s="12"/>
-      <c r="CC28" s="12"/>
-      <c r="CD28" s="12"/>
-      <c r="CE28" s="12"/>
-      <c r="CF28" s="12"/>
-      <c r="CG28" s="12"/>
-      <c r="CH28" s="12"/>
-      <c r="CI28" s="12"/>
-      <c r="CJ28" s="12"/>
-      <c r="CK28" s="12"/>
-      <c r="CL28" s="12"/>
-      <c r="CM28" s="12"/>
-      <c r="CN28" s="12"/>
-      <c r="CO28" s="12"/>
-      <c r="CP28" s="12"/>
-      <c r="CQ28" s="12"/>
-      <c r="CR28" s="12"/>
-      <c r="CS28" s="12"/>
-      <c r="CT28" s="12"/>
-      <c r="CU28" s="12"/>
-      <c r="CV28" s="12"/>
-      <c r="CW28" s="12"/>
-      <c r="CX28" s="12"/>
-      <c r="CY28" s="12"/>
-      <c r="CZ28" s="12"/>
-      <c r="DA28" s="12"/>
-      <c r="DB28" s="12"/>
-      <c r="DC28" s="12"/>
-      <c r="DD28" s="12"/>
-      <c r="DE28" s="12"/>
-      <c r="DF28" s="12"/>
-      <c r="DG28" s="12"/>
-      <c r="DH28" s="12"/>
-      <c r="DI28" s="12"/>
-      <c r="DJ28" s="12"/>
-      <c r="DK28" s="12"/>
-      <c r="DL28" s="12"/>
-      <c r="DM28" s="12"/>
-      <c r="DN28" s="12"/>
-      <c r="DO28" s="12"/>
-      <c r="DP28" s="12"/>
-      <c r="DQ28" s="12"/>
-      <c r="DR28" s="12"/>
-      <c r="DS28" s="12"/>
-      <c r="DT28" s="12"/>
-      <c r="DU28" s="12"/>
-      <c r="DV28" s="12"/>
-      <c r="DW28" s="12"/>
-      <c r="DX28" s="12"/>
-      <c r="DY28" s="12"/>
-      <c r="DZ28" s="12"/>
-      <c r="EA28" s="12"/>
-      <c r="EB28" s="12"/>
-      <c r="EC28" s="12"/>
-      <c r="ED28" s="12"/>
-      <c r="EE28" s="12"/>
-      <c r="EF28" s="12"/>
-      <c r="EG28" s="12"/>
-      <c r="EH28" s="12"/>
-      <c r="EI28" s="12"/>
-      <c r="EJ28" s="12"/>
-      <c r="EK28" s="12"/>
-      <c r="EL28" s="12"/>
-      <c r="EM28" s="12"/>
-      <c r="EN28" s="12"/>
-      <c r="EO28" s="12"/>
-      <c r="EP28" s="12"/>
-      <c r="EQ28" s="12"/>
-      <c r="ER28" s="12"/>
-      <c r="ES28" s="12"/>
-      <c r="ET28" s="12"/>
-      <c r="EU28" s="12"/>
-      <c r="EV28" s="12"/>
-      <c r="EW28" s="12"/>
-      <c r="EX28" s="12"/>
-      <c r="EY28" s="12"/>
-      <c r="EZ28" s="12"/>
-      <c r="FA28" s="12"/>
-      <c r="FB28" s="12"/>
-      <c r="FC28" s="12"/>
-      <c r="FD28" s="12"/>
-      <c r="FE28" s="12"/>
-      <c r="FF28" s="12"/>
-      <c r="FG28" s="12"/>
-      <c r="FH28" s="12"/>
-      <c r="FI28" s="12"/>
-      <c r="FJ28" s="12"/>
-      <c r="FK28" s="12"/>
-      <c r="FL28" s="12"/>
-      <c r="FM28" s="12"/>
-      <c r="FN28" s="12"/>
-      <c r="FO28" s="12"/>
-      <c r="FP28" s="12"/>
-      <c r="FQ28" s="12"/>
-      <c r="FR28" s="12"/>
-      <c r="FS28" s="12"/>
-      <c r="FT28" s="12"/>
-      <c r="FU28" s="12"/>
-      <c r="FV28" s="12"/>
-      <c r="FW28" s="12"/>
-      <c r="FX28" s="12"/>
-      <c r="FY28" s="12"/>
-      <c r="FZ28" s="12"/>
-      <c r="GA28" s="12"/>
-      <c r="GB28" s="12"/>
-      <c r="GC28" s="12"/>
-      <c r="GD28" s="12"/>
-      <c r="GE28" s="12"/>
-      <c r="GF28" s="12"/>
-      <c r="GG28" s="12"/>
-      <c r="GH28" s="12"/>
-      <c r="GI28" s="12"/>
-      <c r="GJ28" s="12"/>
-      <c r="GK28" s="12"/>
-      <c r="GL28" s="12"/>
-      <c r="GM28" s="12"/>
-      <c r="GN28" s="12"/>
-      <c r="GO28" s="12"/>
-      <c r="GP28" s="12"/>
-      <c r="GQ28" s="12"/>
-      <c r="GR28" s="12"/>
-      <c r="GS28" s="12"/>
-      <c r="GT28" s="12"/>
-      <c r="GU28" s="12"/>
-      <c r="GV28" s="12"/>
-      <c r="GW28" s="12"/>
-      <c r="GX28" s="12"/>
-      <c r="GY28" s="12"/>
-      <c r="GZ28" s="12"/>
-      <c r="HA28" s="12"/>
-      <c r="HB28" s="12"/>
-      <c r="HC28" s="12"/>
-      <c r="HD28" s="12"/>
-      <c r="HE28" s="12"/>
-      <c r="HF28" s="12"/>
-      <c r="HG28" s="12"/>
-      <c r="HH28" s="12"/>
-      <c r="HI28" s="12"/>
-      <c r="HJ28" s="12"/>
-      <c r="HK28" s="12"/>
-      <c r="HL28" s="12"/>
-      <c r="HM28" s="12"/>
-      <c r="HN28" s="12"/>
-      <c r="HO28" s="12"/>
-      <c r="HP28" s="12"/>
-      <c r="HQ28" s="12"/>
-      <c r="HR28" s="12"/>
-      <c r="HS28" s="12"/>
-      <c r="HT28" s="12"/>
-      <c r="HU28" s="12"/>
-      <c r="HV28" s="12"/>
-      <c r="HW28" s="12"/>
-      <c r="HX28" s="12"/>
-      <c r="HY28" s="12"/>
-      <c r="HZ28" s="12"/>
-      <c r="IA28" s="12"/>
-      <c r="IB28" s="12"/>
-      <c r="IC28" s="12"/>
-      <c r="ID28" s="12"/>
-      <c r="IE28" s="12"/>
-      <c r="IF28" s="12"/>
-      <c r="IG28" s="12"/>
-      <c r="IH28" s="12"/>
-      <c r="II28" s="12"/>
-      <c r="IJ28" s="12"/>
-      <c r="IK28" s="12"/>
-      <c r="IL28" s="12"/>
-      <c r="IM28" s="12"/>
-      <c r="IN28" s="12"/>
-      <c r="IO28" s="12"/>
-      <c r="IP28" s="12"/>
-      <c r="IQ28" s="12"/>
-      <c r="IR28" s="12"/>
-      <c r="IS28" s="12"/>
-      <c r="IT28" s="12"/>
-      <c r="IU28" s="12"/>
-      <c r="IV28" s="12"/>
-      <c r="IW28" s="12"/>
-      <c r="IX28" s="12"/>
-      <c r="IY28" s="12"/>
-      <c r="IZ28" s="12"/>
-      <c r="JA28" s="12"/>
-      <c r="JB28" s="12"/>
-      <c r="JC28" s="12"/>
-      <c r="JD28" s="12"/>
-      <c r="JE28" s="12"/>
-      <c r="JF28" s="12"/>
-      <c r="JG28" s="12"/>
-      <c r="JH28" s="12"/>
-      <c r="JI28" s="12"/>
-      <c r="JJ28" s="12"/>
-      <c r="JK28" s="12"/>
-      <c r="JL28" s="12"/>
-      <c r="JM28" s="12"/>
-      <c r="JN28" s="12"/>
-      <c r="JO28" s="12"/>
-      <c r="JP28" s="12"/>
-      <c r="JQ28" s="12"/>
-      <c r="JR28" s="12"/>
-      <c r="JS28" s="12"/>
-      <c r="JT28" s="12"/>
-      <c r="JU28" s="12"/>
-      <c r="JV28" s="12"/>
-      <c r="JW28" s="12"/>
-      <c r="JX28" s="12"/>
-      <c r="JY28" s="12"/>
-      <c r="JZ28" s="12"/>
-      <c r="KA28" s="12"/>
-      <c r="KB28" s="12"/>
-      <c r="KC28" s="12"/>
-      <c r="KD28" s="12"/>
-      <c r="KE28" s="12"/>
-      <c r="KF28" s="12"/>
-      <c r="KG28" s="12"/>
-      <c r="KH28" s="12"/>
-      <c r="KI28" s="12"/>
-      <c r="KJ28" s="12"/>
-      <c r="KK28" s="12"/>
-      <c r="KL28" s="12"/>
-      <c r="KM28" s="12"/>
-      <c r="KN28" s="12"/>
-      <c r="KO28" s="12"/>
-      <c r="KP28" s="12"/>
-      <c r="KQ28" s="12"/>
-      <c r="KR28" s="12"/>
-      <c r="KS28" s="12"/>
-      <c r="KT28" s="12"/>
-      <c r="KU28" s="12"/>
-      <c r="KV28" s="12"/>
-      <c r="KW28" s="12"/>
-      <c r="KX28" s="12"/>
-      <c r="KY28" s="12"/>
-      <c r="KZ28" s="12"/>
-      <c r="LA28" s="12"/>
-      <c r="LB28" s="12"/>
-      <c r="LC28" s="12"/>
-      <c r="LD28" s="12"/>
-      <c r="LE28" s="12"/>
-      <c r="LF28" s="12"/>
-      <c r="LG28" s="12"/>
-      <c r="LH28" s="12"/>
-      <c r="LI28" s="12"/>
-      <c r="LJ28" s="12"/>
-      <c r="LK28" s="12"/>
-      <c r="LL28" s="12"/>
-      <c r="LM28" s="12"/>
-      <c r="LN28" s="12"/>
-      <c r="LO28" s="12"/>
-      <c r="LP28" s="12"/>
-      <c r="LQ28" s="12"/>
-      <c r="LR28" s="12"/>
-      <c r="LS28" s="12"/>
-      <c r="LT28" s="12"/>
-      <c r="LU28" s="12"/>
-      <c r="LV28" s="12"/>
-      <c r="LW28" s="12"/>
-      <c r="LX28" s="12"/>
-      <c r="LY28" s="12"/>
-      <c r="LZ28" s="12"/>
-      <c r="MA28" s="12"/>
-      <c r="MB28" s="12"/>
-      <c r="MC28" s="12"/>
-      <c r="MD28" s="12"/>
-      <c r="ME28" s="12"/>
-      <c r="MF28" s="12"/>
-      <c r="MG28" s="12"/>
-      <c r="MH28" s="12"/>
-      <c r="MI28" s="12"/>
-      <c r="MJ28" s="12"/>
-      <c r="MK28" s="12"/>
-      <c r="ML28" s="12"/>
-      <c r="MM28" s="12"/>
-      <c r="MN28" s="12"/>
-      <c r="MO28" s="12"/>
-      <c r="MP28" s="12"/>
-      <c r="MQ28" s="12"/>
-      <c r="MR28" s="12"/>
-      <c r="MS28" s="12"/>
-      <c r="MT28" s="12"/>
-      <c r="MU28" s="12"/>
-      <c r="MV28" s="12"/>
-      <c r="MW28" s="12"/>
-      <c r="MX28" s="12"/>
-      <c r="MY28" s="12"/>
-      <c r="MZ28" s="12"/>
-      <c r="NA28" s="12"/>
-      <c r="NB28" s="12"/>
-      <c r="NC28" s="12"/>
-      <c r="ND28" s="12"/>
-      <c r="NE28" s="12"/>
-      <c r="NF28" s="12"/>
-      <c r="NG28" s="12"/>
-      <c r="NH28" s="12"/>
-      <c r="NI28" s="12"/>
-      <c r="NJ28" s="12"/>
-      <c r="NK28" s="12"/>
-      <c r="NL28" s="12"/>
-      <c r="NM28" s="12"/>
-      <c r="NN28" s="12"/>
-      <c r="NO28" s="12"/>
-      <c r="NP28" s="12"/>
-      <c r="NQ28" s="12"/>
-      <c r="NR28" s="12"/>
-      <c r="NS28" s="12"/>
-      <c r="NT28" s="12"/>
-      <c r="NU28" s="12"/>
-      <c r="NV28" s="12"/>
-      <c r="NW28" s="12"/>
-      <c r="NX28" s="12"/>
-      <c r="NY28" s="12"/>
-      <c r="NZ28" s="12"/>
-      <c r="OA28" s="12"/>
-      <c r="OB28" s="12"/>
-      <c r="OC28" s="12"/>
-      <c r="OD28" s="12"/>
-      <c r="OE28" s="12"/>
-      <c r="OF28" s="12"/>
-      <c r="OG28" s="12"/>
-      <c r="OH28" s="12"/>
-      <c r="OI28" s="12"/>
-      <c r="OJ28" s="12"/>
-      <c r="OK28" s="12"/>
-      <c r="OL28" s="12"/>
-      <c r="OM28" s="12"/>
-      <c r="ON28" s="12"/>
-      <c r="OO28" s="12"/>
-      <c r="OP28" s="12"/>
-      <c r="OQ28" s="12"/>
-      <c r="OR28" s="12"/>
-      <c r="OS28" s="12"/>
-      <c r="OT28" s="12"/>
-      <c r="OU28" s="12"/>
-      <c r="OV28" s="12"/>
-      <c r="OW28" s="12"/>
-      <c r="OX28" s="12"/>
-      <c r="OY28" s="12"/>
-      <c r="OZ28" s="12"/>
-      <c r="PA28" s="12"/>
-      <c r="PB28" s="12"/>
-      <c r="PC28" s="12"/>
-      <c r="PD28" s="12"/>
-      <c r="PE28" s="12"/>
-      <c r="PF28" s="12"/>
-      <c r="PG28" s="12"/>
-      <c r="PH28" s="12"/>
-      <c r="PI28" s="12"/>
-      <c r="PJ28" s="12"/>
-      <c r="PK28" s="12"/>
-      <c r="PL28" s="12"/>
-      <c r="PM28" s="12"/>
-      <c r="PN28" s="12"/>
-      <c r="PO28" s="12"/>
-      <c r="PP28" s="12"/>
-      <c r="PQ28" s="12"/>
-      <c r="PR28" s="12"/>
-      <c r="PS28" s="12"/>
-      <c r="PT28" s="12"/>
-      <c r="PU28" s="12"/>
-      <c r="PV28" s="12"/>
-      <c r="PW28" s="12"/>
-      <c r="PX28" s="12"/>
-      <c r="PY28" s="12"/>
-      <c r="PZ28" s="12"/>
-      <c r="QA28" s="12"/>
-      <c r="QB28" s="12"/>
-      <c r="QC28" s="12"/>
-      <c r="QD28" s="12"/>
-      <c r="QE28" s="12"/>
-      <c r="QF28" s="12"/>
-      <c r="QG28" s="12"/>
-      <c r="QH28" s="12"/>
-      <c r="QI28" s="12"/>
-      <c r="QJ28" s="12"/>
-      <c r="QK28" s="12"/>
-      <c r="QL28" s="12"/>
-      <c r="QM28" s="12"/>
-      <c r="QN28" s="12"/>
-      <c r="QO28" s="12"/>
-      <c r="QP28" s="12"/>
-      <c r="QQ28" s="12"/>
-      <c r="QR28" s="12"/>
-      <c r="QS28" s="12"/>
-      <c r="QT28" s="12"/>
-      <c r="QU28" s="12"/>
-      <c r="QV28" s="12"/>
-      <c r="QW28" s="12"/>
-      <c r="QX28" s="12"/>
-      <c r="QY28" s="12"/>
-      <c r="QZ28" s="12"/>
-      <c r="RA28" s="12"/>
-      <c r="RB28" s="12"/>
-      <c r="RC28" s="12"/>
-      <c r="RD28" s="12"/>
-      <c r="RE28" s="12"/>
-      <c r="RF28" s="12"/>
-      <c r="RG28" s="12"/>
-      <c r="RH28" s="12"/>
-      <c r="RI28" s="12"/>
-      <c r="RJ28" s="12"/>
-      <c r="RK28" s="12"/>
-      <c r="RL28" s="12"/>
-      <c r="RM28" s="12"/>
-      <c r="RN28" s="12"/>
-      <c r="RO28" s="12"/>
-      <c r="RP28" s="12"/>
-      <c r="RQ28" s="12"/>
-      <c r="RR28" s="12"/>
-      <c r="RS28" s="12"/>
-      <c r="RT28" s="12"/>
-      <c r="RU28" s="12"/>
-      <c r="RV28" s="12"/>
-      <c r="RW28" s="12"/>
-      <c r="RX28" s="12"/>
-      <c r="RY28" s="12"/>
-      <c r="RZ28" s="12"/>
-      <c r="SA28" s="12"/>
-      <c r="SB28" s="12"/>
-      <c r="SC28" s="12"/>
-      <c r="SD28" s="12"/>
-      <c r="SE28" s="12"/>
-      <c r="SF28" s="12"/>
-      <c r="SG28" s="12"/>
-      <c r="SH28" s="12"/>
-      <c r="SI28" s="12"/>
-      <c r="SJ28" s="12"/>
-      <c r="SK28" s="12"/>
-      <c r="SL28" s="12"/>
-      <c r="SM28" s="12"/>
-      <c r="SN28" s="12"/>
-      <c r="SO28" s="12"/>
-      <c r="SP28" s="12"/>
-      <c r="SQ28" s="12"/>
-      <c r="SR28" s="12"/>
-      <c r="SS28" s="12"/>
-      <c r="ST28" s="12"/>
-      <c r="SU28" s="12"/>
-      <c r="SV28" s="12"/>
-      <c r="SW28" s="12"/>
-      <c r="SX28" s="12"/>
-      <c r="SY28" s="12"/>
-      <c r="SZ28" s="12"/>
-      <c r="TA28" s="12"/>
-      <c r="TB28" s="12"/>
-      <c r="TC28" s="12"/>
-      <c r="TD28" s="12"/>
-      <c r="TE28" s="12"/>
-      <c r="TF28" s="12"/>
-      <c r="TG28" s="12"/>
-      <c r="TH28" s="12"/>
-      <c r="TI28" s="12"/>
-      <c r="TJ28" s="12"/>
-      <c r="TK28" s="12"/>
-      <c r="TL28" s="12"/>
-      <c r="TM28" s="12"/>
-      <c r="TN28" s="12"/>
-      <c r="TO28" s="12"/>
-      <c r="TP28" s="12"/>
-      <c r="TQ28" s="12"/>
-      <c r="TR28" s="12"/>
-      <c r="TS28" s="12"/>
-      <c r="TT28" s="12"/>
-      <c r="TU28" s="12"/>
-      <c r="TV28" s="12"/>
-      <c r="TW28" s="12"/>
-      <c r="TX28" s="12"/>
-      <c r="TY28" s="12"/>
-      <c r="TZ28" s="12"/>
-      <c r="UA28" s="12"/>
-      <c r="UB28" s="12"/>
-      <c r="UC28" s="12"/>
-      <c r="UD28" s="12"/>
-      <c r="UE28" s="12"/>
-      <c r="UF28" s="12"/>
-      <c r="UG28" s="12"/>
-      <c r="UH28" s="12"/>
-      <c r="UI28" s="12"/>
-      <c r="UJ28" s="12"/>
-      <c r="UK28" s="12"/>
-      <c r="UL28" s="12"/>
-      <c r="UM28" s="12"/>
-      <c r="UN28" s="12"/>
-      <c r="UO28" s="12"/>
-      <c r="UP28" s="12"/>
-      <c r="UQ28" s="12"/>
-      <c r="UR28" s="12"/>
-      <c r="US28" s="12"/>
-      <c r="UT28" s="12"/>
-      <c r="UU28" s="12"/>
-      <c r="UV28" s="12"/>
-      <c r="UW28" s="12"/>
-      <c r="UX28" s="12"/>
-      <c r="UY28" s="12"/>
-      <c r="UZ28" s="12"/>
-      <c r="VA28" s="12"/>
-      <c r="VB28" s="12"/>
-      <c r="VC28" s="12"/>
-      <c r="VD28" s="12"/>
-      <c r="VE28" s="12"/>
-      <c r="VF28" s="12"/>
-      <c r="VG28" s="12"/>
-      <c r="VH28" s="12"/>
-      <c r="VI28" s="12"/>
-      <c r="VJ28" s="12"/>
-      <c r="VK28" s="12"/>
-      <c r="VL28" s="12"/>
-      <c r="VM28" s="12"/>
-      <c r="VN28" s="12"/>
-      <c r="VO28" s="12"/>
-      <c r="VP28" s="12"/>
-      <c r="VQ28" s="12"/>
-      <c r="VR28" s="12"/>
-      <c r="VS28" s="12"/>
-      <c r="VT28" s="12"/>
-      <c r="VU28" s="12"/>
-      <c r="VV28" s="12"/>
-      <c r="VW28" s="12"/>
-      <c r="VX28" s="12"/>
-      <c r="VY28" s="12"/>
-      <c r="VZ28" s="12"/>
-      <c r="WA28" s="12"/>
-      <c r="WB28" s="12"/>
-      <c r="WC28" s="12"/>
-      <c r="WD28" s="12"/>
-      <c r="WE28" s="12"/>
-      <c r="WF28" s="12"/>
-      <c r="WG28" s="12"/>
-      <c r="WH28" s="12"/>
-      <c r="WI28" s="12"/>
-      <c r="WJ28" s="12"/>
-      <c r="WK28" s="12"/>
-      <c r="WL28" s="12"/>
-      <c r="WM28" s="12"/>
-      <c r="WN28" s="12"/>
-      <c r="WO28" s="12"/>
-      <c r="WP28" s="12"/>
-      <c r="WQ28" s="12"/>
-      <c r="WR28" s="12"/>
-      <c r="WS28" s="12"/>
-      <c r="WT28" s="12"/>
-      <c r="WU28" s="12"/>
-      <c r="WV28" s="12"/>
-      <c r="WW28" s="12"/>
-      <c r="WX28" s="12"/>
-      <c r="WY28" s="12"/>
-      <c r="WZ28" s="12"/>
-      <c r="XA28" s="12"/>
-      <c r="XB28" s="12"/>
-      <c r="XC28" s="12"/>
-      <c r="XD28" s="12"/>
-      <c r="XE28" s="12"/>
-      <c r="XF28" s="12"/>
-      <c r="XG28" s="12"/>
-      <c r="XH28" s="12"/>
-      <c r="XI28" s="12"/>
-      <c r="XJ28" s="12"/>
-      <c r="XK28" s="12"/>
-      <c r="XL28" s="12"/>
-      <c r="XM28" s="12"/>
-      <c r="XN28" s="12"/>
-      <c r="XO28" s="12"/>
-      <c r="XP28" s="12"/>
-      <c r="XQ28" s="12"/>
-      <c r="XR28" s="12"/>
-      <c r="XS28" s="12"/>
-      <c r="XT28" s="12"/>
-      <c r="XU28" s="12"/>
-      <c r="XV28" s="12"/>
-      <c r="XW28" s="12"/>
-      <c r="XX28" s="12"/>
-      <c r="XY28" s="12"/>
-      <c r="XZ28" s="12"/>
-      <c r="YA28" s="12"/>
-      <c r="YB28" s="12"/>
-      <c r="YC28" s="12"/>
-      <c r="YD28" s="12"/>
-      <c r="YE28" s="12"/>
-      <c r="YF28" s="12"/>
-      <c r="YG28" s="12"/>
-      <c r="YH28" s="12"/>
-      <c r="YI28" s="12"/>
-      <c r="YJ28" s="12"/>
-      <c r="YK28" s="12"/>
-      <c r="YL28" s="12"/>
-      <c r="YM28" s="12"/>
-      <c r="YN28" s="12"/>
-      <c r="YO28" s="12"/>
-      <c r="YP28" s="12"/>
-      <c r="YQ28" s="12"/>
-      <c r="YR28" s="12"/>
-      <c r="YS28" s="12"/>
-      <c r="YT28" s="12"/>
-      <c r="YU28" s="12"/>
-      <c r="YV28" s="12"/>
-      <c r="YW28" s="12"/>
-      <c r="YX28" s="12"/>
-      <c r="YY28" s="12"/>
-      <c r="YZ28" s="12"/>
-      <c r="ZA28" s="12"/>
-      <c r="ZB28" s="12"/>
-      <c r="ZC28" s="12"/>
-      <c r="ZD28" s="12"/>
-      <c r="ZE28" s="12"/>
-      <c r="ZF28" s="12"/>
-      <c r="ZG28" s="12"/>
-      <c r="ZH28" s="12"/>
-      <c r="ZI28" s="12"/>
-      <c r="ZJ28" s="12"/>
-      <c r="ZK28" s="12"/>
-      <c r="ZL28" s="12"/>
-      <c r="ZM28" s="12"/>
-      <c r="ZN28" s="12"/>
-      <c r="ZO28" s="12"/>
-      <c r="ZP28" s="12"/>
-      <c r="ZQ28" s="12"/>
-      <c r="ZR28" s="12"/>
-      <c r="ZS28" s="12"/>
-      <c r="ZT28" s="12"/>
-      <c r="ZU28" s="12"/>
-      <c r="ZV28" s="12"/>
-      <c r="ZW28" s="12"/>
-      <c r="ZX28" s="12"/>
-      <c r="ZY28" s="12"/>
-      <c r="ZZ28" s="12"/>
-      <c r="AAA28" s="12"/>
-      <c r="AAB28" s="12"/>
-      <c r="AAC28" s="12"/>
-      <c r="AAD28" s="12"/>
-      <c r="AAE28" s="12"/>
-      <c r="AAF28" s="12"/>
-      <c r="AAG28" s="12"/>
-      <c r="AAH28" s="12"/>
-      <c r="AAI28" s="12"/>
-      <c r="AAJ28" s="12"/>
-      <c r="AAK28" s="12"/>
-      <c r="AAL28" s="12"/>
-      <c r="AAM28" s="12"/>
-      <c r="AAN28" s="12"/>
-      <c r="AAO28" s="12"/>
-      <c r="AAP28" s="12"/>
-      <c r="AAQ28" s="12"/>
-      <c r="AAR28" s="12"/>
-      <c r="AAS28" s="12"/>
-      <c r="AAT28" s="12"/>
-      <c r="AAU28" s="12"/>
-      <c r="AAV28" s="12"/>
-      <c r="AAW28" s="12"/>
-      <c r="AAX28" s="12"/>
-      <c r="AAY28" s="12"/>
-      <c r="AAZ28" s="12"/>
-      <c r="ABA28" s="12"/>
-      <c r="ABB28" s="12"/>
-      <c r="ABC28" s="12"/>
-      <c r="ABD28" s="12"/>
-      <c r="ABE28" s="12"/>
-      <c r="ABF28" s="12"/>
-      <c r="ABG28" s="12"/>
-      <c r="ABH28" s="12"/>
-      <c r="ABI28" s="12"/>
-      <c r="ABJ28" s="12"/>
-      <c r="ABK28" s="12"/>
-      <c r="ABL28" s="12"/>
-      <c r="ABM28" s="12"/>
-      <c r="ABN28" s="12"/>
-      <c r="ABO28" s="12"/>
-      <c r="ABP28" s="12"/>
-      <c r="ABQ28" s="12"/>
-      <c r="ABR28" s="12"/>
-      <c r="ABS28" s="12"/>
-      <c r="ABT28" s="12"/>
-      <c r="ABU28" s="12"/>
-      <c r="ABV28" s="12"/>
-      <c r="ABW28" s="12"/>
-      <c r="ABX28" s="12"/>
-      <c r="ABY28" s="12"/>
-      <c r="ABZ28" s="12"/>
-      <c r="ACA28" s="12"/>
-      <c r="ACB28" s="12"/>
-      <c r="ACC28" s="12"/>
-      <c r="ACD28" s="12"/>
-      <c r="ACE28" s="12"/>
-      <c r="ACF28" s="12"/>
-      <c r="ACG28" s="12"/>
-      <c r="ACH28" s="12"/>
-      <c r="ACI28" s="12"/>
-      <c r="ACJ28" s="12"/>
-      <c r="ACK28" s="12"/>
-      <c r="ACL28" s="12"/>
-      <c r="ACM28" s="12"/>
-      <c r="ACN28" s="12"/>
-      <c r="ACO28" s="12"/>
-      <c r="ACP28" s="12"/>
-      <c r="ACQ28" s="12"/>
-      <c r="ACR28" s="12"/>
-      <c r="ACS28" s="12"/>
-      <c r="ACT28" s="12"/>
-      <c r="ACU28" s="12"/>
-      <c r="ACV28" s="12"/>
-      <c r="ACW28" s="12"/>
-      <c r="ACX28" s="12"/>
-      <c r="ACY28" s="12"/>
-      <c r="ACZ28" s="12"/>
-      <c r="ADA28" s="12"/>
-      <c r="ADB28" s="12"/>
-      <c r="ADC28" s="12"/>
-      <c r="ADD28" s="12"/>
-      <c r="ADE28" s="12"/>
-      <c r="ADF28" s="12"/>
-      <c r="ADG28" s="12"/>
-      <c r="ADH28" s="12"/>
-      <c r="ADI28" s="12"/>
-      <c r="ADJ28" s="12"/>
-      <c r="ADK28" s="12"/>
-      <c r="ADL28" s="12"/>
-      <c r="ADM28" s="12"/>
-      <c r="ADN28" s="12"/>
-      <c r="ADO28" s="12"/>
-      <c r="ADP28" s="12"/>
-      <c r="ADQ28" s="12"/>
-      <c r="ADR28" s="12"/>
-      <c r="ADS28" s="12"/>
-      <c r="ADT28" s="12"/>
-      <c r="ADU28" s="12"/>
-      <c r="ADV28" s="12"/>
-      <c r="ADW28" s="12"/>
-      <c r="ADX28" s="12"/>
-      <c r="ADY28" s="12"/>
-      <c r="ADZ28" s="12"/>
-      <c r="AEA28" s="12"/>
-      <c r="AEB28" s="12"/>
-      <c r="AEC28" s="12"/>
-      <c r="AED28" s="12"/>
-      <c r="AEE28" s="12"/>
-      <c r="AEF28" s="12"/>
-      <c r="AEG28" s="12"/>
-      <c r="AEH28" s="12"/>
-      <c r="AEI28" s="12"/>
-      <c r="AEJ28" s="12"/>
-      <c r="AEK28" s="12"/>
-      <c r="AEL28" s="12"/>
-      <c r="AEM28" s="12"/>
-      <c r="AEN28" s="12"/>
-      <c r="AEO28" s="12"/>
-      <c r="AEP28" s="12"/>
-      <c r="AEQ28" s="12"/>
-      <c r="AER28" s="12"/>
-      <c r="AES28" s="12"/>
-      <c r="AET28" s="12"/>
-      <c r="AEU28" s="12"/>
-      <c r="AEV28" s="12"/>
-      <c r="AEW28" s="12"/>
-      <c r="AEX28" s="12"/>
-      <c r="AEY28" s="12"/>
-      <c r="AEZ28" s="12"/>
-      <c r="AFA28" s="12"/>
-      <c r="AFB28" s="12"/>
-      <c r="AFC28" s="12"/>
-      <c r="AFD28" s="12"/>
-      <c r="AFE28" s="12"/>
-      <c r="AFF28" s="12"/>
-      <c r="AFG28" s="12"/>
-      <c r="AFH28" s="12"/>
-      <c r="AFI28" s="12"/>
-      <c r="AFJ28" s="12"/>
-      <c r="AFK28" s="12"/>
-      <c r="AFL28" s="12"/>
-      <c r="AFM28" s="12"/>
-      <c r="AFN28" s="12"/>
-      <c r="AFO28" s="12"/>
-      <c r="AFP28" s="12"/>
-      <c r="AFQ28" s="12"/>
-      <c r="AFR28" s="12"/>
-      <c r="AFS28" s="12"/>
-      <c r="AFT28" s="12"/>
-      <c r="AFU28" s="12"/>
-      <c r="AFV28" s="12"/>
-      <c r="AFW28" s="12"/>
-      <c r="AFX28" s="12"/>
-      <c r="AFY28" s="12"/>
-      <c r="AFZ28" s="12"/>
-      <c r="AGA28" s="12"/>
-      <c r="AGB28" s="12"/>
-      <c r="AGC28" s="12"/>
-      <c r="AGD28" s="12"/>
-      <c r="AGE28" s="12"/>
-      <c r="AGF28" s="12"/>
-      <c r="AGG28" s="12"/>
-      <c r="AGH28" s="12"/>
-      <c r="AGI28" s="12"/>
-      <c r="AGJ28" s="12"/>
-      <c r="AGK28" s="12"/>
-      <c r="AGL28" s="12"/>
-      <c r="AGM28" s="12"/>
-      <c r="AGN28" s="12"/>
-      <c r="AGO28" s="12"/>
-      <c r="AGP28" s="12"/>
-      <c r="AGQ28" s="12"/>
-      <c r="AGR28" s="12"/>
-      <c r="AGS28" s="12"/>
-      <c r="AGT28" s="12"/>
-      <c r="AGU28" s="12"/>
-      <c r="AGV28" s="12"/>
-      <c r="AGW28" s="12"/>
-      <c r="AGX28" s="12"/>
-      <c r="AGY28" s="12"/>
-      <c r="AGZ28" s="12"/>
-      <c r="AHA28" s="12"/>
-      <c r="AHB28" s="12"/>
-      <c r="AHC28" s="12"/>
-      <c r="AHD28" s="12"/>
-      <c r="AHE28" s="12"/>
-      <c r="AHF28" s="12"/>
-      <c r="AHG28" s="12"/>
-      <c r="AHH28" s="12"/>
-      <c r="AHI28" s="12"/>
-      <c r="AHJ28" s="12"/>
-      <c r="AHK28" s="12"/>
-      <c r="AHL28" s="12"/>
-      <c r="AHM28" s="12"/>
-      <c r="AHN28" s="12"/>
-      <c r="AHO28" s="12"/>
-      <c r="AHP28" s="12"/>
-      <c r="AHQ28" s="12"/>
-      <c r="AHR28" s="12"/>
-      <c r="AHS28" s="12"/>
-      <c r="AHT28" s="12"/>
-      <c r="AHU28" s="12"/>
-      <c r="AHV28" s="12"/>
-      <c r="AHW28" s="12"/>
-      <c r="AHX28" s="12"/>
-      <c r="AHY28" s="12"/>
-      <c r="AHZ28" s="12"/>
-      <c r="AIA28" s="12"/>
-      <c r="AIB28" s="12"/>
-      <c r="AIC28" s="12"/>
-      <c r="AID28" s="12"/>
-      <c r="AIE28" s="12"/>
-      <c r="AIF28" s="12"/>
-      <c r="AIG28" s="12"/>
-      <c r="AIH28" s="12"/>
-      <c r="AII28" s="12"/>
-      <c r="AIJ28" s="12"/>
-      <c r="AIK28" s="12"/>
-      <c r="AIL28" s="12"/>
-      <c r="AIM28" s="12"/>
-      <c r="AIN28" s="12"/>
-      <c r="AIO28" s="12"/>
-      <c r="AIP28" s="12"/>
-      <c r="AIQ28" s="12"/>
-      <c r="AIR28" s="12"/>
-      <c r="AIS28" s="12"/>
-      <c r="AIT28" s="12"/>
-      <c r="AIU28" s="12"/>
-      <c r="AIV28" s="12"/>
-      <c r="AIW28" s="12"/>
-      <c r="AIX28" s="12"/>
-      <c r="AIY28" s="12"/>
-      <c r="AIZ28" s="12"/>
-      <c r="AJA28" s="12"/>
-      <c r="AJB28" s="12"/>
-      <c r="AJC28" s="12"/>
-      <c r="AJD28" s="12"/>
-      <c r="AJE28" s="12"/>
-      <c r="AJF28" s="12"/>
-      <c r="AJG28" s="12"/>
-      <c r="AJH28" s="12"/>
-      <c r="AJI28" s="12"/>
-      <c r="AJJ28" s="12"/>
-      <c r="AJK28" s="12"/>
-      <c r="AJL28" s="12"/>
-      <c r="AJM28" s="12"/>
-      <c r="AJN28" s="12"/>
-      <c r="AJO28" s="12"/>
-      <c r="AJP28" s="12"/>
-      <c r="AJQ28" s="12"/>
-      <c r="AJR28" s="12"/>
-      <c r="AJS28" s="12"/>
-      <c r="AJT28" s="12"/>
-      <c r="AJU28" s="12"/>
-      <c r="AJV28" s="12"/>
-      <c r="AJW28" s="12"/>
-      <c r="AJX28" s="12"/>
-      <c r="AJY28" s="12"/>
-      <c r="AJZ28" s="12"/>
-      <c r="AKA28" s="12"/>
-      <c r="AKB28" s="12"/>
-      <c r="AKC28" s="12"/>
-      <c r="AKD28" s="12"/>
-      <c r="AKE28" s="12"/>
-      <c r="AKF28" s="12"/>
-      <c r="AKG28" s="12"/>
-      <c r="AKH28" s="12"/>
-      <c r="AKI28" s="12"/>
-      <c r="AKJ28" s="12"/>
-      <c r="AKK28" s="12"/>
-      <c r="AKL28" s="12"/>
-      <c r="AKM28" s="12"/>
-      <c r="AKN28" s="12"/>
-      <c r="AKO28" s="12"/>
-      <c r="AKP28" s="12"/>
-      <c r="AKQ28" s="12"/>
-      <c r="AKR28" s="12"/>
-      <c r="AKS28" s="12"/>
-      <c r="AKT28" s="12"/>
-      <c r="AKU28" s="12"/>
-      <c r="AKV28" s="12"/>
-      <c r="AKW28" s="12"/>
-      <c r="AKX28" s="12"/>
-      <c r="AKY28" s="12"/>
-      <c r="AKZ28" s="12"/>
-      <c r="ALA28" s="12"/>
-      <c r="ALB28" s="12"/>
-      <c r="ALC28" s="12"/>
-      <c r="ALD28" s="12"/>
-      <c r="ALE28" s="12"/>
-      <c r="ALF28" s="12"/>
-      <c r="ALG28" s="12"/>
-      <c r="ALH28" s="12"/>
-      <c r="ALI28" s="12"/>
-      <c r="ALJ28" s="12"/>
-      <c r="ALK28" s="12"/>
-      <c r="ALL28" s="12"/>
-      <c r="ALM28" s="12"/>
-      <c r="ALN28" s="12"/>
-      <c r="ALO28" s="12"/>
-      <c r="ALP28" s="12"/>
-      <c r="ALQ28" s="12"/>
-      <c r="ALR28" s="12"/>
-      <c r="ALS28" s="12"/>
-      <c r="ALT28" s="12"/>
-      <c r="ALU28" s="12"/>
-      <c r="ALV28" s="12"/>
-      <c r="ALW28" s="12"/>
-      <c r="ALX28" s="12"/>
-      <c r="ALY28" s="12"/>
-      <c r="ALZ28" s="12"/>
-      <c r="AMA28" s="12"/>
-      <c r="AMB28" s="12"/>
-      <c r="AMC28" s="12"/>
-      <c r="AMD28" s="12"/>
-      <c r="AME28" s="12"/>
-      <c r="AMF28" s="12"/>
-      <c r="AMG28" s="12"/>
-      <c r="AMH28" s="12"/>
-      <c r="AMI28" s="12"/>
-      <c r="AMJ28" s="12"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="3"/>
+      <c r="AB28" s="3"/>
+      <c r="AC28" s="3"/>
+      <c r="AD28" s="3"/>
+      <c r="AE28" s="3"/>
+      <c r="AF28" s="3"/>
+      <c r="AG28" s="3"/>
+      <c r="AH28" s="3"/>
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+      <c r="AK28" s="3"/>
+      <c r="AL28" s="3"/>
+      <c r="AM28" s="3"/>
+      <c r="AN28" s="3"/>
+      <c r="AO28" s="3"/>
+      <c r="AP28" s="3"/>
+      <c r="AQ28" s="3"/>
+      <c r="AR28" s="3"/>
+      <c r="AS28" s="3"/>
+      <c r="AT28" s="3"/>
+      <c r="AU28" s="3"/>
+      <c r="AV28" s="3"/>
+      <c r="AW28" s="3"/>
+      <c r="AX28" s="3"/>
+      <c r="AY28" s="3"/>
+      <c r="AZ28" s="3"/>
+      <c r="BA28" s="3"/>
+      <c r="BB28" s="3"/>
+      <c r="BC28" s="3"/>
+      <c r="BD28" s="3"/>
+      <c r="BE28" s="3"/>
+      <c r="BF28" s="3"/>
+      <c r="BG28" s="3"/>
+      <c r="BH28" s="3"/>
+      <c r="BI28" s="3"/>
+      <c r="BJ28" s="3"/>
+      <c r="BK28" s="3"/>
+      <c r="BL28" s="3"/>
+      <c r="BM28" s="3"/>
+      <c r="BN28" s="3"/>
+      <c r="BO28" s="3"/>
+      <c r="BP28" s="3"/>
+      <c r="BQ28" s="3"/>
+      <c r="BR28" s="3"/>
+      <c r="BS28" s="3"/>
+      <c r="BT28" s="3"/>
+      <c r="BU28" s="3"/>
+      <c r="BV28" s="3"/>
+      <c r="BW28" s="3"/>
+      <c r="BX28" s="3"/>
+      <c r="BY28" s="3"/>
+      <c r="BZ28" s="3"/>
+      <c r="CA28" s="3"/>
+      <c r="CB28" s="3"/>
+      <c r="CC28" s="3"/>
+      <c r="CD28" s="3"/>
+      <c r="CE28" s="3"/>
+      <c r="CF28" s="3"/>
+      <c r="CG28" s="3"/>
+      <c r="CH28" s="3"/>
+      <c r="CI28" s="3"/>
+      <c r="CJ28" s="3"/>
+      <c r="CK28" s="3"/>
+      <c r="CL28" s="3"/>
+      <c r="CM28" s="3"/>
+      <c r="CN28" s="3"/>
+      <c r="CO28" s="3"/>
+      <c r="CP28" s="3"/>
+      <c r="CQ28" s="3"/>
+      <c r="CR28" s="3"/>
+      <c r="CS28" s="3"/>
+      <c r="CT28" s="3"/>
+      <c r="CU28" s="3"/>
+      <c r="CV28" s="3"/>
+      <c r="CW28" s="3"/>
+      <c r="CX28" s="3"/>
+      <c r="CY28" s="3"/>
+      <c r="CZ28" s="3"/>
+      <c r="DA28" s="3"/>
+      <c r="DB28" s="3"/>
+      <c r="DC28" s="3"/>
+      <c r="DD28" s="3"/>
+      <c r="DE28" s="3"/>
+      <c r="DF28" s="3"/>
+      <c r="DG28" s="3"/>
+      <c r="DH28" s="3"/>
+      <c r="DI28" s="3"/>
+      <c r="DJ28" s="3"/>
+      <c r="DK28" s="3"/>
+      <c r="DL28" s="3"/>
+      <c r="DM28" s="3"/>
+      <c r="DN28" s="3"/>
+      <c r="DO28" s="3"/>
+      <c r="DP28" s="3"/>
+      <c r="DQ28" s="3"/>
+      <c r="DR28" s="3"/>
+      <c r="DS28" s="3"/>
+      <c r="DT28" s="3"/>
+      <c r="DU28" s="3"/>
+      <c r="DV28" s="3"/>
+      <c r="DW28" s="3"/>
+      <c r="DX28" s="3"/>
+      <c r="DY28" s="3"/>
+      <c r="DZ28" s="3"/>
+      <c r="EA28" s="3"/>
+      <c r="EB28" s="3"/>
+      <c r="EC28" s="3"/>
+      <c r="ED28" s="3"/>
+      <c r="EE28" s="3"/>
+      <c r="EF28" s="3"/>
+      <c r="EG28" s="3"/>
+      <c r="EH28" s="3"/>
+      <c r="EI28" s="3"/>
+      <c r="EJ28" s="3"/>
+      <c r="EK28" s="3"/>
+      <c r="EL28" s="3"/>
+      <c r="EM28" s="3"/>
+      <c r="EN28" s="3"/>
+      <c r="EO28" s="3"/>
+      <c r="EP28" s="3"/>
+      <c r="EQ28" s="3"/>
+      <c r="ER28" s="3"/>
+      <c r="ES28" s="3"/>
+      <c r="ET28" s="3"/>
+      <c r="EU28" s="3"/>
+      <c r="EV28" s="3"/>
+      <c r="EW28" s="3"/>
+      <c r="EX28" s="3"/>
+      <c r="EY28" s="3"/>
+      <c r="EZ28" s="3"/>
+      <c r="FA28" s="3"/>
+      <c r="FB28" s="3"/>
+      <c r="FC28" s="3"/>
+      <c r="FD28" s="3"/>
+      <c r="FE28" s="3"/>
+      <c r="FF28" s="3"/>
+      <c r="FG28" s="3"/>
+      <c r="FH28" s="3"/>
+      <c r="FI28" s="3"/>
+      <c r="FJ28" s="3"/>
+      <c r="FK28" s="3"/>
+      <c r="FL28" s="3"/>
+      <c r="FM28" s="3"/>
+      <c r="FN28" s="3"/>
+      <c r="FO28" s="3"/>
+      <c r="FP28" s="3"/>
+      <c r="FQ28" s="3"/>
+      <c r="FR28" s="3"/>
+      <c r="FS28" s="3"/>
+      <c r="FT28" s="3"/>
+      <c r="FU28" s="3"/>
+      <c r="FV28" s="3"/>
+      <c r="FW28" s="3"/>
+      <c r="FX28" s="3"/>
+      <c r="FY28" s="3"/>
+      <c r="FZ28" s="3"/>
+      <c r="GA28" s="3"/>
+      <c r="GB28" s="3"/>
+      <c r="GC28" s="3"/>
+      <c r="GD28" s="3"/>
+      <c r="GE28" s="3"/>
+      <c r="GF28" s="3"/>
+      <c r="GG28" s="3"/>
+      <c r="GH28" s="3"/>
+      <c r="GI28" s="3"/>
+      <c r="GJ28" s="3"/>
+      <c r="GK28" s="3"/>
+      <c r="GL28" s="3"/>
+      <c r="GM28" s="3"/>
+      <c r="GN28" s="3"/>
+      <c r="GO28" s="3"/>
+      <c r="GP28" s="3"/>
+      <c r="GQ28" s="3"/>
+      <c r="GR28" s="3"/>
+      <c r="GS28" s="3"/>
+      <c r="GT28" s="3"/>
+      <c r="GU28" s="3"/>
+      <c r="GV28" s="3"/>
+      <c r="GW28" s="3"/>
+      <c r="GX28" s="3"/>
+      <c r="GY28" s="3"/>
+      <c r="GZ28" s="3"/>
+      <c r="HA28" s="3"/>
+      <c r="HB28" s="3"/>
+      <c r="HC28" s="3"/>
+      <c r="HD28" s="3"/>
+      <c r="HE28" s="3"/>
+      <c r="HF28" s="3"/>
+      <c r="HG28" s="3"/>
+      <c r="HH28" s="3"/>
+      <c r="HI28" s="3"/>
+      <c r="HJ28" s="3"/>
+      <c r="HK28" s="3"/>
+      <c r="HL28" s="3"/>
+      <c r="HM28" s="3"/>
+      <c r="HN28" s="3"/>
+      <c r="HO28" s="3"/>
+      <c r="HP28" s="3"/>
+      <c r="HQ28" s="3"/>
+      <c r="HR28" s="3"/>
+      <c r="HS28" s="3"/>
+      <c r="HT28" s="3"/>
+      <c r="HU28" s="3"/>
+      <c r="HV28" s="3"/>
+      <c r="HW28" s="3"/>
+      <c r="HX28" s="3"/>
+      <c r="HY28" s="3"/>
+      <c r="HZ28" s="3"/>
+      <c r="IA28" s="3"/>
+      <c r="IB28" s="3"/>
+      <c r="IC28" s="3"/>
+      <c r="ID28" s="3"/>
+      <c r="IE28" s="3"/>
+      <c r="IF28" s="3"/>
+      <c r="IG28" s="3"/>
+      <c r="IH28" s="3"/>
+      <c r="II28" s="3"/>
+      <c r="IJ28" s="3"/>
+      <c r="IK28" s="3"/>
+      <c r="IL28" s="3"/>
+      <c r="IM28" s="3"/>
+      <c r="IN28" s="3"/>
+      <c r="IO28" s="3"/>
+      <c r="IP28" s="3"/>
+      <c r="IQ28" s="3"/>
+      <c r="IR28" s="3"/>
+      <c r="IS28" s="3"/>
+      <c r="IT28" s="3"/>
+      <c r="IU28" s="3"/>
+      <c r="IV28" s="3"/>
+      <c r="IW28" s="3"/>
+      <c r="IX28" s="3"/>
+      <c r="IY28" s="3"/>
+      <c r="IZ28" s="3"/>
+      <c r="JA28" s="3"/>
+      <c r="JB28" s="3"/>
+      <c r="JC28" s="3"/>
+      <c r="JD28" s="3"/>
+      <c r="JE28" s="3"/>
+      <c r="JF28" s="3"/>
+      <c r="JG28" s="3"/>
+      <c r="JH28" s="3"/>
+      <c r="JI28" s="3"/>
+      <c r="JJ28" s="3"/>
+      <c r="JK28" s="3"/>
+      <c r="JL28" s="3"/>
+      <c r="JM28" s="3"/>
+      <c r="JN28" s="3"/>
+      <c r="JO28" s="3"/>
+      <c r="JP28" s="3"/>
+      <c r="JQ28" s="3"/>
+      <c r="JR28" s="3"/>
+      <c r="JS28" s="3"/>
+      <c r="JT28" s="3"/>
+      <c r="JU28" s="3"/>
+      <c r="JV28" s="3"/>
+      <c r="JW28" s="3"/>
+      <c r="JX28" s="3"/>
+      <c r="JY28" s="3"/>
+      <c r="JZ28" s="3"/>
+      <c r="KA28" s="3"/>
+      <c r="KB28" s="3"/>
+      <c r="KC28" s="3"/>
+      <c r="KD28" s="3"/>
+      <c r="KE28" s="3"/>
+      <c r="KF28" s="3"/>
+      <c r="KG28" s="3"/>
+      <c r="KH28" s="3"/>
+      <c r="KI28" s="3"/>
+      <c r="KJ28" s="3"/>
+      <c r="KK28" s="3"/>
+      <c r="KL28" s="3"/>
+      <c r="KM28" s="3"/>
+      <c r="KN28" s="3"/>
+      <c r="KO28" s="3"/>
+      <c r="KP28" s="3"/>
+      <c r="KQ28" s="3"/>
+      <c r="KR28" s="3"/>
+      <c r="KS28" s="3"/>
+      <c r="KT28" s="3"/>
+      <c r="KU28" s="3"/>
+      <c r="KV28" s="3"/>
+      <c r="KW28" s="3"/>
+      <c r="KX28" s="3"/>
+      <c r="KY28" s="3"/>
+      <c r="KZ28" s="3"/>
+      <c r="LA28" s="3"/>
+      <c r="LB28" s="3"/>
+      <c r="LC28" s="3"/>
+      <c r="LD28" s="3"/>
+      <c r="LE28" s="3"/>
+      <c r="LF28" s="3"/>
+      <c r="LG28" s="3"/>
+      <c r="LH28" s="3"/>
+      <c r="LI28" s="3"/>
+      <c r="LJ28" s="3"/>
+      <c r="LK28" s="3"/>
+      <c r="LL28" s="3"/>
+      <c r="LM28" s="3"/>
+      <c r="LN28" s="3"/>
+      <c r="LO28" s="3"/>
+      <c r="LP28" s="3"/>
+      <c r="LQ28" s="3"/>
+      <c r="LR28" s="3"/>
+      <c r="LS28" s="3"/>
+      <c r="LT28" s="3"/>
+      <c r="LU28" s="3"/>
+      <c r="LV28" s="3"/>
+      <c r="LW28" s="3"/>
+      <c r="LX28" s="3"/>
+      <c r="LY28" s="3"/>
+      <c r="LZ28" s="3"/>
+      <c r="MA28" s="3"/>
+      <c r="MB28" s="3"/>
+      <c r="MC28" s="3"/>
+      <c r="MD28" s="3"/>
+      <c r="ME28" s="3"/>
+      <c r="MF28" s="3"/>
+      <c r="MG28" s="3"/>
+      <c r="MH28" s="3"/>
+      <c r="MI28" s="3"/>
+      <c r="MJ28" s="3"/>
+      <c r="MK28" s="3"/>
+      <c r="ML28" s="3"/>
+      <c r="MM28" s="3"/>
+      <c r="MN28" s="3"/>
+      <c r="MO28" s="3"/>
+      <c r="MP28" s="3"/>
+      <c r="MQ28" s="3"/>
+      <c r="MR28" s="3"/>
+      <c r="MS28" s="3"/>
+      <c r="MT28" s="3"/>
+      <c r="MU28" s="3"/>
+      <c r="MV28" s="3"/>
+      <c r="MW28" s="3"/>
+      <c r="MX28" s="3"/>
+      <c r="MY28" s="3"/>
+      <c r="MZ28" s="3"/>
+      <c r="NA28" s="3"/>
+      <c r="NB28" s="3"/>
+      <c r="NC28" s="3"/>
+      <c r="ND28" s="3"/>
+      <c r="NE28" s="3"/>
+      <c r="NF28" s="3"/>
+      <c r="NG28" s="3"/>
+      <c r="NH28" s="3"/>
+      <c r="NI28" s="3"/>
+      <c r="NJ28" s="3"/>
+      <c r="NK28" s="3"/>
+      <c r="NL28" s="3"/>
+      <c r="NM28" s="3"/>
+      <c r="NN28" s="3"/>
+      <c r="NO28" s="3"/>
+      <c r="NP28" s="3"/>
+      <c r="NQ28" s="3"/>
+      <c r="NR28" s="3"/>
+      <c r="NS28" s="3"/>
+      <c r="NT28" s="3"/>
+      <c r="NU28" s="3"/>
+      <c r="NV28" s="3"/>
+      <c r="NW28" s="3"/>
+      <c r="NX28" s="3"/>
+      <c r="NY28" s="3"/>
+      <c r="NZ28" s="3"/>
+      <c r="OA28" s="3"/>
+      <c r="OB28" s="3"/>
+      <c r="OC28" s="3"/>
+      <c r="OD28" s="3"/>
+      <c r="OE28" s="3"/>
+      <c r="OF28" s="3"/>
+      <c r="OG28" s="3"/>
+      <c r="OH28" s="3"/>
+      <c r="OI28" s="3"/>
+      <c r="OJ28" s="3"/>
+      <c r="OK28" s="3"/>
+      <c r="OL28" s="3"/>
+      <c r="OM28" s="3"/>
+      <c r="ON28" s="3"/>
+      <c r="OO28" s="3"/>
+      <c r="OP28" s="3"/>
+      <c r="OQ28" s="3"/>
+      <c r="OR28" s="3"/>
+      <c r="OS28" s="3"/>
+      <c r="OT28" s="3"/>
+      <c r="OU28" s="3"/>
+      <c r="OV28" s="3"/>
+      <c r="OW28" s="3"/>
+      <c r="OX28" s="3"/>
+      <c r="OY28" s="3"/>
+      <c r="OZ28" s="3"/>
+      <c r="PA28" s="3"/>
+      <c r="PB28" s="3"/>
+      <c r="PC28" s="3"/>
+      <c r="PD28" s="3"/>
+      <c r="PE28" s="3"/>
+      <c r="PF28" s="3"/>
+      <c r="PG28" s="3"/>
+      <c r="PH28" s="3"/>
+      <c r="PI28" s="3"/>
+      <c r="PJ28" s="3"/>
+      <c r="PK28" s="3"/>
+      <c r="PL28" s="3"/>
+      <c r="PM28" s="3"/>
+      <c r="PN28" s="3"/>
+      <c r="PO28" s="3"/>
+      <c r="PP28" s="3"/>
+      <c r="PQ28" s="3"/>
+      <c r="PR28" s="3"/>
+      <c r="PS28" s="3"/>
+      <c r="PT28" s="3"/>
+      <c r="PU28" s="3"/>
+      <c r="PV28" s="3"/>
+      <c r="PW28" s="3"/>
+      <c r="PX28" s="3"/>
+      <c r="PY28" s="3"/>
+      <c r="PZ28" s="3"/>
+      <c r="QA28" s="3"/>
+      <c r="QB28" s="3"/>
+      <c r="QC28" s="3"/>
+      <c r="QD28" s="3"/>
+      <c r="QE28" s="3"/>
+      <c r="QF28" s="3"/>
+      <c r="QG28" s="3"/>
+      <c r="QH28" s="3"/>
+      <c r="QI28" s="3"/>
+      <c r="QJ28" s="3"/>
+      <c r="QK28" s="3"/>
+      <c r="QL28" s="3"/>
+      <c r="QM28" s="3"/>
+      <c r="QN28" s="3"/>
+      <c r="QO28" s="3"/>
+      <c r="QP28" s="3"/>
+      <c r="QQ28" s="3"/>
+      <c r="QR28" s="3"/>
+      <c r="QS28" s="3"/>
+      <c r="QT28" s="3"/>
+      <c r="QU28" s="3"/>
+      <c r="QV28" s="3"/>
+      <c r="QW28" s="3"/>
+      <c r="QX28" s="3"/>
+      <c r="QY28" s="3"/>
+      <c r="QZ28" s="3"/>
+      <c r="RA28" s="3"/>
+      <c r="RB28" s="3"/>
+      <c r="RC28" s="3"/>
+      <c r="RD28" s="3"/>
+      <c r="RE28" s="3"/>
+      <c r="RF28" s="3"/>
+      <c r="RG28" s="3"/>
+      <c r="RH28" s="3"/>
+      <c r="RI28" s="3"/>
+      <c r="RJ28" s="3"/>
+      <c r="RK28" s="3"/>
+      <c r="RL28" s="3"/>
+      <c r="RM28" s="3"/>
+      <c r="RN28" s="3"/>
+      <c r="RO28" s="3"/>
+      <c r="RP28" s="3"/>
+      <c r="RQ28" s="3"/>
+      <c r="RR28" s="3"/>
+      <c r="RS28" s="3"/>
+      <c r="RT28" s="3"/>
+      <c r="RU28" s="3"/>
+      <c r="RV28" s="3"/>
+      <c r="RW28" s="3"/>
+      <c r="RX28" s="3"/>
+      <c r="RY28" s="3"/>
+      <c r="RZ28" s="3"/>
+      <c r="SA28" s="3"/>
+      <c r="SB28" s="3"/>
+      <c r="SC28" s="3"/>
+      <c r="SD28" s="3"/>
+      <c r="SE28" s="3"/>
+      <c r="SF28" s="3"/>
+      <c r="SG28" s="3"/>
+      <c r="SH28" s="3"/>
+      <c r="SI28" s="3"/>
+      <c r="SJ28" s="3"/>
+      <c r="SK28" s="3"/>
+      <c r="SL28" s="3"/>
+      <c r="SM28" s="3"/>
+      <c r="SN28" s="3"/>
+      <c r="SO28" s="3"/>
+      <c r="SP28" s="3"/>
+      <c r="SQ28" s="3"/>
+      <c r="SR28" s="3"/>
+      <c r="SS28" s="3"/>
+      <c r="ST28" s="3"/>
+      <c r="SU28" s="3"/>
+      <c r="SV28" s="3"/>
+      <c r="SW28" s="3"/>
+      <c r="SX28" s="3"/>
+      <c r="SY28" s="3"/>
+      <c r="SZ28" s="3"/>
+      <c r="TA28" s="3"/>
+      <c r="TB28" s="3"/>
+      <c r="TC28" s="3"/>
+      <c r="TD28" s="3"/>
+      <c r="TE28" s="3"/>
+      <c r="TF28" s="3"/>
+      <c r="TG28" s="3"/>
+      <c r="TH28" s="3"/>
+      <c r="TI28" s="3"/>
+      <c r="TJ28" s="3"/>
+      <c r="TK28" s="3"/>
+      <c r="TL28" s="3"/>
+      <c r="TM28" s="3"/>
+      <c r="TN28" s="3"/>
+      <c r="TO28" s="3"/>
+      <c r="TP28" s="3"/>
+      <c r="TQ28" s="3"/>
+      <c r="TR28" s="3"/>
+      <c r="TS28" s="3"/>
+      <c r="TT28" s="3"/>
+      <c r="TU28" s="3"/>
+      <c r="TV28" s="3"/>
+      <c r="TW28" s="3"/>
+      <c r="TX28" s="3"/>
+      <c r="TY28" s="3"/>
+      <c r="TZ28" s="3"/>
+      <c r="UA28" s="3"/>
+      <c r="UB28" s="3"/>
+      <c r="UC28" s="3"/>
+      <c r="UD28" s="3"/>
+      <c r="UE28" s="3"/>
+      <c r="UF28" s="3"/>
+      <c r="UG28" s="3"/>
+      <c r="UH28" s="3"/>
+      <c r="UI28" s="3"/>
+      <c r="UJ28" s="3"/>
+      <c r="UK28" s="3"/>
+      <c r="UL28" s="3"/>
+      <c r="UM28" s="3"/>
+      <c r="UN28" s="3"/>
+      <c r="UO28" s="3"/>
+      <c r="UP28" s="3"/>
+      <c r="UQ28" s="3"/>
+      <c r="UR28" s="3"/>
+      <c r="US28" s="3"/>
+      <c r="UT28" s="3"/>
+      <c r="UU28" s="3"/>
+      <c r="UV28" s="3"/>
+      <c r="UW28" s="3"/>
+      <c r="UX28" s="3"/>
+      <c r="UY28" s="3"/>
+      <c r="UZ28" s="3"/>
+      <c r="VA28" s="3"/>
+      <c r="VB28" s="3"/>
+      <c r="VC28" s="3"/>
+      <c r="VD28" s="3"/>
+      <c r="VE28" s="3"/>
+      <c r="VF28" s="3"/>
+      <c r="VG28" s="3"/>
+      <c r="VH28" s="3"/>
+      <c r="VI28" s="3"/>
+      <c r="VJ28" s="3"/>
+      <c r="VK28" s="3"/>
+      <c r="VL28" s="3"/>
+      <c r="VM28" s="3"/>
+      <c r="VN28" s="3"/>
+      <c r="VO28" s="3"/>
+      <c r="VP28" s="3"/>
+      <c r="VQ28" s="3"/>
+      <c r="VR28" s="3"/>
+      <c r="VS28" s="3"/>
+      <c r="VT28" s="3"/>
+      <c r="VU28" s="3"/>
+      <c r="VV28" s="3"/>
+      <c r="VW28" s="3"/>
+      <c r="VX28" s="3"/>
+      <c r="VY28" s="3"/>
+      <c r="VZ28" s="3"/>
+      <c r="WA28" s="3"/>
+      <c r="WB28" s="3"/>
+      <c r="WC28" s="3"/>
+      <c r="WD28" s="3"/>
+      <c r="WE28" s="3"/>
+      <c r="WF28" s="3"/>
+      <c r="WG28" s="3"/>
+      <c r="WH28" s="3"/>
+      <c r="WI28" s="3"/>
+      <c r="WJ28" s="3"/>
+      <c r="WK28" s="3"/>
+      <c r="WL28" s="3"/>
+      <c r="WM28" s="3"/>
+      <c r="WN28" s="3"/>
+      <c r="WO28" s="3"/>
+      <c r="WP28" s="3"/>
+      <c r="WQ28" s="3"/>
+      <c r="WR28" s="3"/>
+      <c r="WS28" s="3"/>
+      <c r="WT28" s="3"/>
+      <c r="WU28" s="3"/>
+      <c r="WV28" s="3"/>
+      <c r="WW28" s="3"/>
+      <c r="WX28" s="3"/>
+      <c r="WY28" s="3"/>
+      <c r="WZ28" s="3"/>
+      <c r="XA28" s="3"/>
+      <c r="XB28" s="3"/>
+      <c r="XC28" s="3"/>
+      <c r="XD28" s="3"/>
+      <c r="XE28" s="3"/>
+      <c r="XF28" s="3"/>
+      <c r="XG28" s="3"/>
+      <c r="XH28" s="3"/>
+      <c r="XI28" s="3"/>
+      <c r="XJ28" s="3"/>
+      <c r="XK28" s="3"/>
+      <c r="XL28" s="3"/>
+      <c r="XM28" s="3"/>
+      <c r="XN28" s="3"/>
+      <c r="XO28" s="3"/>
+      <c r="XP28" s="3"/>
+      <c r="XQ28" s="3"/>
+      <c r="XR28" s="3"/>
+      <c r="XS28" s="3"/>
+      <c r="XT28" s="3"/>
+      <c r="XU28" s="3"/>
+      <c r="XV28" s="3"/>
+      <c r="XW28" s="3"/>
+      <c r="XX28" s="3"/>
+      <c r="XY28" s="3"/>
+      <c r="XZ28" s="3"/>
+      <c r="YA28" s="3"/>
+      <c r="YB28" s="3"/>
+      <c r="YC28" s="3"/>
+      <c r="YD28" s="3"/>
+      <c r="YE28" s="3"/>
+      <c r="YF28" s="3"/>
+      <c r="YG28" s="3"/>
+      <c r="YH28" s="3"/>
+      <c r="YI28" s="3"/>
+      <c r="YJ28" s="3"/>
+      <c r="YK28" s="3"/>
+      <c r="YL28" s="3"/>
+      <c r="YM28" s="3"/>
+      <c r="YN28" s="3"/>
+      <c r="YO28" s="3"/>
+      <c r="YP28" s="3"/>
+      <c r="YQ28" s="3"/>
+      <c r="YR28" s="3"/>
+      <c r="YS28" s="3"/>
+      <c r="YT28" s="3"/>
+      <c r="YU28" s="3"/>
+      <c r="YV28" s="3"/>
+      <c r="YW28" s="3"/>
+      <c r="YX28" s="3"/>
+      <c r="YY28" s="3"/>
+      <c r="YZ28" s="3"/>
+      <c r="ZA28" s="3"/>
+      <c r="ZB28" s="3"/>
+      <c r="ZC28" s="3"/>
+      <c r="ZD28" s="3"/>
+      <c r="ZE28" s="3"/>
+      <c r="ZF28" s="3"/>
+      <c r="ZG28" s="3"/>
+      <c r="ZH28" s="3"/>
+      <c r="ZI28" s="3"/>
+      <c r="ZJ28" s="3"/>
+      <c r="ZK28" s="3"/>
+      <c r="ZL28" s="3"/>
+      <c r="ZM28" s="3"/>
+      <c r="ZN28" s="3"/>
+      <c r="ZO28" s="3"/>
+      <c r="ZP28" s="3"/>
+      <c r="ZQ28" s="3"/>
+      <c r="ZR28" s="3"/>
+      <c r="ZS28" s="3"/>
+      <c r="ZT28" s="3"/>
+      <c r="ZU28" s="3"/>
+      <c r="ZV28" s="3"/>
+      <c r="ZW28" s="3"/>
+      <c r="ZX28" s="3"/>
+      <c r="ZY28" s="3"/>
+      <c r="ZZ28" s="3"/>
+      <c r="AAA28" s="3"/>
+      <c r="AAB28" s="3"/>
+      <c r="AAC28" s="3"/>
+      <c r="AAD28" s="3"/>
+      <c r="AAE28" s="3"/>
+      <c r="AAF28" s="3"/>
+      <c r="AAG28" s="3"/>
+      <c r="AAH28" s="3"/>
+      <c r="AAI28" s="3"/>
+      <c r="AAJ28" s="3"/>
+      <c r="AAK28" s="3"/>
+      <c r="AAL28" s="3"/>
+      <c r="AAM28" s="3"/>
+      <c r="AAN28" s="3"/>
+      <c r="AAO28" s="3"/>
+      <c r="AAP28" s="3"/>
+      <c r="AAQ28" s="3"/>
+      <c r="AAR28" s="3"/>
+      <c r="AAS28" s="3"/>
+      <c r="AAT28" s="3"/>
+      <c r="AAU28" s="3"/>
+      <c r="AAV28" s="3"/>
+      <c r="AAW28" s="3"/>
+      <c r="AAX28" s="3"/>
+      <c r="AAY28" s="3"/>
+      <c r="AAZ28" s="3"/>
+      <c r="ABA28" s="3"/>
+      <c r="ABB28" s="3"/>
+      <c r="ABC28" s="3"/>
+      <c r="ABD28" s="3"/>
+      <c r="ABE28" s="3"/>
+      <c r="ABF28" s="3"/>
+      <c r="ABG28" s="3"/>
+      <c r="ABH28" s="3"/>
+      <c r="ABI28" s="3"/>
+      <c r="ABJ28" s="3"/>
+      <c r="ABK28" s="3"/>
+      <c r="ABL28" s="3"/>
+      <c r="ABM28" s="3"/>
+      <c r="ABN28" s="3"/>
+      <c r="ABO28" s="3"/>
+      <c r="ABP28" s="3"/>
+      <c r="ABQ28" s="3"/>
+      <c r="ABR28" s="3"/>
+      <c r="ABS28" s="3"/>
+      <c r="ABT28" s="3"/>
+      <c r="ABU28" s="3"/>
+      <c r="ABV28" s="3"/>
+      <c r="ABW28" s="3"/>
+      <c r="ABX28" s="3"/>
+      <c r="ABY28" s="3"/>
+      <c r="ABZ28" s="3"/>
+      <c r="ACA28" s="3"/>
+      <c r="ACB28" s="3"/>
+      <c r="ACC28" s="3"/>
+      <c r="ACD28" s="3"/>
+      <c r="ACE28" s="3"/>
+      <c r="ACF28" s="3"/>
+      <c r="ACG28" s="3"/>
+      <c r="ACH28" s="3"/>
+      <c r="ACI28" s="3"/>
+      <c r="ACJ28" s="3"/>
+      <c r="ACK28" s="3"/>
+      <c r="ACL28" s="3"/>
+      <c r="ACM28" s="3"/>
+      <c r="ACN28" s="3"/>
+      <c r="ACO28" s="3"/>
+      <c r="ACP28" s="3"/>
+      <c r="ACQ28" s="3"/>
+      <c r="ACR28" s="3"/>
+      <c r="ACS28" s="3"/>
+      <c r="ACT28" s="3"/>
+      <c r="ACU28" s="3"/>
+      <c r="ACV28" s="3"/>
+      <c r="ACW28" s="3"/>
+      <c r="ACX28" s="3"/>
+      <c r="ACY28" s="3"/>
+      <c r="ACZ28" s="3"/>
+      <c r="ADA28" s="3"/>
+      <c r="ADB28" s="3"/>
+      <c r="ADC28" s="3"/>
+      <c r="ADD28" s="3"/>
+      <c r="ADE28" s="3"/>
+      <c r="ADF28" s="3"/>
+      <c r="ADG28" s="3"/>
+      <c r="ADH28" s="3"/>
+      <c r="ADI28" s="3"/>
+      <c r="ADJ28" s="3"/>
+      <c r="ADK28" s="3"/>
+      <c r="ADL28" s="3"/>
+      <c r="ADM28" s="3"/>
+      <c r="ADN28" s="3"/>
+      <c r="ADO28" s="3"/>
+      <c r="ADP28" s="3"/>
+      <c r="ADQ28" s="3"/>
+      <c r="ADR28" s="3"/>
+      <c r="ADS28" s="3"/>
+      <c r="ADT28" s="3"/>
+      <c r="ADU28" s="3"/>
+      <c r="ADV28" s="3"/>
+      <c r="ADW28" s="3"/>
+      <c r="ADX28" s="3"/>
+      <c r="ADY28" s="3"/>
+      <c r="ADZ28" s="3"/>
+      <c r="AEA28" s="3"/>
+      <c r="AEB28" s="3"/>
+      <c r="AEC28" s="3"/>
+      <c r="AED28" s="3"/>
+      <c r="AEE28" s="3"/>
+      <c r="AEF28" s="3"/>
+      <c r="AEG28" s="3"/>
+      <c r="AEH28" s="3"/>
+      <c r="AEI28" s="3"/>
+      <c r="AEJ28" s="3"/>
+      <c r="AEK28" s="3"/>
+      <c r="AEL28" s="3"/>
+      <c r="AEM28" s="3"/>
+      <c r="AEN28" s="3"/>
+      <c r="AEO28" s="3"/>
+      <c r="AEP28" s="3"/>
+      <c r="AEQ28" s="3"/>
+      <c r="AER28" s="3"/>
+      <c r="AES28" s="3"/>
+      <c r="AET28" s="3"/>
+      <c r="AEU28" s="3"/>
+      <c r="AEV28" s="3"/>
+      <c r="AEW28" s="3"/>
+      <c r="AEX28" s="3"/>
+      <c r="AEY28" s="3"/>
+      <c r="AEZ28" s="3"/>
+      <c r="AFA28" s="3"/>
+      <c r="AFB28" s="3"/>
+      <c r="AFC28" s="3"/>
+      <c r="AFD28" s="3"/>
+      <c r="AFE28" s="3"/>
+      <c r="AFF28" s="3"/>
+      <c r="AFG28" s="3"/>
+      <c r="AFH28" s="3"/>
+      <c r="AFI28" s="3"/>
+      <c r="AFJ28" s="3"/>
+      <c r="AFK28" s="3"/>
+      <c r="AFL28" s="3"/>
+      <c r="AFM28" s="3"/>
+      <c r="AFN28" s="3"/>
+      <c r="AFO28" s="3"/>
+      <c r="AFP28" s="3"/>
+      <c r="AFQ28" s="3"/>
+      <c r="AFR28" s="3"/>
+      <c r="AFS28" s="3"/>
+      <c r="AFT28" s="3"/>
+      <c r="AFU28" s="3"/>
+      <c r="AFV28" s="3"/>
+      <c r="AFW28" s="3"/>
+      <c r="AFX28" s="3"/>
+      <c r="AFY28" s="3"/>
+      <c r="AFZ28" s="3"/>
+      <c r="AGA28" s="3"/>
+      <c r="AGB28" s="3"/>
+      <c r="AGC28" s="3"/>
+      <c r="AGD28" s="3"/>
+      <c r="AGE28" s="3"/>
+      <c r="AGF28" s="3"/>
+      <c r="AGG28" s="3"/>
+      <c r="AGH28" s="3"/>
+      <c r="AGI28" s="3"/>
+      <c r="AGJ28" s="3"/>
+      <c r="AGK28" s="3"/>
+      <c r="AGL28" s="3"/>
+      <c r="AGM28" s="3"/>
+      <c r="AGN28" s="3"/>
+      <c r="AGO28" s="3"/>
+      <c r="AGP28" s="3"/>
+      <c r="AGQ28" s="3"/>
+      <c r="AGR28" s="3"/>
+      <c r="AGS28" s="3"/>
+      <c r="AGT28" s="3"/>
+      <c r="AGU28" s="3"/>
+      <c r="AGV28" s="3"/>
+      <c r="AGW28" s="3"/>
+      <c r="AGX28" s="3"/>
+      <c r="AGY28" s="3"/>
+      <c r="AGZ28" s="3"/>
+      <c r="AHA28" s="3"/>
+      <c r="AHB28" s="3"/>
+      <c r="AHC28" s="3"/>
+      <c r="AHD28" s="3"/>
+      <c r="AHE28" s="3"/>
+      <c r="AHF28" s="3"/>
+      <c r="AHG28" s="3"/>
+      <c r="AHH28" s="3"/>
+      <c r="AHI28" s="3"/>
+      <c r="AHJ28" s="3"/>
+      <c r="AHK28" s="3"/>
+      <c r="AHL28" s="3"/>
+      <c r="AHM28" s="3"/>
+      <c r="AHN28" s="3"/>
+      <c r="AHO28" s="3"/>
+      <c r="AHP28" s="3"/>
+      <c r="AHQ28" s="3"/>
+      <c r="AHR28" s="3"/>
+      <c r="AHS28" s="3"/>
+      <c r="AHT28" s="3"/>
+      <c r="AHU28" s="3"/>
+      <c r="AHV28" s="3"/>
+      <c r="AHW28" s="3"/>
+      <c r="AHX28" s="3"/>
+      <c r="AHY28" s="3"/>
+      <c r="AHZ28" s="3"/>
+      <c r="AIA28" s="3"/>
+      <c r="AIB28" s="3"/>
+      <c r="AIC28" s="3"/>
+      <c r="AID28" s="3"/>
+      <c r="AIE28" s="3"/>
+      <c r="AIF28" s="3"/>
+      <c r="AIG28" s="3"/>
+      <c r="AIH28" s="3"/>
+      <c r="AII28" s="3"/>
+      <c r="AIJ28" s="3"/>
+      <c r="AIK28" s="3"/>
+      <c r="AIL28" s="3"/>
+      <c r="AIM28" s="3"/>
+      <c r="AIN28" s="3"/>
+      <c r="AIO28" s="3"/>
+      <c r="AIP28" s="3"/>
+      <c r="AIQ28" s="3"/>
+      <c r="AIR28" s="3"/>
+      <c r="AIS28" s="3"/>
+      <c r="AIT28" s="3"/>
+      <c r="AIU28" s="3"/>
+      <c r="AIV28" s="3"/>
+      <c r="AIW28" s="3"/>
+      <c r="AIX28" s="3"/>
+      <c r="AIY28" s="3"/>
+      <c r="AIZ28" s="3"/>
+      <c r="AJA28" s="3"/>
+      <c r="AJB28" s="3"/>
+      <c r="AJC28" s="3"/>
+      <c r="AJD28" s="3"/>
+      <c r="AJE28" s="3"/>
+      <c r="AJF28" s="3"/>
+      <c r="AJG28" s="3"/>
+      <c r="AJH28" s="3"/>
+      <c r="AJI28" s="3"/>
+      <c r="AJJ28" s="3"/>
+      <c r="AJK28" s="3"/>
+      <c r="AJL28" s="3"/>
+      <c r="AJM28" s="3"/>
+      <c r="AJN28" s="3"/>
+      <c r="AJO28" s="3"/>
+      <c r="AJP28" s="3"/>
+      <c r="AJQ28" s="3"/>
+      <c r="AJR28" s="3"/>
+      <c r="AJS28" s="3"/>
+      <c r="AJT28" s="3"/>
+      <c r="AJU28" s="3"/>
+      <c r="AJV28" s="3"/>
+      <c r="AJW28" s="3"/>
+      <c r="AJX28" s="3"/>
+      <c r="AJY28" s="3"/>
+      <c r="AJZ28" s="3"/>
+      <c r="AKA28" s="3"/>
+      <c r="AKB28" s="3"/>
+      <c r="AKC28" s="3"/>
+      <c r="AKD28" s="3"/>
+      <c r="AKE28" s="3"/>
+      <c r="AKF28" s="3"/>
+      <c r="AKG28" s="3"/>
+      <c r="AKH28" s="3"/>
+      <c r="AKI28" s="3"/>
+      <c r="AKJ28" s="3"/>
+      <c r="AKK28" s="3"/>
+      <c r="AKL28" s="3"/>
+      <c r="AKM28" s="3"/>
+      <c r="AKN28" s="3"/>
+      <c r="AKO28" s="3"/>
+      <c r="AKP28" s="3"/>
+      <c r="AKQ28" s="3"/>
+      <c r="AKR28" s="3"/>
+      <c r="AKS28" s="3"/>
+      <c r="AKT28" s="3"/>
+      <c r="AKU28" s="3"/>
+      <c r="AKV28" s="3"/>
+      <c r="AKW28" s="3"/>
+      <c r="AKX28" s="3"/>
+      <c r="AKY28" s="3"/>
+      <c r="AKZ28" s="3"/>
+      <c r="ALA28" s="3"/>
+      <c r="ALB28" s="3"/>
+      <c r="ALC28" s="3"/>
+      <c r="ALD28" s="3"/>
+      <c r="ALE28" s="3"/>
+      <c r="ALF28" s="3"/>
+      <c r="ALG28" s="3"/>
+      <c r="ALH28" s="3"/>
+      <c r="ALI28" s="3"/>
+      <c r="ALJ28" s="3"/>
+      <c r="ALK28" s="3"/>
+      <c r="ALL28" s="3"/>
+      <c r="ALM28" s="3"/>
+      <c r="ALN28" s="3"/>
+      <c r="ALO28" s="3"/>
+      <c r="ALP28" s="3"/>
+      <c r="ALQ28" s="3"/>
+      <c r="ALR28" s="3"/>
+      <c r="ALS28" s="3"/>
+      <c r="ALT28" s="3"/>
+      <c r="ALU28" s="3"/>
+      <c r="ALV28" s="3"/>
+      <c r="ALW28" s="3"/>
+      <c r="ALX28" s="3"/>
+      <c r="ALY28" s="3"/>
+      <c r="ALZ28" s="3"/>
+      <c r="AMA28" s="3"/>
+      <c r="AMB28" s="3"/>
+      <c r="AMC28" s="3"/>
+      <c r="AMD28" s="3"/>
+      <c r="AME28" s="3"/>
+      <c r="AMF28" s="3"/>
+      <c r="AMG28" s="3"/>
+      <c r="AMH28" s="3"/>
+      <c r="AMI28" s="3"/>
+      <c r="AMJ28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>73</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -10703,13 +11781,1042 @@
       <c r="AMI29" s="3"/>
       <c r="AMJ29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="3"/>
+      <c r="AB30" s="3"/>
+      <c r="AC30" s="3"/>
+      <c r="AD30" s="3"/>
+      <c r="AE30" s="3"/>
+      <c r="AF30" s="3"/>
+      <c r="AG30" s="3"/>
+      <c r="AH30" s="3"/>
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+      <c r="AK30" s="3"/>
+      <c r="AL30" s="3"/>
+      <c r="AM30" s="3"/>
+      <c r="AN30" s="3"/>
+      <c r="AO30" s="3"/>
+      <c r="AP30" s="3"/>
+      <c r="AQ30" s="3"/>
+      <c r="AR30" s="3"/>
+      <c r="AS30" s="3"/>
+      <c r="AT30" s="3"/>
+      <c r="AU30" s="3"/>
+      <c r="AV30" s="3"/>
+      <c r="AW30" s="3"/>
+      <c r="AX30" s="3"/>
+      <c r="AY30" s="3"/>
+      <c r="AZ30" s="3"/>
+      <c r="BA30" s="3"/>
+      <c r="BB30" s="3"/>
+      <c r="BC30" s="3"/>
+      <c r="BD30" s="3"/>
+      <c r="BE30" s="3"/>
+      <c r="BF30" s="3"/>
+      <c r="BG30" s="3"/>
+      <c r="BH30" s="3"/>
+      <c r="BI30" s="3"/>
+      <c r="BJ30" s="3"/>
+      <c r="BK30" s="3"/>
+      <c r="BL30" s="3"/>
+      <c r="BM30" s="3"/>
+      <c r="BN30" s="3"/>
+      <c r="BO30" s="3"/>
+      <c r="BP30" s="3"/>
+      <c r="BQ30" s="3"/>
+      <c r="BR30" s="3"/>
+      <c r="BS30" s="3"/>
+      <c r="BT30" s="3"/>
+      <c r="BU30" s="3"/>
+      <c r="BV30" s="3"/>
+      <c r="BW30" s="3"/>
+      <c r="BX30" s="3"/>
+      <c r="BY30" s="3"/>
+      <c r="BZ30" s="3"/>
+      <c r="CA30" s="3"/>
+      <c r="CB30" s="3"/>
+      <c r="CC30" s="3"/>
+      <c r="CD30" s="3"/>
+      <c r="CE30" s="3"/>
+      <c r="CF30" s="3"/>
+      <c r="CG30" s="3"/>
+      <c r="CH30" s="3"/>
+      <c r="CI30" s="3"/>
+      <c r="CJ30" s="3"/>
+      <c r="CK30" s="3"/>
+      <c r="CL30" s="3"/>
+      <c r="CM30" s="3"/>
+      <c r="CN30" s="3"/>
+      <c r="CO30" s="3"/>
+      <c r="CP30" s="3"/>
+      <c r="CQ30" s="3"/>
+      <c r="CR30" s="3"/>
+      <c r="CS30" s="3"/>
+      <c r="CT30" s="3"/>
+      <c r="CU30" s="3"/>
+      <c r="CV30" s="3"/>
+      <c r="CW30" s="3"/>
+      <c r="CX30" s="3"/>
+      <c r="CY30" s="3"/>
+      <c r="CZ30" s="3"/>
+      <c r="DA30" s="3"/>
+      <c r="DB30" s="3"/>
+      <c r="DC30" s="3"/>
+      <c r="DD30" s="3"/>
+      <c r="DE30" s="3"/>
+      <c r="DF30" s="3"/>
+      <c r="DG30" s="3"/>
+      <c r="DH30" s="3"/>
+      <c r="DI30" s="3"/>
+      <c r="DJ30" s="3"/>
+      <c r="DK30" s="3"/>
+      <c r="DL30" s="3"/>
+      <c r="DM30" s="3"/>
+      <c r="DN30" s="3"/>
+      <c r="DO30" s="3"/>
+      <c r="DP30" s="3"/>
+      <c r="DQ30" s="3"/>
+      <c r="DR30" s="3"/>
+      <c r="DS30" s="3"/>
+      <c r="DT30" s="3"/>
+      <c r="DU30" s="3"/>
+      <c r="DV30" s="3"/>
+      <c r="DW30" s="3"/>
+      <c r="DX30" s="3"/>
+      <c r="DY30" s="3"/>
+      <c r="DZ30" s="3"/>
+      <c r="EA30" s="3"/>
+      <c r="EB30" s="3"/>
+      <c r="EC30" s="3"/>
+      <c r="ED30" s="3"/>
+      <c r="EE30" s="3"/>
+      <c r="EF30" s="3"/>
+      <c r="EG30" s="3"/>
+      <c r="EH30" s="3"/>
+      <c r="EI30" s="3"/>
+      <c r="EJ30" s="3"/>
+      <c r="EK30" s="3"/>
+      <c r="EL30" s="3"/>
+      <c r="EM30" s="3"/>
+      <c r="EN30" s="3"/>
+      <c r="EO30" s="3"/>
+      <c r="EP30" s="3"/>
+      <c r="EQ30" s="3"/>
+      <c r="ER30" s="3"/>
+      <c r="ES30" s="3"/>
+      <c r="ET30" s="3"/>
+      <c r="EU30" s="3"/>
+      <c r="EV30" s="3"/>
+      <c r="EW30" s="3"/>
+      <c r="EX30" s="3"/>
+      <c r="EY30" s="3"/>
+      <c r="EZ30" s="3"/>
+      <c r="FA30" s="3"/>
+      <c r="FB30" s="3"/>
+      <c r="FC30" s="3"/>
+      <c r="FD30" s="3"/>
+      <c r="FE30" s="3"/>
+      <c r="FF30" s="3"/>
+      <c r="FG30" s="3"/>
+      <c r="FH30" s="3"/>
+      <c r="FI30" s="3"/>
+      <c r="FJ30" s="3"/>
+      <c r="FK30" s="3"/>
+      <c r="FL30" s="3"/>
+      <c r="FM30" s="3"/>
+      <c r="FN30" s="3"/>
+      <c r="FO30" s="3"/>
+      <c r="FP30" s="3"/>
+      <c r="FQ30" s="3"/>
+      <c r="FR30" s="3"/>
+      <c r="FS30" s="3"/>
+      <c r="FT30" s="3"/>
+      <c r="FU30" s="3"/>
+      <c r="FV30" s="3"/>
+      <c r="FW30" s="3"/>
+      <c r="FX30" s="3"/>
+      <c r="FY30" s="3"/>
+      <c r="FZ30" s="3"/>
+      <c r="GA30" s="3"/>
+      <c r="GB30" s="3"/>
+      <c r="GC30" s="3"/>
+      <c r="GD30" s="3"/>
+      <c r="GE30" s="3"/>
+      <c r="GF30" s="3"/>
+      <c r="GG30" s="3"/>
+      <c r="GH30" s="3"/>
+      <c r="GI30" s="3"/>
+      <c r="GJ30" s="3"/>
+      <c r="GK30" s="3"/>
+      <c r="GL30" s="3"/>
+      <c r="GM30" s="3"/>
+      <c r="GN30" s="3"/>
+      <c r="GO30" s="3"/>
+      <c r="GP30" s="3"/>
+      <c r="GQ30" s="3"/>
+      <c r="GR30" s="3"/>
+      <c r="GS30" s="3"/>
+      <c r="GT30" s="3"/>
+      <c r="GU30" s="3"/>
+      <c r="GV30" s="3"/>
+      <c r="GW30" s="3"/>
+      <c r="GX30" s="3"/>
+      <c r="GY30" s="3"/>
+      <c r="GZ30" s="3"/>
+      <c r="HA30" s="3"/>
+      <c r="HB30" s="3"/>
+      <c r="HC30" s="3"/>
+      <c r="HD30" s="3"/>
+      <c r="HE30" s="3"/>
+      <c r="HF30" s="3"/>
+      <c r="HG30" s="3"/>
+      <c r="HH30" s="3"/>
+      <c r="HI30" s="3"/>
+      <c r="HJ30" s="3"/>
+      <c r="HK30" s="3"/>
+      <c r="HL30" s="3"/>
+      <c r="HM30" s="3"/>
+      <c r="HN30" s="3"/>
+      <c r="HO30" s="3"/>
+      <c r="HP30" s="3"/>
+      <c r="HQ30" s="3"/>
+      <c r="HR30" s="3"/>
+      <c r="HS30" s="3"/>
+      <c r="HT30" s="3"/>
+      <c r="HU30" s="3"/>
+      <c r="HV30" s="3"/>
+      <c r="HW30" s="3"/>
+      <c r="HX30" s="3"/>
+      <c r="HY30" s="3"/>
+      <c r="HZ30" s="3"/>
+      <c r="IA30" s="3"/>
+      <c r="IB30" s="3"/>
+      <c r="IC30" s="3"/>
+      <c r="ID30" s="3"/>
+      <c r="IE30" s="3"/>
+      <c r="IF30" s="3"/>
+      <c r="IG30" s="3"/>
+      <c r="IH30" s="3"/>
+      <c r="II30" s="3"/>
+      <c r="IJ30" s="3"/>
+      <c r="IK30" s="3"/>
+      <c r="IL30" s="3"/>
+      <c r="IM30" s="3"/>
+      <c r="IN30" s="3"/>
+      <c r="IO30" s="3"/>
+      <c r="IP30" s="3"/>
+      <c r="IQ30" s="3"/>
+      <c r="IR30" s="3"/>
+      <c r="IS30" s="3"/>
+      <c r="IT30" s="3"/>
+      <c r="IU30" s="3"/>
+      <c r="IV30" s="3"/>
+      <c r="IW30" s="3"/>
+      <c r="IX30" s="3"/>
+      <c r="IY30" s="3"/>
+      <c r="IZ30" s="3"/>
+      <c r="JA30" s="3"/>
+      <c r="JB30" s="3"/>
+      <c r="JC30" s="3"/>
+      <c r="JD30" s="3"/>
+      <c r="JE30" s="3"/>
+      <c r="JF30" s="3"/>
+      <c r="JG30" s="3"/>
+      <c r="JH30" s="3"/>
+      <c r="JI30" s="3"/>
+      <c r="JJ30" s="3"/>
+      <c r="JK30" s="3"/>
+      <c r="JL30" s="3"/>
+      <c r="JM30" s="3"/>
+      <c r="JN30" s="3"/>
+      <c r="JO30" s="3"/>
+      <c r="JP30" s="3"/>
+      <c r="JQ30" s="3"/>
+      <c r="JR30" s="3"/>
+      <c r="JS30" s="3"/>
+      <c r="JT30" s="3"/>
+      <c r="JU30" s="3"/>
+      <c r="JV30" s="3"/>
+      <c r="JW30" s="3"/>
+      <c r="JX30" s="3"/>
+      <c r="JY30" s="3"/>
+      <c r="JZ30" s="3"/>
+      <c r="KA30" s="3"/>
+      <c r="KB30" s="3"/>
+      <c r="KC30" s="3"/>
+      <c r="KD30" s="3"/>
+      <c r="KE30" s="3"/>
+      <c r="KF30" s="3"/>
+      <c r="KG30" s="3"/>
+      <c r="KH30" s="3"/>
+      <c r="KI30" s="3"/>
+      <c r="KJ30" s="3"/>
+      <c r="KK30" s="3"/>
+      <c r="KL30" s="3"/>
+      <c r="KM30" s="3"/>
+      <c r="KN30" s="3"/>
+      <c r="KO30" s="3"/>
+      <c r="KP30" s="3"/>
+      <c r="KQ30" s="3"/>
+      <c r="KR30" s="3"/>
+      <c r="KS30" s="3"/>
+      <c r="KT30" s="3"/>
+      <c r="KU30" s="3"/>
+      <c r="KV30" s="3"/>
+      <c r="KW30" s="3"/>
+      <c r="KX30" s="3"/>
+      <c r="KY30" s="3"/>
+      <c r="KZ30" s="3"/>
+      <c r="LA30" s="3"/>
+      <c r="LB30" s="3"/>
+      <c r="LC30" s="3"/>
+      <c r="LD30" s="3"/>
+      <c r="LE30" s="3"/>
+      <c r="LF30" s="3"/>
+      <c r="LG30" s="3"/>
+      <c r="LH30" s="3"/>
+      <c r="LI30" s="3"/>
+      <c r="LJ30" s="3"/>
+      <c r="LK30" s="3"/>
+      <c r="LL30" s="3"/>
+      <c r="LM30" s="3"/>
+      <c r="LN30" s="3"/>
+      <c r="LO30" s="3"/>
+      <c r="LP30" s="3"/>
+      <c r="LQ30" s="3"/>
+      <c r="LR30" s="3"/>
+      <c r="LS30" s="3"/>
+      <c r="LT30" s="3"/>
+      <c r="LU30" s="3"/>
+      <c r="LV30" s="3"/>
+      <c r="LW30" s="3"/>
+      <c r="LX30" s="3"/>
+      <c r="LY30" s="3"/>
+      <c r="LZ30" s="3"/>
+      <c r="MA30" s="3"/>
+      <c r="MB30" s="3"/>
+      <c r="MC30" s="3"/>
+      <c r="MD30" s="3"/>
+      <c r="ME30" s="3"/>
+      <c r="MF30" s="3"/>
+      <c r="MG30" s="3"/>
+      <c r="MH30" s="3"/>
+      <c r="MI30" s="3"/>
+      <c r="MJ30" s="3"/>
+      <c r="MK30" s="3"/>
+      <c r="ML30" s="3"/>
+      <c r="MM30" s="3"/>
+      <c r="MN30" s="3"/>
+      <c r="MO30" s="3"/>
+      <c r="MP30" s="3"/>
+      <c r="MQ30" s="3"/>
+      <c r="MR30" s="3"/>
+      <c r="MS30" s="3"/>
+      <c r="MT30" s="3"/>
+      <c r="MU30" s="3"/>
+      <c r="MV30" s="3"/>
+      <c r="MW30" s="3"/>
+      <c r="MX30" s="3"/>
+      <c r="MY30" s="3"/>
+      <c r="MZ30" s="3"/>
+      <c r="NA30" s="3"/>
+      <c r="NB30" s="3"/>
+      <c r="NC30" s="3"/>
+      <c r="ND30" s="3"/>
+      <c r="NE30" s="3"/>
+      <c r="NF30" s="3"/>
+      <c r="NG30" s="3"/>
+      <c r="NH30" s="3"/>
+      <c r="NI30" s="3"/>
+      <c r="NJ30" s="3"/>
+      <c r="NK30" s="3"/>
+      <c r="NL30" s="3"/>
+      <c r="NM30" s="3"/>
+      <c r="NN30" s="3"/>
+      <c r="NO30" s="3"/>
+      <c r="NP30" s="3"/>
+      <c r="NQ30" s="3"/>
+      <c r="NR30" s="3"/>
+      <c r="NS30" s="3"/>
+      <c r="NT30" s="3"/>
+      <c r="NU30" s="3"/>
+      <c r="NV30" s="3"/>
+      <c r="NW30" s="3"/>
+      <c r="NX30" s="3"/>
+      <c r="NY30" s="3"/>
+      <c r="NZ30" s="3"/>
+      <c r="OA30" s="3"/>
+      <c r="OB30" s="3"/>
+      <c r="OC30" s="3"/>
+      <c r="OD30" s="3"/>
+      <c r="OE30" s="3"/>
+      <c r="OF30" s="3"/>
+      <c r="OG30" s="3"/>
+      <c r="OH30" s="3"/>
+      <c r="OI30" s="3"/>
+      <c r="OJ30" s="3"/>
+      <c r="OK30" s="3"/>
+      <c r="OL30" s="3"/>
+      <c r="OM30" s="3"/>
+      <c r="ON30" s="3"/>
+      <c r="OO30" s="3"/>
+      <c r="OP30" s="3"/>
+      <c r="OQ30" s="3"/>
+      <c r="OR30" s="3"/>
+      <c r="OS30" s="3"/>
+      <c r="OT30" s="3"/>
+      <c r="OU30" s="3"/>
+      <c r="OV30" s="3"/>
+      <c r="OW30" s="3"/>
+      <c r="OX30" s="3"/>
+      <c r="OY30" s="3"/>
+      <c r="OZ30" s="3"/>
+      <c r="PA30" s="3"/>
+      <c r="PB30" s="3"/>
+      <c r="PC30" s="3"/>
+      <c r="PD30" s="3"/>
+      <c r="PE30" s="3"/>
+      <c r="PF30" s="3"/>
+      <c r="PG30" s="3"/>
+      <c r="PH30" s="3"/>
+      <c r="PI30" s="3"/>
+      <c r="PJ30" s="3"/>
+      <c r="PK30" s="3"/>
+      <c r="PL30" s="3"/>
+      <c r="PM30" s="3"/>
+      <c r="PN30" s="3"/>
+      <c r="PO30" s="3"/>
+      <c r="PP30" s="3"/>
+      <c r="PQ30" s="3"/>
+      <c r="PR30" s="3"/>
+      <c r="PS30" s="3"/>
+      <c r="PT30" s="3"/>
+      <c r="PU30" s="3"/>
+      <c r="PV30" s="3"/>
+      <c r="PW30" s="3"/>
+      <c r="PX30" s="3"/>
+      <c r="PY30" s="3"/>
+      <c r="PZ30" s="3"/>
+      <c r="QA30" s="3"/>
+      <c r="QB30" s="3"/>
+      <c r="QC30" s="3"/>
+      <c r="QD30" s="3"/>
+      <c r="QE30" s="3"/>
+      <c r="QF30" s="3"/>
+      <c r="QG30" s="3"/>
+      <c r="QH30" s="3"/>
+      <c r="QI30" s="3"/>
+      <c r="QJ30" s="3"/>
+      <c r="QK30" s="3"/>
+      <c r="QL30" s="3"/>
+      <c r="QM30" s="3"/>
+      <c r="QN30" s="3"/>
+      <c r="QO30" s="3"/>
+      <c r="QP30" s="3"/>
+      <c r="QQ30" s="3"/>
+      <c r="QR30" s="3"/>
+      <c r="QS30" s="3"/>
+      <c r="QT30" s="3"/>
+      <c r="QU30" s="3"/>
+      <c r="QV30" s="3"/>
+      <c r="QW30" s="3"/>
+      <c r="QX30" s="3"/>
+      <c r="QY30" s="3"/>
+      <c r="QZ30" s="3"/>
+      <c r="RA30" s="3"/>
+      <c r="RB30" s="3"/>
+      <c r="RC30" s="3"/>
+      <c r="RD30" s="3"/>
+      <c r="RE30" s="3"/>
+      <c r="RF30" s="3"/>
+      <c r="RG30" s="3"/>
+      <c r="RH30" s="3"/>
+      <c r="RI30" s="3"/>
+      <c r="RJ30" s="3"/>
+      <c r="RK30" s="3"/>
+      <c r="RL30" s="3"/>
+      <c r="RM30" s="3"/>
+      <c r="RN30" s="3"/>
+      <c r="RO30" s="3"/>
+      <c r="RP30" s="3"/>
+      <c r="RQ30" s="3"/>
+      <c r="RR30" s="3"/>
+      <c r="RS30" s="3"/>
+      <c r="RT30" s="3"/>
+      <c r="RU30" s="3"/>
+      <c r="RV30" s="3"/>
+      <c r="RW30" s="3"/>
+      <c r="RX30" s="3"/>
+      <c r="RY30" s="3"/>
+      <c r="RZ30" s="3"/>
+      <c r="SA30" s="3"/>
+      <c r="SB30" s="3"/>
+      <c r="SC30" s="3"/>
+      <c r="SD30" s="3"/>
+      <c r="SE30" s="3"/>
+      <c r="SF30" s="3"/>
+      <c r="SG30" s="3"/>
+      <c r="SH30" s="3"/>
+      <c r="SI30" s="3"/>
+      <c r="SJ30" s="3"/>
+      <c r="SK30" s="3"/>
+      <c r="SL30" s="3"/>
+      <c r="SM30" s="3"/>
+      <c r="SN30" s="3"/>
+      <c r="SO30" s="3"/>
+      <c r="SP30" s="3"/>
+      <c r="SQ30" s="3"/>
+      <c r="SR30" s="3"/>
+      <c r="SS30" s="3"/>
+      <c r="ST30" s="3"/>
+      <c r="SU30" s="3"/>
+      <c r="SV30" s="3"/>
+      <c r="SW30" s="3"/>
+      <c r="SX30" s="3"/>
+      <c r="SY30" s="3"/>
+      <c r="SZ30" s="3"/>
+      <c r="TA30" s="3"/>
+      <c r="TB30" s="3"/>
+      <c r="TC30" s="3"/>
+      <c r="TD30" s="3"/>
+      <c r="TE30" s="3"/>
+      <c r="TF30" s="3"/>
+      <c r="TG30" s="3"/>
+      <c r="TH30" s="3"/>
+      <c r="TI30" s="3"/>
+      <c r="TJ30" s="3"/>
+      <c r="TK30" s="3"/>
+      <c r="TL30" s="3"/>
+      <c r="TM30" s="3"/>
+      <c r="TN30" s="3"/>
+      <c r="TO30" s="3"/>
+      <c r="TP30" s="3"/>
+      <c r="TQ30" s="3"/>
+      <c r="TR30" s="3"/>
+      <c r="TS30" s="3"/>
+      <c r="TT30" s="3"/>
+      <c r="TU30" s="3"/>
+      <c r="TV30" s="3"/>
+      <c r="TW30" s="3"/>
+      <c r="TX30" s="3"/>
+      <c r="TY30" s="3"/>
+      <c r="TZ30" s="3"/>
+      <c r="UA30" s="3"/>
+      <c r="UB30" s="3"/>
+      <c r="UC30" s="3"/>
+      <c r="UD30" s="3"/>
+      <c r="UE30" s="3"/>
+      <c r="UF30" s="3"/>
+      <c r="UG30" s="3"/>
+      <c r="UH30" s="3"/>
+      <c r="UI30" s="3"/>
+      <c r="UJ30" s="3"/>
+      <c r="UK30" s="3"/>
+      <c r="UL30" s="3"/>
+      <c r="UM30" s="3"/>
+      <c r="UN30" s="3"/>
+      <c r="UO30" s="3"/>
+      <c r="UP30" s="3"/>
+      <c r="UQ30" s="3"/>
+      <c r="UR30" s="3"/>
+      <c r="US30" s="3"/>
+      <c r="UT30" s="3"/>
+      <c r="UU30" s="3"/>
+      <c r="UV30" s="3"/>
+      <c r="UW30" s="3"/>
+      <c r="UX30" s="3"/>
+      <c r="UY30" s="3"/>
+      <c r="UZ30" s="3"/>
+      <c r="VA30" s="3"/>
+      <c r="VB30" s="3"/>
+      <c r="VC30" s="3"/>
+      <c r="VD30" s="3"/>
+      <c r="VE30" s="3"/>
+      <c r="VF30" s="3"/>
+      <c r="VG30" s="3"/>
+      <c r="VH30" s="3"/>
+      <c r="VI30" s="3"/>
+      <c r="VJ30" s="3"/>
+      <c r="VK30" s="3"/>
+      <c r="VL30" s="3"/>
+      <c r="VM30" s="3"/>
+      <c r="VN30" s="3"/>
+      <c r="VO30" s="3"/>
+      <c r="VP30" s="3"/>
+      <c r="VQ30" s="3"/>
+      <c r="VR30" s="3"/>
+      <c r="VS30" s="3"/>
+      <c r="VT30" s="3"/>
+      <c r="VU30" s="3"/>
+      <c r="VV30" s="3"/>
+      <c r="VW30" s="3"/>
+      <c r="VX30" s="3"/>
+      <c r="VY30" s="3"/>
+      <c r="VZ30" s="3"/>
+      <c r="WA30" s="3"/>
+      <c r="WB30" s="3"/>
+      <c r="WC30" s="3"/>
+      <c r="WD30" s="3"/>
+      <c r="WE30" s="3"/>
+      <c r="WF30" s="3"/>
+      <c r="WG30" s="3"/>
+      <c r="WH30" s="3"/>
+      <c r="WI30" s="3"/>
+      <c r="WJ30" s="3"/>
+      <c r="WK30" s="3"/>
+      <c r="WL30" s="3"/>
+      <c r="WM30" s="3"/>
+      <c r="WN30" s="3"/>
+      <c r="WO30" s="3"/>
+      <c r="WP30" s="3"/>
+      <c r="WQ30" s="3"/>
+      <c r="WR30" s="3"/>
+      <c r="WS30" s="3"/>
+      <c r="WT30" s="3"/>
+      <c r="WU30" s="3"/>
+      <c r="WV30" s="3"/>
+      <c r="WW30" s="3"/>
+      <c r="WX30" s="3"/>
+      <c r="WY30" s="3"/>
+      <c r="WZ30" s="3"/>
+      <c r="XA30" s="3"/>
+      <c r="XB30" s="3"/>
+      <c r="XC30" s="3"/>
+      <c r="XD30" s="3"/>
+      <c r="XE30" s="3"/>
+      <c r="XF30" s="3"/>
+      <c r="XG30" s="3"/>
+      <c r="XH30" s="3"/>
+      <c r="XI30" s="3"/>
+      <c r="XJ30" s="3"/>
+      <c r="XK30" s="3"/>
+      <c r="XL30" s="3"/>
+      <c r="XM30" s="3"/>
+      <c r="XN30" s="3"/>
+      <c r="XO30" s="3"/>
+      <c r="XP30" s="3"/>
+      <c r="XQ30" s="3"/>
+      <c r="XR30" s="3"/>
+      <c r="XS30" s="3"/>
+      <c r="XT30" s="3"/>
+      <c r="XU30" s="3"/>
+      <c r="XV30" s="3"/>
+      <c r="XW30" s="3"/>
+      <c r="XX30" s="3"/>
+      <c r="XY30" s="3"/>
+      <c r="XZ30" s="3"/>
+      <c r="YA30" s="3"/>
+      <c r="YB30" s="3"/>
+      <c r="YC30" s="3"/>
+      <c r="YD30" s="3"/>
+      <c r="YE30" s="3"/>
+      <c r="YF30" s="3"/>
+      <c r="YG30" s="3"/>
+      <c r="YH30" s="3"/>
+      <c r="YI30" s="3"/>
+      <c r="YJ30" s="3"/>
+      <c r="YK30" s="3"/>
+      <c r="YL30" s="3"/>
+      <c r="YM30" s="3"/>
+      <c r="YN30" s="3"/>
+      <c r="YO30" s="3"/>
+      <c r="YP30" s="3"/>
+      <c r="YQ30" s="3"/>
+      <c r="YR30" s="3"/>
+      <c r="YS30" s="3"/>
+      <c r="YT30" s="3"/>
+      <c r="YU30" s="3"/>
+      <c r="YV30" s="3"/>
+      <c r="YW30" s="3"/>
+      <c r="YX30" s="3"/>
+      <c r="YY30" s="3"/>
+      <c r="YZ30" s="3"/>
+      <c r="ZA30" s="3"/>
+      <c r="ZB30" s="3"/>
+      <c r="ZC30" s="3"/>
+      <c r="ZD30" s="3"/>
+      <c r="ZE30" s="3"/>
+      <c r="ZF30" s="3"/>
+      <c r="ZG30" s="3"/>
+      <c r="ZH30" s="3"/>
+      <c r="ZI30" s="3"/>
+      <c r="ZJ30" s="3"/>
+      <c r="ZK30" s="3"/>
+      <c r="ZL30" s="3"/>
+      <c r="ZM30" s="3"/>
+      <c r="ZN30" s="3"/>
+      <c r="ZO30" s="3"/>
+      <c r="ZP30" s="3"/>
+      <c r="ZQ30" s="3"/>
+      <c r="ZR30" s="3"/>
+      <c r="ZS30" s="3"/>
+      <c r="ZT30" s="3"/>
+      <c r="ZU30" s="3"/>
+      <c r="ZV30" s="3"/>
+      <c r="ZW30" s="3"/>
+      <c r="ZX30" s="3"/>
+      <c r="ZY30" s="3"/>
+      <c r="ZZ30" s="3"/>
+      <c r="AAA30" s="3"/>
+      <c r="AAB30" s="3"/>
+      <c r="AAC30" s="3"/>
+      <c r="AAD30" s="3"/>
+      <c r="AAE30" s="3"/>
+      <c r="AAF30" s="3"/>
+      <c r="AAG30" s="3"/>
+      <c r="AAH30" s="3"/>
+      <c r="AAI30" s="3"/>
+      <c r="AAJ30" s="3"/>
+      <c r="AAK30" s="3"/>
+      <c r="AAL30" s="3"/>
+      <c r="AAM30" s="3"/>
+      <c r="AAN30" s="3"/>
+      <c r="AAO30" s="3"/>
+      <c r="AAP30" s="3"/>
+      <c r="AAQ30" s="3"/>
+      <c r="AAR30" s="3"/>
+      <c r="AAS30" s="3"/>
+      <c r="AAT30" s="3"/>
+      <c r="AAU30" s="3"/>
+      <c r="AAV30" s="3"/>
+      <c r="AAW30" s="3"/>
+      <c r="AAX30" s="3"/>
+      <c r="AAY30" s="3"/>
+      <c r="AAZ30" s="3"/>
+      <c r="ABA30" s="3"/>
+      <c r="ABB30" s="3"/>
+      <c r="ABC30" s="3"/>
+      <c r="ABD30" s="3"/>
+      <c r="ABE30" s="3"/>
+      <c r="ABF30" s="3"/>
+      <c r="ABG30" s="3"/>
+      <c r="ABH30" s="3"/>
+      <c r="ABI30" s="3"/>
+      <c r="ABJ30" s="3"/>
+      <c r="ABK30" s="3"/>
+      <c r="ABL30" s="3"/>
+      <c r="ABM30" s="3"/>
+      <c r="ABN30" s="3"/>
+      <c r="ABO30" s="3"/>
+      <c r="ABP30" s="3"/>
+      <c r="ABQ30" s="3"/>
+      <c r="ABR30" s="3"/>
+      <c r="ABS30" s="3"/>
+      <c r="ABT30" s="3"/>
+      <c r="ABU30" s="3"/>
+      <c r="ABV30" s="3"/>
+      <c r="ABW30" s="3"/>
+      <c r="ABX30" s="3"/>
+      <c r="ABY30" s="3"/>
+      <c r="ABZ30" s="3"/>
+      <c r="ACA30" s="3"/>
+      <c r="ACB30" s="3"/>
+      <c r="ACC30" s="3"/>
+      <c r="ACD30" s="3"/>
+      <c r="ACE30" s="3"/>
+      <c r="ACF30" s="3"/>
+      <c r="ACG30" s="3"/>
+      <c r="ACH30" s="3"/>
+      <c r="ACI30" s="3"/>
+      <c r="ACJ30" s="3"/>
+      <c r="ACK30" s="3"/>
+      <c r="ACL30" s="3"/>
+      <c r="ACM30" s="3"/>
+      <c r="ACN30" s="3"/>
+      <c r="ACO30" s="3"/>
+      <c r="ACP30" s="3"/>
+      <c r="ACQ30" s="3"/>
+      <c r="ACR30" s="3"/>
+      <c r="ACS30" s="3"/>
+      <c r="ACT30" s="3"/>
+      <c r="ACU30" s="3"/>
+      <c r="ACV30" s="3"/>
+      <c r="ACW30" s="3"/>
+      <c r="ACX30" s="3"/>
+      <c r="ACY30" s="3"/>
+      <c r="ACZ30" s="3"/>
+      <c r="ADA30" s="3"/>
+      <c r="ADB30" s="3"/>
+      <c r="ADC30" s="3"/>
+      <c r="ADD30" s="3"/>
+      <c r="ADE30" s="3"/>
+      <c r="ADF30" s="3"/>
+      <c r="ADG30" s="3"/>
+      <c r="ADH30" s="3"/>
+      <c r="ADI30" s="3"/>
+      <c r="ADJ30" s="3"/>
+      <c r="ADK30" s="3"/>
+      <c r="ADL30" s="3"/>
+      <c r="ADM30" s="3"/>
+      <c r="ADN30" s="3"/>
+      <c r="ADO30" s="3"/>
+      <c r="ADP30" s="3"/>
+      <c r="ADQ30" s="3"/>
+      <c r="ADR30" s="3"/>
+      <c r="ADS30" s="3"/>
+      <c r="ADT30" s="3"/>
+      <c r="ADU30" s="3"/>
+      <c r="ADV30" s="3"/>
+      <c r="ADW30" s="3"/>
+      <c r="ADX30" s="3"/>
+      <c r="ADY30" s="3"/>
+      <c r="ADZ30" s="3"/>
+      <c r="AEA30" s="3"/>
+      <c r="AEB30" s="3"/>
+      <c r="AEC30" s="3"/>
+      <c r="AED30" s="3"/>
+      <c r="AEE30" s="3"/>
+      <c r="AEF30" s="3"/>
+      <c r="AEG30" s="3"/>
+      <c r="AEH30" s="3"/>
+      <c r="AEI30" s="3"/>
+      <c r="AEJ30" s="3"/>
+      <c r="AEK30" s="3"/>
+      <c r="AEL30" s="3"/>
+      <c r="AEM30" s="3"/>
+      <c r="AEN30" s="3"/>
+      <c r="AEO30" s="3"/>
+      <c r="AEP30" s="3"/>
+      <c r="AEQ30" s="3"/>
+      <c r="AER30" s="3"/>
+      <c r="AES30" s="3"/>
+      <c r="AET30" s="3"/>
+      <c r="AEU30" s="3"/>
+      <c r="AEV30" s="3"/>
+      <c r="AEW30" s="3"/>
+      <c r="AEX30" s="3"/>
+      <c r="AEY30" s="3"/>
+      <c r="AEZ30" s="3"/>
+      <c r="AFA30" s="3"/>
+      <c r="AFB30" s="3"/>
+      <c r="AFC30" s="3"/>
+      <c r="AFD30" s="3"/>
+      <c r="AFE30" s="3"/>
+      <c r="AFF30" s="3"/>
+      <c r="AFG30" s="3"/>
+      <c r="AFH30" s="3"/>
+      <c r="AFI30" s="3"/>
+      <c r="AFJ30" s="3"/>
+      <c r="AFK30" s="3"/>
+      <c r="AFL30" s="3"/>
+      <c r="AFM30" s="3"/>
+      <c r="AFN30" s="3"/>
+      <c r="AFO30" s="3"/>
+      <c r="AFP30" s="3"/>
+      <c r="AFQ30" s="3"/>
+      <c r="AFR30" s="3"/>
+      <c r="AFS30" s="3"/>
+      <c r="AFT30" s="3"/>
+      <c r="AFU30" s="3"/>
+      <c r="AFV30" s="3"/>
+      <c r="AFW30" s="3"/>
+      <c r="AFX30" s="3"/>
+      <c r="AFY30" s="3"/>
+      <c r="AFZ30" s="3"/>
+      <c r="AGA30" s="3"/>
+      <c r="AGB30" s="3"/>
+      <c r="AGC30" s="3"/>
+      <c r="AGD30" s="3"/>
+      <c r="AGE30" s="3"/>
+      <c r="AGF30" s="3"/>
+      <c r="AGG30" s="3"/>
+      <c r="AGH30" s="3"/>
+      <c r="AGI30" s="3"/>
+      <c r="AGJ30" s="3"/>
+      <c r="AGK30" s="3"/>
+      <c r="AGL30" s="3"/>
+      <c r="AGM30" s="3"/>
+      <c r="AGN30" s="3"/>
+      <c r="AGO30" s="3"/>
+      <c r="AGP30" s="3"/>
+      <c r="AGQ30" s="3"/>
+      <c r="AGR30" s="3"/>
+      <c r="AGS30" s="3"/>
+      <c r="AGT30" s="3"/>
+      <c r="AGU30" s="3"/>
+      <c r="AGV30" s="3"/>
+      <c r="AGW30" s="3"/>
+      <c r="AGX30" s="3"/>
+      <c r="AGY30" s="3"/>
+      <c r="AGZ30" s="3"/>
+      <c r="AHA30" s="3"/>
+      <c r="AHB30" s="3"/>
+      <c r="AHC30" s="3"/>
+      <c r="AHD30" s="3"/>
+      <c r="AHE30" s="3"/>
+      <c r="AHF30" s="3"/>
+      <c r="AHG30" s="3"/>
+      <c r="AHH30" s="3"/>
+      <c r="AHI30" s="3"/>
+      <c r="AHJ30" s="3"/>
+      <c r="AHK30" s="3"/>
+      <c r="AHL30" s="3"/>
+      <c r="AHM30" s="3"/>
+      <c r="AHN30" s="3"/>
+      <c r="AHO30" s="3"/>
+      <c r="AHP30" s="3"/>
+      <c r="AHQ30" s="3"/>
+      <c r="AHR30" s="3"/>
+      <c r="AHS30" s="3"/>
+      <c r="AHT30" s="3"/>
+      <c r="AHU30" s="3"/>
+      <c r="AHV30" s="3"/>
+      <c r="AHW30" s="3"/>
+      <c r="AHX30" s="3"/>
+      <c r="AHY30" s="3"/>
+      <c r="AHZ30" s="3"/>
+      <c r="AIA30" s="3"/>
+      <c r="AIB30" s="3"/>
+      <c r="AIC30" s="3"/>
+      <c r="AID30" s="3"/>
+      <c r="AIE30" s="3"/>
+      <c r="AIF30" s="3"/>
+      <c r="AIG30" s="3"/>
+      <c r="AIH30" s="3"/>
+      <c r="AII30" s="3"/>
+      <c r="AIJ30" s="3"/>
+      <c r="AIK30" s="3"/>
+      <c r="AIL30" s="3"/>
+      <c r="AIM30" s="3"/>
+      <c r="AIN30" s="3"/>
+      <c r="AIO30" s="3"/>
+      <c r="AIP30" s="3"/>
+      <c r="AIQ30" s="3"/>
+      <c r="AIR30" s="3"/>
+      <c r="AIS30" s="3"/>
+      <c r="AIT30" s="3"/>
+      <c r="AIU30" s="3"/>
+      <c r="AIV30" s="3"/>
+      <c r="AIW30" s="3"/>
+      <c r="AIX30" s="3"/>
+      <c r="AIY30" s="3"/>
+      <c r="AIZ30" s="3"/>
+      <c r="AJA30" s="3"/>
+      <c r="AJB30" s="3"/>
+      <c r="AJC30" s="3"/>
+      <c r="AJD30" s="3"/>
+      <c r="AJE30" s="3"/>
+      <c r="AJF30" s="3"/>
+      <c r="AJG30" s="3"/>
+      <c r="AJH30" s="3"/>
+      <c r="AJI30" s="3"/>
+      <c r="AJJ30" s="3"/>
+      <c r="AJK30" s="3"/>
+      <c r="AJL30" s="3"/>
+      <c r="AJM30" s="3"/>
+      <c r="AJN30" s="3"/>
+      <c r="AJO30" s="3"/>
+      <c r="AJP30" s="3"/>
+      <c r="AJQ30" s="3"/>
+      <c r="AJR30" s="3"/>
+      <c r="AJS30" s="3"/>
+      <c r="AJT30" s="3"/>
+      <c r="AJU30" s="3"/>
+      <c r="AJV30" s="3"/>
+      <c r="AJW30" s="3"/>
+      <c r="AJX30" s="3"/>
+      <c r="AJY30" s="3"/>
+      <c r="AJZ30" s="3"/>
+      <c r="AKA30" s="3"/>
+      <c r="AKB30" s="3"/>
+      <c r="AKC30" s="3"/>
+      <c r="AKD30" s="3"/>
+      <c r="AKE30" s="3"/>
+      <c r="AKF30" s="3"/>
+      <c r="AKG30" s="3"/>
+      <c r="AKH30" s="3"/>
+      <c r="AKI30" s="3"/>
+      <c r="AKJ30" s="3"/>
+      <c r="AKK30" s="3"/>
+      <c r="AKL30" s="3"/>
+      <c r="AKM30" s="3"/>
+      <c r="AKN30" s="3"/>
+      <c r="AKO30" s="3"/>
+      <c r="AKP30" s="3"/>
+      <c r="AKQ30" s="3"/>
+      <c r="AKR30" s="3"/>
+      <c r="AKS30" s="3"/>
+      <c r="AKT30" s="3"/>
+      <c r="AKU30" s="3"/>
+      <c r="AKV30" s="3"/>
+      <c r="AKW30" s="3"/>
+      <c r="AKX30" s="3"/>
+      <c r="AKY30" s="3"/>
+      <c r="AKZ30" s="3"/>
+      <c r="ALA30" s="3"/>
+      <c r="ALB30" s="3"/>
+      <c r="ALC30" s="3"/>
+      <c r="ALD30" s="3"/>
+      <c r="ALE30" s="3"/>
+      <c r="ALF30" s="3"/>
+      <c r="ALG30" s="3"/>
+      <c r="ALH30" s="3"/>
+      <c r="ALI30" s="3"/>
+      <c r="ALJ30" s="3"/>
+      <c r="ALK30" s="3"/>
+      <c r="ALL30" s="3"/>
+      <c r="ALM30" s="3"/>
+      <c r="ALN30" s="3"/>
+      <c r="ALO30" s="3"/>
+      <c r="ALP30" s="3"/>
+      <c r="ALQ30" s="3"/>
+      <c r="ALR30" s="3"/>
+      <c r="ALS30" s="3"/>
+      <c r="ALT30" s="3"/>
+      <c r="ALU30" s="3"/>
+      <c r="ALV30" s="3"/>
+      <c r="ALW30" s="3"/>
+      <c r="ALX30" s="3"/>
+      <c r="ALY30" s="3"/>
+      <c r="ALZ30" s="3"/>
+      <c r="AMA30" s="3"/>
+      <c r="AMB30" s="3"/>
+      <c r="AMC30" s="3"/>
+      <c r="AMD30" s="3"/>
+      <c r="AME30" s="3"/>
+      <c r="AMF30" s="3"/>
+      <c r="AMG30" s="3"/>
+      <c r="AMH30" s="3"/>
+      <c r="AMI30" s="3"/>
+      <c r="AMJ30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="C31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10721,7 +12828,9 @@
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="16"/>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="16"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="db:person"/>
@@ -10743,7 +12852,7 @@
   </sheetPr>
   <dimension ref="A1:BC21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -10756,7 +12865,7 @@
   <sheetData>
     <row r="1" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="18" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B1" s="18" t="s">
         <v>1</v>
@@ -10788,18 +12897,18 @@
       <c r="Y1" s="18"/>
       <c r="Z1" s="18"/>
       <c r="BC1" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B2" s="18" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18"/>
@@ -10827,13 +12936,13 @@
     </row>
     <row r="3" s="19" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D3" s="18"/>
       <c r="E3" s="18"/>
@@ -10888,146 +12997,146 @@
       <c r="Z4" s="18"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="A5" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>83</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="A6" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>85</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="A7" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>87</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="A8" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>89</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="A9" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>91</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="A10" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>93</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="8" t="s">
         <v>96</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="A14" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14" s="8" t="s">
         <v>98</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>99</v>
+      <c r="A15" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="A16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="8" t="s">
         <v>101</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>102</v>
+      <c r="A17" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B20" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -11048,7 +13157,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -11056,19 +13165,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F1" s="21"/>
       <c r="G1" s="21"/>
@@ -11094,20 +13203,20 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="21" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-04-26  10-21</v>
+        <v>2024-05-13  12-45</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>

--- a/Guild Digital/Example CHT application/forms/app/wash_assessment.xlsx
+++ b/Guild Digital/Example CHT application/forms/app/wash_assessment.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -129,7 +129,7 @@
     <t xml:space="preserve">wash_note</t>
   </si>
   <si>
-    <t xml:space="preserve">Please record only observations on Water, Sanitation and Hygiene</t>
+    <t xml:space="preserve">Please record only observations on Water, Sanitation and Hygiene from Households in a particular VHT area.</t>
   </si>
   <si>
     <t xml:space="preserve">integer</t>
@@ -231,15 +231,6 @@
     <t xml:space="preserve">Would you like to assign a VHT to follow up</t>
   </si>
   <si>
-    <t xml:space="preserve">s_note_wash_assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;h3 style="text-align:center; color:black; background-color:yellow;"&gt;Summary&lt;/h3&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> field-list summary</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -264,80 +255,31 @@
     <t xml:space="preserve">&lt;h4 style="text-align:center;"&gt;Be sure you Submit to complete this action.&lt;/h4&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve"> field-list summary</t>
+  </si>
+  <si>
     <t xml:space="preserve">s_note_vht_details</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;h4 style=”text-align:center; background-color: #FFA500;”&gt;Wash Assessment Details&lt;/h4&gt;</t>
+    <t xml:space="preserve">Wash Assessment Details&lt;I class="fa fa-user"&gt;&lt;/i&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">h1 yellow</t>
   </si>
   <si>
     <t xml:space="preserve">s_num_wash_assessment</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Number of WASH assessment visits made: ${wash_houses_made}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">Number of WASH assessment visits made: ${wash_houses_made}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">li</t>
   </si>
   <si>
     <t xml:space="preserve">s_area_wash_assessment</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">WASH assessment Areas: ${name}&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/h5&gt;</t>
-    </r>
+    <t xml:space="preserve">WASH assessment Area: ${name}</t>
   </si>
   <si>
     <t xml:space="preserve">s_alarm_about</t>
@@ -351,7 +293,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 style="text-align:center;"&gt; What is the alarm about</t>
+      <t xml:space="preserve">What is the alarm about</t>
     </r>
     <r>
       <rPr>
@@ -361,56 +303,17 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">: ${wash_alarm_about}&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">/h5&gt;</t>
+      <t xml:space="preserve">: ${wash_alarm_about}</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">follow_up</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&lt;h4 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">style=”text-align:center;”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF111111"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">&gt;Folllow up tasks&lt;/h4&gt;</t>
-    </r>
+    <t xml:space="preserve">Follow Up&lt;i class="fa fa-flag"&gt;&lt;/i&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">h1 </t>
+    <t xml:space="preserve">h1 green</t>
   </si>
   <si>
     <t xml:space="preserve">device_follow_up</t>
@@ -424,7 +327,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&lt;h5 </t>
+      <t xml:space="preserve">&lt;h4 </t>
     </r>
     <r>
       <rPr>
@@ -434,7 +337,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">style="text-align:center;"</t>
+      <t xml:space="preserve">style=""</t>
     </r>
     <r>
       <rPr>
@@ -444,7 +347,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">&gt;Please conduct a wash assessment  follow up task in 5 days&lt;/h5&gt;</t>
+      <t xml:space="preserve">&gt;Please conduct a wash assessment  follow up task in 5 days&lt;/h4&gt;</t>
     </r>
   </si>
   <si>
@@ -620,12 +523,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -636,6 +533,13 @@
       <sz val="12"/>
       <color rgb="FF111111"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -744,7 +648,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -752,12 +656,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -776,11 +680,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -979,17 +883,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ35"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B12" colorId="64" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="47.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="58.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="112.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="37.93"/>
@@ -6572,39 +6476,1059 @@
       <c r="AMI22" s="1"/>
       <c r="AMJ22" s="1"/>
     </row>
-    <row r="23" s="3" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" s="10" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C23" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="8"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="3"/>
+      <c r="Z23" s="3"/>
+      <c r="AA23" s="3"/>
+      <c r="AB23" s="3"/>
+      <c r="AC23" s="3"/>
+      <c r="AD23" s="3"/>
+      <c r="AE23" s="3"/>
+      <c r="AF23" s="3"/>
+      <c r="AG23" s="3"/>
+      <c r="AH23" s="3"/>
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+      <c r="AK23" s="3"/>
+      <c r="AL23" s="3"/>
+      <c r="AM23" s="3"/>
+      <c r="AN23" s="3"/>
+      <c r="AO23" s="3"/>
+      <c r="AP23" s="3"/>
+      <c r="AQ23" s="3"/>
+      <c r="AR23" s="3"/>
+      <c r="AS23" s="3"/>
+      <c r="AT23" s="3"/>
+      <c r="AU23" s="3"/>
+      <c r="AV23" s="3"/>
+      <c r="AW23" s="3"/>
+      <c r="AX23" s="3"/>
+      <c r="AY23" s="3"/>
+      <c r="AZ23" s="3"/>
+      <c r="BA23" s="3"/>
+      <c r="BB23" s="3"/>
+      <c r="BC23" s="3"/>
+      <c r="BD23" s="3"/>
+      <c r="BE23" s="3"/>
+      <c r="BF23" s="3"/>
+      <c r="BG23" s="3"/>
+      <c r="BH23" s="3"/>
+      <c r="BI23" s="3"/>
+      <c r="BJ23" s="3"/>
+      <c r="BK23" s="3"/>
+      <c r="BL23" s="3"/>
+      <c r="BM23" s="3"/>
+      <c r="BN23" s="3"/>
+      <c r="BO23" s="3"/>
+      <c r="BP23" s="3"/>
+      <c r="BQ23" s="3"/>
+      <c r="BR23" s="3"/>
+      <c r="BS23" s="3"/>
+      <c r="BT23" s="3"/>
+      <c r="BU23" s="3"/>
+      <c r="BV23" s="3"/>
+      <c r="BW23" s="3"/>
+      <c r="BX23" s="3"/>
+      <c r="BY23" s="3"/>
+      <c r="BZ23" s="3"/>
+      <c r="CA23" s="3"/>
+      <c r="CB23" s="3"/>
+      <c r="CC23" s="3"/>
+      <c r="CD23" s="3"/>
+      <c r="CE23" s="3"/>
+      <c r="CF23" s="3"/>
+      <c r="CG23" s="3"/>
+      <c r="CH23" s="3"/>
+      <c r="CI23" s="3"/>
+      <c r="CJ23" s="3"/>
+      <c r="CK23" s="3"/>
+      <c r="CL23" s="3"/>
+      <c r="CM23" s="3"/>
+      <c r="CN23" s="3"/>
+      <c r="CO23" s="3"/>
+      <c r="CP23" s="3"/>
+      <c r="CQ23" s="3"/>
+      <c r="CR23" s="3"/>
+      <c r="CS23" s="3"/>
+      <c r="CT23" s="3"/>
+      <c r="CU23" s="3"/>
+      <c r="CV23" s="3"/>
+      <c r="CW23" s="3"/>
+      <c r="CX23" s="3"/>
+      <c r="CY23" s="3"/>
+      <c r="CZ23" s="3"/>
+      <c r="DA23" s="3"/>
+      <c r="DB23" s="3"/>
+      <c r="DC23" s="3"/>
+      <c r="DD23" s="3"/>
+      <c r="DE23" s="3"/>
+      <c r="DF23" s="3"/>
+      <c r="DG23" s="3"/>
+      <c r="DH23" s="3"/>
+      <c r="DI23" s="3"/>
+      <c r="DJ23" s="3"/>
+      <c r="DK23" s="3"/>
+      <c r="DL23" s="3"/>
+      <c r="DM23" s="3"/>
+      <c r="DN23" s="3"/>
+      <c r="DO23" s="3"/>
+      <c r="DP23" s="3"/>
+      <c r="DQ23" s="3"/>
+      <c r="DR23" s="3"/>
+      <c r="DS23" s="3"/>
+      <c r="DT23" s="3"/>
+      <c r="DU23" s="3"/>
+      <c r="DV23" s="3"/>
+      <c r="DW23" s="3"/>
+      <c r="DX23" s="3"/>
+      <c r="DY23" s="3"/>
+      <c r="DZ23" s="3"/>
+      <c r="EA23" s="3"/>
+      <c r="EB23" s="3"/>
+      <c r="EC23" s="3"/>
+      <c r="ED23" s="3"/>
+      <c r="EE23" s="3"/>
+      <c r="EF23" s="3"/>
+      <c r="EG23" s="3"/>
+      <c r="EH23" s="3"/>
+      <c r="EI23" s="3"/>
+      <c r="EJ23" s="3"/>
+      <c r="EK23" s="3"/>
+      <c r="EL23" s="3"/>
+      <c r="EM23" s="3"/>
+      <c r="EN23" s="3"/>
+      <c r="EO23" s="3"/>
+      <c r="EP23" s="3"/>
+      <c r="EQ23" s="3"/>
+      <c r="ER23" s="3"/>
+      <c r="ES23" s="3"/>
+      <c r="ET23" s="3"/>
+      <c r="EU23" s="3"/>
+      <c r="EV23" s="3"/>
+      <c r="EW23" s="3"/>
+      <c r="EX23" s="3"/>
+      <c r="EY23" s="3"/>
+      <c r="EZ23" s="3"/>
+      <c r="FA23" s="3"/>
+      <c r="FB23" s="3"/>
+      <c r="FC23" s="3"/>
+      <c r="FD23" s="3"/>
+      <c r="FE23" s="3"/>
+      <c r="FF23" s="3"/>
+      <c r="FG23" s="3"/>
+      <c r="FH23" s="3"/>
+      <c r="FI23" s="3"/>
+      <c r="FJ23" s="3"/>
+      <c r="FK23" s="3"/>
+      <c r="FL23" s="3"/>
+      <c r="FM23" s="3"/>
+      <c r="FN23" s="3"/>
+      <c r="FO23" s="3"/>
+      <c r="FP23" s="3"/>
+      <c r="FQ23" s="3"/>
+      <c r="FR23" s="3"/>
+      <c r="FS23" s="3"/>
+      <c r="FT23" s="3"/>
+      <c r="FU23" s="3"/>
+      <c r="FV23" s="3"/>
+      <c r="FW23" s="3"/>
+      <c r="FX23" s="3"/>
+      <c r="FY23" s="3"/>
+      <c r="FZ23" s="3"/>
+      <c r="GA23" s="3"/>
+      <c r="GB23" s="3"/>
+      <c r="GC23" s="3"/>
+      <c r="GD23" s="3"/>
+      <c r="GE23" s="3"/>
+      <c r="GF23" s="3"/>
+      <c r="GG23" s="3"/>
+      <c r="GH23" s="3"/>
+      <c r="GI23" s="3"/>
+      <c r="GJ23" s="3"/>
+      <c r="GK23" s="3"/>
+      <c r="GL23" s="3"/>
+      <c r="GM23" s="3"/>
+      <c r="GN23" s="3"/>
+      <c r="GO23" s="3"/>
+      <c r="GP23" s="3"/>
+      <c r="GQ23" s="3"/>
+      <c r="GR23" s="3"/>
+      <c r="GS23" s="3"/>
+      <c r="GT23" s="3"/>
+      <c r="GU23" s="3"/>
+      <c r="GV23" s="3"/>
+      <c r="GW23" s="3"/>
+      <c r="GX23" s="3"/>
+      <c r="GY23" s="3"/>
+      <c r="GZ23" s="3"/>
+      <c r="HA23" s="3"/>
+      <c r="HB23" s="3"/>
+      <c r="HC23" s="3"/>
+      <c r="HD23" s="3"/>
+      <c r="HE23" s="3"/>
+      <c r="HF23" s="3"/>
+      <c r="HG23" s="3"/>
+      <c r="HH23" s="3"/>
+      <c r="HI23" s="3"/>
+      <c r="HJ23" s="3"/>
+      <c r="HK23" s="3"/>
+      <c r="HL23" s="3"/>
+      <c r="HM23" s="3"/>
+      <c r="HN23" s="3"/>
+      <c r="HO23" s="3"/>
+      <c r="HP23" s="3"/>
+      <c r="HQ23" s="3"/>
+      <c r="HR23" s="3"/>
+      <c r="HS23" s="3"/>
+      <c r="HT23" s="3"/>
+      <c r="HU23" s="3"/>
+      <c r="HV23" s="3"/>
+      <c r="HW23" s="3"/>
+      <c r="HX23" s="3"/>
+      <c r="HY23" s="3"/>
+      <c r="HZ23" s="3"/>
+      <c r="IA23" s="3"/>
+      <c r="IB23" s="3"/>
+      <c r="IC23" s="3"/>
+      <c r="ID23" s="3"/>
+      <c r="IE23" s="3"/>
+      <c r="IF23" s="3"/>
+      <c r="IG23" s="3"/>
+      <c r="IH23" s="3"/>
+      <c r="II23" s="3"/>
+      <c r="IJ23" s="3"/>
+      <c r="IK23" s="3"/>
+      <c r="IL23" s="3"/>
+      <c r="IM23" s="3"/>
+      <c r="IN23" s="3"/>
+      <c r="IO23" s="3"/>
+      <c r="IP23" s="3"/>
+      <c r="IQ23" s="3"/>
+      <c r="IR23" s="3"/>
+      <c r="IS23" s="3"/>
+      <c r="IT23" s="3"/>
+      <c r="IU23" s="3"/>
+      <c r="IV23" s="3"/>
+      <c r="IW23" s="3"/>
+      <c r="IX23" s="3"/>
+      <c r="IY23" s="3"/>
+      <c r="IZ23" s="3"/>
+      <c r="JA23" s="3"/>
+      <c r="JB23" s="3"/>
+      <c r="JC23" s="3"/>
+      <c r="JD23" s="3"/>
+      <c r="JE23" s="3"/>
+      <c r="JF23" s="3"/>
+      <c r="JG23" s="3"/>
+      <c r="JH23" s="3"/>
+      <c r="JI23" s="3"/>
+      <c r="JJ23" s="3"/>
+      <c r="JK23" s="3"/>
+      <c r="JL23" s="3"/>
+      <c r="JM23" s="3"/>
+      <c r="JN23" s="3"/>
+      <c r="JO23" s="3"/>
+      <c r="JP23" s="3"/>
+      <c r="JQ23" s="3"/>
+      <c r="JR23" s="3"/>
+      <c r="JS23" s="3"/>
+      <c r="JT23" s="3"/>
+      <c r="JU23" s="3"/>
+      <c r="JV23" s="3"/>
+      <c r="JW23" s="3"/>
+      <c r="JX23" s="3"/>
+      <c r="JY23" s="3"/>
+      <c r="JZ23" s="3"/>
+      <c r="KA23" s="3"/>
+      <c r="KB23" s="3"/>
+      <c r="KC23" s="3"/>
+      <c r="KD23" s="3"/>
+      <c r="KE23" s="3"/>
+      <c r="KF23" s="3"/>
+      <c r="KG23" s="3"/>
+      <c r="KH23" s="3"/>
+      <c r="KI23" s="3"/>
+      <c r="KJ23" s="3"/>
+      <c r="KK23" s="3"/>
+      <c r="KL23" s="3"/>
+      <c r="KM23" s="3"/>
+      <c r="KN23" s="3"/>
+      <c r="KO23" s="3"/>
+      <c r="KP23" s="3"/>
+      <c r="KQ23" s="3"/>
+      <c r="KR23" s="3"/>
+      <c r="KS23" s="3"/>
+      <c r="KT23" s="3"/>
+      <c r="KU23" s="3"/>
+      <c r="KV23" s="3"/>
+      <c r="KW23" s="3"/>
+      <c r="KX23" s="3"/>
+      <c r="KY23" s="3"/>
+      <c r="KZ23" s="3"/>
+      <c r="LA23" s="3"/>
+      <c r="LB23" s="3"/>
+      <c r="LC23" s="3"/>
+      <c r="LD23" s="3"/>
+      <c r="LE23" s="3"/>
+      <c r="LF23" s="3"/>
+      <c r="LG23" s="3"/>
+      <c r="LH23" s="3"/>
+      <c r="LI23" s="3"/>
+      <c r="LJ23" s="3"/>
+      <c r="LK23" s="3"/>
+      <c r="LL23" s="3"/>
+      <c r="LM23" s="3"/>
+      <c r="LN23" s="3"/>
+      <c r="LO23" s="3"/>
+      <c r="LP23" s="3"/>
+      <c r="LQ23" s="3"/>
+      <c r="LR23" s="3"/>
+      <c r="LS23" s="3"/>
+      <c r="LT23" s="3"/>
+      <c r="LU23" s="3"/>
+      <c r="LV23" s="3"/>
+      <c r="LW23" s="3"/>
+      <c r="LX23" s="3"/>
+      <c r="LY23" s="3"/>
+      <c r="LZ23" s="3"/>
+      <c r="MA23" s="3"/>
+      <c r="MB23" s="3"/>
+      <c r="MC23" s="3"/>
+      <c r="MD23" s="3"/>
+      <c r="ME23" s="3"/>
+      <c r="MF23" s="3"/>
+      <c r="MG23" s="3"/>
+      <c r="MH23" s="3"/>
+      <c r="MI23" s="3"/>
+      <c r="MJ23" s="3"/>
+      <c r="MK23" s="3"/>
+      <c r="ML23" s="3"/>
+      <c r="MM23" s="3"/>
+      <c r="MN23" s="3"/>
+      <c r="MO23" s="3"/>
+      <c r="MP23" s="3"/>
+      <c r="MQ23" s="3"/>
+      <c r="MR23" s="3"/>
+      <c r="MS23" s="3"/>
+      <c r="MT23" s="3"/>
+      <c r="MU23" s="3"/>
+      <c r="MV23" s="3"/>
+      <c r="MW23" s="3"/>
+      <c r="MX23" s="3"/>
+      <c r="MY23" s="3"/>
+      <c r="MZ23" s="3"/>
+      <c r="NA23" s="3"/>
+      <c r="NB23" s="3"/>
+      <c r="NC23" s="3"/>
+      <c r="ND23" s="3"/>
+      <c r="NE23" s="3"/>
+      <c r="NF23" s="3"/>
+      <c r="NG23" s="3"/>
+      <c r="NH23" s="3"/>
+      <c r="NI23" s="3"/>
+      <c r="NJ23" s="3"/>
+      <c r="NK23" s="3"/>
+      <c r="NL23" s="3"/>
+      <c r="NM23" s="3"/>
+      <c r="NN23" s="3"/>
+      <c r="NO23" s="3"/>
+      <c r="NP23" s="3"/>
+      <c r="NQ23" s="3"/>
+      <c r="NR23" s="3"/>
+      <c r="NS23" s="3"/>
+      <c r="NT23" s="3"/>
+      <c r="NU23" s="3"/>
+      <c r="NV23" s="3"/>
+      <c r="NW23" s="3"/>
+      <c r="NX23" s="3"/>
+      <c r="NY23" s="3"/>
+      <c r="NZ23" s="3"/>
+      <c r="OA23" s="3"/>
+      <c r="OB23" s="3"/>
+      <c r="OC23" s="3"/>
+      <c r="OD23" s="3"/>
+      <c r="OE23" s="3"/>
+      <c r="OF23" s="3"/>
+      <c r="OG23" s="3"/>
+      <c r="OH23" s="3"/>
+      <c r="OI23" s="3"/>
+      <c r="OJ23" s="3"/>
+      <c r="OK23" s="3"/>
+      <c r="OL23" s="3"/>
+      <c r="OM23" s="3"/>
+      <c r="ON23" s="3"/>
+      <c r="OO23" s="3"/>
+      <c r="OP23" s="3"/>
+      <c r="OQ23" s="3"/>
+      <c r="OR23" s="3"/>
+      <c r="OS23" s="3"/>
+      <c r="OT23" s="3"/>
+      <c r="OU23" s="3"/>
+      <c r="OV23" s="3"/>
+      <c r="OW23" s="3"/>
+      <c r="OX23" s="3"/>
+      <c r="OY23" s="3"/>
+      <c r="OZ23" s="3"/>
+      <c r="PA23" s="3"/>
+      <c r="PB23" s="3"/>
+      <c r="PC23" s="3"/>
+      <c r="PD23" s="3"/>
+      <c r="PE23" s="3"/>
+      <c r="PF23" s="3"/>
+      <c r="PG23" s="3"/>
+      <c r="PH23" s="3"/>
+      <c r="PI23" s="3"/>
+      <c r="PJ23" s="3"/>
+      <c r="PK23" s="3"/>
+      <c r="PL23" s="3"/>
+      <c r="PM23" s="3"/>
+      <c r="PN23" s="3"/>
+      <c r="PO23" s="3"/>
+      <c r="PP23" s="3"/>
+      <c r="PQ23" s="3"/>
+      <c r="PR23" s="3"/>
+      <c r="PS23" s="3"/>
+      <c r="PT23" s="3"/>
+      <c r="PU23" s="3"/>
+      <c r="PV23" s="3"/>
+      <c r="PW23" s="3"/>
+      <c r="PX23" s="3"/>
+      <c r="PY23" s="3"/>
+      <c r="PZ23" s="3"/>
+      <c r="QA23" s="3"/>
+      <c r="QB23" s="3"/>
+      <c r="QC23" s="3"/>
+      <c r="QD23" s="3"/>
+      <c r="QE23" s="3"/>
+      <c r="QF23" s="3"/>
+      <c r="QG23" s="3"/>
+      <c r="QH23" s="3"/>
+      <c r="QI23" s="3"/>
+      <c r="QJ23" s="3"/>
+      <c r="QK23" s="3"/>
+      <c r="QL23" s="3"/>
+      <c r="QM23" s="3"/>
+      <c r="QN23" s="3"/>
+      <c r="QO23" s="3"/>
+      <c r="QP23" s="3"/>
+      <c r="QQ23" s="3"/>
+      <c r="QR23" s="3"/>
+      <c r="QS23" s="3"/>
+      <c r="QT23" s="3"/>
+      <c r="QU23" s="3"/>
+      <c r="QV23" s="3"/>
+      <c r="QW23" s="3"/>
+      <c r="QX23" s="3"/>
+      <c r="QY23" s="3"/>
+      <c r="QZ23" s="3"/>
+      <c r="RA23" s="3"/>
+      <c r="RB23" s="3"/>
+      <c r="RC23" s="3"/>
+      <c r="RD23" s="3"/>
+      <c r="RE23" s="3"/>
+      <c r="RF23" s="3"/>
+      <c r="RG23" s="3"/>
+      <c r="RH23" s="3"/>
+      <c r="RI23" s="3"/>
+      <c r="RJ23" s="3"/>
+      <c r="RK23" s="3"/>
+      <c r="RL23" s="3"/>
+      <c r="RM23" s="3"/>
+      <c r="RN23" s="3"/>
+      <c r="RO23" s="3"/>
+      <c r="RP23" s="3"/>
+      <c r="RQ23" s="3"/>
+      <c r="RR23" s="3"/>
+      <c r="RS23" s="3"/>
+      <c r="RT23" s="3"/>
+      <c r="RU23" s="3"/>
+      <c r="RV23" s="3"/>
+      <c r="RW23" s="3"/>
+      <c r="RX23" s="3"/>
+      <c r="RY23" s="3"/>
+      <c r="RZ23" s="3"/>
+      <c r="SA23" s="3"/>
+      <c r="SB23" s="3"/>
+      <c r="SC23" s="3"/>
+      <c r="SD23" s="3"/>
+      <c r="SE23" s="3"/>
+      <c r="SF23" s="3"/>
+      <c r="SG23" s="3"/>
+      <c r="SH23" s="3"/>
+      <c r="SI23" s="3"/>
+      <c r="SJ23" s="3"/>
+      <c r="SK23" s="3"/>
+      <c r="SL23" s="3"/>
+      <c r="SM23" s="3"/>
+      <c r="SN23" s="3"/>
+      <c r="SO23" s="3"/>
+      <c r="SP23" s="3"/>
+      <c r="SQ23" s="3"/>
+      <c r="SR23" s="3"/>
+      <c r="SS23" s="3"/>
+      <c r="ST23" s="3"/>
+      <c r="SU23" s="3"/>
+      <c r="SV23" s="3"/>
+      <c r="SW23" s="3"/>
+      <c r="SX23" s="3"/>
+      <c r="SY23" s="3"/>
+      <c r="SZ23" s="3"/>
+      <c r="TA23" s="3"/>
+      <c r="TB23" s="3"/>
+      <c r="TC23" s="3"/>
+      <c r="TD23" s="3"/>
+      <c r="TE23" s="3"/>
+      <c r="TF23" s="3"/>
+      <c r="TG23" s="3"/>
+      <c r="TH23" s="3"/>
+      <c r="TI23" s="3"/>
+      <c r="TJ23" s="3"/>
+      <c r="TK23" s="3"/>
+      <c r="TL23" s="3"/>
+      <c r="TM23" s="3"/>
+      <c r="TN23" s="3"/>
+      <c r="TO23" s="3"/>
+      <c r="TP23" s="3"/>
+      <c r="TQ23" s="3"/>
+      <c r="TR23" s="3"/>
+      <c r="TS23" s="3"/>
+      <c r="TT23" s="3"/>
+      <c r="TU23" s="3"/>
+      <c r="TV23" s="3"/>
+      <c r="TW23" s="3"/>
+      <c r="TX23" s="3"/>
+      <c r="TY23" s="3"/>
+      <c r="TZ23" s="3"/>
+      <c r="UA23" s="3"/>
+      <c r="UB23" s="3"/>
+      <c r="UC23" s="3"/>
+      <c r="UD23" s="3"/>
+      <c r="UE23" s="3"/>
+      <c r="UF23" s="3"/>
+      <c r="UG23" s="3"/>
+      <c r="UH23" s="3"/>
+      <c r="UI23" s="3"/>
+      <c r="UJ23" s="3"/>
+      <c r="UK23" s="3"/>
+      <c r="UL23" s="3"/>
+      <c r="UM23" s="3"/>
+      <c r="UN23" s="3"/>
+      <c r="UO23" s="3"/>
+      <c r="UP23" s="3"/>
+      <c r="UQ23" s="3"/>
+      <c r="UR23" s="3"/>
+      <c r="US23" s="3"/>
+      <c r="UT23" s="3"/>
+      <c r="UU23" s="3"/>
+      <c r="UV23" s="3"/>
+      <c r="UW23" s="3"/>
+      <c r="UX23" s="3"/>
+      <c r="UY23" s="3"/>
+      <c r="UZ23" s="3"/>
+      <c r="VA23" s="3"/>
+      <c r="VB23" s="3"/>
+      <c r="VC23" s="3"/>
+      <c r="VD23" s="3"/>
+      <c r="VE23" s="3"/>
+      <c r="VF23" s="3"/>
+      <c r="VG23" s="3"/>
+      <c r="VH23" s="3"/>
+      <c r="VI23" s="3"/>
+      <c r="VJ23" s="3"/>
+      <c r="VK23" s="3"/>
+      <c r="VL23" s="3"/>
+      <c r="VM23" s="3"/>
+      <c r="VN23" s="3"/>
+      <c r="VO23" s="3"/>
+      <c r="VP23" s="3"/>
+      <c r="VQ23" s="3"/>
+      <c r="VR23" s="3"/>
+      <c r="VS23" s="3"/>
+      <c r="VT23" s="3"/>
+      <c r="VU23" s="3"/>
+      <c r="VV23" s="3"/>
+      <c r="VW23" s="3"/>
+      <c r="VX23" s="3"/>
+      <c r="VY23" s="3"/>
+      <c r="VZ23" s="3"/>
+      <c r="WA23" s="3"/>
+      <c r="WB23" s="3"/>
+      <c r="WC23" s="3"/>
+      <c r="WD23" s="3"/>
+      <c r="WE23" s="3"/>
+      <c r="WF23" s="3"/>
+      <c r="WG23" s="3"/>
+      <c r="WH23" s="3"/>
+      <c r="WI23" s="3"/>
+      <c r="WJ23" s="3"/>
+      <c r="WK23" s="3"/>
+      <c r="WL23" s="3"/>
+      <c r="WM23" s="3"/>
+      <c r="WN23" s="3"/>
+      <c r="WO23" s="3"/>
+      <c r="WP23" s="3"/>
+      <c r="WQ23" s="3"/>
+      <c r="WR23" s="3"/>
+      <c r="WS23" s="3"/>
+      <c r="WT23" s="3"/>
+      <c r="WU23" s="3"/>
+      <c r="WV23" s="3"/>
+      <c r="WW23" s="3"/>
+      <c r="WX23" s="3"/>
+      <c r="WY23" s="3"/>
+      <c r="WZ23" s="3"/>
+      <c r="XA23" s="3"/>
+      <c r="XB23" s="3"/>
+      <c r="XC23" s="3"/>
+      <c r="XD23" s="3"/>
+      <c r="XE23" s="3"/>
+      <c r="XF23" s="3"/>
+      <c r="XG23" s="3"/>
+      <c r="XH23" s="3"/>
+      <c r="XI23" s="3"/>
+      <c r="XJ23" s="3"/>
+      <c r="XK23" s="3"/>
+      <c r="XL23" s="3"/>
+      <c r="XM23" s="3"/>
+      <c r="XN23" s="3"/>
+      <c r="XO23" s="3"/>
+      <c r="XP23" s="3"/>
+      <c r="XQ23" s="3"/>
+      <c r="XR23" s="3"/>
+      <c r="XS23" s="3"/>
+      <c r="XT23" s="3"/>
+      <c r="XU23" s="3"/>
+      <c r="XV23" s="3"/>
+      <c r="XW23" s="3"/>
+      <c r="XX23" s="3"/>
+      <c r="XY23" s="3"/>
+      <c r="XZ23" s="3"/>
+      <c r="YA23" s="3"/>
+      <c r="YB23" s="3"/>
+      <c r="YC23" s="3"/>
+      <c r="YD23" s="3"/>
+      <c r="YE23" s="3"/>
+      <c r="YF23" s="3"/>
+      <c r="YG23" s="3"/>
+      <c r="YH23" s="3"/>
+      <c r="YI23" s="3"/>
+      <c r="YJ23" s="3"/>
+      <c r="YK23" s="3"/>
+      <c r="YL23" s="3"/>
+      <c r="YM23" s="3"/>
+      <c r="YN23" s="3"/>
+      <c r="YO23" s="3"/>
+      <c r="YP23" s="3"/>
+      <c r="YQ23" s="3"/>
+      <c r="YR23" s="3"/>
+      <c r="YS23" s="3"/>
+      <c r="YT23" s="3"/>
+      <c r="YU23" s="3"/>
+      <c r="YV23" s="3"/>
+      <c r="YW23" s="3"/>
+      <c r="YX23" s="3"/>
+      <c r="YY23" s="3"/>
+      <c r="YZ23" s="3"/>
+      <c r="ZA23" s="3"/>
+      <c r="ZB23" s="3"/>
+      <c r="ZC23" s="3"/>
+      <c r="ZD23" s="3"/>
+      <c r="ZE23" s="3"/>
+      <c r="ZF23" s="3"/>
+      <c r="ZG23" s="3"/>
+      <c r="ZH23" s="3"/>
+      <c r="ZI23" s="3"/>
+      <c r="ZJ23" s="3"/>
+      <c r="ZK23" s="3"/>
+      <c r="ZL23" s="3"/>
+      <c r="ZM23" s="3"/>
+      <c r="ZN23" s="3"/>
+      <c r="ZO23" s="3"/>
+      <c r="ZP23" s="3"/>
+      <c r="ZQ23" s="3"/>
+      <c r="ZR23" s="3"/>
+      <c r="ZS23" s="3"/>
+      <c r="ZT23" s="3"/>
+      <c r="ZU23" s="3"/>
+      <c r="ZV23" s="3"/>
+      <c r="ZW23" s="3"/>
+      <c r="ZX23" s="3"/>
+      <c r="ZY23" s="3"/>
+      <c r="ZZ23" s="3"/>
+      <c r="AAA23" s="3"/>
+      <c r="AAB23" s="3"/>
+      <c r="AAC23" s="3"/>
+      <c r="AAD23" s="3"/>
+      <c r="AAE23" s="3"/>
+      <c r="AAF23" s="3"/>
+      <c r="AAG23" s="3"/>
+      <c r="AAH23" s="3"/>
+      <c r="AAI23" s="3"/>
+      <c r="AAJ23" s="3"/>
+      <c r="AAK23" s="3"/>
+      <c r="AAL23" s="3"/>
+      <c r="AAM23" s="3"/>
+      <c r="AAN23" s="3"/>
+      <c r="AAO23" s="3"/>
+      <c r="AAP23" s="3"/>
+      <c r="AAQ23" s="3"/>
+      <c r="AAR23" s="3"/>
+      <c r="AAS23" s="3"/>
+      <c r="AAT23" s="3"/>
+      <c r="AAU23" s="3"/>
+      <c r="AAV23" s="3"/>
+      <c r="AAW23" s="3"/>
+      <c r="AAX23" s="3"/>
+      <c r="AAY23" s="3"/>
+      <c r="AAZ23" s="3"/>
+      <c r="ABA23" s="3"/>
+      <c r="ABB23" s="3"/>
+      <c r="ABC23" s="3"/>
+      <c r="ABD23" s="3"/>
+      <c r="ABE23" s="3"/>
+      <c r="ABF23" s="3"/>
+      <c r="ABG23" s="3"/>
+      <c r="ABH23" s="3"/>
+      <c r="ABI23" s="3"/>
+      <c r="ABJ23" s="3"/>
+      <c r="ABK23" s="3"/>
+      <c r="ABL23" s="3"/>
+      <c r="ABM23" s="3"/>
+      <c r="ABN23" s="3"/>
+      <c r="ABO23" s="3"/>
+      <c r="ABP23" s="3"/>
+      <c r="ABQ23" s="3"/>
+      <c r="ABR23" s="3"/>
+      <c r="ABS23" s="3"/>
+      <c r="ABT23" s="3"/>
+      <c r="ABU23" s="3"/>
+      <c r="ABV23" s="3"/>
+      <c r="ABW23" s="3"/>
+      <c r="ABX23" s="3"/>
+      <c r="ABY23" s="3"/>
+      <c r="ABZ23" s="3"/>
+      <c r="ACA23" s="3"/>
+      <c r="ACB23" s="3"/>
+      <c r="ACC23" s="3"/>
+      <c r="ACD23" s="3"/>
+      <c r="ACE23" s="3"/>
+      <c r="ACF23" s="3"/>
+      <c r="ACG23" s="3"/>
+      <c r="ACH23" s="3"/>
+      <c r="ACI23" s="3"/>
+      <c r="ACJ23" s="3"/>
+      <c r="ACK23" s="3"/>
+      <c r="ACL23" s="3"/>
+      <c r="ACM23" s="3"/>
+      <c r="ACN23" s="3"/>
+      <c r="ACO23" s="3"/>
+      <c r="ACP23" s="3"/>
+      <c r="ACQ23" s="3"/>
+      <c r="ACR23" s="3"/>
+      <c r="ACS23" s="3"/>
+      <c r="ACT23" s="3"/>
+      <c r="ACU23" s="3"/>
+      <c r="ACV23" s="3"/>
+      <c r="ACW23" s="3"/>
+      <c r="ACX23" s="3"/>
+      <c r="ACY23" s="3"/>
+      <c r="ACZ23" s="3"/>
+      <c r="ADA23" s="3"/>
+      <c r="ADB23" s="3"/>
+      <c r="ADC23" s="3"/>
+      <c r="ADD23" s="3"/>
+      <c r="ADE23" s="3"/>
+      <c r="ADF23" s="3"/>
+      <c r="ADG23" s="3"/>
+      <c r="ADH23" s="3"/>
+      <c r="ADI23" s="3"/>
+      <c r="ADJ23" s="3"/>
+      <c r="ADK23" s="3"/>
+      <c r="ADL23" s="3"/>
+      <c r="ADM23" s="3"/>
+      <c r="ADN23" s="3"/>
+      <c r="ADO23" s="3"/>
+      <c r="ADP23" s="3"/>
+      <c r="ADQ23" s="3"/>
+      <c r="ADR23" s="3"/>
+      <c r="ADS23" s="3"/>
+      <c r="ADT23" s="3"/>
+      <c r="ADU23" s="3"/>
+      <c r="ADV23" s="3"/>
+      <c r="ADW23" s="3"/>
+      <c r="ADX23" s="3"/>
+      <c r="ADY23" s="3"/>
+      <c r="ADZ23" s="3"/>
+      <c r="AEA23" s="3"/>
+      <c r="AEB23" s="3"/>
+      <c r="AEC23" s="3"/>
+      <c r="AED23" s="3"/>
+      <c r="AEE23" s="3"/>
+      <c r="AEF23" s="3"/>
+      <c r="AEG23" s="3"/>
+      <c r="AEH23" s="3"/>
+      <c r="AEI23" s="3"/>
+      <c r="AEJ23" s="3"/>
+      <c r="AEK23" s="3"/>
+      <c r="AEL23" s="3"/>
+      <c r="AEM23" s="3"/>
+      <c r="AEN23" s="3"/>
+      <c r="AEO23" s="3"/>
+      <c r="AEP23" s="3"/>
+      <c r="AEQ23" s="3"/>
+      <c r="AER23" s="3"/>
+      <c r="AES23" s="3"/>
+      <c r="AET23" s="3"/>
+      <c r="AEU23" s="3"/>
+      <c r="AEV23" s="3"/>
+      <c r="AEW23" s="3"/>
+      <c r="AEX23" s="3"/>
+      <c r="AEY23" s="3"/>
+      <c r="AEZ23" s="3"/>
+      <c r="AFA23" s="3"/>
+      <c r="AFB23" s="3"/>
+      <c r="AFC23" s="3"/>
+      <c r="AFD23" s="3"/>
+      <c r="AFE23" s="3"/>
+      <c r="AFF23" s="3"/>
+      <c r="AFG23" s="3"/>
+      <c r="AFH23" s="3"/>
+      <c r="AFI23" s="3"/>
+      <c r="AFJ23" s="3"/>
+      <c r="AFK23" s="3"/>
+      <c r="AFL23" s="3"/>
+      <c r="AFM23" s="3"/>
+      <c r="AFN23" s="3"/>
+      <c r="AFO23" s="3"/>
+      <c r="AFP23" s="3"/>
+      <c r="AFQ23" s="3"/>
+      <c r="AFR23" s="3"/>
+      <c r="AFS23" s="3"/>
+      <c r="AFT23" s="3"/>
+      <c r="AFU23" s="3"/>
+      <c r="AFV23" s="3"/>
+      <c r="AFW23" s="3"/>
+      <c r="AFX23" s="3"/>
+      <c r="AFY23" s="3"/>
+      <c r="AFZ23" s="3"/>
+      <c r="AGA23" s="3"/>
+      <c r="AGB23" s="3"/>
+      <c r="AGC23" s="3"/>
+      <c r="AGD23" s="3"/>
+      <c r="AGE23" s="3"/>
+      <c r="AGF23" s="3"/>
+      <c r="AGG23" s="3"/>
+      <c r="AGH23" s="3"/>
+      <c r="AGI23" s="3"/>
+      <c r="AGJ23" s="3"/>
+      <c r="AGK23" s="3"/>
+      <c r="AGL23" s="3"/>
+      <c r="AGM23" s="3"/>
+      <c r="AGN23" s="3"/>
+      <c r="AGO23" s="3"/>
+      <c r="AGP23" s="3"/>
+      <c r="AGQ23" s="3"/>
+      <c r="AGR23" s="3"/>
+      <c r="AGS23" s="3"/>
+      <c r="AGT23" s="3"/>
+      <c r="AGU23" s="3"/>
+      <c r="AGV23" s="3"/>
+      <c r="AGW23" s="3"/>
+      <c r="AGX23" s="3"/>
+      <c r="AGY23" s="3"/>
+      <c r="AGZ23" s="3"/>
+      <c r="AHA23" s="3"/>
+      <c r="AHB23" s="3"/>
+      <c r="AHC23" s="3"/>
+      <c r="AHD23" s="3"/>
+      <c r="AHE23" s="3"/>
+      <c r="AHF23" s="3"/>
+      <c r="AHG23" s="3"/>
+      <c r="AHH23" s="3"/>
+      <c r="AHI23" s="3"/>
+      <c r="AHJ23" s="3"/>
+      <c r="AHK23" s="3"/>
+      <c r="AHL23" s="3"/>
+      <c r="AHM23" s="3"/>
+      <c r="AHN23" s="3"/>
+      <c r="AHO23" s="3"/>
+      <c r="AHP23" s="3"/>
+      <c r="AHQ23" s="3"/>
+      <c r="AHR23" s="3"/>
+      <c r="AHS23" s="3"/>
+      <c r="AHT23" s="3"/>
+      <c r="AHU23" s="3"/>
+      <c r="AHV23" s="3"/>
+      <c r="AHW23" s="3"/>
+      <c r="AHX23" s="3"/>
+      <c r="AHY23" s="3"/>
+      <c r="AHZ23" s="3"/>
+      <c r="AIA23" s="3"/>
+      <c r="AIB23" s="3"/>
+      <c r="AIC23" s="3"/>
+      <c r="AID23" s="3"/>
+      <c r="AIE23" s="3"/>
+      <c r="AIF23" s="3"/>
+      <c r="AIG23" s="3"/>
+      <c r="AIH23" s="3"/>
+      <c r="AII23" s="3"/>
+      <c r="AIJ23" s="3"/>
+      <c r="AIK23" s="3"/>
+      <c r="AIL23" s="3"/>
+      <c r="AIM23" s="3"/>
+      <c r="AIN23" s="3"/>
+      <c r="AIO23" s="3"/>
+      <c r="AIP23" s="3"/>
+      <c r="AIQ23" s="3"/>
+      <c r="AIR23" s="3"/>
+      <c r="AIS23" s="3"/>
+      <c r="AIT23" s="3"/>
+      <c r="AIU23" s="3"/>
+      <c r="AIV23" s="3"/>
+      <c r="AIW23" s="3"/>
+      <c r="AIX23" s="3"/>
+      <c r="AIY23" s="3"/>
+      <c r="AIZ23" s="3"/>
+      <c r="AJA23" s="3"/>
+      <c r="AJB23" s="3"/>
+      <c r="AJC23" s="3"/>
+      <c r="AJD23" s="3"/>
+      <c r="AJE23" s="3"/>
+      <c r="AJF23" s="3"/>
+      <c r="AJG23" s="3"/>
+      <c r="AJH23" s="3"/>
+      <c r="AJI23" s="3"/>
+      <c r="AJJ23" s="3"/>
+      <c r="AJK23" s="3"/>
+      <c r="AJL23" s="3"/>
+      <c r="AJM23" s="3"/>
+      <c r="AJN23" s="3"/>
+      <c r="AJO23" s="3"/>
+      <c r="AJP23" s="3"/>
+      <c r="AJQ23" s="3"/>
+      <c r="AJR23" s="3"/>
+      <c r="AJS23" s="3"/>
+      <c r="AJT23" s="3"/>
+      <c r="AJU23" s="3"/>
+      <c r="AJV23" s="3"/>
+      <c r="AJW23" s="3"/>
+      <c r="AJX23" s="3"/>
+      <c r="AJY23" s="3"/>
+      <c r="AJZ23" s="3"/>
+      <c r="AKA23" s="3"/>
+      <c r="AKB23" s="3"/>
+      <c r="AKC23" s="3"/>
+      <c r="AKD23" s="3"/>
+      <c r="AKE23" s="3"/>
+      <c r="AKF23" s="3"/>
+      <c r="AKG23" s="3"/>
+      <c r="AKH23" s="3"/>
+      <c r="AKI23" s="3"/>
+      <c r="AKJ23" s="3"/>
+      <c r="AKK23" s="3"/>
+      <c r="AKL23" s="3"/>
+      <c r="AKM23" s="3"/>
+      <c r="AKN23" s="3"/>
+      <c r="AKO23" s="3"/>
+      <c r="AKP23" s="3"/>
+      <c r="AKQ23" s="3"/>
+      <c r="AKR23" s="3"/>
+      <c r="AKS23" s="3"/>
+      <c r="AKT23" s="3"/>
+      <c r="AKU23" s="3"/>
+      <c r="AKV23" s="3"/>
+      <c r="AKW23" s="3"/>
+      <c r="AKX23" s="3"/>
+      <c r="AKY23" s="3"/>
+      <c r="AKZ23" s="3"/>
+      <c r="ALA23" s="3"/>
+      <c r="ALB23" s="3"/>
+      <c r="ALC23" s="3"/>
+      <c r="ALD23" s="3"/>
+      <c r="ALE23" s="3"/>
+      <c r="ALF23" s="3"/>
+      <c r="ALG23" s="3"/>
+      <c r="ALH23" s="3"/>
+      <c r="ALI23" s="3"/>
+      <c r="ALJ23" s="3"/>
+      <c r="ALK23" s="3"/>
+      <c r="ALL23" s="3"/>
+      <c r="ALM23" s="3"/>
+      <c r="ALN23" s="3"/>
+      <c r="ALO23" s="3"/>
+      <c r="ALP23" s="3"/>
+      <c r="ALQ23" s="3"/>
+      <c r="ALR23" s="3"/>
+      <c r="ALS23" s="3"/>
+      <c r="ALT23" s="3"/>
+      <c r="ALU23" s="3"/>
+      <c r="ALV23" s="3"/>
+      <c r="ALW23" s="3"/>
+      <c r="ALX23" s="3"/>
+      <c r="ALY23" s="3"/>
+      <c r="ALZ23" s="3"/>
+      <c r="AMA23" s="3"/>
+      <c r="AMB23" s="3"/>
+      <c r="AMC23" s="3"/>
+      <c r="AMD23" s="3"/>
+      <c r="AME23" s="8"/>
+      <c r="AMF23" s="8"/>
+      <c r="AMG23" s="8"/>
+      <c r="AMH23" s="8"/>
+      <c r="AMI23" s="8"/>
+      <c r="AMJ23" s="8"/>
     </row>
-    <row r="24" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D24" s="3"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="F24" s="11" t="s">
+        <v>64</v>
+      </c>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
-      <c r="L24" s="3"/>
       <c r="M24" s="8"/>
       <c r="N24" s="8"/>
       <c r="O24" s="8"/>
@@ -6615,1002 +7539,6 @@
       <c r="T24" s="8"/>
       <c r="U24" s="8"/>
       <c r="V24" s="8"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
-      <c r="AF24" s="3"/>
-      <c r="AG24" s="3"/>
-      <c r="AH24" s="3"/>
-      <c r="AI24" s="3"/>
-      <c r="AJ24" s="3"/>
-      <c r="AK24" s="3"/>
-      <c r="AL24" s="3"/>
-      <c r="AM24" s="3"/>
-      <c r="AN24" s="3"/>
-      <c r="AO24" s="3"/>
-      <c r="AP24" s="3"/>
-      <c r="AQ24" s="3"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="3"/>
-      <c r="AT24" s="3"/>
-      <c r="AU24" s="3"/>
-      <c r="AV24" s="3"/>
-      <c r="AW24" s="3"/>
-      <c r="AX24" s="3"/>
-      <c r="AY24" s="3"/>
-      <c r="AZ24" s="3"/>
-      <c r="BA24" s="3"/>
-      <c r="BB24" s="3"/>
-      <c r="BC24" s="3"/>
-      <c r="BD24" s="3"/>
-      <c r="BE24" s="3"/>
-      <c r="BF24" s="3"/>
-      <c r="BG24" s="3"/>
-      <c r="BH24" s="3"/>
-      <c r="BI24" s="3"/>
-      <c r="BJ24" s="3"/>
-      <c r="BK24" s="3"/>
-      <c r="BL24" s="3"/>
-      <c r="BM24" s="3"/>
-      <c r="BN24" s="3"/>
-      <c r="BO24" s="3"/>
-      <c r="BP24" s="3"/>
-      <c r="BQ24" s="3"/>
-      <c r="BR24" s="3"/>
-      <c r="BS24" s="3"/>
-      <c r="BT24" s="3"/>
-      <c r="BU24" s="3"/>
-      <c r="BV24" s="3"/>
-      <c r="BW24" s="3"/>
-      <c r="BX24" s="3"/>
-      <c r="BY24" s="3"/>
-      <c r="BZ24" s="3"/>
-      <c r="CA24" s="3"/>
-      <c r="CB24" s="3"/>
-      <c r="CC24" s="3"/>
-      <c r="CD24" s="3"/>
-      <c r="CE24" s="3"/>
-      <c r="CF24" s="3"/>
-      <c r="CG24" s="3"/>
-      <c r="CH24" s="3"/>
-      <c r="CI24" s="3"/>
-      <c r="CJ24" s="3"/>
-      <c r="CK24" s="3"/>
-      <c r="CL24" s="3"/>
-      <c r="CM24" s="3"/>
-      <c r="CN24" s="3"/>
-      <c r="CO24" s="3"/>
-      <c r="CP24" s="3"/>
-      <c r="CQ24" s="3"/>
-      <c r="CR24" s="3"/>
-      <c r="CS24" s="3"/>
-      <c r="CT24" s="3"/>
-      <c r="CU24" s="3"/>
-      <c r="CV24" s="3"/>
-      <c r="CW24" s="3"/>
-      <c r="CX24" s="3"/>
-      <c r="CY24" s="3"/>
-      <c r="CZ24" s="3"/>
-      <c r="DA24" s="3"/>
-      <c r="DB24" s="3"/>
-      <c r="DC24" s="3"/>
-      <c r="DD24" s="3"/>
-      <c r="DE24" s="3"/>
-      <c r="DF24" s="3"/>
-      <c r="DG24" s="3"/>
-      <c r="DH24" s="3"/>
-      <c r="DI24" s="3"/>
-      <c r="DJ24" s="3"/>
-      <c r="DK24" s="3"/>
-      <c r="DL24" s="3"/>
-      <c r="DM24" s="3"/>
-      <c r="DN24" s="3"/>
-      <c r="DO24" s="3"/>
-      <c r="DP24" s="3"/>
-      <c r="DQ24" s="3"/>
-      <c r="DR24" s="3"/>
-      <c r="DS24" s="3"/>
-      <c r="DT24" s="3"/>
-      <c r="DU24" s="3"/>
-      <c r="DV24" s="3"/>
-      <c r="DW24" s="3"/>
-      <c r="DX24" s="3"/>
-      <c r="DY24" s="3"/>
-      <c r="DZ24" s="3"/>
-      <c r="EA24" s="3"/>
-      <c r="EB24" s="3"/>
-      <c r="EC24" s="3"/>
-      <c r="ED24" s="3"/>
-      <c r="EE24" s="3"/>
-      <c r="EF24" s="3"/>
-      <c r="EG24" s="3"/>
-      <c r="EH24" s="3"/>
-      <c r="EI24" s="3"/>
-      <c r="EJ24" s="3"/>
-      <c r="EK24" s="3"/>
-      <c r="EL24" s="3"/>
-      <c r="EM24" s="3"/>
-      <c r="EN24" s="3"/>
-      <c r="EO24" s="3"/>
-      <c r="EP24" s="3"/>
-      <c r="EQ24" s="3"/>
-      <c r="ER24" s="3"/>
-      <c r="ES24" s="3"/>
-      <c r="ET24" s="3"/>
-      <c r="EU24" s="3"/>
-      <c r="EV24" s="3"/>
-      <c r="EW24" s="3"/>
-      <c r="EX24" s="3"/>
-      <c r="EY24" s="3"/>
-      <c r="EZ24" s="3"/>
-      <c r="FA24" s="3"/>
-      <c r="FB24" s="3"/>
-      <c r="FC24" s="3"/>
-      <c r="FD24" s="3"/>
-      <c r="FE24" s="3"/>
-      <c r="FF24" s="3"/>
-      <c r="FG24" s="3"/>
-      <c r="FH24" s="3"/>
-      <c r="FI24" s="3"/>
-      <c r="FJ24" s="3"/>
-      <c r="FK24" s="3"/>
-      <c r="FL24" s="3"/>
-      <c r="FM24" s="3"/>
-      <c r="FN24" s="3"/>
-      <c r="FO24" s="3"/>
-      <c r="FP24" s="3"/>
-      <c r="FQ24" s="3"/>
-      <c r="FR24" s="3"/>
-      <c r="FS24" s="3"/>
-      <c r="FT24" s="3"/>
-      <c r="FU24" s="3"/>
-      <c r="FV24" s="3"/>
-      <c r="FW24" s="3"/>
-      <c r="FX24" s="3"/>
-      <c r="FY24" s="3"/>
-      <c r="FZ24" s="3"/>
-      <c r="GA24" s="3"/>
-      <c r="GB24" s="3"/>
-      <c r="GC24" s="3"/>
-      <c r="GD24" s="3"/>
-      <c r="GE24" s="3"/>
-      <c r="GF24" s="3"/>
-      <c r="GG24" s="3"/>
-      <c r="GH24" s="3"/>
-      <c r="GI24" s="3"/>
-      <c r="GJ24" s="3"/>
-      <c r="GK24" s="3"/>
-      <c r="GL24" s="3"/>
-      <c r="GM24" s="3"/>
-      <c r="GN24" s="3"/>
-      <c r="GO24" s="3"/>
-      <c r="GP24" s="3"/>
-      <c r="GQ24" s="3"/>
-      <c r="GR24" s="3"/>
-      <c r="GS24" s="3"/>
-      <c r="GT24" s="3"/>
-      <c r="GU24" s="3"/>
-      <c r="GV24" s="3"/>
-      <c r="GW24" s="3"/>
-      <c r="GX24" s="3"/>
-      <c r="GY24" s="3"/>
-      <c r="GZ24" s="3"/>
-      <c r="HA24" s="3"/>
-      <c r="HB24" s="3"/>
-      <c r="HC24" s="3"/>
-      <c r="HD24" s="3"/>
-      <c r="HE24" s="3"/>
-      <c r="HF24" s="3"/>
-      <c r="HG24" s="3"/>
-      <c r="HH24" s="3"/>
-      <c r="HI24" s="3"/>
-      <c r="HJ24" s="3"/>
-      <c r="HK24" s="3"/>
-      <c r="HL24" s="3"/>
-      <c r="HM24" s="3"/>
-      <c r="HN24" s="3"/>
-      <c r="HO24" s="3"/>
-      <c r="HP24" s="3"/>
-      <c r="HQ24" s="3"/>
-      <c r="HR24" s="3"/>
-      <c r="HS24" s="3"/>
-      <c r="HT24" s="3"/>
-      <c r="HU24" s="3"/>
-      <c r="HV24" s="3"/>
-      <c r="HW24" s="3"/>
-      <c r="HX24" s="3"/>
-      <c r="HY24" s="3"/>
-      <c r="HZ24" s="3"/>
-      <c r="IA24" s="3"/>
-      <c r="IB24" s="3"/>
-      <c r="IC24" s="3"/>
-      <c r="ID24" s="3"/>
-      <c r="IE24" s="3"/>
-      <c r="IF24" s="3"/>
-      <c r="IG24" s="3"/>
-      <c r="IH24" s="3"/>
-      <c r="II24" s="3"/>
-      <c r="IJ24" s="3"/>
-      <c r="IK24" s="3"/>
-      <c r="IL24" s="3"/>
-      <c r="IM24" s="3"/>
-      <c r="IN24" s="3"/>
-      <c r="IO24" s="3"/>
-      <c r="IP24" s="3"/>
-      <c r="IQ24" s="3"/>
-      <c r="IR24" s="3"/>
-      <c r="IS24" s="3"/>
-      <c r="IT24" s="3"/>
-      <c r="IU24" s="3"/>
-      <c r="IV24" s="3"/>
-      <c r="IW24" s="3"/>
-      <c r="IX24" s="3"/>
-      <c r="IY24" s="3"/>
-      <c r="IZ24" s="3"/>
-      <c r="JA24" s="3"/>
-      <c r="JB24" s="3"/>
-      <c r="JC24" s="3"/>
-      <c r="JD24" s="3"/>
-      <c r="JE24" s="3"/>
-      <c r="JF24" s="3"/>
-      <c r="JG24" s="3"/>
-      <c r="JH24" s="3"/>
-      <c r="JI24" s="3"/>
-      <c r="JJ24" s="3"/>
-      <c r="JK24" s="3"/>
-      <c r="JL24" s="3"/>
-      <c r="JM24" s="3"/>
-      <c r="JN24" s="3"/>
-      <c r="JO24" s="3"/>
-      <c r="JP24" s="3"/>
-      <c r="JQ24" s="3"/>
-      <c r="JR24" s="3"/>
-      <c r="JS24" s="3"/>
-      <c r="JT24" s="3"/>
-      <c r="JU24" s="3"/>
-      <c r="JV24" s="3"/>
-      <c r="JW24" s="3"/>
-      <c r="JX24" s="3"/>
-      <c r="JY24" s="3"/>
-      <c r="JZ24" s="3"/>
-      <c r="KA24" s="3"/>
-      <c r="KB24" s="3"/>
-      <c r="KC24" s="3"/>
-      <c r="KD24" s="3"/>
-      <c r="KE24" s="3"/>
-      <c r="KF24" s="3"/>
-      <c r="KG24" s="3"/>
-      <c r="KH24" s="3"/>
-      <c r="KI24" s="3"/>
-      <c r="KJ24" s="3"/>
-      <c r="KK24" s="3"/>
-      <c r="KL24" s="3"/>
-      <c r="KM24" s="3"/>
-      <c r="KN24" s="3"/>
-      <c r="KO24" s="3"/>
-      <c r="KP24" s="3"/>
-      <c r="KQ24" s="3"/>
-      <c r="KR24" s="3"/>
-      <c r="KS24" s="3"/>
-      <c r="KT24" s="3"/>
-      <c r="KU24" s="3"/>
-      <c r="KV24" s="3"/>
-      <c r="KW24" s="3"/>
-      <c r="KX24" s="3"/>
-      <c r="KY24" s="3"/>
-      <c r="KZ24" s="3"/>
-      <c r="LA24" s="3"/>
-      <c r="LB24" s="3"/>
-      <c r="LC24" s="3"/>
-      <c r="LD24" s="3"/>
-      <c r="LE24" s="3"/>
-      <c r="LF24" s="3"/>
-      <c r="LG24" s="3"/>
-      <c r="LH24" s="3"/>
-      <c r="LI24" s="3"/>
-      <c r="LJ24" s="3"/>
-      <c r="LK24" s="3"/>
-      <c r="LL24" s="3"/>
-      <c r="LM24" s="3"/>
-      <c r="LN24" s="3"/>
-      <c r="LO24" s="3"/>
-      <c r="LP24" s="3"/>
-      <c r="LQ24" s="3"/>
-      <c r="LR24" s="3"/>
-      <c r="LS24" s="3"/>
-      <c r="LT24" s="3"/>
-      <c r="LU24" s="3"/>
-      <c r="LV24" s="3"/>
-      <c r="LW24" s="3"/>
-      <c r="LX24" s="3"/>
-      <c r="LY24" s="3"/>
-      <c r="LZ24" s="3"/>
-      <c r="MA24" s="3"/>
-      <c r="MB24" s="3"/>
-      <c r="MC24" s="3"/>
-      <c r="MD24" s="3"/>
-      <c r="ME24" s="3"/>
-      <c r="MF24" s="3"/>
-      <c r="MG24" s="3"/>
-      <c r="MH24" s="3"/>
-      <c r="MI24" s="3"/>
-      <c r="MJ24" s="3"/>
-      <c r="MK24" s="3"/>
-      <c r="ML24" s="3"/>
-      <c r="MM24" s="3"/>
-      <c r="MN24" s="3"/>
-      <c r="MO24" s="3"/>
-      <c r="MP24" s="3"/>
-      <c r="MQ24" s="3"/>
-      <c r="MR24" s="3"/>
-      <c r="MS24" s="3"/>
-      <c r="MT24" s="3"/>
-      <c r="MU24" s="3"/>
-      <c r="MV24" s="3"/>
-      <c r="MW24" s="3"/>
-      <c r="MX24" s="3"/>
-      <c r="MY24" s="3"/>
-      <c r="MZ24" s="3"/>
-      <c r="NA24" s="3"/>
-      <c r="NB24" s="3"/>
-      <c r="NC24" s="3"/>
-      <c r="ND24" s="3"/>
-      <c r="NE24" s="3"/>
-      <c r="NF24" s="3"/>
-      <c r="NG24" s="3"/>
-      <c r="NH24" s="3"/>
-      <c r="NI24" s="3"/>
-      <c r="NJ24" s="3"/>
-      <c r="NK24" s="3"/>
-      <c r="NL24" s="3"/>
-      <c r="NM24" s="3"/>
-      <c r="NN24" s="3"/>
-      <c r="NO24" s="3"/>
-      <c r="NP24" s="3"/>
-      <c r="NQ24" s="3"/>
-      <c r="NR24" s="3"/>
-      <c r="NS24" s="3"/>
-      <c r="NT24" s="3"/>
-      <c r="NU24" s="3"/>
-      <c r="NV24" s="3"/>
-      <c r="NW24" s="3"/>
-      <c r="NX24" s="3"/>
-      <c r="NY24" s="3"/>
-      <c r="NZ24" s="3"/>
-      <c r="OA24" s="3"/>
-      <c r="OB24" s="3"/>
-      <c r="OC24" s="3"/>
-      <c r="OD24" s="3"/>
-      <c r="OE24" s="3"/>
-      <c r="OF24" s="3"/>
-      <c r="OG24" s="3"/>
-      <c r="OH24" s="3"/>
-      <c r="OI24" s="3"/>
-      <c r="OJ24" s="3"/>
-      <c r="OK24" s="3"/>
-      <c r="OL24" s="3"/>
-      <c r="OM24" s="3"/>
-      <c r="ON24" s="3"/>
-      <c r="OO24" s="3"/>
-      <c r="OP24" s="3"/>
-      <c r="OQ24" s="3"/>
-      <c r="OR24" s="3"/>
-      <c r="OS24" s="3"/>
-      <c r="OT24" s="3"/>
-      <c r="OU24" s="3"/>
-      <c r="OV24" s="3"/>
-      <c r="OW24" s="3"/>
-      <c r="OX24" s="3"/>
-      <c r="OY24" s="3"/>
-      <c r="OZ24" s="3"/>
-      <c r="PA24" s="3"/>
-      <c r="PB24" s="3"/>
-      <c r="PC24" s="3"/>
-      <c r="PD24" s="3"/>
-      <c r="PE24" s="3"/>
-      <c r="PF24" s="3"/>
-      <c r="PG24" s="3"/>
-      <c r="PH24" s="3"/>
-      <c r="PI24" s="3"/>
-      <c r="PJ24" s="3"/>
-      <c r="PK24" s="3"/>
-      <c r="PL24" s="3"/>
-      <c r="PM24" s="3"/>
-      <c r="PN24" s="3"/>
-      <c r="PO24" s="3"/>
-      <c r="PP24" s="3"/>
-      <c r="PQ24" s="3"/>
-      <c r="PR24" s="3"/>
-      <c r="PS24" s="3"/>
-      <c r="PT24" s="3"/>
-      <c r="PU24" s="3"/>
-      <c r="PV24" s="3"/>
-      <c r="PW24" s="3"/>
-      <c r="PX24" s="3"/>
-      <c r="PY24" s="3"/>
-      <c r="PZ24" s="3"/>
-      <c r="QA24" s="3"/>
-      <c r="QB24" s="3"/>
-      <c r="QC24" s="3"/>
-      <c r="QD24" s="3"/>
-      <c r="QE24" s="3"/>
-      <c r="QF24" s="3"/>
-      <c r="QG24" s="3"/>
-      <c r="QH24" s="3"/>
-      <c r="QI24" s="3"/>
-      <c r="QJ24" s="3"/>
-      <c r="QK24" s="3"/>
-      <c r="QL24" s="3"/>
-      <c r="QM24" s="3"/>
-      <c r="QN24" s="3"/>
-      <c r="QO24" s="3"/>
-      <c r="QP24" s="3"/>
-      <c r="QQ24" s="3"/>
-      <c r="QR24" s="3"/>
-      <c r="QS24" s="3"/>
-      <c r="QT24" s="3"/>
-      <c r="QU24" s="3"/>
-      <c r="QV24" s="3"/>
-      <c r="QW24" s="3"/>
-      <c r="QX24" s="3"/>
-      <c r="QY24" s="3"/>
-      <c r="QZ24" s="3"/>
-      <c r="RA24" s="3"/>
-      <c r="RB24" s="3"/>
-      <c r="RC24" s="3"/>
-      <c r="RD24" s="3"/>
-      <c r="RE24" s="3"/>
-      <c r="RF24" s="3"/>
-      <c r="RG24" s="3"/>
-      <c r="RH24" s="3"/>
-      <c r="RI24" s="3"/>
-      <c r="RJ24" s="3"/>
-      <c r="RK24" s="3"/>
-      <c r="RL24" s="3"/>
-      <c r="RM24" s="3"/>
-      <c r="RN24" s="3"/>
-      <c r="RO24" s="3"/>
-      <c r="RP24" s="3"/>
-      <c r="RQ24" s="3"/>
-      <c r="RR24" s="3"/>
-      <c r="RS24" s="3"/>
-      <c r="RT24" s="3"/>
-      <c r="RU24" s="3"/>
-      <c r="RV24" s="3"/>
-      <c r="RW24" s="3"/>
-      <c r="RX24" s="3"/>
-      <c r="RY24" s="3"/>
-      <c r="RZ24" s="3"/>
-      <c r="SA24" s="3"/>
-      <c r="SB24" s="3"/>
-      <c r="SC24" s="3"/>
-      <c r="SD24" s="3"/>
-      <c r="SE24" s="3"/>
-      <c r="SF24" s="3"/>
-      <c r="SG24" s="3"/>
-      <c r="SH24" s="3"/>
-      <c r="SI24" s="3"/>
-      <c r="SJ24" s="3"/>
-      <c r="SK24" s="3"/>
-      <c r="SL24" s="3"/>
-      <c r="SM24" s="3"/>
-      <c r="SN24" s="3"/>
-      <c r="SO24" s="3"/>
-      <c r="SP24" s="3"/>
-      <c r="SQ24" s="3"/>
-      <c r="SR24" s="3"/>
-      <c r="SS24" s="3"/>
-      <c r="ST24" s="3"/>
-      <c r="SU24" s="3"/>
-      <c r="SV24" s="3"/>
-      <c r="SW24" s="3"/>
-      <c r="SX24" s="3"/>
-      <c r="SY24" s="3"/>
-      <c r="SZ24" s="3"/>
-      <c r="TA24" s="3"/>
-      <c r="TB24" s="3"/>
-      <c r="TC24" s="3"/>
-      <c r="TD24" s="3"/>
-      <c r="TE24" s="3"/>
-      <c r="TF24" s="3"/>
-      <c r="TG24" s="3"/>
-      <c r="TH24" s="3"/>
-      <c r="TI24" s="3"/>
-      <c r="TJ24" s="3"/>
-      <c r="TK24" s="3"/>
-      <c r="TL24" s="3"/>
-      <c r="TM24" s="3"/>
-      <c r="TN24" s="3"/>
-      <c r="TO24" s="3"/>
-      <c r="TP24" s="3"/>
-      <c r="TQ24" s="3"/>
-      <c r="TR24" s="3"/>
-      <c r="TS24" s="3"/>
-      <c r="TT24" s="3"/>
-      <c r="TU24" s="3"/>
-      <c r="TV24" s="3"/>
-      <c r="TW24" s="3"/>
-      <c r="TX24" s="3"/>
-      <c r="TY24" s="3"/>
-      <c r="TZ24" s="3"/>
-      <c r="UA24" s="3"/>
-      <c r="UB24" s="3"/>
-      <c r="UC24" s="3"/>
-      <c r="UD24" s="3"/>
-      <c r="UE24" s="3"/>
-      <c r="UF24" s="3"/>
-      <c r="UG24" s="3"/>
-      <c r="UH24" s="3"/>
-      <c r="UI24" s="3"/>
-      <c r="UJ24" s="3"/>
-      <c r="UK24" s="3"/>
-      <c r="UL24" s="3"/>
-      <c r="UM24" s="3"/>
-      <c r="UN24" s="3"/>
-      <c r="UO24" s="3"/>
-      <c r="UP24" s="3"/>
-      <c r="UQ24" s="3"/>
-      <c r="UR24" s="3"/>
-      <c r="US24" s="3"/>
-      <c r="UT24" s="3"/>
-      <c r="UU24" s="3"/>
-      <c r="UV24" s="3"/>
-      <c r="UW24" s="3"/>
-      <c r="UX24" s="3"/>
-      <c r="UY24" s="3"/>
-      <c r="UZ24" s="3"/>
-      <c r="VA24" s="3"/>
-      <c r="VB24" s="3"/>
-      <c r="VC24" s="3"/>
-      <c r="VD24" s="3"/>
-      <c r="VE24" s="3"/>
-      <c r="VF24" s="3"/>
-      <c r="VG24" s="3"/>
-      <c r="VH24" s="3"/>
-      <c r="VI24" s="3"/>
-      <c r="VJ24" s="3"/>
-      <c r="VK24" s="3"/>
-      <c r="VL24" s="3"/>
-      <c r="VM24" s="3"/>
-      <c r="VN24" s="3"/>
-      <c r="VO24" s="3"/>
-      <c r="VP24" s="3"/>
-      <c r="VQ24" s="3"/>
-      <c r="VR24" s="3"/>
-      <c r="VS24" s="3"/>
-      <c r="VT24" s="3"/>
-      <c r="VU24" s="3"/>
-      <c r="VV24" s="3"/>
-      <c r="VW24" s="3"/>
-      <c r="VX24" s="3"/>
-      <c r="VY24" s="3"/>
-      <c r="VZ24" s="3"/>
-      <c r="WA24" s="3"/>
-      <c r="WB24" s="3"/>
-      <c r="WC24" s="3"/>
-      <c r="WD24" s="3"/>
-      <c r="WE24" s="3"/>
-      <c r="WF24" s="3"/>
-      <c r="WG24" s="3"/>
-      <c r="WH24" s="3"/>
-      <c r="WI24" s="3"/>
-      <c r="WJ24" s="3"/>
-      <c r="WK24" s="3"/>
-      <c r="WL24" s="3"/>
-      <c r="WM24" s="3"/>
-      <c r="WN24" s="3"/>
-      <c r="WO24" s="3"/>
-      <c r="WP24" s="3"/>
-      <c r="WQ24" s="3"/>
-      <c r="WR24" s="3"/>
-      <c r="WS24" s="3"/>
-      <c r="WT24" s="3"/>
-      <c r="WU24" s="3"/>
-      <c r="WV24" s="3"/>
-      <c r="WW24" s="3"/>
-      <c r="WX24" s="3"/>
-      <c r="WY24" s="3"/>
-      <c r="WZ24" s="3"/>
-      <c r="XA24" s="3"/>
-      <c r="XB24" s="3"/>
-      <c r="XC24" s="3"/>
-      <c r="XD24" s="3"/>
-      <c r="XE24" s="3"/>
-      <c r="XF24" s="3"/>
-      <c r="XG24" s="3"/>
-      <c r="XH24" s="3"/>
-      <c r="XI24" s="3"/>
-      <c r="XJ24" s="3"/>
-      <c r="XK24" s="3"/>
-      <c r="XL24" s="3"/>
-      <c r="XM24" s="3"/>
-      <c r="XN24" s="3"/>
-      <c r="XO24" s="3"/>
-      <c r="XP24" s="3"/>
-      <c r="XQ24" s="3"/>
-      <c r="XR24" s="3"/>
-      <c r="XS24" s="3"/>
-      <c r="XT24" s="3"/>
-      <c r="XU24" s="3"/>
-      <c r="XV24" s="3"/>
-      <c r="XW24" s="3"/>
-      <c r="XX24" s="3"/>
-      <c r="XY24" s="3"/>
-      <c r="XZ24" s="3"/>
-      <c r="YA24" s="3"/>
-      <c r="YB24" s="3"/>
-      <c r="YC24" s="3"/>
-      <c r="YD24" s="3"/>
-      <c r="YE24" s="3"/>
-      <c r="YF24" s="3"/>
-      <c r="YG24" s="3"/>
-      <c r="YH24" s="3"/>
-      <c r="YI24" s="3"/>
-      <c r="YJ24" s="3"/>
-      <c r="YK24" s="3"/>
-      <c r="YL24" s="3"/>
-      <c r="YM24" s="3"/>
-      <c r="YN24" s="3"/>
-      <c r="YO24" s="3"/>
-      <c r="YP24" s="3"/>
-      <c r="YQ24" s="3"/>
-      <c r="YR24" s="3"/>
-      <c r="YS24" s="3"/>
-      <c r="YT24" s="3"/>
-      <c r="YU24" s="3"/>
-      <c r="YV24" s="3"/>
-      <c r="YW24" s="3"/>
-      <c r="YX24" s="3"/>
-      <c r="YY24" s="3"/>
-      <c r="YZ24" s="3"/>
-      <c r="ZA24" s="3"/>
-      <c r="ZB24" s="3"/>
-      <c r="ZC24" s="3"/>
-      <c r="ZD24" s="3"/>
-      <c r="ZE24" s="3"/>
-      <c r="ZF24" s="3"/>
-      <c r="ZG24" s="3"/>
-      <c r="ZH24" s="3"/>
-      <c r="ZI24" s="3"/>
-      <c r="ZJ24" s="3"/>
-      <c r="ZK24" s="3"/>
-      <c r="ZL24" s="3"/>
-      <c r="ZM24" s="3"/>
-      <c r="ZN24" s="3"/>
-      <c r="ZO24" s="3"/>
-      <c r="ZP24" s="3"/>
-      <c r="ZQ24" s="3"/>
-      <c r="ZR24" s="3"/>
-      <c r="ZS24" s="3"/>
-      <c r="ZT24" s="3"/>
-      <c r="ZU24" s="3"/>
-      <c r="ZV24" s="3"/>
-      <c r="ZW24" s="3"/>
-      <c r="ZX24" s="3"/>
-      <c r="ZY24" s="3"/>
-      <c r="ZZ24" s="3"/>
-      <c r="AAA24" s="3"/>
-      <c r="AAB24" s="3"/>
-      <c r="AAC24" s="3"/>
-      <c r="AAD24" s="3"/>
-      <c r="AAE24" s="3"/>
-      <c r="AAF24" s="3"/>
-      <c r="AAG24" s="3"/>
-      <c r="AAH24" s="3"/>
-      <c r="AAI24" s="3"/>
-      <c r="AAJ24" s="3"/>
-      <c r="AAK24" s="3"/>
-      <c r="AAL24" s="3"/>
-      <c r="AAM24" s="3"/>
-      <c r="AAN24" s="3"/>
-      <c r="AAO24" s="3"/>
-      <c r="AAP24" s="3"/>
-      <c r="AAQ24" s="3"/>
-      <c r="AAR24" s="3"/>
-      <c r="AAS24" s="3"/>
-      <c r="AAT24" s="3"/>
-      <c r="AAU24" s="3"/>
-      <c r="AAV24" s="3"/>
-      <c r="AAW24" s="3"/>
-      <c r="AAX24" s="3"/>
-      <c r="AAY24" s="3"/>
-      <c r="AAZ24" s="3"/>
-      <c r="ABA24" s="3"/>
-      <c r="ABB24" s="3"/>
-      <c r="ABC24" s="3"/>
-      <c r="ABD24" s="3"/>
-      <c r="ABE24" s="3"/>
-      <c r="ABF24" s="3"/>
-      <c r="ABG24" s="3"/>
-      <c r="ABH24" s="3"/>
-      <c r="ABI24" s="3"/>
-      <c r="ABJ24" s="3"/>
-      <c r="ABK24" s="3"/>
-      <c r="ABL24" s="3"/>
-      <c r="ABM24" s="3"/>
-      <c r="ABN24" s="3"/>
-      <c r="ABO24" s="3"/>
-      <c r="ABP24" s="3"/>
-      <c r="ABQ24" s="3"/>
-      <c r="ABR24" s="3"/>
-      <c r="ABS24" s="3"/>
-      <c r="ABT24" s="3"/>
-      <c r="ABU24" s="3"/>
-      <c r="ABV24" s="3"/>
-      <c r="ABW24" s="3"/>
-      <c r="ABX24" s="3"/>
-      <c r="ABY24" s="3"/>
-      <c r="ABZ24" s="3"/>
-      <c r="ACA24" s="3"/>
-      <c r="ACB24" s="3"/>
-      <c r="ACC24" s="3"/>
-      <c r="ACD24" s="3"/>
-      <c r="ACE24" s="3"/>
-      <c r="ACF24" s="3"/>
-      <c r="ACG24" s="3"/>
-      <c r="ACH24" s="3"/>
-      <c r="ACI24" s="3"/>
-      <c r="ACJ24" s="3"/>
-      <c r="ACK24" s="3"/>
-      <c r="ACL24" s="3"/>
-      <c r="ACM24" s="3"/>
-      <c r="ACN24" s="3"/>
-      <c r="ACO24" s="3"/>
-      <c r="ACP24" s="3"/>
-      <c r="ACQ24" s="3"/>
-      <c r="ACR24" s="3"/>
-      <c r="ACS24" s="3"/>
-      <c r="ACT24" s="3"/>
-      <c r="ACU24" s="3"/>
-      <c r="ACV24" s="3"/>
-      <c r="ACW24" s="3"/>
-      <c r="ACX24" s="3"/>
-      <c r="ACY24" s="3"/>
-      <c r="ACZ24" s="3"/>
-      <c r="ADA24" s="3"/>
-      <c r="ADB24" s="3"/>
-      <c r="ADC24" s="3"/>
-      <c r="ADD24" s="3"/>
-      <c r="ADE24" s="3"/>
-      <c r="ADF24" s="3"/>
-      <c r="ADG24" s="3"/>
-      <c r="ADH24" s="3"/>
-      <c r="ADI24" s="3"/>
-      <c r="ADJ24" s="3"/>
-      <c r="ADK24" s="3"/>
-      <c r="ADL24" s="3"/>
-      <c r="ADM24" s="3"/>
-      <c r="ADN24" s="3"/>
-      <c r="ADO24" s="3"/>
-      <c r="ADP24" s="3"/>
-      <c r="ADQ24" s="3"/>
-      <c r="ADR24" s="3"/>
-      <c r="ADS24" s="3"/>
-      <c r="ADT24" s="3"/>
-      <c r="ADU24" s="3"/>
-      <c r="ADV24" s="3"/>
-      <c r="ADW24" s="3"/>
-      <c r="ADX24" s="3"/>
-      <c r="ADY24" s="3"/>
-      <c r="ADZ24" s="3"/>
-      <c r="AEA24" s="3"/>
-      <c r="AEB24" s="3"/>
-      <c r="AEC24" s="3"/>
-      <c r="AED24" s="3"/>
-      <c r="AEE24" s="3"/>
-      <c r="AEF24" s="3"/>
-      <c r="AEG24" s="3"/>
-      <c r="AEH24" s="3"/>
-      <c r="AEI24" s="3"/>
-      <c r="AEJ24" s="3"/>
-      <c r="AEK24" s="3"/>
-      <c r="AEL24" s="3"/>
-      <c r="AEM24" s="3"/>
-      <c r="AEN24" s="3"/>
-      <c r="AEO24" s="3"/>
-      <c r="AEP24" s="3"/>
-      <c r="AEQ24" s="3"/>
-      <c r="AER24" s="3"/>
-      <c r="AES24" s="3"/>
-      <c r="AET24" s="3"/>
-      <c r="AEU24" s="3"/>
-      <c r="AEV24" s="3"/>
-      <c r="AEW24" s="3"/>
-      <c r="AEX24" s="3"/>
-      <c r="AEY24" s="3"/>
-      <c r="AEZ24" s="3"/>
-      <c r="AFA24" s="3"/>
-      <c r="AFB24" s="3"/>
-      <c r="AFC24" s="3"/>
-      <c r="AFD24" s="3"/>
-      <c r="AFE24" s="3"/>
-      <c r="AFF24" s="3"/>
-      <c r="AFG24" s="3"/>
-      <c r="AFH24" s="3"/>
-      <c r="AFI24" s="3"/>
-      <c r="AFJ24" s="3"/>
-      <c r="AFK24" s="3"/>
-      <c r="AFL24" s="3"/>
-      <c r="AFM24" s="3"/>
-      <c r="AFN24" s="3"/>
-      <c r="AFO24" s="3"/>
-      <c r="AFP24" s="3"/>
-      <c r="AFQ24" s="3"/>
-      <c r="AFR24" s="3"/>
-      <c r="AFS24" s="3"/>
-      <c r="AFT24" s="3"/>
-      <c r="AFU24" s="3"/>
-      <c r="AFV24" s="3"/>
-      <c r="AFW24" s="3"/>
-      <c r="AFX24" s="3"/>
-      <c r="AFY24" s="3"/>
-      <c r="AFZ24" s="3"/>
-      <c r="AGA24" s="3"/>
-      <c r="AGB24" s="3"/>
-      <c r="AGC24" s="3"/>
-      <c r="AGD24" s="3"/>
-      <c r="AGE24" s="3"/>
-      <c r="AGF24" s="3"/>
-      <c r="AGG24" s="3"/>
-      <c r="AGH24" s="3"/>
-      <c r="AGI24" s="3"/>
-      <c r="AGJ24" s="3"/>
-      <c r="AGK24" s="3"/>
-      <c r="AGL24" s="3"/>
-      <c r="AGM24" s="3"/>
-      <c r="AGN24" s="3"/>
-      <c r="AGO24" s="3"/>
-      <c r="AGP24" s="3"/>
-      <c r="AGQ24" s="3"/>
-      <c r="AGR24" s="3"/>
-      <c r="AGS24" s="3"/>
-      <c r="AGT24" s="3"/>
-      <c r="AGU24" s="3"/>
-      <c r="AGV24" s="3"/>
-      <c r="AGW24" s="3"/>
-      <c r="AGX24" s="3"/>
-      <c r="AGY24" s="3"/>
-      <c r="AGZ24" s="3"/>
-      <c r="AHA24" s="3"/>
-      <c r="AHB24" s="3"/>
-      <c r="AHC24" s="3"/>
-      <c r="AHD24" s="3"/>
-      <c r="AHE24" s="3"/>
-      <c r="AHF24" s="3"/>
-      <c r="AHG24" s="3"/>
-      <c r="AHH24" s="3"/>
-      <c r="AHI24" s="3"/>
-      <c r="AHJ24" s="3"/>
-      <c r="AHK24" s="3"/>
-      <c r="AHL24" s="3"/>
-      <c r="AHM24" s="3"/>
-      <c r="AHN24" s="3"/>
-      <c r="AHO24" s="3"/>
-      <c r="AHP24" s="3"/>
-      <c r="AHQ24" s="3"/>
-      <c r="AHR24" s="3"/>
-      <c r="AHS24" s="3"/>
-      <c r="AHT24" s="3"/>
-      <c r="AHU24" s="3"/>
-      <c r="AHV24" s="3"/>
-      <c r="AHW24" s="3"/>
-      <c r="AHX24" s="3"/>
-      <c r="AHY24" s="3"/>
-      <c r="AHZ24" s="3"/>
-      <c r="AIA24" s="3"/>
-      <c r="AIB24" s="3"/>
-      <c r="AIC24" s="3"/>
-      <c r="AID24" s="3"/>
-      <c r="AIE24" s="3"/>
-      <c r="AIF24" s="3"/>
-      <c r="AIG24" s="3"/>
-      <c r="AIH24" s="3"/>
-      <c r="AII24" s="3"/>
-      <c r="AIJ24" s="3"/>
-      <c r="AIK24" s="3"/>
-      <c r="AIL24" s="3"/>
-      <c r="AIM24" s="3"/>
-      <c r="AIN24" s="3"/>
-      <c r="AIO24" s="3"/>
-      <c r="AIP24" s="3"/>
-      <c r="AIQ24" s="3"/>
-      <c r="AIR24" s="3"/>
-      <c r="AIS24" s="3"/>
-      <c r="AIT24" s="3"/>
-      <c r="AIU24" s="3"/>
-      <c r="AIV24" s="3"/>
-      <c r="AIW24" s="3"/>
-      <c r="AIX24" s="3"/>
-      <c r="AIY24" s="3"/>
-      <c r="AIZ24" s="3"/>
-      <c r="AJA24" s="3"/>
-      <c r="AJB24" s="3"/>
-      <c r="AJC24" s="3"/>
-      <c r="AJD24" s="3"/>
-      <c r="AJE24" s="3"/>
-      <c r="AJF24" s="3"/>
-      <c r="AJG24" s="3"/>
-      <c r="AJH24" s="3"/>
-      <c r="AJI24" s="3"/>
-      <c r="AJJ24" s="3"/>
-      <c r="AJK24" s="3"/>
-      <c r="AJL24" s="3"/>
-      <c r="AJM24" s="3"/>
-      <c r="AJN24" s="3"/>
-      <c r="AJO24" s="3"/>
-      <c r="AJP24" s="3"/>
-      <c r="AJQ24" s="3"/>
-      <c r="AJR24" s="3"/>
-      <c r="AJS24" s="3"/>
-      <c r="AJT24" s="3"/>
-      <c r="AJU24" s="3"/>
-      <c r="AJV24" s="3"/>
-      <c r="AJW24" s="3"/>
-      <c r="AJX24" s="3"/>
-      <c r="AJY24" s="3"/>
-      <c r="AJZ24" s="3"/>
-      <c r="AKA24" s="3"/>
-      <c r="AKB24" s="3"/>
-      <c r="AKC24" s="3"/>
-      <c r="AKD24" s="3"/>
-      <c r="AKE24" s="3"/>
-      <c r="AKF24" s="3"/>
-      <c r="AKG24" s="3"/>
-      <c r="AKH24" s="3"/>
-      <c r="AKI24" s="3"/>
-      <c r="AKJ24" s="3"/>
-      <c r="AKK24" s="3"/>
-      <c r="AKL24" s="3"/>
-      <c r="AKM24" s="3"/>
-      <c r="AKN24" s="3"/>
-      <c r="AKO24" s="3"/>
-      <c r="AKP24" s="3"/>
-      <c r="AKQ24" s="3"/>
-      <c r="AKR24" s="3"/>
-      <c r="AKS24" s="3"/>
-      <c r="AKT24" s="3"/>
-      <c r="AKU24" s="3"/>
-      <c r="AKV24" s="3"/>
-      <c r="AKW24" s="3"/>
-      <c r="AKX24" s="3"/>
-      <c r="AKY24" s="3"/>
-      <c r="AKZ24" s="3"/>
-      <c r="ALA24" s="3"/>
-      <c r="ALB24" s="3"/>
-      <c r="ALC24" s="3"/>
-      <c r="ALD24" s="3"/>
-      <c r="ALE24" s="3"/>
-      <c r="ALF24" s="3"/>
-      <c r="ALG24" s="3"/>
-      <c r="ALH24" s="3"/>
-      <c r="ALI24" s="3"/>
-      <c r="ALJ24" s="3"/>
-      <c r="ALK24" s="3"/>
-      <c r="ALL24" s="3"/>
-      <c r="ALM24" s="3"/>
-      <c r="ALN24" s="3"/>
-      <c r="ALO24" s="3"/>
-      <c r="ALP24" s="3"/>
-      <c r="ALQ24" s="3"/>
-      <c r="ALR24" s="3"/>
-      <c r="ALS24" s="3"/>
-      <c r="ALT24" s="3"/>
-      <c r="ALU24" s="3"/>
-      <c r="ALV24" s="3"/>
-      <c r="ALW24" s="3"/>
-      <c r="ALX24" s="3"/>
-      <c r="ALY24" s="3"/>
-      <c r="ALZ24" s="3"/>
-      <c r="AMA24" s="3"/>
-      <c r="AMB24" s="3"/>
-      <c r="AMC24" s="3"/>
-      <c r="AMD24" s="3"/>
       <c r="AME24" s="8"/>
       <c r="AMF24" s="8"/>
       <c r="AMG24" s="8"/>
@@ -7618,2116 +7546,3123 @@
       <c r="AMI24" s="8"/>
       <c r="AMJ24" s="8"/>
     </row>
-    <row r="25" s="3" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="s">
+    <row r="25" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
-      <c r="S25" s="8"/>
-      <c r="T25" s="8"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="8"/>
-      <c r="AME25" s="8"/>
-      <c r="AMF25" s="8"/>
-      <c r="AMG25" s="8"/>
-      <c r="AMH25" s="8"/>
-      <c r="AMI25" s="8"/>
-      <c r="AMJ25" s="8"/>
+      <c r="C25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="3"/>
+      <c r="AB25" s="3"/>
+      <c r="AC25" s="3"/>
+      <c r="AD25" s="3"/>
+      <c r="AE25" s="3"/>
+      <c r="AF25" s="3"/>
+      <c r="AG25" s="3"/>
+      <c r="AH25" s="3"/>
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+      <c r="AK25" s="3"/>
+      <c r="AL25" s="3"/>
+      <c r="AM25" s="3"/>
+      <c r="AN25" s="3"/>
+      <c r="AO25" s="3"/>
+      <c r="AP25" s="3"/>
+      <c r="AQ25" s="3"/>
+      <c r="AR25" s="3"/>
+      <c r="AS25" s="3"/>
+      <c r="AT25" s="3"/>
+      <c r="AU25" s="3"/>
+      <c r="AV25" s="3"/>
+      <c r="AW25" s="3"/>
+      <c r="AX25" s="3"/>
+      <c r="AY25" s="3"/>
+      <c r="AZ25" s="3"/>
+      <c r="BA25" s="3"/>
+      <c r="BB25" s="3"/>
+      <c r="BC25" s="3"/>
+      <c r="BD25" s="3"/>
+      <c r="BE25" s="3"/>
+      <c r="BF25" s="3"/>
+      <c r="BG25" s="3"/>
+      <c r="BH25" s="3"/>
+      <c r="BI25" s="3"/>
+      <c r="BJ25" s="3"/>
+      <c r="BK25" s="3"/>
+      <c r="BL25" s="3"/>
+      <c r="BM25" s="3"/>
+      <c r="BN25" s="3"/>
+      <c r="BO25" s="3"/>
+      <c r="BP25" s="3"/>
+      <c r="BQ25" s="3"/>
+      <c r="BR25" s="3"/>
+      <c r="BS25" s="3"/>
+      <c r="BT25" s="3"/>
+      <c r="BU25" s="3"/>
+      <c r="BV25" s="3"/>
+      <c r="BW25" s="3"/>
+      <c r="BX25" s="3"/>
+      <c r="BY25" s="3"/>
+      <c r="BZ25" s="3"/>
+      <c r="CA25" s="3"/>
+      <c r="CB25" s="3"/>
+      <c r="CC25" s="3"/>
+      <c r="CD25" s="3"/>
+      <c r="CE25" s="3"/>
+      <c r="CF25" s="3"/>
+      <c r="CG25" s="3"/>
+      <c r="CH25" s="3"/>
+      <c r="CI25" s="3"/>
+      <c r="CJ25" s="3"/>
+      <c r="CK25" s="3"/>
+      <c r="CL25" s="3"/>
+      <c r="CM25" s="3"/>
+      <c r="CN25" s="3"/>
+      <c r="CO25" s="3"/>
+      <c r="CP25" s="3"/>
+      <c r="CQ25" s="3"/>
+      <c r="CR25" s="3"/>
+      <c r="CS25" s="3"/>
+      <c r="CT25" s="3"/>
+      <c r="CU25" s="3"/>
+      <c r="CV25" s="3"/>
+      <c r="CW25" s="3"/>
+      <c r="CX25" s="3"/>
+      <c r="CY25" s="3"/>
+      <c r="CZ25" s="3"/>
+      <c r="DA25" s="3"/>
+      <c r="DB25" s="3"/>
+      <c r="DC25" s="3"/>
+      <c r="DD25" s="3"/>
+      <c r="DE25" s="3"/>
+      <c r="DF25" s="3"/>
+      <c r="DG25" s="3"/>
+      <c r="DH25" s="3"/>
+      <c r="DI25" s="3"/>
+      <c r="DJ25" s="3"/>
+      <c r="DK25" s="3"/>
+      <c r="DL25" s="3"/>
+      <c r="DM25" s="3"/>
+      <c r="DN25" s="3"/>
+      <c r="DO25" s="3"/>
+      <c r="DP25" s="3"/>
+      <c r="DQ25" s="3"/>
+      <c r="DR25" s="3"/>
+      <c r="DS25" s="3"/>
+      <c r="DT25" s="3"/>
+      <c r="DU25" s="3"/>
+      <c r="DV25" s="3"/>
+      <c r="DW25" s="3"/>
+      <c r="DX25" s="3"/>
+      <c r="DY25" s="3"/>
+      <c r="DZ25" s="3"/>
+      <c r="EA25" s="3"/>
+      <c r="EB25" s="3"/>
+      <c r="EC25" s="3"/>
+      <c r="ED25" s="3"/>
+      <c r="EE25" s="3"/>
+      <c r="EF25" s="3"/>
+      <c r="EG25" s="3"/>
+      <c r="EH25" s="3"/>
+      <c r="EI25" s="3"/>
+      <c r="EJ25" s="3"/>
+      <c r="EK25" s="3"/>
+      <c r="EL25" s="3"/>
+      <c r="EM25" s="3"/>
+      <c r="EN25" s="3"/>
+      <c r="EO25" s="3"/>
+      <c r="EP25" s="3"/>
+      <c r="EQ25" s="3"/>
+      <c r="ER25" s="3"/>
+      <c r="ES25" s="3"/>
+      <c r="ET25" s="3"/>
+      <c r="EU25" s="3"/>
+      <c r="EV25" s="3"/>
+      <c r="EW25" s="3"/>
+      <c r="EX25" s="3"/>
+      <c r="EY25" s="3"/>
+      <c r="EZ25" s="3"/>
+      <c r="FA25" s="3"/>
+      <c r="FB25" s="3"/>
+      <c r="FC25" s="3"/>
+      <c r="FD25" s="3"/>
+      <c r="FE25" s="3"/>
+      <c r="FF25" s="3"/>
+      <c r="FG25" s="3"/>
+      <c r="FH25" s="3"/>
+      <c r="FI25" s="3"/>
+      <c r="FJ25" s="3"/>
+      <c r="FK25" s="3"/>
+      <c r="FL25" s="3"/>
+      <c r="FM25" s="3"/>
+      <c r="FN25" s="3"/>
+      <c r="FO25" s="3"/>
+      <c r="FP25" s="3"/>
+      <c r="FQ25" s="3"/>
+      <c r="FR25" s="3"/>
+      <c r="FS25" s="3"/>
+      <c r="FT25" s="3"/>
+      <c r="FU25" s="3"/>
+      <c r="FV25" s="3"/>
+      <c r="FW25" s="3"/>
+      <c r="FX25" s="3"/>
+      <c r="FY25" s="3"/>
+      <c r="FZ25" s="3"/>
+      <c r="GA25" s="3"/>
+      <c r="GB25" s="3"/>
+      <c r="GC25" s="3"/>
+      <c r="GD25" s="3"/>
+      <c r="GE25" s="3"/>
+      <c r="GF25" s="3"/>
+      <c r="GG25" s="3"/>
+      <c r="GH25" s="3"/>
+      <c r="GI25" s="3"/>
+      <c r="GJ25" s="3"/>
+      <c r="GK25" s="3"/>
+      <c r="GL25" s="3"/>
+      <c r="GM25" s="3"/>
+      <c r="GN25" s="3"/>
+      <c r="GO25" s="3"/>
+      <c r="GP25" s="3"/>
+      <c r="GQ25" s="3"/>
+      <c r="GR25" s="3"/>
+      <c r="GS25" s="3"/>
+      <c r="GT25" s="3"/>
+      <c r="GU25" s="3"/>
+      <c r="GV25" s="3"/>
+      <c r="GW25" s="3"/>
+      <c r="GX25" s="3"/>
+      <c r="GY25" s="3"/>
+      <c r="GZ25" s="3"/>
+      <c r="HA25" s="3"/>
+      <c r="HB25" s="3"/>
+      <c r="HC25" s="3"/>
+      <c r="HD25" s="3"/>
+      <c r="HE25" s="3"/>
+      <c r="HF25" s="3"/>
+      <c r="HG25" s="3"/>
+      <c r="HH25" s="3"/>
+      <c r="HI25" s="3"/>
+      <c r="HJ25" s="3"/>
+      <c r="HK25" s="3"/>
+      <c r="HL25" s="3"/>
+      <c r="HM25" s="3"/>
+      <c r="HN25" s="3"/>
+      <c r="HO25" s="3"/>
+      <c r="HP25" s="3"/>
+      <c r="HQ25" s="3"/>
+      <c r="HR25" s="3"/>
+      <c r="HS25" s="3"/>
+      <c r="HT25" s="3"/>
+      <c r="HU25" s="3"/>
+      <c r="HV25" s="3"/>
+      <c r="HW25" s="3"/>
+      <c r="HX25" s="3"/>
+      <c r="HY25" s="3"/>
+      <c r="HZ25" s="3"/>
+      <c r="IA25" s="3"/>
+      <c r="IB25" s="3"/>
+      <c r="IC25" s="3"/>
+      <c r="ID25" s="3"/>
+      <c r="IE25" s="3"/>
+      <c r="IF25" s="3"/>
+      <c r="IG25" s="3"/>
+      <c r="IH25" s="3"/>
+      <c r="II25" s="3"/>
+      <c r="IJ25" s="3"/>
+      <c r="IK25" s="3"/>
+      <c r="IL25" s="3"/>
+      <c r="IM25" s="3"/>
+      <c r="IN25" s="3"/>
+      <c r="IO25" s="3"/>
+      <c r="IP25" s="3"/>
+      <c r="IQ25" s="3"/>
+      <c r="IR25" s="3"/>
+      <c r="IS25" s="3"/>
+      <c r="IT25" s="3"/>
+      <c r="IU25" s="3"/>
+      <c r="IV25" s="3"/>
+      <c r="IW25" s="3"/>
+      <c r="IX25" s="3"/>
+      <c r="IY25" s="3"/>
+      <c r="IZ25" s="3"/>
+      <c r="JA25" s="3"/>
+      <c r="JB25" s="3"/>
+      <c r="JC25" s="3"/>
+      <c r="JD25" s="3"/>
+      <c r="JE25" s="3"/>
+      <c r="JF25" s="3"/>
+      <c r="JG25" s="3"/>
+      <c r="JH25" s="3"/>
+      <c r="JI25" s="3"/>
+      <c r="JJ25" s="3"/>
+      <c r="JK25" s="3"/>
+      <c r="JL25" s="3"/>
+      <c r="JM25" s="3"/>
+      <c r="JN25" s="3"/>
+      <c r="JO25" s="3"/>
+      <c r="JP25" s="3"/>
+      <c r="JQ25" s="3"/>
+      <c r="JR25" s="3"/>
+      <c r="JS25" s="3"/>
+      <c r="JT25" s="3"/>
+      <c r="JU25" s="3"/>
+      <c r="JV25" s="3"/>
+      <c r="JW25" s="3"/>
+      <c r="JX25" s="3"/>
+      <c r="JY25" s="3"/>
+      <c r="JZ25" s="3"/>
+      <c r="KA25" s="3"/>
+      <c r="KB25" s="3"/>
+      <c r="KC25" s="3"/>
+      <c r="KD25" s="3"/>
+      <c r="KE25" s="3"/>
+      <c r="KF25" s="3"/>
+      <c r="KG25" s="3"/>
+      <c r="KH25" s="3"/>
+      <c r="KI25" s="3"/>
+      <c r="KJ25" s="3"/>
+      <c r="KK25" s="3"/>
+      <c r="KL25" s="3"/>
+      <c r="KM25" s="3"/>
+      <c r="KN25" s="3"/>
+      <c r="KO25" s="3"/>
+      <c r="KP25" s="3"/>
+      <c r="KQ25" s="3"/>
+      <c r="KR25" s="3"/>
+      <c r="KS25" s="3"/>
+      <c r="KT25" s="3"/>
+      <c r="KU25" s="3"/>
+      <c r="KV25" s="3"/>
+      <c r="KW25" s="3"/>
+      <c r="KX25" s="3"/>
+      <c r="KY25" s="3"/>
+      <c r="KZ25" s="3"/>
+      <c r="LA25" s="3"/>
+      <c r="LB25" s="3"/>
+      <c r="LC25" s="3"/>
+      <c r="LD25" s="3"/>
+      <c r="LE25" s="3"/>
+      <c r="LF25" s="3"/>
+      <c r="LG25" s="3"/>
+      <c r="LH25" s="3"/>
+      <c r="LI25" s="3"/>
+      <c r="LJ25" s="3"/>
+      <c r="LK25" s="3"/>
+      <c r="LL25" s="3"/>
+      <c r="LM25" s="3"/>
+      <c r="LN25" s="3"/>
+      <c r="LO25" s="3"/>
+      <c r="LP25" s="3"/>
+      <c r="LQ25" s="3"/>
+      <c r="LR25" s="3"/>
+      <c r="LS25" s="3"/>
+      <c r="LT25" s="3"/>
+      <c r="LU25" s="3"/>
+      <c r="LV25" s="3"/>
+      <c r="LW25" s="3"/>
+      <c r="LX25" s="3"/>
+      <c r="LY25" s="3"/>
+      <c r="LZ25" s="3"/>
+      <c r="MA25" s="3"/>
+      <c r="MB25" s="3"/>
+      <c r="MC25" s="3"/>
+      <c r="MD25" s="3"/>
+      <c r="ME25" s="3"/>
+      <c r="MF25" s="3"/>
+      <c r="MG25" s="3"/>
+      <c r="MH25" s="3"/>
+      <c r="MI25" s="3"/>
+      <c r="MJ25" s="3"/>
+      <c r="MK25" s="3"/>
+      <c r="ML25" s="3"/>
+      <c r="MM25" s="3"/>
+      <c r="MN25" s="3"/>
+      <c r="MO25" s="3"/>
+      <c r="MP25" s="3"/>
+      <c r="MQ25" s="3"/>
+      <c r="MR25" s="3"/>
+      <c r="MS25" s="3"/>
+      <c r="MT25" s="3"/>
+      <c r="MU25" s="3"/>
+      <c r="MV25" s="3"/>
+      <c r="MW25" s="3"/>
+      <c r="MX25" s="3"/>
+      <c r="MY25" s="3"/>
+      <c r="MZ25" s="3"/>
+      <c r="NA25" s="3"/>
+      <c r="NB25" s="3"/>
+      <c r="NC25" s="3"/>
+      <c r="ND25" s="3"/>
+      <c r="NE25" s="3"/>
+      <c r="NF25" s="3"/>
+      <c r="NG25" s="3"/>
+      <c r="NH25" s="3"/>
+      <c r="NI25" s="3"/>
+      <c r="NJ25" s="3"/>
+      <c r="NK25" s="3"/>
+      <c r="NL25" s="3"/>
+      <c r="NM25" s="3"/>
+      <c r="NN25" s="3"/>
+      <c r="NO25" s="3"/>
+      <c r="NP25" s="3"/>
+      <c r="NQ25" s="3"/>
+      <c r="NR25" s="3"/>
+      <c r="NS25" s="3"/>
+      <c r="NT25" s="3"/>
+      <c r="NU25" s="3"/>
+      <c r="NV25" s="3"/>
+      <c r="NW25" s="3"/>
+      <c r="NX25" s="3"/>
+      <c r="NY25" s="3"/>
+      <c r="NZ25" s="3"/>
+      <c r="OA25" s="3"/>
+      <c r="OB25" s="3"/>
+      <c r="OC25" s="3"/>
+      <c r="OD25" s="3"/>
+      <c r="OE25" s="3"/>
+      <c r="OF25" s="3"/>
+      <c r="OG25" s="3"/>
+      <c r="OH25" s="3"/>
+      <c r="OI25" s="3"/>
+      <c r="OJ25" s="3"/>
+      <c r="OK25" s="3"/>
+      <c r="OL25" s="3"/>
+      <c r="OM25" s="3"/>
+      <c r="ON25" s="3"/>
+      <c r="OO25" s="3"/>
+      <c r="OP25" s="3"/>
+      <c r="OQ25" s="3"/>
+      <c r="OR25" s="3"/>
+      <c r="OS25" s="3"/>
+      <c r="OT25" s="3"/>
+      <c r="OU25" s="3"/>
+      <c r="OV25" s="3"/>
+      <c r="OW25" s="3"/>
+      <c r="OX25" s="3"/>
+      <c r="OY25" s="3"/>
+      <c r="OZ25" s="3"/>
+      <c r="PA25" s="3"/>
+      <c r="PB25" s="3"/>
+      <c r="PC25" s="3"/>
+      <c r="PD25" s="3"/>
+      <c r="PE25" s="3"/>
+      <c r="PF25" s="3"/>
+      <c r="PG25" s="3"/>
+      <c r="PH25" s="3"/>
+      <c r="PI25" s="3"/>
+      <c r="PJ25" s="3"/>
+      <c r="PK25" s="3"/>
+      <c r="PL25" s="3"/>
+      <c r="PM25" s="3"/>
+      <c r="PN25" s="3"/>
+      <c r="PO25" s="3"/>
+      <c r="PP25" s="3"/>
+      <c r="PQ25" s="3"/>
+      <c r="PR25" s="3"/>
+      <c r="PS25" s="3"/>
+      <c r="PT25" s="3"/>
+      <c r="PU25" s="3"/>
+      <c r="PV25" s="3"/>
+      <c r="PW25" s="3"/>
+      <c r="PX25" s="3"/>
+      <c r="PY25" s="3"/>
+      <c r="PZ25" s="3"/>
+      <c r="QA25" s="3"/>
+      <c r="QB25" s="3"/>
+      <c r="QC25" s="3"/>
+      <c r="QD25" s="3"/>
+      <c r="QE25" s="3"/>
+      <c r="QF25" s="3"/>
+      <c r="QG25" s="3"/>
+      <c r="QH25" s="3"/>
+      <c r="QI25" s="3"/>
+      <c r="QJ25" s="3"/>
+      <c r="QK25" s="3"/>
+      <c r="QL25" s="3"/>
+      <c r="QM25" s="3"/>
+      <c r="QN25" s="3"/>
+      <c r="QO25" s="3"/>
+      <c r="QP25" s="3"/>
+      <c r="QQ25" s="3"/>
+      <c r="QR25" s="3"/>
+      <c r="QS25" s="3"/>
+      <c r="QT25" s="3"/>
+      <c r="QU25" s="3"/>
+      <c r="QV25" s="3"/>
+      <c r="QW25" s="3"/>
+      <c r="QX25" s="3"/>
+      <c r="QY25" s="3"/>
+      <c r="QZ25" s="3"/>
+      <c r="RA25" s="3"/>
+      <c r="RB25" s="3"/>
+      <c r="RC25" s="3"/>
+      <c r="RD25" s="3"/>
+      <c r="RE25" s="3"/>
+      <c r="RF25" s="3"/>
+      <c r="RG25" s="3"/>
+      <c r="RH25" s="3"/>
+      <c r="RI25" s="3"/>
+      <c r="RJ25" s="3"/>
+      <c r="RK25" s="3"/>
+      <c r="RL25" s="3"/>
+      <c r="RM25" s="3"/>
+      <c r="RN25" s="3"/>
+      <c r="RO25" s="3"/>
+      <c r="RP25" s="3"/>
+      <c r="RQ25" s="3"/>
+      <c r="RR25" s="3"/>
+      <c r="RS25" s="3"/>
+      <c r="RT25" s="3"/>
+      <c r="RU25" s="3"/>
+      <c r="RV25" s="3"/>
+      <c r="RW25" s="3"/>
+      <c r="RX25" s="3"/>
+      <c r="RY25" s="3"/>
+      <c r="RZ25" s="3"/>
+      <c r="SA25" s="3"/>
+      <c r="SB25" s="3"/>
+      <c r="SC25" s="3"/>
+      <c r="SD25" s="3"/>
+      <c r="SE25" s="3"/>
+      <c r="SF25" s="3"/>
+      <c r="SG25" s="3"/>
+      <c r="SH25" s="3"/>
+      <c r="SI25" s="3"/>
+      <c r="SJ25" s="3"/>
+      <c r="SK25" s="3"/>
+      <c r="SL25" s="3"/>
+      <c r="SM25" s="3"/>
+      <c r="SN25" s="3"/>
+      <c r="SO25" s="3"/>
+      <c r="SP25" s="3"/>
+      <c r="SQ25" s="3"/>
+      <c r="SR25" s="3"/>
+      <c r="SS25" s="3"/>
+      <c r="ST25" s="3"/>
+      <c r="SU25" s="3"/>
+      <c r="SV25" s="3"/>
+      <c r="SW25" s="3"/>
+      <c r="SX25" s="3"/>
+      <c r="SY25" s="3"/>
+      <c r="SZ25" s="3"/>
+      <c r="TA25" s="3"/>
+      <c r="TB25" s="3"/>
+      <c r="TC25" s="3"/>
+      <c r="TD25" s="3"/>
+      <c r="TE25" s="3"/>
+      <c r="TF25" s="3"/>
+      <c r="TG25" s="3"/>
+      <c r="TH25" s="3"/>
+      <c r="TI25" s="3"/>
+      <c r="TJ25" s="3"/>
+      <c r="TK25" s="3"/>
+      <c r="TL25" s="3"/>
+      <c r="TM25" s="3"/>
+      <c r="TN25" s="3"/>
+      <c r="TO25" s="3"/>
+      <c r="TP25" s="3"/>
+      <c r="TQ25" s="3"/>
+      <c r="TR25" s="3"/>
+      <c r="TS25" s="3"/>
+      <c r="TT25" s="3"/>
+      <c r="TU25" s="3"/>
+      <c r="TV25" s="3"/>
+      <c r="TW25" s="3"/>
+      <c r="TX25" s="3"/>
+      <c r="TY25" s="3"/>
+      <c r="TZ25" s="3"/>
+      <c r="UA25" s="3"/>
+      <c r="UB25" s="3"/>
+      <c r="UC25" s="3"/>
+      <c r="UD25" s="3"/>
+      <c r="UE25" s="3"/>
+      <c r="UF25" s="3"/>
+      <c r="UG25" s="3"/>
+      <c r="UH25" s="3"/>
+      <c r="UI25" s="3"/>
+      <c r="UJ25" s="3"/>
+      <c r="UK25" s="3"/>
+      <c r="UL25" s="3"/>
+      <c r="UM25" s="3"/>
+      <c r="UN25" s="3"/>
+      <c r="UO25" s="3"/>
+      <c r="UP25" s="3"/>
+      <c r="UQ25" s="3"/>
+      <c r="UR25" s="3"/>
+      <c r="US25" s="3"/>
+      <c r="UT25" s="3"/>
+      <c r="UU25" s="3"/>
+      <c r="UV25" s="3"/>
+      <c r="UW25" s="3"/>
+      <c r="UX25" s="3"/>
+      <c r="UY25" s="3"/>
+      <c r="UZ25" s="3"/>
+      <c r="VA25" s="3"/>
+      <c r="VB25" s="3"/>
+      <c r="VC25" s="3"/>
+      <c r="VD25" s="3"/>
+      <c r="VE25" s="3"/>
+      <c r="VF25" s="3"/>
+      <c r="VG25" s="3"/>
+      <c r="VH25" s="3"/>
+      <c r="VI25" s="3"/>
+      <c r="VJ25" s="3"/>
+      <c r="VK25" s="3"/>
+      <c r="VL25" s="3"/>
+      <c r="VM25" s="3"/>
+      <c r="VN25" s="3"/>
+      <c r="VO25" s="3"/>
+      <c r="VP25" s="3"/>
+      <c r="VQ25" s="3"/>
+      <c r="VR25" s="3"/>
+      <c r="VS25" s="3"/>
+      <c r="VT25" s="3"/>
+      <c r="VU25" s="3"/>
+      <c r="VV25" s="3"/>
+      <c r="VW25" s="3"/>
+      <c r="VX25" s="3"/>
+      <c r="VY25" s="3"/>
+      <c r="VZ25" s="3"/>
+      <c r="WA25" s="3"/>
+      <c r="WB25" s="3"/>
+      <c r="WC25" s="3"/>
+      <c r="WD25" s="3"/>
+      <c r="WE25" s="3"/>
+      <c r="WF25" s="3"/>
+      <c r="WG25" s="3"/>
+      <c r="WH25" s="3"/>
+      <c r="WI25" s="3"/>
+      <c r="WJ25" s="3"/>
+      <c r="WK25" s="3"/>
+      <c r="WL25" s="3"/>
+      <c r="WM25" s="3"/>
+      <c r="WN25" s="3"/>
+      <c r="WO25" s="3"/>
+      <c r="WP25" s="3"/>
+      <c r="WQ25" s="3"/>
+      <c r="WR25" s="3"/>
+      <c r="WS25" s="3"/>
+      <c r="WT25" s="3"/>
+      <c r="WU25" s="3"/>
+      <c r="WV25" s="3"/>
+      <c r="WW25" s="3"/>
+      <c r="WX25" s="3"/>
+      <c r="WY25" s="3"/>
+      <c r="WZ25" s="3"/>
+      <c r="XA25" s="3"/>
+      <c r="XB25" s="3"/>
+      <c r="XC25" s="3"/>
+      <c r="XD25" s="3"/>
+      <c r="XE25" s="3"/>
+      <c r="XF25" s="3"/>
+      <c r="XG25" s="3"/>
+      <c r="XH25" s="3"/>
+      <c r="XI25" s="3"/>
+      <c r="XJ25" s="3"/>
+      <c r="XK25" s="3"/>
+      <c r="XL25" s="3"/>
+      <c r="XM25" s="3"/>
+      <c r="XN25" s="3"/>
+      <c r="XO25" s="3"/>
+      <c r="XP25" s="3"/>
+      <c r="XQ25" s="3"/>
+      <c r="XR25" s="3"/>
+      <c r="XS25" s="3"/>
+      <c r="XT25" s="3"/>
+      <c r="XU25" s="3"/>
+      <c r="XV25" s="3"/>
+      <c r="XW25" s="3"/>
+      <c r="XX25" s="3"/>
+      <c r="XY25" s="3"/>
+      <c r="XZ25" s="3"/>
+      <c r="YA25" s="3"/>
+      <c r="YB25" s="3"/>
+      <c r="YC25" s="3"/>
+      <c r="YD25" s="3"/>
+      <c r="YE25" s="3"/>
+      <c r="YF25" s="3"/>
+      <c r="YG25" s="3"/>
+      <c r="YH25" s="3"/>
+      <c r="YI25" s="3"/>
+      <c r="YJ25" s="3"/>
+      <c r="YK25" s="3"/>
+      <c r="YL25" s="3"/>
+      <c r="YM25" s="3"/>
+      <c r="YN25" s="3"/>
+      <c r="YO25" s="3"/>
+      <c r="YP25" s="3"/>
+      <c r="YQ25" s="3"/>
+      <c r="YR25" s="3"/>
+      <c r="YS25" s="3"/>
+      <c r="YT25" s="3"/>
+      <c r="YU25" s="3"/>
+      <c r="YV25" s="3"/>
+      <c r="YW25" s="3"/>
+      <c r="YX25" s="3"/>
+      <c r="YY25" s="3"/>
+      <c r="YZ25" s="3"/>
+      <c r="ZA25" s="3"/>
+      <c r="ZB25" s="3"/>
+      <c r="ZC25" s="3"/>
+      <c r="ZD25" s="3"/>
+      <c r="ZE25" s="3"/>
+      <c r="ZF25" s="3"/>
+      <c r="ZG25" s="3"/>
+      <c r="ZH25" s="3"/>
+      <c r="ZI25" s="3"/>
+      <c r="ZJ25" s="3"/>
+      <c r="ZK25" s="3"/>
+      <c r="ZL25" s="3"/>
+      <c r="ZM25" s="3"/>
+      <c r="ZN25" s="3"/>
+      <c r="ZO25" s="3"/>
+      <c r="ZP25" s="3"/>
+      <c r="ZQ25" s="3"/>
+      <c r="ZR25" s="3"/>
+      <c r="ZS25" s="3"/>
+      <c r="ZT25" s="3"/>
+      <c r="ZU25" s="3"/>
+      <c r="ZV25" s="3"/>
+      <c r="ZW25" s="3"/>
+      <c r="ZX25" s="3"/>
+      <c r="ZY25" s="3"/>
+      <c r="ZZ25" s="3"/>
+      <c r="AAA25" s="3"/>
+      <c r="AAB25" s="3"/>
+      <c r="AAC25" s="3"/>
+      <c r="AAD25" s="3"/>
+      <c r="AAE25" s="3"/>
+      <c r="AAF25" s="3"/>
+      <c r="AAG25" s="3"/>
+      <c r="AAH25" s="3"/>
+      <c r="AAI25" s="3"/>
+      <c r="AAJ25" s="3"/>
+      <c r="AAK25" s="3"/>
+      <c r="AAL25" s="3"/>
+      <c r="AAM25" s="3"/>
+      <c r="AAN25" s="3"/>
+      <c r="AAO25" s="3"/>
+      <c r="AAP25" s="3"/>
+      <c r="AAQ25" s="3"/>
+      <c r="AAR25" s="3"/>
+      <c r="AAS25" s="3"/>
+      <c r="AAT25" s="3"/>
+      <c r="AAU25" s="3"/>
+      <c r="AAV25" s="3"/>
+      <c r="AAW25" s="3"/>
+      <c r="AAX25" s="3"/>
+      <c r="AAY25" s="3"/>
+      <c r="AAZ25" s="3"/>
+      <c r="ABA25" s="3"/>
+      <c r="ABB25" s="3"/>
+      <c r="ABC25" s="3"/>
+      <c r="ABD25" s="3"/>
+      <c r="ABE25" s="3"/>
+      <c r="ABF25" s="3"/>
+      <c r="ABG25" s="3"/>
+      <c r="ABH25" s="3"/>
+      <c r="ABI25" s="3"/>
+      <c r="ABJ25" s="3"/>
+      <c r="ABK25" s="3"/>
+      <c r="ABL25" s="3"/>
+      <c r="ABM25" s="3"/>
+      <c r="ABN25" s="3"/>
+      <c r="ABO25" s="3"/>
+      <c r="ABP25" s="3"/>
+      <c r="ABQ25" s="3"/>
+      <c r="ABR25" s="3"/>
+      <c r="ABS25" s="3"/>
+      <c r="ABT25" s="3"/>
+      <c r="ABU25" s="3"/>
+      <c r="ABV25" s="3"/>
+      <c r="ABW25" s="3"/>
+      <c r="ABX25" s="3"/>
+      <c r="ABY25" s="3"/>
+      <c r="ABZ25" s="3"/>
+      <c r="ACA25" s="3"/>
+      <c r="ACB25" s="3"/>
+      <c r="ACC25" s="3"/>
+      <c r="ACD25" s="3"/>
+      <c r="ACE25" s="3"/>
+      <c r="ACF25" s="3"/>
+      <c r="ACG25" s="3"/>
+      <c r="ACH25" s="3"/>
+      <c r="ACI25" s="3"/>
+      <c r="ACJ25" s="3"/>
+      <c r="ACK25" s="3"/>
+      <c r="ACL25" s="3"/>
+      <c r="ACM25" s="3"/>
+      <c r="ACN25" s="3"/>
+      <c r="ACO25" s="3"/>
+      <c r="ACP25" s="3"/>
+      <c r="ACQ25" s="3"/>
+      <c r="ACR25" s="3"/>
+      <c r="ACS25" s="3"/>
+      <c r="ACT25" s="3"/>
+      <c r="ACU25" s="3"/>
+      <c r="ACV25" s="3"/>
+      <c r="ACW25" s="3"/>
+      <c r="ACX25" s="3"/>
+      <c r="ACY25" s="3"/>
+      <c r="ACZ25" s="3"/>
+      <c r="ADA25" s="3"/>
+      <c r="ADB25" s="3"/>
+      <c r="ADC25" s="3"/>
+      <c r="ADD25" s="3"/>
+      <c r="ADE25" s="3"/>
+      <c r="ADF25" s="3"/>
+      <c r="ADG25" s="3"/>
+      <c r="ADH25" s="3"/>
+      <c r="ADI25" s="3"/>
+      <c r="ADJ25" s="3"/>
+      <c r="ADK25" s="3"/>
+      <c r="ADL25" s="3"/>
+      <c r="ADM25" s="3"/>
+      <c r="ADN25" s="3"/>
+      <c r="ADO25" s="3"/>
+      <c r="ADP25" s="3"/>
+      <c r="ADQ25" s="3"/>
+      <c r="ADR25" s="3"/>
+      <c r="ADS25" s="3"/>
+      <c r="ADT25" s="3"/>
+      <c r="ADU25" s="3"/>
+      <c r="ADV25" s="3"/>
+      <c r="ADW25" s="3"/>
+      <c r="ADX25" s="3"/>
+      <c r="ADY25" s="3"/>
+      <c r="ADZ25" s="3"/>
+      <c r="AEA25" s="3"/>
+      <c r="AEB25" s="3"/>
+      <c r="AEC25" s="3"/>
+      <c r="AED25" s="3"/>
+      <c r="AEE25" s="3"/>
+      <c r="AEF25" s="3"/>
+      <c r="AEG25" s="3"/>
+      <c r="AEH25" s="3"/>
+      <c r="AEI25" s="3"/>
+      <c r="AEJ25" s="3"/>
+      <c r="AEK25" s="3"/>
+      <c r="AEL25" s="3"/>
+      <c r="AEM25" s="3"/>
+      <c r="AEN25" s="3"/>
+      <c r="AEO25" s="3"/>
+      <c r="AEP25" s="3"/>
+      <c r="AEQ25" s="3"/>
+      <c r="AER25" s="3"/>
+      <c r="AES25" s="3"/>
+      <c r="AET25" s="3"/>
+      <c r="AEU25" s="3"/>
+      <c r="AEV25" s="3"/>
+      <c r="AEW25" s="3"/>
+      <c r="AEX25" s="3"/>
+      <c r="AEY25" s="3"/>
+      <c r="AEZ25" s="3"/>
+      <c r="AFA25" s="3"/>
+      <c r="AFB25" s="3"/>
+      <c r="AFC25" s="3"/>
+      <c r="AFD25" s="3"/>
+      <c r="AFE25" s="3"/>
+      <c r="AFF25" s="3"/>
+      <c r="AFG25" s="3"/>
+      <c r="AFH25" s="3"/>
+      <c r="AFI25" s="3"/>
+      <c r="AFJ25" s="3"/>
+      <c r="AFK25" s="3"/>
+      <c r="AFL25" s="3"/>
+      <c r="AFM25" s="3"/>
+      <c r="AFN25" s="3"/>
+      <c r="AFO25" s="3"/>
+      <c r="AFP25" s="3"/>
+      <c r="AFQ25" s="3"/>
+      <c r="AFR25" s="3"/>
+      <c r="AFS25" s="3"/>
+      <c r="AFT25" s="3"/>
+      <c r="AFU25" s="3"/>
+      <c r="AFV25" s="3"/>
+      <c r="AFW25" s="3"/>
+      <c r="AFX25" s="3"/>
+      <c r="AFY25" s="3"/>
+      <c r="AFZ25" s="3"/>
+      <c r="AGA25" s="3"/>
+      <c r="AGB25" s="3"/>
+      <c r="AGC25" s="3"/>
+      <c r="AGD25" s="3"/>
+      <c r="AGE25" s="3"/>
+      <c r="AGF25" s="3"/>
+      <c r="AGG25" s="3"/>
+      <c r="AGH25" s="3"/>
+      <c r="AGI25" s="3"/>
+      <c r="AGJ25" s="3"/>
+      <c r="AGK25" s="3"/>
+      <c r="AGL25" s="3"/>
+      <c r="AGM25" s="3"/>
+      <c r="AGN25" s="3"/>
+      <c r="AGO25" s="3"/>
+      <c r="AGP25" s="3"/>
+      <c r="AGQ25" s="3"/>
+      <c r="AGR25" s="3"/>
+      <c r="AGS25" s="3"/>
+      <c r="AGT25" s="3"/>
+      <c r="AGU25" s="3"/>
+      <c r="AGV25" s="3"/>
+      <c r="AGW25" s="3"/>
+      <c r="AGX25" s="3"/>
+      <c r="AGY25" s="3"/>
+      <c r="AGZ25" s="3"/>
+      <c r="AHA25" s="3"/>
+      <c r="AHB25" s="3"/>
+      <c r="AHC25" s="3"/>
+      <c r="AHD25" s="3"/>
+      <c r="AHE25" s="3"/>
+      <c r="AHF25" s="3"/>
+      <c r="AHG25" s="3"/>
+      <c r="AHH25" s="3"/>
+      <c r="AHI25" s="3"/>
+      <c r="AHJ25" s="3"/>
+      <c r="AHK25" s="3"/>
+      <c r="AHL25" s="3"/>
+      <c r="AHM25" s="3"/>
+      <c r="AHN25" s="3"/>
+      <c r="AHO25" s="3"/>
+      <c r="AHP25" s="3"/>
+      <c r="AHQ25" s="3"/>
+      <c r="AHR25" s="3"/>
+      <c r="AHS25" s="3"/>
+      <c r="AHT25" s="3"/>
+      <c r="AHU25" s="3"/>
+      <c r="AHV25" s="3"/>
+      <c r="AHW25" s="3"/>
+      <c r="AHX25" s="3"/>
+      <c r="AHY25" s="3"/>
+      <c r="AHZ25" s="3"/>
+      <c r="AIA25" s="3"/>
+      <c r="AIB25" s="3"/>
+      <c r="AIC25" s="3"/>
+      <c r="AID25" s="3"/>
+      <c r="AIE25" s="3"/>
+      <c r="AIF25" s="3"/>
+      <c r="AIG25" s="3"/>
+      <c r="AIH25" s="3"/>
+      <c r="AII25" s="3"/>
+      <c r="AIJ25" s="3"/>
+      <c r="AIK25" s="3"/>
+      <c r="AIL25" s="3"/>
+      <c r="AIM25" s="3"/>
+      <c r="AIN25" s="3"/>
+      <c r="AIO25" s="3"/>
+      <c r="AIP25" s="3"/>
+      <c r="AIQ25" s="3"/>
+      <c r="AIR25" s="3"/>
+      <c r="AIS25" s="3"/>
+      <c r="AIT25" s="3"/>
+      <c r="AIU25" s="3"/>
+      <c r="AIV25" s="3"/>
+      <c r="AIW25" s="3"/>
+      <c r="AIX25" s="3"/>
+      <c r="AIY25" s="3"/>
+      <c r="AIZ25" s="3"/>
+      <c r="AJA25" s="3"/>
+      <c r="AJB25" s="3"/>
+      <c r="AJC25" s="3"/>
+      <c r="AJD25" s="3"/>
+      <c r="AJE25" s="3"/>
+      <c r="AJF25" s="3"/>
+      <c r="AJG25" s="3"/>
+      <c r="AJH25" s="3"/>
+      <c r="AJI25" s="3"/>
+      <c r="AJJ25" s="3"/>
+      <c r="AJK25" s="3"/>
+      <c r="AJL25" s="3"/>
+      <c r="AJM25" s="3"/>
+      <c r="AJN25" s="3"/>
+      <c r="AJO25" s="3"/>
+      <c r="AJP25" s="3"/>
+      <c r="AJQ25" s="3"/>
+      <c r="AJR25" s="3"/>
+      <c r="AJS25" s="3"/>
+      <c r="AJT25" s="3"/>
+      <c r="AJU25" s="3"/>
+      <c r="AJV25" s="3"/>
+      <c r="AJW25" s="3"/>
+      <c r="AJX25" s="3"/>
+      <c r="AJY25" s="3"/>
+      <c r="AJZ25" s="3"/>
+      <c r="AKA25" s="3"/>
+      <c r="AKB25" s="3"/>
+      <c r="AKC25" s="3"/>
+      <c r="AKD25" s="3"/>
+      <c r="AKE25" s="3"/>
+      <c r="AKF25" s="3"/>
+      <c r="AKG25" s="3"/>
+      <c r="AKH25" s="3"/>
+      <c r="AKI25" s="3"/>
+      <c r="AKJ25" s="3"/>
+      <c r="AKK25" s="3"/>
+      <c r="AKL25" s="3"/>
+      <c r="AKM25" s="3"/>
+      <c r="AKN25" s="3"/>
+      <c r="AKO25" s="3"/>
+      <c r="AKP25" s="3"/>
+      <c r="AKQ25" s="3"/>
+      <c r="AKR25" s="3"/>
+      <c r="AKS25" s="3"/>
+      <c r="AKT25" s="3"/>
+      <c r="AKU25" s="3"/>
+      <c r="AKV25" s="3"/>
+      <c r="AKW25" s="3"/>
+      <c r="AKX25" s="3"/>
+      <c r="AKY25" s="3"/>
+      <c r="AKZ25" s="3"/>
+      <c r="ALA25" s="3"/>
+      <c r="ALB25" s="3"/>
+      <c r="ALC25" s="3"/>
+      <c r="ALD25" s="3"/>
+      <c r="ALE25" s="3"/>
+      <c r="ALF25" s="3"/>
+      <c r="ALG25" s="3"/>
+      <c r="ALH25" s="3"/>
+      <c r="ALI25" s="3"/>
+      <c r="ALJ25" s="3"/>
+      <c r="ALK25" s="3"/>
+      <c r="ALL25" s="3"/>
+      <c r="ALM25" s="3"/>
+      <c r="ALN25" s="3"/>
+      <c r="ALO25" s="3"/>
+      <c r="ALP25" s="3"/>
+      <c r="ALQ25" s="3"/>
+      <c r="ALR25" s="3"/>
+      <c r="ALS25" s="3"/>
+      <c r="ALT25" s="3"/>
+      <c r="ALU25" s="3"/>
+      <c r="ALV25" s="3"/>
+      <c r="ALW25" s="3"/>
+      <c r="ALX25" s="3"/>
+      <c r="ALY25" s="3"/>
+      <c r="ALZ25" s="3"/>
+      <c r="AMA25" s="3"/>
+      <c r="AMB25" s="3"/>
+      <c r="AMC25" s="3"/>
+      <c r="AMD25" s="3"/>
+      <c r="AME25" s="3"/>
+      <c r="AMF25" s="3"/>
+      <c r="AMG25" s="3"/>
+      <c r="AMH25" s="3"/>
+      <c r="AMI25" s="3"/>
+      <c r="AMJ25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="34.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="s">
+    <row r="26" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="12" t="s">
+      <c r="B26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
-      <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
-      <c r="X26" s="2"/>
-      <c r="Y26" s="2"/>
-      <c r="Z26" s="2"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
-      <c r="AF26" s="3"/>
-      <c r="AG26" s="3"/>
-      <c r="AH26" s="3"/>
-      <c r="AI26" s="3"/>
-      <c r="AJ26" s="3"/>
-      <c r="AK26" s="3"/>
-      <c r="AL26" s="3"/>
-      <c r="AM26" s="3"/>
-      <c r="AN26" s="3"/>
-      <c r="AO26" s="3"/>
-      <c r="AP26" s="3"/>
-      <c r="AQ26" s="3"/>
-      <c r="AR26" s="3"/>
-      <c r="AS26" s="3"/>
-      <c r="AT26" s="3"/>
-      <c r="AU26" s="3"/>
-      <c r="AV26" s="3"/>
-      <c r="AW26" s="3"/>
-      <c r="AX26" s="3"/>
-      <c r="AY26" s="3"/>
-      <c r="AZ26" s="3"/>
-      <c r="BA26" s="3"/>
-      <c r="BB26" s="3"/>
-      <c r="BC26" s="3"/>
-      <c r="BD26" s="3"/>
-      <c r="BE26" s="3"/>
-      <c r="BF26" s="3"/>
-      <c r="BG26" s="3"/>
-      <c r="BH26" s="3"/>
-      <c r="BI26" s="3"/>
-      <c r="BJ26" s="3"/>
-      <c r="BK26" s="3"/>
-      <c r="BL26" s="3"/>
-      <c r="BM26" s="3"/>
-      <c r="BN26" s="3"/>
-      <c r="BO26" s="3"/>
-      <c r="BP26" s="3"/>
-      <c r="BQ26" s="3"/>
-      <c r="BR26" s="3"/>
-      <c r="BS26" s="3"/>
-      <c r="BT26" s="3"/>
-      <c r="BU26" s="3"/>
-      <c r="BV26" s="3"/>
-      <c r="BW26" s="3"/>
-      <c r="BX26" s="3"/>
-      <c r="BY26" s="3"/>
-      <c r="BZ26" s="3"/>
-      <c r="CA26" s="3"/>
-      <c r="CB26" s="3"/>
-      <c r="CC26" s="3"/>
-      <c r="CD26" s="3"/>
-      <c r="CE26" s="3"/>
-      <c r="CF26" s="3"/>
-      <c r="CG26" s="3"/>
-      <c r="CH26" s="3"/>
-      <c r="CI26" s="3"/>
-      <c r="CJ26" s="3"/>
-      <c r="CK26" s="3"/>
-      <c r="CL26" s="3"/>
-      <c r="CM26" s="3"/>
-      <c r="CN26" s="3"/>
-      <c r="CO26" s="3"/>
-      <c r="CP26" s="3"/>
-      <c r="CQ26" s="3"/>
-      <c r="CR26" s="3"/>
-      <c r="CS26" s="3"/>
-      <c r="CT26" s="3"/>
-      <c r="CU26" s="3"/>
-      <c r="CV26" s="3"/>
-      <c r="CW26" s="3"/>
-      <c r="CX26" s="3"/>
-      <c r="CY26" s="3"/>
-      <c r="CZ26" s="3"/>
-      <c r="DA26" s="3"/>
-      <c r="DB26" s="3"/>
-      <c r="DC26" s="3"/>
-      <c r="DD26" s="3"/>
-      <c r="DE26" s="3"/>
-      <c r="DF26" s="3"/>
-      <c r="DG26" s="3"/>
-      <c r="DH26" s="3"/>
-      <c r="DI26" s="3"/>
-      <c r="DJ26" s="3"/>
-      <c r="DK26" s="3"/>
-      <c r="DL26" s="3"/>
-      <c r="DM26" s="3"/>
-      <c r="DN26" s="3"/>
-      <c r="DO26" s="3"/>
-      <c r="DP26" s="3"/>
-      <c r="DQ26" s="3"/>
-      <c r="DR26" s="3"/>
-      <c r="DS26" s="3"/>
-      <c r="DT26" s="3"/>
-      <c r="DU26" s="3"/>
-      <c r="DV26" s="3"/>
-      <c r="DW26" s="3"/>
-      <c r="DX26" s="3"/>
-      <c r="DY26" s="3"/>
-      <c r="DZ26" s="3"/>
-      <c r="EA26" s="3"/>
-      <c r="EB26" s="3"/>
-      <c r="EC26" s="3"/>
-      <c r="ED26" s="3"/>
-      <c r="EE26" s="3"/>
-      <c r="EF26" s="3"/>
-      <c r="EG26" s="3"/>
-      <c r="EH26" s="3"/>
-      <c r="EI26" s="3"/>
-      <c r="EJ26" s="3"/>
-      <c r="EK26" s="3"/>
-      <c r="EL26" s="3"/>
-      <c r="EM26" s="3"/>
-      <c r="EN26" s="3"/>
-      <c r="EO26" s="3"/>
-      <c r="EP26" s="3"/>
-      <c r="EQ26" s="3"/>
-      <c r="ER26" s="3"/>
-      <c r="ES26" s="3"/>
-      <c r="ET26" s="3"/>
-      <c r="EU26" s="3"/>
-      <c r="EV26" s="3"/>
-      <c r="EW26" s="3"/>
-      <c r="EX26" s="3"/>
-      <c r="EY26" s="3"/>
-      <c r="EZ26" s="3"/>
-      <c r="FA26" s="3"/>
-      <c r="FB26" s="3"/>
-      <c r="FC26" s="3"/>
-      <c r="FD26" s="3"/>
-      <c r="FE26" s="3"/>
-      <c r="FF26" s="3"/>
-      <c r="FG26" s="3"/>
-      <c r="FH26" s="3"/>
-      <c r="FI26" s="3"/>
-      <c r="FJ26" s="3"/>
-      <c r="FK26" s="3"/>
-      <c r="FL26" s="3"/>
-      <c r="FM26" s="3"/>
-      <c r="FN26" s="3"/>
-      <c r="FO26" s="3"/>
-      <c r="FP26" s="3"/>
-      <c r="FQ26" s="3"/>
-      <c r="FR26" s="3"/>
-      <c r="FS26" s="3"/>
-      <c r="FT26" s="3"/>
-      <c r="FU26" s="3"/>
-      <c r="FV26" s="3"/>
-      <c r="FW26" s="3"/>
-      <c r="FX26" s="3"/>
-      <c r="FY26" s="3"/>
-      <c r="FZ26" s="3"/>
-      <c r="GA26" s="3"/>
-      <c r="GB26" s="3"/>
-      <c r="GC26" s="3"/>
-      <c r="GD26" s="3"/>
-      <c r="GE26" s="3"/>
-      <c r="GF26" s="3"/>
-      <c r="GG26" s="3"/>
-      <c r="GH26" s="3"/>
-      <c r="GI26" s="3"/>
-      <c r="GJ26" s="3"/>
-      <c r="GK26" s="3"/>
-      <c r="GL26" s="3"/>
-      <c r="GM26" s="3"/>
-      <c r="GN26" s="3"/>
-      <c r="GO26" s="3"/>
-      <c r="GP26" s="3"/>
-      <c r="GQ26" s="3"/>
-      <c r="GR26" s="3"/>
-      <c r="GS26" s="3"/>
-      <c r="GT26" s="3"/>
-      <c r="GU26" s="3"/>
-      <c r="GV26" s="3"/>
-      <c r="GW26" s="3"/>
-      <c r="GX26" s="3"/>
-      <c r="GY26" s="3"/>
-      <c r="GZ26" s="3"/>
-      <c r="HA26" s="3"/>
-      <c r="HB26" s="3"/>
-      <c r="HC26" s="3"/>
-      <c r="HD26" s="3"/>
-      <c r="HE26" s="3"/>
-      <c r="HF26" s="3"/>
-      <c r="HG26" s="3"/>
-      <c r="HH26" s="3"/>
-      <c r="HI26" s="3"/>
-      <c r="HJ26" s="3"/>
-      <c r="HK26" s="3"/>
-      <c r="HL26" s="3"/>
-      <c r="HM26" s="3"/>
-      <c r="HN26" s="3"/>
-      <c r="HO26" s="3"/>
-      <c r="HP26" s="3"/>
-      <c r="HQ26" s="3"/>
-      <c r="HR26" s="3"/>
-      <c r="HS26" s="3"/>
-      <c r="HT26" s="3"/>
-      <c r="HU26" s="3"/>
-      <c r="HV26" s="3"/>
-      <c r="HW26" s="3"/>
-      <c r="HX26" s="3"/>
-      <c r="HY26" s="3"/>
-      <c r="HZ26" s="3"/>
-      <c r="IA26" s="3"/>
-      <c r="IB26" s="3"/>
-      <c r="IC26" s="3"/>
-      <c r="ID26" s="3"/>
-      <c r="IE26" s="3"/>
-      <c r="IF26" s="3"/>
-      <c r="IG26" s="3"/>
-      <c r="IH26" s="3"/>
-      <c r="II26" s="3"/>
-      <c r="IJ26" s="3"/>
-      <c r="IK26" s="3"/>
-      <c r="IL26" s="3"/>
-      <c r="IM26" s="3"/>
-      <c r="IN26" s="3"/>
-      <c r="IO26" s="3"/>
-      <c r="IP26" s="3"/>
-      <c r="IQ26" s="3"/>
-      <c r="IR26" s="3"/>
-      <c r="IS26" s="3"/>
-      <c r="IT26" s="3"/>
-      <c r="IU26" s="3"/>
-      <c r="IV26" s="3"/>
-      <c r="IW26" s="3"/>
-      <c r="IX26" s="3"/>
-      <c r="IY26" s="3"/>
-      <c r="IZ26" s="3"/>
-      <c r="JA26" s="3"/>
-      <c r="JB26" s="3"/>
-      <c r="JC26" s="3"/>
-      <c r="JD26" s="3"/>
-      <c r="JE26" s="3"/>
-      <c r="JF26" s="3"/>
-      <c r="JG26" s="3"/>
-      <c r="JH26" s="3"/>
-      <c r="JI26" s="3"/>
-      <c r="JJ26" s="3"/>
-      <c r="JK26" s="3"/>
-      <c r="JL26" s="3"/>
-      <c r="JM26" s="3"/>
-      <c r="JN26" s="3"/>
-      <c r="JO26" s="3"/>
-      <c r="JP26" s="3"/>
-      <c r="JQ26" s="3"/>
-      <c r="JR26" s="3"/>
-      <c r="JS26" s="3"/>
-      <c r="JT26" s="3"/>
-      <c r="JU26" s="3"/>
-      <c r="JV26" s="3"/>
-      <c r="JW26" s="3"/>
-      <c r="JX26" s="3"/>
-      <c r="JY26" s="3"/>
-      <c r="JZ26" s="3"/>
-      <c r="KA26" s="3"/>
-      <c r="KB26" s="3"/>
-      <c r="KC26" s="3"/>
-      <c r="KD26" s="3"/>
-      <c r="KE26" s="3"/>
-      <c r="KF26" s="3"/>
-      <c r="KG26" s="3"/>
-      <c r="KH26" s="3"/>
-      <c r="KI26" s="3"/>
-      <c r="KJ26" s="3"/>
-      <c r="KK26" s="3"/>
-      <c r="KL26" s="3"/>
-      <c r="KM26" s="3"/>
-      <c r="KN26" s="3"/>
-      <c r="KO26" s="3"/>
-      <c r="KP26" s="3"/>
-      <c r="KQ26" s="3"/>
-      <c r="KR26" s="3"/>
-      <c r="KS26" s="3"/>
-      <c r="KT26" s="3"/>
-      <c r="KU26" s="3"/>
-      <c r="KV26" s="3"/>
-      <c r="KW26" s="3"/>
-      <c r="KX26" s="3"/>
-      <c r="KY26" s="3"/>
-      <c r="KZ26" s="3"/>
-      <c r="LA26" s="3"/>
-      <c r="LB26" s="3"/>
-      <c r="LC26" s="3"/>
-      <c r="LD26" s="3"/>
-      <c r="LE26" s="3"/>
-      <c r="LF26" s="3"/>
-      <c r="LG26" s="3"/>
-      <c r="LH26" s="3"/>
-      <c r="LI26" s="3"/>
-      <c r="LJ26" s="3"/>
-      <c r="LK26" s="3"/>
-      <c r="LL26" s="3"/>
-      <c r="LM26" s="3"/>
-      <c r="LN26" s="3"/>
-      <c r="LO26" s="3"/>
-      <c r="LP26" s="3"/>
-      <c r="LQ26" s="3"/>
-      <c r="LR26" s="3"/>
-      <c r="LS26" s="3"/>
-      <c r="LT26" s="3"/>
-      <c r="LU26" s="3"/>
-      <c r="LV26" s="3"/>
-      <c r="LW26" s="3"/>
-      <c r="LX26" s="3"/>
-      <c r="LY26" s="3"/>
-      <c r="LZ26" s="3"/>
-      <c r="MA26" s="3"/>
-      <c r="MB26" s="3"/>
-      <c r="MC26" s="3"/>
-      <c r="MD26" s="3"/>
-      <c r="ME26" s="3"/>
-      <c r="MF26" s="3"/>
-      <c r="MG26" s="3"/>
-      <c r="MH26" s="3"/>
-      <c r="MI26" s="3"/>
-      <c r="MJ26" s="3"/>
-      <c r="MK26" s="3"/>
-      <c r="ML26" s="3"/>
-      <c r="MM26" s="3"/>
-      <c r="MN26" s="3"/>
-      <c r="MO26" s="3"/>
-      <c r="MP26" s="3"/>
-      <c r="MQ26" s="3"/>
-      <c r="MR26" s="3"/>
-      <c r="MS26" s="3"/>
-      <c r="MT26" s="3"/>
-      <c r="MU26" s="3"/>
-      <c r="MV26" s="3"/>
-      <c r="MW26" s="3"/>
-      <c r="MX26" s="3"/>
-      <c r="MY26" s="3"/>
-      <c r="MZ26" s="3"/>
-      <c r="NA26" s="3"/>
-      <c r="NB26" s="3"/>
-      <c r="NC26" s="3"/>
-      <c r="ND26" s="3"/>
-      <c r="NE26" s="3"/>
-      <c r="NF26" s="3"/>
-      <c r="NG26" s="3"/>
-      <c r="NH26" s="3"/>
-      <c r="NI26" s="3"/>
-      <c r="NJ26" s="3"/>
-      <c r="NK26" s="3"/>
-      <c r="NL26" s="3"/>
-      <c r="NM26" s="3"/>
-      <c r="NN26" s="3"/>
-      <c r="NO26" s="3"/>
-      <c r="NP26" s="3"/>
-      <c r="NQ26" s="3"/>
-      <c r="NR26" s="3"/>
-      <c r="NS26" s="3"/>
-      <c r="NT26" s="3"/>
-      <c r="NU26" s="3"/>
-      <c r="NV26" s="3"/>
-      <c r="NW26" s="3"/>
-      <c r="NX26" s="3"/>
-      <c r="NY26" s="3"/>
-      <c r="NZ26" s="3"/>
-      <c r="OA26" s="3"/>
-      <c r="OB26" s="3"/>
-      <c r="OC26" s="3"/>
-      <c r="OD26" s="3"/>
-      <c r="OE26" s="3"/>
-      <c r="OF26" s="3"/>
-      <c r="OG26" s="3"/>
-      <c r="OH26" s="3"/>
-      <c r="OI26" s="3"/>
-      <c r="OJ26" s="3"/>
-      <c r="OK26" s="3"/>
-      <c r="OL26" s="3"/>
-      <c r="OM26" s="3"/>
-      <c r="ON26" s="3"/>
-      <c r="OO26" s="3"/>
-      <c r="OP26" s="3"/>
-      <c r="OQ26" s="3"/>
-      <c r="OR26" s="3"/>
-      <c r="OS26" s="3"/>
-      <c r="OT26" s="3"/>
-      <c r="OU26" s="3"/>
-      <c r="OV26" s="3"/>
-      <c r="OW26" s="3"/>
-      <c r="OX26" s="3"/>
-      <c r="OY26" s="3"/>
-      <c r="OZ26" s="3"/>
-      <c r="PA26" s="3"/>
-      <c r="PB26" s="3"/>
-      <c r="PC26" s="3"/>
-      <c r="PD26" s="3"/>
-      <c r="PE26" s="3"/>
-      <c r="PF26" s="3"/>
-      <c r="PG26" s="3"/>
-      <c r="PH26" s="3"/>
-      <c r="PI26" s="3"/>
-      <c r="PJ26" s="3"/>
-      <c r="PK26" s="3"/>
-      <c r="PL26" s="3"/>
-      <c r="PM26" s="3"/>
-      <c r="PN26" s="3"/>
-      <c r="PO26" s="3"/>
-      <c r="PP26" s="3"/>
-      <c r="PQ26" s="3"/>
-      <c r="PR26" s="3"/>
-      <c r="PS26" s="3"/>
-      <c r="PT26" s="3"/>
-      <c r="PU26" s="3"/>
-      <c r="PV26" s="3"/>
-      <c r="PW26" s="3"/>
-      <c r="PX26" s="3"/>
-      <c r="PY26" s="3"/>
-      <c r="PZ26" s="3"/>
-      <c r="QA26" s="3"/>
-      <c r="QB26" s="3"/>
-      <c r="QC26" s="3"/>
-      <c r="QD26" s="3"/>
-      <c r="QE26" s="3"/>
-      <c r="QF26" s="3"/>
-      <c r="QG26" s="3"/>
-      <c r="QH26" s="3"/>
-      <c r="QI26" s="3"/>
-      <c r="QJ26" s="3"/>
-      <c r="QK26" s="3"/>
-      <c r="QL26" s="3"/>
-      <c r="QM26" s="3"/>
-      <c r="QN26" s="3"/>
-      <c r="QO26" s="3"/>
-      <c r="QP26" s="3"/>
-      <c r="QQ26" s="3"/>
-      <c r="QR26" s="3"/>
-      <c r="QS26" s="3"/>
-      <c r="QT26" s="3"/>
-      <c r="QU26" s="3"/>
-      <c r="QV26" s="3"/>
-      <c r="QW26" s="3"/>
-      <c r="QX26" s="3"/>
-      <c r="QY26" s="3"/>
-      <c r="QZ26" s="3"/>
-      <c r="RA26" s="3"/>
-      <c r="RB26" s="3"/>
-      <c r="RC26" s="3"/>
-      <c r="RD26" s="3"/>
-      <c r="RE26" s="3"/>
-      <c r="RF26" s="3"/>
-      <c r="RG26" s="3"/>
-      <c r="RH26" s="3"/>
-      <c r="RI26" s="3"/>
-      <c r="RJ26" s="3"/>
-      <c r="RK26" s="3"/>
-      <c r="RL26" s="3"/>
-      <c r="RM26" s="3"/>
-      <c r="RN26" s="3"/>
-      <c r="RO26" s="3"/>
-      <c r="RP26" s="3"/>
-      <c r="RQ26" s="3"/>
-      <c r="RR26" s="3"/>
-      <c r="RS26" s="3"/>
-      <c r="RT26" s="3"/>
-      <c r="RU26" s="3"/>
-      <c r="RV26" s="3"/>
-      <c r="RW26" s="3"/>
-      <c r="RX26" s="3"/>
-      <c r="RY26" s="3"/>
-      <c r="RZ26" s="3"/>
-      <c r="SA26" s="3"/>
-      <c r="SB26" s="3"/>
-      <c r="SC26" s="3"/>
-      <c r="SD26" s="3"/>
-      <c r="SE26" s="3"/>
-      <c r="SF26" s="3"/>
-      <c r="SG26" s="3"/>
-      <c r="SH26" s="3"/>
-      <c r="SI26" s="3"/>
-      <c r="SJ26" s="3"/>
-      <c r="SK26" s="3"/>
-      <c r="SL26" s="3"/>
-      <c r="SM26" s="3"/>
-      <c r="SN26" s="3"/>
-      <c r="SO26" s="3"/>
-      <c r="SP26" s="3"/>
-      <c r="SQ26" s="3"/>
-      <c r="SR26" s="3"/>
-      <c r="SS26" s="3"/>
-      <c r="ST26" s="3"/>
-      <c r="SU26" s="3"/>
-      <c r="SV26" s="3"/>
-      <c r="SW26" s="3"/>
-      <c r="SX26" s="3"/>
-      <c r="SY26" s="3"/>
-      <c r="SZ26" s="3"/>
-      <c r="TA26" s="3"/>
-      <c r="TB26" s="3"/>
-      <c r="TC26" s="3"/>
-      <c r="TD26" s="3"/>
-      <c r="TE26" s="3"/>
-      <c r="TF26" s="3"/>
-      <c r="TG26" s="3"/>
-      <c r="TH26" s="3"/>
-      <c r="TI26" s="3"/>
-      <c r="TJ26" s="3"/>
-      <c r="TK26" s="3"/>
-      <c r="TL26" s="3"/>
-      <c r="TM26" s="3"/>
-      <c r="TN26" s="3"/>
-      <c r="TO26" s="3"/>
-      <c r="TP26" s="3"/>
-      <c r="TQ26" s="3"/>
-      <c r="TR26" s="3"/>
-      <c r="TS26" s="3"/>
-      <c r="TT26" s="3"/>
-      <c r="TU26" s="3"/>
-      <c r="TV26" s="3"/>
-      <c r="TW26" s="3"/>
-      <c r="TX26" s="3"/>
-      <c r="TY26" s="3"/>
-      <c r="TZ26" s="3"/>
-      <c r="UA26" s="3"/>
-      <c r="UB26" s="3"/>
-      <c r="UC26" s="3"/>
-      <c r="UD26" s="3"/>
-      <c r="UE26" s="3"/>
-      <c r="UF26" s="3"/>
-      <c r="UG26" s="3"/>
-      <c r="UH26" s="3"/>
-      <c r="UI26" s="3"/>
-      <c r="UJ26" s="3"/>
-      <c r="UK26" s="3"/>
-      <c r="UL26" s="3"/>
-      <c r="UM26" s="3"/>
-      <c r="UN26" s="3"/>
-      <c r="UO26" s="3"/>
-      <c r="UP26" s="3"/>
-      <c r="UQ26" s="3"/>
-      <c r="UR26" s="3"/>
-      <c r="US26" s="3"/>
-      <c r="UT26" s="3"/>
-      <c r="UU26" s="3"/>
-      <c r="UV26" s="3"/>
-      <c r="UW26" s="3"/>
-      <c r="UX26" s="3"/>
-      <c r="UY26" s="3"/>
-      <c r="UZ26" s="3"/>
-      <c r="VA26" s="3"/>
-      <c r="VB26" s="3"/>
-      <c r="VC26" s="3"/>
-      <c r="VD26" s="3"/>
-      <c r="VE26" s="3"/>
-      <c r="VF26" s="3"/>
-      <c r="VG26" s="3"/>
-      <c r="VH26" s="3"/>
-      <c r="VI26" s="3"/>
-      <c r="VJ26" s="3"/>
-      <c r="VK26" s="3"/>
-      <c r="VL26" s="3"/>
-      <c r="VM26" s="3"/>
-      <c r="VN26" s="3"/>
-      <c r="VO26" s="3"/>
-      <c r="VP26" s="3"/>
-      <c r="VQ26" s="3"/>
-      <c r="VR26" s="3"/>
-      <c r="VS26" s="3"/>
-      <c r="VT26" s="3"/>
-      <c r="VU26" s="3"/>
-      <c r="VV26" s="3"/>
-      <c r="VW26" s="3"/>
-      <c r="VX26" s="3"/>
-      <c r="VY26" s="3"/>
-      <c r="VZ26" s="3"/>
-      <c r="WA26" s="3"/>
-      <c r="WB26" s="3"/>
-      <c r="WC26" s="3"/>
-      <c r="WD26" s="3"/>
-      <c r="WE26" s="3"/>
-      <c r="WF26" s="3"/>
-      <c r="WG26" s="3"/>
-      <c r="WH26" s="3"/>
-      <c r="WI26" s="3"/>
-      <c r="WJ26" s="3"/>
-      <c r="WK26" s="3"/>
-      <c r="WL26" s="3"/>
-      <c r="WM26" s="3"/>
-      <c r="WN26" s="3"/>
-      <c r="WO26" s="3"/>
-      <c r="WP26" s="3"/>
-      <c r="WQ26" s="3"/>
-      <c r="WR26" s="3"/>
-      <c r="WS26" s="3"/>
-      <c r="WT26" s="3"/>
-      <c r="WU26" s="3"/>
-      <c r="WV26" s="3"/>
-      <c r="WW26" s="3"/>
-      <c r="WX26" s="3"/>
-      <c r="WY26" s="3"/>
-      <c r="WZ26" s="3"/>
-      <c r="XA26" s="3"/>
-      <c r="XB26" s="3"/>
-      <c r="XC26" s="3"/>
-      <c r="XD26" s="3"/>
-      <c r="XE26" s="3"/>
-      <c r="XF26" s="3"/>
-      <c r="XG26" s="3"/>
-      <c r="XH26" s="3"/>
-      <c r="XI26" s="3"/>
-      <c r="XJ26" s="3"/>
-      <c r="XK26" s="3"/>
-      <c r="XL26" s="3"/>
-      <c r="XM26" s="3"/>
-      <c r="XN26" s="3"/>
-      <c r="XO26" s="3"/>
-      <c r="XP26" s="3"/>
-      <c r="XQ26" s="3"/>
-      <c r="XR26" s="3"/>
-      <c r="XS26" s="3"/>
-      <c r="XT26" s="3"/>
-      <c r="XU26" s="3"/>
-      <c r="XV26" s="3"/>
-      <c r="XW26" s="3"/>
-      <c r="XX26" s="3"/>
-      <c r="XY26" s="3"/>
-      <c r="XZ26" s="3"/>
-      <c r="YA26" s="3"/>
-      <c r="YB26" s="3"/>
-      <c r="YC26" s="3"/>
-      <c r="YD26" s="3"/>
-      <c r="YE26" s="3"/>
-      <c r="YF26" s="3"/>
-      <c r="YG26" s="3"/>
-      <c r="YH26" s="3"/>
-      <c r="YI26" s="3"/>
-      <c r="YJ26" s="3"/>
-      <c r="YK26" s="3"/>
-      <c r="YL26" s="3"/>
-      <c r="YM26" s="3"/>
-      <c r="YN26" s="3"/>
-      <c r="YO26" s="3"/>
-      <c r="YP26" s="3"/>
-      <c r="YQ26" s="3"/>
-      <c r="YR26" s="3"/>
-      <c r="YS26" s="3"/>
-      <c r="YT26" s="3"/>
-      <c r="YU26" s="3"/>
-      <c r="YV26" s="3"/>
-      <c r="YW26" s="3"/>
-      <c r="YX26" s="3"/>
-      <c r="YY26" s="3"/>
-      <c r="YZ26" s="3"/>
-      <c r="ZA26" s="3"/>
-      <c r="ZB26" s="3"/>
-      <c r="ZC26" s="3"/>
-      <c r="ZD26" s="3"/>
-      <c r="ZE26" s="3"/>
-      <c r="ZF26" s="3"/>
-      <c r="ZG26" s="3"/>
-      <c r="ZH26" s="3"/>
-      <c r="ZI26" s="3"/>
-      <c r="ZJ26" s="3"/>
-      <c r="ZK26" s="3"/>
-      <c r="ZL26" s="3"/>
-      <c r="ZM26" s="3"/>
-      <c r="ZN26" s="3"/>
-      <c r="ZO26" s="3"/>
-      <c r="ZP26" s="3"/>
-      <c r="ZQ26" s="3"/>
-      <c r="ZR26" s="3"/>
-      <c r="ZS26" s="3"/>
-      <c r="ZT26" s="3"/>
-      <c r="ZU26" s="3"/>
-      <c r="ZV26" s="3"/>
-      <c r="ZW26" s="3"/>
-      <c r="ZX26" s="3"/>
-      <c r="ZY26" s="3"/>
-      <c r="ZZ26" s="3"/>
-      <c r="AAA26" s="3"/>
-      <c r="AAB26" s="3"/>
-      <c r="AAC26" s="3"/>
-      <c r="AAD26" s="3"/>
-      <c r="AAE26" s="3"/>
-      <c r="AAF26" s="3"/>
-      <c r="AAG26" s="3"/>
-      <c r="AAH26" s="3"/>
-      <c r="AAI26" s="3"/>
-      <c r="AAJ26" s="3"/>
-      <c r="AAK26" s="3"/>
-      <c r="AAL26" s="3"/>
-      <c r="AAM26" s="3"/>
-      <c r="AAN26" s="3"/>
-      <c r="AAO26" s="3"/>
-      <c r="AAP26" s="3"/>
-      <c r="AAQ26" s="3"/>
-      <c r="AAR26" s="3"/>
-      <c r="AAS26" s="3"/>
-      <c r="AAT26" s="3"/>
-      <c r="AAU26" s="3"/>
-      <c r="AAV26" s="3"/>
-      <c r="AAW26" s="3"/>
-      <c r="AAX26" s="3"/>
-      <c r="AAY26" s="3"/>
-      <c r="AAZ26" s="3"/>
-      <c r="ABA26" s="3"/>
-      <c r="ABB26" s="3"/>
-      <c r="ABC26" s="3"/>
-      <c r="ABD26" s="3"/>
-      <c r="ABE26" s="3"/>
-      <c r="ABF26" s="3"/>
-      <c r="ABG26" s="3"/>
-      <c r="ABH26" s="3"/>
-      <c r="ABI26" s="3"/>
-      <c r="ABJ26" s="3"/>
-      <c r="ABK26" s="3"/>
-      <c r="ABL26" s="3"/>
-      <c r="ABM26" s="3"/>
-      <c r="ABN26" s="3"/>
-      <c r="ABO26" s="3"/>
-      <c r="ABP26" s="3"/>
-      <c r="ABQ26" s="3"/>
-      <c r="ABR26" s="3"/>
-      <c r="ABS26" s="3"/>
-      <c r="ABT26" s="3"/>
-      <c r="ABU26" s="3"/>
-      <c r="ABV26" s="3"/>
-      <c r="ABW26" s="3"/>
-      <c r="ABX26" s="3"/>
-      <c r="ABY26" s="3"/>
-      <c r="ABZ26" s="3"/>
-      <c r="ACA26" s="3"/>
-      <c r="ACB26" s="3"/>
-      <c r="ACC26" s="3"/>
-      <c r="ACD26" s="3"/>
-      <c r="ACE26" s="3"/>
-      <c r="ACF26" s="3"/>
-      <c r="ACG26" s="3"/>
-      <c r="ACH26" s="3"/>
-      <c r="ACI26" s="3"/>
-      <c r="ACJ26" s="3"/>
-      <c r="ACK26" s="3"/>
-      <c r="ACL26" s="3"/>
-      <c r="ACM26" s="3"/>
-      <c r="ACN26" s="3"/>
-      <c r="ACO26" s="3"/>
-      <c r="ACP26" s="3"/>
-      <c r="ACQ26" s="3"/>
-      <c r="ACR26" s="3"/>
-      <c r="ACS26" s="3"/>
-      <c r="ACT26" s="3"/>
-      <c r="ACU26" s="3"/>
-      <c r="ACV26" s="3"/>
-      <c r="ACW26" s="3"/>
-      <c r="ACX26" s="3"/>
-      <c r="ACY26" s="3"/>
-      <c r="ACZ26" s="3"/>
-      <c r="ADA26" s="3"/>
-      <c r="ADB26" s="3"/>
-      <c r="ADC26" s="3"/>
-      <c r="ADD26" s="3"/>
-      <c r="ADE26" s="3"/>
-      <c r="ADF26" s="3"/>
-      <c r="ADG26" s="3"/>
-      <c r="ADH26" s="3"/>
-      <c r="ADI26" s="3"/>
-      <c r="ADJ26" s="3"/>
-      <c r="ADK26" s="3"/>
-      <c r="ADL26" s="3"/>
-      <c r="ADM26" s="3"/>
-      <c r="ADN26" s="3"/>
-      <c r="ADO26" s="3"/>
-      <c r="ADP26" s="3"/>
-      <c r="ADQ26" s="3"/>
-      <c r="ADR26" s="3"/>
-      <c r="ADS26" s="3"/>
-      <c r="ADT26" s="3"/>
-      <c r="ADU26" s="3"/>
-      <c r="ADV26" s="3"/>
-      <c r="ADW26" s="3"/>
-      <c r="ADX26" s="3"/>
-      <c r="ADY26" s="3"/>
-      <c r="ADZ26" s="3"/>
-      <c r="AEA26" s="3"/>
-      <c r="AEB26" s="3"/>
-      <c r="AEC26" s="3"/>
-      <c r="AED26" s="3"/>
-      <c r="AEE26" s="3"/>
-      <c r="AEF26" s="3"/>
-      <c r="AEG26" s="3"/>
-      <c r="AEH26" s="3"/>
-      <c r="AEI26" s="3"/>
-      <c r="AEJ26" s="3"/>
-      <c r="AEK26" s="3"/>
-      <c r="AEL26" s="3"/>
-      <c r="AEM26" s="3"/>
-      <c r="AEN26" s="3"/>
-      <c r="AEO26" s="3"/>
-      <c r="AEP26" s="3"/>
-      <c r="AEQ26" s="3"/>
-      <c r="AER26" s="3"/>
-      <c r="AES26" s="3"/>
-      <c r="AET26" s="3"/>
-      <c r="AEU26" s="3"/>
-      <c r="AEV26" s="3"/>
-      <c r="AEW26" s="3"/>
-      <c r="AEX26" s="3"/>
-      <c r="AEY26" s="3"/>
-      <c r="AEZ26" s="3"/>
-      <c r="AFA26" s="3"/>
-      <c r="AFB26" s="3"/>
-      <c r="AFC26" s="3"/>
-      <c r="AFD26" s="3"/>
-      <c r="AFE26" s="3"/>
-      <c r="AFF26" s="3"/>
-      <c r="AFG26" s="3"/>
-      <c r="AFH26" s="3"/>
-      <c r="AFI26" s="3"/>
-      <c r="AFJ26" s="3"/>
-      <c r="AFK26" s="3"/>
-      <c r="AFL26" s="3"/>
-      <c r="AFM26" s="3"/>
-      <c r="AFN26" s="3"/>
-      <c r="AFO26" s="3"/>
-      <c r="AFP26" s="3"/>
-      <c r="AFQ26" s="3"/>
-      <c r="AFR26" s="3"/>
-      <c r="AFS26" s="3"/>
-      <c r="AFT26" s="3"/>
-      <c r="AFU26" s="3"/>
-      <c r="AFV26" s="3"/>
-      <c r="AFW26" s="3"/>
-      <c r="AFX26" s="3"/>
-      <c r="AFY26" s="3"/>
-      <c r="AFZ26" s="3"/>
-      <c r="AGA26" s="3"/>
-      <c r="AGB26" s="3"/>
-      <c r="AGC26" s="3"/>
-      <c r="AGD26" s="3"/>
-      <c r="AGE26" s="3"/>
-      <c r="AGF26" s="3"/>
-      <c r="AGG26" s="3"/>
-      <c r="AGH26" s="3"/>
-      <c r="AGI26" s="3"/>
-      <c r="AGJ26" s="3"/>
-      <c r="AGK26" s="3"/>
-      <c r="AGL26" s="3"/>
-      <c r="AGM26" s="3"/>
-      <c r="AGN26" s="3"/>
-      <c r="AGO26" s="3"/>
-      <c r="AGP26" s="3"/>
-      <c r="AGQ26" s="3"/>
-      <c r="AGR26" s="3"/>
-      <c r="AGS26" s="3"/>
-      <c r="AGT26" s="3"/>
-      <c r="AGU26" s="3"/>
-      <c r="AGV26" s="3"/>
-      <c r="AGW26" s="3"/>
-      <c r="AGX26" s="3"/>
-      <c r="AGY26" s="3"/>
-      <c r="AGZ26" s="3"/>
-      <c r="AHA26" s="3"/>
-      <c r="AHB26" s="3"/>
-      <c r="AHC26" s="3"/>
-      <c r="AHD26" s="3"/>
-      <c r="AHE26" s="3"/>
-      <c r="AHF26" s="3"/>
-      <c r="AHG26" s="3"/>
-      <c r="AHH26" s="3"/>
-      <c r="AHI26" s="3"/>
-      <c r="AHJ26" s="3"/>
-      <c r="AHK26" s="3"/>
-      <c r="AHL26" s="3"/>
-      <c r="AHM26" s="3"/>
-      <c r="AHN26" s="3"/>
-      <c r="AHO26" s="3"/>
-      <c r="AHP26" s="3"/>
-      <c r="AHQ26" s="3"/>
-      <c r="AHR26" s="3"/>
-      <c r="AHS26" s="3"/>
-      <c r="AHT26" s="3"/>
-      <c r="AHU26" s="3"/>
-      <c r="AHV26" s="3"/>
-      <c r="AHW26" s="3"/>
-      <c r="AHX26" s="3"/>
-      <c r="AHY26" s="3"/>
-      <c r="AHZ26" s="3"/>
-      <c r="AIA26" s="3"/>
-      <c r="AIB26" s="3"/>
-      <c r="AIC26" s="3"/>
-      <c r="AID26" s="3"/>
-      <c r="AIE26" s="3"/>
-      <c r="AIF26" s="3"/>
-      <c r="AIG26" s="3"/>
-      <c r="AIH26" s="3"/>
-      <c r="AII26" s="3"/>
-      <c r="AIJ26" s="3"/>
-      <c r="AIK26" s="3"/>
-      <c r="AIL26" s="3"/>
-      <c r="AIM26" s="3"/>
-      <c r="AIN26" s="3"/>
-      <c r="AIO26" s="3"/>
-      <c r="AIP26" s="3"/>
-      <c r="AIQ26" s="3"/>
-      <c r="AIR26" s="3"/>
-      <c r="AIS26" s="3"/>
-      <c r="AIT26" s="3"/>
-      <c r="AIU26" s="3"/>
-      <c r="AIV26" s="3"/>
-      <c r="AIW26" s="3"/>
-      <c r="AIX26" s="3"/>
-      <c r="AIY26" s="3"/>
-      <c r="AIZ26" s="3"/>
-      <c r="AJA26" s="3"/>
-      <c r="AJB26" s="3"/>
-      <c r="AJC26" s="3"/>
-      <c r="AJD26" s="3"/>
-      <c r="AJE26" s="3"/>
-      <c r="AJF26" s="3"/>
-      <c r="AJG26" s="3"/>
-      <c r="AJH26" s="3"/>
-      <c r="AJI26" s="3"/>
-      <c r="AJJ26" s="3"/>
-      <c r="AJK26" s="3"/>
-      <c r="AJL26" s="3"/>
-      <c r="AJM26" s="3"/>
-      <c r="AJN26" s="3"/>
-      <c r="AJO26" s="3"/>
-      <c r="AJP26" s="3"/>
-      <c r="AJQ26" s="3"/>
-      <c r="AJR26" s="3"/>
-      <c r="AJS26" s="3"/>
-      <c r="AJT26" s="3"/>
-      <c r="AJU26" s="3"/>
-      <c r="AJV26" s="3"/>
-      <c r="AJW26" s="3"/>
-      <c r="AJX26" s="3"/>
-      <c r="AJY26" s="3"/>
-      <c r="AJZ26" s="3"/>
-      <c r="AKA26" s="3"/>
-      <c r="AKB26" s="3"/>
-      <c r="AKC26" s="3"/>
-      <c r="AKD26" s="3"/>
-      <c r="AKE26" s="3"/>
-      <c r="AKF26" s="3"/>
-      <c r="AKG26" s="3"/>
-      <c r="AKH26" s="3"/>
-      <c r="AKI26" s="3"/>
-      <c r="AKJ26" s="3"/>
-      <c r="AKK26" s="3"/>
-      <c r="AKL26" s="3"/>
-      <c r="AKM26" s="3"/>
-      <c r="AKN26" s="3"/>
-      <c r="AKO26" s="3"/>
-      <c r="AKP26" s="3"/>
-      <c r="AKQ26" s="3"/>
-      <c r="AKR26" s="3"/>
-      <c r="AKS26" s="3"/>
-      <c r="AKT26" s="3"/>
-      <c r="AKU26" s="3"/>
-      <c r="AKV26" s="3"/>
-      <c r="AKW26" s="3"/>
-      <c r="AKX26" s="3"/>
-      <c r="AKY26" s="3"/>
-      <c r="AKZ26" s="3"/>
-      <c r="ALA26" s="3"/>
-      <c r="ALB26" s="3"/>
-      <c r="ALC26" s="3"/>
-      <c r="ALD26" s="3"/>
-      <c r="ALE26" s="3"/>
-      <c r="ALF26" s="3"/>
-      <c r="ALG26" s="3"/>
-      <c r="ALH26" s="3"/>
-      <c r="ALI26" s="3"/>
-      <c r="ALJ26" s="3"/>
-      <c r="ALK26" s="3"/>
-      <c r="ALL26" s="3"/>
-      <c r="ALM26" s="3"/>
-      <c r="ALN26" s="3"/>
-      <c r="ALO26" s="3"/>
-      <c r="ALP26" s="3"/>
-      <c r="ALQ26" s="3"/>
-      <c r="ALR26" s="3"/>
-      <c r="ALS26" s="3"/>
-      <c r="ALT26" s="3"/>
-      <c r="ALU26" s="3"/>
-      <c r="ALV26" s="3"/>
-      <c r="ALW26" s="3"/>
-      <c r="ALX26" s="3"/>
-      <c r="ALY26" s="3"/>
-      <c r="ALZ26" s="3"/>
-      <c r="AMA26" s="3"/>
-      <c r="AMB26" s="3"/>
-      <c r="AMC26" s="3"/>
-      <c r="AMD26" s="3"/>
-      <c r="AME26" s="3"/>
-      <c r="AMF26" s="3"/>
-      <c r="AMG26" s="3"/>
-      <c r="AMH26" s="3"/>
-      <c r="AMI26" s="3"/>
-      <c r="AMJ26" s="3"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
+      <c r="AI26" s="10"/>
+      <c r="AJ26" s="10"/>
+      <c r="AK26" s="10"/>
+      <c r="AL26" s="10"/>
+      <c r="AM26" s="10"/>
+      <c r="AN26" s="10"/>
+      <c r="AO26" s="10"/>
+      <c r="AP26" s="10"/>
+      <c r="AQ26" s="10"/>
+      <c r="AR26" s="10"/>
+      <c r="AS26" s="10"/>
+      <c r="AT26" s="10"/>
+      <c r="AU26" s="10"/>
+      <c r="AV26" s="10"/>
+      <c r="AW26" s="10"/>
+      <c r="AX26" s="10"/>
+      <c r="AY26" s="10"/>
+      <c r="AZ26" s="10"/>
+      <c r="BA26" s="10"/>
+      <c r="BB26" s="10"/>
+      <c r="BC26" s="10"/>
+      <c r="BD26" s="10"/>
+      <c r="BE26" s="10"/>
+      <c r="BF26" s="10"/>
+      <c r="BG26" s="10"/>
+      <c r="BH26" s="10"/>
+      <c r="BI26" s="10"/>
+      <c r="BJ26" s="10"/>
+      <c r="BK26" s="10"/>
+      <c r="BL26" s="10"/>
+      <c r="BM26" s="10"/>
+      <c r="BN26" s="10"/>
+      <c r="BO26" s="10"/>
+      <c r="BP26" s="10"/>
+      <c r="BQ26" s="10"/>
+      <c r="BR26" s="10"/>
+      <c r="BS26" s="10"/>
+      <c r="BT26" s="10"/>
+      <c r="BU26" s="10"/>
+      <c r="BV26" s="10"/>
+      <c r="BW26" s="10"/>
+      <c r="BX26" s="10"/>
+      <c r="BY26" s="10"/>
+      <c r="BZ26" s="10"/>
+      <c r="CA26" s="10"/>
+      <c r="CB26" s="10"/>
+      <c r="CC26" s="10"/>
+      <c r="CD26" s="10"/>
+      <c r="CE26" s="10"/>
+      <c r="CF26" s="10"/>
+      <c r="CG26" s="10"/>
+      <c r="CH26" s="10"/>
+      <c r="CI26" s="10"/>
+      <c r="CJ26" s="10"/>
+      <c r="CK26" s="10"/>
+      <c r="CL26" s="10"/>
+      <c r="CM26" s="10"/>
+      <c r="CN26" s="10"/>
+      <c r="CO26" s="10"/>
+      <c r="CP26" s="10"/>
+      <c r="CQ26" s="10"/>
+      <c r="CR26" s="10"/>
+      <c r="CS26" s="10"/>
+      <c r="CT26" s="10"/>
+      <c r="CU26" s="10"/>
+      <c r="CV26" s="10"/>
+      <c r="CW26" s="10"/>
+      <c r="CX26" s="10"/>
+      <c r="CY26" s="10"/>
+      <c r="CZ26" s="10"/>
+      <c r="DA26" s="10"/>
+      <c r="DB26" s="10"/>
+      <c r="DC26" s="10"/>
+      <c r="DD26" s="10"/>
+      <c r="DE26" s="10"/>
+      <c r="DF26" s="10"/>
+      <c r="DG26" s="10"/>
+      <c r="DH26" s="10"/>
+      <c r="DI26" s="10"/>
+      <c r="DJ26" s="10"/>
+      <c r="DK26" s="10"/>
+      <c r="DL26" s="10"/>
+      <c r="DM26" s="10"/>
+      <c r="DN26" s="10"/>
+      <c r="DO26" s="10"/>
+      <c r="DP26" s="10"/>
+      <c r="DQ26" s="10"/>
+      <c r="DR26" s="10"/>
+      <c r="DS26" s="10"/>
+      <c r="DT26" s="10"/>
+      <c r="DU26" s="10"/>
+      <c r="DV26" s="10"/>
+      <c r="DW26" s="10"/>
+      <c r="DX26" s="10"/>
+      <c r="DY26" s="10"/>
+      <c r="DZ26" s="10"/>
+      <c r="EA26" s="10"/>
+      <c r="EB26" s="10"/>
+      <c r="EC26" s="10"/>
+      <c r="ED26" s="10"/>
+      <c r="EE26" s="10"/>
+      <c r="EF26" s="10"/>
+      <c r="EG26" s="10"/>
+      <c r="EH26" s="10"/>
+      <c r="EI26" s="10"/>
+      <c r="EJ26" s="10"/>
+      <c r="EK26" s="10"/>
+      <c r="EL26" s="10"/>
+      <c r="EM26" s="10"/>
+      <c r="EN26" s="10"/>
+      <c r="EO26" s="10"/>
+      <c r="EP26" s="10"/>
+      <c r="EQ26" s="10"/>
+      <c r="ER26" s="10"/>
+      <c r="ES26" s="10"/>
+      <c r="ET26" s="10"/>
+      <c r="EU26" s="10"/>
+      <c r="EV26" s="10"/>
+      <c r="EW26" s="10"/>
+      <c r="EX26" s="10"/>
+      <c r="EY26" s="10"/>
+      <c r="EZ26" s="10"/>
+      <c r="FA26" s="10"/>
+      <c r="FB26" s="10"/>
+      <c r="FC26" s="10"/>
+      <c r="FD26" s="10"/>
+      <c r="FE26" s="10"/>
+      <c r="FF26" s="10"/>
+      <c r="FG26" s="10"/>
+      <c r="FH26" s="10"/>
+      <c r="FI26" s="10"/>
+      <c r="FJ26" s="10"/>
+      <c r="FK26" s="10"/>
+      <c r="FL26" s="10"/>
+      <c r="FM26" s="10"/>
+      <c r="FN26" s="10"/>
+      <c r="FO26" s="10"/>
+      <c r="FP26" s="10"/>
+      <c r="FQ26" s="10"/>
+      <c r="FR26" s="10"/>
+      <c r="FS26" s="10"/>
+      <c r="FT26" s="10"/>
+      <c r="FU26" s="10"/>
+      <c r="FV26" s="10"/>
+      <c r="FW26" s="10"/>
+      <c r="FX26" s="10"/>
+      <c r="FY26" s="10"/>
+      <c r="FZ26" s="10"/>
+      <c r="GA26" s="10"/>
+      <c r="GB26" s="10"/>
+      <c r="GC26" s="10"/>
+      <c r="GD26" s="10"/>
+      <c r="GE26" s="10"/>
+      <c r="GF26" s="10"/>
+      <c r="GG26" s="10"/>
+      <c r="GH26" s="10"/>
+      <c r="GI26" s="10"/>
+      <c r="GJ26" s="10"/>
+      <c r="GK26" s="10"/>
+      <c r="GL26" s="10"/>
+      <c r="GM26" s="10"/>
+      <c r="GN26" s="10"/>
+      <c r="GO26" s="10"/>
+      <c r="GP26" s="10"/>
+      <c r="GQ26" s="10"/>
+      <c r="GR26" s="10"/>
+      <c r="GS26" s="10"/>
+      <c r="GT26" s="10"/>
+      <c r="GU26" s="10"/>
+      <c r="GV26" s="10"/>
+      <c r="GW26" s="10"/>
+      <c r="GX26" s="10"/>
+      <c r="GY26" s="10"/>
+      <c r="GZ26" s="10"/>
+      <c r="HA26" s="10"/>
+      <c r="HB26" s="10"/>
+      <c r="HC26" s="10"/>
+      <c r="HD26" s="10"/>
+      <c r="HE26" s="10"/>
+      <c r="HF26" s="10"/>
+      <c r="HG26" s="10"/>
+      <c r="HH26" s="10"/>
+      <c r="HI26" s="10"/>
+      <c r="HJ26" s="10"/>
+      <c r="HK26" s="10"/>
+      <c r="HL26" s="10"/>
+      <c r="HM26" s="10"/>
+      <c r="HN26" s="10"/>
+      <c r="HO26" s="10"/>
+      <c r="HP26" s="10"/>
+      <c r="HQ26" s="10"/>
+      <c r="HR26" s="10"/>
+      <c r="HS26" s="10"/>
+      <c r="HT26" s="10"/>
+      <c r="HU26" s="10"/>
+      <c r="HV26" s="10"/>
+      <c r="HW26" s="10"/>
+      <c r="HX26" s="10"/>
+      <c r="HY26" s="10"/>
+      <c r="HZ26" s="10"/>
+      <c r="IA26" s="10"/>
+      <c r="IB26" s="10"/>
+      <c r="IC26" s="10"/>
+      <c r="ID26" s="10"/>
+      <c r="IE26" s="10"/>
+      <c r="IF26" s="10"/>
+      <c r="IG26" s="10"/>
+      <c r="IH26" s="10"/>
+      <c r="II26" s="10"/>
+      <c r="IJ26" s="10"/>
+      <c r="IK26" s="10"/>
+      <c r="IL26" s="10"/>
+      <c r="IM26" s="10"/>
+      <c r="IN26" s="10"/>
+      <c r="IO26" s="10"/>
+      <c r="IP26" s="10"/>
+      <c r="IQ26" s="10"/>
+      <c r="IR26" s="10"/>
+      <c r="IS26" s="10"/>
+      <c r="IT26" s="10"/>
+      <c r="IU26" s="10"/>
+      <c r="IV26" s="10"/>
+      <c r="IW26" s="10"/>
+      <c r="IX26" s="10"/>
+      <c r="IY26" s="10"/>
+      <c r="IZ26" s="10"/>
+      <c r="JA26" s="10"/>
+      <c r="JB26" s="10"/>
+      <c r="JC26" s="10"/>
+      <c r="JD26" s="10"/>
+      <c r="JE26" s="10"/>
+      <c r="JF26" s="10"/>
+      <c r="JG26" s="10"/>
+      <c r="JH26" s="10"/>
+      <c r="JI26" s="10"/>
+      <c r="JJ26" s="10"/>
+      <c r="JK26" s="10"/>
+      <c r="JL26" s="10"/>
+      <c r="JM26" s="10"/>
+      <c r="JN26" s="10"/>
+      <c r="JO26" s="10"/>
+      <c r="JP26" s="10"/>
+      <c r="JQ26" s="10"/>
+      <c r="JR26" s="10"/>
+      <c r="JS26" s="10"/>
+      <c r="JT26" s="10"/>
+      <c r="JU26" s="10"/>
+      <c r="JV26" s="10"/>
+      <c r="JW26" s="10"/>
+      <c r="JX26" s="10"/>
+      <c r="JY26" s="10"/>
+      <c r="JZ26" s="10"/>
+      <c r="KA26" s="10"/>
+      <c r="KB26" s="10"/>
+      <c r="KC26" s="10"/>
+      <c r="KD26" s="10"/>
+      <c r="KE26" s="10"/>
+      <c r="KF26" s="10"/>
+      <c r="KG26" s="10"/>
+      <c r="KH26" s="10"/>
+      <c r="KI26" s="10"/>
+      <c r="KJ26" s="10"/>
+      <c r="KK26" s="10"/>
+      <c r="KL26" s="10"/>
+      <c r="KM26" s="10"/>
+      <c r="KN26" s="10"/>
+      <c r="KO26" s="10"/>
+      <c r="KP26" s="10"/>
+      <c r="KQ26" s="10"/>
+      <c r="KR26" s="10"/>
+      <c r="KS26" s="10"/>
+      <c r="KT26" s="10"/>
+      <c r="KU26" s="10"/>
+      <c r="KV26" s="10"/>
+      <c r="KW26" s="10"/>
+      <c r="KX26" s="10"/>
+      <c r="KY26" s="10"/>
+      <c r="KZ26" s="10"/>
+      <c r="LA26" s="10"/>
+      <c r="LB26" s="10"/>
+      <c r="LC26" s="10"/>
+      <c r="LD26" s="10"/>
+      <c r="LE26" s="10"/>
+      <c r="LF26" s="10"/>
+      <c r="LG26" s="10"/>
+      <c r="LH26" s="10"/>
+      <c r="LI26" s="10"/>
+      <c r="LJ26" s="10"/>
+      <c r="LK26" s="10"/>
+      <c r="LL26" s="10"/>
+      <c r="LM26" s="10"/>
+      <c r="LN26" s="10"/>
+      <c r="LO26" s="10"/>
+      <c r="LP26" s="10"/>
+      <c r="LQ26" s="10"/>
+      <c r="LR26" s="10"/>
+      <c r="LS26" s="10"/>
+      <c r="LT26" s="10"/>
+      <c r="LU26" s="10"/>
+      <c r="LV26" s="10"/>
+      <c r="LW26" s="10"/>
+      <c r="LX26" s="10"/>
+      <c r="LY26" s="10"/>
+      <c r="LZ26" s="10"/>
+      <c r="MA26" s="10"/>
+      <c r="MB26" s="10"/>
+      <c r="MC26" s="10"/>
+      <c r="MD26" s="10"/>
+      <c r="ME26" s="10"/>
+      <c r="MF26" s="10"/>
+      <c r="MG26" s="10"/>
+      <c r="MH26" s="10"/>
+      <c r="MI26" s="10"/>
+      <c r="MJ26" s="10"/>
+      <c r="MK26" s="10"/>
+      <c r="ML26" s="10"/>
+      <c r="MM26" s="10"/>
+      <c r="MN26" s="10"/>
+      <c r="MO26" s="10"/>
+      <c r="MP26" s="10"/>
+      <c r="MQ26" s="10"/>
+      <c r="MR26" s="10"/>
+      <c r="MS26" s="10"/>
+      <c r="MT26" s="10"/>
+      <c r="MU26" s="10"/>
+      <c r="MV26" s="10"/>
+      <c r="MW26" s="10"/>
+      <c r="MX26" s="10"/>
+      <c r="MY26" s="10"/>
+      <c r="MZ26" s="10"/>
+      <c r="NA26" s="10"/>
+      <c r="NB26" s="10"/>
+      <c r="NC26" s="10"/>
+      <c r="ND26" s="10"/>
+      <c r="NE26" s="10"/>
+      <c r="NF26" s="10"/>
+      <c r="NG26" s="10"/>
+      <c r="NH26" s="10"/>
+      <c r="NI26" s="10"/>
+      <c r="NJ26" s="10"/>
+      <c r="NK26" s="10"/>
+      <c r="NL26" s="10"/>
+      <c r="NM26" s="10"/>
+      <c r="NN26" s="10"/>
+      <c r="NO26" s="10"/>
+      <c r="NP26" s="10"/>
+      <c r="NQ26" s="10"/>
+      <c r="NR26" s="10"/>
+      <c r="NS26" s="10"/>
+      <c r="NT26" s="10"/>
+      <c r="NU26" s="10"/>
+      <c r="NV26" s="10"/>
+      <c r="NW26" s="10"/>
+      <c r="NX26" s="10"/>
+      <c r="NY26" s="10"/>
+      <c r="NZ26" s="10"/>
+      <c r="OA26" s="10"/>
+      <c r="OB26" s="10"/>
+      <c r="OC26" s="10"/>
+      <c r="OD26" s="10"/>
+      <c r="OE26" s="10"/>
+      <c r="OF26" s="10"/>
+      <c r="OG26" s="10"/>
+      <c r="OH26" s="10"/>
+      <c r="OI26" s="10"/>
+      <c r="OJ26" s="10"/>
+      <c r="OK26" s="10"/>
+      <c r="OL26" s="10"/>
+      <c r="OM26" s="10"/>
+      <c r="ON26" s="10"/>
+      <c r="OO26" s="10"/>
+      <c r="OP26" s="10"/>
+      <c r="OQ26" s="10"/>
+      <c r="OR26" s="10"/>
+      <c r="OS26" s="10"/>
+      <c r="OT26" s="10"/>
+      <c r="OU26" s="10"/>
+      <c r="OV26" s="10"/>
+      <c r="OW26" s="10"/>
+      <c r="OX26" s="10"/>
+      <c r="OY26" s="10"/>
+      <c r="OZ26" s="10"/>
+      <c r="PA26" s="10"/>
+      <c r="PB26" s="10"/>
+      <c r="PC26" s="10"/>
+      <c r="PD26" s="10"/>
+      <c r="PE26" s="10"/>
+      <c r="PF26" s="10"/>
+      <c r="PG26" s="10"/>
+      <c r="PH26" s="10"/>
+      <c r="PI26" s="10"/>
+      <c r="PJ26" s="10"/>
+      <c r="PK26" s="10"/>
+      <c r="PL26" s="10"/>
+      <c r="PM26" s="10"/>
+      <c r="PN26" s="10"/>
+      <c r="PO26" s="10"/>
+      <c r="PP26" s="10"/>
+      <c r="PQ26" s="10"/>
+      <c r="PR26" s="10"/>
+      <c r="PS26" s="10"/>
+      <c r="PT26" s="10"/>
+      <c r="PU26" s="10"/>
+      <c r="PV26" s="10"/>
+      <c r="PW26" s="10"/>
+      <c r="PX26" s="10"/>
+      <c r="PY26" s="10"/>
+      <c r="PZ26" s="10"/>
+      <c r="QA26" s="10"/>
+      <c r="QB26" s="10"/>
+      <c r="QC26" s="10"/>
+      <c r="QD26" s="10"/>
+      <c r="QE26" s="10"/>
+      <c r="QF26" s="10"/>
+      <c r="QG26" s="10"/>
+      <c r="QH26" s="10"/>
+      <c r="QI26" s="10"/>
+      <c r="QJ26" s="10"/>
+      <c r="QK26" s="10"/>
+      <c r="QL26" s="10"/>
+      <c r="QM26" s="10"/>
+      <c r="QN26" s="10"/>
+      <c r="QO26" s="10"/>
+      <c r="QP26" s="10"/>
+      <c r="QQ26" s="10"/>
+      <c r="QR26" s="10"/>
+      <c r="QS26" s="10"/>
+      <c r="QT26" s="10"/>
+      <c r="QU26" s="10"/>
+      <c r="QV26" s="10"/>
+      <c r="QW26" s="10"/>
+      <c r="QX26" s="10"/>
+      <c r="QY26" s="10"/>
+      <c r="QZ26" s="10"/>
+      <c r="RA26" s="10"/>
+      <c r="RB26" s="10"/>
+      <c r="RC26" s="10"/>
+      <c r="RD26" s="10"/>
+      <c r="RE26" s="10"/>
+      <c r="RF26" s="10"/>
+      <c r="RG26" s="10"/>
+      <c r="RH26" s="10"/>
+      <c r="RI26" s="10"/>
+      <c r="RJ26" s="10"/>
+      <c r="RK26" s="10"/>
+      <c r="RL26" s="10"/>
+      <c r="RM26" s="10"/>
+      <c r="RN26" s="10"/>
+      <c r="RO26" s="10"/>
+      <c r="RP26" s="10"/>
+      <c r="RQ26" s="10"/>
+      <c r="RR26" s="10"/>
+      <c r="RS26" s="10"/>
+      <c r="RT26" s="10"/>
+      <c r="RU26" s="10"/>
+      <c r="RV26" s="10"/>
+      <c r="RW26" s="10"/>
+      <c r="RX26" s="10"/>
+      <c r="RY26" s="10"/>
+      <c r="RZ26" s="10"/>
+      <c r="SA26" s="10"/>
+      <c r="SB26" s="10"/>
+      <c r="SC26" s="10"/>
+      <c r="SD26" s="10"/>
+      <c r="SE26" s="10"/>
+      <c r="SF26" s="10"/>
+      <c r="SG26" s="10"/>
+      <c r="SH26" s="10"/>
+      <c r="SI26" s="10"/>
+      <c r="SJ26" s="10"/>
+      <c r="SK26" s="10"/>
+      <c r="SL26" s="10"/>
+      <c r="SM26" s="10"/>
+      <c r="SN26" s="10"/>
+      <c r="SO26" s="10"/>
+      <c r="SP26" s="10"/>
+      <c r="SQ26" s="10"/>
+      <c r="SR26" s="10"/>
+      <c r="SS26" s="10"/>
+      <c r="ST26" s="10"/>
+      <c r="SU26" s="10"/>
+      <c r="SV26" s="10"/>
+      <c r="SW26" s="10"/>
+      <c r="SX26" s="10"/>
+      <c r="SY26" s="10"/>
+      <c r="SZ26" s="10"/>
+      <c r="TA26" s="10"/>
+      <c r="TB26" s="10"/>
+      <c r="TC26" s="10"/>
+      <c r="TD26" s="10"/>
+      <c r="TE26" s="10"/>
+      <c r="TF26" s="10"/>
+      <c r="TG26" s="10"/>
+      <c r="TH26" s="10"/>
+      <c r="TI26" s="10"/>
+      <c r="TJ26" s="10"/>
+      <c r="TK26" s="10"/>
+      <c r="TL26" s="10"/>
+      <c r="TM26" s="10"/>
+      <c r="TN26" s="10"/>
+      <c r="TO26" s="10"/>
+      <c r="TP26" s="10"/>
+      <c r="TQ26" s="10"/>
+      <c r="TR26" s="10"/>
+      <c r="TS26" s="10"/>
+      <c r="TT26" s="10"/>
+      <c r="TU26" s="10"/>
+      <c r="TV26" s="10"/>
+      <c r="TW26" s="10"/>
+      <c r="TX26" s="10"/>
+      <c r="TY26" s="10"/>
+      <c r="TZ26" s="10"/>
+      <c r="UA26" s="10"/>
+      <c r="UB26" s="10"/>
+      <c r="UC26" s="10"/>
+      <c r="UD26" s="10"/>
+      <c r="UE26" s="10"/>
+      <c r="UF26" s="10"/>
+      <c r="UG26" s="10"/>
+      <c r="UH26" s="10"/>
+      <c r="UI26" s="10"/>
+      <c r="UJ26" s="10"/>
+      <c r="UK26" s="10"/>
+      <c r="UL26" s="10"/>
+      <c r="UM26" s="10"/>
+      <c r="UN26" s="10"/>
+      <c r="UO26" s="10"/>
+      <c r="UP26" s="10"/>
+      <c r="UQ26" s="10"/>
+      <c r="UR26" s="10"/>
+      <c r="US26" s="10"/>
+      <c r="UT26" s="10"/>
+      <c r="UU26" s="10"/>
+      <c r="UV26" s="10"/>
+      <c r="UW26" s="10"/>
+      <c r="UX26" s="10"/>
+      <c r="UY26" s="10"/>
+      <c r="UZ26" s="10"/>
+      <c r="VA26" s="10"/>
+      <c r="VB26" s="10"/>
+      <c r="VC26" s="10"/>
+      <c r="VD26" s="10"/>
+      <c r="VE26" s="10"/>
+      <c r="VF26" s="10"/>
+      <c r="VG26" s="10"/>
+      <c r="VH26" s="10"/>
+      <c r="VI26" s="10"/>
+      <c r="VJ26" s="10"/>
+      <c r="VK26" s="10"/>
+      <c r="VL26" s="10"/>
+      <c r="VM26" s="10"/>
+      <c r="VN26" s="10"/>
+      <c r="VO26" s="10"/>
+      <c r="VP26" s="10"/>
+      <c r="VQ26" s="10"/>
+      <c r="VR26" s="10"/>
+      <c r="VS26" s="10"/>
+      <c r="VT26" s="10"/>
+      <c r="VU26" s="10"/>
+      <c r="VV26" s="10"/>
+      <c r="VW26" s="10"/>
+      <c r="VX26" s="10"/>
+      <c r="VY26" s="10"/>
+      <c r="VZ26" s="10"/>
+      <c r="WA26" s="10"/>
+      <c r="WB26" s="10"/>
+      <c r="WC26" s="10"/>
+      <c r="WD26" s="10"/>
+      <c r="WE26" s="10"/>
+      <c r="WF26" s="10"/>
+      <c r="WG26" s="10"/>
+      <c r="WH26" s="10"/>
+      <c r="WI26" s="10"/>
+      <c r="WJ26" s="10"/>
+      <c r="WK26" s="10"/>
+      <c r="WL26" s="10"/>
+      <c r="WM26" s="10"/>
+      <c r="WN26" s="10"/>
+      <c r="WO26" s="10"/>
+      <c r="WP26" s="10"/>
+      <c r="WQ26" s="10"/>
+      <c r="WR26" s="10"/>
+      <c r="WS26" s="10"/>
+      <c r="WT26" s="10"/>
+      <c r="WU26" s="10"/>
+      <c r="WV26" s="10"/>
+      <c r="WW26" s="10"/>
+      <c r="WX26" s="10"/>
+      <c r="WY26" s="10"/>
+      <c r="WZ26" s="10"/>
+      <c r="XA26" s="10"/>
+      <c r="XB26" s="10"/>
+      <c r="XC26" s="10"/>
+      <c r="XD26" s="10"/>
+      <c r="XE26" s="10"/>
+      <c r="XF26" s="10"/>
+      <c r="XG26" s="10"/>
+      <c r="XH26" s="10"/>
+      <c r="XI26" s="10"/>
+      <c r="XJ26" s="10"/>
+      <c r="XK26" s="10"/>
+      <c r="XL26" s="10"/>
+      <c r="XM26" s="10"/>
+      <c r="XN26" s="10"/>
+      <c r="XO26" s="10"/>
+      <c r="XP26" s="10"/>
+      <c r="XQ26" s="10"/>
+      <c r="XR26" s="10"/>
+      <c r="XS26" s="10"/>
+      <c r="XT26" s="10"/>
+      <c r="XU26" s="10"/>
+      <c r="XV26" s="10"/>
+      <c r="XW26" s="10"/>
+      <c r="XX26" s="10"/>
+      <c r="XY26" s="10"/>
+      <c r="XZ26" s="10"/>
+      <c r="YA26" s="10"/>
+      <c r="YB26" s="10"/>
+      <c r="YC26" s="10"/>
+      <c r="YD26" s="10"/>
+      <c r="YE26" s="10"/>
+      <c r="YF26" s="10"/>
+      <c r="YG26" s="10"/>
+      <c r="YH26" s="10"/>
+      <c r="YI26" s="10"/>
+      <c r="YJ26" s="10"/>
+      <c r="YK26" s="10"/>
+      <c r="YL26" s="10"/>
+      <c r="YM26" s="10"/>
+      <c r="YN26" s="10"/>
+      <c r="YO26" s="10"/>
+      <c r="YP26" s="10"/>
+      <c r="YQ26" s="10"/>
+      <c r="YR26" s="10"/>
+      <c r="YS26" s="10"/>
+      <c r="YT26" s="10"/>
+      <c r="YU26" s="10"/>
+      <c r="YV26" s="10"/>
+      <c r="YW26" s="10"/>
+      <c r="YX26" s="10"/>
+      <c r="YY26" s="10"/>
+      <c r="YZ26" s="10"/>
+      <c r="ZA26" s="10"/>
+      <c r="ZB26" s="10"/>
+      <c r="ZC26" s="10"/>
+      <c r="ZD26" s="10"/>
+      <c r="ZE26" s="10"/>
+      <c r="ZF26" s="10"/>
+      <c r="ZG26" s="10"/>
+      <c r="ZH26" s="10"/>
+      <c r="ZI26" s="10"/>
+      <c r="ZJ26" s="10"/>
+      <c r="ZK26" s="10"/>
+      <c r="ZL26" s="10"/>
+      <c r="ZM26" s="10"/>
+      <c r="ZN26" s="10"/>
+      <c r="ZO26" s="10"/>
+      <c r="ZP26" s="10"/>
+      <c r="ZQ26" s="10"/>
+      <c r="ZR26" s="10"/>
+      <c r="ZS26" s="10"/>
+      <c r="ZT26" s="10"/>
+      <c r="ZU26" s="10"/>
+      <c r="ZV26" s="10"/>
+      <c r="ZW26" s="10"/>
+      <c r="ZX26" s="10"/>
+      <c r="ZY26" s="10"/>
+      <c r="ZZ26" s="10"/>
+      <c r="AAA26" s="10"/>
+      <c r="AAB26" s="10"/>
+      <c r="AAC26" s="10"/>
+      <c r="AAD26" s="10"/>
+      <c r="AAE26" s="10"/>
+      <c r="AAF26" s="10"/>
+      <c r="AAG26" s="10"/>
+      <c r="AAH26" s="10"/>
+      <c r="AAI26" s="10"/>
+      <c r="AAJ26" s="10"/>
+      <c r="AAK26" s="10"/>
+      <c r="AAL26" s="10"/>
+      <c r="AAM26" s="10"/>
+      <c r="AAN26" s="10"/>
+      <c r="AAO26" s="10"/>
+      <c r="AAP26" s="10"/>
+      <c r="AAQ26" s="10"/>
+      <c r="AAR26" s="10"/>
+      <c r="AAS26" s="10"/>
+      <c r="AAT26" s="10"/>
+      <c r="AAU26" s="10"/>
+      <c r="AAV26" s="10"/>
+      <c r="AAW26" s="10"/>
+      <c r="AAX26" s="10"/>
+      <c r="AAY26" s="10"/>
+      <c r="AAZ26" s="10"/>
+      <c r="ABA26" s="10"/>
+      <c r="ABB26" s="10"/>
+      <c r="ABC26" s="10"/>
+      <c r="ABD26" s="10"/>
+      <c r="ABE26" s="10"/>
+      <c r="ABF26" s="10"/>
+      <c r="ABG26" s="10"/>
+      <c r="ABH26" s="10"/>
+      <c r="ABI26" s="10"/>
+      <c r="ABJ26" s="10"/>
+      <c r="ABK26" s="10"/>
+      <c r="ABL26" s="10"/>
+      <c r="ABM26" s="10"/>
+      <c r="ABN26" s="10"/>
+      <c r="ABO26" s="10"/>
+      <c r="ABP26" s="10"/>
+      <c r="ABQ26" s="10"/>
+      <c r="ABR26" s="10"/>
+      <c r="ABS26" s="10"/>
+      <c r="ABT26" s="10"/>
+      <c r="ABU26" s="10"/>
+      <c r="ABV26" s="10"/>
+      <c r="ABW26" s="10"/>
+      <c r="ABX26" s="10"/>
+      <c r="ABY26" s="10"/>
+      <c r="ABZ26" s="10"/>
+      <c r="ACA26" s="10"/>
+      <c r="ACB26" s="10"/>
+      <c r="ACC26" s="10"/>
+      <c r="ACD26" s="10"/>
+      <c r="ACE26" s="10"/>
+      <c r="ACF26" s="10"/>
+      <c r="ACG26" s="10"/>
+      <c r="ACH26" s="10"/>
+      <c r="ACI26" s="10"/>
+      <c r="ACJ26" s="10"/>
+      <c r="ACK26" s="10"/>
+      <c r="ACL26" s="10"/>
+      <c r="ACM26" s="10"/>
+      <c r="ACN26" s="10"/>
+      <c r="ACO26" s="10"/>
+      <c r="ACP26" s="10"/>
+      <c r="ACQ26" s="10"/>
+      <c r="ACR26" s="10"/>
+      <c r="ACS26" s="10"/>
+      <c r="ACT26" s="10"/>
+      <c r="ACU26" s="10"/>
+      <c r="ACV26" s="10"/>
+      <c r="ACW26" s="10"/>
+      <c r="ACX26" s="10"/>
+      <c r="ACY26" s="10"/>
+      <c r="ACZ26" s="10"/>
+      <c r="ADA26" s="10"/>
+      <c r="ADB26" s="10"/>
+      <c r="ADC26" s="10"/>
+      <c r="ADD26" s="10"/>
+      <c r="ADE26" s="10"/>
+      <c r="ADF26" s="10"/>
+      <c r="ADG26" s="10"/>
+      <c r="ADH26" s="10"/>
+      <c r="ADI26" s="10"/>
+      <c r="ADJ26" s="10"/>
+      <c r="ADK26" s="10"/>
+      <c r="ADL26" s="10"/>
+      <c r="ADM26" s="10"/>
+      <c r="ADN26" s="10"/>
+      <c r="ADO26" s="10"/>
+      <c r="ADP26" s="10"/>
+      <c r="ADQ26" s="10"/>
+      <c r="ADR26" s="10"/>
+      <c r="ADS26" s="10"/>
+      <c r="ADT26" s="10"/>
+      <c r="ADU26" s="10"/>
+      <c r="ADV26" s="10"/>
+      <c r="ADW26" s="10"/>
+      <c r="ADX26" s="10"/>
+      <c r="ADY26" s="10"/>
+      <c r="ADZ26" s="10"/>
+      <c r="AEA26" s="10"/>
+      <c r="AEB26" s="10"/>
+      <c r="AEC26" s="10"/>
+      <c r="AED26" s="10"/>
+      <c r="AEE26" s="10"/>
+      <c r="AEF26" s="10"/>
+      <c r="AEG26" s="10"/>
+      <c r="AEH26" s="10"/>
+      <c r="AEI26" s="10"/>
+      <c r="AEJ26" s="10"/>
+      <c r="AEK26" s="10"/>
+      <c r="AEL26" s="10"/>
+      <c r="AEM26" s="10"/>
+      <c r="AEN26" s="10"/>
+      <c r="AEO26" s="10"/>
+      <c r="AEP26" s="10"/>
+      <c r="AEQ26" s="10"/>
+      <c r="AER26" s="10"/>
+      <c r="AES26" s="10"/>
+      <c r="AET26" s="10"/>
+      <c r="AEU26" s="10"/>
+      <c r="AEV26" s="10"/>
+      <c r="AEW26" s="10"/>
+      <c r="AEX26" s="10"/>
+      <c r="AEY26" s="10"/>
+      <c r="AEZ26" s="10"/>
+      <c r="AFA26" s="10"/>
+      <c r="AFB26" s="10"/>
+      <c r="AFC26" s="10"/>
+      <c r="AFD26" s="10"/>
+      <c r="AFE26" s="10"/>
+      <c r="AFF26" s="10"/>
+      <c r="AFG26" s="10"/>
+      <c r="AFH26" s="10"/>
+      <c r="AFI26" s="10"/>
+      <c r="AFJ26" s="10"/>
+      <c r="AFK26" s="10"/>
+      <c r="AFL26" s="10"/>
+      <c r="AFM26" s="10"/>
+      <c r="AFN26" s="10"/>
+      <c r="AFO26" s="10"/>
+      <c r="AFP26" s="10"/>
+      <c r="AFQ26" s="10"/>
+      <c r="AFR26" s="10"/>
+      <c r="AFS26" s="10"/>
+      <c r="AFT26" s="10"/>
+      <c r="AFU26" s="10"/>
+      <c r="AFV26" s="10"/>
+      <c r="AFW26" s="10"/>
+      <c r="AFX26" s="10"/>
+      <c r="AFY26" s="10"/>
+      <c r="AFZ26" s="10"/>
+      <c r="AGA26" s="10"/>
+      <c r="AGB26" s="10"/>
+      <c r="AGC26" s="10"/>
+      <c r="AGD26" s="10"/>
+      <c r="AGE26" s="10"/>
+      <c r="AGF26" s="10"/>
+      <c r="AGG26" s="10"/>
+      <c r="AGH26" s="10"/>
+      <c r="AGI26" s="10"/>
+      <c r="AGJ26" s="10"/>
+      <c r="AGK26" s="10"/>
+      <c r="AGL26" s="10"/>
+      <c r="AGM26" s="10"/>
+      <c r="AGN26" s="10"/>
+      <c r="AGO26" s="10"/>
+      <c r="AGP26" s="10"/>
+      <c r="AGQ26" s="10"/>
+      <c r="AGR26" s="10"/>
+      <c r="AGS26" s="10"/>
+      <c r="AGT26" s="10"/>
+      <c r="AGU26" s="10"/>
+      <c r="AGV26" s="10"/>
+      <c r="AGW26" s="10"/>
+      <c r="AGX26" s="10"/>
+      <c r="AGY26" s="10"/>
+      <c r="AGZ26" s="10"/>
+      <c r="AHA26" s="10"/>
+      <c r="AHB26" s="10"/>
+      <c r="AHC26" s="10"/>
+      <c r="AHD26" s="10"/>
+      <c r="AHE26" s="10"/>
+      <c r="AHF26" s="10"/>
+      <c r="AHG26" s="10"/>
+      <c r="AHH26" s="10"/>
+      <c r="AHI26" s="10"/>
+      <c r="AHJ26" s="10"/>
+      <c r="AHK26" s="10"/>
+      <c r="AHL26" s="10"/>
+      <c r="AHM26" s="10"/>
+      <c r="AHN26" s="10"/>
+      <c r="AHO26" s="10"/>
+      <c r="AHP26" s="10"/>
+      <c r="AHQ26" s="10"/>
+      <c r="AHR26" s="10"/>
+      <c r="AHS26" s="10"/>
+      <c r="AHT26" s="10"/>
+      <c r="AHU26" s="10"/>
+      <c r="AHV26" s="10"/>
+      <c r="AHW26" s="10"/>
+      <c r="AHX26" s="10"/>
+      <c r="AHY26" s="10"/>
+      <c r="AHZ26" s="10"/>
+      <c r="AIA26" s="10"/>
+      <c r="AIB26" s="10"/>
+      <c r="AIC26" s="10"/>
+      <c r="AID26" s="10"/>
+      <c r="AIE26" s="10"/>
+      <c r="AIF26" s="10"/>
+      <c r="AIG26" s="10"/>
+      <c r="AIH26" s="10"/>
+      <c r="AII26" s="10"/>
+      <c r="AIJ26" s="10"/>
+      <c r="AIK26" s="10"/>
+      <c r="AIL26" s="10"/>
+      <c r="AIM26" s="10"/>
+      <c r="AIN26" s="10"/>
+      <c r="AIO26" s="10"/>
+      <c r="AIP26" s="10"/>
+      <c r="AIQ26" s="10"/>
+      <c r="AIR26" s="10"/>
+      <c r="AIS26" s="10"/>
+      <c r="AIT26" s="10"/>
+      <c r="AIU26" s="10"/>
+      <c r="AIV26" s="10"/>
+      <c r="AIW26" s="10"/>
+      <c r="AIX26" s="10"/>
+      <c r="AIY26" s="10"/>
+      <c r="AIZ26" s="10"/>
+      <c r="AJA26" s="10"/>
+      <c r="AJB26" s="10"/>
+      <c r="AJC26" s="10"/>
+      <c r="AJD26" s="10"/>
+      <c r="AJE26" s="10"/>
+      <c r="AJF26" s="10"/>
+      <c r="AJG26" s="10"/>
+      <c r="AJH26" s="10"/>
+      <c r="AJI26" s="10"/>
+      <c r="AJJ26" s="10"/>
+      <c r="AJK26" s="10"/>
+      <c r="AJL26" s="10"/>
+      <c r="AJM26" s="10"/>
+      <c r="AJN26" s="10"/>
+      <c r="AJO26" s="10"/>
+      <c r="AJP26" s="10"/>
+      <c r="AJQ26" s="10"/>
+      <c r="AJR26" s="10"/>
+      <c r="AJS26" s="10"/>
+      <c r="AJT26" s="10"/>
+      <c r="AJU26" s="10"/>
+      <c r="AJV26" s="10"/>
+      <c r="AJW26" s="10"/>
+      <c r="AJX26" s="10"/>
+      <c r="AJY26" s="10"/>
+      <c r="AJZ26" s="10"/>
+      <c r="AKA26" s="10"/>
+      <c r="AKB26" s="10"/>
+      <c r="AKC26" s="10"/>
+      <c r="AKD26" s="10"/>
+      <c r="AKE26" s="10"/>
+      <c r="AKF26" s="10"/>
+      <c r="AKG26" s="10"/>
+      <c r="AKH26" s="10"/>
+      <c r="AKI26" s="10"/>
+      <c r="AKJ26" s="10"/>
+      <c r="AKK26" s="10"/>
+      <c r="AKL26" s="10"/>
+      <c r="AKM26" s="10"/>
+      <c r="AKN26" s="10"/>
+      <c r="AKO26" s="10"/>
+      <c r="AKP26" s="10"/>
+      <c r="AKQ26" s="10"/>
+      <c r="AKR26" s="10"/>
+      <c r="AKS26" s="10"/>
+      <c r="AKT26" s="10"/>
+      <c r="AKU26" s="10"/>
+      <c r="AKV26" s="10"/>
+      <c r="AKW26" s="10"/>
+      <c r="AKX26" s="10"/>
+      <c r="AKY26" s="10"/>
+      <c r="AKZ26" s="10"/>
+      <c r="ALA26" s="10"/>
+      <c r="ALB26" s="10"/>
+      <c r="ALC26" s="10"/>
+      <c r="ALD26" s="10"/>
+      <c r="ALE26" s="10"/>
+      <c r="ALF26" s="10"/>
+      <c r="ALG26" s="10"/>
+      <c r="ALH26" s="10"/>
+      <c r="ALI26" s="10"/>
+      <c r="ALJ26" s="10"/>
+      <c r="ALK26" s="10"/>
+      <c r="ALL26" s="10"/>
+      <c r="ALM26" s="10"/>
+      <c r="ALN26" s="10"/>
+      <c r="ALO26" s="10"/>
+      <c r="ALP26" s="10"/>
+      <c r="ALQ26" s="10"/>
+      <c r="ALR26" s="10"/>
+      <c r="ALS26" s="10"/>
+      <c r="ALT26" s="10"/>
+      <c r="ALU26" s="10"/>
+      <c r="ALV26" s="10"/>
+      <c r="ALW26" s="10"/>
+      <c r="ALX26" s="10"/>
+      <c r="ALY26" s="10"/>
+      <c r="ALZ26" s="10"/>
+      <c r="AMA26" s="10"/>
+      <c r="AMB26" s="10"/>
+      <c r="AMC26" s="10"/>
+      <c r="AMD26" s="10"/>
+      <c r="AME26" s="10"/>
+      <c r="AMF26" s="10"/>
+      <c r="AMG26" s="10"/>
+      <c r="AMH26" s="10"/>
+      <c r="AMI26" s="10"/>
+      <c r="AMJ26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="37.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="11" t="s">
+    <row r="27" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
-      <c r="AH27" s="11"/>
-      <c r="AI27" s="11"/>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="11"/>
-      <c r="AL27" s="11"/>
-      <c r="AM27" s="11"/>
-      <c r="AN27" s="11"/>
-      <c r="AO27" s="11"/>
-      <c r="AP27" s="11"/>
-      <c r="AQ27" s="11"/>
-      <c r="AR27" s="11"/>
-      <c r="AS27" s="11"/>
-      <c r="AT27" s="11"/>
-      <c r="AU27" s="11"/>
-      <c r="AV27" s="11"/>
-      <c r="AW27" s="11"/>
-      <c r="AX27" s="11"/>
-      <c r="AY27" s="11"/>
-      <c r="AZ27" s="11"/>
-      <c r="BA27" s="11"/>
-      <c r="BB27" s="11"/>
-      <c r="BC27" s="11"/>
-      <c r="BD27" s="11"/>
-      <c r="BE27" s="11"/>
-      <c r="BF27" s="11"/>
-      <c r="BG27" s="11"/>
-      <c r="BH27" s="11"/>
-      <c r="BI27" s="11"/>
-      <c r="BJ27" s="11"/>
-      <c r="BK27" s="11"/>
-      <c r="BL27" s="11"/>
-      <c r="BM27" s="11"/>
-      <c r="BN27" s="11"/>
-      <c r="BO27" s="11"/>
-      <c r="BP27" s="11"/>
-      <c r="BQ27" s="11"/>
-      <c r="BR27" s="11"/>
-      <c r="BS27" s="11"/>
-      <c r="BT27" s="11"/>
-      <c r="BU27" s="11"/>
-      <c r="BV27" s="11"/>
-      <c r="BW27" s="11"/>
-      <c r="BX27" s="11"/>
-      <c r="BY27" s="11"/>
-      <c r="BZ27" s="11"/>
-      <c r="CA27" s="11"/>
-      <c r="CB27" s="11"/>
-      <c r="CC27" s="11"/>
-      <c r="CD27" s="11"/>
-      <c r="CE27" s="11"/>
-      <c r="CF27" s="11"/>
-      <c r="CG27" s="11"/>
-      <c r="CH27" s="11"/>
-      <c r="CI27" s="11"/>
-      <c r="CJ27" s="11"/>
-      <c r="CK27" s="11"/>
-      <c r="CL27" s="11"/>
-      <c r="CM27" s="11"/>
-      <c r="CN27" s="11"/>
-      <c r="CO27" s="11"/>
-      <c r="CP27" s="11"/>
-      <c r="CQ27" s="11"/>
-      <c r="CR27" s="11"/>
-      <c r="CS27" s="11"/>
-      <c r="CT27" s="11"/>
-      <c r="CU27" s="11"/>
-      <c r="CV27" s="11"/>
-      <c r="CW27" s="11"/>
-      <c r="CX27" s="11"/>
-      <c r="CY27" s="11"/>
-      <c r="CZ27" s="11"/>
-      <c r="DA27" s="11"/>
-      <c r="DB27" s="11"/>
-      <c r="DC27" s="11"/>
-      <c r="DD27" s="11"/>
-      <c r="DE27" s="11"/>
-      <c r="DF27" s="11"/>
-      <c r="DG27" s="11"/>
-      <c r="DH27" s="11"/>
-      <c r="DI27" s="11"/>
-      <c r="DJ27" s="11"/>
-      <c r="DK27" s="11"/>
-      <c r="DL27" s="11"/>
-      <c r="DM27" s="11"/>
-      <c r="DN27" s="11"/>
-      <c r="DO27" s="11"/>
-      <c r="DP27" s="11"/>
-      <c r="DQ27" s="11"/>
-      <c r="DR27" s="11"/>
-      <c r="DS27" s="11"/>
-      <c r="DT27" s="11"/>
-      <c r="DU27" s="11"/>
-      <c r="DV27" s="11"/>
-      <c r="DW27" s="11"/>
-      <c r="DX27" s="11"/>
-      <c r="DY27" s="11"/>
-      <c r="DZ27" s="11"/>
-      <c r="EA27" s="11"/>
-      <c r="EB27" s="11"/>
-      <c r="EC27" s="11"/>
-      <c r="ED27" s="11"/>
-      <c r="EE27" s="11"/>
-      <c r="EF27" s="11"/>
-      <c r="EG27" s="11"/>
-      <c r="EH27" s="11"/>
-      <c r="EI27" s="11"/>
-      <c r="EJ27" s="11"/>
-      <c r="EK27" s="11"/>
-      <c r="EL27" s="11"/>
-      <c r="EM27" s="11"/>
-      <c r="EN27" s="11"/>
-      <c r="EO27" s="11"/>
-      <c r="EP27" s="11"/>
-      <c r="EQ27" s="11"/>
-      <c r="ER27" s="11"/>
-      <c r="ES27" s="11"/>
-      <c r="ET27" s="11"/>
-      <c r="EU27" s="11"/>
-      <c r="EV27" s="11"/>
-      <c r="EW27" s="11"/>
-      <c r="EX27" s="11"/>
-      <c r="EY27" s="11"/>
-      <c r="EZ27" s="11"/>
-      <c r="FA27" s="11"/>
-      <c r="FB27" s="11"/>
-      <c r="FC27" s="11"/>
-      <c r="FD27" s="11"/>
-      <c r="FE27" s="11"/>
-      <c r="FF27" s="11"/>
-      <c r="FG27" s="11"/>
-      <c r="FH27" s="11"/>
-      <c r="FI27" s="11"/>
-      <c r="FJ27" s="11"/>
-      <c r="FK27" s="11"/>
-      <c r="FL27" s="11"/>
-      <c r="FM27" s="11"/>
-      <c r="FN27" s="11"/>
-      <c r="FO27" s="11"/>
-      <c r="FP27" s="11"/>
-      <c r="FQ27" s="11"/>
-      <c r="FR27" s="11"/>
-      <c r="FS27" s="11"/>
-      <c r="FT27" s="11"/>
-      <c r="FU27" s="11"/>
-      <c r="FV27" s="11"/>
-      <c r="FW27" s="11"/>
-      <c r="FX27" s="11"/>
-      <c r="FY27" s="11"/>
-      <c r="FZ27" s="11"/>
-      <c r="GA27" s="11"/>
-      <c r="GB27" s="11"/>
-      <c r="GC27" s="11"/>
-      <c r="GD27" s="11"/>
-      <c r="GE27" s="11"/>
-      <c r="GF27" s="11"/>
-      <c r="GG27" s="11"/>
-      <c r="GH27" s="11"/>
-      <c r="GI27" s="11"/>
-      <c r="GJ27" s="11"/>
-      <c r="GK27" s="11"/>
-      <c r="GL27" s="11"/>
-      <c r="GM27" s="11"/>
-      <c r="GN27" s="11"/>
-      <c r="GO27" s="11"/>
-      <c r="GP27" s="11"/>
-      <c r="GQ27" s="11"/>
-      <c r="GR27" s="11"/>
-      <c r="GS27" s="11"/>
-      <c r="GT27" s="11"/>
-      <c r="GU27" s="11"/>
-      <c r="GV27" s="11"/>
-      <c r="GW27" s="11"/>
-      <c r="GX27" s="11"/>
-      <c r="GY27" s="11"/>
-      <c r="GZ27" s="11"/>
-      <c r="HA27" s="11"/>
-      <c r="HB27" s="11"/>
-      <c r="HC27" s="11"/>
-      <c r="HD27" s="11"/>
-      <c r="HE27" s="11"/>
-      <c r="HF27" s="11"/>
-      <c r="HG27" s="11"/>
-      <c r="HH27" s="11"/>
-      <c r="HI27" s="11"/>
-      <c r="HJ27" s="11"/>
-      <c r="HK27" s="11"/>
-      <c r="HL27" s="11"/>
-      <c r="HM27" s="11"/>
-      <c r="HN27" s="11"/>
-      <c r="HO27" s="11"/>
-      <c r="HP27" s="11"/>
-      <c r="HQ27" s="11"/>
-      <c r="HR27" s="11"/>
-      <c r="HS27" s="11"/>
-      <c r="HT27" s="11"/>
-      <c r="HU27" s="11"/>
-      <c r="HV27" s="11"/>
-      <c r="HW27" s="11"/>
-      <c r="HX27" s="11"/>
-      <c r="HY27" s="11"/>
-      <c r="HZ27" s="11"/>
-      <c r="IA27" s="11"/>
-      <c r="IB27" s="11"/>
-      <c r="IC27" s="11"/>
-      <c r="ID27" s="11"/>
-      <c r="IE27" s="11"/>
-      <c r="IF27" s="11"/>
-      <c r="IG27" s="11"/>
-      <c r="IH27" s="11"/>
-      <c r="II27" s="11"/>
-      <c r="IJ27" s="11"/>
-      <c r="IK27" s="11"/>
-      <c r="IL27" s="11"/>
-      <c r="IM27" s="11"/>
-      <c r="IN27" s="11"/>
-      <c r="IO27" s="11"/>
-      <c r="IP27" s="11"/>
-      <c r="IQ27" s="11"/>
-      <c r="IR27" s="11"/>
-      <c r="IS27" s="11"/>
-      <c r="IT27" s="11"/>
-      <c r="IU27" s="11"/>
-      <c r="IV27" s="11"/>
-      <c r="IW27" s="11"/>
-      <c r="IX27" s="11"/>
-      <c r="IY27" s="11"/>
-      <c r="IZ27" s="11"/>
-      <c r="JA27" s="11"/>
-      <c r="JB27" s="11"/>
-      <c r="JC27" s="11"/>
-      <c r="JD27" s="11"/>
-      <c r="JE27" s="11"/>
-      <c r="JF27" s="11"/>
-      <c r="JG27" s="11"/>
-      <c r="JH27" s="11"/>
-      <c r="JI27" s="11"/>
-      <c r="JJ27" s="11"/>
-      <c r="JK27" s="11"/>
-      <c r="JL27" s="11"/>
-      <c r="JM27" s="11"/>
-      <c r="JN27" s="11"/>
-      <c r="JO27" s="11"/>
-      <c r="JP27" s="11"/>
-      <c r="JQ27" s="11"/>
-      <c r="JR27" s="11"/>
-      <c r="JS27" s="11"/>
-      <c r="JT27" s="11"/>
-      <c r="JU27" s="11"/>
-      <c r="JV27" s="11"/>
-      <c r="JW27" s="11"/>
-      <c r="JX27" s="11"/>
-      <c r="JY27" s="11"/>
-      <c r="JZ27" s="11"/>
-      <c r="KA27" s="11"/>
-      <c r="KB27" s="11"/>
-      <c r="KC27" s="11"/>
-      <c r="KD27" s="11"/>
-      <c r="KE27" s="11"/>
-      <c r="KF27" s="11"/>
-      <c r="KG27" s="11"/>
-      <c r="KH27" s="11"/>
-      <c r="KI27" s="11"/>
-      <c r="KJ27" s="11"/>
-      <c r="KK27" s="11"/>
-      <c r="KL27" s="11"/>
-      <c r="KM27" s="11"/>
-      <c r="KN27" s="11"/>
-      <c r="KO27" s="11"/>
-      <c r="KP27" s="11"/>
-      <c r="KQ27" s="11"/>
-      <c r="KR27" s="11"/>
-      <c r="KS27" s="11"/>
-      <c r="KT27" s="11"/>
-      <c r="KU27" s="11"/>
-      <c r="KV27" s="11"/>
-      <c r="KW27" s="11"/>
-      <c r="KX27" s="11"/>
-      <c r="KY27" s="11"/>
-      <c r="KZ27" s="11"/>
-      <c r="LA27" s="11"/>
-      <c r="LB27" s="11"/>
-      <c r="LC27" s="11"/>
-      <c r="LD27" s="11"/>
-      <c r="LE27" s="11"/>
-      <c r="LF27" s="11"/>
-      <c r="LG27" s="11"/>
-      <c r="LH27" s="11"/>
-      <c r="LI27" s="11"/>
-      <c r="LJ27" s="11"/>
-      <c r="LK27" s="11"/>
-      <c r="LL27" s="11"/>
-      <c r="LM27" s="11"/>
-      <c r="LN27" s="11"/>
-      <c r="LO27" s="11"/>
-      <c r="LP27" s="11"/>
-      <c r="LQ27" s="11"/>
-      <c r="LR27" s="11"/>
-      <c r="LS27" s="11"/>
-      <c r="LT27" s="11"/>
-      <c r="LU27" s="11"/>
-      <c r="LV27" s="11"/>
-      <c r="LW27" s="11"/>
-      <c r="LX27" s="11"/>
-      <c r="LY27" s="11"/>
-      <c r="LZ27" s="11"/>
-      <c r="MA27" s="11"/>
-      <c r="MB27" s="11"/>
-      <c r="MC27" s="11"/>
-      <c r="MD27" s="11"/>
-      <c r="ME27" s="11"/>
-      <c r="MF27" s="11"/>
-      <c r="MG27" s="11"/>
-      <c r="MH27" s="11"/>
-      <c r="MI27" s="11"/>
-      <c r="MJ27" s="11"/>
-      <c r="MK27" s="11"/>
-      <c r="ML27" s="11"/>
-      <c r="MM27" s="11"/>
-      <c r="MN27" s="11"/>
-      <c r="MO27" s="11"/>
-      <c r="MP27" s="11"/>
-      <c r="MQ27" s="11"/>
-      <c r="MR27" s="11"/>
-      <c r="MS27" s="11"/>
-      <c r="MT27" s="11"/>
-      <c r="MU27" s="11"/>
-      <c r="MV27" s="11"/>
-      <c r="MW27" s="11"/>
-      <c r="MX27" s="11"/>
-      <c r="MY27" s="11"/>
-      <c r="MZ27" s="11"/>
-      <c r="NA27" s="11"/>
-      <c r="NB27" s="11"/>
-      <c r="NC27" s="11"/>
-      <c r="ND27" s="11"/>
-      <c r="NE27" s="11"/>
-      <c r="NF27" s="11"/>
-      <c r="NG27" s="11"/>
-      <c r="NH27" s="11"/>
-      <c r="NI27" s="11"/>
-      <c r="NJ27" s="11"/>
-      <c r="NK27" s="11"/>
-      <c r="NL27" s="11"/>
-      <c r="NM27" s="11"/>
-      <c r="NN27" s="11"/>
-      <c r="NO27" s="11"/>
-      <c r="NP27" s="11"/>
-      <c r="NQ27" s="11"/>
-      <c r="NR27" s="11"/>
-      <c r="NS27" s="11"/>
-      <c r="NT27" s="11"/>
-      <c r="NU27" s="11"/>
-      <c r="NV27" s="11"/>
-      <c r="NW27" s="11"/>
-      <c r="NX27" s="11"/>
-      <c r="NY27" s="11"/>
-      <c r="NZ27" s="11"/>
-      <c r="OA27" s="11"/>
-      <c r="OB27" s="11"/>
-      <c r="OC27" s="11"/>
-      <c r="OD27" s="11"/>
-      <c r="OE27" s="11"/>
-      <c r="OF27" s="11"/>
-      <c r="OG27" s="11"/>
-      <c r="OH27" s="11"/>
-      <c r="OI27" s="11"/>
-      <c r="OJ27" s="11"/>
-      <c r="OK27" s="11"/>
-      <c r="OL27" s="11"/>
-      <c r="OM27" s="11"/>
-      <c r="ON27" s="11"/>
-      <c r="OO27" s="11"/>
-      <c r="OP27" s="11"/>
-      <c r="OQ27" s="11"/>
-      <c r="OR27" s="11"/>
-      <c r="OS27" s="11"/>
-      <c r="OT27" s="11"/>
-      <c r="OU27" s="11"/>
-      <c r="OV27" s="11"/>
-      <c r="OW27" s="11"/>
-      <c r="OX27" s="11"/>
-      <c r="OY27" s="11"/>
-      <c r="OZ27" s="11"/>
-      <c r="PA27" s="11"/>
-      <c r="PB27" s="11"/>
-      <c r="PC27" s="11"/>
-      <c r="PD27" s="11"/>
-      <c r="PE27" s="11"/>
-      <c r="PF27" s="11"/>
-      <c r="PG27" s="11"/>
-      <c r="PH27" s="11"/>
-      <c r="PI27" s="11"/>
-      <c r="PJ27" s="11"/>
-      <c r="PK27" s="11"/>
-      <c r="PL27" s="11"/>
-      <c r="PM27" s="11"/>
-      <c r="PN27" s="11"/>
-      <c r="PO27" s="11"/>
-      <c r="PP27" s="11"/>
-      <c r="PQ27" s="11"/>
-      <c r="PR27" s="11"/>
-      <c r="PS27" s="11"/>
-      <c r="PT27" s="11"/>
-      <c r="PU27" s="11"/>
-      <c r="PV27" s="11"/>
-      <c r="PW27" s="11"/>
-      <c r="PX27" s="11"/>
-      <c r="PY27" s="11"/>
-      <c r="PZ27" s="11"/>
-      <c r="QA27" s="11"/>
-      <c r="QB27" s="11"/>
-      <c r="QC27" s="11"/>
-      <c r="QD27" s="11"/>
-      <c r="QE27" s="11"/>
-      <c r="QF27" s="11"/>
-      <c r="QG27" s="11"/>
-      <c r="QH27" s="11"/>
-      <c r="QI27" s="11"/>
-      <c r="QJ27" s="11"/>
-      <c r="QK27" s="11"/>
-      <c r="QL27" s="11"/>
-      <c r="QM27" s="11"/>
-      <c r="QN27" s="11"/>
-      <c r="QO27" s="11"/>
-      <c r="QP27" s="11"/>
-      <c r="QQ27" s="11"/>
-      <c r="QR27" s="11"/>
-      <c r="QS27" s="11"/>
-      <c r="QT27" s="11"/>
-      <c r="QU27" s="11"/>
-      <c r="QV27" s="11"/>
-      <c r="QW27" s="11"/>
-      <c r="QX27" s="11"/>
-      <c r="QY27" s="11"/>
-      <c r="QZ27" s="11"/>
-      <c r="RA27" s="11"/>
-      <c r="RB27" s="11"/>
-      <c r="RC27" s="11"/>
-      <c r="RD27" s="11"/>
-      <c r="RE27" s="11"/>
-      <c r="RF27" s="11"/>
-      <c r="RG27" s="11"/>
-      <c r="RH27" s="11"/>
-      <c r="RI27" s="11"/>
-      <c r="RJ27" s="11"/>
-      <c r="RK27" s="11"/>
-      <c r="RL27" s="11"/>
-      <c r="RM27" s="11"/>
-      <c r="RN27" s="11"/>
-      <c r="RO27" s="11"/>
-      <c r="RP27" s="11"/>
-      <c r="RQ27" s="11"/>
-      <c r="RR27" s="11"/>
-      <c r="RS27" s="11"/>
-      <c r="RT27" s="11"/>
-      <c r="RU27" s="11"/>
-      <c r="RV27" s="11"/>
-      <c r="RW27" s="11"/>
-      <c r="RX27" s="11"/>
-      <c r="RY27" s="11"/>
-      <c r="RZ27" s="11"/>
-      <c r="SA27" s="11"/>
-      <c r="SB27" s="11"/>
-      <c r="SC27" s="11"/>
-      <c r="SD27" s="11"/>
-      <c r="SE27" s="11"/>
-      <c r="SF27" s="11"/>
-      <c r="SG27" s="11"/>
-      <c r="SH27" s="11"/>
-      <c r="SI27" s="11"/>
-      <c r="SJ27" s="11"/>
-      <c r="SK27" s="11"/>
-      <c r="SL27" s="11"/>
-      <c r="SM27" s="11"/>
-      <c r="SN27" s="11"/>
-      <c r="SO27" s="11"/>
-      <c r="SP27" s="11"/>
-      <c r="SQ27" s="11"/>
-      <c r="SR27" s="11"/>
-      <c r="SS27" s="11"/>
-      <c r="ST27" s="11"/>
-      <c r="SU27" s="11"/>
-      <c r="SV27" s="11"/>
-      <c r="SW27" s="11"/>
-      <c r="SX27" s="11"/>
-      <c r="SY27" s="11"/>
-      <c r="SZ27" s="11"/>
-      <c r="TA27" s="11"/>
-      <c r="TB27" s="11"/>
-      <c r="TC27" s="11"/>
-      <c r="TD27" s="11"/>
-      <c r="TE27" s="11"/>
-      <c r="TF27" s="11"/>
-      <c r="TG27" s="11"/>
-      <c r="TH27" s="11"/>
-      <c r="TI27" s="11"/>
-      <c r="TJ27" s="11"/>
-      <c r="TK27" s="11"/>
-      <c r="TL27" s="11"/>
-      <c r="TM27" s="11"/>
-      <c r="TN27" s="11"/>
-      <c r="TO27" s="11"/>
-      <c r="TP27" s="11"/>
-      <c r="TQ27" s="11"/>
-      <c r="TR27" s="11"/>
-      <c r="TS27" s="11"/>
-      <c r="TT27" s="11"/>
-      <c r="TU27" s="11"/>
-      <c r="TV27" s="11"/>
-      <c r="TW27" s="11"/>
-      <c r="TX27" s="11"/>
-      <c r="TY27" s="11"/>
-      <c r="TZ27" s="11"/>
-      <c r="UA27" s="11"/>
-      <c r="UB27" s="11"/>
-      <c r="UC27" s="11"/>
-      <c r="UD27" s="11"/>
-      <c r="UE27" s="11"/>
-      <c r="UF27" s="11"/>
-      <c r="UG27" s="11"/>
-      <c r="UH27" s="11"/>
-      <c r="UI27" s="11"/>
-      <c r="UJ27" s="11"/>
-      <c r="UK27" s="11"/>
-      <c r="UL27" s="11"/>
-      <c r="UM27" s="11"/>
-      <c r="UN27" s="11"/>
-      <c r="UO27" s="11"/>
-      <c r="UP27" s="11"/>
-      <c r="UQ27" s="11"/>
-      <c r="UR27" s="11"/>
-      <c r="US27" s="11"/>
-      <c r="UT27" s="11"/>
-      <c r="UU27" s="11"/>
-      <c r="UV27" s="11"/>
-      <c r="UW27" s="11"/>
-      <c r="UX27" s="11"/>
-      <c r="UY27" s="11"/>
-      <c r="UZ27" s="11"/>
-      <c r="VA27" s="11"/>
-      <c r="VB27" s="11"/>
-      <c r="VC27" s="11"/>
-      <c r="VD27" s="11"/>
-      <c r="VE27" s="11"/>
-      <c r="VF27" s="11"/>
-      <c r="VG27" s="11"/>
-      <c r="VH27" s="11"/>
-      <c r="VI27" s="11"/>
-      <c r="VJ27" s="11"/>
-      <c r="VK27" s="11"/>
-      <c r="VL27" s="11"/>
-      <c r="VM27" s="11"/>
-      <c r="VN27" s="11"/>
-      <c r="VO27" s="11"/>
-      <c r="VP27" s="11"/>
-      <c r="VQ27" s="11"/>
-      <c r="VR27" s="11"/>
-      <c r="VS27" s="11"/>
-      <c r="VT27" s="11"/>
-      <c r="VU27" s="11"/>
-      <c r="VV27" s="11"/>
-      <c r="VW27" s="11"/>
-      <c r="VX27" s="11"/>
-      <c r="VY27" s="11"/>
-      <c r="VZ27" s="11"/>
-      <c r="WA27" s="11"/>
-      <c r="WB27" s="11"/>
-      <c r="WC27" s="11"/>
-      <c r="WD27" s="11"/>
-      <c r="WE27" s="11"/>
-      <c r="WF27" s="11"/>
-      <c r="WG27" s="11"/>
-      <c r="WH27" s="11"/>
-      <c r="WI27" s="11"/>
-      <c r="WJ27" s="11"/>
-      <c r="WK27" s="11"/>
-      <c r="WL27" s="11"/>
-      <c r="WM27" s="11"/>
-      <c r="WN27" s="11"/>
-      <c r="WO27" s="11"/>
-      <c r="WP27" s="11"/>
-      <c r="WQ27" s="11"/>
-      <c r="WR27" s="11"/>
-      <c r="WS27" s="11"/>
-      <c r="WT27" s="11"/>
-      <c r="WU27" s="11"/>
-      <c r="WV27" s="11"/>
-      <c r="WW27" s="11"/>
-      <c r="WX27" s="11"/>
-      <c r="WY27" s="11"/>
-      <c r="WZ27" s="11"/>
-      <c r="XA27" s="11"/>
-      <c r="XB27" s="11"/>
-      <c r="XC27" s="11"/>
-      <c r="XD27" s="11"/>
-      <c r="XE27" s="11"/>
-      <c r="XF27" s="11"/>
-      <c r="XG27" s="11"/>
-      <c r="XH27" s="11"/>
-      <c r="XI27" s="11"/>
-      <c r="XJ27" s="11"/>
-      <c r="XK27" s="11"/>
-      <c r="XL27" s="11"/>
-      <c r="XM27" s="11"/>
-      <c r="XN27" s="11"/>
-      <c r="XO27" s="11"/>
-      <c r="XP27" s="11"/>
-      <c r="XQ27" s="11"/>
-      <c r="XR27" s="11"/>
-      <c r="XS27" s="11"/>
-      <c r="XT27" s="11"/>
-      <c r="XU27" s="11"/>
-      <c r="XV27" s="11"/>
-      <c r="XW27" s="11"/>
-      <c r="XX27" s="11"/>
-      <c r="XY27" s="11"/>
-      <c r="XZ27" s="11"/>
-      <c r="YA27" s="11"/>
-      <c r="YB27" s="11"/>
-      <c r="YC27" s="11"/>
-      <c r="YD27" s="11"/>
-      <c r="YE27" s="11"/>
-      <c r="YF27" s="11"/>
-      <c r="YG27" s="11"/>
-      <c r="YH27" s="11"/>
-      <c r="YI27" s="11"/>
-      <c r="YJ27" s="11"/>
-      <c r="YK27" s="11"/>
-      <c r="YL27" s="11"/>
-      <c r="YM27" s="11"/>
-      <c r="YN27" s="11"/>
-      <c r="YO27" s="11"/>
-      <c r="YP27" s="11"/>
-      <c r="YQ27" s="11"/>
-      <c r="YR27" s="11"/>
-      <c r="YS27" s="11"/>
-      <c r="YT27" s="11"/>
-      <c r="YU27" s="11"/>
-      <c r="YV27" s="11"/>
-      <c r="YW27" s="11"/>
-      <c r="YX27" s="11"/>
-      <c r="YY27" s="11"/>
-      <c r="YZ27" s="11"/>
-      <c r="ZA27" s="11"/>
-      <c r="ZB27" s="11"/>
-      <c r="ZC27" s="11"/>
-      <c r="ZD27" s="11"/>
-      <c r="ZE27" s="11"/>
-      <c r="ZF27" s="11"/>
-      <c r="ZG27" s="11"/>
-      <c r="ZH27" s="11"/>
-      <c r="ZI27" s="11"/>
-      <c r="ZJ27" s="11"/>
-      <c r="ZK27" s="11"/>
-      <c r="ZL27" s="11"/>
-      <c r="ZM27" s="11"/>
-      <c r="ZN27" s="11"/>
-      <c r="ZO27" s="11"/>
-      <c r="ZP27" s="11"/>
-      <c r="ZQ27" s="11"/>
-      <c r="ZR27" s="11"/>
-      <c r="ZS27" s="11"/>
-      <c r="ZT27" s="11"/>
-      <c r="ZU27" s="11"/>
-      <c r="ZV27" s="11"/>
-      <c r="ZW27" s="11"/>
-      <c r="ZX27" s="11"/>
-      <c r="ZY27" s="11"/>
-      <c r="ZZ27" s="11"/>
-      <c r="AAA27" s="11"/>
-      <c r="AAB27" s="11"/>
-      <c r="AAC27" s="11"/>
-      <c r="AAD27" s="11"/>
-      <c r="AAE27" s="11"/>
-      <c r="AAF27" s="11"/>
-      <c r="AAG27" s="11"/>
-      <c r="AAH27" s="11"/>
-      <c r="AAI27" s="11"/>
-      <c r="AAJ27" s="11"/>
-      <c r="AAK27" s="11"/>
-      <c r="AAL27" s="11"/>
-      <c r="AAM27" s="11"/>
-      <c r="AAN27" s="11"/>
-      <c r="AAO27" s="11"/>
-      <c r="AAP27" s="11"/>
-      <c r="AAQ27" s="11"/>
-      <c r="AAR27" s="11"/>
-      <c r="AAS27" s="11"/>
-      <c r="AAT27" s="11"/>
-      <c r="AAU27" s="11"/>
-      <c r="AAV27" s="11"/>
-      <c r="AAW27" s="11"/>
-      <c r="AAX27" s="11"/>
-      <c r="AAY27" s="11"/>
-      <c r="AAZ27" s="11"/>
-      <c r="ABA27" s="11"/>
-      <c r="ABB27" s="11"/>
-      <c r="ABC27" s="11"/>
-      <c r="ABD27" s="11"/>
-      <c r="ABE27" s="11"/>
-      <c r="ABF27" s="11"/>
-      <c r="ABG27" s="11"/>
-      <c r="ABH27" s="11"/>
-      <c r="ABI27" s="11"/>
-      <c r="ABJ27" s="11"/>
-      <c r="ABK27" s="11"/>
-      <c r="ABL27" s="11"/>
-      <c r="ABM27" s="11"/>
-      <c r="ABN27" s="11"/>
-      <c r="ABO27" s="11"/>
-      <c r="ABP27" s="11"/>
-      <c r="ABQ27" s="11"/>
-      <c r="ABR27" s="11"/>
-      <c r="ABS27" s="11"/>
-      <c r="ABT27" s="11"/>
-      <c r="ABU27" s="11"/>
-      <c r="ABV27" s="11"/>
-      <c r="ABW27" s="11"/>
-      <c r="ABX27" s="11"/>
-      <c r="ABY27" s="11"/>
-      <c r="ABZ27" s="11"/>
-      <c r="ACA27" s="11"/>
-      <c r="ACB27" s="11"/>
-      <c r="ACC27" s="11"/>
-      <c r="ACD27" s="11"/>
-      <c r="ACE27" s="11"/>
-      <c r="ACF27" s="11"/>
-      <c r="ACG27" s="11"/>
-      <c r="ACH27" s="11"/>
-      <c r="ACI27" s="11"/>
-      <c r="ACJ27" s="11"/>
-      <c r="ACK27" s="11"/>
-      <c r="ACL27" s="11"/>
-      <c r="ACM27" s="11"/>
-      <c r="ACN27" s="11"/>
-      <c r="ACO27" s="11"/>
-      <c r="ACP27" s="11"/>
-      <c r="ACQ27" s="11"/>
-      <c r="ACR27" s="11"/>
-      <c r="ACS27" s="11"/>
-      <c r="ACT27" s="11"/>
-      <c r="ACU27" s="11"/>
-      <c r="ACV27" s="11"/>
-      <c r="ACW27" s="11"/>
-      <c r="ACX27" s="11"/>
-      <c r="ACY27" s="11"/>
-      <c r="ACZ27" s="11"/>
-      <c r="ADA27" s="11"/>
-      <c r="ADB27" s="11"/>
-      <c r="ADC27" s="11"/>
-      <c r="ADD27" s="11"/>
-      <c r="ADE27" s="11"/>
-      <c r="ADF27" s="11"/>
-      <c r="ADG27" s="11"/>
-      <c r="ADH27" s="11"/>
-      <c r="ADI27" s="11"/>
-      <c r="ADJ27" s="11"/>
-      <c r="ADK27" s="11"/>
-      <c r="ADL27" s="11"/>
-      <c r="ADM27" s="11"/>
-      <c r="ADN27" s="11"/>
-      <c r="ADO27" s="11"/>
-      <c r="ADP27" s="11"/>
-      <c r="ADQ27" s="11"/>
-      <c r="ADR27" s="11"/>
-      <c r="ADS27" s="11"/>
-      <c r="ADT27" s="11"/>
-      <c r="ADU27" s="11"/>
-      <c r="ADV27" s="11"/>
-      <c r="ADW27" s="11"/>
-      <c r="ADX27" s="11"/>
-      <c r="ADY27" s="11"/>
-      <c r="ADZ27" s="11"/>
-      <c r="AEA27" s="11"/>
-      <c r="AEB27" s="11"/>
-      <c r="AEC27" s="11"/>
-      <c r="AED27" s="11"/>
-      <c r="AEE27" s="11"/>
-      <c r="AEF27" s="11"/>
-      <c r="AEG27" s="11"/>
-      <c r="AEH27" s="11"/>
-      <c r="AEI27" s="11"/>
-      <c r="AEJ27" s="11"/>
-      <c r="AEK27" s="11"/>
-      <c r="AEL27" s="11"/>
-      <c r="AEM27" s="11"/>
-      <c r="AEN27" s="11"/>
-      <c r="AEO27" s="11"/>
-      <c r="AEP27" s="11"/>
-      <c r="AEQ27" s="11"/>
-      <c r="AER27" s="11"/>
-      <c r="AES27" s="11"/>
-      <c r="AET27" s="11"/>
-      <c r="AEU27" s="11"/>
-      <c r="AEV27" s="11"/>
-      <c r="AEW27" s="11"/>
-      <c r="AEX27" s="11"/>
-      <c r="AEY27" s="11"/>
-      <c r="AEZ27" s="11"/>
-      <c r="AFA27" s="11"/>
-      <c r="AFB27" s="11"/>
-      <c r="AFC27" s="11"/>
-      <c r="AFD27" s="11"/>
-      <c r="AFE27" s="11"/>
-      <c r="AFF27" s="11"/>
-      <c r="AFG27" s="11"/>
-      <c r="AFH27" s="11"/>
-      <c r="AFI27" s="11"/>
-      <c r="AFJ27" s="11"/>
-      <c r="AFK27" s="11"/>
-      <c r="AFL27" s="11"/>
-      <c r="AFM27" s="11"/>
-      <c r="AFN27" s="11"/>
-      <c r="AFO27" s="11"/>
-      <c r="AFP27" s="11"/>
-      <c r="AFQ27" s="11"/>
-      <c r="AFR27" s="11"/>
-      <c r="AFS27" s="11"/>
-      <c r="AFT27" s="11"/>
-      <c r="AFU27" s="11"/>
-      <c r="AFV27" s="11"/>
-      <c r="AFW27" s="11"/>
-      <c r="AFX27" s="11"/>
-      <c r="AFY27" s="11"/>
-      <c r="AFZ27" s="11"/>
-      <c r="AGA27" s="11"/>
-      <c r="AGB27" s="11"/>
-      <c r="AGC27" s="11"/>
-      <c r="AGD27" s="11"/>
-      <c r="AGE27" s="11"/>
-      <c r="AGF27" s="11"/>
-      <c r="AGG27" s="11"/>
-      <c r="AGH27" s="11"/>
-      <c r="AGI27" s="11"/>
-      <c r="AGJ27" s="11"/>
-      <c r="AGK27" s="11"/>
-      <c r="AGL27" s="11"/>
-      <c r="AGM27" s="11"/>
-      <c r="AGN27" s="11"/>
-      <c r="AGO27" s="11"/>
-      <c r="AGP27" s="11"/>
-      <c r="AGQ27" s="11"/>
-      <c r="AGR27" s="11"/>
-      <c r="AGS27" s="11"/>
-      <c r="AGT27" s="11"/>
-      <c r="AGU27" s="11"/>
-      <c r="AGV27" s="11"/>
-      <c r="AGW27" s="11"/>
-      <c r="AGX27" s="11"/>
-      <c r="AGY27" s="11"/>
-      <c r="AGZ27" s="11"/>
-      <c r="AHA27" s="11"/>
-      <c r="AHB27" s="11"/>
-      <c r="AHC27" s="11"/>
-      <c r="AHD27" s="11"/>
-      <c r="AHE27" s="11"/>
-      <c r="AHF27" s="11"/>
-      <c r="AHG27" s="11"/>
-      <c r="AHH27" s="11"/>
-      <c r="AHI27" s="11"/>
-      <c r="AHJ27" s="11"/>
-      <c r="AHK27" s="11"/>
-      <c r="AHL27" s="11"/>
-      <c r="AHM27" s="11"/>
-      <c r="AHN27" s="11"/>
-      <c r="AHO27" s="11"/>
-      <c r="AHP27" s="11"/>
-      <c r="AHQ27" s="11"/>
-      <c r="AHR27" s="11"/>
-      <c r="AHS27" s="11"/>
-      <c r="AHT27" s="11"/>
-      <c r="AHU27" s="11"/>
-      <c r="AHV27" s="11"/>
-      <c r="AHW27" s="11"/>
-      <c r="AHX27" s="11"/>
-      <c r="AHY27" s="11"/>
-      <c r="AHZ27" s="11"/>
-      <c r="AIA27" s="11"/>
-      <c r="AIB27" s="11"/>
-      <c r="AIC27" s="11"/>
-      <c r="AID27" s="11"/>
-      <c r="AIE27" s="11"/>
-      <c r="AIF27" s="11"/>
-      <c r="AIG27" s="11"/>
-      <c r="AIH27" s="11"/>
-      <c r="AII27" s="11"/>
-      <c r="AIJ27" s="11"/>
-      <c r="AIK27" s="11"/>
-      <c r="AIL27" s="11"/>
-      <c r="AIM27" s="11"/>
-      <c r="AIN27" s="11"/>
-      <c r="AIO27" s="11"/>
-      <c r="AIP27" s="11"/>
-      <c r="AIQ27" s="11"/>
-      <c r="AIR27" s="11"/>
-      <c r="AIS27" s="11"/>
-      <c r="AIT27" s="11"/>
-      <c r="AIU27" s="11"/>
-      <c r="AIV27" s="11"/>
-      <c r="AIW27" s="11"/>
-      <c r="AIX27" s="11"/>
-      <c r="AIY27" s="11"/>
-      <c r="AIZ27" s="11"/>
-      <c r="AJA27" s="11"/>
-      <c r="AJB27" s="11"/>
-      <c r="AJC27" s="11"/>
-      <c r="AJD27" s="11"/>
-      <c r="AJE27" s="11"/>
-      <c r="AJF27" s="11"/>
-      <c r="AJG27" s="11"/>
-      <c r="AJH27" s="11"/>
-      <c r="AJI27" s="11"/>
-      <c r="AJJ27" s="11"/>
-      <c r="AJK27" s="11"/>
-      <c r="AJL27" s="11"/>
-      <c r="AJM27" s="11"/>
-      <c r="AJN27" s="11"/>
-      <c r="AJO27" s="11"/>
-      <c r="AJP27" s="11"/>
-      <c r="AJQ27" s="11"/>
-      <c r="AJR27" s="11"/>
-      <c r="AJS27" s="11"/>
-      <c r="AJT27" s="11"/>
-      <c r="AJU27" s="11"/>
-      <c r="AJV27" s="11"/>
-      <c r="AJW27" s="11"/>
-      <c r="AJX27" s="11"/>
-      <c r="AJY27" s="11"/>
-      <c r="AJZ27" s="11"/>
-      <c r="AKA27" s="11"/>
-      <c r="AKB27" s="11"/>
-      <c r="AKC27" s="11"/>
-      <c r="AKD27" s="11"/>
-      <c r="AKE27" s="11"/>
-      <c r="AKF27" s="11"/>
-      <c r="AKG27" s="11"/>
-      <c r="AKH27" s="11"/>
-      <c r="AKI27" s="11"/>
-      <c r="AKJ27" s="11"/>
-      <c r="AKK27" s="11"/>
-      <c r="AKL27" s="11"/>
-      <c r="AKM27" s="11"/>
-      <c r="AKN27" s="11"/>
-      <c r="AKO27" s="11"/>
-      <c r="AKP27" s="11"/>
-      <c r="AKQ27" s="11"/>
-      <c r="AKR27" s="11"/>
-      <c r="AKS27" s="11"/>
-      <c r="AKT27" s="11"/>
-      <c r="AKU27" s="11"/>
-      <c r="AKV27" s="11"/>
-      <c r="AKW27" s="11"/>
-      <c r="AKX27" s="11"/>
-      <c r="AKY27" s="11"/>
-      <c r="AKZ27" s="11"/>
-      <c r="ALA27" s="11"/>
-      <c r="ALB27" s="11"/>
-      <c r="ALC27" s="11"/>
-      <c r="ALD27" s="11"/>
-      <c r="ALE27" s="11"/>
-      <c r="ALF27" s="11"/>
-      <c r="ALG27" s="11"/>
-      <c r="ALH27" s="11"/>
-      <c r="ALI27" s="11"/>
-      <c r="ALJ27" s="11"/>
-      <c r="ALK27" s="11"/>
-      <c r="ALL27" s="11"/>
-      <c r="ALM27" s="11"/>
-      <c r="ALN27" s="11"/>
-      <c r="ALO27" s="11"/>
-      <c r="ALP27" s="11"/>
-      <c r="ALQ27" s="11"/>
-      <c r="ALR27" s="11"/>
-      <c r="ALS27" s="11"/>
-      <c r="ALT27" s="11"/>
-      <c r="ALU27" s="11"/>
-      <c r="ALV27" s="11"/>
-      <c r="ALW27" s="11"/>
-      <c r="ALX27" s="11"/>
-      <c r="ALY27" s="11"/>
-      <c r="ALZ27" s="11"/>
-      <c r="AMA27" s="11"/>
-      <c r="AMB27" s="11"/>
-      <c r="AMC27" s="11"/>
-      <c r="AMD27" s="11"/>
-      <c r="AME27" s="11"/>
-      <c r="AMF27" s="11"/>
-      <c r="AMG27" s="11"/>
-      <c r="AMH27" s="11"/>
-      <c r="AMI27" s="11"/>
-      <c r="AMJ27" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="3"/>
+      <c r="AB27" s="3"/>
+      <c r="AC27" s="3"/>
+      <c r="AD27" s="3"/>
+      <c r="AE27" s="3"/>
+      <c r="AF27" s="3"/>
+      <c r="AG27" s="3"/>
+      <c r="AH27" s="3"/>
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+      <c r="AK27" s="3"/>
+      <c r="AL27" s="3"/>
+      <c r="AM27" s="3"/>
+      <c r="AN27" s="3"/>
+      <c r="AO27" s="3"/>
+      <c r="AP27" s="3"/>
+      <c r="AQ27" s="3"/>
+      <c r="AR27" s="3"/>
+      <c r="AS27" s="3"/>
+      <c r="AT27" s="3"/>
+      <c r="AU27" s="3"/>
+      <c r="AV27" s="3"/>
+      <c r="AW27" s="3"/>
+      <c r="AX27" s="3"/>
+      <c r="AY27" s="3"/>
+      <c r="AZ27" s="3"/>
+      <c r="BA27" s="3"/>
+      <c r="BB27" s="3"/>
+      <c r="BC27" s="3"/>
+      <c r="BD27" s="3"/>
+      <c r="BE27" s="3"/>
+      <c r="BF27" s="3"/>
+      <c r="BG27" s="3"/>
+      <c r="BH27" s="3"/>
+      <c r="BI27" s="3"/>
+      <c r="BJ27" s="3"/>
+      <c r="BK27" s="3"/>
+      <c r="BL27" s="3"/>
+      <c r="BM27" s="3"/>
+      <c r="BN27" s="3"/>
+      <c r="BO27" s="3"/>
+      <c r="BP27" s="3"/>
+      <c r="BQ27" s="3"/>
+      <c r="BR27" s="3"/>
+      <c r="BS27" s="3"/>
+      <c r="BT27" s="3"/>
+      <c r="BU27" s="3"/>
+      <c r="BV27" s="3"/>
+      <c r="BW27" s="3"/>
+      <c r="BX27" s="3"/>
+      <c r="BY27" s="3"/>
+      <c r="BZ27" s="3"/>
+      <c r="CA27" s="3"/>
+      <c r="CB27" s="3"/>
+      <c r="CC27" s="3"/>
+      <c r="CD27" s="3"/>
+      <c r="CE27" s="3"/>
+      <c r="CF27" s="3"/>
+      <c r="CG27" s="3"/>
+      <c r="CH27" s="3"/>
+      <c r="CI27" s="3"/>
+      <c r="CJ27" s="3"/>
+      <c r="CK27" s="3"/>
+      <c r="CL27" s="3"/>
+      <c r="CM27" s="3"/>
+      <c r="CN27" s="3"/>
+      <c r="CO27" s="3"/>
+      <c r="CP27" s="3"/>
+      <c r="CQ27" s="3"/>
+      <c r="CR27" s="3"/>
+      <c r="CS27" s="3"/>
+      <c r="CT27" s="3"/>
+      <c r="CU27" s="3"/>
+      <c r="CV27" s="3"/>
+      <c r="CW27" s="3"/>
+      <c r="CX27" s="3"/>
+      <c r="CY27" s="3"/>
+      <c r="CZ27" s="3"/>
+      <c r="DA27" s="3"/>
+      <c r="DB27" s="3"/>
+      <c r="DC27" s="3"/>
+      <c r="DD27" s="3"/>
+      <c r="DE27" s="3"/>
+      <c r="DF27" s="3"/>
+      <c r="DG27" s="3"/>
+      <c r="DH27" s="3"/>
+      <c r="DI27" s="3"/>
+      <c r="DJ27" s="3"/>
+      <c r="DK27" s="3"/>
+      <c r="DL27" s="3"/>
+      <c r="DM27" s="3"/>
+      <c r="DN27" s="3"/>
+      <c r="DO27" s="3"/>
+      <c r="DP27" s="3"/>
+      <c r="DQ27" s="3"/>
+      <c r="DR27" s="3"/>
+      <c r="DS27" s="3"/>
+      <c r="DT27" s="3"/>
+      <c r="DU27" s="3"/>
+      <c r="DV27" s="3"/>
+      <c r="DW27" s="3"/>
+      <c r="DX27" s="3"/>
+      <c r="DY27" s="3"/>
+      <c r="DZ27" s="3"/>
+      <c r="EA27" s="3"/>
+      <c r="EB27" s="3"/>
+      <c r="EC27" s="3"/>
+      <c r="ED27" s="3"/>
+      <c r="EE27" s="3"/>
+      <c r="EF27" s="3"/>
+      <c r="EG27" s="3"/>
+      <c r="EH27" s="3"/>
+      <c r="EI27" s="3"/>
+      <c r="EJ27" s="3"/>
+      <c r="EK27" s="3"/>
+      <c r="EL27" s="3"/>
+      <c r="EM27" s="3"/>
+      <c r="EN27" s="3"/>
+      <c r="EO27" s="3"/>
+      <c r="EP27" s="3"/>
+      <c r="EQ27" s="3"/>
+      <c r="ER27" s="3"/>
+      <c r="ES27" s="3"/>
+      <c r="ET27" s="3"/>
+      <c r="EU27" s="3"/>
+      <c r="EV27" s="3"/>
+      <c r="EW27" s="3"/>
+      <c r="EX27" s="3"/>
+      <c r="EY27" s="3"/>
+      <c r="EZ27" s="3"/>
+      <c r="FA27" s="3"/>
+      <c r="FB27" s="3"/>
+      <c r="FC27" s="3"/>
+      <c r="FD27" s="3"/>
+      <c r="FE27" s="3"/>
+      <c r="FF27" s="3"/>
+      <c r="FG27" s="3"/>
+      <c r="FH27" s="3"/>
+      <c r="FI27" s="3"/>
+      <c r="FJ27" s="3"/>
+      <c r="FK27" s="3"/>
+      <c r="FL27" s="3"/>
+      <c r="FM27" s="3"/>
+      <c r="FN27" s="3"/>
+      <c r="FO27" s="3"/>
+      <c r="FP27" s="3"/>
+      <c r="FQ27" s="3"/>
+      <c r="FR27" s="3"/>
+      <c r="FS27" s="3"/>
+      <c r="FT27" s="3"/>
+      <c r="FU27" s="3"/>
+      <c r="FV27" s="3"/>
+      <c r="FW27" s="3"/>
+      <c r="FX27" s="3"/>
+      <c r="FY27" s="3"/>
+      <c r="FZ27" s="3"/>
+      <c r="GA27" s="3"/>
+      <c r="GB27" s="3"/>
+      <c r="GC27" s="3"/>
+      <c r="GD27" s="3"/>
+      <c r="GE27" s="3"/>
+      <c r="GF27" s="3"/>
+      <c r="GG27" s="3"/>
+      <c r="GH27" s="3"/>
+      <c r="GI27" s="3"/>
+      <c r="GJ27" s="3"/>
+      <c r="GK27" s="3"/>
+      <c r="GL27" s="3"/>
+      <c r="GM27" s="3"/>
+      <c r="GN27" s="3"/>
+      <c r="GO27" s="3"/>
+      <c r="GP27" s="3"/>
+      <c r="GQ27" s="3"/>
+      <c r="GR27" s="3"/>
+      <c r="GS27" s="3"/>
+      <c r="GT27" s="3"/>
+      <c r="GU27" s="3"/>
+      <c r="GV27" s="3"/>
+      <c r="GW27" s="3"/>
+      <c r="GX27" s="3"/>
+      <c r="GY27" s="3"/>
+      <c r="GZ27" s="3"/>
+      <c r="HA27" s="3"/>
+      <c r="HB27" s="3"/>
+      <c r="HC27" s="3"/>
+      <c r="HD27" s="3"/>
+      <c r="HE27" s="3"/>
+      <c r="HF27" s="3"/>
+      <c r="HG27" s="3"/>
+      <c r="HH27" s="3"/>
+      <c r="HI27" s="3"/>
+      <c r="HJ27" s="3"/>
+      <c r="HK27" s="3"/>
+      <c r="HL27" s="3"/>
+      <c r="HM27" s="3"/>
+      <c r="HN27" s="3"/>
+      <c r="HO27" s="3"/>
+      <c r="HP27" s="3"/>
+      <c r="HQ27" s="3"/>
+      <c r="HR27" s="3"/>
+      <c r="HS27" s="3"/>
+      <c r="HT27" s="3"/>
+      <c r="HU27" s="3"/>
+      <c r="HV27" s="3"/>
+      <c r="HW27" s="3"/>
+      <c r="HX27" s="3"/>
+      <c r="HY27" s="3"/>
+      <c r="HZ27" s="3"/>
+      <c r="IA27" s="3"/>
+      <c r="IB27" s="3"/>
+      <c r="IC27" s="3"/>
+      <c r="ID27" s="3"/>
+      <c r="IE27" s="3"/>
+      <c r="IF27" s="3"/>
+      <c r="IG27" s="3"/>
+      <c r="IH27" s="3"/>
+      <c r="II27" s="3"/>
+      <c r="IJ27" s="3"/>
+      <c r="IK27" s="3"/>
+      <c r="IL27" s="3"/>
+      <c r="IM27" s="3"/>
+      <c r="IN27" s="3"/>
+      <c r="IO27" s="3"/>
+      <c r="IP27" s="3"/>
+      <c r="IQ27" s="3"/>
+      <c r="IR27" s="3"/>
+      <c r="IS27" s="3"/>
+      <c r="IT27" s="3"/>
+      <c r="IU27" s="3"/>
+      <c r="IV27" s="3"/>
+      <c r="IW27" s="3"/>
+      <c r="IX27" s="3"/>
+      <c r="IY27" s="3"/>
+      <c r="IZ27" s="3"/>
+      <c r="JA27" s="3"/>
+      <c r="JB27" s="3"/>
+      <c r="JC27" s="3"/>
+      <c r="JD27" s="3"/>
+      <c r="JE27" s="3"/>
+      <c r="JF27" s="3"/>
+      <c r="JG27" s="3"/>
+      <c r="JH27" s="3"/>
+      <c r="JI27" s="3"/>
+      <c r="JJ27" s="3"/>
+      <c r="JK27" s="3"/>
+      <c r="JL27" s="3"/>
+      <c r="JM27" s="3"/>
+      <c r="JN27" s="3"/>
+      <c r="JO27" s="3"/>
+      <c r="JP27" s="3"/>
+      <c r="JQ27" s="3"/>
+      <c r="JR27" s="3"/>
+      <c r="JS27" s="3"/>
+      <c r="JT27" s="3"/>
+      <c r="JU27" s="3"/>
+      <c r="JV27" s="3"/>
+      <c r="JW27" s="3"/>
+      <c r="JX27" s="3"/>
+      <c r="JY27" s="3"/>
+      <c r="JZ27" s="3"/>
+      <c r="KA27" s="3"/>
+      <c r="KB27" s="3"/>
+      <c r="KC27" s="3"/>
+      <c r="KD27" s="3"/>
+      <c r="KE27" s="3"/>
+      <c r="KF27" s="3"/>
+      <c r="KG27" s="3"/>
+      <c r="KH27" s="3"/>
+      <c r="KI27" s="3"/>
+      <c r="KJ27" s="3"/>
+      <c r="KK27" s="3"/>
+      <c r="KL27" s="3"/>
+      <c r="KM27" s="3"/>
+      <c r="KN27" s="3"/>
+      <c r="KO27" s="3"/>
+      <c r="KP27" s="3"/>
+      <c r="KQ27" s="3"/>
+      <c r="KR27" s="3"/>
+      <c r="KS27" s="3"/>
+      <c r="KT27" s="3"/>
+      <c r="KU27" s="3"/>
+      <c r="KV27" s="3"/>
+      <c r="KW27" s="3"/>
+      <c r="KX27" s="3"/>
+      <c r="KY27" s="3"/>
+      <c r="KZ27" s="3"/>
+      <c r="LA27" s="3"/>
+      <c r="LB27" s="3"/>
+      <c r="LC27" s="3"/>
+      <c r="LD27" s="3"/>
+      <c r="LE27" s="3"/>
+      <c r="LF27" s="3"/>
+      <c r="LG27" s="3"/>
+      <c r="LH27" s="3"/>
+      <c r="LI27" s="3"/>
+      <c r="LJ27" s="3"/>
+      <c r="LK27" s="3"/>
+      <c r="LL27" s="3"/>
+      <c r="LM27" s="3"/>
+      <c r="LN27" s="3"/>
+      <c r="LO27" s="3"/>
+      <c r="LP27" s="3"/>
+      <c r="LQ27" s="3"/>
+      <c r="LR27" s="3"/>
+      <c r="LS27" s="3"/>
+      <c r="LT27" s="3"/>
+      <c r="LU27" s="3"/>
+      <c r="LV27" s="3"/>
+      <c r="LW27" s="3"/>
+      <c r="LX27" s="3"/>
+      <c r="LY27" s="3"/>
+      <c r="LZ27" s="3"/>
+      <c r="MA27" s="3"/>
+      <c r="MB27" s="3"/>
+      <c r="MC27" s="3"/>
+      <c r="MD27" s="3"/>
+      <c r="ME27" s="3"/>
+      <c r="MF27" s="3"/>
+      <c r="MG27" s="3"/>
+      <c r="MH27" s="3"/>
+      <c r="MI27" s="3"/>
+      <c r="MJ27" s="3"/>
+      <c r="MK27" s="3"/>
+      <c r="ML27" s="3"/>
+      <c r="MM27" s="3"/>
+      <c r="MN27" s="3"/>
+      <c r="MO27" s="3"/>
+      <c r="MP27" s="3"/>
+      <c r="MQ27" s="3"/>
+      <c r="MR27" s="3"/>
+      <c r="MS27" s="3"/>
+      <c r="MT27" s="3"/>
+      <c r="MU27" s="3"/>
+      <c r="MV27" s="3"/>
+      <c r="MW27" s="3"/>
+      <c r="MX27" s="3"/>
+      <c r="MY27" s="3"/>
+      <c r="MZ27" s="3"/>
+      <c r="NA27" s="3"/>
+      <c r="NB27" s="3"/>
+      <c r="NC27" s="3"/>
+      <c r="ND27" s="3"/>
+      <c r="NE27" s="3"/>
+      <c r="NF27" s="3"/>
+      <c r="NG27" s="3"/>
+      <c r="NH27" s="3"/>
+      <c r="NI27" s="3"/>
+      <c r="NJ27" s="3"/>
+      <c r="NK27" s="3"/>
+      <c r="NL27" s="3"/>
+      <c r="NM27" s="3"/>
+      <c r="NN27" s="3"/>
+      <c r="NO27" s="3"/>
+      <c r="NP27" s="3"/>
+      <c r="NQ27" s="3"/>
+      <c r="NR27" s="3"/>
+      <c r="NS27" s="3"/>
+      <c r="NT27" s="3"/>
+      <c r="NU27" s="3"/>
+      <c r="NV27" s="3"/>
+      <c r="NW27" s="3"/>
+      <c r="NX27" s="3"/>
+      <c r="NY27" s="3"/>
+      <c r="NZ27" s="3"/>
+      <c r="OA27" s="3"/>
+      <c r="OB27" s="3"/>
+      <c r="OC27" s="3"/>
+      <c r="OD27" s="3"/>
+      <c r="OE27" s="3"/>
+      <c r="OF27" s="3"/>
+      <c r="OG27" s="3"/>
+      <c r="OH27" s="3"/>
+      <c r="OI27" s="3"/>
+      <c r="OJ27" s="3"/>
+      <c r="OK27" s="3"/>
+      <c r="OL27" s="3"/>
+      <c r="OM27" s="3"/>
+      <c r="ON27" s="3"/>
+      <c r="OO27" s="3"/>
+      <c r="OP27" s="3"/>
+      <c r="OQ27" s="3"/>
+      <c r="OR27" s="3"/>
+      <c r="OS27" s="3"/>
+      <c r="OT27" s="3"/>
+      <c r="OU27" s="3"/>
+      <c r="OV27" s="3"/>
+      <c r="OW27" s="3"/>
+      <c r="OX27" s="3"/>
+      <c r="OY27" s="3"/>
+      <c r="OZ27" s="3"/>
+      <c r="PA27" s="3"/>
+      <c r="PB27" s="3"/>
+      <c r="PC27" s="3"/>
+      <c r="PD27" s="3"/>
+      <c r="PE27" s="3"/>
+      <c r="PF27" s="3"/>
+      <c r="PG27" s="3"/>
+      <c r="PH27" s="3"/>
+      <c r="PI27" s="3"/>
+      <c r="PJ27" s="3"/>
+      <c r="PK27" s="3"/>
+      <c r="PL27" s="3"/>
+      <c r="PM27" s="3"/>
+      <c r="PN27" s="3"/>
+      <c r="PO27" s="3"/>
+      <c r="PP27" s="3"/>
+      <c r="PQ27" s="3"/>
+      <c r="PR27" s="3"/>
+      <c r="PS27" s="3"/>
+      <c r="PT27" s="3"/>
+      <c r="PU27" s="3"/>
+      <c r="PV27" s="3"/>
+      <c r="PW27" s="3"/>
+      <c r="PX27" s="3"/>
+      <c r="PY27" s="3"/>
+      <c r="PZ27" s="3"/>
+      <c r="QA27" s="3"/>
+      <c r="QB27" s="3"/>
+      <c r="QC27" s="3"/>
+      <c r="QD27" s="3"/>
+      <c r="QE27" s="3"/>
+      <c r="QF27" s="3"/>
+      <c r="QG27" s="3"/>
+      <c r="QH27" s="3"/>
+      <c r="QI27" s="3"/>
+      <c r="QJ27" s="3"/>
+      <c r="QK27" s="3"/>
+      <c r="QL27" s="3"/>
+      <c r="QM27" s="3"/>
+      <c r="QN27" s="3"/>
+      <c r="QO27" s="3"/>
+      <c r="QP27" s="3"/>
+      <c r="QQ27" s="3"/>
+      <c r="QR27" s="3"/>
+      <c r="QS27" s="3"/>
+      <c r="QT27" s="3"/>
+      <c r="QU27" s="3"/>
+      <c r="QV27" s="3"/>
+      <c r="QW27" s="3"/>
+      <c r="QX27" s="3"/>
+      <c r="QY27" s="3"/>
+      <c r="QZ27" s="3"/>
+      <c r="RA27" s="3"/>
+      <c r="RB27" s="3"/>
+      <c r="RC27" s="3"/>
+      <c r="RD27" s="3"/>
+      <c r="RE27" s="3"/>
+      <c r="RF27" s="3"/>
+      <c r="RG27" s="3"/>
+      <c r="RH27" s="3"/>
+      <c r="RI27" s="3"/>
+      <c r="RJ27" s="3"/>
+      <c r="RK27" s="3"/>
+      <c r="RL27" s="3"/>
+      <c r="RM27" s="3"/>
+      <c r="RN27" s="3"/>
+      <c r="RO27" s="3"/>
+      <c r="RP27" s="3"/>
+      <c r="RQ27" s="3"/>
+      <c r="RR27" s="3"/>
+      <c r="RS27" s="3"/>
+      <c r="RT27" s="3"/>
+      <c r="RU27" s="3"/>
+      <c r="RV27" s="3"/>
+      <c r="RW27" s="3"/>
+      <c r="RX27" s="3"/>
+      <c r="RY27" s="3"/>
+      <c r="RZ27" s="3"/>
+      <c r="SA27" s="3"/>
+      <c r="SB27" s="3"/>
+      <c r="SC27" s="3"/>
+      <c r="SD27" s="3"/>
+      <c r="SE27" s="3"/>
+      <c r="SF27" s="3"/>
+      <c r="SG27" s="3"/>
+      <c r="SH27" s="3"/>
+      <c r="SI27" s="3"/>
+      <c r="SJ27" s="3"/>
+      <c r="SK27" s="3"/>
+      <c r="SL27" s="3"/>
+      <c r="SM27" s="3"/>
+      <c r="SN27" s="3"/>
+      <c r="SO27" s="3"/>
+      <c r="SP27" s="3"/>
+      <c r="SQ27" s="3"/>
+      <c r="SR27" s="3"/>
+      <c r="SS27" s="3"/>
+      <c r="ST27" s="3"/>
+      <c r="SU27" s="3"/>
+      <c r="SV27" s="3"/>
+      <c r="SW27" s="3"/>
+      <c r="SX27" s="3"/>
+      <c r="SY27" s="3"/>
+      <c r="SZ27" s="3"/>
+      <c r="TA27" s="3"/>
+      <c r="TB27" s="3"/>
+      <c r="TC27" s="3"/>
+      <c r="TD27" s="3"/>
+      <c r="TE27" s="3"/>
+      <c r="TF27" s="3"/>
+      <c r="TG27" s="3"/>
+      <c r="TH27" s="3"/>
+      <c r="TI27" s="3"/>
+      <c r="TJ27" s="3"/>
+      <c r="TK27" s="3"/>
+      <c r="TL27" s="3"/>
+      <c r="TM27" s="3"/>
+      <c r="TN27" s="3"/>
+      <c r="TO27" s="3"/>
+      <c r="TP27" s="3"/>
+      <c r="TQ27" s="3"/>
+      <c r="TR27" s="3"/>
+      <c r="TS27" s="3"/>
+      <c r="TT27" s="3"/>
+      <c r="TU27" s="3"/>
+      <c r="TV27" s="3"/>
+      <c r="TW27" s="3"/>
+      <c r="TX27" s="3"/>
+      <c r="TY27" s="3"/>
+      <c r="TZ27" s="3"/>
+      <c r="UA27" s="3"/>
+      <c r="UB27" s="3"/>
+      <c r="UC27" s="3"/>
+      <c r="UD27" s="3"/>
+      <c r="UE27" s="3"/>
+      <c r="UF27" s="3"/>
+      <c r="UG27" s="3"/>
+      <c r="UH27" s="3"/>
+      <c r="UI27" s="3"/>
+      <c r="UJ27" s="3"/>
+      <c r="UK27" s="3"/>
+      <c r="UL27" s="3"/>
+      <c r="UM27" s="3"/>
+      <c r="UN27" s="3"/>
+      <c r="UO27" s="3"/>
+      <c r="UP27" s="3"/>
+      <c r="UQ27" s="3"/>
+      <c r="UR27" s="3"/>
+      <c r="US27" s="3"/>
+      <c r="UT27" s="3"/>
+      <c r="UU27" s="3"/>
+      <c r="UV27" s="3"/>
+      <c r="UW27" s="3"/>
+      <c r="UX27" s="3"/>
+      <c r="UY27" s="3"/>
+      <c r="UZ27" s="3"/>
+      <c r="VA27" s="3"/>
+      <c r="VB27" s="3"/>
+      <c r="VC27" s="3"/>
+      <c r="VD27" s="3"/>
+      <c r="VE27" s="3"/>
+      <c r="VF27" s="3"/>
+      <c r="VG27" s="3"/>
+      <c r="VH27" s="3"/>
+      <c r="VI27" s="3"/>
+      <c r="VJ27" s="3"/>
+      <c r="VK27" s="3"/>
+      <c r="VL27" s="3"/>
+      <c r="VM27" s="3"/>
+      <c r="VN27" s="3"/>
+      <c r="VO27" s="3"/>
+      <c r="VP27" s="3"/>
+      <c r="VQ27" s="3"/>
+      <c r="VR27" s="3"/>
+      <c r="VS27" s="3"/>
+      <c r="VT27" s="3"/>
+      <c r="VU27" s="3"/>
+      <c r="VV27" s="3"/>
+      <c r="VW27" s="3"/>
+      <c r="VX27" s="3"/>
+      <c r="VY27" s="3"/>
+      <c r="VZ27" s="3"/>
+      <c r="WA27" s="3"/>
+      <c r="WB27" s="3"/>
+      <c r="WC27" s="3"/>
+      <c r="WD27" s="3"/>
+      <c r="WE27" s="3"/>
+      <c r="WF27" s="3"/>
+      <c r="WG27" s="3"/>
+      <c r="WH27" s="3"/>
+      <c r="WI27" s="3"/>
+      <c r="WJ27" s="3"/>
+      <c r="WK27" s="3"/>
+      <c r="WL27" s="3"/>
+      <c r="WM27" s="3"/>
+      <c r="WN27" s="3"/>
+      <c r="WO27" s="3"/>
+      <c r="WP27" s="3"/>
+      <c r="WQ27" s="3"/>
+      <c r="WR27" s="3"/>
+      <c r="WS27" s="3"/>
+      <c r="WT27" s="3"/>
+      <c r="WU27" s="3"/>
+      <c r="WV27" s="3"/>
+      <c r="WW27" s="3"/>
+      <c r="WX27" s="3"/>
+      <c r="WY27" s="3"/>
+      <c r="WZ27" s="3"/>
+      <c r="XA27" s="3"/>
+      <c r="XB27" s="3"/>
+      <c r="XC27" s="3"/>
+      <c r="XD27" s="3"/>
+      <c r="XE27" s="3"/>
+      <c r="XF27" s="3"/>
+      <c r="XG27" s="3"/>
+      <c r="XH27" s="3"/>
+      <c r="XI27" s="3"/>
+      <c r="XJ27" s="3"/>
+      <c r="XK27" s="3"/>
+      <c r="XL27" s="3"/>
+      <c r="XM27" s="3"/>
+      <c r="XN27" s="3"/>
+      <c r="XO27" s="3"/>
+      <c r="XP27" s="3"/>
+      <c r="XQ27" s="3"/>
+      <c r="XR27" s="3"/>
+      <c r="XS27" s="3"/>
+      <c r="XT27" s="3"/>
+      <c r="XU27" s="3"/>
+      <c r="XV27" s="3"/>
+      <c r="XW27" s="3"/>
+      <c r="XX27" s="3"/>
+      <c r="XY27" s="3"/>
+      <c r="XZ27" s="3"/>
+      <c r="YA27" s="3"/>
+      <c r="YB27" s="3"/>
+      <c r="YC27" s="3"/>
+      <c r="YD27" s="3"/>
+      <c r="YE27" s="3"/>
+      <c r="YF27" s="3"/>
+      <c r="YG27" s="3"/>
+      <c r="YH27" s="3"/>
+      <c r="YI27" s="3"/>
+      <c r="YJ27" s="3"/>
+      <c r="YK27" s="3"/>
+      <c r="YL27" s="3"/>
+      <c r="YM27" s="3"/>
+      <c r="YN27" s="3"/>
+      <c r="YO27" s="3"/>
+      <c r="YP27" s="3"/>
+      <c r="YQ27" s="3"/>
+      <c r="YR27" s="3"/>
+      <c r="YS27" s="3"/>
+      <c r="YT27" s="3"/>
+      <c r="YU27" s="3"/>
+      <c r="YV27" s="3"/>
+      <c r="YW27" s="3"/>
+      <c r="YX27" s="3"/>
+      <c r="YY27" s="3"/>
+      <c r="YZ27" s="3"/>
+      <c r="ZA27" s="3"/>
+      <c r="ZB27" s="3"/>
+      <c r="ZC27" s="3"/>
+      <c r="ZD27" s="3"/>
+      <c r="ZE27" s="3"/>
+      <c r="ZF27" s="3"/>
+      <c r="ZG27" s="3"/>
+      <c r="ZH27" s="3"/>
+      <c r="ZI27" s="3"/>
+      <c r="ZJ27" s="3"/>
+      <c r="ZK27" s="3"/>
+      <c r="ZL27" s="3"/>
+      <c r="ZM27" s="3"/>
+      <c r="ZN27" s="3"/>
+      <c r="ZO27" s="3"/>
+      <c r="ZP27" s="3"/>
+      <c r="ZQ27" s="3"/>
+      <c r="ZR27" s="3"/>
+      <c r="ZS27" s="3"/>
+      <c r="ZT27" s="3"/>
+      <c r="ZU27" s="3"/>
+      <c r="ZV27" s="3"/>
+      <c r="ZW27" s="3"/>
+      <c r="ZX27" s="3"/>
+      <c r="ZY27" s="3"/>
+      <c r="ZZ27" s="3"/>
+      <c r="AAA27" s="3"/>
+      <c r="AAB27" s="3"/>
+      <c r="AAC27" s="3"/>
+      <c r="AAD27" s="3"/>
+      <c r="AAE27" s="3"/>
+      <c r="AAF27" s="3"/>
+      <c r="AAG27" s="3"/>
+      <c r="AAH27" s="3"/>
+      <c r="AAI27" s="3"/>
+      <c r="AAJ27" s="3"/>
+      <c r="AAK27" s="3"/>
+      <c r="AAL27" s="3"/>
+      <c r="AAM27" s="3"/>
+      <c r="AAN27" s="3"/>
+      <c r="AAO27" s="3"/>
+      <c r="AAP27" s="3"/>
+      <c r="AAQ27" s="3"/>
+      <c r="AAR27" s="3"/>
+      <c r="AAS27" s="3"/>
+      <c r="AAT27" s="3"/>
+      <c r="AAU27" s="3"/>
+      <c r="AAV27" s="3"/>
+      <c r="AAW27" s="3"/>
+      <c r="AAX27" s="3"/>
+      <c r="AAY27" s="3"/>
+      <c r="AAZ27" s="3"/>
+      <c r="ABA27" s="3"/>
+      <c r="ABB27" s="3"/>
+      <c r="ABC27" s="3"/>
+      <c r="ABD27" s="3"/>
+      <c r="ABE27" s="3"/>
+      <c r="ABF27" s="3"/>
+      <c r="ABG27" s="3"/>
+      <c r="ABH27" s="3"/>
+      <c r="ABI27" s="3"/>
+      <c r="ABJ27" s="3"/>
+      <c r="ABK27" s="3"/>
+      <c r="ABL27" s="3"/>
+      <c r="ABM27" s="3"/>
+      <c r="ABN27" s="3"/>
+      <c r="ABO27" s="3"/>
+      <c r="ABP27" s="3"/>
+      <c r="ABQ27" s="3"/>
+      <c r="ABR27" s="3"/>
+      <c r="ABS27" s="3"/>
+      <c r="ABT27" s="3"/>
+      <c r="ABU27" s="3"/>
+      <c r="ABV27" s="3"/>
+      <c r="ABW27" s="3"/>
+      <c r="ABX27" s="3"/>
+      <c r="ABY27" s="3"/>
+      <c r="ABZ27" s="3"/>
+      <c r="ACA27" s="3"/>
+      <c r="ACB27" s="3"/>
+      <c r="ACC27" s="3"/>
+      <c r="ACD27" s="3"/>
+      <c r="ACE27" s="3"/>
+      <c r="ACF27" s="3"/>
+      <c r="ACG27" s="3"/>
+      <c r="ACH27" s="3"/>
+      <c r="ACI27" s="3"/>
+      <c r="ACJ27" s="3"/>
+      <c r="ACK27" s="3"/>
+      <c r="ACL27" s="3"/>
+      <c r="ACM27" s="3"/>
+      <c r="ACN27" s="3"/>
+      <c r="ACO27" s="3"/>
+      <c r="ACP27" s="3"/>
+      <c r="ACQ27" s="3"/>
+      <c r="ACR27" s="3"/>
+      <c r="ACS27" s="3"/>
+      <c r="ACT27" s="3"/>
+      <c r="ACU27" s="3"/>
+      <c r="ACV27" s="3"/>
+      <c r="ACW27" s="3"/>
+      <c r="ACX27" s="3"/>
+      <c r="ACY27" s="3"/>
+      <c r="ACZ27" s="3"/>
+      <c r="ADA27" s="3"/>
+      <c r="ADB27" s="3"/>
+      <c r="ADC27" s="3"/>
+      <c r="ADD27" s="3"/>
+      <c r="ADE27" s="3"/>
+      <c r="ADF27" s="3"/>
+      <c r="ADG27" s="3"/>
+      <c r="ADH27" s="3"/>
+      <c r="ADI27" s="3"/>
+      <c r="ADJ27" s="3"/>
+      <c r="ADK27" s="3"/>
+      <c r="ADL27" s="3"/>
+      <c r="ADM27" s="3"/>
+      <c r="ADN27" s="3"/>
+      <c r="ADO27" s="3"/>
+      <c r="ADP27" s="3"/>
+      <c r="ADQ27" s="3"/>
+      <c r="ADR27" s="3"/>
+      <c r="ADS27" s="3"/>
+      <c r="ADT27" s="3"/>
+      <c r="ADU27" s="3"/>
+      <c r="ADV27" s="3"/>
+      <c r="ADW27" s="3"/>
+      <c r="ADX27" s="3"/>
+      <c r="ADY27" s="3"/>
+      <c r="ADZ27" s="3"/>
+      <c r="AEA27" s="3"/>
+      <c r="AEB27" s="3"/>
+      <c r="AEC27" s="3"/>
+      <c r="AED27" s="3"/>
+      <c r="AEE27" s="3"/>
+      <c r="AEF27" s="3"/>
+      <c r="AEG27" s="3"/>
+      <c r="AEH27" s="3"/>
+      <c r="AEI27" s="3"/>
+      <c r="AEJ27" s="3"/>
+      <c r="AEK27" s="3"/>
+      <c r="AEL27" s="3"/>
+      <c r="AEM27" s="3"/>
+      <c r="AEN27" s="3"/>
+      <c r="AEO27" s="3"/>
+      <c r="AEP27" s="3"/>
+      <c r="AEQ27" s="3"/>
+      <c r="AER27" s="3"/>
+      <c r="AES27" s="3"/>
+      <c r="AET27" s="3"/>
+      <c r="AEU27" s="3"/>
+      <c r="AEV27" s="3"/>
+      <c r="AEW27" s="3"/>
+      <c r="AEX27" s="3"/>
+      <c r="AEY27" s="3"/>
+      <c r="AEZ27" s="3"/>
+      <c r="AFA27" s="3"/>
+      <c r="AFB27" s="3"/>
+      <c r="AFC27" s="3"/>
+      <c r="AFD27" s="3"/>
+      <c r="AFE27" s="3"/>
+      <c r="AFF27" s="3"/>
+      <c r="AFG27" s="3"/>
+      <c r="AFH27" s="3"/>
+      <c r="AFI27" s="3"/>
+      <c r="AFJ27" s="3"/>
+      <c r="AFK27" s="3"/>
+      <c r="AFL27" s="3"/>
+      <c r="AFM27" s="3"/>
+      <c r="AFN27" s="3"/>
+      <c r="AFO27" s="3"/>
+      <c r="AFP27" s="3"/>
+      <c r="AFQ27" s="3"/>
+      <c r="AFR27" s="3"/>
+      <c r="AFS27" s="3"/>
+      <c r="AFT27" s="3"/>
+      <c r="AFU27" s="3"/>
+      <c r="AFV27" s="3"/>
+      <c r="AFW27" s="3"/>
+      <c r="AFX27" s="3"/>
+      <c r="AFY27" s="3"/>
+      <c r="AFZ27" s="3"/>
+      <c r="AGA27" s="3"/>
+      <c r="AGB27" s="3"/>
+      <c r="AGC27" s="3"/>
+      <c r="AGD27" s="3"/>
+      <c r="AGE27" s="3"/>
+      <c r="AGF27" s="3"/>
+      <c r="AGG27" s="3"/>
+      <c r="AGH27" s="3"/>
+      <c r="AGI27" s="3"/>
+      <c r="AGJ27" s="3"/>
+      <c r="AGK27" s="3"/>
+      <c r="AGL27" s="3"/>
+      <c r="AGM27" s="3"/>
+      <c r="AGN27" s="3"/>
+      <c r="AGO27" s="3"/>
+      <c r="AGP27" s="3"/>
+      <c r="AGQ27" s="3"/>
+      <c r="AGR27" s="3"/>
+      <c r="AGS27" s="3"/>
+      <c r="AGT27" s="3"/>
+      <c r="AGU27" s="3"/>
+      <c r="AGV27" s="3"/>
+      <c r="AGW27" s="3"/>
+      <c r="AGX27" s="3"/>
+      <c r="AGY27" s="3"/>
+      <c r="AGZ27" s="3"/>
+      <c r="AHA27" s="3"/>
+      <c r="AHB27" s="3"/>
+      <c r="AHC27" s="3"/>
+      <c r="AHD27" s="3"/>
+      <c r="AHE27" s="3"/>
+      <c r="AHF27" s="3"/>
+      <c r="AHG27" s="3"/>
+      <c r="AHH27" s="3"/>
+      <c r="AHI27" s="3"/>
+      <c r="AHJ27" s="3"/>
+      <c r="AHK27" s="3"/>
+      <c r="AHL27" s="3"/>
+      <c r="AHM27" s="3"/>
+      <c r="AHN27" s="3"/>
+      <c r="AHO27" s="3"/>
+      <c r="AHP27" s="3"/>
+      <c r="AHQ27" s="3"/>
+      <c r="AHR27" s="3"/>
+      <c r="AHS27" s="3"/>
+      <c r="AHT27" s="3"/>
+      <c r="AHU27" s="3"/>
+      <c r="AHV27" s="3"/>
+      <c r="AHW27" s="3"/>
+      <c r="AHX27" s="3"/>
+      <c r="AHY27" s="3"/>
+      <c r="AHZ27" s="3"/>
+      <c r="AIA27" s="3"/>
+      <c r="AIB27" s="3"/>
+      <c r="AIC27" s="3"/>
+      <c r="AID27" s="3"/>
+      <c r="AIE27" s="3"/>
+      <c r="AIF27" s="3"/>
+      <c r="AIG27" s="3"/>
+      <c r="AIH27" s="3"/>
+      <c r="AII27" s="3"/>
+      <c r="AIJ27" s="3"/>
+      <c r="AIK27" s="3"/>
+      <c r="AIL27" s="3"/>
+      <c r="AIM27" s="3"/>
+      <c r="AIN27" s="3"/>
+      <c r="AIO27" s="3"/>
+      <c r="AIP27" s="3"/>
+      <c r="AIQ27" s="3"/>
+      <c r="AIR27" s="3"/>
+      <c r="AIS27" s="3"/>
+      <c r="AIT27" s="3"/>
+      <c r="AIU27" s="3"/>
+      <c r="AIV27" s="3"/>
+      <c r="AIW27" s="3"/>
+      <c r="AIX27" s="3"/>
+      <c r="AIY27" s="3"/>
+      <c r="AIZ27" s="3"/>
+      <c r="AJA27" s="3"/>
+      <c r="AJB27" s="3"/>
+      <c r="AJC27" s="3"/>
+      <c r="AJD27" s="3"/>
+      <c r="AJE27" s="3"/>
+      <c r="AJF27" s="3"/>
+      <c r="AJG27" s="3"/>
+      <c r="AJH27" s="3"/>
+      <c r="AJI27" s="3"/>
+      <c r="AJJ27" s="3"/>
+      <c r="AJK27" s="3"/>
+      <c r="AJL27" s="3"/>
+      <c r="AJM27" s="3"/>
+      <c r="AJN27" s="3"/>
+      <c r="AJO27" s="3"/>
+      <c r="AJP27" s="3"/>
+      <c r="AJQ27" s="3"/>
+      <c r="AJR27" s="3"/>
+      <c r="AJS27" s="3"/>
+      <c r="AJT27" s="3"/>
+      <c r="AJU27" s="3"/>
+      <c r="AJV27" s="3"/>
+      <c r="AJW27" s="3"/>
+      <c r="AJX27" s="3"/>
+      <c r="AJY27" s="3"/>
+      <c r="AJZ27" s="3"/>
+      <c r="AKA27" s="3"/>
+      <c r="AKB27" s="3"/>
+      <c r="AKC27" s="3"/>
+      <c r="AKD27" s="3"/>
+      <c r="AKE27" s="3"/>
+      <c r="AKF27" s="3"/>
+      <c r="AKG27" s="3"/>
+      <c r="AKH27" s="3"/>
+      <c r="AKI27" s="3"/>
+      <c r="AKJ27" s="3"/>
+      <c r="AKK27" s="3"/>
+      <c r="AKL27" s="3"/>
+      <c r="AKM27" s="3"/>
+      <c r="AKN27" s="3"/>
+      <c r="AKO27" s="3"/>
+      <c r="AKP27" s="3"/>
+      <c r="AKQ27" s="3"/>
+      <c r="AKR27" s="3"/>
+      <c r="AKS27" s="3"/>
+      <c r="AKT27" s="3"/>
+      <c r="AKU27" s="3"/>
+      <c r="AKV27" s="3"/>
+      <c r="AKW27" s="3"/>
+      <c r="AKX27" s="3"/>
+      <c r="AKY27" s="3"/>
+      <c r="AKZ27" s="3"/>
+      <c r="ALA27" s="3"/>
+      <c r="ALB27" s="3"/>
+      <c r="ALC27" s="3"/>
+      <c r="ALD27" s="3"/>
+      <c r="ALE27" s="3"/>
+      <c r="ALF27" s="3"/>
+      <c r="ALG27" s="3"/>
+      <c r="ALH27" s="3"/>
+      <c r="ALI27" s="3"/>
+      <c r="ALJ27" s="3"/>
+      <c r="ALK27" s="3"/>
+      <c r="ALL27" s="3"/>
+      <c r="ALM27" s="3"/>
+      <c r="ALN27" s="3"/>
+      <c r="ALO27" s="3"/>
+      <c r="ALP27" s="3"/>
+      <c r="ALQ27" s="3"/>
+      <c r="ALR27" s="3"/>
+      <c r="ALS27" s="3"/>
+      <c r="ALT27" s="3"/>
+      <c r="ALU27" s="3"/>
+      <c r="ALV27" s="3"/>
+      <c r="ALW27" s="3"/>
+      <c r="ALX27" s="3"/>
+      <c r="ALY27" s="3"/>
+      <c r="ALZ27" s="3"/>
+      <c r="AMA27" s="3"/>
+      <c r="AMB27" s="3"/>
+      <c r="AMC27" s="3"/>
+      <c r="AMD27" s="3"/>
+      <c r="AME27" s="3"/>
+      <c r="AMF27" s="3"/>
+      <c r="AMG27" s="3"/>
+      <c r="AMH27" s="3"/>
+      <c r="AMI27" s="3"/>
+      <c r="AMJ27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="2" t="s">
+        <v>74</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -10752,16 +11687,14 @@
         <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="14" t="s">
-        <v>73</v>
+        <v>75</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>74</v>
-      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
@@ -11781,1042 +12714,13 @@
       <c r="AMI29" s="3"/>
       <c r="AMJ29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="24.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="2"/>
-      <c r="X30" s="2"/>
-      <c r="Y30" s="2"/>
-      <c r="Z30" s="2"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="AW30" s="3"/>
-      <c r="AX30" s="3"/>
-      <c r="AY30" s="3"/>
-      <c r="AZ30" s="3"/>
-      <c r="BA30" s="3"/>
-      <c r="BB30" s="3"/>
-      <c r="BC30" s="3"/>
-      <c r="BD30" s="3"/>
-      <c r="BE30" s="3"/>
-      <c r="BF30" s="3"/>
-      <c r="BG30" s="3"/>
-      <c r="BH30" s="3"/>
-      <c r="BI30" s="3"/>
-      <c r="BJ30" s="3"/>
-      <c r="BK30" s="3"/>
-      <c r="BL30" s="3"/>
-      <c r="BM30" s="3"/>
-      <c r="BN30" s="3"/>
-      <c r="BO30" s="3"/>
-      <c r="BP30" s="3"/>
-      <c r="BQ30" s="3"/>
-      <c r="BR30" s="3"/>
-      <c r="BS30" s="3"/>
-      <c r="BT30" s="3"/>
-      <c r="BU30" s="3"/>
-      <c r="BV30" s="3"/>
-      <c r="BW30" s="3"/>
-      <c r="BX30" s="3"/>
-      <c r="BY30" s="3"/>
-      <c r="BZ30" s="3"/>
-      <c r="CA30" s="3"/>
-      <c r="CB30" s="3"/>
-      <c r="CC30" s="3"/>
-      <c r="CD30" s="3"/>
-      <c r="CE30" s="3"/>
-      <c r="CF30" s="3"/>
-      <c r="CG30" s="3"/>
-      <c r="CH30" s="3"/>
-      <c r="CI30" s="3"/>
-      <c r="CJ30" s="3"/>
-      <c r="CK30" s="3"/>
-      <c r="CL30" s="3"/>
-      <c r="CM30" s="3"/>
-      <c r="CN30" s="3"/>
-      <c r="CO30" s="3"/>
-      <c r="CP30" s="3"/>
-      <c r="CQ30" s="3"/>
-      <c r="CR30" s="3"/>
-      <c r="CS30" s="3"/>
-      <c r="CT30" s="3"/>
-      <c r="CU30" s="3"/>
-      <c r="CV30" s="3"/>
-      <c r="CW30" s="3"/>
-      <c r="CX30" s="3"/>
-      <c r="CY30" s="3"/>
-      <c r="CZ30" s="3"/>
-      <c r="DA30" s="3"/>
-      <c r="DB30" s="3"/>
-      <c r="DC30" s="3"/>
-      <c r="DD30" s="3"/>
-      <c r="DE30" s="3"/>
-      <c r="DF30" s="3"/>
-      <c r="DG30" s="3"/>
-      <c r="DH30" s="3"/>
-      <c r="DI30" s="3"/>
-      <c r="DJ30" s="3"/>
-      <c r="DK30" s="3"/>
-      <c r="DL30" s="3"/>
-      <c r="DM30" s="3"/>
-      <c r="DN30" s="3"/>
-      <c r="DO30" s="3"/>
-      <c r="DP30" s="3"/>
-      <c r="DQ30" s="3"/>
-      <c r="DR30" s="3"/>
-      <c r="DS30" s="3"/>
-      <c r="DT30" s="3"/>
-      <c r="DU30" s="3"/>
-      <c r="DV30" s="3"/>
-      <c r="DW30" s="3"/>
-      <c r="DX30" s="3"/>
-      <c r="DY30" s="3"/>
-      <c r="DZ30" s="3"/>
-      <c r="EA30" s="3"/>
-      <c r="EB30" s="3"/>
-      <c r="EC30" s="3"/>
-      <c r="ED30" s="3"/>
-      <c r="EE30" s="3"/>
-      <c r="EF30" s="3"/>
-      <c r="EG30" s="3"/>
-      <c r="EH30" s="3"/>
-      <c r="EI30" s="3"/>
-      <c r="EJ30" s="3"/>
-      <c r="EK30" s="3"/>
-      <c r="EL30" s="3"/>
-      <c r="EM30" s="3"/>
-      <c r="EN30" s="3"/>
-      <c r="EO30" s="3"/>
-      <c r="EP30" s="3"/>
-      <c r="EQ30" s="3"/>
-      <c r="ER30" s="3"/>
-      <c r="ES30" s="3"/>
-      <c r="ET30" s="3"/>
-      <c r="EU30" s="3"/>
-      <c r="EV30" s="3"/>
-      <c r="EW30" s="3"/>
-      <c r="EX30" s="3"/>
-      <c r="EY30" s="3"/>
-      <c r="EZ30" s="3"/>
-      <c r="FA30" s="3"/>
-      <c r="FB30" s="3"/>
-      <c r="FC30" s="3"/>
-      <c r="FD30" s="3"/>
-      <c r="FE30" s="3"/>
-      <c r="FF30" s="3"/>
-      <c r="FG30" s="3"/>
-      <c r="FH30" s="3"/>
-      <c r="FI30" s="3"/>
-      <c r="FJ30" s="3"/>
-      <c r="FK30" s="3"/>
-      <c r="FL30" s="3"/>
-      <c r="FM30" s="3"/>
-      <c r="FN30" s="3"/>
-      <c r="FO30" s="3"/>
-      <c r="FP30" s="3"/>
-      <c r="FQ30" s="3"/>
-      <c r="FR30" s="3"/>
-      <c r="FS30" s="3"/>
-      <c r="FT30" s="3"/>
-      <c r="FU30" s="3"/>
-      <c r="FV30" s="3"/>
-      <c r="FW30" s="3"/>
-      <c r="FX30" s="3"/>
-      <c r="FY30" s="3"/>
-      <c r="FZ30" s="3"/>
-      <c r="GA30" s="3"/>
-      <c r="GB30" s="3"/>
-      <c r="GC30" s="3"/>
-      <c r="GD30" s="3"/>
-      <c r="GE30" s="3"/>
-      <c r="GF30" s="3"/>
-      <c r="GG30" s="3"/>
-      <c r="GH30" s="3"/>
-      <c r="GI30" s="3"/>
-      <c r="GJ30" s="3"/>
-      <c r="GK30" s="3"/>
-      <c r="GL30" s="3"/>
-      <c r="GM30" s="3"/>
-      <c r="GN30" s="3"/>
-      <c r="GO30" s="3"/>
-      <c r="GP30" s="3"/>
-      <c r="GQ30" s="3"/>
-      <c r="GR30" s="3"/>
-      <c r="GS30" s="3"/>
-      <c r="GT30" s="3"/>
-      <c r="GU30" s="3"/>
-      <c r="GV30" s="3"/>
-      <c r="GW30" s="3"/>
-      <c r="GX30" s="3"/>
-      <c r="GY30" s="3"/>
-      <c r="GZ30" s="3"/>
-      <c r="HA30" s="3"/>
-      <c r="HB30" s="3"/>
-      <c r="HC30" s="3"/>
-      <c r="HD30" s="3"/>
-      <c r="HE30" s="3"/>
-      <c r="HF30" s="3"/>
-      <c r="HG30" s="3"/>
-      <c r="HH30" s="3"/>
-      <c r="HI30" s="3"/>
-      <c r="HJ30" s="3"/>
-      <c r="HK30" s="3"/>
-      <c r="HL30" s="3"/>
-      <c r="HM30" s="3"/>
-      <c r="HN30" s="3"/>
-      <c r="HO30" s="3"/>
-      <c r="HP30" s="3"/>
-      <c r="HQ30" s="3"/>
-      <c r="HR30" s="3"/>
-      <c r="HS30" s="3"/>
-      <c r="HT30" s="3"/>
-      <c r="HU30" s="3"/>
-      <c r="HV30" s="3"/>
-      <c r="HW30" s="3"/>
-      <c r="HX30" s="3"/>
-      <c r="HY30" s="3"/>
-      <c r="HZ30" s="3"/>
-      <c r="IA30" s="3"/>
-      <c r="IB30" s="3"/>
-      <c r="IC30" s="3"/>
-      <c r="ID30" s="3"/>
-      <c r="IE30" s="3"/>
-      <c r="IF30" s="3"/>
-      <c r="IG30" s="3"/>
-      <c r="IH30" s="3"/>
-      <c r="II30" s="3"/>
-      <c r="IJ30" s="3"/>
-      <c r="IK30" s="3"/>
-      <c r="IL30" s="3"/>
-      <c r="IM30" s="3"/>
-      <c r="IN30" s="3"/>
-      <c r="IO30" s="3"/>
-      <c r="IP30" s="3"/>
-      <c r="IQ30" s="3"/>
-      <c r="IR30" s="3"/>
-      <c r="IS30" s="3"/>
-      <c r="IT30" s="3"/>
-      <c r="IU30" s="3"/>
-      <c r="IV30" s="3"/>
-      <c r="IW30" s="3"/>
-      <c r="IX30" s="3"/>
-      <c r="IY30" s="3"/>
-      <c r="IZ30" s="3"/>
-      <c r="JA30" s="3"/>
-      <c r="JB30" s="3"/>
-      <c r="JC30" s="3"/>
-      <c r="JD30" s="3"/>
-      <c r="JE30" s="3"/>
-      <c r="JF30" s="3"/>
-      <c r="JG30" s="3"/>
-      <c r="JH30" s="3"/>
-      <c r="JI30" s="3"/>
-      <c r="JJ30" s="3"/>
-      <c r="JK30" s="3"/>
-      <c r="JL30" s="3"/>
-      <c r="JM30" s="3"/>
-      <c r="JN30" s="3"/>
-      <c r="JO30" s="3"/>
-      <c r="JP30" s="3"/>
-      <c r="JQ30" s="3"/>
-      <c r="JR30" s="3"/>
-      <c r="JS30" s="3"/>
-      <c r="JT30" s="3"/>
-      <c r="JU30" s="3"/>
-      <c r="JV30" s="3"/>
-      <c r="JW30" s="3"/>
-      <c r="JX30" s="3"/>
-      <c r="JY30" s="3"/>
-      <c r="JZ30" s="3"/>
-      <c r="KA30" s="3"/>
-      <c r="KB30" s="3"/>
-      <c r="KC30" s="3"/>
-      <c r="KD30" s="3"/>
-      <c r="KE30" s="3"/>
-      <c r="KF30" s="3"/>
-      <c r="KG30" s="3"/>
-      <c r="KH30" s="3"/>
-      <c r="KI30" s="3"/>
-      <c r="KJ30" s="3"/>
-      <c r="KK30" s="3"/>
-      <c r="KL30" s="3"/>
-      <c r="KM30" s="3"/>
-      <c r="KN30" s="3"/>
-      <c r="KO30" s="3"/>
-      <c r="KP30" s="3"/>
-      <c r="KQ30" s="3"/>
-      <c r="KR30" s="3"/>
-      <c r="KS30" s="3"/>
-      <c r="KT30" s="3"/>
-      <c r="KU30" s="3"/>
-      <c r="KV30" s="3"/>
-      <c r="KW30" s="3"/>
-      <c r="KX30" s="3"/>
-      <c r="KY30" s="3"/>
-      <c r="KZ30" s="3"/>
-      <c r="LA30" s="3"/>
-      <c r="LB30" s="3"/>
-      <c r="LC30" s="3"/>
-      <c r="LD30" s="3"/>
-      <c r="LE30" s="3"/>
-      <c r="LF30" s="3"/>
-      <c r="LG30" s="3"/>
-      <c r="LH30" s="3"/>
-      <c r="LI30" s="3"/>
-      <c r="LJ30" s="3"/>
-      <c r="LK30" s="3"/>
-      <c r="LL30" s="3"/>
-      <c r="LM30" s="3"/>
-      <c r="LN30" s="3"/>
-      <c r="LO30" s="3"/>
-      <c r="LP30" s="3"/>
-      <c r="LQ30" s="3"/>
-      <c r="LR30" s="3"/>
-      <c r="LS30" s="3"/>
-      <c r="LT30" s="3"/>
-      <c r="LU30" s="3"/>
-      <c r="LV30" s="3"/>
-      <c r="LW30" s="3"/>
-      <c r="LX30" s="3"/>
-      <c r="LY30" s="3"/>
-      <c r="LZ30" s="3"/>
-      <c r="MA30" s="3"/>
-      <c r="MB30" s="3"/>
-      <c r="MC30" s="3"/>
-      <c r="MD30" s="3"/>
-      <c r="ME30" s="3"/>
-      <c r="MF30" s="3"/>
-      <c r="MG30" s="3"/>
-      <c r="MH30" s="3"/>
-      <c r="MI30" s="3"/>
-      <c r="MJ30" s="3"/>
-      <c r="MK30" s="3"/>
-      <c r="ML30" s="3"/>
-      <c r="MM30" s="3"/>
-      <c r="MN30" s="3"/>
-      <c r="MO30" s="3"/>
-      <c r="MP30" s="3"/>
-      <c r="MQ30" s="3"/>
-      <c r="MR30" s="3"/>
-      <c r="MS30" s="3"/>
-      <c r="MT30" s="3"/>
-      <c r="MU30" s="3"/>
-      <c r="MV30" s="3"/>
-      <c r="MW30" s="3"/>
-      <c r="MX30" s="3"/>
-      <c r="MY30" s="3"/>
-      <c r="MZ30" s="3"/>
-      <c r="NA30" s="3"/>
-      <c r="NB30" s="3"/>
-      <c r="NC30" s="3"/>
-      <c r="ND30" s="3"/>
-      <c r="NE30" s="3"/>
-      <c r="NF30" s="3"/>
-      <c r="NG30" s="3"/>
-      <c r="NH30" s="3"/>
-      <c r="NI30" s="3"/>
-      <c r="NJ30" s="3"/>
-      <c r="NK30" s="3"/>
-      <c r="NL30" s="3"/>
-      <c r="NM30" s="3"/>
-      <c r="NN30" s="3"/>
-      <c r="NO30" s="3"/>
-      <c r="NP30" s="3"/>
-      <c r="NQ30" s="3"/>
-      <c r="NR30" s="3"/>
-      <c r="NS30" s="3"/>
-      <c r="NT30" s="3"/>
-      <c r="NU30" s="3"/>
-      <c r="NV30" s="3"/>
-      <c r="NW30" s="3"/>
-      <c r="NX30" s="3"/>
-      <c r="NY30" s="3"/>
-      <c r="NZ30" s="3"/>
-      <c r="OA30" s="3"/>
-      <c r="OB30" s="3"/>
-      <c r="OC30" s="3"/>
-      <c r="OD30" s="3"/>
-      <c r="OE30" s="3"/>
-      <c r="OF30" s="3"/>
-      <c r="OG30" s="3"/>
-      <c r="OH30" s="3"/>
-      <c r="OI30" s="3"/>
-      <c r="OJ30" s="3"/>
-      <c r="OK30" s="3"/>
-      <c r="OL30" s="3"/>
-      <c r="OM30" s="3"/>
-      <c r="ON30" s="3"/>
-      <c r="OO30" s="3"/>
-      <c r="OP30" s="3"/>
-      <c r="OQ30" s="3"/>
-      <c r="OR30" s="3"/>
-      <c r="OS30" s="3"/>
-      <c r="OT30" s="3"/>
-      <c r="OU30" s="3"/>
-      <c r="OV30" s="3"/>
-      <c r="OW30" s="3"/>
-      <c r="OX30" s="3"/>
-      <c r="OY30" s="3"/>
-      <c r="OZ30" s="3"/>
-      <c r="PA30" s="3"/>
-      <c r="PB30" s="3"/>
-      <c r="PC30" s="3"/>
-      <c r="PD30" s="3"/>
-      <c r="PE30" s="3"/>
-      <c r="PF30" s="3"/>
-      <c r="PG30" s="3"/>
-      <c r="PH30" s="3"/>
-      <c r="PI30" s="3"/>
-      <c r="PJ30" s="3"/>
-      <c r="PK30" s="3"/>
-      <c r="PL30" s="3"/>
-      <c r="PM30" s="3"/>
-      <c r="PN30" s="3"/>
-      <c r="PO30" s="3"/>
-      <c r="PP30" s="3"/>
-      <c r="PQ30" s="3"/>
-      <c r="PR30" s="3"/>
-      <c r="PS30" s="3"/>
-      <c r="PT30" s="3"/>
-      <c r="PU30" s="3"/>
-      <c r="PV30" s="3"/>
-      <c r="PW30" s="3"/>
-      <c r="PX30" s="3"/>
-      <c r="PY30" s="3"/>
-      <c r="PZ30" s="3"/>
-      <c r="QA30" s="3"/>
-      <c r="QB30" s="3"/>
-      <c r="QC30" s="3"/>
-      <c r="QD30" s="3"/>
-      <c r="QE30" s="3"/>
-      <c r="QF30" s="3"/>
-      <c r="QG30" s="3"/>
-      <c r="QH30" s="3"/>
-      <c r="QI30" s="3"/>
-      <c r="QJ30" s="3"/>
-      <c r="QK30" s="3"/>
-      <c r="QL30" s="3"/>
-      <c r="QM30" s="3"/>
-      <c r="QN30" s="3"/>
-      <c r="QO30" s="3"/>
-      <c r="QP30" s="3"/>
-      <c r="QQ30" s="3"/>
-      <c r="QR30" s="3"/>
-      <c r="QS30" s="3"/>
-      <c r="QT30" s="3"/>
-      <c r="QU30" s="3"/>
-      <c r="QV30" s="3"/>
-      <c r="QW30" s="3"/>
-      <c r="QX30" s="3"/>
-      <c r="QY30" s="3"/>
-      <c r="QZ30" s="3"/>
-      <c r="RA30" s="3"/>
-      <c r="RB30" s="3"/>
-      <c r="RC30" s="3"/>
-      <c r="RD30" s="3"/>
-      <c r="RE30" s="3"/>
-      <c r="RF30" s="3"/>
-      <c r="RG30" s="3"/>
-      <c r="RH30" s="3"/>
-      <c r="RI30" s="3"/>
-      <c r="RJ30" s="3"/>
-      <c r="RK30" s="3"/>
-      <c r="RL30" s="3"/>
-      <c r="RM30" s="3"/>
-      <c r="RN30" s="3"/>
-      <c r="RO30" s="3"/>
-      <c r="RP30" s="3"/>
-      <c r="RQ30" s="3"/>
-      <c r="RR30" s="3"/>
-      <c r="RS30" s="3"/>
-      <c r="RT30" s="3"/>
-      <c r="RU30" s="3"/>
-      <c r="RV30" s="3"/>
-      <c r="RW30" s="3"/>
-      <c r="RX30" s="3"/>
-      <c r="RY30" s="3"/>
-      <c r="RZ30" s="3"/>
-      <c r="SA30" s="3"/>
-      <c r="SB30" s="3"/>
-      <c r="SC30" s="3"/>
-      <c r="SD30" s="3"/>
-      <c r="SE30" s="3"/>
-      <c r="SF30" s="3"/>
-      <c r="SG30" s="3"/>
-      <c r="SH30" s="3"/>
-      <c r="SI30" s="3"/>
-      <c r="SJ30" s="3"/>
-      <c r="SK30" s="3"/>
-      <c r="SL30" s="3"/>
-      <c r="SM30" s="3"/>
-      <c r="SN30" s="3"/>
-      <c r="SO30" s="3"/>
-      <c r="SP30" s="3"/>
-      <c r="SQ30" s="3"/>
-      <c r="SR30" s="3"/>
-      <c r="SS30" s="3"/>
-      <c r="ST30" s="3"/>
-      <c r="SU30" s="3"/>
-      <c r="SV30" s="3"/>
-      <c r="SW30" s="3"/>
-      <c r="SX30" s="3"/>
-      <c r="SY30" s="3"/>
-      <c r="SZ30" s="3"/>
-      <c r="TA30" s="3"/>
-      <c r="TB30" s="3"/>
-      <c r="TC30" s="3"/>
-      <c r="TD30" s="3"/>
-      <c r="TE30" s="3"/>
-      <c r="TF30" s="3"/>
-      <c r="TG30" s="3"/>
-      <c r="TH30" s="3"/>
-      <c r="TI30" s="3"/>
-      <c r="TJ30" s="3"/>
-      <c r="TK30" s="3"/>
-      <c r="TL30" s="3"/>
-      <c r="TM30" s="3"/>
-      <c r="TN30" s="3"/>
-      <c r="TO30" s="3"/>
-      <c r="TP30" s="3"/>
-      <c r="TQ30" s="3"/>
-      <c r="TR30" s="3"/>
-      <c r="TS30" s="3"/>
-      <c r="TT30" s="3"/>
-      <c r="TU30" s="3"/>
-      <c r="TV30" s="3"/>
-      <c r="TW30" s="3"/>
-      <c r="TX30" s="3"/>
-      <c r="TY30" s="3"/>
-      <c r="TZ30" s="3"/>
-      <c r="UA30" s="3"/>
-      <c r="UB30" s="3"/>
-      <c r="UC30" s="3"/>
-      <c r="UD30" s="3"/>
-      <c r="UE30" s="3"/>
-      <c r="UF30" s="3"/>
-      <c r="UG30" s="3"/>
-      <c r="UH30" s="3"/>
-      <c r="UI30" s="3"/>
-      <c r="UJ30" s="3"/>
-      <c r="UK30" s="3"/>
-      <c r="UL30" s="3"/>
-      <c r="UM30" s="3"/>
-      <c r="UN30" s="3"/>
-      <c r="UO30" s="3"/>
-      <c r="UP30" s="3"/>
-      <c r="UQ30" s="3"/>
-      <c r="UR30" s="3"/>
-      <c r="US30" s="3"/>
-      <c r="UT30" s="3"/>
-      <c r="UU30" s="3"/>
-      <c r="UV30" s="3"/>
-      <c r="UW30" s="3"/>
-      <c r="UX30" s="3"/>
-      <c r="UY30" s="3"/>
-      <c r="UZ30" s="3"/>
-      <c r="VA30" s="3"/>
-      <c r="VB30" s="3"/>
-      <c r="VC30" s="3"/>
-      <c r="VD30" s="3"/>
-      <c r="VE30" s="3"/>
-      <c r="VF30" s="3"/>
-      <c r="VG30" s="3"/>
-      <c r="VH30" s="3"/>
-      <c r="VI30" s="3"/>
-      <c r="VJ30" s="3"/>
-      <c r="VK30" s="3"/>
-      <c r="VL30" s="3"/>
-      <c r="VM30" s="3"/>
-      <c r="VN30" s="3"/>
-      <c r="VO30" s="3"/>
-      <c r="VP30" s="3"/>
-      <c r="VQ30" s="3"/>
-      <c r="VR30" s="3"/>
-      <c r="VS30" s="3"/>
-      <c r="VT30" s="3"/>
-      <c r="VU30" s="3"/>
-      <c r="VV30" s="3"/>
-      <c r="VW30" s="3"/>
-      <c r="VX30" s="3"/>
-      <c r="VY30" s="3"/>
-      <c r="VZ30" s="3"/>
-      <c r="WA30" s="3"/>
-      <c r="WB30" s="3"/>
-      <c r="WC30" s="3"/>
-      <c r="WD30" s="3"/>
-      <c r="WE30" s="3"/>
-      <c r="WF30" s="3"/>
-      <c r="WG30" s="3"/>
-      <c r="WH30" s="3"/>
-      <c r="WI30" s="3"/>
-      <c r="WJ30" s="3"/>
-      <c r="WK30" s="3"/>
-      <c r="WL30" s="3"/>
-      <c r="WM30" s="3"/>
-      <c r="WN30" s="3"/>
-      <c r="WO30" s="3"/>
-      <c r="WP30" s="3"/>
-      <c r="WQ30" s="3"/>
-      <c r="WR30" s="3"/>
-      <c r="WS30" s="3"/>
-      <c r="WT30" s="3"/>
-      <c r="WU30" s="3"/>
-      <c r="WV30" s="3"/>
-      <c r="WW30" s="3"/>
-      <c r="WX30" s="3"/>
-      <c r="WY30" s="3"/>
-      <c r="WZ30" s="3"/>
-      <c r="XA30" s="3"/>
-      <c r="XB30" s="3"/>
-      <c r="XC30" s="3"/>
-      <c r="XD30" s="3"/>
-      <c r="XE30" s="3"/>
-      <c r="XF30" s="3"/>
-      <c r="XG30" s="3"/>
-      <c r="XH30" s="3"/>
-      <c r="XI30" s="3"/>
-      <c r="XJ30" s="3"/>
-      <c r="XK30" s="3"/>
-      <c r="XL30" s="3"/>
-      <c r="XM30" s="3"/>
-      <c r="XN30" s="3"/>
-      <c r="XO30" s="3"/>
-      <c r="XP30" s="3"/>
-      <c r="XQ30" s="3"/>
-      <c r="XR30" s="3"/>
-      <c r="XS30" s="3"/>
-      <c r="XT30" s="3"/>
-      <c r="XU30" s="3"/>
-      <c r="XV30" s="3"/>
-      <c r="XW30" s="3"/>
-      <c r="XX30" s="3"/>
-      <c r="XY30" s="3"/>
-      <c r="XZ30" s="3"/>
-      <c r="YA30" s="3"/>
-      <c r="YB30" s="3"/>
-      <c r="YC30" s="3"/>
-      <c r="YD30" s="3"/>
-      <c r="YE30" s="3"/>
-      <c r="YF30" s="3"/>
-      <c r="YG30" s="3"/>
-      <c r="YH30" s="3"/>
-      <c r="YI30" s="3"/>
-      <c r="YJ30" s="3"/>
-      <c r="YK30" s="3"/>
-      <c r="YL30" s="3"/>
-      <c r="YM30" s="3"/>
-      <c r="YN30" s="3"/>
-      <c r="YO30" s="3"/>
-      <c r="YP30" s="3"/>
-      <c r="YQ30" s="3"/>
-      <c r="YR30" s="3"/>
-      <c r="YS30" s="3"/>
-      <c r="YT30" s="3"/>
-      <c r="YU30" s="3"/>
-      <c r="YV30" s="3"/>
-      <c r="YW30" s="3"/>
-      <c r="YX30" s="3"/>
-      <c r="YY30" s="3"/>
-      <c r="YZ30" s="3"/>
-      <c r="ZA30" s="3"/>
-      <c r="ZB30" s="3"/>
-      <c r="ZC30" s="3"/>
-      <c r="ZD30" s="3"/>
-      <c r="ZE30" s="3"/>
-      <c r="ZF30" s="3"/>
-      <c r="ZG30" s="3"/>
-      <c r="ZH30" s="3"/>
-      <c r="ZI30" s="3"/>
-      <c r="ZJ30" s="3"/>
-      <c r="ZK30" s="3"/>
-      <c r="ZL30" s="3"/>
-      <c r="ZM30" s="3"/>
-      <c r="ZN30" s="3"/>
-      <c r="ZO30" s="3"/>
-      <c r="ZP30" s="3"/>
-      <c r="ZQ30" s="3"/>
-      <c r="ZR30" s="3"/>
-      <c r="ZS30" s="3"/>
-      <c r="ZT30" s="3"/>
-      <c r="ZU30" s="3"/>
-      <c r="ZV30" s="3"/>
-      <c r="ZW30" s="3"/>
-      <c r="ZX30" s="3"/>
-      <c r="ZY30" s="3"/>
-      <c r="ZZ30" s="3"/>
-      <c r="AAA30" s="3"/>
-      <c r="AAB30" s="3"/>
-      <c r="AAC30" s="3"/>
-      <c r="AAD30" s="3"/>
-      <c r="AAE30" s="3"/>
-      <c r="AAF30" s="3"/>
-      <c r="AAG30" s="3"/>
-      <c r="AAH30" s="3"/>
-      <c r="AAI30" s="3"/>
-      <c r="AAJ30" s="3"/>
-      <c r="AAK30" s="3"/>
-      <c r="AAL30" s="3"/>
-      <c r="AAM30" s="3"/>
-      <c r="AAN30" s="3"/>
-      <c r="AAO30" s="3"/>
-      <c r="AAP30" s="3"/>
-      <c r="AAQ30" s="3"/>
-      <c r="AAR30" s="3"/>
-      <c r="AAS30" s="3"/>
-      <c r="AAT30" s="3"/>
-      <c r="AAU30" s="3"/>
-      <c r="AAV30" s="3"/>
-      <c r="AAW30" s="3"/>
-      <c r="AAX30" s="3"/>
-      <c r="AAY30" s="3"/>
-      <c r="AAZ30" s="3"/>
-      <c r="ABA30" s="3"/>
-      <c r="ABB30" s="3"/>
-      <c r="ABC30" s="3"/>
-      <c r="ABD30" s="3"/>
-      <c r="ABE30" s="3"/>
-      <c r="ABF30" s="3"/>
-      <c r="ABG30" s="3"/>
-      <c r="ABH30" s="3"/>
-      <c r="ABI30" s="3"/>
-      <c r="ABJ30" s="3"/>
-      <c r="ABK30" s="3"/>
-      <c r="ABL30" s="3"/>
-      <c r="ABM30" s="3"/>
-      <c r="ABN30" s="3"/>
-      <c r="ABO30" s="3"/>
-      <c r="ABP30" s="3"/>
-      <c r="ABQ30" s="3"/>
-      <c r="ABR30" s="3"/>
-      <c r="ABS30" s="3"/>
-      <c r="ABT30" s="3"/>
-      <c r="ABU30" s="3"/>
-      <c r="ABV30" s="3"/>
-      <c r="ABW30" s="3"/>
-      <c r="ABX30" s="3"/>
-      <c r="ABY30" s="3"/>
-      <c r="ABZ30" s="3"/>
-      <c r="ACA30" s="3"/>
-      <c r="ACB30" s="3"/>
-      <c r="ACC30" s="3"/>
-      <c r="ACD30" s="3"/>
-      <c r="ACE30" s="3"/>
-      <c r="ACF30" s="3"/>
-      <c r="ACG30" s="3"/>
-      <c r="ACH30" s="3"/>
-      <c r="ACI30" s="3"/>
-      <c r="ACJ30" s="3"/>
-      <c r="ACK30" s="3"/>
-      <c r="ACL30" s="3"/>
-      <c r="ACM30" s="3"/>
-      <c r="ACN30" s="3"/>
-      <c r="ACO30" s="3"/>
-      <c r="ACP30" s="3"/>
-      <c r="ACQ30" s="3"/>
-      <c r="ACR30" s="3"/>
-      <c r="ACS30" s="3"/>
-      <c r="ACT30" s="3"/>
-      <c r="ACU30" s="3"/>
-      <c r="ACV30" s="3"/>
-      <c r="ACW30" s="3"/>
-      <c r="ACX30" s="3"/>
-      <c r="ACY30" s="3"/>
-      <c r="ACZ30" s="3"/>
-      <c r="ADA30" s="3"/>
-      <c r="ADB30" s="3"/>
-      <c r="ADC30" s="3"/>
-      <c r="ADD30" s="3"/>
-      <c r="ADE30" s="3"/>
-      <c r="ADF30" s="3"/>
-      <c r="ADG30" s="3"/>
-      <c r="ADH30" s="3"/>
-      <c r="ADI30" s="3"/>
-      <c r="ADJ30" s="3"/>
-      <c r="ADK30" s="3"/>
-      <c r="ADL30" s="3"/>
-      <c r="ADM30" s="3"/>
-      <c r="ADN30" s="3"/>
-      <c r="ADO30" s="3"/>
-      <c r="ADP30" s="3"/>
-      <c r="ADQ30" s="3"/>
-      <c r="ADR30" s="3"/>
-      <c r="ADS30" s="3"/>
-      <c r="ADT30" s="3"/>
-      <c r="ADU30" s="3"/>
-      <c r="ADV30" s="3"/>
-      <c r="ADW30" s="3"/>
-      <c r="ADX30" s="3"/>
-      <c r="ADY30" s="3"/>
-      <c r="ADZ30" s="3"/>
-      <c r="AEA30" s="3"/>
-      <c r="AEB30" s="3"/>
-      <c r="AEC30" s="3"/>
-      <c r="AED30" s="3"/>
-      <c r="AEE30" s="3"/>
-      <c r="AEF30" s="3"/>
-      <c r="AEG30" s="3"/>
-      <c r="AEH30" s="3"/>
-      <c r="AEI30" s="3"/>
-      <c r="AEJ30" s="3"/>
-      <c r="AEK30" s="3"/>
-      <c r="AEL30" s="3"/>
-      <c r="AEM30" s="3"/>
-      <c r="AEN30" s="3"/>
-      <c r="AEO30" s="3"/>
-      <c r="AEP30" s="3"/>
-      <c r="AEQ30" s="3"/>
-      <c r="AER30" s="3"/>
-      <c r="AES30" s="3"/>
-      <c r="AET30" s="3"/>
-      <c r="AEU30" s="3"/>
-      <c r="AEV30" s="3"/>
-      <c r="AEW30" s="3"/>
-      <c r="AEX30" s="3"/>
-      <c r="AEY30" s="3"/>
-      <c r="AEZ30" s="3"/>
-      <c r="AFA30" s="3"/>
-      <c r="AFB30" s="3"/>
-      <c r="AFC30" s="3"/>
-      <c r="AFD30" s="3"/>
-      <c r="AFE30" s="3"/>
-      <c r="AFF30" s="3"/>
-      <c r="AFG30" s="3"/>
-      <c r="AFH30" s="3"/>
-      <c r="AFI30" s="3"/>
-      <c r="AFJ30" s="3"/>
-      <c r="AFK30" s="3"/>
-      <c r="AFL30" s="3"/>
-      <c r="AFM30" s="3"/>
-      <c r="AFN30" s="3"/>
-      <c r="AFO30" s="3"/>
-      <c r="AFP30" s="3"/>
-      <c r="AFQ30" s="3"/>
-      <c r="AFR30" s="3"/>
-      <c r="AFS30" s="3"/>
-      <c r="AFT30" s="3"/>
-      <c r="AFU30" s="3"/>
-      <c r="AFV30" s="3"/>
-      <c r="AFW30" s="3"/>
-      <c r="AFX30" s="3"/>
-      <c r="AFY30" s="3"/>
-      <c r="AFZ30" s="3"/>
-      <c r="AGA30" s="3"/>
-      <c r="AGB30" s="3"/>
-      <c r="AGC30" s="3"/>
-      <c r="AGD30" s="3"/>
-      <c r="AGE30" s="3"/>
-      <c r="AGF30" s="3"/>
-      <c r="AGG30" s="3"/>
-      <c r="AGH30" s="3"/>
-      <c r="AGI30" s="3"/>
-      <c r="AGJ30" s="3"/>
-      <c r="AGK30" s="3"/>
-      <c r="AGL30" s="3"/>
-      <c r="AGM30" s="3"/>
-      <c r="AGN30" s="3"/>
-      <c r="AGO30" s="3"/>
-      <c r="AGP30" s="3"/>
-      <c r="AGQ30" s="3"/>
-      <c r="AGR30" s="3"/>
-      <c r="AGS30" s="3"/>
-      <c r="AGT30" s="3"/>
-      <c r="AGU30" s="3"/>
-      <c r="AGV30" s="3"/>
-      <c r="AGW30" s="3"/>
-      <c r="AGX30" s="3"/>
-      <c r="AGY30" s="3"/>
-      <c r="AGZ30" s="3"/>
-      <c r="AHA30" s="3"/>
-      <c r="AHB30" s="3"/>
-      <c r="AHC30" s="3"/>
-      <c r="AHD30" s="3"/>
-      <c r="AHE30" s="3"/>
-      <c r="AHF30" s="3"/>
-      <c r="AHG30" s="3"/>
-      <c r="AHH30" s="3"/>
-      <c r="AHI30" s="3"/>
-      <c r="AHJ30" s="3"/>
-      <c r="AHK30" s="3"/>
-      <c r="AHL30" s="3"/>
-      <c r="AHM30" s="3"/>
-      <c r="AHN30" s="3"/>
-      <c r="AHO30" s="3"/>
-      <c r="AHP30" s="3"/>
-      <c r="AHQ30" s="3"/>
-      <c r="AHR30" s="3"/>
-      <c r="AHS30" s="3"/>
-      <c r="AHT30" s="3"/>
-      <c r="AHU30" s="3"/>
-      <c r="AHV30" s="3"/>
-      <c r="AHW30" s="3"/>
-      <c r="AHX30" s="3"/>
-      <c r="AHY30" s="3"/>
-      <c r="AHZ30" s="3"/>
-      <c r="AIA30" s="3"/>
-      <c r="AIB30" s="3"/>
-      <c r="AIC30" s="3"/>
-      <c r="AID30" s="3"/>
-      <c r="AIE30" s="3"/>
-      <c r="AIF30" s="3"/>
-      <c r="AIG30" s="3"/>
-      <c r="AIH30" s="3"/>
-      <c r="AII30" s="3"/>
-      <c r="AIJ30" s="3"/>
-      <c r="AIK30" s="3"/>
-      <c r="AIL30" s="3"/>
-      <c r="AIM30" s="3"/>
-      <c r="AIN30" s="3"/>
-      <c r="AIO30" s="3"/>
-      <c r="AIP30" s="3"/>
-      <c r="AIQ30" s="3"/>
-      <c r="AIR30" s="3"/>
-      <c r="AIS30" s="3"/>
-      <c r="AIT30" s="3"/>
-      <c r="AIU30" s="3"/>
-      <c r="AIV30" s="3"/>
-      <c r="AIW30" s="3"/>
-      <c r="AIX30" s="3"/>
-      <c r="AIY30" s="3"/>
-      <c r="AIZ30" s="3"/>
-      <c r="AJA30" s="3"/>
-      <c r="AJB30" s="3"/>
-      <c r="AJC30" s="3"/>
-      <c r="AJD30" s="3"/>
-      <c r="AJE30" s="3"/>
-      <c r="AJF30" s="3"/>
-      <c r="AJG30" s="3"/>
-      <c r="AJH30" s="3"/>
-      <c r="AJI30" s="3"/>
-      <c r="AJJ30" s="3"/>
-      <c r="AJK30" s="3"/>
-      <c r="AJL30" s="3"/>
-      <c r="AJM30" s="3"/>
-      <c r="AJN30" s="3"/>
-      <c r="AJO30" s="3"/>
-      <c r="AJP30" s="3"/>
-      <c r="AJQ30" s="3"/>
-      <c r="AJR30" s="3"/>
-      <c r="AJS30" s="3"/>
-      <c r="AJT30" s="3"/>
-      <c r="AJU30" s="3"/>
-      <c r="AJV30" s="3"/>
-      <c r="AJW30" s="3"/>
-      <c r="AJX30" s="3"/>
-      <c r="AJY30" s="3"/>
-      <c r="AJZ30" s="3"/>
-      <c r="AKA30" s="3"/>
-      <c r="AKB30" s="3"/>
-      <c r="AKC30" s="3"/>
-      <c r="AKD30" s="3"/>
-      <c r="AKE30" s="3"/>
-      <c r="AKF30" s="3"/>
-      <c r="AKG30" s="3"/>
-      <c r="AKH30" s="3"/>
-      <c r="AKI30" s="3"/>
-      <c r="AKJ30" s="3"/>
-      <c r="AKK30" s="3"/>
-      <c r="AKL30" s="3"/>
-      <c r="AKM30" s="3"/>
-      <c r="AKN30" s="3"/>
-      <c r="AKO30" s="3"/>
-      <c r="AKP30" s="3"/>
-      <c r="AKQ30" s="3"/>
-      <c r="AKR30" s="3"/>
-      <c r="AKS30" s="3"/>
-      <c r="AKT30" s="3"/>
-      <c r="AKU30" s="3"/>
-      <c r="AKV30" s="3"/>
-      <c r="AKW30" s="3"/>
-      <c r="AKX30" s="3"/>
-      <c r="AKY30" s="3"/>
-      <c r="AKZ30" s="3"/>
-      <c r="ALA30" s="3"/>
-      <c r="ALB30" s="3"/>
-      <c r="ALC30" s="3"/>
-      <c r="ALD30" s="3"/>
-      <c r="ALE30" s="3"/>
-      <c r="ALF30" s="3"/>
-      <c r="ALG30" s="3"/>
-      <c r="ALH30" s="3"/>
-      <c r="ALI30" s="3"/>
-      <c r="ALJ30" s="3"/>
-      <c r="ALK30" s="3"/>
-      <c r="ALL30" s="3"/>
-      <c r="ALM30" s="3"/>
-      <c r="ALN30" s="3"/>
-      <c r="ALO30" s="3"/>
-      <c r="ALP30" s="3"/>
-      <c r="ALQ30" s="3"/>
-      <c r="ALR30" s="3"/>
-      <c r="ALS30" s="3"/>
-      <c r="ALT30" s="3"/>
-      <c r="ALU30" s="3"/>
-      <c r="ALV30" s="3"/>
-      <c r="ALW30" s="3"/>
-      <c r="ALX30" s="3"/>
-      <c r="ALY30" s="3"/>
-      <c r="ALZ30" s="3"/>
-      <c r="AMA30" s="3"/>
-      <c r="AMB30" s="3"/>
-      <c r="AMC30" s="3"/>
-      <c r="AMD30" s="3"/>
-      <c r="AME30" s="3"/>
-      <c r="AMF30" s="3"/>
-      <c r="AMG30" s="3"/>
-      <c r="AMH30" s="3"/>
-      <c r="AMI30" s="3"/>
-      <c r="AMJ30" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="C30" s="16"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="C31" s="16"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12828,9 +12732,8 @@
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="16"/>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="16"/>
-    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A6" r:id="rId1" display="db:person"/>
@@ -12852,7 +12755,7 @@
   </sheetPr>
   <dimension ref="A1:BC21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A31" activeCellId="0" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -13157,7 +13060,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="109" zoomScaleNormal="109" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="79" zoomScaleNormal="79" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -13210,7 +13113,7 @@
       </c>
       <c r="C2" s="21" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-05-13  12-45</v>
+        <v>2024-07-08  13-46</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>111</v>
